--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Albacete Balompié</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['42', '45+3']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7481362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45519.64583333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>2.6</v>
+      </c>
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>1.5</v>
+      </c>
+      <c r="U2">
+        <v>2.5</v>
+      </c>
+      <c r="V2">
+        <v>3.4</v>
+      </c>
+      <c r="W2">
+        <v>1.3</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>1.06</v>
+      </c>
+      <c r="Z2">
+        <v>1.79</v>
+      </c>
+      <c r="AA2">
+        <v>3.17</v>
+      </c>
+      <c r="AB2">
+        <v>3.92</v>
+      </c>
+      <c r="AC2">
+        <v>1.08</v>
+      </c>
+      <c r="AD2">
+        <v>7.5</v>
+      </c>
+      <c r="AE2">
+        <v>1.4</v>
+      </c>
+      <c r="AF2">
+        <v>2.8</v>
+      </c>
+      <c r="AG2">
+        <v>2.2</v>
+      </c>
+      <c r="AH2">
+        <v>1.55</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>1.73</v>
+      </c>
+      <c r="AK2">
+        <v>1.16</v>
+      </c>
+      <c r="AL2">
+        <v>1.25</v>
+      </c>
+      <c r="AM2">
+        <v>1.9</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>10</v>
+      </c>
+      <c r="AV2">
+        <v>4</v>
+      </c>
+      <c r="AW2">
+        <v>10</v>
+      </c>
+      <c r="AX2">
+        <v>2</v>
+      </c>
+      <c r="AY2">
+        <v>20</v>
+      </c>
+      <c r="AZ2">
+        <v>6</v>
+      </c>
+      <c r="BA2">
+        <v>9</v>
+      </c>
+      <c r="BB2">
+        <v>5</v>
+      </c>
+      <c r="BC2">
+        <v>14</v>
+      </c>
+      <c r="BD2">
+        <v>1.69</v>
+      </c>
+      <c r="BE2">
+        <v>8</v>
+      </c>
+      <c r="BF2">
+        <v>2.65</v>
+      </c>
+      <c r="BG2">
+        <v>1.31</v>
+      </c>
+      <c r="BH2">
+        <v>3.15</v>
+      </c>
+      <c r="BI2">
+        <v>1.59</v>
+      </c>
+      <c r="BJ2">
+        <v>2.22</v>
+      </c>
+      <c r="BK2">
+        <v>2.05</v>
+      </c>
+      <c r="BL2">
+        <v>1.7</v>
+      </c>
+      <c r="BM2">
+        <v>2.75</v>
+      </c>
+      <c r="BN2">
+        <v>1.4</v>
+      </c>
+      <c r="BO2">
+        <v>3.6</v>
+      </c>
+      <c r="BP2">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,34 @@
     <t>Granada CF</t>
   </si>
   <si>
+    <t>Mirandés</t>
+  </si>
+  <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
     <t>Albacete Balompié</t>
   </si>
   <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Real Zaragoza</t>
+  </si>
+  <si>
     <t>['29']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
+  </si>
+  <si>
+    <t>['14', '43', '84', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +853,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -853,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1013,6 +1034,418 @@
       </c>
       <c r="BP2">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7481365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45520.58333333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3">
+        <v>3.5</v>
+      </c>
+      <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>3.5</v>
+      </c>
+      <c r="T3">
+        <v>1.53</v>
+      </c>
+      <c r="U3">
+        <v>2.38</v>
+      </c>
+      <c r="V3">
+        <v>3.5</v>
+      </c>
+      <c r="W3">
+        <v>1.29</v>
+      </c>
+      <c r="X3">
+        <v>11</v>
+      </c>
+      <c r="Y3">
+        <v>1.05</v>
+      </c>
+      <c r="Z3">
+        <v>2.4</v>
+      </c>
+      <c r="AA3">
+        <v>3.1</v>
+      </c>
+      <c r="AB3">
+        <v>2.9</v>
+      </c>
+      <c r="AC3">
+        <v>1.09</v>
+      </c>
+      <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>1.45</v>
+      </c>
+      <c r="AF3">
+        <v>2.65</v>
+      </c>
+      <c r="AG3">
+        <v>2.38</v>
+      </c>
+      <c r="AH3">
+        <v>1.52</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <v>1.73</v>
+      </c>
+      <c r="AK3">
+        <v>1.45</v>
+      </c>
+      <c r="AL3">
+        <v>1.3</v>
+      </c>
+      <c r="AM3">
+        <v>1.45</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AV3">
+        <v>7</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>7</v>
+      </c>
+      <c r="AY3">
+        <v>3</v>
+      </c>
+      <c r="AZ3">
+        <v>14</v>
+      </c>
+      <c r="BA3">
+        <v>2</v>
+      </c>
+      <c r="BB3">
+        <v>9</v>
+      </c>
+      <c r="BC3">
+        <v>11</v>
+      </c>
+      <c r="BD3">
+        <v>1.95</v>
+      </c>
+      <c r="BE3">
+        <v>7.5</v>
+      </c>
+      <c r="BF3">
+        <v>2.1</v>
+      </c>
+      <c r="BG3">
+        <v>1.39</v>
+      </c>
+      <c r="BH3">
+        <v>2.76</v>
+      </c>
+      <c r="BI3">
+        <v>1.73</v>
+      </c>
+      <c r="BJ3">
+        <v>2</v>
+      </c>
+      <c r="BK3">
+        <v>2.19</v>
+      </c>
+      <c r="BL3">
+        <v>1.6</v>
+      </c>
+      <c r="BM3">
+        <v>2.93</v>
+      </c>
+      <c r="BN3">
+        <v>1.33</v>
+      </c>
+      <c r="BO3">
+        <v>4.15</v>
+      </c>
+      <c r="BP3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7481357</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45520.6875</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4">
+        <v>2.75</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>1.57</v>
+      </c>
+      <c r="U4">
+        <v>2.25</v>
+      </c>
+      <c r="V4">
+        <v>3.75</v>
+      </c>
+      <c r="W4">
+        <v>1.25</v>
+      </c>
+      <c r="X4">
+        <v>13</v>
+      </c>
+      <c r="Y4">
+        <v>1.04</v>
+      </c>
+      <c r="Z4">
+        <v>1.8</v>
+      </c>
+      <c r="AA4">
+        <v>3.25</v>
+      </c>
+      <c r="AB4">
+        <v>4.5</v>
+      </c>
+      <c r="AC4">
+        <v>1.1</v>
+      </c>
+      <c r="AD4">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>1.57</v>
+      </c>
+      <c r="AF4">
+        <v>2.25</v>
+      </c>
+      <c r="AG4">
+        <v>2.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.47</v>
+      </c>
+      <c r="AI4">
+        <v>2.25</v>
+      </c>
+      <c r="AJ4">
+        <v>1.57</v>
+      </c>
+      <c r="AK4">
+        <v>1.17</v>
+      </c>
+      <c r="AL4">
+        <v>1.28</v>
+      </c>
+      <c r="AM4">
+        <v>1.83</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>4</v>
+      </c>
+      <c r="AV4">
+        <v>9</v>
+      </c>
+      <c r="AW4">
+        <v>6</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>10</v>
+      </c>
+      <c r="AZ4">
+        <v>12</v>
+      </c>
+      <c r="BA4">
+        <v>6</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>6</v>
+      </c>
+      <c r="BD4">
+        <v>1.51</v>
+      </c>
+      <c r="BE4">
+        <v>8.5</v>
+      </c>
+      <c r="BF4">
+        <v>3.24</v>
+      </c>
+      <c r="BG4">
+        <v>1.36</v>
+      </c>
+      <c r="BH4">
+        <v>2.8</v>
+      </c>
+      <c r="BI4">
+        <v>1.7</v>
+      </c>
+      <c r="BJ4">
+        <v>2.05</v>
+      </c>
+      <c r="BK4">
+        <v>2.1</v>
+      </c>
+      <c r="BL4">
+        <v>1.62</v>
+      </c>
+      <c r="BM4">
+        <v>2.8</v>
+      </c>
+      <c r="BN4">
+        <v>1.36</v>
+      </c>
+      <c r="BO4">
+        <v>3.9</v>
+      </c>
+      <c r="BP4">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,6 +235,15 @@
     <t>Cádiz</t>
   </si>
   <si>
+    <t>SD Eibar</t>
+  </si>
+  <si>
+    <t>Racing Club de Ferrol</t>
+  </si>
+  <si>
+    <t>Deportivo La Coruña</t>
+  </si>
+  <si>
     <t>Albacete Balompié</t>
   </si>
   <si>
@@ -244,6 +253,15 @@
     <t>Real Zaragoza</t>
   </si>
   <si>
+    <t>CD Castellón</t>
+  </si>
+  <si>
+    <t>Málaga CF</t>
+  </si>
+  <si>
+    <t>Real Oviedo</t>
+  </si>
+  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -253,10 +271,22 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['69', '82']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
     <t>['14', '43', '84', '90+1']</t>
+  </si>
+  <si>
+    <t>['45', '79']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -618,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -853,7 +883,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -874,10 +904,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1059,7 +1089,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1080,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1265,7 +1295,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1286,10 +1316,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1446,6 +1476,624 @@
       </c>
       <c r="BP4">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7481364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45521.5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5">
+        <v>2.38</v>
+      </c>
+      <c r="R5">
+        <v>2.1</v>
+      </c>
+      <c r="S5">
+        <v>5.5</v>
+      </c>
+      <c r="T5">
+        <v>1.44</v>
+      </c>
+      <c r="U5">
+        <v>2.63</v>
+      </c>
+      <c r="V5">
+        <v>3.25</v>
+      </c>
+      <c r="W5">
+        <v>1.33</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>1.07</v>
+      </c>
+      <c r="Z5">
+        <v>1.6</v>
+      </c>
+      <c r="AA5">
+        <v>3.4</v>
+      </c>
+      <c r="AB5">
+        <v>5.25</v>
+      </c>
+      <c r="AC5">
+        <v>1.03</v>
+      </c>
+      <c r="AD5">
+        <v>7.9</v>
+      </c>
+      <c r="AE5">
+        <v>1.32</v>
+      </c>
+      <c r="AF5">
+        <v>2.98</v>
+      </c>
+      <c r="AG5">
+        <v>2.05</v>
+      </c>
+      <c r="AH5">
+        <v>1.61</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.73</v>
+      </c>
+      <c r="AK5">
+        <v>1.18</v>
+      </c>
+      <c r="AL5">
+        <v>1.3</v>
+      </c>
+      <c r="AM5">
+        <v>2.06</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>4</v>
+      </c>
+      <c r="AV5">
+        <v>5</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>6</v>
+      </c>
+      <c r="AZ5">
+        <v>9</v>
+      </c>
+      <c r="BA5">
+        <v>3</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>6</v>
+      </c>
+      <c r="BD5">
+        <v>1.41</v>
+      </c>
+      <c r="BE5">
+        <v>9</v>
+      </c>
+      <c r="BF5">
+        <v>3.58</v>
+      </c>
+      <c r="BG5">
+        <v>1.32</v>
+      </c>
+      <c r="BH5">
+        <v>2.95</v>
+      </c>
+      <c r="BI5">
+        <v>1.58</v>
+      </c>
+      <c r="BJ5">
+        <v>2.16</v>
+      </c>
+      <c r="BK5">
+        <v>2</v>
+      </c>
+      <c r="BL5">
+        <v>1.73</v>
+      </c>
+      <c r="BM5">
+        <v>2.63</v>
+      </c>
+      <c r="BN5">
+        <v>1.41</v>
+      </c>
+      <c r="BO5">
+        <v>3.6</v>
+      </c>
+      <c r="BP5">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7481361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45521.5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6">
+        <v>3.1</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>1.53</v>
+      </c>
+      <c r="U6">
+        <v>2.38</v>
+      </c>
+      <c r="V6">
+        <v>3.75</v>
+      </c>
+      <c r="W6">
+        <v>1.25</v>
+      </c>
+      <c r="X6">
+        <v>11</v>
+      </c>
+      <c r="Y6">
+        <v>1.05</v>
+      </c>
+      <c r="Z6">
+        <v>1.85</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>1.1</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+      <c r="AE6">
+        <v>1.49</v>
+      </c>
+      <c r="AF6">
+        <v>2.43</v>
+      </c>
+      <c r="AG6">
+        <v>2.37</v>
+      </c>
+      <c r="AH6">
+        <v>1.48</v>
+      </c>
+      <c r="AI6">
+        <v>2.1</v>
+      </c>
+      <c r="AJ6">
+        <v>1.67</v>
+      </c>
+      <c r="AK6">
+        <v>1.3</v>
+      </c>
+      <c r="AL6">
+        <v>1.3</v>
+      </c>
+      <c r="AM6">
+        <v>1.62</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>6</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>10</v>
+      </c>
+      <c r="AZ6">
+        <v>8</v>
+      </c>
+      <c r="BA6">
+        <v>3</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BC6">
+        <v>6</v>
+      </c>
+      <c r="BD6">
+        <v>1.75</v>
+      </c>
+      <c r="BE6">
+        <v>7.5</v>
+      </c>
+      <c r="BF6">
+        <v>2.53</v>
+      </c>
+      <c r="BG6">
+        <v>1.36</v>
+      </c>
+      <c r="BH6">
+        <v>2.8</v>
+      </c>
+      <c r="BI6">
+        <v>1.7</v>
+      </c>
+      <c r="BJ6">
+        <v>2.05</v>
+      </c>
+      <c r="BK6">
+        <v>2.1</v>
+      </c>
+      <c r="BL6">
+        <v>1.62</v>
+      </c>
+      <c r="BM6">
+        <v>2.8</v>
+      </c>
+      <c r="BN6">
+        <v>1.36</v>
+      </c>
+      <c r="BO6">
+        <v>3.9</v>
+      </c>
+      <c r="BP6">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7481358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45521.58333333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7">
+        <v>3.2</v>
+      </c>
+      <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>1.53</v>
+      </c>
+      <c r="U7">
+        <v>2.38</v>
+      </c>
+      <c r="V7">
+        <v>3.5</v>
+      </c>
+      <c r="W7">
+        <v>1.29</v>
+      </c>
+      <c r="X7">
+        <v>11</v>
+      </c>
+      <c r="Y7">
+        <v>1.05</v>
+      </c>
+      <c r="Z7">
+        <v>2.6</v>
+      </c>
+      <c r="AA7">
+        <v>2.95</v>
+      </c>
+      <c r="AB7">
+        <v>2.75</v>
+      </c>
+      <c r="AC7">
+        <v>1.06</v>
+      </c>
+      <c r="AD7">
+        <v>7</v>
+      </c>
+      <c r="AE7">
+        <v>1.44</v>
+      </c>
+      <c r="AF7">
+        <v>2.7</v>
+      </c>
+      <c r="AG7">
+        <v>2.38</v>
+      </c>
+      <c r="AH7">
+        <v>1.52</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>1.73</v>
+      </c>
+      <c r="AK7">
+        <v>1.36</v>
+      </c>
+      <c r="AL7">
+        <v>1.3</v>
+      </c>
+      <c r="AM7">
+        <v>1.53</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>8</v>
+      </c>
+      <c r="AV7">
+        <v>5</v>
+      </c>
+      <c r="AW7">
+        <v>4</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>12</v>
+      </c>
+      <c r="AZ7">
+        <v>6</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>8</v>
+      </c>
+      <c r="BD7">
+        <v>1.82</v>
+      </c>
+      <c r="BE7">
+        <v>7.5</v>
+      </c>
+      <c r="BF7">
+        <v>2.42</v>
+      </c>
+      <c r="BG7">
+        <v>1.34</v>
+      </c>
+      <c r="BH7">
+        <v>2.88</v>
+      </c>
+      <c r="BI7">
+        <v>1.62</v>
+      </c>
+      <c r="BJ7">
+        <v>2.1</v>
+      </c>
+      <c r="BK7">
+        <v>2.05</v>
+      </c>
+      <c r="BL7">
+        <v>1.7</v>
+      </c>
+      <c r="BM7">
+        <v>2.7</v>
+      </c>
+      <c r="BN7">
+        <v>1.38</v>
+      </c>
+      <c r="BO7">
+        <v>3.75</v>
+      </c>
+      <c r="BP7">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,6 +244,18 @@
     <t>Deportivo La Coruña</t>
   </si>
   <si>
+    <t>Sporting Gijón</t>
+  </si>
+  <si>
+    <t>Racing Santander</t>
+  </si>
+  <si>
+    <t>Burgos CF</t>
+  </si>
+  <si>
+    <t>Elche CF</t>
+  </si>
+  <si>
     <t>Albacete Balompié</t>
   </si>
   <si>
@@ -262,6 +274,18 @@
     <t>Real Oviedo</t>
   </si>
   <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Almería</t>
+  </si>
+  <si>
+    <t>FC Cartagena</t>
+  </si>
+  <si>
+    <t>SD Huesca</t>
+  </si>
+  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -277,6 +301,15 @@
     <t>['69', '82']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['7', '31']</t>
+  </si>
+  <si>
+    <t>['25', '40', '90+3']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -287,6 +320,18 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['14', '42']</t>
+  </si>
+  <si>
+    <t>['65', '71']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -648,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,7 +928,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -904,10 +949,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1089,7 +1134,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1110,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1295,7 +1340,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1316,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1501,7 +1546,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1522,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q5">
         <v>2.38</v>
@@ -1707,7 +1752,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1728,10 +1773,10 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1913,7 +1958,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1934,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2094,6 +2139,830 @@
       </c>
       <c r="BP7">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7481366</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45522.5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8">
+        <v>2.75</v>
+      </c>
+      <c r="R8">
+        <v>1.91</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>1.57</v>
+      </c>
+      <c r="U8">
+        <v>2.25</v>
+      </c>
+      <c r="V8">
+        <v>3.75</v>
+      </c>
+      <c r="W8">
+        <v>1.25</v>
+      </c>
+      <c r="X8">
+        <v>13</v>
+      </c>
+      <c r="Y8">
+        <v>1.04</v>
+      </c>
+      <c r="Z8">
+        <v>1.9</v>
+      </c>
+      <c r="AA8">
+        <v>2.98</v>
+      </c>
+      <c r="AB8">
+        <v>3.73</v>
+      </c>
+      <c r="AC8">
+        <v>1.1</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>1.53</v>
+      </c>
+      <c r="AF8">
+        <v>2.38</v>
+      </c>
+      <c r="AG8">
+        <v>2.4</v>
+      </c>
+      <c r="AH8">
+        <v>1.53</v>
+      </c>
+      <c r="AI8">
+        <v>2.25</v>
+      </c>
+      <c r="AJ8">
+        <v>1.57</v>
+      </c>
+      <c r="AK8">
+        <v>1.22</v>
+      </c>
+      <c r="AL8">
+        <v>1.28</v>
+      </c>
+      <c r="AM8">
+        <v>1.8</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <v>6</v>
+      </c>
+      <c r="AW8">
+        <v>6</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>8</v>
+      </c>
+      <c r="AZ8">
+        <v>7</v>
+      </c>
+      <c r="BA8">
+        <v>7</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>8</v>
+      </c>
+      <c r="BD8">
+        <v>1.64</v>
+      </c>
+      <c r="BE8">
+        <v>8</v>
+      </c>
+      <c r="BF8">
+        <v>2.77</v>
+      </c>
+      <c r="BG8">
+        <v>1.29</v>
+      </c>
+      <c r="BH8">
+        <v>3.15</v>
+      </c>
+      <c r="BI8">
+        <v>1.53</v>
+      </c>
+      <c r="BJ8">
+        <v>2.28</v>
+      </c>
+      <c r="BK8">
+        <v>1.98</v>
+      </c>
+      <c r="BL8">
+        <v>1.82</v>
+      </c>
+      <c r="BM8">
+        <v>2.48</v>
+      </c>
+      <c r="BN8">
+        <v>1.45</v>
+      </c>
+      <c r="BO8">
+        <v>3.35</v>
+      </c>
+      <c r="BP8">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7481363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45522.5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9">
+        <v>3.4</v>
+      </c>
+      <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>3.5</v>
+      </c>
+      <c r="T9">
+        <v>1.5</v>
+      </c>
+      <c r="U9">
+        <v>2.5</v>
+      </c>
+      <c r="V9">
+        <v>3.4</v>
+      </c>
+      <c r="W9">
+        <v>1.3</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>1.06</v>
+      </c>
+      <c r="Z9">
+        <v>2.09</v>
+      </c>
+      <c r="AA9">
+        <v>3.07</v>
+      </c>
+      <c r="AB9">
+        <v>3.07</v>
+      </c>
+      <c r="AC9">
+        <v>1.04</v>
+      </c>
+      <c r="AD9">
+        <v>7.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.35</v>
+      </c>
+      <c r="AF9">
+        <v>2.84</v>
+      </c>
+      <c r="AG9">
+        <v>2.1</v>
+      </c>
+      <c r="AH9">
+        <v>1.7</v>
+      </c>
+      <c r="AI9">
+        <v>1.83</v>
+      </c>
+      <c r="AJ9">
+        <v>1.83</v>
+      </c>
+      <c r="AK9">
+        <v>1.45</v>
+      </c>
+      <c r="AL9">
+        <v>1.28</v>
+      </c>
+      <c r="AM9">
+        <v>1.47</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>6</v>
+      </c>
+      <c r="AV9">
+        <v>9</v>
+      </c>
+      <c r="AW9">
+        <v>4</v>
+      </c>
+      <c r="AX9">
+        <v>10</v>
+      </c>
+      <c r="AY9">
+        <v>10</v>
+      </c>
+      <c r="AZ9">
+        <v>19</v>
+      </c>
+      <c r="BA9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
+        <v>7</v>
+      </c>
+      <c r="BC9">
+        <v>12</v>
+      </c>
+      <c r="BD9">
+        <v>1.75</v>
+      </c>
+      <c r="BE9">
+        <v>8</v>
+      </c>
+      <c r="BF9">
+        <v>2.44</v>
+      </c>
+      <c r="BG9">
+        <v>1.25</v>
+      </c>
+      <c r="BH9">
+        <v>3.4</v>
+      </c>
+      <c r="BI9">
+        <v>1.47</v>
+      </c>
+      <c r="BJ9">
+        <v>2.43</v>
+      </c>
+      <c r="BK9">
+        <v>1.85</v>
+      </c>
+      <c r="BL9">
+        <v>1.95</v>
+      </c>
+      <c r="BM9">
+        <v>2.32</v>
+      </c>
+      <c r="BN9">
+        <v>1.5</v>
+      </c>
+      <c r="BO9">
+        <v>3.1</v>
+      </c>
+      <c r="BP9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7481356</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45522.60416666666</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10">
+        <v>2.75</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>1.53</v>
+      </c>
+      <c r="U10">
+        <v>2.38</v>
+      </c>
+      <c r="V10">
+        <v>3.75</v>
+      </c>
+      <c r="W10">
+        <v>1.25</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>1.05</v>
+      </c>
+      <c r="Z10">
+        <v>1.86</v>
+      </c>
+      <c r="AA10">
+        <v>2.98</v>
+      </c>
+      <c r="AB10">
+        <v>3.92</v>
+      </c>
+      <c r="AC10">
+        <v>1.07</v>
+      </c>
+      <c r="AD10">
+        <v>6.35</v>
+      </c>
+      <c r="AE10">
+        <v>1.44</v>
+      </c>
+      <c r="AF10">
+        <v>2.5</v>
+      </c>
+      <c r="AG10">
+        <v>2.4</v>
+      </c>
+      <c r="AH10">
+        <v>1.53</v>
+      </c>
+      <c r="AI10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ10">
+        <v>1.62</v>
+      </c>
+      <c r="AK10">
+        <v>1.22</v>
+      </c>
+      <c r="AL10">
+        <v>1.28</v>
+      </c>
+      <c r="AM10">
+        <v>1.83</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>7</v>
+      </c>
+      <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>4</v>
+      </c>
+      <c r="AX10">
+        <v>5</v>
+      </c>
+      <c r="AY10">
+        <v>11</v>
+      </c>
+      <c r="AZ10">
+        <v>9</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>5</v>
+      </c>
+      <c r="BC10">
+        <v>10</v>
+      </c>
+      <c r="BD10">
+        <v>1.55</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>2.92</v>
+      </c>
+      <c r="BG10">
+        <v>1.32</v>
+      </c>
+      <c r="BH10">
+        <v>2.95</v>
+      </c>
+      <c r="BI10">
+        <v>1.58</v>
+      </c>
+      <c r="BJ10">
+        <v>2.16</v>
+      </c>
+      <c r="BK10">
+        <v>2</v>
+      </c>
+      <c r="BL10">
+        <v>1.73</v>
+      </c>
+      <c r="BM10">
+        <v>2.63</v>
+      </c>
+      <c r="BN10">
+        <v>1.41</v>
+      </c>
+      <c r="BO10">
+        <v>3.6</v>
+      </c>
+      <c r="BP10">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7481359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45522.60416666666</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11">
+        <v>2.88</v>
+      </c>
+      <c r="R11">
+        <v>1.91</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>1.62</v>
+      </c>
+      <c r="U11">
+        <v>2.2</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>1.22</v>
+      </c>
+      <c r="X11">
+        <v>13</v>
+      </c>
+      <c r="Y11">
+        <v>1.04</v>
+      </c>
+      <c r="Z11">
+        <v>1.99</v>
+      </c>
+      <c r="AA11">
+        <v>2.89</v>
+      </c>
+      <c r="AB11">
+        <v>3.55</v>
+      </c>
+      <c r="AC11">
+        <v>1.09</v>
+      </c>
+      <c r="AD11">
+        <v>5.7</v>
+      </c>
+      <c r="AE11">
+        <v>1.48</v>
+      </c>
+      <c r="AF11">
+        <v>2.45</v>
+      </c>
+      <c r="AG11">
+        <v>2.5</v>
+      </c>
+      <c r="AH11">
+        <v>1.5</v>
+      </c>
+      <c r="AI11">
+        <v>2.38</v>
+      </c>
+      <c r="AJ11">
+        <v>1.53</v>
+      </c>
+      <c r="AK11">
+        <v>1.2</v>
+      </c>
+      <c r="AL11">
+        <v>1.36</v>
+      </c>
+      <c r="AM11">
+        <v>1.75</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>4</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>6</v>
+      </c>
+      <c r="BA11">
+        <v>3</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>4</v>
+      </c>
+      <c r="BD11">
+        <v>1.45</v>
+      </c>
+      <c r="BE11">
+        <v>8.5</v>
+      </c>
+      <c r="BF11">
+        <v>3.33</v>
+      </c>
+      <c r="BG11">
+        <v>1.3</v>
+      </c>
+      <c r="BH11">
+        <v>3.05</v>
+      </c>
+      <c r="BI11">
+        <v>1.56</v>
+      </c>
+      <c r="BJ11">
+        <v>2.2</v>
+      </c>
+      <c r="BK11">
+        <v>2</v>
+      </c>
+      <c r="BL11">
+        <v>1.8</v>
+      </c>
+      <c r="BM11">
+        <v>2.55</v>
+      </c>
+      <c r="BN11">
+        <v>1.42</v>
+      </c>
+      <c r="BO11">
+        <v>3.5</v>
+      </c>
+      <c r="BP11">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,6 +256,9 @@
     <t>Elche CF</t>
   </si>
   <si>
+    <t>CD Eldense</t>
+  </si>
+  <si>
     <t>Albacete Balompié</t>
   </si>
   <si>
@@ -286,6 +289,9 @@
     <t>SD Huesca</t>
   </si>
   <si>
+    <t>CD Tenerife</t>
+  </si>
+  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>['25', '40', '90+3']</t>
   </si>
   <si>
+    <t>['54', '79']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -332,6 +341,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +940,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -949,10 +961,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1134,7 +1146,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1155,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1340,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1361,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1546,7 +1558,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1567,10 +1579,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>2.38</v>
@@ -1752,7 +1764,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1773,10 +1785,10 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1958,7 +1970,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1979,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2164,7 +2176,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2185,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2370,7 +2382,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2391,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2576,7 +2588,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2597,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2782,7 +2794,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2803,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2963,6 +2975,212 @@
       </c>
       <c r="BP11">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7481360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45523.64583333334</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12">
+        <v>3.25</v>
+      </c>
+      <c r="R12">
+        <v>1.91</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>1.57</v>
+      </c>
+      <c r="U12">
+        <v>2.25</v>
+      </c>
+      <c r="V12">
+        <v>3.75</v>
+      </c>
+      <c r="W12">
+        <v>1.25</v>
+      </c>
+      <c r="X12">
+        <v>13</v>
+      </c>
+      <c r="Y12">
+        <v>1.04</v>
+      </c>
+      <c r="Z12">
+        <v>2.39</v>
+      </c>
+      <c r="AA12">
+        <v>3.05</v>
+      </c>
+      <c r="AB12">
+        <v>3.3</v>
+      </c>
+      <c r="AC12">
+        <v>1.11</v>
+      </c>
+      <c r="AD12">
+        <v>6.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.48</v>
+      </c>
+      <c r="AF12">
+        <v>2.45</v>
+      </c>
+      <c r="AG12">
+        <v>2.35</v>
+      </c>
+      <c r="AH12">
+        <v>1.52</v>
+      </c>
+      <c r="AI12">
+        <v>2.2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.62</v>
+      </c>
+      <c r="AK12">
+        <v>1.35</v>
+      </c>
+      <c r="AL12">
+        <v>1.3</v>
+      </c>
+      <c r="AM12">
+        <v>1.53</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>5</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>6</v>
+      </c>
+      <c r="AX12">
+        <v>6</v>
+      </c>
+      <c r="AY12">
+        <v>11</v>
+      </c>
+      <c r="AZ12">
+        <v>12</v>
+      </c>
+      <c r="BA12">
+        <v>7</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>9</v>
+      </c>
+      <c r="BD12">
+        <v>1.59</v>
+      </c>
+      <c r="BE12">
+        <v>8</v>
+      </c>
+      <c r="BF12">
+        <v>2.9</v>
+      </c>
+      <c r="BG12">
+        <v>1.38</v>
+      </c>
+      <c r="BH12">
+        <v>2.85</v>
+      </c>
+      <c r="BI12">
+        <v>1.65</v>
+      </c>
+      <c r="BJ12">
+        <v>2.15</v>
+      </c>
+      <c r="BK12">
+        <v>2.05</v>
+      </c>
+      <c r="BL12">
+        <v>1.7</v>
+      </c>
+      <c r="BM12">
+        <v>2.65</v>
+      </c>
+      <c r="BN12">
+        <v>1.42</v>
+      </c>
+      <c r="BO12">
+        <v>3.6</v>
+      </c>
+      <c r="BP12">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,6 +259,9 @@
     <t>CD Eldense</t>
   </si>
   <si>
+    <t>SD Huesca</t>
+  </si>
+  <si>
     <t>Albacete Balompié</t>
   </si>
   <si>
@@ -286,9 +289,6 @@
     <t>FC Cartagena</t>
   </si>
   <si>
-    <t>SD Huesca</t>
-  </si>
-  <si>
     <t>CD Tenerife</t>
   </si>
   <si>
@@ -319,6 +319,12 @@
     <t>['54', '79']</t>
   </si>
   <si>
+    <t>['86', '90+2']</t>
+  </si>
+  <si>
+    <t>['39', '90+3']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -344,6 +350,12 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['27', '56']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,7 +952,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -964,7 +976,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1146,7 +1158,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1352,7 +1364,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1376,7 +1388,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1558,7 +1570,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1764,7 +1776,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1788,7 +1800,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1970,7 +1982,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1994,7 +2006,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2176,7 +2188,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2200,7 +2212,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2382,7 +2394,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2406,7 +2418,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2588,7 +2600,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2612,7 +2624,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2794,7 +2806,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2818,7 +2830,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3024,7 +3036,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3181,6 +3193,418 @@
       </c>
       <c r="BP12">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7481376</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45527.58333333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13">
+        <v>3.03</v>
+      </c>
+      <c r="R13">
+        <v>2.12</v>
+      </c>
+      <c r="S13">
+        <v>3.92</v>
+      </c>
+      <c r="T13">
+        <v>1.45</v>
+      </c>
+      <c r="U13">
+        <v>2.74</v>
+      </c>
+      <c r="V13">
+        <v>3.28</v>
+      </c>
+      <c r="W13">
+        <v>1.34</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <v>1.07</v>
+      </c>
+      <c r="Z13">
+        <v>2.11</v>
+      </c>
+      <c r="AA13">
+        <v>3.42</v>
+      </c>
+      <c r="AB13">
+        <v>3.1</v>
+      </c>
+      <c r="AC13">
+        <v>1.07</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13">
+        <v>1.36</v>
+      </c>
+      <c r="AF13">
+        <v>3.1</v>
+      </c>
+      <c r="AG13">
+        <v>1.8</v>
+      </c>
+      <c r="AH13">
+        <v>1.9</v>
+      </c>
+      <c r="AI13">
+        <v>1.75</v>
+      </c>
+      <c r="AJ13">
+        <v>1.93</v>
+      </c>
+      <c r="AK13">
+        <v>1.33</v>
+      </c>
+      <c r="AL13">
+        <v>1.4</v>
+      </c>
+      <c r="AM13">
+        <v>1.57</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1.32</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1.32</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>8</v>
+      </c>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+      <c r="AZ13">
+        <v>12</v>
+      </c>
+      <c r="BA13">
+        <v>7</v>
+      </c>
+      <c r="BB13">
+        <v>5</v>
+      </c>
+      <c r="BC13">
+        <v>12</v>
+      </c>
+      <c r="BD13">
+        <v>1.92</v>
+      </c>
+      <c r="BE13">
+        <v>6.6</v>
+      </c>
+      <c r="BF13">
+        <v>2.38</v>
+      </c>
+      <c r="BG13">
+        <v>1.25</v>
+      </c>
+      <c r="BH13">
+        <v>3.6</v>
+      </c>
+      <c r="BI13">
+        <v>1.48</v>
+      </c>
+      <c r="BJ13">
+        <v>2.5</v>
+      </c>
+      <c r="BK13">
+        <v>1.76</v>
+      </c>
+      <c r="BL13">
+        <v>2.02</v>
+      </c>
+      <c r="BM13">
+        <v>2.2</v>
+      </c>
+      <c r="BN13">
+        <v>1.64</v>
+      </c>
+      <c r="BO13">
+        <v>2.7</v>
+      </c>
+      <c r="BP13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7481375</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45527.6875</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>1.91</v>
+      </c>
+      <c r="S14">
+        <v>4.5</v>
+      </c>
+      <c r="T14">
+        <v>1.62</v>
+      </c>
+      <c r="U14">
+        <v>2.2</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>1.22</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>1.04</v>
+      </c>
+      <c r="Z14">
+        <v>2.11</v>
+      </c>
+      <c r="AA14">
+        <v>2.94</v>
+      </c>
+      <c r="AB14">
+        <v>3.62</v>
+      </c>
+      <c r="AC14">
+        <v>1.11</v>
+      </c>
+      <c r="AD14">
+        <v>6.25</v>
+      </c>
+      <c r="AE14">
+        <v>1.52</v>
+      </c>
+      <c r="AF14">
+        <v>2.35</v>
+      </c>
+      <c r="AG14">
+        <v>2.81</v>
+      </c>
+      <c r="AH14">
+        <v>1.38</v>
+      </c>
+      <c r="AI14">
+        <v>2.25</v>
+      </c>
+      <c r="AJ14">
+        <v>1.57</v>
+      </c>
+      <c r="AK14">
+        <v>1.25</v>
+      </c>
+      <c r="AL14">
+        <v>1.33</v>
+      </c>
+      <c r="AM14">
+        <v>1.67</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14">
+        <v>5</v>
+      </c>
+      <c r="AX14">
+        <v>6</v>
+      </c>
+      <c r="AY14">
+        <v>11</v>
+      </c>
+      <c r="AZ14">
+        <v>11</v>
+      </c>
+      <c r="BA14">
+        <v>3</v>
+      </c>
+      <c r="BB14">
+        <v>11</v>
+      </c>
+      <c r="BC14">
+        <v>14</v>
+      </c>
+      <c r="BD14">
+        <v>1.67</v>
+      </c>
+      <c r="BE14">
+        <v>7.5</v>
+      </c>
+      <c r="BF14">
+        <v>2.65</v>
+      </c>
+      <c r="BG14">
+        <v>1.47</v>
+      </c>
+      <c r="BH14">
+        <v>2.56</v>
+      </c>
+      <c r="BI14">
+        <v>1.8</v>
+      </c>
+      <c r="BJ14">
+        <v>1.91</v>
+      </c>
+      <c r="BK14">
+        <v>2.32</v>
+      </c>
+      <c r="BL14">
+        <v>1.57</v>
+      </c>
+      <c r="BM14">
+        <v>3</v>
+      </c>
+      <c r="BN14">
+        <v>1.33</v>
+      </c>
+      <c r="BO14">
+        <v>3.8</v>
+      </c>
+      <c r="BP14">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,6 +262,15 @@
     <t>SD Huesca</t>
   </si>
   <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Málaga CF</t>
+  </si>
+  <si>
+    <t>CD Tenerife</t>
+  </si>
+  <si>
     <t>Albacete Balompié</t>
   </si>
   <si>
@@ -274,24 +283,15 @@
     <t>CD Castellón</t>
   </si>
   <si>
-    <t>Málaga CF</t>
-  </si>
-  <si>
     <t>Real Oviedo</t>
   </si>
   <si>
-    <t>Levante UD</t>
-  </si>
-  <si>
     <t>Almería</t>
   </si>
   <si>
     <t>FC Cartagena</t>
   </si>
   <si>
-    <t>CD Tenerife</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -325,6 +325,12 @@
     <t>['39', '90+3']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -356,6 +362,18 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +970,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -976,7 +994,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1158,7 +1176,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1364,7 +1382,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1388,7 +1406,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1570,7 +1588,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1776,7 +1794,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1800,7 +1818,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1878,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -1982,7 +2000,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2006,7 +2024,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2188,7 +2206,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2212,7 +2230,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2290,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2394,7 +2412,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2418,7 +2436,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2499,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2600,7 +2618,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2624,7 +2642,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2830,7 +2848,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3012,7 +3030,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3036,7 +3054,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3242,7 +3260,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3448,7 +3466,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3605,6 +3623,1036 @@
       </c>
       <c r="BP14">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7481377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45528.5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15">
+        <v>2.5</v>
+      </c>
+      <c r="R15">
+        <v>2.05</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>1.5</v>
+      </c>
+      <c r="U15">
+        <v>2.5</v>
+      </c>
+      <c r="V15">
+        <v>3.4</v>
+      </c>
+      <c r="W15">
+        <v>1.3</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>1.06</v>
+      </c>
+      <c r="Z15">
+        <v>1.75</v>
+      </c>
+      <c r="AA15">
+        <v>3.51</v>
+      </c>
+      <c r="AB15">
+        <v>4.74</v>
+      </c>
+      <c r="AC15">
+        <v>1.08</v>
+      </c>
+      <c r="AD15">
+        <v>7.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.42</v>
+      </c>
+      <c r="AF15">
+        <v>2.8</v>
+      </c>
+      <c r="AG15">
+        <v>2.05</v>
+      </c>
+      <c r="AH15">
+        <v>1.67</v>
+      </c>
+      <c r="AI15">
+        <v>2.1</v>
+      </c>
+      <c r="AJ15">
+        <v>1.67</v>
+      </c>
+      <c r="AK15">
+        <v>1.18</v>
+      </c>
+      <c r="AL15">
+        <v>1.25</v>
+      </c>
+      <c r="AM15">
+        <v>1.95</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0.5</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1.13</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>1.13</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>5</v>
+      </c>
+      <c r="AW15">
+        <v>10</v>
+      </c>
+      <c r="AX15">
+        <v>7</v>
+      </c>
+      <c r="AY15">
+        <v>15</v>
+      </c>
+      <c r="AZ15">
+        <v>12</v>
+      </c>
+      <c r="BA15">
+        <v>6</v>
+      </c>
+      <c r="BB15">
+        <v>6</v>
+      </c>
+      <c r="BC15">
+        <v>12</v>
+      </c>
+      <c r="BD15">
+        <v>1.45</v>
+      </c>
+      <c r="BE15">
+        <v>8.5</v>
+      </c>
+      <c r="BF15">
+        <v>3.33</v>
+      </c>
+      <c r="BG15">
+        <v>1.28</v>
+      </c>
+      <c r="BH15">
+        <v>3.18</v>
+      </c>
+      <c r="BI15">
+        <v>1.55</v>
+      </c>
+      <c r="BJ15">
+        <v>2.29</v>
+      </c>
+      <c r="BK15">
+        <v>1.97</v>
+      </c>
+      <c r="BL15">
+        <v>1.78</v>
+      </c>
+      <c r="BM15">
+        <v>2.57</v>
+      </c>
+      <c r="BN15">
+        <v>1.44</v>
+      </c>
+      <c r="BO15">
+        <v>3.48</v>
+      </c>
+      <c r="BP15">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7481370</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45528.5</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16">
+        <v>3.75</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>3.25</v>
+      </c>
+      <c r="T16">
+        <v>1.5</v>
+      </c>
+      <c r="U16">
+        <v>2.5</v>
+      </c>
+      <c r="V16">
+        <v>3.5</v>
+      </c>
+      <c r="W16">
+        <v>1.29</v>
+      </c>
+      <c r="X16">
+        <v>11</v>
+      </c>
+      <c r="Y16">
+        <v>1.05</v>
+      </c>
+      <c r="Z16">
+        <v>2.57</v>
+      </c>
+      <c r="AA16">
+        <v>3.08</v>
+      </c>
+      <c r="AB16">
+        <v>2.89</v>
+      </c>
+      <c r="AC16">
+        <v>1.1</v>
+      </c>
+      <c r="AD16">
+        <v>6.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.48</v>
+      </c>
+      <c r="AF16">
+        <v>2.65</v>
+      </c>
+      <c r="AG16">
+        <v>2.13</v>
+      </c>
+      <c r="AH16">
+        <v>1.61</v>
+      </c>
+      <c r="AI16">
+        <v>1.91</v>
+      </c>
+      <c r="AJ16">
+        <v>1.8</v>
+      </c>
+      <c r="AK16">
+        <v>1.5</v>
+      </c>
+      <c r="AL16">
+        <v>1.33</v>
+      </c>
+      <c r="AM16">
+        <v>1.38</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>1.33</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>1.33</v>
+      </c>
+      <c r="AU16">
+        <v>3</v>
+      </c>
+      <c r="AV16">
+        <v>7</v>
+      </c>
+      <c r="AW16">
+        <v>10</v>
+      </c>
+      <c r="AX16">
+        <v>4</v>
+      </c>
+      <c r="AY16">
+        <v>13</v>
+      </c>
+      <c r="AZ16">
+        <v>11</v>
+      </c>
+      <c r="BA16">
+        <v>7</v>
+      </c>
+      <c r="BB16">
+        <v>7</v>
+      </c>
+      <c r="BC16">
+        <v>14</v>
+      </c>
+      <c r="BD16">
+        <v>2.05</v>
+      </c>
+      <c r="BE16">
+        <v>7.5</v>
+      </c>
+      <c r="BF16">
+        <v>2</v>
+      </c>
+      <c r="BG16">
+        <v>1.41</v>
+      </c>
+      <c r="BH16">
+        <v>2.78</v>
+      </c>
+      <c r="BI16">
+        <v>1.76</v>
+      </c>
+      <c r="BJ16">
+        <v>1.99</v>
+      </c>
+      <c r="BK16">
+        <v>2.34</v>
+      </c>
+      <c r="BL16">
+        <v>1.56</v>
+      </c>
+      <c r="BM16">
+        <v>3.32</v>
+      </c>
+      <c r="BN16">
+        <v>1.3</v>
+      </c>
+      <c r="BO16">
+        <v>4.5</v>
+      </c>
+      <c r="BP16">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7481374</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45528.58333333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17">
+        <v>2.88</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>4.33</v>
+      </c>
+      <c r="T17">
+        <v>1.5</v>
+      </c>
+      <c r="U17">
+        <v>2.5</v>
+      </c>
+      <c r="V17">
+        <v>3.4</v>
+      </c>
+      <c r="W17">
+        <v>1.3</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <v>1.06</v>
+      </c>
+      <c r="Z17">
+        <v>2.1</v>
+      </c>
+      <c r="AA17">
+        <v>3.2</v>
+      </c>
+      <c r="AB17">
+        <v>3.66</v>
+      </c>
+      <c r="AC17">
+        <v>1.09</v>
+      </c>
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>1.44</v>
+      </c>
+      <c r="AF17">
+        <v>2.75</v>
+      </c>
+      <c r="AG17">
+        <v>2.25</v>
+      </c>
+      <c r="AH17">
+        <v>1.62</v>
+      </c>
+      <c r="AI17">
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <v>1.73</v>
+      </c>
+      <c r="AK17">
+        <v>1.25</v>
+      </c>
+      <c r="AL17">
+        <v>1.3</v>
+      </c>
+      <c r="AM17">
+        <v>1.7</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>7</v>
+      </c>
+      <c r="AV17">
+        <v>8</v>
+      </c>
+      <c r="AW17">
+        <v>8</v>
+      </c>
+      <c r="AX17">
+        <v>6</v>
+      </c>
+      <c r="AY17">
+        <v>15</v>
+      </c>
+      <c r="AZ17">
+        <v>14</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>4</v>
+      </c>
+      <c r="BC17">
+        <v>10</v>
+      </c>
+      <c r="BD17">
+        <v>1.75</v>
+      </c>
+      <c r="BE17">
+        <v>7.5</v>
+      </c>
+      <c r="BF17">
+        <v>2.45</v>
+      </c>
+      <c r="BG17">
+        <v>1.34</v>
+      </c>
+      <c r="BH17">
+        <v>3.1</v>
+      </c>
+      <c r="BI17">
+        <v>1.64</v>
+      </c>
+      <c r="BJ17">
+        <v>2.18</v>
+      </c>
+      <c r="BK17">
+        <v>2.13</v>
+      </c>
+      <c r="BL17">
+        <v>1.67</v>
+      </c>
+      <c r="BM17">
+        <v>2.95</v>
+      </c>
+      <c r="BN17">
+        <v>1.37</v>
+      </c>
+      <c r="BO17">
+        <v>4.1</v>
+      </c>
+      <c r="BP17">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7481371</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45528.6875</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18">
+        <v>2.5</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>5.5</v>
+      </c>
+      <c r="T18">
+        <v>1.5</v>
+      </c>
+      <c r="U18">
+        <v>2.5</v>
+      </c>
+      <c r="V18">
+        <v>3.5</v>
+      </c>
+      <c r="W18">
+        <v>1.29</v>
+      </c>
+      <c r="X18">
+        <v>11</v>
+      </c>
+      <c r="Y18">
+        <v>1.05</v>
+      </c>
+      <c r="Z18">
+        <v>1.99</v>
+      </c>
+      <c r="AA18">
+        <v>3.18</v>
+      </c>
+      <c r="AB18">
+        <v>4.06</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>7.1</v>
+      </c>
+      <c r="AE18">
+        <v>1.41</v>
+      </c>
+      <c r="AF18">
+        <v>2.61</v>
+      </c>
+      <c r="AG18">
+        <v>2.3</v>
+      </c>
+      <c r="AH18">
+        <v>1.6</v>
+      </c>
+      <c r="AI18">
+        <v>2.2</v>
+      </c>
+      <c r="AJ18">
+        <v>1.62</v>
+      </c>
+      <c r="AK18">
+        <v>1.18</v>
+      </c>
+      <c r="AL18">
+        <v>1.31</v>
+      </c>
+      <c r="AM18">
+        <v>2.02</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>4</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>7</v>
+      </c>
+      <c r="BA18">
+        <v>2</v>
+      </c>
+      <c r="BB18">
+        <v>2</v>
+      </c>
+      <c r="BC18">
+        <v>4</v>
+      </c>
+      <c r="BD18">
+        <v>1.41</v>
+      </c>
+      <c r="BE18">
+        <v>9</v>
+      </c>
+      <c r="BF18">
+        <v>3.66</v>
+      </c>
+      <c r="BG18">
+        <v>1.3</v>
+      </c>
+      <c r="BH18">
+        <v>3.35</v>
+      </c>
+      <c r="BI18">
+        <v>1.57</v>
+      </c>
+      <c r="BJ18">
+        <v>2.31</v>
+      </c>
+      <c r="BK18">
+        <v>2.01</v>
+      </c>
+      <c r="BL18">
+        <v>1.75</v>
+      </c>
+      <c r="BM18">
+        <v>2.73</v>
+      </c>
+      <c r="BN18">
+        <v>1.42</v>
+      </c>
+      <c r="BO18">
+        <v>3.8</v>
+      </c>
+      <c r="BP18">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7481372</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45528.6875</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19">
+        <v>3.5</v>
+      </c>
+      <c r="R19">
+        <v>1.91</v>
+      </c>
+      <c r="S19">
+        <v>3.75</v>
+      </c>
+      <c r="T19">
+        <v>1.57</v>
+      </c>
+      <c r="U19">
+        <v>2.25</v>
+      </c>
+      <c r="V19">
+        <v>3.75</v>
+      </c>
+      <c r="W19">
+        <v>1.25</v>
+      </c>
+      <c r="X19">
+        <v>13</v>
+      </c>
+      <c r="Y19">
+        <v>1.04</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>2.89</v>
+      </c>
+      <c r="AB19">
+        <v>2.63</v>
+      </c>
+      <c r="AC19">
+        <v>1.07</v>
+      </c>
+      <c r="AD19">
+        <v>6.25</v>
+      </c>
+      <c r="AE19">
+        <v>1.57</v>
+      </c>
+      <c r="AF19">
+        <v>2.2</v>
+      </c>
+      <c r="AG19">
+        <v>2.56</v>
+      </c>
+      <c r="AH19">
+        <v>1.45</v>
+      </c>
+      <c r="AI19">
+        <v>2.1</v>
+      </c>
+      <c r="AJ19">
+        <v>1.67</v>
+      </c>
+      <c r="AK19">
+        <v>1.43</v>
+      </c>
+      <c r="AL19">
+        <v>1.38</v>
+      </c>
+      <c r="AM19">
+        <v>1.48</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>2</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>2.17</v>
+      </c>
+      <c r="AT19">
+        <v>2.17</v>
+      </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>6</v>
+      </c>
+      <c r="AX19">
+        <v>7</v>
+      </c>
+      <c r="AY19">
+        <v>12</v>
+      </c>
+      <c r="AZ19">
+        <v>10</v>
+      </c>
+      <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
+        <v>8</v>
+      </c>
+      <c r="BC19">
+        <v>12</v>
+      </c>
+      <c r="BD19">
+        <v>1.95</v>
+      </c>
+      <c r="BE19">
+        <v>8</v>
+      </c>
+      <c r="BF19">
+        <v>2.1</v>
+      </c>
+      <c r="BG19">
+        <v>1.3</v>
+      </c>
+      <c r="BH19">
+        <v>3.52</v>
+      </c>
+      <c r="BI19">
+        <v>1.51</v>
+      </c>
+      <c r="BJ19">
+        <v>2.46</v>
+      </c>
+      <c r="BK19">
+        <v>1.95</v>
+      </c>
+      <c r="BL19">
+        <v>1.85</v>
+      </c>
+      <c r="BM19">
+        <v>2.55</v>
+      </c>
+      <c r="BN19">
+        <v>1.48</v>
+      </c>
+      <c r="BO19">
+        <v>3.5</v>
+      </c>
+      <c r="BP19">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -274,15 +274,15 @@
     <t>Albacete Balompié</t>
   </si>
   <si>
+    <t>CD Castellón</t>
+  </si>
+  <si>
     <t>Córdoba</t>
   </si>
   <si>
     <t>Real Zaragoza</t>
   </si>
   <si>
-    <t>CD Castellón</t>
-  </si>
-  <si>
     <t>Real Oviedo</t>
   </si>
   <si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -735,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +997,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1176,7 +1179,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1382,7 +1385,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1406,7 +1409,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1588,7 +1591,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1818,7 +1821,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2024,7 +2027,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2105,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2230,7 +2233,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2436,7 +2439,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2642,7 +2645,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2848,7 +2851,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3054,7 +3057,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3260,7 +3263,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3466,7 +3469,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3878,7 +3881,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4084,7 +4087,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4290,7 +4293,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4496,7 +4499,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4653,6 +4656,418 @@
       </c>
       <c r="BP19">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7481367</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45529.58333333334</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20">
+        <v>3.1</v>
+      </c>
+      <c r="R20">
+        <v>1.9</v>
+      </c>
+      <c r="S20">
+        <v>3.7</v>
+      </c>
+      <c r="T20">
+        <v>1.53</v>
+      </c>
+      <c r="U20">
+        <v>2.35</v>
+      </c>
+      <c r="V20">
+        <v>3.4</v>
+      </c>
+      <c r="W20">
+        <v>1.28</v>
+      </c>
+      <c r="X20">
+        <v>9.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.04</v>
+      </c>
+      <c r="Z20">
+        <v>2.3</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>2.95</v>
+      </c>
+      <c r="AC20">
+        <v>1.1</v>
+      </c>
+      <c r="AD20">
+        <v>6.5</v>
+      </c>
+      <c r="AE20">
+        <v>1.48</v>
+      </c>
+      <c r="AF20">
+        <v>2.62</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <v>1.7</v>
+      </c>
+      <c r="AI20">
+        <v>1.95</v>
+      </c>
+      <c r="AJ20">
+        <v>1.73</v>
+      </c>
+      <c r="AK20">
+        <v>1.36</v>
+      </c>
+      <c r="AL20">
+        <v>1.33</v>
+      </c>
+      <c r="AM20">
+        <v>1.5</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>9</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>8</v>
+      </c>
+      <c r="BC20">
+        <v>8</v>
+      </c>
+      <c r="BD20">
+        <v>1.91</v>
+      </c>
+      <c r="BE20">
+        <v>7.5</v>
+      </c>
+      <c r="BF20">
+        <v>2.2</v>
+      </c>
+      <c r="BG20">
+        <v>1.25</v>
+      </c>
+      <c r="BH20">
+        <v>3.42</v>
+      </c>
+      <c r="BI20">
+        <v>1.49</v>
+      </c>
+      <c r="BJ20">
+        <v>2.44</v>
+      </c>
+      <c r="BK20">
+        <v>1.87</v>
+      </c>
+      <c r="BL20">
+        <v>1.87</v>
+      </c>
+      <c r="BM20">
+        <v>2.39</v>
+      </c>
+      <c r="BN20">
+        <v>1.51</v>
+      </c>
+      <c r="BO20">
+        <v>3.2</v>
+      </c>
+      <c r="BP20">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7481369</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45529.6875</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21">
+        <v>2.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>4.5</v>
+      </c>
+      <c r="T21">
+        <v>1.5</v>
+      </c>
+      <c r="U21">
+        <v>2.5</v>
+      </c>
+      <c r="V21">
+        <v>3.5</v>
+      </c>
+      <c r="W21">
+        <v>1.29</v>
+      </c>
+      <c r="X21">
+        <v>11</v>
+      </c>
+      <c r="Y21">
+        <v>1.05</v>
+      </c>
+      <c r="Z21">
+        <v>2.05</v>
+      </c>
+      <c r="AA21">
+        <v>3.1</v>
+      </c>
+      <c r="AB21">
+        <v>3.3</v>
+      </c>
+      <c r="AC21">
+        <v>1.09</v>
+      </c>
+      <c r="AD21">
+        <v>7</v>
+      </c>
+      <c r="AE21">
+        <v>1.45</v>
+      </c>
+      <c r="AF21">
+        <v>2.7</v>
+      </c>
+      <c r="AG21">
+        <v>2.2</v>
+      </c>
+      <c r="AH21">
+        <v>1.6</v>
+      </c>
+      <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AJ21">
+        <v>1.73</v>
+      </c>
+      <c r="AK21">
+        <v>1.25</v>
+      </c>
+      <c r="AL21">
+        <v>1.3</v>
+      </c>
+      <c r="AM21">
+        <v>1.73</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0.97</v>
+      </c>
+      <c r="AT21">
+        <v>0.97</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>7</v>
+      </c>
+      <c r="AX21">
+        <v>6</v>
+      </c>
+      <c r="AY21">
+        <v>13</v>
+      </c>
+      <c r="AZ21">
+        <v>6</v>
+      </c>
+      <c r="BA21">
+        <v>10</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>13</v>
+      </c>
+      <c r="BD21">
+        <v>1.64</v>
+      </c>
+      <c r="BE21">
+        <v>8</v>
+      </c>
+      <c r="BF21">
+        <v>2.77</v>
+      </c>
+      <c r="BG21">
+        <v>1.32</v>
+      </c>
+      <c r="BH21">
+        <v>3.22</v>
+      </c>
+      <c r="BI21">
+        <v>1.6</v>
+      </c>
+      <c r="BJ21">
+        <v>2.24</v>
+      </c>
+      <c r="BK21">
+        <v>2.07</v>
+      </c>
+      <c r="BL21">
+        <v>1.71</v>
+      </c>
+      <c r="BM21">
+        <v>2.83</v>
+      </c>
+      <c r="BN21">
+        <v>1.4</v>
+      </c>
+      <c r="BO21">
+        <v>3.95</v>
+      </c>
+      <c r="BP21">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -277,6 +277,9 @@
     <t>CD Castellón</t>
   </si>
   <si>
+    <t>FC Cartagena</t>
+  </si>
+  <si>
     <t>Córdoba</t>
   </si>
   <si>
@@ -289,9 +292,6 @@
     <t>Almería</t>
   </si>
   <si>
-    <t>FC Cartagena</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -334,6 +334,12 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['52', '90+8']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -377,6 +383,12 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['82', '90+7']</t>
+  </si>
+  <si>
+    <t>['76', '80']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1009,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1179,7 +1191,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1385,7 +1397,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1409,7 +1421,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1821,7 +1833,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2003,7 +2015,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2027,7 +2039,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2233,7 +2245,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2415,7 +2427,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2439,7 +2451,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2621,7 +2633,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2645,7 +2657,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2851,7 +2863,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3057,7 +3069,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3263,7 +3275,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3469,7 +3481,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3881,7 +3893,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4087,7 +4099,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4293,7 +4305,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4475,7 +4487,7 @@
         <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4499,7 +4511,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4887,7 +4899,7 @@
         <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5067,6 +5079,418 @@
         <v>3.95</v>
       </c>
       <c r="BP21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7481368</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>1.91</v>
+      </c>
+      <c r="S22">
+        <v>3.4</v>
+      </c>
+      <c r="T22">
+        <v>1.62</v>
+      </c>
+      <c r="U22">
+        <v>2.2</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>1.22</v>
+      </c>
+      <c r="X22">
+        <v>13</v>
+      </c>
+      <c r="Y22">
+        <v>1.04</v>
+      </c>
+      <c r="Z22">
+        <v>2.75</v>
+      </c>
+      <c r="AA22">
+        <v>2.87</v>
+      </c>
+      <c r="AB22">
+        <v>2.45</v>
+      </c>
+      <c r="AC22">
+        <v>1.12</v>
+      </c>
+      <c r="AD22">
+        <v>6</v>
+      </c>
+      <c r="AE22">
+        <v>1.5</v>
+      </c>
+      <c r="AF22">
+        <v>2.3</v>
+      </c>
+      <c r="AG22">
+        <v>2.65</v>
+      </c>
+      <c r="AH22">
+        <v>1.42</v>
+      </c>
+      <c r="AI22">
+        <v>2.2</v>
+      </c>
+      <c r="AJ22">
+        <v>1.62</v>
+      </c>
+      <c r="AK22">
+        <v>1.48</v>
+      </c>
+      <c r="AL22">
+        <v>1.35</v>
+      </c>
+      <c r="AM22">
+        <v>1.38</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1.58</v>
+      </c>
+      <c r="AT22">
+        <v>1.58</v>
+      </c>
+      <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>8</v>
+      </c>
+      <c r="AW22">
+        <v>3</v>
+      </c>
+      <c r="AX22">
+        <v>6</v>
+      </c>
+      <c r="AY22">
+        <v>7</v>
+      </c>
+      <c r="AZ22">
+        <v>14</v>
+      </c>
+      <c r="BA22">
+        <v>5</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>10</v>
+      </c>
+      <c r="BD22">
+        <v>2.1</v>
+      </c>
+      <c r="BE22">
+        <v>7.5</v>
+      </c>
+      <c r="BF22">
+        <v>1.95</v>
+      </c>
+      <c r="BG22">
+        <v>1.32</v>
+      </c>
+      <c r="BH22">
+        <v>3.22</v>
+      </c>
+      <c r="BI22">
+        <v>1.6</v>
+      </c>
+      <c r="BJ22">
+        <v>2.24</v>
+      </c>
+      <c r="BK22">
+        <v>2.07</v>
+      </c>
+      <c r="BL22">
+        <v>1.71</v>
+      </c>
+      <c r="BM22">
+        <v>2.83</v>
+      </c>
+      <c r="BN22">
+        <v>1.4</v>
+      </c>
+      <c r="BO22">
+        <v>3.95</v>
+      </c>
+      <c r="BP22">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7481373</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45530.6875</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23">
+        <v>2.88</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>4.33</v>
+      </c>
+      <c r="T23">
+        <v>1.5</v>
+      </c>
+      <c r="U23">
+        <v>2.5</v>
+      </c>
+      <c r="V23">
+        <v>3.5</v>
+      </c>
+      <c r="W23">
+        <v>1.29</v>
+      </c>
+      <c r="X23">
+        <v>11</v>
+      </c>
+      <c r="Y23">
+        <v>1.05</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>3.1</v>
+      </c>
+      <c r="AB23">
+        <v>3.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.09</v>
+      </c>
+      <c r="AD23">
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>1.45</v>
+      </c>
+      <c r="AF23">
+        <v>2.7</v>
+      </c>
+      <c r="AG23">
+        <v>2.2</v>
+      </c>
+      <c r="AH23">
+        <v>1.55</v>
+      </c>
+      <c r="AI23">
+        <v>2</v>
+      </c>
+      <c r="AJ23">
+        <v>1.73</v>
+      </c>
+      <c r="AK23">
+        <v>1.28</v>
+      </c>
+      <c r="AL23">
+        <v>1.3</v>
+      </c>
+      <c r="AM23">
+        <v>1.67</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>6</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>10</v>
+      </c>
+      <c r="AZ23">
+        <v>10</v>
+      </c>
+      <c r="BA23">
+        <v>4</v>
+      </c>
+      <c r="BB23">
+        <v>4</v>
+      </c>
+      <c r="BC23">
+        <v>8</v>
+      </c>
+      <c r="BD23">
+        <v>1.51</v>
+      </c>
+      <c r="BE23">
+        <v>8.5</v>
+      </c>
+      <c r="BF23">
+        <v>3.16</v>
+      </c>
+      <c r="BG23">
+        <v>1.32</v>
+      </c>
+      <c r="BH23">
+        <v>3.22</v>
+      </c>
+      <c r="BI23">
+        <v>1.6</v>
+      </c>
+      <c r="BJ23">
+        <v>2.24</v>
+      </c>
+      <c r="BK23">
+        <v>2.07</v>
+      </c>
+      <c r="BL23">
+        <v>1.71</v>
+      </c>
+      <c r="BM23">
+        <v>2.83</v>
+      </c>
+      <c r="BN23">
+        <v>1.4</v>
+      </c>
+      <c r="BO23">
+        <v>3.95</v>
+      </c>
+      <c r="BP23">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -283,12 +283,12 @@
     <t>Córdoba</t>
   </si>
   <si>
+    <t>Real Oviedo</t>
+  </si>
+  <si>
     <t>Real Zaragoza</t>
   </si>
   <si>
-    <t>Real Oviedo</t>
-  </si>
-  <si>
     <t>Almería</t>
   </si>
   <si>
@@ -340,6 +340,9 @@
     <t>['52', '90+8']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -389,6 +392,12 @@
   </si>
   <si>
     <t>['76', '80']</t>
+  </si>
+  <si>
+    <t>['21', '57', '90+8']</t>
+  </si>
+  <si>
+    <t>['26', '27', '75']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1018,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1397,7 +1406,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1421,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1833,7 +1842,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2015,7 +2024,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2039,7 +2048,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2245,7 +2254,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2451,7 +2460,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2657,7 +2666,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2863,7 +2872,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3069,7 +3078,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3275,7 +3284,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3481,7 +3490,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3893,7 +3902,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4099,7 +4108,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4305,7 +4314,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4511,7 +4520,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4899,7 +4908,7 @@
         <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5105,7 +5114,7 @@
         <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5129,7 +5138,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5335,7 +5344,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5492,6 +5501,418 @@
       </c>
       <c r="BP23">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7481383</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q24">
+        <v>2.75</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>1.53</v>
+      </c>
+      <c r="U24">
+        <v>2.38</v>
+      </c>
+      <c r="V24">
+        <v>3.5</v>
+      </c>
+      <c r="W24">
+        <v>1.29</v>
+      </c>
+      <c r="X24">
+        <v>11</v>
+      </c>
+      <c r="Y24">
+        <v>1.05</v>
+      </c>
+      <c r="Z24">
+        <v>1.85</v>
+      </c>
+      <c r="AA24">
+        <v>3.2</v>
+      </c>
+      <c r="AB24">
+        <v>4.4</v>
+      </c>
+      <c r="AC24">
+        <v>1.06</v>
+      </c>
+      <c r="AD24">
+        <v>6.8</v>
+      </c>
+      <c r="AE24">
+        <v>1.43</v>
+      </c>
+      <c r="AF24">
+        <v>2.54</v>
+      </c>
+      <c r="AG24">
+        <v>2.06</v>
+      </c>
+      <c r="AH24">
+        <v>1.68</v>
+      </c>
+      <c r="AI24">
+        <v>2.2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.62</v>
+      </c>
+      <c r="AK24">
+        <v>1.25</v>
+      </c>
+      <c r="AL24">
+        <v>1.33</v>
+      </c>
+      <c r="AM24">
+        <v>1.83</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>2.51</v>
+      </c>
+      <c r="AS24">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT24">
+        <v>3.32</v>
+      </c>
+      <c r="AU24">
+        <v>6</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>7</v>
+      </c>
+      <c r="AY24">
+        <v>12</v>
+      </c>
+      <c r="AZ24">
+        <v>13</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>9</v>
+      </c>
+      <c r="BD24">
+        <v>1.55</v>
+      </c>
+      <c r="BE24">
+        <v>8</v>
+      </c>
+      <c r="BF24">
+        <v>3.02</v>
+      </c>
+      <c r="BG24">
+        <v>1.35</v>
+      </c>
+      <c r="BH24">
+        <v>2.85</v>
+      </c>
+      <c r="BI24">
+        <v>1.7</v>
+      </c>
+      <c r="BJ24">
+        <v>2.05</v>
+      </c>
+      <c r="BK24">
+        <v>2.05</v>
+      </c>
+      <c r="BL24">
+        <v>1.7</v>
+      </c>
+      <c r="BM24">
+        <v>2.75</v>
+      </c>
+      <c r="BN24">
+        <v>1.37</v>
+      </c>
+      <c r="BO24">
+        <v>3.8</v>
+      </c>
+      <c r="BP24">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7481385</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45534.6875</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25">
+        <v>2.75</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>3.9</v>
+      </c>
+      <c r="T25">
+        <v>1.45</v>
+      </c>
+      <c r="U25">
+        <v>2.55</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>1.33</v>
+      </c>
+      <c r="X25">
+        <v>7.1</v>
+      </c>
+      <c r="Y25">
+        <v>1.07</v>
+      </c>
+      <c r="Z25">
+        <v>2.1</v>
+      </c>
+      <c r="AA25">
+        <v>3.2</v>
+      </c>
+      <c r="AB25">
+        <v>3.4</v>
+      </c>
+      <c r="AC25">
+        <v>1.07</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>1.38</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
+      </c>
+      <c r="AG25">
+        <v>1.91</v>
+      </c>
+      <c r="AH25">
+        <v>1.79</v>
+      </c>
+      <c r="AI25">
+        <v>1.83</v>
+      </c>
+      <c r="AJ25">
+        <v>1.85</v>
+      </c>
+      <c r="AK25">
+        <v>1.3</v>
+      </c>
+      <c r="AL25">
+        <v>1.28</v>
+      </c>
+      <c r="AM25">
+        <v>1.65</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>7</v>
+      </c>
+      <c r="AW25">
+        <v>6</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>11</v>
+      </c>
+      <c r="BA25">
+        <v>4</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>8</v>
+      </c>
+      <c r="BD25">
+        <v>1.75</v>
+      </c>
+      <c r="BE25">
+        <v>8</v>
+      </c>
+      <c r="BF25">
+        <v>2.44</v>
+      </c>
+      <c r="BG25">
+        <v>1.24</v>
+      </c>
+      <c r="BH25">
+        <v>3.45</v>
+      </c>
+      <c r="BI25">
+        <v>1.46</v>
+      </c>
+      <c r="BJ25">
+        <v>2.45</v>
+      </c>
+      <c r="BK25">
+        <v>1.8</v>
+      </c>
+      <c r="BL25">
+        <v>2</v>
+      </c>
+      <c r="BM25">
+        <v>2.28</v>
+      </c>
+      <c r="BN25">
+        <v>1.52</v>
+      </c>
+      <c r="BO25">
+        <v>3.05</v>
+      </c>
+      <c r="BP25">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -286,12 +286,12 @@
     <t>Real Oviedo</t>
   </si>
   <si>
+    <t>Almería</t>
+  </si>
+  <si>
     <t>Real Zaragoza</t>
   </si>
   <si>
-    <t>Almería</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -343,6 +343,15 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['74', '90+4']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['14', '90+4']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -398,6 +407,15 @@
   </si>
   <si>
     <t>['26', '27', '75']</t>
+  </si>
+  <si>
+    <t>['26', '54']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1036,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1099,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1406,7 +1424,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1430,7 +1448,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1508,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -1842,7 +1860,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2048,7 +2066,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2254,7 +2272,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2436,7 +2454,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2460,7 +2478,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2666,7 +2684,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2872,7 +2890,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3078,7 +3096,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3159,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3284,7 +3302,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3490,7 +3508,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3902,7 +3920,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4108,7 +4126,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4314,7 +4332,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4392,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4496,7 +4514,7 @@
         <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4520,7 +4538,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5114,7 +5132,7 @@
         <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5138,7 +5156,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5344,7 +5362,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5550,7 +5568,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5756,7 +5774,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5913,6 +5931,624 @@
       </c>
       <c r="BP25">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7481380</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26">
+        <v>2.5</v>
+      </c>
+      <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>5.5</v>
+      </c>
+      <c r="T26">
+        <v>1.53</v>
+      </c>
+      <c r="U26">
+        <v>2.38</v>
+      </c>
+      <c r="V26">
+        <v>3.75</v>
+      </c>
+      <c r="W26">
+        <v>1.25</v>
+      </c>
+      <c r="X26">
+        <v>11</v>
+      </c>
+      <c r="Y26">
+        <v>1.05</v>
+      </c>
+      <c r="Z26">
+        <v>1.85</v>
+      </c>
+      <c r="AA26">
+        <v>3.1</v>
+      </c>
+      <c r="AB26">
+        <v>4.6</v>
+      </c>
+      <c r="AC26">
+        <v>1.06</v>
+      </c>
+      <c r="AD26">
+        <v>6.65</v>
+      </c>
+      <c r="AE26">
+        <v>1.5</v>
+      </c>
+      <c r="AF26">
+        <v>2.4</v>
+      </c>
+      <c r="AG26">
+        <v>2.38</v>
+      </c>
+      <c r="AH26">
+        <v>1.52</v>
+      </c>
+      <c r="AI26">
+        <v>2.25</v>
+      </c>
+      <c r="AJ26">
+        <v>1.57</v>
+      </c>
+      <c r="AK26">
+        <v>1.18</v>
+      </c>
+      <c r="AL26">
+        <v>1.28</v>
+      </c>
+      <c r="AM26">
+        <v>1.95</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0.5</v>
+      </c>
+      <c r="AQ26">
+        <v>0.5</v>
+      </c>
+      <c r="AR26">
+        <v>1.33</v>
+      </c>
+      <c r="AS26">
+        <v>1.36</v>
+      </c>
+      <c r="AT26">
+        <v>2.69</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>5</v>
+      </c>
+      <c r="AW26">
+        <v>2</v>
+      </c>
+      <c r="AX26">
+        <v>3</v>
+      </c>
+      <c r="AY26">
+        <v>6</v>
+      </c>
+      <c r="AZ26">
+        <v>8</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
+        <v>7</v>
+      </c>
+      <c r="BD26">
+        <v>1.34</v>
+      </c>
+      <c r="BE26">
+        <v>9</v>
+      </c>
+      <c r="BF26">
+        <v>4.09</v>
+      </c>
+      <c r="BG26">
+        <v>1.4</v>
+      </c>
+      <c r="BH26">
+        <v>2.65</v>
+      </c>
+      <c r="BI26">
+        <v>1.7</v>
+      </c>
+      <c r="BJ26">
+        <v>2.05</v>
+      </c>
+      <c r="BK26">
+        <v>2.2</v>
+      </c>
+      <c r="BL26">
+        <v>1.57</v>
+      </c>
+      <c r="BM26">
+        <v>2.95</v>
+      </c>
+      <c r="BN26">
+        <v>1.33</v>
+      </c>
+      <c r="BO26">
+        <v>4.1</v>
+      </c>
+      <c r="BP26">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7481378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45535.6875</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <v>2.1</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>1.44</v>
+      </c>
+      <c r="U27">
+        <v>2.63</v>
+      </c>
+      <c r="V27">
+        <v>3.25</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>9</v>
+      </c>
+      <c r="Y27">
+        <v>1.07</v>
+      </c>
+      <c r="Z27">
+        <v>1.8</v>
+      </c>
+      <c r="AA27">
+        <v>3.4</v>
+      </c>
+      <c r="AB27">
+        <v>4.4</v>
+      </c>
+      <c r="AC27">
+        <v>1.06</v>
+      </c>
+      <c r="AD27">
+        <v>8.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.36</v>
+      </c>
+      <c r="AF27">
+        <v>3.1</v>
+      </c>
+      <c r="AG27">
+        <v>2.06</v>
+      </c>
+      <c r="AH27">
+        <v>1.68</v>
+      </c>
+      <c r="AI27">
+        <v>2</v>
+      </c>
+      <c r="AJ27">
+        <v>1.73</v>
+      </c>
+      <c r="AK27">
+        <v>1.2</v>
+      </c>
+      <c r="AL27">
+        <v>1.25</v>
+      </c>
+      <c r="AM27">
+        <v>1.95</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>7</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>8</v>
+      </c>
+      <c r="AX27">
+        <v>2</v>
+      </c>
+      <c r="AY27">
+        <v>15</v>
+      </c>
+      <c r="AZ27">
+        <v>7</v>
+      </c>
+      <c r="BA27">
+        <v>10</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BC27">
+        <v>11</v>
+      </c>
+      <c r="BD27">
+        <v>1.64</v>
+      </c>
+      <c r="BE27">
+        <v>8</v>
+      </c>
+      <c r="BF27">
+        <v>2.67</v>
+      </c>
+      <c r="BG27">
+        <v>1.35</v>
+      </c>
+      <c r="BH27">
+        <v>2.85</v>
+      </c>
+      <c r="BI27">
+        <v>1.7</v>
+      </c>
+      <c r="BJ27">
+        <v>2.05</v>
+      </c>
+      <c r="BK27">
+        <v>2.05</v>
+      </c>
+      <c r="BL27">
+        <v>1.7</v>
+      </c>
+      <c r="BM27">
+        <v>2.75</v>
+      </c>
+      <c r="BN27">
+        <v>1.37</v>
+      </c>
+      <c r="BO27">
+        <v>3.8</v>
+      </c>
+      <c r="BP27">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7481386</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45535.6875</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>4.33</v>
+      </c>
+      <c r="T28">
+        <v>1.53</v>
+      </c>
+      <c r="U28">
+        <v>2.38</v>
+      </c>
+      <c r="V28">
+        <v>3.5</v>
+      </c>
+      <c r="W28">
+        <v>1.29</v>
+      </c>
+      <c r="X28">
+        <v>11</v>
+      </c>
+      <c r="Y28">
+        <v>1.05</v>
+      </c>
+      <c r="Z28">
+        <v>1.91</v>
+      </c>
+      <c r="AA28">
+        <v>3.25</v>
+      </c>
+      <c r="AB28">
+        <v>4</v>
+      </c>
+      <c r="AC28">
+        <v>1.06</v>
+      </c>
+      <c r="AD28">
+        <v>6.85</v>
+      </c>
+      <c r="AE28">
+        <v>1.42</v>
+      </c>
+      <c r="AF28">
+        <v>2.57</v>
+      </c>
+      <c r="AG28">
+        <v>2.3</v>
+      </c>
+      <c r="AH28">
+        <v>1.55</v>
+      </c>
+      <c r="AI28">
+        <v>2</v>
+      </c>
+      <c r="AJ28">
+        <v>1.73</v>
+      </c>
+      <c r="AK28">
+        <v>1.3</v>
+      </c>
+      <c r="AL28">
+        <v>1.3</v>
+      </c>
+      <c r="AM28">
+        <v>1.65</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.25</v>
+      </c>
+      <c r="AS28">
+        <v>0.9</v>
+      </c>
+      <c r="AT28">
+        <v>2.15</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>7</v>
+      </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
+      <c r="AX28">
+        <v>4</v>
+      </c>
+      <c r="AY28">
+        <v>13</v>
+      </c>
+      <c r="AZ28">
+        <v>11</v>
+      </c>
+      <c r="BA28">
+        <v>8</v>
+      </c>
+      <c r="BB28">
+        <v>1</v>
+      </c>
+      <c r="BC28">
+        <v>9</v>
+      </c>
+      <c r="BD28">
+        <v>1.69</v>
+      </c>
+      <c r="BE28">
+        <v>8</v>
+      </c>
+      <c r="BF28">
+        <v>2.62</v>
+      </c>
+      <c r="BG28">
+        <v>1.35</v>
+      </c>
+      <c r="BH28">
+        <v>2.85</v>
+      </c>
+      <c r="BI28">
+        <v>1.7</v>
+      </c>
+      <c r="BJ28">
+        <v>2.05</v>
+      </c>
+      <c r="BK28">
+        <v>2.05</v>
+      </c>
+      <c r="BL28">
+        <v>1.7</v>
+      </c>
+      <c r="BM28">
+        <v>2.75</v>
+      </c>
+      <c r="BN28">
+        <v>1.37</v>
+      </c>
+      <c r="BO28">
+        <v>3.8</v>
+      </c>
+      <c r="BP28">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['14', '90+4']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -416,6 +419,12 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['64', '69']</t>
+  </si>
+  <si>
+    <t>['57', '62']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1045,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1448,7 +1457,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1529,7 +1538,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1735,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1860,7 +1869,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2066,7 +2075,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2144,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2272,7 +2281,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2478,7 +2487,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2684,7 +2693,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2762,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2890,7 +2899,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3096,7 +3105,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3174,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3302,7 +3311,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3508,7 +3517,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3920,7 +3929,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4126,7 +4135,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4332,7 +4341,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4538,7 +4547,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5156,7 +5165,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5237,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5362,7 +5371,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5568,7 +5577,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5774,7 +5783,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5980,7 +5989,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6186,7 +6195,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6392,7 +6401,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6549,6 +6558,830 @@
       </c>
       <c r="BP28">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7481381</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29">
+        <v>2.63</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>1.53</v>
+      </c>
+      <c r="U29">
+        <v>2.38</v>
+      </c>
+      <c r="V29">
+        <v>3.5</v>
+      </c>
+      <c r="W29">
+        <v>1.29</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>1.05</v>
+      </c>
+      <c r="Z29">
+        <v>1.85</v>
+      </c>
+      <c r="AA29">
+        <v>3.3</v>
+      </c>
+      <c r="AB29">
+        <v>4.2</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>2.3</v>
+      </c>
+      <c r="AH29">
+        <v>1.55</v>
+      </c>
+      <c r="AI29">
+        <v>2.1</v>
+      </c>
+      <c r="AJ29">
+        <v>1.67</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>1.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>1.73</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>1.73</v>
+      </c>
+      <c r="AU29">
+        <v>3</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>6</v>
+      </c>
+      <c r="AX29">
+        <v>4</v>
+      </c>
+      <c r="AY29">
+        <v>9</v>
+      </c>
+      <c r="AZ29">
+        <v>6</v>
+      </c>
+      <c r="BA29">
+        <v>9</v>
+      </c>
+      <c r="BB29">
+        <v>7</v>
+      </c>
+      <c r="BC29">
+        <v>16</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7481379</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>94</v>
+      </c>
+      <c r="P30" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30">
+        <v>3.25</v>
+      </c>
+      <c r="R30">
+        <v>2.05</v>
+      </c>
+      <c r="S30">
+        <v>3.5</v>
+      </c>
+      <c r="T30">
+        <v>1.44</v>
+      </c>
+      <c r="U30">
+        <v>2.63</v>
+      </c>
+      <c r="V30">
+        <v>3.25</v>
+      </c>
+      <c r="W30">
+        <v>1.33</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>1.06</v>
+      </c>
+      <c r="Z30">
+        <v>2.45</v>
+      </c>
+      <c r="AA30">
+        <v>3.25</v>
+      </c>
+      <c r="AB30">
+        <v>2.75</v>
+      </c>
+      <c r="AC30">
+        <v>1.05</v>
+      </c>
+      <c r="AD30">
+        <v>8</v>
+      </c>
+      <c r="AE30">
+        <v>1.3</v>
+      </c>
+      <c r="AF30">
+        <v>3.2</v>
+      </c>
+      <c r="AG30">
+        <v>2.1</v>
+      </c>
+      <c r="AH30">
+        <v>1.65</v>
+      </c>
+      <c r="AI30">
+        <v>1.83</v>
+      </c>
+      <c r="AJ30">
+        <v>1.83</v>
+      </c>
+      <c r="AK30">
+        <v>1.42</v>
+      </c>
+      <c r="AL30">
+        <v>1.28</v>
+      </c>
+      <c r="AM30">
+        <v>1.5</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>1.44</v>
+      </c>
+      <c r="AS30">
+        <v>1.32</v>
+      </c>
+      <c r="AT30">
+        <v>2.76</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
+        <v>8</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>13</v>
+      </c>
+      <c r="AZ30">
+        <v>11</v>
+      </c>
+      <c r="BA30">
+        <v>8</v>
+      </c>
+      <c r="BB30">
+        <v>6</v>
+      </c>
+      <c r="BC30">
+        <v>14</v>
+      </c>
+      <c r="BD30">
+        <v>1.85</v>
+      </c>
+      <c r="BE30">
+        <v>8</v>
+      </c>
+      <c r="BF30">
+        <v>2.28</v>
+      </c>
+      <c r="BG30">
+        <v>1.28</v>
+      </c>
+      <c r="BH30">
+        <v>3.2</v>
+      </c>
+      <c r="BI30">
+        <v>1.52</v>
+      </c>
+      <c r="BJ30">
+        <v>2.32</v>
+      </c>
+      <c r="BK30">
+        <v>2</v>
+      </c>
+      <c r="BL30">
+        <v>1.8</v>
+      </c>
+      <c r="BM30">
+        <v>2.45</v>
+      </c>
+      <c r="BN30">
+        <v>1.46</v>
+      </c>
+      <c r="BO30">
+        <v>3.3</v>
+      </c>
+      <c r="BP30">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7481384</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31">
+        <v>3.6</v>
+      </c>
+      <c r="R31">
+        <v>1.91</v>
+      </c>
+      <c r="S31">
+        <v>3.6</v>
+      </c>
+      <c r="T31">
+        <v>1.57</v>
+      </c>
+      <c r="U31">
+        <v>2.25</v>
+      </c>
+      <c r="V31">
+        <v>3.75</v>
+      </c>
+      <c r="W31">
+        <v>1.25</v>
+      </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
+      <c r="Y31">
+        <v>1.04</v>
+      </c>
+      <c r="Z31">
+        <v>2.7</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>2.62</v>
+      </c>
+      <c r="AC31">
+        <v>1.07</v>
+      </c>
+      <c r="AD31">
+        <v>6.3</v>
+      </c>
+      <c r="AE31">
+        <v>1.5</v>
+      </c>
+      <c r="AF31">
+        <v>2.4</v>
+      </c>
+      <c r="AG31">
+        <v>2.55</v>
+      </c>
+      <c r="AH31">
+        <v>1.45</v>
+      </c>
+      <c r="AI31">
+        <v>2.1</v>
+      </c>
+      <c r="AJ31">
+        <v>1.67</v>
+      </c>
+      <c r="AK31">
+        <v>1.46</v>
+      </c>
+      <c r="AL31">
+        <v>1.38</v>
+      </c>
+      <c r="AM31">
+        <v>1.44</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>2.33</v>
+      </c>
+      <c r="AR31">
+        <v>0.48</v>
+      </c>
+      <c r="AS31">
+        <v>1.7</v>
+      </c>
+      <c r="AT31">
+        <v>2.18</v>
+      </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>7</v>
+      </c>
+      <c r="AX31">
+        <v>6</v>
+      </c>
+      <c r="AY31">
+        <v>10</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>6</v>
+      </c>
+      <c r="BB31">
+        <v>6</v>
+      </c>
+      <c r="BC31">
+        <v>12</v>
+      </c>
+      <c r="BD31">
+        <v>2.1</v>
+      </c>
+      <c r="BE31">
+        <v>7.5</v>
+      </c>
+      <c r="BF31">
+        <v>2</v>
+      </c>
+      <c r="BG31">
+        <v>1.36</v>
+      </c>
+      <c r="BH31">
+        <v>2.8</v>
+      </c>
+      <c r="BI31">
+        <v>1.62</v>
+      </c>
+      <c r="BJ31">
+        <v>2.18</v>
+      </c>
+      <c r="BK31">
+        <v>2.05</v>
+      </c>
+      <c r="BL31">
+        <v>1.7</v>
+      </c>
+      <c r="BM31">
+        <v>2.8</v>
+      </c>
+      <c r="BN31">
+        <v>1.36</v>
+      </c>
+      <c r="BO31">
+        <v>3.85</v>
+      </c>
+      <c r="BP31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7481387</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32">
+        <v>2.75</v>
+      </c>
+      <c r="R32">
+        <v>1.95</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>1.53</v>
+      </c>
+      <c r="U32">
+        <v>2.38</v>
+      </c>
+      <c r="V32">
+        <v>3.75</v>
+      </c>
+      <c r="W32">
+        <v>1.25</v>
+      </c>
+      <c r="X32">
+        <v>11</v>
+      </c>
+      <c r="Y32">
+        <v>1.05</v>
+      </c>
+      <c r="Z32">
+        <v>1.91</v>
+      </c>
+      <c r="AA32">
+        <v>3.25</v>
+      </c>
+      <c r="AB32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>1.07</v>
+      </c>
+      <c r="AD32">
+        <v>7</v>
+      </c>
+      <c r="AE32">
+        <v>1.44</v>
+      </c>
+      <c r="AF32">
+        <v>2.6</v>
+      </c>
+      <c r="AG32">
+        <v>2.35</v>
+      </c>
+      <c r="AH32">
+        <v>1.53</v>
+      </c>
+      <c r="AI32">
+        <v>2.2</v>
+      </c>
+      <c r="AJ32">
+        <v>1.62</v>
+      </c>
+      <c r="AK32">
+        <v>1.22</v>
+      </c>
+      <c r="AL32">
+        <v>1.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.8</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.31</v>
+      </c>
+      <c r="AS32">
+        <v>1.14</v>
+      </c>
+      <c r="AT32">
+        <v>2.45</v>
+      </c>
+      <c r="AU32">
+        <v>12</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>7</v>
+      </c>
+      <c r="AX32">
+        <v>3</v>
+      </c>
+      <c r="AY32">
+        <v>19</v>
+      </c>
+      <c r="AZ32">
+        <v>7</v>
+      </c>
+      <c r="BA32">
+        <v>7</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>1.51</v>
+      </c>
+      <c r="BE32">
+        <v>8</v>
+      </c>
+      <c r="BF32">
+        <v>3.17</v>
+      </c>
+      <c r="BG32">
+        <v>1.36</v>
+      </c>
+      <c r="BH32">
+        <v>2.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.65</v>
+      </c>
+      <c r="BJ32">
+        <v>2.13</v>
+      </c>
+      <c r="BK32">
+        <v>2.05</v>
+      </c>
+      <c r="BL32">
+        <v>1.7</v>
+      </c>
+      <c r="BM32">
+        <v>2.8</v>
+      </c>
+      <c r="BN32">
+        <v>1.36</v>
+      </c>
+      <c r="BO32">
+        <v>3.85</v>
+      </c>
+      <c r="BP32">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,12 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['47', '90+2']</t>
+  </si>
+  <si>
+    <t>['33', '62', '79']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -425,6 +431,12 @@
   </si>
   <si>
     <t>['57', '62']</t>
+  </si>
+  <si>
+    <t>['4', '79']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,7 +1057,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1457,7 +1469,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1741,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -1869,7 +1881,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2075,7 +2087,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2281,7 +2293,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2362,7 +2374,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2487,7 +2499,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2693,7 +2705,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2899,7 +2911,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2977,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3105,7 +3117,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3311,7 +3323,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3517,7 +3529,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3929,7 +3941,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4135,7 +4147,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4341,7 +4353,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4547,7 +4559,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5165,7 +5177,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5371,7 +5383,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5577,7 +5589,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5783,7 +5795,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5989,7 +6001,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6195,7 +6207,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6401,7 +6413,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6813,7 +6825,7 @@
         <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7225,7 +7237,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7382,6 +7394,418 @@
       </c>
       <c r="BP32">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7481382</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q33">
+        <v>2.63</v>
+      </c>
+      <c r="R33">
+        <v>2.1</v>
+      </c>
+      <c r="S33">
+        <v>4.33</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>2.75</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>1.36</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>2.05</v>
+      </c>
+      <c r="AA33">
+        <v>3.35</v>
+      </c>
+      <c r="AB33">
+        <v>3.5</v>
+      </c>
+      <c r="AC33">
+        <v>1.02</v>
+      </c>
+      <c r="AD33">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE33">
+        <v>1.29</v>
+      </c>
+      <c r="AF33">
+        <v>3.15</v>
+      </c>
+      <c r="AG33">
+        <v>2.05</v>
+      </c>
+      <c r="AH33">
+        <v>1.67</v>
+      </c>
+      <c r="AI33">
+        <v>1.8</v>
+      </c>
+      <c r="AJ33">
+        <v>1.91</v>
+      </c>
+      <c r="AK33">
+        <v>1.29</v>
+      </c>
+      <c r="AL33">
+        <v>1.3</v>
+      </c>
+      <c r="AM33">
+        <v>1.79</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>2</v>
+      </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AR33">
+        <v>0.95</v>
+      </c>
+      <c r="AS33">
+        <v>1.02</v>
+      </c>
+      <c r="AT33">
+        <v>1.97</v>
+      </c>
+      <c r="AU33">
+        <v>10</v>
+      </c>
+      <c r="AV33">
+        <v>6</v>
+      </c>
+      <c r="AW33">
+        <v>8</v>
+      </c>
+      <c r="AX33">
+        <v>2</v>
+      </c>
+      <c r="AY33">
+        <v>18</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
+        <v>10</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>12</v>
+      </c>
+      <c r="BD33">
+        <v>1.67</v>
+      </c>
+      <c r="BE33">
+        <v>6.7</v>
+      </c>
+      <c r="BF33">
+        <v>3.06</v>
+      </c>
+      <c r="BG33">
+        <v>1.32</v>
+      </c>
+      <c r="BH33">
+        <v>3.22</v>
+      </c>
+      <c r="BI33">
+        <v>1.6</v>
+      </c>
+      <c r="BJ33">
+        <v>2.24</v>
+      </c>
+      <c r="BK33">
+        <v>2.07</v>
+      </c>
+      <c r="BL33">
+        <v>1.71</v>
+      </c>
+      <c r="BM33">
+        <v>2.83</v>
+      </c>
+      <c r="BN33">
+        <v>1.4</v>
+      </c>
+      <c r="BO33">
+        <v>3.95</v>
+      </c>
+      <c r="BP33">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7481388</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45537.6875</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34">
+        <v>2.88</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>4.33</v>
+      </c>
+      <c r="T34">
+        <v>1.53</v>
+      </c>
+      <c r="U34">
+        <v>2.38</v>
+      </c>
+      <c r="V34">
+        <v>3.5</v>
+      </c>
+      <c r="W34">
+        <v>1.29</v>
+      </c>
+      <c r="X34">
+        <v>11</v>
+      </c>
+      <c r="Y34">
+        <v>1.05</v>
+      </c>
+      <c r="Z34">
+        <v>2.27</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+      <c r="AB34">
+        <v>3.32</v>
+      </c>
+      <c r="AC34">
+        <v>1.05</v>
+      </c>
+      <c r="AD34">
+        <v>6.95</v>
+      </c>
+      <c r="AE34">
+        <v>1.42</v>
+      </c>
+      <c r="AF34">
+        <v>2.57</v>
+      </c>
+      <c r="AG34">
+        <v>2.33</v>
+      </c>
+      <c r="AH34">
+        <v>1.5</v>
+      </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AJ34">
+        <v>1.73</v>
+      </c>
+      <c r="AK34">
+        <v>1.28</v>
+      </c>
+      <c r="AL34">
+        <v>1.34</v>
+      </c>
+      <c r="AM34">
+        <v>1.74</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1.5</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>1.17</v>
+      </c>
+      <c r="AS34">
+        <v>1.95</v>
+      </c>
+      <c r="AT34">
+        <v>3.12</v>
+      </c>
+      <c r="AU34">
+        <v>6</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>14</v>
+      </c>
+      <c r="AZ34">
+        <v>5</v>
+      </c>
+      <c r="BA34">
+        <v>5</v>
+      </c>
+      <c r="BB34">
+        <v>4</v>
+      </c>
+      <c r="BC34">
+        <v>9</v>
+      </c>
+      <c r="BD34">
+        <v>1.87</v>
+      </c>
+      <c r="BE34">
+        <v>6.55</v>
+      </c>
+      <c r="BF34">
+        <v>2.58</v>
+      </c>
+      <c r="BG34">
+        <v>1.29</v>
+      </c>
+      <c r="BH34">
+        <v>3.42</v>
+      </c>
+      <c r="BI34">
+        <v>1.55</v>
+      </c>
+      <c r="BJ34">
+        <v>2.35</v>
+      </c>
+      <c r="BK34">
+        <v>1.98</v>
+      </c>
+      <c r="BL34">
+        <v>1.77</v>
+      </c>
+      <c r="BM34">
+        <v>2.68</v>
+      </c>
+      <c r="BN34">
+        <v>1.43</v>
+      </c>
+      <c r="BO34">
+        <v>3.72</v>
+      </c>
+      <c r="BP34">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -798,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7808,6 +7808,212 @@
         <v>1.28</v>
       </c>
     </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7481399</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45541.66666666666</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>94</v>
+      </c>
+      <c r="P35" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q35">
+        <v>3.25</v>
+      </c>
+      <c r="R35">
+        <v>2.15</v>
+      </c>
+      <c r="S35">
+        <v>3.54</v>
+      </c>
+      <c r="T35">
+        <v>1.43</v>
+      </c>
+      <c r="U35">
+        <v>2.82</v>
+      </c>
+      <c r="V35">
+        <v>3.17</v>
+      </c>
+      <c r="W35">
+        <v>1.36</v>
+      </c>
+      <c r="X35">
+        <v>8</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.5</v>
+      </c>
+      <c r="AA35">
+        <v>3.1</v>
+      </c>
+      <c r="AB35">
+        <v>2.8</v>
+      </c>
+      <c r="AC35">
+        <v>1.03</v>
+      </c>
+      <c r="AD35">
+        <v>8</v>
+      </c>
+      <c r="AE35">
+        <v>1.33</v>
+      </c>
+      <c r="AF35">
+        <v>2.93</v>
+      </c>
+      <c r="AG35">
+        <v>2.1</v>
+      </c>
+      <c r="AH35">
+        <v>1.67</v>
+      </c>
+      <c r="AI35">
+        <v>1.8</v>
+      </c>
+      <c r="AJ35">
+        <v>1.85</v>
+      </c>
+      <c r="AK35">
+        <v>1.42</v>
+      </c>
+      <c r="AL35">
+        <v>1.33</v>
+      </c>
+      <c r="AM35">
+        <v>1.55</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>1.42</v>
+      </c>
+      <c r="AS35">
+        <v>1.41</v>
+      </c>
+      <c r="AT35">
+        <v>2.83</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
+        <v>11</v>
+      </c>
+      <c r="BA35">
+        <v>4</v>
+      </c>
+      <c r="BB35">
+        <v>5</v>
+      </c>
+      <c r="BC35">
+        <v>9</v>
+      </c>
+      <c r="BD35">
+        <v>2.05</v>
+      </c>
+      <c r="BE35">
+        <v>8</v>
+      </c>
+      <c r="BF35">
+        <v>2.05</v>
+      </c>
+      <c r="BG35">
+        <v>1.28</v>
+      </c>
+      <c r="BH35">
+        <v>3.2</v>
+      </c>
+      <c r="BI35">
+        <v>1.52</v>
+      </c>
+      <c r="BJ35">
+        <v>2.32</v>
+      </c>
+      <c r="BK35">
+        <v>1.95</v>
+      </c>
+      <c r="BL35">
+        <v>1.85</v>
+      </c>
+      <c r="BM35">
+        <v>2.45</v>
+      </c>
+      <c r="BN35">
+        <v>1.46</v>
+      </c>
+      <c r="BO35">
+        <v>3.3</v>
+      </c>
+      <c r="BP35">
+        <v>1.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['33', '62', '79']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['20', '38', '76']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -437,6 +443,12 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1069,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1135,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1469,7 +1481,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1881,7 +1893,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2087,7 +2099,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2168,7 +2180,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2293,7 +2305,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2371,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2499,7 +2511,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2705,7 +2717,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2911,7 +2923,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3117,7 +3129,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3323,7 +3335,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3529,7 +3541,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3607,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3813,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -3941,7 +3953,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4147,7 +4159,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4353,7 +4365,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4559,7 +4571,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5052,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5177,7 +5189,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5383,7 +5395,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5464,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5589,7 +5601,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5667,7 +5679,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ24">
         <v>3</v>
@@ -5795,7 +5807,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6001,7 +6013,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6207,7 +6219,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6413,7 +6425,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6825,7 +6837,7 @@
         <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7237,7 +7249,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7443,7 +7455,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7649,7 +7661,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>2.88</v>
@@ -7855,7 +7867,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8012,6 +8024,830 @@
       </c>
       <c r="BP35">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7481396</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45542.46875</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q36">
+        <v>2.88</v>
+      </c>
+      <c r="R36">
+        <v>2.05</v>
+      </c>
+      <c r="S36">
+        <v>4.33</v>
+      </c>
+      <c r="T36">
+        <v>1.5</v>
+      </c>
+      <c r="U36">
+        <v>2.5</v>
+      </c>
+      <c r="V36">
+        <v>3.4</v>
+      </c>
+      <c r="W36">
+        <v>1.3</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>2.2</v>
+      </c>
+      <c r="AA36">
+        <v>3.1</v>
+      </c>
+      <c r="AB36">
+        <v>3.3</v>
+      </c>
+      <c r="AC36">
+        <v>1.05</v>
+      </c>
+      <c r="AD36">
+        <v>8</v>
+      </c>
+      <c r="AE36">
+        <v>1.33</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>2.2</v>
+      </c>
+      <c r="AH36">
+        <v>1.6</v>
+      </c>
+      <c r="AI36">
+        <v>2</v>
+      </c>
+      <c r="AJ36">
+        <v>1.73</v>
+      </c>
+      <c r="AK36">
+        <v>1.28</v>
+      </c>
+      <c r="AL36">
+        <v>1.33</v>
+      </c>
+      <c r="AM36">
+        <v>1.75</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0.33</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5</v>
+      </c>
+      <c r="AR36">
+        <v>2.09</v>
+      </c>
+      <c r="AS36">
+        <v>1.42</v>
+      </c>
+      <c r="AT36">
+        <v>3.51</v>
+      </c>
+      <c r="AU36">
+        <v>3</v>
+      </c>
+      <c r="AV36">
+        <v>5</v>
+      </c>
+      <c r="AW36">
+        <v>6</v>
+      </c>
+      <c r="AX36">
+        <v>2</v>
+      </c>
+      <c r="AY36">
+        <v>9</v>
+      </c>
+      <c r="AZ36">
+        <v>7</v>
+      </c>
+      <c r="BA36">
+        <v>4</v>
+      </c>
+      <c r="BB36">
+        <v>6</v>
+      </c>
+      <c r="BC36">
+        <v>10</v>
+      </c>
+      <c r="BD36">
+        <v>1.65</v>
+      </c>
+      <c r="BE36">
+        <v>7.5</v>
+      </c>
+      <c r="BF36">
+        <v>2.7</v>
+      </c>
+      <c r="BG36">
+        <v>1.28</v>
+      </c>
+      <c r="BH36">
+        <v>3.2</v>
+      </c>
+      <c r="BI36">
+        <v>1.54</v>
+      </c>
+      <c r="BJ36">
+        <v>2.32</v>
+      </c>
+      <c r="BK36">
+        <v>1.98</v>
+      </c>
+      <c r="BL36">
+        <v>1.82</v>
+      </c>
+      <c r="BM36">
+        <v>2.52</v>
+      </c>
+      <c r="BN36">
+        <v>1.46</v>
+      </c>
+      <c r="BO36">
+        <v>3.42</v>
+      </c>
+      <c r="BP36">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7481398</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45542.5625</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>1.85</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>1.57</v>
+      </c>
+      <c r="U37">
+        <v>2.25</v>
+      </c>
+      <c r="V37">
+        <v>3.6</v>
+      </c>
+      <c r="W37">
+        <v>1.25</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>1.03</v>
+      </c>
+      <c r="Z37">
+        <v>2.26</v>
+      </c>
+      <c r="AA37">
+        <v>2.97</v>
+      </c>
+      <c r="AB37">
+        <v>3.64</v>
+      </c>
+      <c r="AC37">
+        <v>1.1</v>
+      </c>
+      <c r="AD37">
+        <v>6.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.5</v>
+      </c>
+      <c r="AF37">
+        <v>2.4</v>
+      </c>
+      <c r="AG37">
+        <v>2.55</v>
+      </c>
+      <c r="AH37">
+        <v>1.51</v>
+      </c>
+      <c r="AI37">
+        <v>2.05</v>
+      </c>
+      <c r="AJ37">
+        <v>1.67</v>
+      </c>
+      <c r="AK37">
+        <v>1.3</v>
+      </c>
+      <c r="AL37">
+        <v>1.3</v>
+      </c>
+      <c r="AM37">
+        <v>1.62</v>
+      </c>
+      <c r="AN37">
+        <v>0.5</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>1.33</v>
+      </c>
+      <c r="AQ37">
+        <v>1.33</v>
+      </c>
+      <c r="AR37">
+        <v>1.41</v>
+      </c>
+      <c r="AS37">
+        <v>0.7</v>
+      </c>
+      <c r="AT37">
+        <v>2.11</v>
+      </c>
+      <c r="AU37">
+        <v>9</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>2</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>11</v>
+      </c>
+      <c r="AZ37">
+        <v>10</v>
+      </c>
+      <c r="BA37">
+        <v>1</v>
+      </c>
+      <c r="BB37">
+        <v>6</v>
+      </c>
+      <c r="BC37">
+        <v>7</v>
+      </c>
+      <c r="BD37">
+        <v>1.67</v>
+      </c>
+      <c r="BE37">
+        <v>7.5</v>
+      </c>
+      <c r="BF37">
+        <v>2.65</v>
+      </c>
+      <c r="BG37">
+        <v>1.29</v>
+      </c>
+      <c r="BH37">
+        <v>3.14</v>
+      </c>
+      <c r="BI37">
+        <v>1.7</v>
+      </c>
+      <c r="BJ37">
+        <v>2.05</v>
+      </c>
+      <c r="BK37">
+        <v>2.05</v>
+      </c>
+      <c r="BL37">
+        <v>1.7</v>
+      </c>
+      <c r="BM37">
+        <v>2.56</v>
+      </c>
+      <c r="BN37">
+        <v>1.47</v>
+      </c>
+      <c r="BO37">
+        <v>3.48</v>
+      </c>
+      <c r="BP37">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7481394</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45542.5625</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>3.8</v>
+      </c>
+      <c r="T38">
+        <v>1.53</v>
+      </c>
+      <c r="U38">
+        <v>2.35</v>
+      </c>
+      <c r="V38">
+        <v>3.45</v>
+      </c>
+      <c r="W38">
+        <v>1.25</v>
+      </c>
+      <c r="X38">
+        <v>9.4</v>
+      </c>
+      <c r="Y38">
+        <v>1.04</v>
+      </c>
+      <c r="Z38">
+        <v>2.39</v>
+      </c>
+      <c r="AA38">
+        <v>3.15</v>
+      </c>
+      <c r="AB38">
+        <v>3.15</v>
+      </c>
+      <c r="AC38">
+        <v>1.09</v>
+      </c>
+      <c r="AD38">
+        <v>7</v>
+      </c>
+      <c r="AE38">
+        <v>1.48</v>
+      </c>
+      <c r="AF38">
+        <v>2.65</v>
+      </c>
+      <c r="AG38">
+        <v>2.44</v>
+      </c>
+      <c r="AH38">
+        <v>1.56</v>
+      </c>
+      <c r="AI38">
+        <v>1.95</v>
+      </c>
+      <c r="AJ38">
+        <v>1.73</v>
+      </c>
+      <c r="AK38">
+        <v>1.33</v>
+      </c>
+      <c r="AL38">
+        <v>1.3</v>
+      </c>
+      <c r="AM38">
+        <v>1.57</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>1.5</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1.35</v>
+      </c>
+      <c r="AS38">
+        <v>1.28</v>
+      </c>
+      <c r="AT38">
+        <v>2.63</v>
+      </c>
+      <c r="AU38">
+        <v>2</v>
+      </c>
+      <c r="AV38">
+        <v>7</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>8</v>
+      </c>
+      <c r="AZ38">
+        <v>11</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>8</v>
+      </c>
+      <c r="BD38">
+        <v>1.8</v>
+      </c>
+      <c r="BE38">
+        <v>7.2</v>
+      </c>
+      <c r="BF38">
+        <v>2.4</v>
+      </c>
+      <c r="BG38">
+        <v>1.27</v>
+      </c>
+      <c r="BH38">
+        <v>3.28</v>
+      </c>
+      <c r="BI38">
+        <v>1.55</v>
+      </c>
+      <c r="BJ38">
+        <v>2.37</v>
+      </c>
+      <c r="BK38">
+        <v>2</v>
+      </c>
+      <c r="BL38">
+        <v>1.8</v>
+      </c>
+      <c r="BM38">
+        <v>2.44</v>
+      </c>
+      <c r="BN38">
+        <v>1.52</v>
+      </c>
+      <c r="BO38">
+        <v>3.34</v>
+      </c>
+      <c r="BP38">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7481391</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45542.66666666666</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39">
+        <v>2.75</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>4.5</v>
+      </c>
+      <c r="T39">
+        <v>1.5</v>
+      </c>
+      <c r="U39">
+        <v>2.5</v>
+      </c>
+      <c r="V39">
+        <v>3.4</v>
+      </c>
+      <c r="W39">
+        <v>1.3</v>
+      </c>
+      <c r="X39">
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <v>1.06</v>
+      </c>
+      <c r="Z39">
+        <v>1.99</v>
+      </c>
+      <c r="AA39">
+        <v>3.15</v>
+      </c>
+      <c r="AB39">
+        <v>3.92</v>
+      </c>
+      <c r="AC39">
+        <v>1.05</v>
+      </c>
+      <c r="AD39">
+        <v>7.2</v>
+      </c>
+      <c r="AE39">
+        <v>1.4</v>
+      </c>
+      <c r="AF39">
+        <v>2.64</v>
+      </c>
+      <c r="AG39">
+        <v>2.18</v>
+      </c>
+      <c r="AH39">
+        <v>1.58</v>
+      </c>
+      <c r="AI39">
+        <v>2</v>
+      </c>
+      <c r="AJ39">
+        <v>1.73</v>
+      </c>
+      <c r="AK39">
+        <v>1.25</v>
+      </c>
+      <c r="AL39">
+        <v>1.33</v>
+      </c>
+      <c r="AM39">
+        <v>1.82</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1.32</v>
+      </c>
+      <c r="AS39">
+        <v>1.05</v>
+      </c>
+      <c r="AT39">
+        <v>2.37</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <v>8</v>
+      </c>
+      <c r="AX39">
+        <v>2</v>
+      </c>
+      <c r="AY39">
+        <v>13</v>
+      </c>
+      <c r="AZ39">
+        <v>4</v>
+      </c>
+      <c r="BA39">
+        <v>8</v>
+      </c>
+      <c r="BB39">
+        <v>1</v>
+      </c>
+      <c r="BC39">
+        <v>9</v>
+      </c>
+      <c r="BD39">
+        <v>1.47</v>
+      </c>
+      <c r="BE39">
+        <v>8.9</v>
+      </c>
+      <c r="BF39">
+        <v>3.32</v>
+      </c>
+      <c r="BG39">
+        <v>1.29</v>
+      </c>
+      <c r="BH39">
+        <v>3.14</v>
+      </c>
+      <c r="BI39">
+        <v>1.56</v>
+      </c>
+      <c r="BJ39">
+        <v>2.27</v>
+      </c>
+      <c r="BK39">
+        <v>2</v>
+      </c>
+      <c r="BL39">
+        <v>1.8</v>
+      </c>
+      <c r="BM39">
+        <v>2.57</v>
+      </c>
+      <c r="BN39">
+        <v>1.44</v>
+      </c>
+      <c r="BO39">
+        <v>3.48</v>
+      </c>
+      <c r="BP39">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,12 @@
     <t>['20', '38', '76']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['37', '68', '84']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -400,9 +406,6 @@
     <t>['54']</t>
   </si>
   <si>
-    <t>['82']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -449,6 +452,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1075,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1481,7 +1487,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1893,7 +1899,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1971,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2099,7 +2105,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2305,7 +2311,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2386,7 +2392,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2511,7 +2517,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2592,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2717,7 +2723,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2923,7 +2929,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3129,7 +3135,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3207,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3335,7 +3341,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3541,7 +3547,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3953,7 +3959,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4031,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4159,7 +4165,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4365,7 +4371,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4571,7 +4577,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4652,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5189,7 +5195,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5395,7 +5401,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5601,7 +5607,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5807,7 +5813,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6013,7 +6019,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6219,7 +6225,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6425,7 +6431,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6837,7 +6843,7 @@
         <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7249,7 +7255,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7327,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7455,7 +7461,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7536,7 +7542,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -7661,7 +7667,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.88</v>
@@ -7867,7 +7873,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8073,7 +8079,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8279,7 +8285,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8848,6 +8854,830 @@
       </c>
       <c r="BP39">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7481392</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45543.375</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q40">
+        <v>2.5</v>
+      </c>
+      <c r="R40">
+        <v>1.95</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>1.52</v>
+      </c>
+      <c r="U40">
+        <v>2.39</v>
+      </c>
+      <c r="V40">
+        <v>3.45</v>
+      </c>
+      <c r="W40">
+        <v>1.27</v>
+      </c>
+      <c r="X40">
+        <v>9.4</v>
+      </c>
+      <c r="Y40">
+        <v>1.03</v>
+      </c>
+      <c r="Z40">
+        <v>1.73</v>
+      </c>
+      <c r="AA40">
+        <v>3.35</v>
+      </c>
+      <c r="AB40">
+        <v>4.75</v>
+      </c>
+      <c r="AC40">
+        <v>1.08</v>
+      </c>
+      <c r="AD40">
+        <v>7.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.5</v>
+      </c>
+      <c r="AF40">
+        <v>2.4</v>
+      </c>
+      <c r="AG40">
+        <v>2.3</v>
+      </c>
+      <c r="AH40">
+        <v>1.54</v>
+      </c>
+      <c r="AI40">
+        <v>2.15</v>
+      </c>
+      <c r="AJ40">
+        <v>1.65</v>
+      </c>
+      <c r="AK40">
+        <v>1.14</v>
+      </c>
+      <c r="AL40">
+        <v>1.25</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <v>0.5</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>0.67</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>1.37</v>
+      </c>
+      <c r="AS40">
+        <v>0.87</v>
+      </c>
+      <c r="AT40">
+        <v>2.24</v>
+      </c>
+      <c r="AU40">
+        <v>2</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40">
+        <v>7</v>
+      </c>
+      <c r="AX40">
+        <v>3</v>
+      </c>
+      <c r="AY40">
+        <v>9</v>
+      </c>
+      <c r="AZ40">
+        <v>8</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BB40">
+        <v>6</v>
+      </c>
+      <c r="BC40">
+        <v>8</v>
+      </c>
+      <c r="BD40">
+        <v>1.37</v>
+      </c>
+      <c r="BE40">
+        <v>7.5</v>
+      </c>
+      <c r="BF40">
+        <v>4.33</v>
+      </c>
+      <c r="BG40">
+        <v>1.32</v>
+      </c>
+      <c r="BH40">
+        <v>2.98</v>
+      </c>
+      <c r="BI40">
+        <v>1.7</v>
+      </c>
+      <c r="BJ40">
+        <v>2.05</v>
+      </c>
+      <c r="BK40">
+        <v>2.05</v>
+      </c>
+      <c r="BL40">
+        <v>1.7</v>
+      </c>
+      <c r="BM40">
+        <v>2.69</v>
+      </c>
+      <c r="BN40">
+        <v>1.41</v>
+      </c>
+      <c r="BO40">
+        <v>3.65</v>
+      </c>
+      <c r="BP40">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7481390</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45543.46875</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q41">
+        <v>3.75</v>
+      </c>
+      <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>1.44</v>
+      </c>
+      <c r="U41">
+        <v>2.63</v>
+      </c>
+      <c r="V41">
+        <v>3.25</v>
+      </c>
+      <c r="W41">
+        <v>1.33</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41">
+        <v>1.06</v>
+      </c>
+      <c r="Z41">
+        <v>3.1</v>
+      </c>
+      <c r="AA41">
+        <v>3.05</v>
+      </c>
+      <c r="AB41">
+        <v>2.28</v>
+      </c>
+      <c r="AC41">
+        <v>1.04</v>
+      </c>
+      <c r="AD41">
+        <v>7.8</v>
+      </c>
+      <c r="AE41">
+        <v>1.32</v>
+      </c>
+      <c r="AF41">
+        <v>3.1</v>
+      </c>
+      <c r="AG41">
+        <v>2.12</v>
+      </c>
+      <c r="AH41">
+        <v>1.64</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.83</v>
+      </c>
+      <c r="AK41">
+        <v>1.62</v>
+      </c>
+      <c r="AL41">
+        <v>1.33</v>
+      </c>
+      <c r="AM41">
+        <v>1.38</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>2.33</v>
+      </c>
+      <c r="AR41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
+        <v>1.05</v>
+      </c>
+      <c r="AT41">
+        <v>2.05</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>9</v>
+      </c>
+      <c r="AW41">
+        <v>6</v>
+      </c>
+      <c r="AX41">
+        <v>2</v>
+      </c>
+      <c r="AY41">
+        <v>10</v>
+      </c>
+      <c r="AZ41">
+        <v>11</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>2.14</v>
+      </c>
+      <c r="BE41">
+        <v>6.45</v>
+      </c>
+      <c r="BF41">
+        <v>2.12</v>
+      </c>
+      <c r="BG41">
+        <v>1.24</v>
+      </c>
+      <c r="BH41">
+        <v>3.48</v>
+      </c>
+      <c r="BI41">
+        <v>1.5</v>
+      </c>
+      <c r="BJ41">
+        <v>2.46</v>
+      </c>
+      <c r="BK41">
+        <v>1.95</v>
+      </c>
+      <c r="BL41">
+        <v>1.78</v>
+      </c>
+      <c r="BM41">
+        <v>2.31</v>
+      </c>
+      <c r="BN41">
+        <v>1.56</v>
+      </c>
+      <c r="BO41">
+        <v>3.14</v>
+      </c>
+      <c r="BP41">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7481393</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45543.5625</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42">
+        <v>3.6</v>
+      </c>
+      <c r="R42">
+        <v>2.1</v>
+      </c>
+      <c r="S42">
+        <v>3.1</v>
+      </c>
+      <c r="T42">
+        <v>1.44</v>
+      </c>
+      <c r="U42">
+        <v>2.63</v>
+      </c>
+      <c r="V42">
+        <v>3.25</v>
+      </c>
+      <c r="W42">
+        <v>1.33</v>
+      </c>
+      <c r="X42">
+        <v>9</v>
+      </c>
+      <c r="Y42">
+        <v>1.07</v>
+      </c>
+      <c r="Z42">
+        <v>2.9</v>
+      </c>
+      <c r="AA42">
+        <v>3.2</v>
+      </c>
+      <c r="AB42">
+        <v>2.53</v>
+      </c>
+      <c r="AC42">
+        <v>1.04</v>
+      </c>
+      <c r="AD42">
+        <v>7.8</v>
+      </c>
+      <c r="AE42">
+        <v>1.32</v>
+      </c>
+      <c r="AF42">
+        <v>3.1</v>
+      </c>
+      <c r="AG42">
+        <v>2.32</v>
+      </c>
+      <c r="AH42">
+        <v>1.61</v>
+      </c>
+      <c r="AI42">
+        <v>1.83</v>
+      </c>
+      <c r="AJ42">
+        <v>1.83</v>
+      </c>
+      <c r="AK42">
+        <v>1.57</v>
+      </c>
+      <c r="AL42">
+        <v>1.33</v>
+      </c>
+      <c r="AM42">
+        <v>1.4</v>
+      </c>
+      <c r="AN42">
+        <v>1.5</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+      <c r="AP42">
+        <v>2</v>
+      </c>
+      <c r="AQ42">
+        <v>1.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.8</v>
+      </c>
+      <c r="AS42">
+        <v>1.67</v>
+      </c>
+      <c r="AT42">
+        <v>3.47</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>2</v>
+      </c>
+      <c r="AX42">
+        <v>5</v>
+      </c>
+      <c r="AY42">
+        <v>6</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>4</v>
+      </c>
+      <c r="BC42">
+        <v>7</v>
+      </c>
+      <c r="BD42">
+        <v>2.14</v>
+      </c>
+      <c r="BE42">
+        <v>6.3</v>
+      </c>
+      <c r="BF42">
+        <v>2.14</v>
+      </c>
+      <c r="BG42">
+        <v>1.29</v>
+      </c>
+      <c r="BH42">
+        <v>3.14</v>
+      </c>
+      <c r="BI42">
+        <v>1.6</v>
+      </c>
+      <c r="BJ42">
+        <v>2.26</v>
+      </c>
+      <c r="BK42">
+        <v>1.98</v>
+      </c>
+      <c r="BL42">
+        <v>1.82</v>
+      </c>
+      <c r="BM42">
+        <v>2.53</v>
+      </c>
+      <c r="BN42">
+        <v>1.48</v>
+      </c>
+      <c r="BO42">
+        <v>3.48</v>
+      </c>
+      <c r="BP42">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7481397</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45543.5625</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43">
+        <v>3.1</v>
+      </c>
+      <c r="R43">
+        <v>1.91</v>
+      </c>
+      <c r="S43">
+        <v>4.33</v>
+      </c>
+      <c r="T43">
+        <v>1.57</v>
+      </c>
+      <c r="U43">
+        <v>2.25</v>
+      </c>
+      <c r="V43">
+        <v>3.75</v>
+      </c>
+      <c r="W43">
+        <v>1.25</v>
+      </c>
+      <c r="X43">
+        <v>11</v>
+      </c>
+      <c r="Y43">
+        <v>1.05</v>
+      </c>
+      <c r="Z43">
+        <v>2.46</v>
+      </c>
+      <c r="AA43">
+        <v>3.1</v>
+      </c>
+      <c r="AB43">
+        <v>3.09</v>
+      </c>
+      <c r="AC43">
+        <v>1.09</v>
+      </c>
+      <c r="AD43">
+        <v>6</v>
+      </c>
+      <c r="AE43">
+        <v>1.52</v>
+      </c>
+      <c r="AF43">
+        <v>2.54</v>
+      </c>
+      <c r="AG43">
+        <v>2.55</v>
+      </c>
+      <c r="AH43">
+        <v>1.45</v>
+      </c>
+      <c r="AI43">
+        <v>2.2</v>
+      </c>
+      <c r="AJ43">
+        <v>1.62</v>
+      </c>
+      <c r="AK43">
+        <v>1.33</v>
+      </c>
+      <c r="AL43">
+        <v>1.38</v>
+      </c>
+      <c r="AM43">
+        <v>1.62</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>3</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>1.4</v>
+      </c>
+      <c r="AT43">
+        <v>1.4</v>
+      </c>
+      <c r="AU43">
+        <v>9</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>7</v>
+      </c>
+      <c r="AX43">
+        <v>2</v>
+      </c>
+      <c r="AY43">
+        <v>16</v>
+      </c>
+      <c r="AZ43">
+        <v>6</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>3</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>1.77</v>
+      </c>
+      <c r="BE43">
+        <v>6.55</v>
+      </c>
+      <c r="BF43">
+        <v>2.66</v>
+      </c>
+      <c r="BG43">
+        <v>1.28</v>
+      </c>
+      <c r="BH43">
+        <v>3.2</v>
+      </c>
+      <c r="BI43">
+        <v>1.7</v>
+      </c>
+      <c r="BJ43">
+        <v>2.05</v>
+      </c>
+      <c r="BK43">
+        <v>1.85</v>
+      </c>
+      <c r="BL43">
+        <v>1.87</v>
+      </c>
+      <c r="BM43">
+        <v>2.52</v>
+      </c>
+      <c r="BN43">
+        <v>1.49</v>
+      </c>
+      <c r="BO43">
+        <v>3.42</v>
+      </c>
+      <c r="BP43">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,9 @@
     <t>['37', '68', '84']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
     <t>['4', '79']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>['28']</t>
+  </si>
+  <si>
+    <t>['49', '53', '56']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1081,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1487,7 +1493,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1899,7 +1905,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2105,7 +2111,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2311,7 +2317,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2517,7 +2523,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2723,7 +2729,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2929,7 +2935,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3135,7 +3141,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3341,7 +3347,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3422,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3547,7 +3553,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4165,7 +4171,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4246,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4371,7 +4377,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4577,7 +4583,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4861,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -5067,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5195,7 +5201,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5401,7 +5407,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5607,7 +5613,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5813,7 +5819,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6019,7 +6025,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6225,7 +6231,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6431,7 +6437,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6843,7 +6849,7 @@
         <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7255,7 +7261,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7461,7 +7467,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7667,7 +7673,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="Q34">
         <v>2.88</v>
@@ -7873,7 +7879,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -9678,6 +9684,418 @@
       </c>
       <c r="BP43">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7481395</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45544.66666666666</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q44">
+        <v>2.88</v>
+      </c>
+      <c r="R44">
+        <v>2.1</v>
+      </c>
+      <c r="S44">
+        <v>3.75</v>
+      </c>
+      <c r="T44">
+        <v>1.44</v>
+      </c>
+      <c r="U44">
+        <v>2.63</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>1.36</v>
+      </c>
+      <c r="X44">
+        <v>9</v>
+      </c>
+      <c r="Y44">
+        <v>1.07</v>
+      </c>
+      <c r="Z44">
+        <v>2.25</v>
+      </c>
+      <c r="AA44">
+        <v>3.1</v>
+      </c>
+      <c r="AB44">
+        <v>3.1</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE44">
+        <v>1.28</v>
+      </c>
+      <c r="AF44">
+        <v>3.22</v>
+      </c>
+      <c r="AG44">
+        <v>2</v>
+      </c>
+      <c r="AH44">
+        <v>1.84</v>
+      </c>
+      <c r="AI44">
+        <v>1.8</v>
+      </c>
+      <c r="AJ44">
+        <v>1.91</v>
+      </c>
+      <c r="AK44">
+        <v>1.35</v>
+      </c>
+      <c r="AL44">
+        <v>1.31</v>
+      </c>
+      <c r="AM44">
+        <v>1.67</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>0.5</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1.41</v>
+      </c>
+      <c r="AS44">
+        <v>1.84</v>
+      </c>
+      <c r="AT44">
+        <v>3.25</v>
+      </c>
+      <c r="AU44">
+        <v>6</v>
+      </c>
+      <c r="AV44">
+        <v>6</v>
+      </c>
+      <c r="AW44">
+        <v>4</v>
+      </c>
+      <c r="AX44">
+        <v>3</v>
+      </c>
+      <c r="AY44">
+        <v>10</v>
+      </c>
+      <c r="AZ44">
+        <v>9</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>7</v>
+      </c>
+      <c r="BC44">
+        <v>10</v>
+      </c>
+      <c r="BD44">
+        <v>1.96</v>
+      </c>
+      <c r="BE44">
+        <v>6.5</v>
+      </c>
+      <c r="BF44">
+        <v>2.44</v>
+      </c>
+      <c r="BG44">
+        <v>1.32</v>
+      </c>
+      <c r="BH44">
+        <v>3.22</v>
+      </c>
+      <c r="BI44">
+        <v>1.6</v>
+      </c>
+      <c r="BJ44">
+        <v>2.24</v>
+      </c>
+      <c r="BK44">
+        <v>2.05</v>
+      </c>
+      <c r="BL44">
+        <v>1.7</v>
+      </c>
+      <c r="BM44">
+        <v>2.83</v>
+      </c>
+      <c r="BN44">
+        <v>1.4</v>
+      </c>
+      <c r="BO44">
+        <v>3.95</v>
+      </c>
+      <c r="BP44">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7481389</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45544.66666666666</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>2.1</v>
+      </c>
+      <c r="S45">
+        <v>3.75</v>
+      </c>
+      <c r="T45">
+        <v>1.44</v>
+      </c>
+      <c r="U45">
+        <v>2.63</v>
+      </c>
+      <c r="V45">
+        <v>3.25</v>
+      </c>
+      <c r="W45">
+        <v>1.33</v>
+      </c>
+      <c r="X45">
+        <v>9</v>
+      </c>
+      <c r="Y45">
+        <v>1.07</v>
+      </c>
+      <c r="Z45">
+        <v>2.25</v>
+      </c>
+      <c r="AA45">
+        <v>3.1</v>
+      </c>
+      <c r="AB45">
+        <v>3.2</v>
+      </c>
+      <c r="AC45">
+        <v>1.03</v>
+      </c>
+      <c r="AD45">
+        <v>8.1</v>
+      </c>
+      <c r="AE45">
+        <v>1.34</v>
+      </c>
+      <c r="AF45">
+        <v>3.28</v>
+      </c>
+      <c r="AG45">
+        <v>2.1</v>
+      </c>
+      <c r="AH45">
+        <v>1.65</v>
+      </c>
+      <c r="AI45">
+        <v>1.83</v>
+      </c>
+      <c r="AJ45">
+        <v>1.83</v>
+      </c>
+      <c r="AK45">
+        <v>1.35</v>
+      </c>
+      <c r="AL45">
+        <v>1.33</v>
+      </c>
+      <c r="AM45">
+        <v>1.65</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>1.5</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>0.96</v>
+      </c>
+      <c r="AS45">
+        <v>1.27</v>
+      </c>
+      <c r="AT45">
+        <v>2.23</v>
+      </c>
+      <c r="AU45">
+        <v>5</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>11</v>
+      </c>
+      <c r="AZ45">
+        <v>7</v>
+      </c>
+      <c r="BA45">
+        <v>4</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>7</v>
+      </c>
+      <c r="BD45">
+        <v>2.03</v>
+      </c>
+      <c r="BE45">
+        <v>6.45</v>
+      </c>
+      <c r="BF45">
+        <v>2.24</v>
+      </c>
+      <c r="BG45">
+        <v>1.26</v>
+      </c>
+      <c r="BH45">
+        <v>3.34</v>
+      </c>
+      <c r="BI45">
+        <v>1.53</v>
+      </c>
+      <c r="BJ45">
+        <v>2.37</v>
+      </c>
+      <c r="BK45">
+        <v>2</v>
+      </c>
+      <c r="BL45">
+        <v>1.8</v>
+      </c>
+      <c r="BM45">
+        <v>2.39</v>
+      </c>
+      <c r="BN45">
+        <v>1.53</v>
+      </c>
+      <c r="BO45">
+        <v>3.28</v>
+      </c>
+      <c r="BP45">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['43', '90+8']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -822,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1084,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1493,7 +1496,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1905,7 +1908,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2111,7 +2114,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2317,7 +2320,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2523,7 +2526,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2729,7 +2732,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2935,7 +2938,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3141,7 +3144,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3347,7 +3350,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3553,7 +3556,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3634,7 +3637,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4171,7 +4174,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4377,7 +4380,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4583,7 +4586,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5201,7 +5204,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5407,7 +5410,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5485,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5613,7 +5616,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5819,7 +5822,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6025,7 +6028,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6231,7 +6234,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6437,7 +6440,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6849,7 +6852,7 @@
         <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7261,7 +7264,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7467,7 +7470,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7879,7 +7882,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8085,7 +8088,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8166,7 +8169,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
         <v>2.09</v>
@@ -8291,7 +8294,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8781,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9115,7 +9118,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9733,7 +9736,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9939,7 +9942,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10096,6 +10099,212 @@
       </c>
       <c r="BP45">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7481403</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45548.64583333334</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>120</v>
+      </c>
+      <c r="P46" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q46">
+        <v>3.5</v>
+      </c>
+      <c r="R46">
+        <v>1.95</v>
+      </c>
+      <c r="S46">
+        <v>3.5</v>
+      </c>
+      <c r="T46">
+        <v>1.53</v>
+      </c>
+      <c r="U46">
+        <v>2.38</v>
+      </c>
+      <c r="V46">
+        <v>3.75</v>
+      </c>
+      <c r="W46">
+        <v>1.25</v>
+      </c>
+      <c r="X46">
+        <v>11</v>
+      </c>
+      <c r="Y46">
+        <v>1.05</v>
+      </c>
+      <c r="Z46">
+        <v>2.55</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>2.8</v>
+      </c>
+      <c r="AC46">
+        <v>1.07</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>1.44</v>
+      </c>
+      <c r="AF46">
+        <v>2.6</v>
+      </c>
+      <c r="AG46">
+        <v>2.37</v>
+      </c>
+      <c r="AH46">
+        <v>1.52</v>
+      </c>
+      <c r="AI46">
+        <v>2.1</v>
+      </c>
+      <c r="AJ46">
+        <v>1.67</v>
+      </c>
+      <c r="AK46">
+        <v>1.45</v>
+      </c>
+      <c r="AL46">
+        <v>1.3</v>
+      </c>
+      <c r="AM46">
+        <v>1.45</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0.5</v>
+      </c>
+      <c r="AP46">
+        <v>1.67</v>
+      </c>
+      <c r="AQ46">
+        <v>0.33</v>
+      </c>
+      <c r="AR46">
+        <v>1.47</v>
+      </c>
+      <c r="AS46">
+        <v>1.24</v>
+      </c>
+      <c r="AT46">
+        <v>2.71</v>
+      </c>
+      <c r="AU46">
+        <v>7</v>
+      </c>
+      <c r="AV46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>6</v>
+      </c>
+      <c r="AY46">
+        <v>14</v>
+      </c>
+      <c r="AZ46">
+        <v>12</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>10</v>
+      </c>
+      <c r="BD46">
+        <v>1.55</v>
+      </c>
+      <c r="BE46">
+        <v>8.5</v>
+      </c>
+      <c r="BF46">
+        <v>2.91</v>
+      </c>
+      <c r="BG46">
+        <v>1.28</v>
+      </c>
+      <c r="BH46">
+        <v>3.7</v>
+      </c>
+      <c r="BI46">
+        <v>1.46</v>
+      </c>
+      <c r="BJ46">
+        <v>2.58</v>
+      </c>
+      <c r="BK46">
+        <v>1.85</v>
+      </c>
+      <c r="BL46">
+        <v>1.95</v>
+      </c>
+      <c r="BM46">
+        <v>2.42</v>
+      </c>
+      <c r="BN46">
+        <v>1.52</v>
+      </c>
+      <c r="BO46">
+        <v>3.32</v>
+      </c>
+      <c r="BP46">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,21 @@
     <t>['43', '90+8']</t>
   </si>
   <si>
+    <t>['44', '74', '81']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['18', '85']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -415,9 +430,6 @@
     <t>['81']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -464,6 +476,9 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1099,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1165,7 +1180,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1368,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1496,7 +1511,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1780,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -1908,7 +1923,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2114,7 +2129,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2320,7 +2335,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2526,7 +2541,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2604,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2732,7 +2747,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2938,7 +2953,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3019,7 +3034,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3144,7 +3159,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3225,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3350,7 +3365,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3428,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3556,7 +3571,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3843,7 +3858,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4174,7 +4189,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4252,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4380,7 +4395,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4458,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4586,7 +4601,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5204,7 +5219,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5410,7 +5425,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5616,7 +5631,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5697,7 +5712,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -5822,7 +5837,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6028,7 +6043,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6109,7 +6124,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6234,7 +6249,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6315,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6440,7 +6455,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6518,10 +6533,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -6852,7 +6867,7 @@
         <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7136,7 +7151,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
         <v>2.33</v>
@@ -7264,7 +7279,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7470,7 +7485,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7548,7 +7563,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
         <v>2.33</v>
@@ -7882,7 +7897,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8088,7 +8103,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8294,7 +8309,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9118,7 +9133,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9736,7 +9751,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9942,7 +9957,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10305,6 +10320,1036 @@
       </c>
       <c r="BP46">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7481409</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45549.46875</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>121</v>
+      </c>
+      <c r="P47" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q47">
+        <v>2.4</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>1.43</v>
+      </c>
+      <c r="U47">
+        <v>2.84</v>
+      </c>
+      <c r="V47">
+        <v>3.14</v>
+      </c>
+      <c r="W47">
+        <v>1.36</v>
+      </c>
+      <c r="X47">
+        <v>7.9</v>
+      </c>
+      <c r="Y47">
+        <v>1.05</v>
+      </c>
+      <c r="Z47">
+        <v>1.77</v>
+      </c>
+      <c r="AA47">
+        <v>3.3</v>
+      </c>
+      <c r="AB47">
+        <v>4.7</v>
+      </c>
+      <c r="AC47">
+        <v>1.05</v>
+      </c>
+      <c r="AD47">
+        <v>8</v>
+      </c>
+      <c r="AE47">
+        <v>1.33</v>
+      </c>
+      <c r="AF47">
+        <v>3</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>1.7</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.73</v>
+      </c>
+      <c r="AK47">
+        <v>1.16</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.95</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>0.5</v>
+      </c>
+      <c r="AR47">
+        <v>1.72</v>
+      </c>
+      <c r="AS47">
+        <v>1.38</v>
+      </c>
+      <c r="AT47">
+        <v>3.1</v>
+      </c>
+      <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>13</v>
+      </c>
+      <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>20</v>
+      </c>
+      <c r="AZ47">
+        <v>5</v>
+      </c>
+      <c r="BA47">
+        <v>10</v>
+      </c>
+      <c r="BB47">
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <v>12</v>
+      </c>
+      <c r="BD47">
+        <v>1.45</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>3.46</v>
+      </c>
+      <c r="BG47">
+        <v>1.3</v>
+      </c>
+      <c r="BH47">
+        <v>3.05</v>
+      </c>
+      <c r="BI47">
+        <v>1.56</v>
+      </c>
+      <c r="BJ47">
+        <v>2.2</v>
+      </c>
+      <c r="BK47">
+        <v>2</v>
+      </c>
+      <c r="BL47">
+        <v>1.8</v>
+      </c>
+      <c r="BM47">
+        <v>2.55</v>
+      </c>
+      <c r="BN47">
+        <v>1.42</v>
+      </c>
+      <c r="BO47">
+        <v>3.5</v>
+      </c>
+      <c r="BP47">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7481404</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45549.46875</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>122</v>
+      </c>
+      <c r="P48" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q48">
+        <v>2.4</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>5.5</v>
+      </c>
+      <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
+        <v>3.4</v>
+      </c>
+      <c r="W48">
+        <v>1.3</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.06</v>
+      </c>
+      <c r="Z48">
+        <v>1.73</v>
+      </c>
+      <c r="AA48">
+        <v>3.4</v>
+      </c>
+      <c r="AB48">
+        <v>4.8</v>
+      </c>
+      <c r="AC48">
+        <v>1.05</v>
+      </c>
+      <c r="AD48">
+        <v>8</v>
+      </c>
+      <c r="AE48">
+        <v>1.36</v>
+      </c>
+      <c r="AF48">
+        <v>2.88</v>
+      </c>
+      <c r="AG48">
+        <v>1.9</v>
+      </c>
+      <c r="AH48">
+        <v>1.72</v>
+      </c>
+      <c r="AI48">
+        <v>2.1</v>
+      </c>
+      <c r="AJ48">
+        <v>1.67</v>
+      </c>
+      <c r="AK48">
+        <v>1.17</v>
+      </c>
+      <c r="AL48">
+        <v>1.22</v>
+      </c>
+      <c r="AM48">
+        <v>2.05</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>2.33</v>
+      </c>
+      <c r="AQ48">
+        <v>0.33</v>
+      </c>
+      <c r="AR48">
+        <v>1.67</v>
+      </c>
+      <c r="AS48">
+        <v>1.19</v>
+      </c>
+      <c r="AT48">
+        <v>2.86</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>6</v>
+      </c>
+      <c r="AZ48">
+        <v>6</v>
+      </c>
+      <c r="BA48">
+        <v>4</v>
+      </c>
+      <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>1.37</v>
+      </c>
+      <c r="BE48">
+        <v>9</v>
+      </c>
+      <c r="BF48">
+        <v>3.83</v>
+      </c>
+      <c r="BG48">
+        <v>1.34</v>
+      </c>
+      <c r="BH48">
+        <v>2.88</v>
+      </c>
+      <c r="BI48">
+        <v>1.7</v>
+      </c>
+      <c r="BJ48">
+        <v>2.05</v>
+      </c>
+      <c r="BK48">
+        <v>2.1</v>
+      </c>
+      <c r="BL48">
+        <v>1.67</v>
+      </c>
+      <c r="BM48">
+        <v>2.7</v>
+      </c>
+      <c r="BN48">
+        <v>1.38</v>
+      </c>
+      <c r="BO48">
+        <v>3.75</v>
+      </c>
+      <c r="BP48">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7481410</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45549.5625</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>123</v>
+      </c>
+      <c r="P49" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q49">
+        <v>2.75</v>
+      </c>
+      <c r="R49">
+        <v>1.95</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>1.57</v>
+      </c>
+      <c r="U49">
+        <v>2.25</v>
+      </c>
+      <c r="V49">
+        <v>3.75</v>
+      </c>
+      <c r="W49">
+        <v>1.25</v>
+      </c>
+      <c r="X49">
+        <v>11</v>
+      </c>
+      <c r="Y49">
+        <v>1.05</v>
+      </c>
+      <c r="Z49">
+        <v>2.25</v>
+      </c>
+      <c r="AA49">
+        <v>3</v>
+      </c>
+      <c r="AB49">
+        <v>3.3</v>
+      </c>
+      <c r="AC49">
+        <v>1.08</v>
+      </c>
+      <c r="AD49">
+        <v>6.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.55</v>
+      </c>
+      <c r="AF49">
+        <v>2.3</v>
+      </c>
+      <c r="AG49">
+        <v>2.1</v>
+      </c>
+      <c r="AH49">
+        <v>1.6</v>
+      </c>
+      <c r="AI49">
+        <v>2.25</v>
+      </c>
+      <c r="AJ49">
+        <v>1.57</v>
+      </c>
+      <c r="AK49">
+        <v>1.25</v>
+      </c>
+      <c r="AL49">
+        <v>1.28</v>
+      </c>
+      <c r="AM49">
+        <v>1.77</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>3</v>
+      </c>
+      <c r="AP49">
+        <v>2.33</v>
+      </c>
+      <c r="AQ49">
+        <v>2</v>
+      </c>
+      <c r="AR49">
+        <v>1.38</v>
+      </c>
+      <c r="AS49">
+        <v>1.18</v>
+      </c>
+      <c r="AT49">
+        <v>2.56</v>
+      </c>
+      <c r="AU49">
+        <v>3</v>
+      </c>
+      <c r="AV49">
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <v>8</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>11</v>
+      </c>
+      <c r="AZ49">
+        <v>9</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>1.51</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>3.08</v>
+      </c>
+      <c r="BG49">
+        <v>1.36</v>
+      </c>
+      <c r="BH49">
+        <v>2.8</v>
+      </c>
+      <c r="BI49">
+        <v>1.66</v>
+      </c>
+      <c r="BJ49">
+        <v>2.11</v>
+      </c>
+      <c r="BK49">
+        <v>2.05</v>
+      </c>
+      <c r="BL49">
+        <v>1.7</v>
+      </c>
+      <c r="BM49">
+        <v>2.8</v>
+      </c>
+      <c r="BN49">
+        <v>1.36</v>
+      </c>
+      <c r="BO49">
+        <v>3.9</v>
+      </c>
+      <c r="BP49">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7481406</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45549.5625</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q50">
+        <v>2.75</v>
+      </c>
+      <c r="R50">
+        <v>2.1</v>
+      </c>
+      <c r="S50">
+        <v>3.75</v>
+      </c>
+      <c r="T50">
+        <v>1.42</v>
+      </c>
+      <c r="U50">
+        <v>2.65</v>
+      </c>
+      <c r="V50">
+        <v>2.9</v>
+      </c>
+      <c r="W50">
+        <v>1.36</v>
+      </c>
+      <c r="X50">
+        <v>7.4</v>
+      </c>
+      <c r="Y50">
+        <v>1.06</v>
+      </c>
+      <c r="Z50">
+        <v>2.1</v>
+      </c>
+      <c r="AA50">
+        <v>3.3</v>
+      </c>
+      <c r="AB50">
+        <v>3.3</v>
+      </c>
+      <c r="AC50">
+        <v>1.06</v>
+      </c>
+      <c r="AD50">
+        <v>8.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.3</v>
+      </c>
+      <c r="AF50">
+        <v>3.3</v>
+      </c>
+      <c r="AG50">
+        <v>1.91</v>
+      </c>
+      <c r="AH50">
+        <v>1.8</v>
+      </c>
+      <c r="AI50">
+        <v>1.78</v>
+      </c>
+      <c r="AJ50">
+        <v>1.95</v>
+      </c>
+      <c r="AK50">
+        <v>1.3</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.72</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>1.67</v>
+      </c>
+      <c r="AQ50">
+        <v>0.5</v>
+      </c>
+      <c r="AR50">
+        <v>1.56</v>
+      </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
+      <c r="AT50">
+        <v>2.56</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>8</v>
+      </c>
+      <c r="AZ50">
+        <v>8</v>
+      </c>
+      <c r="BA50">
+        <v>5</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>9</v>
+      </c>
+      <c r="BD50">
+        <v>1.64</v>
+      </c>
+      <c r="BE50">
+        <v>8</v>
+      </c>
+      <c r="BF50">
+        <v>2.77</v>
+      </c>
+      <c r="BG50">
+        <v>1.27</v>
+      </c>
+      <c r="BH50">
+        <v>3.3</v>
+      </c>
+      <c r="BI50">
+        <v>1.5</v>
+      </c>
+      <c r="BJ50">
+        <v>2.35</v>
+      </c>
+      <c r="BK50">
+        <v>1.92</v>
+      </c>
+      <c r="BL50">
+        <v>1.88</v>
+      </c>
+      <c r="BM50">
+        <v>2.4</v>
+      </c>
+      <c r="BN50">
+        <v>1.48</v>
+      </c>
+      <c r="BO50">
+        <v>3.25</v>
+      </c>
+      <c r="BP50">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7481407</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45550.375</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q51">
+        <v>3.4</v>
+      </c>
+      <c r="R51">
+        <v>1.95</v>
+      </c>
+      <c r="S51">
+        <v>3.75</v>
+      </c>
+      <c r="T51">
+        <v>1.57</v>
+      </c>
+      <c r="U51">
+        <v>2.25</v>
+      </c>
+      <c r="V51">
+        <v>3.75</v>
+      </c>
+      <c r="W51">
+        <v>1.25</v>
+      </c>
+      <c r="X51">
+        <v>11</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>2.43</v>
+      </c>
+      <c r="AA51">
+        <v>3.05</v>
+      </c>
+      <c r="AB51">
+        <v>2.92</v>
+      </c>
+      <c r="AC51">
+        <v>1.09</v>
+      </c>
+      <c r="AD51">
+        <v>7.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.48</v>
+      </c>
+      <c r="AF51">
+        <v>2.5</v>
+      </c>
+      <c r="AG51">
+        <v>2.4</v>
+      </c>
+      <c r="AH51">
+        <v>1.5</v>
+      </c>
+      <c r="AI51">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.67</v>
+      </c>
+      <c r="AK51">
+        <v>1.4</v>
+      </c>
+      <c r="AL51">
+        <v>1.3</v>
+      </c>
+      <c r="AM51">
+        <v>1.5</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>1.5</v>
+      </c>
+      <c r="AP51">
+        <v>2.33</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>0.76</v>
+      </c>
+      <c r="AS51">
+        <v>1.1</v>
+      </c>
+      <c r="AT51">
+        <v>1.86</v>
+      </c>
+      <c r="AU51">
+        <v>2</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>6</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>8</v>
+      </c>
+      <c r="AZ51">
+        <v>4</v>
+      </c>
+      <c r="BA51">
+        <v>1</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>3</v>
+      </c>
+      <c r="BD51">
+        <v>1.91</v>
+      </c>
+      <c r="BE51">
+        <v>7.5</v>
+      </c>
+      <c r="BF51">
+        <v>2.2</v>
+      </c>
+      <c r="BG51">
+        <v>1.34</v>
+      </c>
+      <c r="BH51">
+        <v>2.88</v>
+      </c>
+      <c r="BI51">
+        <v>1.7</v>
+      </c>
+      <c r="BJ51">
+        <v>2.05</v>
+      </c>
+      <c r="BK51">
+        <v>2.1</v>
+      </c>
+      <c r="BL51">
+        <v>1.67</v>
+      </c>
+      <c r="BM51">
+        <v>2.7</v>
+      </c>
+      <c r="BN51">
+        <v>1.38</v>
+      </c>
+      <c r="BO51">
+        <v>3.75</v>
+      </c>
+      <c r="BP51">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,12 @@
     <t>['18', '85']</t>
   </si>
   <si>
+    <t>['29', '65']</t>
+  </si>
+  <si>
+    <t>['72', '81']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -479,6 +485,12 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['55', '57']</t>
+  </si>
+  <si>
+    <t>['43', '62', '69', '76', '83']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1111,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1511,7 +1523,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1589,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1798,7 +1810,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1923,7 +1935,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2129,7 +2141,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2335,7 +2347,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2541,7 +2553,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2747,7 +2759,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2825,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2953,7 +2965,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3031,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3159,7 +3171,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3365,7 +3377,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3571,7 +3583,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4064,7 +4076,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4189,7 +4201,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4601,7 +4613,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5219,7 +5231,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5300,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5425,7 +5437,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5631,7 +5643,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5837,7 +5849,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5915,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -6043,7 +6055,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6121,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -6249,7 +6261,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6327,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6455,7 +6467,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6742,7 +6754,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -6867,7 +6879,7 @@
         <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -6945,10 +6957,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7154,7 +7166,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>0.48</v>
@@ -7279,7 +7291,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7360,7 +7372,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7485,7 +7497,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7769,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7897,7 +7909,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8103,7 +8115,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8309,7 +8321,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9133,7 +9145,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9751,7 +9763,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9957,7 +9969,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10369,7 +10381,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10480,13 +10492,13 @@
         <v>5</v>
       </c>
       <c r="BA47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB47">
         <v>2</v>
       </c>
       <c r="BC47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD47">
         <v>1.45</v>
@@ -11286,31 +11298,31 @@
         <v>1.86</v>
       </c>
       <c r="AU51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW51">
         <v>6</v>
       </c>
       <c r="AX51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ51">
+        <v>6</v>
+      </c>
+      <c r="BA51">
         <v>4</v>
       </c>
-      <c r="BA51">
-        <v>1</v>
-      </c>
       <c r="BB51">
         <v>2</v>
       </c>
       <c r="BC51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BD51">
         <v>1.91</v>
@@ -11350,6 +11362,1036 @@
       </c>
       <c r="BP51">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7481408</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45550.46875</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>117</v>
+      </c>
+      <c r="P52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q52">
+        <v>2.15</v>
+      </c>
+      <c r="R52">
+        <v>2.05</v>
+      </c>
+      <c r="S52">
+        <v>5.7</v>
+      </c>
+      <c r="T52">
+        <v>1.45</v>
+      </c>
+      <c r="U52">
+        <v>2.5</v>
+      </c>
+      <c r="V52">
+        <v>3.4</v>
+      </c>
+      <c r="W52">
+        <v>1.27</v>
+      </c>
+      <c r="X52">
+        <v>7.8</v>
+      </c>
+      <c r="Y52">
+        <v>1.05</v>
+      </c>
+      <c r="Z52">
+        <v>1.68</v>
+      </c>
+      <c r="AA52">
+        <v>3.45</v>
+      </c>
+      <c r="AB52">
+        <v>5.1</v>
+      </c>
+      <c r="AC52">
+        <v>1.05</v>
+      </c>
+      <c r="AD52">
+        <v>7.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.37</v>
+      </c>
+      <c r="AF52">
+        <v>2.8</v>
+      </c>
+      <c r="AG52">
+        <v>2.25</v>
+      </c>
+      <c r="AH52">
+        <v>1.57</v>
+      </c>
+      <c r="AI52">
+        <v>2.1</v>
+      </c>
+      <c r="AJ52">
+        <v>1.65</v>
+      </c>
+      <c r="AK52">
+        <v>1.13</v>
+      </c>
+      <c r="AL52">
+        <v>1.22</v>
+      </c>
+      <c r="AM52">
+        <v>2.15</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <v>1.5</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1.28</v>
+      </c>
+      <c r="AS52">
+        <v>1.02</v>
+      </c>
+      <c r="AT52">
+        <v>2.3</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>3</v>
+      </c>
+      <c r="AW52">
+        <v>7</v>
+      </c>
+      <c r="AX52">
+        <v>1</v>
+      </c>
+      <c r="AY52">
+        <v>11</v>
+      </c>
+      <c r="AZ52">
+        <v>4</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>6</v>
+      </c>
+      <c r="BD52">
+        <v>1.37</v>
+      </c>
+      <c r="BE52">
+        <v>9</v>
+      </c>
+      <c r="BF52">
+        <v>3.7</v>
+      </c>
+      <c r="BG52">
+        <v>1.29</v>
+      </c>
+      <c r="BH52">
+        <v>3.15</v>
+      </c>
+      <c r="BI52">
+        <v>1.53</v>
+      </c>
+      <c r="BJ52">
+        <v>2.28</v>
+      </c>
+      <c r="BK52">
+        <v>1.95</v>
+      </c>
+      <c r="BL52">
+        <v>1.85</v>
+      </c>
+      <c r="BM52">
+        <v>2.48</v>
+      </c>
+      <c r="BN52">
+        <v>1.45</v>
+      </c>
+      <c r="BO52">
+        <v>3.35</v>
+      </c>
+      <c r="BP52">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7481402</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45550.5625</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>94</v>
+      </c>
+      <c r="P53" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q53">
+        <v>2.38</v>
+      </c>
+      <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>5.5</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.63</v>
+      </c>
+      <c r="V53">
+        <v>3.4</v>
+      </c>
+      <c r="W53">
+        <v>1.3</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>1.65</v>
+      </c>
+      <c r="AA53">
+        <v>3.65</v>
+      </c>
+      <c r="AB53">
+        <v>5</v>
+      </c>
+      <c r="AC53">
+        <v>1.05</v>
+      </c>
+      <c r="AD53">
+        <v>8</v>
+      </c>
+      <c r="AE53">
+        <v>1.36</v>
+      </c>
+      <c r="AF53">
+        <v>2.88</v>
+      </c>
+      <c r="AG53">
+        <v>2.14</v>
+      </c>
+      <c r="AH53">
+        <v>1.63</v>
+      </c>
+      <c r="AI53">
+        <v>2.2</v>
+      </c>
+      <c r="AJ53">
+        <v>1.62</v>
+      </c>
+      <c r="AK53">
+        <v>1.15</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>2.15</v>
+      </c>
+      <c r="AN53">
+        <v>0.5</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0.67</v>
+      </c>
+      <c r="AQ53">
+        <v>0.5</v>
+      </c>
+      <c r="AR53">
+        <v>1.24</v>
+      </c>
+      <c r="AS53">
+        <v>0.82</v>
+      </c>
+      <c r="AT53">
+        <v>2.06</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>10</v>
+      </c>
+      <c r="AZ53">
+        <v>8</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>7</v>
+      </c>
+      <c r="BD53">
+        <v>1.41</v>
+      </c>
+      <c r="BE53">
+        <v>8.5</v>
+      </c>
+      <c r="BF53">
+        <v>3.5</v>
+      </c>
+      <c r="BG53">
+        <v>1.4</v>
+      </c>
+      <c r="BH53">
+        <v>2.63</v>
+      </c>
+      <c r="BI53">
+        <v>1.73</v>
+      </c>
+      <c r="BJ53">
+        <v>2</v>
+      </c>
+      <c r="BK53">
+        <v>2.2</v>
+      </c>
+      <c r="BL53">
+        <v>1.56</v>
+      </c>
+      <c r="BM53">
+        <v>3</v>
+      </c>
+      <c r="BN53">
+        <v>1.32</v>
+      </c>
+      <c r="BO53">
+        <v>4.2</v>
+      </c>
+      <c r="BP53">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7481401</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45550.5625</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+      <c r="R54">
+        <v>1.95</v>
+      </c>
+      <c r="S54">
+        <v>3.6</v>
+      </c>
+      <c r="T54">
+        <v>1.52</v>
+      </c>
+      <c r="U54">
+        <v>2.39</v>
+      </c>
+      <c r="V54">
+        <v>3.4</v>
+      </c>
+      <c r="W54">
+        <v>1.28</v>
+      </c>
+      <c r="X54">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>1.04</v>
+      </c>
+      <c r="Z54">
+        <v>2.32</v>
+      </c>
+      <c r="AA54">
+        <v>3.15</v>
+      </c>
+      <c r="AB54">
+        <v>2.93</v>
+      </c>
+      <c r="AC54">
+        <v>1.09</v>
+      </c>
+      <c r="AD54">
+        <v>7</v>
+      </c>
+      <c r="AE54">
+        <v>1.42</v>
+      </c>
+      <c r="AF54">
+        <v>2.7</v>
+      </c>
+      <c r="AG54">
+        <v>2.21</v>
+      </c>
+      <c r="AH54">
+        <v>1.59</v>
+      </c>
+      <c r="AI54">
+        <v>1.95</v>
+      </c>
+      <c r="AJ54">
+        <v>1.8</v>
+      </c>
+      <c r="AK54">
+        <v>1.36</v>
+      </c>
+      <c r="AL54">
+        <v>1.3</v>
+      </c>
+      <c r="AM54">
+        <v>1.55</v>
+      </c>
+      <c r="AN54">
+        <v>1.5</v>
+      </c>
+      <c r="AO54">
+        <v>2.33</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>1.75</v>
+      </c>
+      <c r="AR54">
+        <v>1.46</v>
+      </c>
+      <c r="AS54">
+        <v>1.42</v>
+      </c>
+      <c r="AT54">
+        <v>2.88</v>
+      </c>
+      <c r="AU54">
+        <v>7</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>7</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>14</v>
+      </c>
+      <c r="AZ54">
+        <v>10</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>7</v>
+      </c>
+      <c r="BC54">
+        <v>13</v>
+      </c>
+      <c r="BD54">
+        <v>1.85</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>2.28</v>
+      </c>
+      <c r="BG54">
+        <v>1.29</v>
+      </c>
+      <c r="BH54">
+        <v>3.15</v>
+      </c>
+      <c r="BI54">
+        <v>1.53</v>
+      </c>
+      <c r="BJ54">
+        <v>2.28</v>
+      </c>
+      <c r="BK54">
+        <v>1.98</v>
+      </c>
+      <c r="BL54">
+        <v>1.82</v>
+      </c>
+      <c r="BM54">
+        <v>2.48</v>
+      </c>
+      <c r="BN54">
+        <v>1.45</v>
+      </c>
+      <c r="BO54">
+        <v>3.35</v>
+      </c>
+      <c r="BP54">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7481405</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45550.66666666666</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>126</v>
+      </c>
+      <c r="P55" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q55">
+        <v>2.75</v>
+      </c>
+      <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
+        <v>4.33</v>
+      </c>
+      <c r="T55">
+        <v>1.44</v>
+      </c>
+      <c r="U55">
+        <v>2.63</v>
+      </c>
+      <c r="V55">
+        <v>3.25</v>
+      </c>
+      <c r="W55">
+        <v>1.33</v>
+      </c>
+      <c r="X55">
+        <v>9</v>
+      </c>
+      <c r="Y55">
+        <v>1.07</v>
+      </c>
+      <c r="Z55">
+        <v>2.02</v>
+      </c>
+      <c r="AA55">
+        <v>3.35</v>
+      </c>
+      <c r="AB55">
+        <v>3.4</v>
+      </c>
+      <c r="AC55">
+        <v>1.05</v>
+      </c>
+      <c r="AD55">
+        <v>8</v>
+      </c>
+      <c r="AE55">
+        <v>1.3</v>
+      </c>
+      <c r="AF55">
+        <v>3.2</v>
+      </c>
+      <c r="AG55">
+        <v>2.02</v>
+      </c>
+      <c r="AH55">
+        <v>1.71</v>
+      </c>
+      <c r="AI55">
+        <v>1.91</v>
+      </c>
+      <c r="AJ55">
+        <v>1.8</v>
+      </c>
+      <c r="AK55">
+        <v>1.28</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.7</v>
+      </c>
+      <c r="AN55">
+        <v>1.5</v>
+      </c>
+      <c r="AO55">
+        <v>3</v>
+      </c>
+      <c r="AP55">
+        <v>1.33</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>1.39</v>
+      </c>
+      <c r="AS55">
+        <v>1.55</v>
+      </c>
+      <c r="AT55">
+        <v>2.94</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>2</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>6</v>
+      </c>
+      <c r="AZ55">
+        <v>9</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>6</v>
+      </c>
+      <c r="BC55">
+        <v>9</v>
+      </c>
+      <c r="BD55">
+        <v>1.55</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>2.92</v>
+      </c>
+      <c r="BG55">
+        <v>1.3</v>
+      </c>
+      <c r="BH55">
+        <v>3.05</v>
+      </c>
+      <c r="BI55">
+        <v>1.56</v>
+      </c>
+      <c r="BJ55">
+        <v>2.2</v>
+      </c>
+      <c r="BK55">
+        <v>2</v>
+      </c>
+      <c r="BL55">
+        <v>1.8</v>
+      </c>
+      <c r="BM55">
+        <v>2.55</v>
+      </c>
+      <c r="BN55">
+        <v>1.42</v>
+      </c>
+      <c r="BO55">
+        <v>3.5</v>
+      </c>
+      <c r="BP55">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7481400</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45551.64583333334</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>7</v>
+      </c>
+      <c r="O56" t="s">
+        <v>127</v>
+      </c>
+      <c r="P56" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q56">
+        <v>2.88</v>
+      </c>
+      <c r="R56">
+        <v>2.1</v>
+      </c>
+      <c r="S56">
+        <v>3.75</v>
+      </c>
+      <c r="T56">
+        <v>1.4</v>
+      </c>
+      <c r="U56">
+        <v>2.75</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>1.36</v>
+      </c>
+      <c r="X56">
+        <v>9</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>1.98</v>
+      </c>
+      <c r="AA56">
+        <v>3.15</v>
+      </c>
+      <c r="AB56">
+        <v>3.24</v>
+      </c>
+      <c r="AC56">
+        <v>1.02</v>
+      </c>
+      <c r="AD56">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE56">
+        <v>1.48</v>
+      </c>
+      <c r="AF56">
+        <v>2.45</v>
+      </c>
+      <c r="AG56">
+        <v>1.95</v>
+      </c>
+      <c r="AH56">
+        <v>1.76</v>
+      </c>
+      <c r="AI56">
+        <v>1.83</v>
+      </c>
+      <c r="AJ56">
+        <v>1.83</v>
+      </c>
+      <c r="AK56">
+        <v>1.28</v>
+      </c>
+      <c r="AL56">
+        <v>1.25</v>
+      </c>
+      <c r="AM56">
+        <v>1.7</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
+        <v>1.5</v>
+      </c>
+      <c r="AP56">
+        <v>0.5</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>1.94</v>
+      </c>
+      <c r="AS56">
+        <v>1.42</v>
+      </c>
+      <c r="AT56">
+        <v>3.36</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>8</v>
+      </c>
+      <c r="AW56">
+        <v>10</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>18</v>
+      </c>
+      <c r="AZ56">
+        <v>10</v>
+      </c>
+      <c r="BA56">
+        <v>5</v>
+      </c>
+      <c r="BB56">
+        <v>4</v>
+      </c>
+      <c r="BC56">
+        <v>9</v>
+      </c>
+      <c r="BD56">
+        <v>1.63</v>
+      </c>
+      <c r="BE56">
+        <v>6.9</v>
+      </c>
+      <c r="BF56">
+        <v>3.18</v>
+      </c>
+      <c r="BG56">
+        <v>1.3</v>
+      </c>
+      <c r="BH56">
+        <v>3.52</v>
+      </c>
+      <c r="BI56">
+        <v>1.51</v>
+      </c>
+      <c r="BJ56">
+        <v>2.46</v>
+      </c>
+      <c r="BK56">
+        <v>1.9</v>
+      </c>
+      <c r="BL56">
+        <v>1.84</v>
+      </c>
+      <c r="BM56">
+        <v>2.55</v>
+      </c>
+      <c r="BN56">
+        <v>1.48</v>
+      </c>
+      <c r="BO56">
+        <v>3.5</v>
+      </c>
+      <c r="BP56">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -490,7 +490,7 @@
     <t>['55', '57']</t>
   </si>
   <si>
-    <t>['43', '62', '69', '76', '83']</t>
+    <t>['43', '62', '69', '76', '82']</t>
   </si>
 </sst>
 </file>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,21 +235,21 @@
     <t>Cádiz</t>
   </si>
   <si>
+    <t>Racing Club de Ferrol</t>
+  </si>
+  <si>
     <t>SD Eibar</t>
   </si>
   <si>
-    <t>Racing Club de Ferrol</t>
-  </si>
-  <si>
     <t>Deportivo La Coruña</t>
   </si>
   <si>
+    <t>Racing Santander</t>
+  </si>
+  <si>
     <t>Sporting Gijón</t>
   </si>
   <si>
-    <t>Racing Santander</t>
-  </si>
-  <si>
     <t>Burgos CF</t>
   </si>
   <si>
@@ -301,18 +301,18 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['69', '82']</t>
+  </si>
+  <si>
     <t>['2']</t>
   </si>
   <si>
-    <t>['69', '82']</t>
+    <t>['7', '31']</t>
   </si>
   <si>
     <t>['59']</t>
   </si>
   <si>
-    <t>['7', '31']</t>
-  </si>
-  <si>
     <t>['25', '40', '90+3']</t>
   </si>
   <si>
@@ -379,12 +379,12 @@
     <t>['43', '90+8']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['44', '74', '81']</t>
   </si>
   <si>
-    <t>['46']</t>
-  </si>
-  <si>
     <t>['42']</t>
   </si>
   <si>
@@ -400,6 +400,9 @@
     <t>['72', '81']</t>
   </si>
   <si>
+    <t>['56', '77']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -412,12 +415,12 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['65', '71']</t>
+  </si>
+  <si>
     <t>['14', '42']</t>
   </si>
   <si>
-    <t>['65', '71']</t>
-  </si>
-  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -491,6 +494,9 @@
   </si>
   <si>
     <t>['43', '62', '69', '76', '82']</t>
+  </si>
+  <si>
+    <t>['60', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1117,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1189,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1523,7 +1529,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1687,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7481364</v>
+        <v>7481361</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1705,100 +1711,100 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="Q5">
+        <v>3.1</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>1.53</v>
+      </c>
+      <c r="U5">
         <v>2.38</v>
       </c>
-      <c r="R5">
+      <c r="V5">
+        <v>3.75</v>
+      </c>
+      <c r="W5">
+        <v>1.25</v>
+      </c>
+      <c r="X5">
+        <v>11</v>
+      </c>
+      <c r="Y5">
+        <v>1.05</v>
+      </c>
+      <c r="Z5">
+        <v>1.85</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>1.1</v>
+      </c>
+      <c r="AD5">
+        <v>7</v>
+      </c>
+      <c r="AE5">
+        <v>1.49</v>
+      </c>
+      <c r="AF5">
+        <v>2.43</v>
+      </c>
+      <c r="AG5">
+        <v>2.37</v>
+      </c>
+      <c r="AH5">
+        <v>1.48</v>
+      </c>
+      <c r="AI5">
         <v>2.1</v>
       </c>
-      <c r="S5">
-        <v>5.5</v>
-      </c>
-      <c r="T5">
-        <v>1.44</v>
-      </c>
-      <c r="U5">
-        <v>2.63</v>
-      </c>
-      <c r="V5">
-        <v>3.25</v>
-      </c>
-      <c r="W5">
-        <v>1.33</v>
-      </c>
-      <c r="X5">
-        <v>9</v>
-      </c>
-      <c r="Y5">
-        <v>1.07</v>
-      </c>
-      <c r="Z5">
-        <v>1.6</v>
-      </c>
-      <c r="AA5">
-        <v>3.4</v>
-      </c>
-      <c r="AB5">
-        <v>5.25</v>
-      </c>
-      <c r="AC5">
-        <v>1.03</v>
-      </c>
-      <c r="AD5">
-        <v>7.9</v>
-      </c>
-      <c r="AE5">
-        <v>1.32</v>
-      </c>
-      <c r="AF5">
-        <v>2.98</v>
-      </c>
-      <c r="AG5">
-        <v>2.05</v>
-      </c>
-      <c r="AH5">
-        <v>1.61</v>
-      </c>
-      <c r="AI5">
-        <v>2</v>
-      </c>
       <c r="AJ5">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK5">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL5">
         <v>1.3</v>
       </c>
       <c r="AM5">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1807,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1822,22 +1828,22 @@
         <v>0</v>
       </c>
       <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
         <v>4</v>
       </c>
-      <c r="AV5">
-        <v>5</v>
-      </c>
       <c r="AW5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX5">
         <v>4</v>
       </c>
       <c r="AY5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -1849,43 +1855,43 @@
         <v>6</v>
       </c>
       <c r="BD5">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="BE5">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF5">
-        <v>3.58</v>
+        <v>2.53</v>
       </c>
       <c r="BG5">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BH5">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BI5">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="BJ5">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="BK5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL5">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="BM5">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="BN5">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BO5">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="BP5">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -1893,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7481361</v>
+        <v>7481364</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -1911,100 +1917,100 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="Q6">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T6">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U6">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W6">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z6">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AA6">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="AC6">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AD6">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AE6">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AF6">
-        <v>2.43</v>
+        <v>2.98</v>
       </c>
       <c r="AG6">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="AH6">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AI6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ6">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK6">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL6">
         <v>1.3</v>
       </c>
       <c r="AM6">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2013,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2028,22 +2034,22 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX6">
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA6">
         <v>3</v>
@@ -2055,43 +2061,43 @@
         <v>6</v>
       </c>
       <c r="BD6">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="BE6">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="BF6">
-        <v>2.53</v>
+        <v>3.58</v>
       </c>
       <c r="BG6">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BH6">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BI6">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="BJ6">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="BK6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL6">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="BM6">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="BN6">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="BO6">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="BP6">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -2141,7 +2147,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2305,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7481366</v>
+        <v>7481363</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -2323,100 +2329,100 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R8">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="T8">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V8">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W8">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y8">
+        <v>1.06</v>
+      </c>
+      <c r="Z8">
+        <v>2.09</v>
+      </c>
+      <c r="AA8">
+        <v>3.07</v>
+      </c>
+      <c r="AB8">
+        <v>3.07</v>
+      </c>
+      <c r="AC8">
         <v>1.04</v>
       </c>
-      <c r="Z8">
-        <v>1.9</v>
-      </c>
-      <c r="AA8">
-        <v>2.98</v>
-      </c>
-      <c r="AB8">
-        <v>3.73</v>
-      </c>
-      <c r="AC8">
-        <v>1.1</v>
-      </c>
       <c r="AD8">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AF8">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="AG8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH8">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AI8">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AJ8">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AK8">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AL8">
         <v>1.28</v>
       </c>
       <c r="AM8">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -2425,11 +2431,11 @@
         <v>0</v>
       </c>
       <c r="AP8">
+        <v>1.67</v>
+      </c>
+      <c r="AQ8">
         <v>1.33</v>
       </c>
-      <c r="AQ8">
-        <v>2.33</v>
-      </c>
       <c r="AR8">
         <v>0</v>
       </c>
@@ -2440,70 +2446,70 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ8">
+        <v>19</v>
+      </c>
+      <c r="BA8">
+        <v>5</v>
+      </c>
+      <c r="BB8">
         <v>7</v>
       </c>
-      <c r="BA8">
-        <v>7</v>
-      </c>
-      <c r="BB8">
-        <v>1</v>
-      </c>
       <c r="BC8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD8">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="BE8">
         <v>8</v>
       </c>
       <c r="BF8">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="BG8">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH8">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI8">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="BJ8">
-        <v>2.28</v>
+        <v>2.43</v>
       </c>
       <c r="BK8">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BL8">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BM8">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="BN8">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="BO8">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BP8">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -2511,7 +2517,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7481363</v>
+        <v>7481366</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -2529,100 +2535,100 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q9">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S9">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V9">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y9">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z9">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="AA9">
-        <v>3.07</v>
+        <v>2.98</v>
       </c>
       <c r="AB9">
-        <v>3.07</v>
+        <v>3.73</v>
       </c>
       <c r="AC9">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD9">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AF9">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="AG9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AH9">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AI9">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AJ9">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AK9">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AL9">
         <v>1.28</v>
       </c>
       <c r="AM9">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2631,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2646,70 +2652,70 @@
         <v>0</v>
       </c>
       <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
         <v>6</v>
       </c>
-      <c r="AV9">
-        <v>9</v>
-      </c>
       <c r="AW9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AY9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BA9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD9">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BE9">
         <v>8</v>
       </c>
       <c r="BF9">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="BG9">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BH9">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI9">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="BJ9">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="BK9">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BL9">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BM9">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="BN9">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BO9">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BP9">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -2759,7 +2765,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2965,7 +2971,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3171,7 +3177,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3350,10 +3356,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3377,7 +3383,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3583,7 +3589,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3762,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
         <v>80</v>
@@ -3968,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
         <v>70</v>
@@ -4201,7 +4207,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4613,7 +4619,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5231,7 +5237,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5437,7 +5443,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5640,10 +5646,10 @@
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5721,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -5825,7 +5831,7 @@
         <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -5849,7 +5855,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6055,7 +6061,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6237,7 +6243,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -6261,7 +6267,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6467,7 +6473,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6631,7 +6637,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7481381</v>
+        <v>7481379</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6646,10 +6652,10 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -6661,175 +6667,175 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="Q29">
+        <v>3.25</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>3.5</v>
+      </c>
+      <c r="T29">
+        <v>1.44</v>
+      </c>
+      <c r="U29">
         <v>2.63</v>
       </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29">
+      <c r="V29">
+        <v>3.25</v>
+      </c>
+      <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>1.06</v>
+      </c>
+      <c r="Z29">
+        <v>2.45</v>
+      </c>
+      <c r="AA29">
+        <v>3.25</v>
+      </c>
+      <c r="AB29">
+        <v>2.75</v>
+      </c>
+      <c r="AC29">
+        <v>1.05</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29">
+        <v>1.3</v>
+      </c>
+      <c r="AF29">
+        <v>3.2</v>
+      </c>
+      <c r="AG29">
+        <v>2.1</v>
+      </c>
+      <c r="AH29">
+        <v>1.65</v>
+      </c>
+      <c r="AI29">
+        <v>1.83</v>
+      </c>
+      <c r="AJ29">
+        <v>1.83</v>
+      </c>
+      <c r="AK29">
+        <v>1.42</v>
+      </c>
+      <c r="AL29">
+        <v>1.28</v>
+      </c>
+      <c r="AM29">
+        <v>1.5</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>1.44</v>
+      </c>
+      <c r="AS29">
+        <v>1.32</v>
+      </c>
+      <c r="AT29">
+        <v>2.76</v>
+      </c>
+      <c r="AU29">
         <v>5</v>
       </c>
-      <c r="T29">
-        <v>1.53</v>
-      </c>
-      <c r="U29">
-        <v>2.38</v>
-      </c>
-      <c r="V29">
-        <v>3.5</v>
-      </c>
-      <c r="W29">
-        <v>1.29</v>
-      </c>
-      <c r="X29">
+      <c r="AV29">
+        <v>6</v>
+      </c>
+      <c r="AW29">
+        <v>8</v>
+      </c>
+      <c r="AX29">
+        <v>5</v>
+      </c>
+      <c r="AY29">
+        <v>13</v>
+      </c>
+      <c r="AZ29">
         <v>11</v>
       </c>
-      <c r="Y29">
-        <v>1.05</v>
-      </c>
-      <c r="Z29">
+      <c r="BA29">
+        <v>8</v>
+      </c>
+      <c r="BB29">
+        <v>6</v>
+      </c>
+      <c r="BC29">
+        <v>14</v>
+      </c>
+      <c r="BD29">
         <v>1.85</v>
       </c>
-      <c r="AA29">
+      <c r="BE29">
+        <v>8</v>
+      </c>
+      <c r="BF29">
+        <v>2.28</v>
+      </c>
+      <c r="BG29">
+        <v>1.28</v>
+      </c>
+      <c r="BH29">
+        <v>3.2</v>
+      </c>
+      <c r="BI29">
+        <v>1.52</v>
+      </c>
+      <c r="BJ29">
+        <v>2.32</v>
+      </c>
+      <c r="BK29">
+        <v>2</v>
+      </c>
+      <c r="BL29">
+        <v>1.8</v>
+      </c>
+      <c r="BM29">
+        <v>2.45</v>
+      </c>
+      <c r="BN29">
+        <v>1.46</v>
+      </c>
+      <c r="BO29">
         <v>3.3</v>
       </c>
-      <c r="AB29">
-        <v>4.2</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>2.3</v>
-      </c>
-      <c r="AH29">
-        <v>1.55</v>
-      </c>
-      <c r="AI29">
-        <v>2.1</v>
-      </c>
-      <c r="AJ29">
-        <v>1.67</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1.5</v>
-      </c>
-      <c r="AQ29">
-        <v>0.5</v>
-      </c>
-      <c r="AR29">
-        <v>1.73</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>1.73</v>
-      </c>
-      <c r="AU29">
-        <v>3</v>
-      </c>
-      <c r="AV29">
-        <v>2</v>
-      </c>
-      <c r="AW29">
-        <v>6</v>
-      </c>
-      <c r="AX29">
-        <v>4</v>
-      </c>
-      <c r="AY29">
-        <v>9</v>
-      </c>
-      <c r="AZ29">
-        <v>6</v>
-      </c>
-      <c r="BA29">
-        <v>9</v>
-      </c>
-      <c r="BB29">
-        <v>7</v>
-      </c>
-      <c r="BC29">
-        <v>16</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>0</v>
-      </c>
-      <c r="BI29">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BK29">
-        <v>0</v>
-      </c>
-      <c r="BL29">
-        <v>0</v>
-      </c>
-      <c r="BM29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>0</v>
-      </c>
-      <c r="BO29">
-        <v>0</v>
-      </c>
       <c r="BP29">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -6837,7 +6843,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7481379</v>
+        <v>7481381</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6852,10 +6858,10 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6867,175 +6873,175 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" t="s">
         <v>94</v>
       </c>
-      <c r="P30" t="s">
-        <v>148</v>
-      </c>
       <c r="Q30">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>1.53</v>
+      </c>
+      <c r="U30">
+        <v>2.38</v>
+      </c>
+      <c r="V30">
         <v>3.5</v>
       </c>
-      <c r="T30">
-        <v>1.44</v>
-      </c>
-      <c r="U30">
-        <v>2.63</v>
-      </c>
-      <c r="V30">
-        <v>3.25</v>
-      </c>
       <c r="W30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y30">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z30">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="AA30">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB30">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="AC30">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AG30">
+        <v>2.3</v>
+      </c>
+      <c r="AH30">
+        <v>1.55</v>
+      </c>
+      <c r="AI30">
         <v>2.1</v>
       </c>
-      <c r="AH30">
-        <v>1.65</v>
-      </c>
-      <c r="AI30">
-        <v>1.83</v>
-      </c>
       <c r="AJ30">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AK30">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
         <v>1.5</v>
       </c>
-      <c r="AN30">
+      <c r="AQ30">
+        <v>0.5</v>
+      </c>
+      <c r="AR30">
+        <v>1.73</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>1.73</v>
+      </c>
+      <c r="AU30">
         <v>3</v>
       </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>2</v>
-      </c>
-      <c r="AQ30">
-        <v>2</v>
-      </c>
-      <c r="AR30">
-        <v>1.44</v>
-      </c>
-      <c r="AS30">
-        <v>1.32</v>
-      </c>
-      <c r="AT30">
-        <v>2.76</v>
-      </c>
-      <c r="AU30">
-        <v>5</v>
-      </c>
       <c r="AV30">
+        <v>2</v>
+      </c>
+      <c r="AW30">
         <v>6</v>
       </c>
-      <c r="AW30">
-        <v>8</v>
-      </c>
       <c r="AX30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD30">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BE30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF30">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="BG30">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BH30">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BI30">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BJ30">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="BK30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL30">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BM30">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BN30">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BO30">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BP30">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7043,7 +7049,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7481384</v>
+        <v>7481387</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7058,49 +7064,49 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="Q31">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R31">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U31">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V31">
         <v>3.75</v>
@@ -7109,109 +7115,109 @@
         <v>1.25</v>
       </c>
       <c r="X31">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y31">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>2.7</v>
+        <v>1.91</v>
       </c>
       <c r="AA31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB31">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="AC31">
         <v>1.07</v>
       </c>
       <c r="AD31">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AE31">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AF31">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AG31">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AH31">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AI31">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ31">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK31">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AL31">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AM31">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AN31">
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>0.48</v>
+        <v>1.31</v>
       </c>
       <c r="AS31">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="AT31">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="AU31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW31">
         <v>7</v>
       </c>
       <c r="AX31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY31">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ31">
+        <v>7</v>
+      </c>
+      <c r="BA31">
+        <v>7</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>7</v>
+      </c>
+      <c r="BD31">
+        <v>1.51</v>
+      </c>
+      <c r="BE31">
         <v>8</v>
       </c>
-      <c r="BA31">
-        <v>6</v>
-      </c>
-      <c r="BB31">
-        <v>6</v>
-      </c>
-      <c r="BC31">
-        <v>12</v>
-      </c>
-      <c r="BD31">
-        <v>2.1</v>
-      </c>
-      <c r="BE31">
-        <v>7.5</v>
-      </c>
       <c r="BF31">
-        <v>2</v>
+        <v>3.17</v>
       </c>
       <c r="BG31">
         <v>1.36</v>
@@ -7220,10 +7226,10 @@
         <v>2.8</v>
       </c>
       <c r="BI31">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="BJ31">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="BK31">
         <v>2.05</v>
@@ -7249,7 +7255,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7481387</v>
+        <v>7481384</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7264,49 +7270,49 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="Q32">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="T32">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U32">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V32">
         <v>3.75</v>
@@ -7315,109 +7321,109 @@
         <v>1.25</v>
       </c>
       <c r="X32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y32">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z32">
-        <v>1.91</v>
+        <v>2.7</v>
       </c>
       <c r="AA32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AB32">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="AC32">
         <v>1.07</v>
       </c>
       <c r="AD32">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AE32">
+        <v>1.5</v>
+      </c>
+      <c r="AF32">
+        <v>2.4</v>
+      </c>
+      <c r="AG32">
+        <v>2.55</v>
+      </c>
+      <c r="AH32">
+        <v>1.45</v>
+      </c>
+      <c r="AI32">
+        <v>2.1</v>
+      </c>
+      <c r="AJ32">
+        <v>1.67</v>
+      </c>
+      <c r="AK32">
+        <v>1.46</v>
+      </c>
+      <c r="AL32">
+        <v>1.38</v>
+      </c>
+      <c r="AM32">
         <v>1.44</v>
-      </c>
-      <c r="AF32">
-        <v>2.6</v>
-      </c>
-      <c r="AG32">
-        <v>2.35</v>
-      </c>
-      <c r="AH32">
-        <v>1.53</v>
-      </c>
-      <c r="AI32">
-        <v>2.2</v>
-      </c>
-      <c r="AJ32">
-        <v>1.62</v>
-      </c>
-      <c r="AK32">
-        <v>1.22</v>
-      </c>
-      <c r="AL32">
-        <v>1.28</v>
-      </c>
-      <c r="AM32">
-        <v>1.8</v>
       </c>
       <c r="AN32">
         <v>3</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
-        <v>1.31</v>
+        <v>0.48</v>
       </c>
       <c r="AS32">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="AT32">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="AU32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AV32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW32">
         <v>7</v>
       </c>
       <c r="AX32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY32">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AZ32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC32">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD32">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="BE32">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF32">
-        <v>3.17</v>
+        <v>2</v>
       </c>
       <c r="BG32">
         <v>1.36</v>
@@ -7426,10 +7432,10 @@
         <v>2.8</v>
       </c>
       <c r="BI32">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="BJ32">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="BK32">
         <v>2.05</v>
@@ -7470,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
         <v>82</v>
@@ -7497,7 +7503,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7885,7 +7891,7 @@
         <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -7909,7 +7915,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8115,7 +8121,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8193,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8279,7 +8285,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7481398</v>
+        <v>7481394</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8294,190 +8300,190 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T37">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U37">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="V37">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="W37">
         <v>1.25</v>
       </c>
       <c r="X37">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y37">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z37">
-        <v>2.26</v>
+        <v>2.39</v>
       </c>
       <c r="AA37">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="AB37">
-        <v>3.64</v>
+        <v>3.15</v>
       </c>
       <c r="AC37">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD37">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE37">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AF37">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AG37">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AH37">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AI37">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ37">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK37">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AL37">
         <v>1.3</v>
       </c>
       <c r="AM37">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AN37">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR37">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AS37">
-        <v>0.7</v>
+        <v>1.28</v>
       </c>
       <c r="AT37">
-        <v>2.11</v>
+        <v>2.63</v>
       </c>
       <c r="AU37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV37">
+        <v>7</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
         <v>4</v>
       </c>
-      <c r="AW37">
-        <v>2</v>
-      </c>
-      <c r="AX37">
-        <v>6</v>
-      </c>
       <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
         <v>11</v>
       </c>
-      <c r="AZ37">
-        <v>10</v>
-      </c>
       <c r="BA37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD37">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BE37">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="BF37">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BG37">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BH37">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="BI37">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="BJ37">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="BK37">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL37">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM37">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="BN37">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BO37">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="BP37">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8485,7 +8491,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7481394</v>
+        <v>7481398</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8500,190 +8506,190 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>3</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U38">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="V38">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="W38">
         <v>1.25</v>
       </c>
       <c r="X38">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Y38">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z38">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AA38">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="AB38">
-        <v>3.15</v>
+        <v>3.64</v>
       </c>
       <c r="AC38">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AD38">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE38">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AF38">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AG38">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AH38">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AI38">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AJ38">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK38">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AL38">
         <v>1.3</v>
       </c>
       <c r="AM38">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AS38">
-        <v>1.28</v>
+        <v>0.7</v>
       </c>
       <c r="AT38">
-        <v>2.63</v>
+        <v>2.11</v>
       </c>
       <c r="AU38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>2</v>
+      </c>
+      <c r="AX38">
+        <v>6</v>
+      </c>
+      <c r="AY38">
+        <v>11</v>
+      </c>
+      <c r="AZ38">
+        <v>10</v>
+      </c>
+      <c r="BA38">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>6</v>
+      </c>
+      <c r="BC38">
         <v>7</v>
       </c>
-      <c r="AW38">
-        <v>6</v>
-      </c>
-      <c r="AX38">
-        <v>4</v>
-      </c>
-      <c r="AY38">
-        <v>8</v>
-      </c>
-      <c r="AZ38">
-        <v>11</v>
-      </c>
-      <c r="BA38">
-        <v>4</v>
-      </c>
-      <c r="BB38">
-        <v>4</v>
-      </c>
-      <c r="BC38">
-        <v>8</v>
-      </c>
       <c r="BD38">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BE38">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="BF38">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BG38">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BH38">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="BI38">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="BJ38">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="BK38">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BL38">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM38">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="BN38">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BO38">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BP38">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8912,7 +8918,7 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
         <v>71</v>
@@ -9145,7 +9151,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9763,7 +9769,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9945,7 +9951,7 @@
         <v>85</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -9969,7 +9975,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10339,7 +10345,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7481409</v>
+        <v>7481404</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10354,70 +10360,70 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O47" t="s">
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S47">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T47">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U47">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="V47">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="W47">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X47">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="Y47">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z47">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AA47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB47">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AC47">
         <v>1.05</v>
@@ -10426,118 +10432,118 @@
         <v>8</v>
       </c>
       <c r="AE47">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF47">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AG47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AH47">
+        <v>1.72</v>
+      </c>
+      <c r="AI47">
+        <v>2.1</v>
+      </c>
+      <c r="AJ47">
+        <v>1.67</v>
+      </c>
+      <c r="AK47">
+        <v>1.17</v>
+      </c>
+      <c r="AL47">
+        <v>1.22</v>
+      </c>
+      <c r="AM47">
+        <v>2.05</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AO47">
+        <v>0.5</v>
+      </c>
+      <c r="AP47">
+        <v>2.33</v>
+      </c>
+      <c r="AQ47">
+        <v>0.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.67</v>
+      </c>
+      <c r="AS47">
+        <v>1.19</v>
+      </c>
+      <c r="AT47">
+        <v>2.86</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>6</v>
+      </c>
+      <c r="AZ47">
+        <v>6</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>1.37</v>
+      </c>
+      <c r="BE47">
+        <v>9</v>
+      </c>
+      <c r="BF47">
+        <v>3.83</v>
+      </c>
+      <c r="BG47">
+        <v>1.34</v>
+      </c>
+      <c r="BH47">
+        <v>2.88</v>
+      </c>
+      <c r="BI47">
         <v>1.7</v>
       </c>
-      <c r="AI47">
-        <v>2</v>
-      </c>
-      <c r="AJ47">
-        <v>1.73</v>
-      </c>
-      <c r="AK47">
-        <v>1.16</v>
-      </c>
-      <c r="AL47">
-        <v>1.25</v>
-      </c>
-      <c r="AM47">
-        <v>1.95</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>1</v>
-      </c>
-      <c r="AP47">
-        <v>2</v>
-      </c>
-      <c r="AQ47">
-        <v>0.5</v>
-      </c>
-      <c r="AR47">
-        <v>1.72</v>
-      </c>
-      <c r="AS47">
+      <c r="BJ47">
+        <v>2.05</v>
+      </c>
+      <c r="BK47">
+        <v>2.1</v>
+      </c>
+      <c r="BL47">
+        <v>1.67</v>
+      </c>
+      <c r="BM47">
+        <v>2.7</v>
+      </c>
+      <c r="BN47">
         <v>1.38</v>
       </c>
-      <c r="AT47">
-        <v>3.1</v>
-      </c>
-      <c r="AU47">
-        <v>7</v>
-      </c>
-      <c r="AV47">
-        <v>4</v>
-      </c>
-      <c r="AW47">
-        <v>13</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>20</v>
-      </c>
-      <c r="AZ47">
-        <v>5</v>
-      </c>
-      <c r="BA47">
-        <v>9</v>
-      </c>
-      <c r="BB47">
-        <v>2</v>
-      </c>
-      <c r="BC47">
-        <v>11</v>
-      </c>
-      <c r="BD47">
-        <v>1.45</v>
-      </c>
-      <c r="BE47">
-        <v>8.5</v>
-      </c>
-      <c r="BF47">
-        <v>3.46</v>
-      </c>
-      <c r="BG47">
-        <v>1.3</v>
-      </c>
-      <c r="BH47">
-        <v>3.05</v>
-      </c>
-      <c r="BI47">
-        <v>1.56</v>
-      </c>
-      <c r="BJ47">
-        <v>2.2</v>
-      </c>
-      <c r="BK47">
-        <v>2</v>
-      </c>
-      <c r="BL47">
-        <v>1.8</v>
-      </c>
-      <c r="BM47">
-        <v>2.55</v>
-      </c>
-      <c r="BN47">
-        <v>1.42</v>
-      </c>
       <c r="BO47">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="BP47">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10545,7 +10551,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7481404</v>
+        <v>7481409</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10560,70 +10566,70 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O48" t="s">
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
       </c>
       <c r="R48">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T48">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U48">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="V48">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="W48">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X48">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="Y48">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z48">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AA48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB48">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AC48">
         <v>1.05</v>
@@ -10632,118 +10638,118 @@
         <v>8</v>
       </c>
       <c r="AE48">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF48">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AG48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH48">
+        <v>1.7</v>
+      </c>
+      <c r="AI48">
+        <v>2</v>
+      </c>
+      <c r="AJ48">
+        <v>1.73</v>
+      </c>
+      <c r="AK48">
+        <v>1.16</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.95</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <v>0.5</v>
+      </c>
+      <c r="AR48">
         <v>1.72</v>
       </c>
-      <c r="AI48">
-        <v>2.1</v>
-      </c>
-      <c r="AJ48">
-        <v>1.67</v>
-      </c>
-      <c r="AK48">
-        <v>1.17</v>
-      </c>
-      <c r="AL48">
-        <v>1.22</v>
-      </c>
-      <c r="AM48">
-        <v>2.05</v>
-      </c>
-      <c r="AN48">
-        <v>2</v>
-      </c>
-      <c r="AO48">
-        <v>0.5</v>
-      </c>
-      <c r="AP48">
-        <v>2.33</v>
-      </c>
-      <c r="AQ48">
-        <v>0.33</v>
-      </c>
-      <c r="AR48">
-        <v>1.67</v>
-      </c>
       <c r="AS48">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AU48">
+        <v>7</v>
+      </c>
+      <c r="AV48">
         <v>4</v>
       </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
       <c r="AW48">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AX48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY48">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA48">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD48">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="BE48">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF48">
-        <v>3.83</v>
+        <v>3.46</v>
       </c>
       <c r="BG48">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH48">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="BI48">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BJ48">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BK48">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL48">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BM48">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BN48">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BO48">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BP48">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10972,10 +10978,10 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
         <v>77</v>
-      </c>
-      <c r="H50" t="s">
-        <v>76</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11593,7 +11599,7 @@
         <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -12029,7 +12035,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12235,7 +12241,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12392,6 +12398,212 @@
       </c>
       <c r="BP56">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7481415</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45555.64583333334</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>128</v>
+      </c>
+      <c r="P57" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q57">
+        <v>2.6</v>
+      </c>
+      <c r="R57">
+        <v>2.1</v>
+      </c>
+      <c r="S57">
+        <v>4.75</v>
+      </c>
+      <c r="T57">
+        <v>1.44</v>
+      </c>
+      <c r="U57">
+        <v>2.63</v>
+      </c>
+      <c r="V57">
+        <v>3.25</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Y57">
+        <v>1.06</v>
+      </c>
+      <c r="Z57">
+        <v>1.81</v>
+      </c>
+      <c r="AA57">
+        <v>3.4</v>
+      </c>
+      <c r="AB57">
+        <v>4.4</v>
+      </c>
+      <c r="AC57">
+        <v>1.07</v>
+      </c>
+      <c r="AD57">
+        <v>6.8</v>
+      </c>
+      <c r="AE57">
+        <v>1.32</v>
+      </c>
+      <c r="AF57">
+        <v>3.1</v>
+      </c>
+      <c r="AG57">
+        <v>2.12</v>
+      </c>
+      <c r="AH57">
+        <v>1.65</v>
+      </c>
+      <c r="AI57">
+        <v>2</v>
+      </c>
+      <c r="AJ57">
+        <v>1.73</v>
+      </c>
+      <c r="AK57">
+        <v>1.2</v>
+      </c>
+      <c r="AL57">
+        <v>1.32</v>
+      </c>
+      <c r="AM57">
+        <v>1.75</v>
+      </c>
+      <c r="AN57">
+        <v>0.33</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>0.5</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.77</v>
+      </c>
+      <c r="AS57">
+        <v>0.8</v>
+      </c>
+      <c r="AT57">
+        <v>2.57</v>
+      </c>
+      <c r="AU57">
+        <v>7</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>6</v>
+      </c>
+      <c r="AY57">
+        <v>11</v>
+      </c>
+      <c r="AZ57">
+        <v>12</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>7</v>
+      </c>
+      <c r="BC57">
+        <v>12</v>
+      </c>
+      <c r="BD57">
+        <v>1.69</v>
+      </c>
+      <c r="BE57">
+        <v>8</v>
+      </c>
+      <c r="BF57">
+        <v>2.65</v>
+      </c>
+      <c r="BG57">
+        <v>1.3</v>
+      </c>
+      <c r="BH57">
+        <v>3.05</v>
+      </c>
+      <c r="BI57">
+        <v>1.56</v>
+      </c>
+      <c r="BJ57">
+        <v>2.2</v>
+      </c>
+      <c r="BK57">
+        <v>2</v>
+      </c>
+      <c r="BL57">
+        <v>1.73</v>
+      </c>
+      <c r="BM57">
+        <v>2.55</v>
+      </c>
+      <c r="BN57">
+        <v>1.42</v>
+      </c>
+      <c r="BO57">
+        <v>3.5</v>
+      </c>
+      <c r="BP57">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,15 @@
     <t>['56', '77']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['16', '85']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -497,6 +506,12 @@
   </si>
   <si>
     <t>['60', '90+3']</t>
+  </si>
+  <si>
+    <t>['48', '78', '90+1', '90+7']</t>
+  </si>
+  <si>
+    <t>['88', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1132,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1198,7 +1213,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1529,7 +1544,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1735,7 +1750,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1813,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2147,7 +2162,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2225,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2353,7 +2368,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2559,7 +2574,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2640,7 +2655,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2765,7 +2780,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2971,7 +2986,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3177,7 +3192,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3255,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3383,7 +3398,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3589,7 +3604,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4079,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4207,7 +4222,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4619,7 +4634,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5112,7 +5127,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5237,7 +5252,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5443,7 +5458,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5524,7 +5539,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5649,7 +5664,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5855,7 +5870,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6061,7 +6076,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6267,7 +6282,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6473,7 +6488,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6554,7 +6569,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -6679,7 +6694,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -6963,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7091,7 +7106,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7169,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7503,7 +7518,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7584,7 +7599,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -7915,7 +7930,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8121,7 +8136,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8408,7 +8423,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8533,7 +8548,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8614,7 +8629,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9023,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9151,7 +9166,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9232,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9435,7 +9450,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9769,7 +9784,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9975,7 +9990,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10593,7 +10608,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -11292,7 +11307,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -12035,7 +12050,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12241,7 +12256,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12447,7 +12462,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12603,6 +12618,830 @@
         <v>3.5</v>
       </c>
       <c r="BP57">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7481416</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45556.46875</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+      <c r="O58" t="s">
+        <v>129</v>
+      </c>
+      <c r="P58" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q58">
+        <v>3.15</v>
+      </c>
+      <c r="R58">
+        <v>2.04</v>
+      </c>
+      <c r="S58">
+        <v>4.02</v>
+      </c>
+      <c r="T58">
+        <v>1.51</v>
+      </c>
+      <c r="U58">
+        <v>2.55</v>
+      </c>
+      <c r="V58">
+        <v>3.35</v>
+      </c>
+      <c r="W58">
+        <v>1.33</v>
+      </c>
+      <c r="X58">
+        <v>9</v>
+      </c>
+      <c r="Y58">
+        <v>1.03</v>
+      </c>
+      <c r="Z58">
+        <v>2.4</v>
+      </c>
+      <c r="AA58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>3</v>
+      </c>
+      <c r="AC58">
+        <v>1.08</v>
+      </c>
+      <c r="AD58">
+        <v>6.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.42</v>
+      </c>
+      <c r="AF58">
+        <v>2.62</v>
+      </c>
+      <c r="AG58">
+        <v>2.2</v>
+      </c>
+      <c r="AH58">
+        <v>1.61</v>
+      </c>
+      <c r="AI58">
+        <v>2</v>
+      </c>
+      <c r="AJ58">
+        <v>1.73</v>
+      </c>
+      <c r="AK58">
+        <v>1.36</v>
+      </c>
+      <c r="AL58">
+        <v>1.37</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>0.67</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>0.5</v>
+      </c>
+      <c r="AQ58">
+        <v>1.5</v>
+      </c>
+      <c r="AR58">
+        <v>1.22</v>
+      </c>
+      <c r="AS58">
+        <v>1.02</v>
+      </c>
+      <c r="AT58">
+        <v>2.24</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>11</v>
+      </c>
+      <c r="AW58">
+        <v>6</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>10</v>
+      </c>
+      <c r="AZ58">
+        <v>18</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>1.69</v>
+      </c>
+      <c r="BE58">
+        <v>7.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.64</v>
+      </c>
+      <c r="BG58">
+        <v>1.43</v>
+      </c>
+      <c r="BH58">
+        <v>2.55</v>
+      </c>
+      <c r="BI58">
+        <v>1.8</v>
+      </c>
+      <c r="BJ58">
+        <v>1.91</v>
+      </c>
+      <c r="BK58">
+        <v>2.28</v>
+      </c>
+      <c r="BL58">
+        <v>1.53</v>
+      </c>
+      <c r="BM58">
+        <v>3.1</v>
+      </c>
+      <c r="BN58">
+        <v>1.3</v>
+      </c>
+      <c r="BO58">
+        <v>4.35</v>
+      </c>
+      <c r="BP58">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7481414</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45556.5625</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>130</v>
+      </c>
+      <c r="P59" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q59">
+        <v>3.45</v>
+      </c>
+      <c r="R59">
+        <v>1.8</v>
+      </c>
+      <c r="S59">
+        <v>3.65</v>
+      </c>
+      <c r="T59">
+        <v>1.6</v>
+      </c>
+      <c r="U59">
+        <v>2.2</v>
+      </c>
+      <c r="V59">
+        <v>3.75</v>
+      </c>
+      <c r="W59">
+        <v>1.22</v>
+      </c>
+      <c r="X59">
+        <v>10.75</v>
+      </c>
+      <c r="Y59">
+        <v>1.03</v>
+      </c>
+      <c r="Z59">
+        <v>2.9</v>
+      </c>
+      <c r="AA59">
+        <v>2.9</v>
+      </c>
+      <c r="AB59">
+        <v>2.6</v>
+      </c>
+      <c r="AC59">
+        <v>1.11</v>
+      </c>
+      <c r="AD59">
+        <v>6.25</v>
+      </c>
+      <c r="AE59">
+        <v>1.52</v>
+      </c>
+      <c r="AF59">
+        <v>2.38</v>
+      </c>
+      <c r="AG59">
+        <v>2.45</v>
+      </c>
+      <c r="AH59">
+        <v>1.5</v>
+      </c>
+      <c r="AI59">
+        <v>2.05</v>
+      </c>
+      <c r="AJ59">
+        <v>1.67</v>
+      </c>
+      <c r="AK59">
+        <v>1.4</v>
+      </c>
+      <c r="AL59">
+        <v>1.35</v>
+      </c>
+      <c r="AM59">
+        <v>1.45</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>1.33</v>
+      </c>
+      <c r="AP59">
+        <v>1.75</v>
+      </c>
+      <c r="AQ59">
+        <v>1.25</v>
+      </c>
+      <c r="AR59">
+        <v>1.51</v>
+      </c>
+      <c r="AS59">
+        <v>0.87</v>
+      </c>
+      <c r="AT59">
+        <v>2.38</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>3</v>
+      </c>
+      <c r="AY59">
+        <v>11</v>
+      </c>
+      <c r="AZ59">
+        <v>9</v>
+      </c>
+      <c r="BA59">
+        <v>7</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
+        <v>12</v>
+      </c>
+      <c r="BD59">
+        <v>1.85</v>
+      </c>
+      <c r="BE59">
+        <v>7.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.29</v>
+      </c>
+      <c r="BG59">
+        <v>1.3</v>
+      </c>
+      <c r="BH59">
+        <v>3.05</v>
+      </c>
+      <c r="BI59">
+        <v>1.56</v>
+      </c>
+      <c r="BJ59">
+        <v>2.2</v>
+      </c>
+      <c r="BK59">
+        <v>2</v>
+      </c>
+      <c r="BL59">
+        <v>1.73</v>
+      </c>
+      <c r="BM59">
+        <v>2.55</v>
+      </c>
+      <c r="BN59">
+        <v>1.42</v>
+      </c>
+      <c r="BO59">
+        <v>3.5</v>
+      </c>
+      <c r="BP59">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7481417</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45556.5625</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>94</v>
+      </c>
+      <c r="P60" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q60">
+        <v>2.5</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>4.5</v>
+      </c>
+      <c r="T60">
+        <v>1.46</v>
+      </c>
+      <c r="U60">
+        <v>2.72</v>
+      </c>
+      <c r="V60">
+        <v>3.32</v>
+      </c>
+      <c r="W60">
+        <v>1.33</v>
+      </c>
+      <c r="X60">
+        <v>8.4</v>
+      </c>
+      <c r="Y60">
+        <v>1.05</v>
+      </c>
+      <c r="Z60">
+        <v>1.91</v>
+      </c>
+      <c r="AA60">
+        <v>3.2</v>
+      </c>
+      <c r="AB60">
+        <v>4</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.36</v>
+      </c>
+      <c r="AF60">
+        <v>2.88</v>
+      </c>
+      <c r="AG60">
+        <v>2.05</v>
+      </c>
+      <c r="AH60">
+        <v>1.7</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
+      <c r="AJ60">
+        <v>1.73</v>
+      </c>
+      <c r="AK60">
+        <v>1.25</v>
+      </c>
+      <c r="AL60">
+        <v>1.31</v>
+      </c>
+      <c r="AM60">
+        <v>1.85</v>
+      </c>
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>2.33</v>
+      </c>
+      <c r="AR60">
+        <v>1.47</v>
+      </c>
+      <c r="AS60">
+        <v>1.37</v>
+      </c>
+      <c r="AT60">
+        <v>2.84</v>
+      </c>
+      <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>3</v>
+      </c>
+      <c r="AY60">
+        <v>11</v>
+      </c>
+      <c r="AZ60">
+        <v>8</v>
+      </c>
+      <c r="BA60">
+        <v>10</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>15</v>
+      </c>
+      <c r="BD60">
+        <v>1.64</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>2.67</v>
+      </c>
+      <c r="BG60">
+        <v>1.25</v>
+      </c>
+      <c r="BH60">
+        <v>3.4</v>
+      </c>
+      <c r="BI60">
+        <v>1.47</v>
+      </c>
+      <c r="BJ60">
+        <v>2.43</v>
+      </c>
+      <c r="BK60">
+        <v>1.88</v>
+      </c>
+      <c r="BL60">
+        <v>1.92</v>
+      </c>
+      <c r="BM60">
+        <v>2.32</v>
+      </c>
+      <c r="BN60">
+        <v>1.5</v>
+      </c>
+      <c r="BO60">
+        <v>3.1</v>
+      </c>
+      <c r="BP60">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7481420</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45556.66666666666</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>131</v>
+      </c>
+      <c r="P61" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q61">
+        <v>2.75</v>
+      </c>
+      <c r="R61">
+        <v>1.91</v>
+      </c>
+      <c r="S61">
+        <v>4.2</v>
+      </c>
+      <c r="T61">
+        <v>1.5</v>
+      </c>
+      <c r="U61">
+        <v>2.49</v>
+      </c>
+      <c r="V61">
+        <v>3.22</v>
+      </c>
+      <c r="W61">
+        <v>1.32</v>
+      </c>
+      <c r="X61">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>1.05</v>
+      </c>
+      <c r="Z61">
+        <v>2.15</v>
+      </c>
+      <c r="AA61">
+        <v>3.1</v>
+      </c>
+      <c r="AB61">
+        <v>3.4</v>
+      </c>
+      <c r="AC61">
+        <v>1.06</v>
+      </c>
+      <c r="AD61">
+        <v>7.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.36</v>
+      </c>
+      <c r="AF61">
+        <v>2.88</v>
+      </c>
+      <c r="AG61">
+        <v>2.25</v>
+      </c>
+      <c r="AH61">
+        <v>1.57</v>
+      </c>
+      <c r="AI61">
+        <v>2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.73</v>
+      </c>
+      <c r="AK61">
+        <v>1.27</v>
+      </c>
+      <c r="AL61">
+        <v>1.3</v>
+      </c>
+      <c r="AM61">
+        <v>1.65</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>2.33</v>
+      </c>
+      <c r="AP61">
+        <v>3</v>
+      </c>
+      <c r="AQ61">
+        <v>1.75</v>
+      </c>
+      <c r="AR61">
+        <v>1.87</v>
+      </c>
+      <c r="AS61">
+        <v>1.21</v>
+      </c>
+      <c r="AT61">
+        <v>3.08</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>8</v>
+      </c>
+      <c r="AX61">
+        <v>5</v>
+      </c>
+      <c r="AY61">
+        <v>14</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>8</v>
+      </c>
+      <c r="BC61">
+        <v>12</v>
+      </c>
+      <c r="BD61">
+        <v>1.64</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>2.67</v>
+      </c>
+      <c r="BG61">
+        <v>1.3</v>
+      </c>
+      <c r="BH61">
+        <v>3.05</v>
+      </c>
+      <c r="BI61">
+        <v>1.56</v>
+      </c>
+      <c r="BJ61">
+        <v>2.2</v>
+      </c>
+      <c r="BK61">
+        <v>2</v>
+      </c>
+      <c r="BL61">
+        <v>1.8</v>
+      </c>
+      <c r="BM61">
+        <v>2.55</v>
+      </c>
+      <c r="BN61">
+        <v>1.42</v>
+      </c>
+      <c r="BO61">
+        <v>3.5</v>
+      </c>
+      <c r="BP61">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,13 +403,16 @@
     <t>['56', '77']</t>
   </si>
   <si>
+    <t>['16', '85']</t>
+  </si>
+  <si>
     <t>['72']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
-    <t>['16', '85']</t>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -466,9 +469,6 @@
     <t>['26', '54']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -508,10 +508,13 @@
     <t>['60', '90+3']</t>
   </si>
   <si>
+    <t>['88', '90+7']</t>
+  </si>
+  <si>
     <t>['48', '78', '90+1', '90+7']</t>
   </si>
   <si>
-    <t>['88', '90+7']</t>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1135,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1544,7 +1547,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1750,7 +1753,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2162,7 +2165,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2243,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2368,7 +2371,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2574,7 +2577,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2780,7 +2783,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2986,7 +2989,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3064,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3192,7 +3195,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3270,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3398,7 +3401,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3604,7 +3607,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4222,7 +4225,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4509,7 +4512,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4634,7 +4637,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4712,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5124,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5252,7 +5255,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5458,7 +5461,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5664,7 +5667,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5870,7 +5873,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6076,7 +6079,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6282,7 +6285,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6363,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7184,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7802,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7930,7 +7933,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8008,7 +8011,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8629,7 +8632,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9041,7 +9044,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9450,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9862,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -11101,7 +11104,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -12128,7 +12131,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12626,7 +12629,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7481416</v>
+        <v>7481417</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12635,16 +12638,16 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45556.46875</v>
+        <v>45555.875</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -12656,73 +12659,73 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O58" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="P58" t="s">
         <v>164</v>
       </c>
       <c r="Q58">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="R58">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>4.02</v>
+        <v>4.5</v>
       </c>
       <c r="T58">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="U58">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="V58">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="W58">
         <v>1.33</v>
       </c>
       <c r="X58">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Y58">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z58">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="AA58">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AB58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC58">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD58">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE58">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF58">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="AG58">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AH58">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AI58">
         <v>2</v>
@@ -12731,100 +12734,100 @@
         <v>1.73</v>
       </c>
       <c r="AK58">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL58">
+        <v>1.31</v>
+      </c>
+      <c r="AM58">
+        <v>1.85</v>
+      </c>
+      <c r="AN58">
+        <v>1.5</v>
+      </c>
+      <c r="AO58">
+        <v>2</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>2.33</v>
+      </c>
+      <c r="AR58">
+        <v>1.47</v>
+      </c>
+      <c r="AS58">
         <v>1.37</v>
       </c>
-      <c r="AM58">
-        <v>1.57</v>
-      </c>
-      <c r="AN58">
-        <v>0.67</v>
-      </c>
-      <c r="AO58">
-        <v>1</v>
-      </c>
-      <c r="AP58">
-        <v>0.5</v>
-      </c>
-      <c r="AQ58">
+      <c r="AT58">
+        <v>2.84</v>
+      </c>
+      <c r="AU58">
+        <v>3</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>5</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>8</v>
+      </c>
+      <c r="BA58">
+        <v>10</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>15</v>
+      </c>
+      <c r="BD58">
+        <v>1.64</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2.67</v>
+      </c>
+      <c r="BG58">
+        <v>1.25</v>
+      </c>
+      <c r="BH58">
+        <v>3.4</v>
+      </c>
+      <c r="BI58">
+        <v>1.47</v>
+      </c>
+      <c r="BJ58">
+        <v>2.43</v>
+      </c>
+      <c r="BK58">
+        <v>1.88</v>
+      </c>
+      <c r="BL58">
+        <v>1.92</v>
+      </c>
+      <c r="BM58">
+        <v>2.32</v>
+      </c>
+      <c r="BN58">
         <v>1.5</v>
       </c>
-      <c r="AR58">
-        <v>1.22</v>
-      </c>
-      <c r="AS58">
-        <v>1.02</v>
-      </c>
-      <c r="AT58">
-        <v>2.24</v>
-      </c>
-      <c r="AU58">
-        <v>4</v>
-      </c>
-      <c r="AV58">
-        <v>11</v>
-      </c>
-      <c r="AW58">
-        <v>6</v>
-      </c>
-      <c r="AX58">
-        <v>7</v>
-      </c>
-      <c r="AY58">
-        <v>10</v>
-      </c>
-      <c r="AZ58">
-        <v>18</v>
-      </c>
-      <c r="BA58">
-        <v>6</v>
-      </c>
-      <c r="BB58">
-        <v>3</v>
-      </c>
-      <c r="BC58">
-        <v>9</v>
-      </c>
-      <c r="BD58">
-        <v>1.69</v>
-      </c>
-      <c r="BE58">
-        <v>7.5</v>
-      </c>
-      <c r="BF58">
-        <v>2.64</v>
-      </c>
-      <c r="BG58">
-        <v>1.43</v>
-      </c>
-      <c r="BH58">
-        <v>2.55</v>
-      </c>
-      <c r="BI58">
-        <v>1.8</v>
-      </c>
-      <c r="BJ58">
-        <v>1.91</v>
-      </c>
-      <c r="BK58">
-        <v>2.28</v>
-      </c>
-      <c r="BL58">
-        <v>1.53</v>
-      </c>
-      <c r="BM58">
+      <c r="BO58">
         <v>3.1</v>
       </c>
-      <c r="BN58">
+      <c r="BP58">
         <v>1.3</v>
-      </c>
-      <c r="BO58">
-        <v>4.35</v>
-      </c>
-      <c r="BP58">
-        <v>1.16</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12832,7 +12835,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7481414</v>
+        <v>7481420</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12841,16 +12844,16 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45556.5625</v>
+        <v>45555.875</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -12862,145 +12865,145 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P59" t="s">
         <v>124</v>
       </c>
       <c r="Q59">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S59">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="T59">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="U59">
-        <v>2.2</v>
+        <v>2.49</v>
       </c>
       <c r="V59">
-        <v>3.75</v>
+        <v>3.22</v>
       </c>
       <c r="W59">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="X59">
-        <v>10.75</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y59">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z59">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="AA59">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AB59">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC59">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AD59">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="AE59">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="AF59">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="AG59">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AH59">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AI59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AJ59">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK59">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AL59">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AM59">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AN59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AP59">
+        <v>3</v>
+      </c>
+      <c r="AQ59">
         <v>1.75</v>
       </c>
-      <c r="AQ59">
-        <v>1.25</v>
-      </c>
       <c r="AR59">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="AS59">
-        <v>0.87</v>
+        <v>1.21</v>
       </c>
       <c r="AT59">
-        <v>2.38</v>
+        <v>3.08</v>
       </c>
       <c r="AU59">
         <v>5</v>
       </c>
       <c r="AV59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC59">
         <v>12</v>
       </c>
       <c r="BD59">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="BE59">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF59">
-        <v>2.29</v>
+        <v>2.67</v>
       </c>
       <c r="BG59">
         <v>1.3</v>
@@ -13018,7 +13021,7 @@
         <v>2</v>
       </c>
       <c r="BL59">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BM59">
         <v>2.55</v>
@@ -13038,7 +13041,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7481417</v>
+        <v>7481416</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13047,16 +13050,16 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45556.5625</v>
+        <v>45556.46875</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13068,73 +13071,73 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O60" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="P60" t="s">
         <v>165</v>
       </c>
       <c r="Q60">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S60">
-        <v>4.5</v>
+        <v>4.02</v>
       </c>
       <c r="T60">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="U60">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="V60">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="W60">
         <v>1.33</v>
       </c>
       <c r="X60">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Y60">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z60">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="AA60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC60">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD60">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE60">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AF60">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="AG60">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AH60">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AI60">
         <v>2</v>
@@ -13143,100 +13146,100 @@
         <v>1.73</v>
       </c>
       <c r="AK60">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AL60">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AM60">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AN60">
+        <v>0.67</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>0.5</v>
+      </c>
+      <c r="AQ60">
         <v>1.5</v>
       </c>
-      <c r="AO60">
-        <v>2</v>
-      </c>
-      <c r="AP60">
-        <v>1</v>
-      </c>
-      <c r="AQ60">
-        <v>2.33</v>
-      </c>
       <c r="AR60">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="AS60">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="AT60">
-        <v>2.84</v>
+        <v>2.24</v>
       </c>
       <c r="AU60">
         <v>4</v>
       </c>
       <c r="AV60">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AW60">
+        <v>6</v>
+      </c>
+      <c r="AX60">
         <v>7</v>
       </c>
-      <c r="AX60">
+      <c r="AY60">
+        <v>10</v>
+      </c>
+      <c r="AZ60">
+        <v>18</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
         <v>3</v>
       </c>
-      <c r="AY60">
-        <v>11</v>
-      </c>
-      <c r="AZ60">
-        <v>8</v>
-      </c>
-      <c r="BA60">
-        <v>10</v>
-      </c>
-      <c r="BB60">
-        <v>5</v>
-      </c>
       <c r="BC60">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD60">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="BE60">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF60">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="BG60">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="BH60">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="BI60">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="BJ60">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="BK60">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
       <c r="BL60">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="BM60">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="BN60">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BO60">
-        <v>3.1</v>
+        <v>4.35</v>
       </c>
       <c r="BP60">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13244,7 +13247,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7481420</v>
+        <v>7481412</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13253,67 +13256,67 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45556.66666666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="Q61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R61">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="S61">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="T61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="U61">
-        <v>2.49</v>
+        <v>3.25</v>
       </c>
       <c r="V61">
-        <v>3.22</v>
+        <v>2.63</v>
       </c>
       <c r="W61">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X61">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="Y61">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="Z61">
         <v>2.15</v>
@@ -13322,109 +13325,109 @@
         <v>3.1</v>
       </c>
       <c r="AB61">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC61">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AD61">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AE61">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AF61">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="AG61">
         <v>2.25</v>
       </c>
       <c r="AH61">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AI61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AJ61">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AK61">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AL61">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM61">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AN61">
+        <v>0.5</v>
+      </c>
+      <c r="AO61">
         <v>3</v>
       </c>
-      <c r="AO61">
-        <v>2.33</v>
-      </c>
       <c r="AP61">
+        <v>0.33</v>
+      </c>
+      <c r="AQ61">
         <v>3</v>
       </c>
-      <c r="AQ61">
-        <v>1.75</v>
-      </c>
       <c r="AR61">
-        <v>1.87</v>
+        <v>1.39</v>
       </c>
       <c r="AS61">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AT61">
-        <v>3.08</v>
+        <v>2.75</v>
       </c>
       <c r="AU61">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
+        <v>1</v>
+      </c>
+      <c r="AY61">
+        <v>17</v>
+      </c>
+      <c r="AZ61">
         <v>8</v>
       </c>
-      <c r="AX61">
-        <v>5</v>
-      </c>
-      <c r="AY61">
-        <v>14</v>
-      </c>
-      <c r="AZ61">
+      <c r="BA61">
+        <v>7</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
         <v>10</v>
       </c>
-      <c r="BA61">
-        <v>4</v>
-      </c>
-      <c r="BB61">
-        <v>8</v>
-      </c>
-      <c r="BC61">
-        <v>12</v>
-      </c>
       <c r="BD61">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="BE61">
         <v>8</v>
       </c>
       <c r="BF61">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="BG61">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BH61">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BI61">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="BJ61">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BK61">
         <v>2</v>
@@ -13433,15 +13436,427 @@
         <v>1.8</v>
       </c>
       <c r="BM61">
+        <v>2.48</v>
+      </c>
+      <c r="BN61">
+        <v>1.45</v>
+      </c>
+      <c r="BO61">
+        <v>3.35</v>
+      </c>
+      <c r="BP61">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7481413</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>131</v>
+      </c>
+      <c r="P62" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q62">
+        <v>2.38</v>
+      </c>
+      <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
+        <v>6</v>
+      </c>
+      <c r="T62">
+        <v>1.55</v>
+      </c>
+      <c r="U62">
+        <v>2.3</v>
+      </c>
+      <c r="V62">
+        <v>3.4</v>
+      </c>
+      <c r="W62">
+        <v>1.29</v>
+      </c>
+      <c r="X62">
+        <v>9</v>
+      </c>
+      <c r="Y62">
+        <v>1.03</v>
+      </c>
+      <c r="Z62">
+        <v>1.61</v>
+      </c>
+      <c r="AA62">
+        <v>3.5</v>
+      </c>
+      <c r="AB62">
+        <v>6</v>
+      </c>
+      <c r="AC62">
+        <v>1.07</v>
+      </c>
+      <c r="AD62">
+        <v>6.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.45</v>
+      </c>
+      <c r="AF62">
+        <v>2.5</v>
+      </c>
+      <c r="AG62">
+        <v>2.43</v>
+      </c>
+      <c r="AH62">
+        <v>1.5</v>
+      </c>
+      <c r="AI62">
+        <v>2.25</v>
+      </c>
+      <c r="AJ62">
+        <v>1.55</v>
+      </c>
+      <c r="AK62">
+        <v>1.14</v>
+      </c>
+      <c r="AL62">
+        <v>1.31</v>
+      </c>
+      <c r="AM62">
+        <v>2.15</v>
+      </c>
+      <c r="AN62">
+        <v>1.33</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>1.75</v>
+      </c>
+      <c r="AQ62">
+        <v>0.67</v>
+      </c>
+      <c r="AR62">
+        <v>1.25</v>
+      </c>
+      <c r="AS62">
+        <v>1.05</v>
+      </c>
+      <c r="AT62">
+        <v>2.3</v>
+      </c>
+      <c r="AU62">
+        <v>9</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>15</v>
+      </c>
+      <c r="AZ62">
+        <v>6</v>
+      </c>
+      <c r="BA62">
+        <v>5</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>5</v>
+      </c>
+      <c r="BD62">
+        <v>1.26</v>
+      </c>
+      <c r="BE62">
+        <v>10</v>
+      </c>
+      <c r="BF62">
+        <v>4.86</v>
+      </c>
+      <c r="BG62">
+        <v>1.29</v>
+      </c>
+      <c r="BH62">
+        <v>3.15</v>
+      </c>
+      <c r="BI62">
+        <v>1.53</v>
+      </c>
+      <c r="BJ62">
+        <v>2.28</v>
+      </c>
+      <c r="BK62">
+        <v>1.98</v>
+      </c>
+      <c r="BL62">
+        <v>1.82</v>
+      </c>
+      <c r="BM62">
+        <v>2.48</v>
+      </c>
+      <c r="BN62">
+        <v>1.45</v>
+      </c>
+      <c r="BO62">
+        <v>3.35</v>
+      </c>
+      <c r="BP62">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7481421</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q63">
+        <v>2.95</v>
+      </c>
+      <c r="R63">
+        <v>1.83</v>
+      </c>
+      <c r="S63">
+        <v>4.1</v>
+      </c>
+      <c r="T63">
+        <v>1.58</v>
+      </c>
+      <c r="U63">
+        <v>2.25</v>
+      </c>
+      <c r="V63">
+        <v>3.5</v>
+      </c>
+      <c r="W63">
+        <v>1.25</v>
+      </c>
+      <c r="X63">
+        <v>12</v>
+      </c>
+      <c r="Y63">
+        <v>1.04</v>
+      </c>
+      <c r="Z63">
+        <v>2.15</v>
+      </c>
+      <c r="AA63">
+        <v>3</v>
+      </c>
+      <c r="AB63">
+        <v>3.3</v>
+      </c>
+      <c r="AC63">
+        <v>1.09</v>
+      </c>
+      <c r="AD63">
+        <v>5.8</v>
+      </c>
+      <c r="AE63">
+        <v>1.5</v>
+      </c>
+      <c r="AF63">
+        <v>2.4</v>
+      </c>
+      <c r="AG63">
+        <v>2.5</v>
+      </c>
+      <c r="AH63">
+        <v>1.5</v>
+      </c>
+      <c r="AI63">
+        <v>2.1</v>
+      </c>
+      <c r="AJ63">
+        <v>1.67</v>
+      </c>
+      <c r="AK63">
+        <v>1.27</v>
+      </c>
+      <c r="AL63">
+        <v>1.4</v>
+      </c>
+      <c r="AM63">
+        <v>1.5</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0.5</v>
+      </c>
+      <c r="AP63">
+        <v>0.33</v>
+      </c>
+      <c r="AQ63">
+        <v>0.67</v>
+      </c>
+      <c r="AR63">
+        <v>1.36</v>
+      </c>
+      <c r="AS63">
+        <v>1.02</v>
+      </c>
+      <c r="AT63">
+        <v>2.38</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63">
+        <v>3</v>
+      </c>
+      <c r="AY63">
+        <v>10</v>
+      </c>
+      <c r="AZ63">
+        <v>6</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>7</v>
+      </c>
+      <c r="BC63">
+        <v>12</v>
+      </c>
+      <c r="BD63">
+        <v>1.85</v>
+      </c>
+      <c r="BE63">
+        <v>7.5</v>
+      </c>
+      <c r="BF63">
+        <v>2.29</v>
+      </c>
+      <c r="BG63">
+        <v>1.3</v>
+      </c>
+      <c r="BH63">
+        <v>3.05</v>
+      </c>
+      <c r="BI63">
+        <v>1.56</v>
+      </c>
+      <c r="BJ63">
+        <v>2.2</v>
+      </c>
+      <c r="BK63">
+        <v>2</v>
+      </c>
+      <c r="BL63">
+        <v>1.73</v>
+      </c>
+      <c r="BM63">
         <v>2.55</v>
       </c>
-      <c r="BN61">
+      <c r="BN63">
         <v>1.42</v>
       </c>
-      <c r="BO61">
+      <c r="BO63">
         <v>3.5</v>
       </c>
-      <c r="BP61">
+      <c r="BP63">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,12 +409,21 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['71']</t>
   </si>
   <si>
     <t>['84']</t>
   </si>
   <si>
+    <t>['57', '80']</t>
+  </si>
+  <si>
+    <t>['13', '29', '31', '89']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -515,6 +524,12 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['25', '55']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1150,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1547,7 +1562,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1753,7 +1768,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2165,7 +2180,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2246,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2371,7 +2386,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2577,7 +2592,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2783,7 +2798,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2989,7 +3004,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3195,7 +3210,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3273,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3401,7 +3416,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3482,7 +3497,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3607,7 +3622,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3685,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -4225,7 +4240,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4306,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4637,7 +4652,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5130,7 +5145,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5255,7 +5270,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5461,7 +5476,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5667,7 +5682,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5873,7 +5888,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6079,7 +6094,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6285,7 +6300,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6363,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
         <v>0.67</v>
@@ -6491,7 +6506,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6697,7 +6712,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7109,7 +7124,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7187,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7521,7 +7536,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7933,7 +7948,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8139,7 +8154,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8423,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>2.33</v>
@@ -8551,7 +8566,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8632,7 +8647,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9169,7 +9184,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9453,7 +9468,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9787,7 +9802,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9868,7 +9883,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -9993,7 +10008,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10074,7 +10089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10611,7 +10626,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -12053,7 +12068,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12259,7 +12274,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12337,7 +12352,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12465,7 +12480,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12671,7 +12686,7 @@
         <v>94</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13083,7 +13098,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>3.15</v>
@@ -13247,7 +13262,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7481412</v>
+        <v>7481414</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13256,196 +13271,196 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45556.875</v>
+        <v>45556.5625</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="Q61">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="R61">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T61">
+        <v>1.6</v>
+      </c>
+      <c r="U61">
+        <v>2.2</v>
+      </c>
+      <c r="V61">
+        <v>3.75</v>
+      </c>
+      <c r="W61">
+        <v>1.22</v>
+      </c>
+      <c r="X61">
+        <v>10.75</v>
+      </c>
+      <c r="Y61">
+        <v>1.03</v>
+      </c>
+      <c r="Z61">
+        <v>2.9</v>
+      </c>
+      <c r="AA61">
+        <v>2.9</v>
+      </c>
+      <c r="AB61">
+        <v>2.6</v>
+      </c>
+      <c r="AC61">
+        <v>1.11</v>
+      </c>
+      <c r="AD61">
+        <v>6.25</v>
+      </c>
+      <c r="AE61">
+        <v>1.52</v>
+      </c>
+      <c r="AF61">
+        <v>2.38</v>
+      </c>
+      <c r="AG61">
+        <v>2.45</v>
+      </c>
+      <c r="AH61">
+        <v>1.5</v>
+      </c>
+      <c r="AI61">
+        <v>2.05</v>
+      </c>
+      <c r="AJ61">
+        <v>1.67</v>
+      </c>
+      <c r="AK61">
+        <v>1.4</v>
+      </c>
+      <c r="AL61">
+        <v>1.35</v>
+      </c>
+      <c r="AM61">
+        <v>1.45</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
         <v>1.33</v>
       </c>
-      <c r="U61">
-        <v>3.25</v>
-      </c>
-      <c r="V61">
-        <v>2.63</v>
-      </c>
-      <c r="W61">
-        <v>1.44</v>
-      </c>
-      <c r="X61">
-        <v>6.5</v>
-      </c>
-      <c r="Y61">
-        <v>1.11</v>
-      </c>
-      <c r="Z61">
-        <v>2.15</v>
-      </c>
-      <c r="AA61">
-        <v>3.1</v>
-      </c>
-      <c r="AB61">
-        <v>3.2</v>
-      </c>
-      <c r="AC61">
-        <v>1.02</v>
-      </c>
-      <c r="AD61">
-        <v>10</v>
-      </c>
-      <c r="AE61">
-        <v>1.2</v>
-      </c>
-      <c r="AF61">
-        <v>4</v>
-      </c>
-      <c r="AG61">
-        <v>2.25</v>
-      </c>
-      <c r="AH61">
-        <v>1.65</v>
-      </c>
-      <c r="AI61">
-        <v>1.67</v>
-      </c>
-      <c r="AJ61">
-        <v>2.1</v>
-      </c>
-      <c r="AK61">
+      <c r="AP61">
+        <v>1.75</v>
+      </c>
+      <c r="AQ61">
         <v>1.25</v>
       </c>
-      <c r="AL61">
-        <v>1.28</v>
-      </c>
-      <c r="AM61">
-        <v>1.7</v>
-      </c>
-      <c r="AN61">
-        <v>0.5</v>
-      </c>
-      <c r="AO61">
+      <c r="AR61">
+        <v>1.51</v>
+      </c>
+      <c r="AS61">
+        <v>0.87</v>
+      </c>
+      <c r="AT61">
+        <v>2.38</v>
+      </c>
+      <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>6</v>
+      </c>
+      <c r="AX61">
         <v>3</v>
       </c>
-      <c r="AP61">
-        <v>0.33</v>
-      </c>
-      <c r="AQ61">
-        <v>3</v>
-      </c>
-      <c r="AR61">
-        <v>1.39</v>
-      </c>
-      <c r="AS61">
-        <v>1.36</v>
-      </c>
-      <c r="AT61">
-        <v>2.75</v>
-      </c>
-      <c r="AU61">
-        <v>10</v>
-      </c>
-      <c r="AV61">
-        <v>7</v>
-      </c>
-      <c r="AW61">
-        <v>7</v>
-      </c>
-      <c r="AX61">
-        <v>1</v>
-      </c>
       <c r="AY61">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA61">
         <v>7</v>
       </c>
       <c r="BB61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD61">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="BE61">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF61">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="BG61">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BH61">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BI61">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="BJ61">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="BK61">
         <v>2</v>
       </c>
       <c r="BL61">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BM61">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BN61">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="BO61">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BP61">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13453,7 +13468,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7481413</v>
+        <v>7481412</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13468,10 +13483,10 @@
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -13483,145 +13498,145 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="P62" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="Q62">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="S62">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T62">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="U62">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="V62">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W62">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X62">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y62">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="Z62">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="AA62">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB62">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AC62">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD62">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AE62">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AF62">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AG62">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AH62">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AI62">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AJ62">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AK62">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AL62">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AM62">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AN62">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AR62">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AS62">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="AU62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV62">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY62">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD62">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="BE62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF62">
-        <v>4.86</v>
+        <v>2.62</v>
       </c>
       <c r="BG62">
         <v>1.29</v>
@@ -13636,10 +13651,10 @@
         <v>2.28</v>
       </c>
       <c r="BK62">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL62">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BM62">
         <v>2.48</v>
@@ -13659,7 +13674,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7481421</v>
+        <v>7481413</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13674,139 +13689,139 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O63" t="s">
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="Q63">
-        <v>2.95</v>
+        <v>2.38</v>
       </c>
       <c r="R63">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="T63">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="U63">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V63">
+        <v>3.4</v>
+      </c>
+      <c r="W63">
+        <v>1.29</v>
+      </c>
+      <c r="X63">
+        <v>9</v>
+      </c>
+      <c r="Y63">
+        <v>1.03</v>
+      </c>
+      <c r="Z63">
+        <v>1.61</v>
+      </c>
+      <c r="AA63">
         <v>3.5</v>
       </c>
-      <c r="W63">
-        <v>1.25</v>
-      </c>
-      <c r="X63">
-        <v>12</v>
-      </c>
-      <c r="Y63">
-        <v>1.04</v>
-      </c>
-      <c r="Z63">
-        <v>2.15</v>
-      </c>
-      <c r="AA63">
-        <v>3</v>
-      </c>
       <c r="AB63">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="AC63">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD63">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE63">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AF63">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AG63">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AH63">
         <v>1.5</v>
       </c>
       <c r="AI63">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AJ63">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AK63">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AL63">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AM63">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
         <v>0.67</v>
       </c>
       <c r="AR63">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AT63">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AU63">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY63">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ63">
         <v>6</v>
@@ -13815,49 +13830,873 @@
         <v>5</v>
       </c>
       <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>5</v>
+      </c>
+      <c r="BD63">
+        <v>1.26</v>
+      </c>
+      <c r="BE63">
+        <v>10</v>
+      </c>
+      <c r="BF63">
+        <v>4.86</v>
+      </c>
+      <c r="BG63">
+        <v>1.29</v>
+      </c>
+      <c r="BH63">
+        <v>3.15</v>
+      </c>
+      <c r="BI63">
+        <v>1.53</v>
+      </c>
+      <c r="BJ63">
+        <v>2.28</v>
+      </c>
+      <c r="BK63">
+        <v>1.98</v>
+      </c>
+      <c r="BL63">
+        <v>1.82</v>
+      </c>
+      <c r="BM63">
+        <v>2.48</v>
+      </c>
+      <c r="BN63">
+        <v>1.45</v>
+      </c>
+      <c r="BO63">
+        <v>3.35</v>
+      </c>
+      <c r="BP63">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7481421</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>133</v>
+      </c>
+      <c r="P64" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q64">
+        <v>2.95</v>
+      </c>
+      <c r="R64">
+        <v>1.83</v>
+      </c>
+      <c r="S64">
+        <v>4.1</v>
+      </c>
+      <c r="T64">
+        <v>1.58</v>
+      </c>
+      <c r="U64">
+        <v>2.25</v>
+      </c>
+      <c r="V64">
+        <v>3.5</v>
+      </c>
+      <c r="W64">
+        <v>1.25</v>
+      </c>
+      <c r="X64">
+        <v>12</v>
+      </c>
+      <c r="Y64">
+        <v>1.04</v>
+      </c>
+      <c r="Z64">
+        <v>2.15</v>
+      </c>
+      <c r="AA64">
+        <v>3</v>
+      </c>
+      <c r="AB64">
+        <v>3.3</v>
+      </c>
+      <c r="AC64">
+        <v>1.09</v>
+      </c>
+      <c r="AD64">
+        <v>5.8</v>
+      </c>
+      <c r="AE64">
+        <v>1.5</v>
+      </c>
+      <c r="AF64">
+        <v>2.4</v>
+      </c>
+      <c r="AG64">
+        <v>2.5</v>
+      </c>
+      <c r="AH64">
+        <v>1.5</v>
+      </c>
+      <c r="AI64">
+        <v>2.1</v>
+      </c>
+      <c r="AJ64">
+        <v>1.67</v>
+      </c>
+      <c r="AK64">
+        <v>1.27</v>
+      </c>
+      <c r="AL64">
+        <v>1.4</v>
+      </c>
+      <c r="AM64">
+        <v>1.5</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0.5</v>
+      </c>
+      <c r="AP64">
+        <v>0.33</v>
+      </c>
+      <c r="AQ64">
+        <v>0.67</v>
+      </c>
+      <c r="AR64">
+        <v>1.36</v>
+      </c>
+      <c r="AS64">
+        <v>1.02</v>
+      </c>
+      <c r="AT64">
+        <v>2.38</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
         <v>7</v>
       </c>
-      <c r="BC63">
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>10</v>
+      </c>
+      <c r="AZ64">
+        <v>6</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
         <v>12</v>
       </c>
-      <c r="BD63">
+      <c r="BD64">
         <v>1.85</v>
       </c>
-      <c r="BE63">
+      <c r="BE64">
         <v>7.5</v>
       </c>
-      <c r="BF63">
+      <c r="BF64">
         <v>2.29</v>
       </c>
-      <c r="BG63">
+      <c r="BG64">
         <v>1.3</v>
       </c>
-      <c r="BH63">
+      <c r="BH64">
         <v>3.05</v>
       </c>
-      <c r="BI63">
+      <c r="BI64">
         <v>1.56</v>
       </c>
-      <c r="BJ63">
+      <c r="BJ64">
         <v>2.2</v>
       </c>
-      <c r="BK63">
-        <v>2</v>
-      </c>
-      <c r="BL63">
+      <c r="BK64">
+        <v>2</v>
+      </c>
+      <c r="BL64">
         <v>1.73</v>
       </c>
-      <c r="BM63">
+      <c r="BM64">
         <v>2.55</v>
       </c>
-      <c r="BN63">
+      <c r="BN64">
         <v>1.42</v>
       </c>
-      <c r="BO63">
+      <c r="BO64">
         <v>3.5</v>
       </c>
-      <c r="BP63">
+      <c r="BP64">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7481418</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45557.46875</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>98</v>
+      </c>
+      <c r="P65" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>3.2</v>
+      </c>
+      <c r="T65">
+        <v>1.53</v>
+      </c>
+      <c r="U65">
+        <v>2.38</v>
+      </c>
+      <c r="V65">
+        <v>3.5</v>
+      </c>
+      <c r="W65">
+        <v>1.29</v>
+      </c>
+      <c r="X65">
+        <v>11</v>
+      </c>
+      <c r="Y65">
+        <v>1.05</v>
+      </c>
+      <c r="Z65">
+        <v>2.9</v>
+      </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
+      <c r="AB65">
+        <v>2.35</v>
+      </c>
+      <c r="AC65">
+        <v>1.06</v>
+      </c>
+      <c r="AD65">
+        <v>7.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.4</v>
+      </c>
+      <c r="AF65">
+        <v>2.75</v>
+      </c>
+      <c r="AG65">
+        <v>2.17</v>
+      </c>
+      <c r="AH65">
+        <v>1.7</v>
+      </c>
+      <c r="AI65">
+        <v>2.1</v>
+      </c>
+      <c r="AJ65">
+        <v>1.67</v>
+      </c>
+      <c r="AK65">
+        <v>1.57</v>
+      </c>
+      <c r="AL65">
+        <v>1.37</v>
+      </c>
+      <c r="AM65">
+        <v>1.25</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>2</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>2.33</v>
+      </c>
+      <c r="AR65">
+        <v>1.13</v>
+      </c>
+      <c r="AS65">
+        <v>1.56</v>
+      </c>
+      <c r="AT65">
+        <v>2.69</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>7</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>10</v>
+      </c>
+      <c r="AZ65">
+        <v>12</v>
+      </c>
+      <c r="BA65">
+        <v>9</v>
+      </c>
+      <c r="BB65">
+        <v>9</v>
+      </c>
+      <c r="BC65">
+        <v>18</v>
+      </c>
+      <c r="BD65">
+        <v>2.44</v>
+      </c>
+      <c r="BE65">
+        <v>8</v>
+      </c>
+      <c r="BF65">
+        <v>1.75</v>
+      </c>
+      <c r="BG65">
+        <v>1.34</v>
+      </c>
+      <c r="BH65">
+        <v>2.88</v>
+      </c>
+      <c r="BI65">
+        <v>1.7</v>
+      </c>
+      <c r="BJ65">
+        <v>2.05</v>
+      </c>
+      <c r="BK65">
+        <v>2.05</v>
+      </c>
+      <c r="BL65">
+        <v>1.65</v>
+      </c>
+      <c r="BM65">
+        <v>2.7</v>
+      </c>
+      <c r="BN65">
+        <v>1.38</v>
+      </c>
+      <c r="BO65">
+        <v>3.75</v>
+      </c>
+      <c r="BP65">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7481411</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45557.66666666666</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>134</v>
+      </c>
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>2.1</v>
+      </c>
+      <c r="S66">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.75</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>1.36</v>
+      </c>
+      <c r="X66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>2.06</v>
+      </c>
+      <c r="AA66">
+        <v>3.2</v>
+      </c>
+      <c r="AB66">
+        <v>3.6</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>8.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.53</v>
+      </c>
+      <c r="AF66">
+        <v>2.5</v>
+      </c>
+      <c r="AG66">
+        <v>2.06</v>
+      </c>
+      <c r="AH66">
+        <v>1.68</v>
+      </c>
+      <c r="AI66">
+        <v>1.8</v>
+      </c>
+      <c r="AJ66">
+        <v>1.91</v>
+      </c>
+      <c r="AK66">
+        <v>1.3</v>
+      </c>
+      <c r="AL66">
+        <v>1.33</v>
+      </c>
+      <c r="AM66">
+        <v>1.55</v>
+      </c>
+      <c r="AN66">
+        <v>0.5</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>0.67</v>
+      </c>
+      <c r="AQ66">
+        <v>1.67</v>
+      </c>
+      <c r="AR66">
+        <v>1.93</v>
+      </c>
+      <c r="AS66">
+        <v>1.09</v>
+      </c>
+      <c r="AT66">
+        <v>3.02</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>11</v>
+      </c>
+      <c r="AZ66">
+        <v>8</v>
+      </c>
+      <c r="BA66">
+        <v>9</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>12</v>
+      </c>
+      <c r="BD66">
+        <v>1.64</v>
+      </c>
+      <c r="BE66">
+        <v>8</v>
+      </c>
+      <c r="BF66">
+        <v>2.67</v>
+      </c>
+      <c r="BG66">
+        <v>1.29</v>
+      </c>
+      <c r="BH66">
+        <v>3.15</v>
+      </c>
+      <c r="BI66">
+        <v>1.53</v>
+      </c>
+      <c r="BJ66">
+        <v>2.28</v>
+      </c>
+      <c r="BK66">
+        <v>2</v>
+      </c>
+      <c r="BL66">
+        <v>1.8</v>
+      </c>
+      <c r="BM66">
+        <v>2.48</v>
+      </c>
+      <c r="BN66">
+        <v>1.45</v>
+      </c>
+      <c r="BO66">
+        <v>3.35</v>
+      </c>
+      <c r="BP66">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7481419</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45558.64583333334</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>135</v>
+      </c>
+      <c r="P67" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q67">
+        <v>3.5</v>
+      </c>
+      <c r="R67">
+        <v>1.83</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <v>1.67</v>
+      </c>
+      <c r="U67">
+        <v>2.1</v>
+      </c>
+      <c r="V67">
+        <v>4</v>
+      </c>
+      <c r="W67">
+        <v>1.22</v>
+      </c>
+      <c r="X67">
+        <v>15</v>
+      </c>
+      <c r="Y67">
+        <v>1.03</v>
+      </c>
+      <c r="Z67">
+        <v>2.5</v>
+      </c>
+      <c r="AA67">
+        <v>2.8</v>
+      </c>
+      <c r="AB67">
+        <v>3.15</v>
+      </c>
+      <c r="AC67">
+        <v>1.12</v>
+      </c>
+      <c r="AD67">
+        <v>5.75</v>
+      </c>
+      <c r="AE67">
+        <v>1.58</v>
+      </c>
+      <c r="AF67">
+        <v>2.23</v>
+      </c>
+      <c r="AG67">
+        <v>2.55</v>
+      </c>
+      <c r="AH67">
+        <v>1.45</v>
+      </c>
+      <c r="AI67">
+        <v>2.38</v>
+      </c>
+      <c r="AJ67">
+        <v>1.53</v>
+      </c>
+      <c r="AK67">
+        <v>1.38</v>
+      </c>
+      <c r="AL67">
+        <v>1.35</v>
+      </c>
+      <c r="AM67">
+        <v>1.48</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>1.16</v>
+      </c>
+      <c r="AS67">
+        <v>1.35</v>
+      </c>
+      <c r="AT67">
+        <v>2.51</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>3</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>9</v>
+      </c>
+      <c r="AZ67">
+        <v>11</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>7</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>2.28</v>
+      </c>
+      <c r="BE67">
+        <v>6.55</v>
+      </c>
+      <c r="BF67">
+        <v>2.04</v>
+      </c>
+      <c r="BG67">
+        <v>1.32</v>
+      </c>
+      <c r="BH67">
+        <v>3.38</v>
+      </c>
+      <c r="BI67">
+        <v>1.54</v>
+      </c>
+      <c r="BJ67">
+        <v>2.39</v>
+      </c>
+      <c r="BK67">
+        <v>1.96</v>
+      </c>
+      <c r="BL67">
+        <v>1.79</v>
+      </c>
+      <c r="BM67">
+        <v>2.63</v>
+      </c>
+      <c r="BN67">
+        <v>1.45</v>
+      </c>
+      <c r="BO67">
+        <v>3.65</v>
+      </c>
+      <c r="BP67">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['13', '29', '31', '89']</t>
   </si>
   <si>
+    <t>['4', '76']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -530,6 +533,9 @@
   </si>
   <si>
     <t>['25', '55']</t>
+  </si>
+  <si>
+    <t>['9', '12', '61', '74', '80']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1156,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1562,7 +1568,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1768,7 +1774,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2180,7 +2186,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2386,7 +2392,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2592,7 +2598,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2798,7 +2804,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3004,7 +3010,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3210,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3416,7 +3422,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3622,7 +3628,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3703,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4240,7 +4246,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4652,7 +4658,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4936,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -5270,7 +5276,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5476,7 +5482,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5682,7 +5688,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5888,7 +5894,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6094,7 +6100,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6506,7 +6512,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6712,7 +6718,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7124,7 +7130,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7536,7 +7542,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7948,7 +7954,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8154,7 +8160,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8235,7 +8241,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.09</v>
@@ -8566,7 +8572,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9184,7 +9190,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9802,7 +9808,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10008,7 +10014,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10086,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10295,7 +10301,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10626,7 +10632,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -12068,7 +12074,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12274,7 +12280,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12480,7 +12486,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12686,7 +12692,7 @@
         <v>94</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13098,7 +13104,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>3.15</v>
@@ -13510,7 +13516,7 @@
         <v>94</v>
       </c>
       <c r="P62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13922,7 +13928,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14128,7 +14134,7 @@
         <v>98</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14334,7 +14340,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14697,6 +14703,212 @@
       </c>
       <c r="BP67">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7481422</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45562.64583333334</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>7</v>
+      </c>
+      <c r="O68" t="s">
+        <v>136</v>
+      </c>
+      <c r="P68" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q68">
+        <v>2.88</v>
+      </c>
+      <c r="R68">
+        <v>2.12</v>
+      </c>
+      <c r="S68">
+        <v>3.78</v>
+      </c>
+      <c r="T68">
+        <v>1.4</v>
+      </c>
+      <c r="U68">
+        <v>2.82</v>
+      </c>
+      <c r="V68">
+        <v>2.86</v>
+      </c>
+      <c r="W68">
+        <v>1.39</v>
+      </c>
+      <c r="X68">
+        <v>7.3</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>2.42</v>
+      </c>
+      <c r="AA68">
+        <v>3.3</v>
+      </c>
+      <c r="AB68">
+        <v>2.98</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE68">
+        <v>1.27</v>
+      </c>
+      <c r="AF68">
+        <v>3.08</v>
+      </c>
+      <c r="AG68">
+        <v>1.93</v>
+      </c>
+      <c r="AH68">
+        <v>1.78</v>
+      </c>
+      <c r="AI68">
+        <v>1.77</v>
+      </c>
+      <c r="AJ68">
+        <v>1.98</v>
+      </c>
+      <c r="AK68">
+        <v>1.37</v>
+      </c>
+      <c r="AL68">
+        <v>1.33</v>
+      </c>
+      <c r="AM68">
+        <v>1.62</v>
+      </c>
+      <c r="AN68">
+        <v>1.5</v>
+      </c>
+      <c r="AO68">
+        <v>0.33</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1.16</v>
+      </c>
+      <c r="AS68">
+        <v>1.3</v>
+      </c>
+      <c r="AT68">
+        <v>2.46</v>
+      </c>
+      <c r="AU68">
+        <v>8</v>
+      </c>
+      <c r="AV68">
+        <v>8</v>
+      </c>
+      <c r="AW68">
+        <v>9</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>17</v>
+      </c>
+      <c r="AZ68">
+        <v>12</v>
+      </c>
+      <c r="BA68">
+        <v>10</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>13</v>
+      </c>
+      <c r="BD68">
+        <v>1.82</v>
+      </c>
+      <c r="BE68">
+        <v>7.5</v>
+      </c>
+      <c r="BF68">
+        <v>2.4</v>
+      </c>
+      <c r="BG68">
+        <v>1.38</v>
+      </c>
+      <c r="BH68">
+        <v>2.71</v>
+      </c>
+      <c r="BI68">
+        <v>1.73</v>
+      </c>
+      <c r="BJ68">
+        <v>2</v>
+      </c>
+      <c r="BK68">
+        <v>1.98</v>
+      </c>
+      <c r="BL68">
+        <v>1.82</v>
+      </c>
+      <c r="BM68">
+        <v>2.82</v>
+      </c>
+      <c r="BN68">
+        <v>1.31</v>
+      </c>
+      <c r="BO68">
+        <v>4</v>
+      </c>
+      <c r="BP68">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,30 @@
     <t>['4', '76']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['2', '15', '51', '74']</t>
+  </si>
+  <si>
+    <t>['72', '77']</t>
+  </si>
+  <si>
+    <t>['20', '71']</t>
+  </si>
+  <si>
+    <t>['43', '71', '84']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -526,9 +550,6 @@
     <t>['48', '78', '90+1', '90+7']</t>
   </si>
   <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['22', '80']</t>
   </si>
   <si>
@@ -536,6 +557,18 @@
   </si>
   <si>
     <t>['9', '12', '61', '74', '80']</t>
+  </si>
+  <si>
+    <t>['20', '72']</t>
+  </si>
+  <si>
+    <t>['3', '49', '77']</t>
+  </si>
+  <si>
+    <t>['17', '45+2']</t>
+  </si>
+  <si>
+    <t>['51', '73']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1189,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1440,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1568,7 +1601,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1646,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1774,7 +1807,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2186,7 +2219,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2392,7 +2425,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2473,7 +2506,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2598,7 +2631,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2676,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>1.75</v>
@@ -2804,7 +2837,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2882,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3010,7 +3043,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3091,7 +3124,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3216,7 +3249,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3297,7 +3330,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3422,7 +3455,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3503,7 +3536,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3628,7 +3661,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3912,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
+        <v>1.75</v>
+      </c>
+      <c r="AQ15">
         <v>1.33</v>
-      </c>
-      <c r="AQ15">
-        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4121,7 +4154,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4246,7 +4279,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4324,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>2.33</v>
@@ -4530,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -4658,7 +4691,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4739,7 +4772,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4945,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5148,7 +5181,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5276,7 +5309,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5357,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5482,7 +5515,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5560,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>2.33</v>
@@ -5688,7 +5721,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5769,7 +5802,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -5894,7 +5927,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5972,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -6100,7 +6133,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6178,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6512,7 +6545,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6590,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6718,7 +6751,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -6796,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7005,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7130,7 +7163,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7414,10 +7447,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7542,7 +7575,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7954,7 +7987,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8160,7 +8193,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8572,7 +8605,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8650,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -8856,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9190,7 +9223,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9477,7 +9510,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -9683,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -9808,7 +9841,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9886,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>2.33</v>
@@ -10014,7 +10047,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10095,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10298,7 +10331,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10507,7 +10540,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -10632,7 +10665,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -10710,10 +10743,10 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.72</v>
@@ -10916,10 +10949,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11328,7 +11361,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11534,7 +11567,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11740,10 +11773,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR53">
         <v>1.24</v>
@@ -11946,10 +11979,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12074,7 +12107,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12155,7 +12188,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12280,7 +12313,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12486,7 +12519,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12692,7 +12725,7 @@
         <v>94</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13104,7 +13137,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>3.15</v>
@@ -13516,7 +13549,7 @@
         <v>94</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13594,7 +13627,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>3</v>
@@ -13928,7 +13961,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14134,7 +14167,7 @@
         <v>98</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14340,7 +14373,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14421,7 +14454,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -14752,7 +14785,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14909,6 +14942,1860 @@
       </c>
       <c r="BP68">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7481432</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45563.46875</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>137</v>
+      </c>
+      <c r="P69" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q69">
+        <v>3.25</v>
+      </c>
+      <c r="R69">
+        <v>1.83</v>
+      </c>
+      <c r="S69">
+        <v>4</v>
+      </c>
+      <c r="T69">
+        <v>1.6</v>
+      </c>
+      <c r="U69">
+        <v>2.2</v>
+      </c>
+      <c r="V69">
+        <v>3.8</v>
+      </c>
+      <c r="W69">
+        <v>1.22</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.02</v>
+      </c>
+      <c r="Z69">
+        <v>2.25</v>
+      </c>
+      <c r="AA69">
+        <v>2.8</v>
+      </c>
+      <c r="AB69">
+        <v>3.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.11</v>
+      </c>
+      <c r="AD69">
+        <v>6.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.61</v>
+      </c>
+      <c r="AF69">
+        <v>2.05</v>
+      </c>
+      <c r="AG69">
+        <v>2.94</v>
+      </c>
+      <c r="AH69">
+        <v>1.35</v>
+      </c>
+      <c r="AI69">
+        <v>2.2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.62</v>
+      </c>
+      <c r="AK69">
+        <v>1.35</v>
+      </c>
+      <c r="AL69">
+        <v>1.44</v>
+      </c>
+      <c r="AM69">
+        <v>1.5</v>
+      </c>
+      <c r="AN69">
+        <v>2.33</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>2.5</v>
+      </c>
+      <c r="AQ69">
+        <v>1.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.04</v>
+      </c>
+      <c r="AS69">
+        <v>1.14</v>
+      </c>
+      <c r="AT69">
+        <v>2.18</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>5</v>
+      </c>
+      <c r="BA69">
+        <v>6</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>8</v>
+      </c>
+      <c r="BD69">
+        <v>1.85</v>
+      </c>
+      <c r="BE69">
+        <v>7.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.33</v>
+      </c>
+      <c r="BG69">
+        <v>1.38</v>
+      </c>
+      <c r="BH69">
+        <v>2.88</v>
+      </c>
+      <c r="BI69">
+        <v>1.7</v>
+      </c>
+      <c r="BJ69">
+        <v>2.05</v>
+      </c>
+      <c r="BK69">
+        <v>2.05</v>
+      </c>
+      <c r="BL69">
+        <v>1.7</v>
+      </c>
+      <c r="BM69">
+        <v>2.93</v>
+      </c>
+      <c r="BN69">
+        <v>1.37</v>
+      </c>
+      <c r="BO69">
+        <v>4.15</v>
+      </c>
+      <c r="BP69">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7481424</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45563.46875</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q70">
+        <v>2.1</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>5.7</v>
+      </c>
+      <c r="T70">
+        <v>1.45</v>
+      </c>
+      <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>3.2</v>
+      </c>
+      <c r="W70">
+        <v>1.3</v>
+      </c>
+      <c r="X70">
+        <v>7.8</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>1.61</v>
+      </c>
+      <c r="AA70">
+        <v>3.5</v>
+      </c>
+      <c r="AB70">
+        <v>4.6</v>
+      </c>
+      <c r="AC70">
+        <v>1.04</v>
+      </c>
+      <c r="AD70">
+        <v>7.8</v>
+      </c>
+      <c r="AE70">
+        <v>1.35</v>
+      </c>
+      <c r="AF70">
+        <v>2.9</v>
+      </c>
+      <c r="AG70">
+        <v>2.15</v>
+      </c>
+      <c r="AH70">
+        <v>1.57</v>
+      </c>
+      <c r="AI70">
+        <v>2.05</v>
+      </c>
+      <c r="AJ70">
+        <v>1.67</v>
+      </c>
+      <c r="AK70">
+        <v>1.07</v>
+      </c>
+      <c r="AL70">
+        <v>1.27</v>
+      </c>
+      <c r="AM70">
+        <v>2.25</v>
+      </c>
+      <c r="AN70">
+        <v>0.67</v>
+      </c>
+      <c r="AO70">
+        <v>0.5</v>
+      </c>
+      <c r="AP70">
+        <v>0.5</v>
+      </c>
+      <c r="AQ70">
+        <v>1.33</v>
+      </c>
+      <c r="AR70">
+        <v>1.25</v>
+      </c>
+      <c r="AS70">
+        <v>1.05</v>
+      </c>
+      <c r="AT70">
+        <v>2.3</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>8</v>
+      </c>
+      <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
+        <v>15</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+      <c r="BD70">
+        <v>1.37</v>
+      </c>
+      <c r="BE70">
+        <v>9</v>
+      </c>
+      <c r="BF70">
+        <v>3.83</v>
+      </c>
+      <c r="BG70">
+        <v>1.38</v>
+      </c>
+      <c r="BH70">
+        <v>2.88</v>
+      </c>
+      <c r="BI70">
+        <v>1.7</v>
+      </c>
+      <c r="BJ70">
+        <v>2.05</v>
+      </c>
+      <c r="BK70">
+        <v>2.05</v>
+      </c>
+      <c r="BL70">
+        <v>1.7</v>
+      </c>
+      <c r="BM70">
+        <v>2.93</v>
+      </c>
+      <c r="BN70">
+        <v>1.37</v>
+      </c>
+      <c r="BO70">
+        <v>4.15</v>
+      </c>
+      <c r="BP70">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7481427</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45563.5625</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q71">
+        <v>2.95</v>
+      </c>
+      <c r="R71">
+        <v>1.93</v>
+      </c>
+      <c r="S71">
+        <v>3.7</v>
+      </c>
+      <c r="T71">
+        <v>1.52</v>
+      </c>
+      <c r="U71">
+        <v>2.35</v>
+      </c>
+      <c r="V71">
+        <v>3.6</v>
+      </c>
+      <c r="W71">
+        <v>1.25</v>
+      </c>
+      <c r="X71">
+        <v>8.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.04</v>
+      </c>
+      <c r="Z71">
+        <v>2.28</v>
+      </c>
+      <c r="AA71">
+        <v>2.85</v>
+      </c>
+      <c r="AB71">
+        <v>3.35</v>
+      </c>
+      <c r="AC71">
+        <v>1.08</v>
+      </c>
+      <c r="AD71">
+        <v>6.2</v>
+      </c>
+      <c r="AE71">
+        <v>1.49</v>
+      </c>
+      <c r="AF71">
+        <v>2.43</v>
+      </c>
+      <c r="AG71">
+        <v>2.5</v>
+      </c>
+      <c r="AH71">
+        <v>1.47</v>
+      </c>
+      <c r="AI71">
+        <v>2.05</v>
+      </c>
+      <c r="AJ71">
+        <v>1.67</v>
+      </c>
+      <c r="AK71">
+        <v>1.3</v>
+      </c>
+      <c r="AL71">
+        <v>1.4</v>
+      </c>
+      <c r="AM71">
+        <v>1.47</v>
+      </c>
+      <c r="AN71">
+        <v>1.33</v>
+      </c>
+      <c r="AO71">
+        <v>1.75</v>
+      </c>
+      <c r="AP71">
+        <v>1.75</v>
+      </c>
+      <c r="AQ71">
+        <v>1.4</v>
+      </c>
+      <c r="AR71">
+        <v>1.44</v>
+      </c>
+      <c r="AS71">
+        <v>1.42</v>
+      </c>
+      <c r="AT71">
+        <v>2.86</v>
+      </c>
+      <c r="AU71">
+        <v>9</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>10</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>19</v>
+      </c>
+      <c r="AZ71">
+        <v>8</v>
+      </c>
+      <c r="BA71">
+        <v>6</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>1.75</v>
+      </c>
+      <c r="BE71">
+        <v>8</v>
+      </c>
+      <c r="BF71">
+        <v>2.52</v>
+      </c>
+      <c r="BG71">
+        <v>1.31</v>
+      </c>
+      <c r="BH71">
+        <v>3.3</v>
+      </c>
+      <c r="BI71">
+        <v>1.59</v>
+      </c>
+      <c r="BJ71">
+        <v>2.25</v>
+      </c>
+      <c r="BK71">
+        <v>2</v>
+      </c>
+      <c r="BL71">
+        <v>1.8</v>
+      </c>
+      <c r="BM71">
+        <v>2.54</v>
+      </c>
+      <c r="BN71">
+        <v>1.47</v>
+      </c>
+      <c r="BO71">
+        <v>3.55</v>
+      </c>
+      <c r="BP71">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7481431</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45563.66666666666</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>94</v>
+      </c>
+      <c r="P72" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q72">
+        <v>3.4</v>
+      </c>
+      <c r="R72">
+        <v>2.02</v>
+      </c>
+      <c r="S72">
+        <v>3.74</v>
+      </c>
+      <c r="T72">
+        <v>1.52</v>
+      </c>
+      <c r="U72">
+        <v>2.52</v>
+      </c>
+      <c r="V72">
+        <v>3.4</v>
+      </c>
+      <c r="W72">
+        <v>1.27</v>
+      </c>
+      <c r="X72">
+        <v>7.8</v>
+      </c>
+      <c r="Y72">
+        <v>1.05</v>
+      </c>
+      <c r="Z72">
+        <v>2.55</v>
+      </c>
+      <c r="AA72">
+        <v>2.9</v>
+      </c>
+      <c r="AB72">
+        <v>2.85</v>
+      </c>
+      <c r="AC72">
+        <v>1.07</v>
+      </c>
+      <c r="AD72">
+        <v>6.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.4</v>
+      </c>
+      <c r="AF72">
+        <v>2.7</v>
+      </c>
+      <c r="AG72">
+        <v>2.38</v>
+      </c>
+      <c r="AH72">
+        <v>1.52</v>
+      </c>
+      <c r="AI72">
+        <v>1.93</v>
+      </c>
+      <c r="AJ72">
+        <v>1.75</v>
+      </c>
+      <c r="AK72">
+        <v>1.37</v>
+      </c>
+      <c r="AL72">
+        <v>1.32</v>
+      </c>
+      <c r="AM72">
+        <v>1.47</v>
+      </c>
+      <c r="AN72">
+        <v>2.33</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>1.75</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.35</v>
+      </c>
+      <c r="AS72">
+        <v>1.12</v>
+      </c>
+      <c r="AT72">
+        <v>2.47</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>8</v>
+      </c>
+      <c r="AW72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>4</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>5</v>
+      </c>
+      <c r="BC72">
+        <v>9</v>
+      </c>
+      <c r="BD72">
+        <v>1.95</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.1</v>
+      </c>
+      <c r="BG72">
+        <v>1.34</v>
+      </c>
+      <c r="BH72">
+        <v>3.07</v>
+      </c>
+      <c r="BI72">
+        <v>1.7</v>
+      </c>
+      <c r="BJ72">
+        <v>2.05</v>
+      </c>
+      <c r="BK72">
+        <v>2.1</v>
+      </c>
+      <c r="BL72">
+        <v>1.67</v>
+      </c>
+      <c r="BM72">
+        <v>2.75</v>
+      </c>
+      <c r="BN72">
+        <v>1.42</v>
+      </c>
+      <c r="BO72">
+        <v>3.82</v>
+      </c>
+      <c r="BP72">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7481428</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>6</v>
+      </c>
+      <c r="O73" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q73">
+        <v>3.1</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>3.2</v>
+      </c>
+      <c r="T73">
+        <v>1.33</v>
+      </c>
+      <c r="U73">
+        <v>3.25</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>6.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.11</v>
+      </c>
+      <c r="Z73">
+        <v>2.37</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>2.5</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>11</v>
+      </c>
+      <c r="AE73">
+        <v>1.2</v>
+      </c>
+      <c r="AF73">
+        <v>4</v>
+      </c>
+      <c r="AG73">
+        <v>1.67</v>
+      </c>
+      <c r="AH73">
+        <v>2</v>
+      </c>
+      <c r="AI73">
+        <v>1.57</v>
+      </c>
+      <c r="AJ73">
+        <v>2.25</v>
+      </c>
+      <c r="AK73">
+        <v>1.35</v>
+      </c>
+      <c r="AL73">
+        <v>1.3</v>
+      </c>
+      <c r="AM73">
+        <v>1.52</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>2.33</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>2.06</v>
+      </c>
+      <c r="AS73">
+        <v>1.44</v>
+      </c>
+      <c r="AT73">
+        <v>3.5</v>
+      </c>
+      <c r="AU73">
+        <v>9</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
+      <c r="AX73">
+        <v>8</v>
+      </c>
+      <c r="AY73">
+        <v>14</v>
+      </c>
+      <c r="AZ73">
+        <v>13</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>1.82</v>
+      </c>
+      <c r="BE73">
+        <v>8</v>
+      </c>
+      <c r="BF73">
+        <v>2.33</v>
+      </c>
+      <c r="BG73">
+        <v>1.27</v>
+      </c>
+      <c r="BH73">
+        <v>3.52</v>
+      </c>
+      <c r="BI73">
+        <v>1.5</v>
+      </c>
+      <c r="BJ73">
+        <v>2.48</v>
+      </c>
+      <c r="BK73">
+        <v>1.88</v>
+      </c>
+      <c r="BL73">
+        <v>1.92</v>
+      </c>
+      <c r="BM73">
+        <v>2.41</v>
+      </c>
+      <c r="BN73">
+        <v>1.53</v>
+      </c>
+      <c r="BO73">
+        <v>3.3</v>
+      </c>
+      <c r="BP73">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7481423</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45564.46875</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>141</v>
+      </c>
+      <c r="P74" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q74">
+        <v>2.93</v>
+      </c>
+      <c r="R74">
+        <v>2.12</v>
+      </c>
+      <c r="S74">
+        <v>3.56</v>
+      </c>
+      <c r="T74">
+        <v>1.4</v>
+      </c>
+      <c r="U74">
+        <v>2.82</v>
+      </c>
+      <c r="V74">
+        <v>2.86</v>
+      </c>
+      <c r="W74">
+        <v>1.39</v>
+      </c>
+      <c r="X74">
+        <v>7.3</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>2.37</v>
+      </c>
+      <c r="AA74">
+        <v>2.87</v>
+      </c>
+      <c r="AB74">
+        <v>2.87</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE74">
+        <v>1.26</v>
+      </c>
+      <c r="AF74">
+        <v>3.14</v>
+      </c>
+      <c r="AG74">
+        <v>1.91</v>
+      </c>
+      <c r="AH74">
+        <v>1.75</v>
+      </c>
+      <c r="AI74">
+        <v>1.76</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>1.4</v>
+      </c>
+      <c r="AL74">
+        <v>1.32</v>
+      </c>
+      <c r="AM74">
+        <v>1.59</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>1.67</v>
+      </c>
+      <c r="AR74">
+        <v>1.54</v>
+      </c>
+      <c r="AS74">
+        <v>1.35</v>
+      </c>
+      <c r="AT74">
+        <v>2.89</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>5</v>
+      </c>
+      <c r="AZ74">
+        <v>8</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>9</v>
+      </c>
+      <c r="BD74">
+        <v>1.75</v>
+      </c>
+      <c r="BE74">
+        <v>8</v>
+      </c>
+      <c r="BF74">
+        <v>2.44</v>
+      </c>
+      <c r="BG74">
+        <v>1.31</v>
+      </c>
+      <c r="BH74">
+        <v>3.3</v>
+      </c>
+      <c r="BI74">
+        <v>1.56</v>
+      </c>
+      <c r="BJ74">
+        <v>2.34</v>
+      </c>
+      <c r="BK74">
+        <v>2</v>
+      </c>
+      <c r="BL74">
+        <v>1.8</v>
+      </c>
+      <c r="BM74">
+        <v>2.57</v>
+      </c>
+      <c r="BN74">
+        <v>1.47</v>
+      </c>
+      <c r="BO74">
+        <v>3.55</v>
+      </c>
+      <c r="BP74">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7481425</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45564.46875</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>142</v>
+      </c>
+      <c r="P75" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q75">
+        <v>2.4</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>4.75</v>
+      </c>
+      <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>2.75</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>8</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>1.73</v>
+      </c>
+      <c r="AA75">
+        <v>3.4</v>
+      </c>
+      <c r="AB75">
+        <v>4</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>9</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.35</v>
+      </c>
+      <c r="AG75">
+        <v>1.91</v>
+      </c>
+      <c r="AH75">
+        <v>1.75</v>
+      </c>
+      <c r="AI75">
+        <v>1.83</v>
+      </c>
+      <c r="AJ75">
+        <v>1.83</v>
+      </c>
+      <c r="AK75">
+        <v>1.2</v>
+      </c>
+      <c r="AL75">
+        <v>1.22</v>
+      </c>
+      <c r="AM75">
+        <v>2</v>
+      </c>
+      <c r="AN75">
+        <v>0.33</v>
+      </c>
+      <c r="AO75">
+        <v>0.33</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>0.25</v>
+      </c>
+      <c r="AR75">
+        <v>1.39</v>
+      </c>
+      <c r="AS75">
+        <v>1.04</v>
+      </c>
+      <c r="AT75">
+        <v>2.43</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>4</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>12</v>
+      </c>
+      <c r="AZ75">
+        <v>12</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>1.45</v>
+      </c>
+      <c r="BE75">
+        <v>8.5</v>
+      </c>
+      <c r="BF75">
+        <v>3.46</v>
+      </c>
+      <c r="BG75">
+        <v>1.36</v>
+      </c>
+      <c r="BH75">
+        <v>2.98</v>
+      </c>
+      <c r="BI75">
+        <v>1.7</v>
+      </c>
+      <c r="BJ75">
+        <v>2.05</v>
+      </c>
+      <c r="BK75">
+        <v>2.05</v>
+      </c>
+      <c r="BL75">
+        <v>1.7</v>
+      </c>
+      <c r="BM75">
+        <v>2.83</v>
+      </c>
+      <c r="BN75">
+        <v>1.39</v>
+      </c>
+      <c r="BO75">
+        <v>3.98</v>
+      </c>
+      <c r="BP75">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7481426</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45564.5625</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>143</v>
+      </c>
+      <c r="P76" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q76">
+        <v>2.62</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>4.5</v>
+      </c>
+      <c r="T76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
+        <v>2.4</v>
+      </c>
+      <c r="V76">
+        <v>3.3</v>
+      </c>
+      <c r="W76">
+        <v>1.29</v>
+      </c>
+      <c r="X76">
+        <v>8.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.04</v>
+      </c>
+      <c r="Z76">
+        <v>1.91</v>
+      </c>
+      <c r="AA76">
+        <v>3.1</v>
+      </c>
+      <c r="AB76">
+        <v>4.1</v>
+      </c>
+      <c r="AC76">
+        <v>1.08</v>
+      </c>
+      <c r="AD76">
+        <v>6.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.48</v>
+      </c>
+      <c r="AF76">
+        <v>2.5</v>
+      </c>
+      <c r="AG76">
+        <v>2.43</v>
+      </c>
+      <c r="AH76">
+        <v>1.5</v>
+      </c>
+      <c r="AI76">
+        <v>2.1</v>
+      </c>
+      <c r="AJ76">
+        <v>1.65</v>
+      </c>
+      <c r="AK76">
+        <v>1.25</v>
+      </c>
+      <c r="AL76">
+        <v>1.33</v>
+      </c>
+      <c r="AM76">
+        <v>1.83</v>
+      </c>
+      <c r="AN76">
+        <v>1.67</v>
+      </c>
+      <c r="AO76">
+        <v>0.5</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
+      <c r="AQ76">
+        <v>0.33</v>
+      </c>
+      <c r="AR76">
+        <v>1.57</v>
+      </c>
+      <c r="AS76">
+        <v>0.88</v>
+      </c>
+      <c r="AT76">
+        <v>2.45</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>8</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>14</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>6</v>
+      </c>
+      <c r="BB76">
+        <v>4</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.51</v>
+      </c>
+      <c r="BE76">
+        <v>8.5</v>
+      </c>
+      <c r="BF76">
+        <v>3.16</v>
+      </c>
+      <c r="BG76">
+        <v>1.31</v>
+      </c>
+      <c r="BH76">
+        <v>3.3</v>
+      </c>
+      <c r="BI76">
+        <v>1.56</v>
+      </c>
+      <c r="BJ76">
+        <v>2.34</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>1.8</v>
+      </c>
+      <c r="BM76">
+        <v>2.57</v>
+      </c>
+      <c r="BN76">
+        <v>1.47</v>
+      </c>
+      <c r="BO76">
+        <v>3.55</v>
+      </c>
+      <c r="BP76">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7481430</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45564.5625</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>144</v>
+      </c>
+      <c r="P77" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q77">
+        <v>2.88</v>
+      </c>
+      <c r="R77">
+        <v>1.91</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>1.56</v>
+      </c>
+      <c r="U77">
+        <v>2.29</v>
+      </c>
+      <c r="V77">
+        <v>3.6</v>
+      </c>
+      <c r="W77">
+        <v>1.25</v>
+      </c>
+      <c r="X77">
+        <v>9.85</v>
+      </c>
+      <c r="Y77">
+        <v>1.03</v>
+      </c>
+      <c r="Z77">
+        <v>2.14</v>
+      </c>
+      <c r="AA77">
+        <v>2.9</v>
+      </c>
+      <c r="AB77">
+        <v>3.65</v>
+      </c>
+      <c r="AC77">
+        <v>1.07</v>
+      </c>
+      <c r="AD77">
+        <v>7</v>
+      </c>
+      <c r="AE77">
+        <v>1.44</v>
+      </c>
+      <c r="AF77">
+        <v>2.6</v>
+      </c>
+      <c r="AG77">
+        <v>2.43</v>
+      </c>
+      <c r="AH77">
+        <v>1.5</v>
+      </c>
+      <c r="AI77">
+        <v>2.1</v>
+      </c>
+      <c r="AJ77">
+        <v>1.67</v>
+      </c>
+      <c r="AK77">
+        <v>1.25</v>
+      </c>
+      <c r="AL77">
+        <v>1.37</v>
+      </c>
+      <c r="AM77">
+        <v>1.57</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>1.67</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.25</v>
+      </c>
+      <c r="AR77">
+        <v>1.33</v>
+      </c>
+      <c r="AS77">
+        <v>1.03</v>
+      </c>
+      <c r="AT77">
+        <v>2.36</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>8</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>14</v>
+      </c>
+      <c r="AZ77">
+        <v>6</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>11</v>
+      </c>
+      <c r="BD77">
+        <v>1.75</v>
+      </c>
+      <c r="BE77">
+        <v>8</v>
+      </c>
+      <c r="BF77">
+        <v>2.44</v>
+      </c>
+      <c r="BG77">
+        <v>1.27</v>
+      </c>
+      <c r="BH77">
+        <v>3.52</v>
+      </c>
+      <c r="BI77">
+        <v>1.53</v>
+      </c>
+      <c r="BJ77">
+        <v>2.4</v>
+      </c>
+      <c r="BK77">
+        <v>1.85</v>
+      </c>
+      <c r="BL77">
+        <v>1.95</v>
+      </c>
+      <c r="BM77">
+        <v>2.4</v>
+      </c>
+      <c r="BN77">
+        <v>1.53</v>
+      </c>
+      <c r="BO77">
+        <v>3.3</v>
+      </c>
+      <c r="BP77">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,15 +412,15 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['57', '80']</t>
+  </si>
+  <si>
     <t>['71']</t>
   </si>
   <si>
     <t>['84']</t>
   </si>
   <si>
-    <t>['57', '80']</t>
-  </si>
-  <si>
     <t>['13', '29', '31', '89']</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['72', '77']</t>
+  </si>
+  <si>
     <t>['2', '15', '51', '74']</t>
   </si>
   <si>
-    <t>['72', '77']</t>
-  </si>
-  <si>
     <t>['20', '71']</t>
   </si>
   <si>
@@ -451,6 +451,9 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -550,12 +553,12 @@
     <t>['48', '78', '90+1', '90+7']</t>
   </si>
   <si>
+    <t>['25', '55']</t>
+  </si>
+  <si>
     <t>['22', '80']</t>
   </si>
   <si>
-    <t>['25', '55']</t>
-  </si>
-  <si>
     <t>['9', '12', '61', '74', '80']</t>
   </si>
   <si>
@@ -565,10 +568,13 @@
     <t>['3', '49', '77']</t>
   </si>
   <si>
+    <t>['51', '73']</t>
+  </si>
+  <si>
     <t>['17', '45+2']</t>
   </si>
   <si>
-    <t>['51', '73']</t>
+    <t>['45', '58']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1195,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1601,7 +1607,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1807,7 +1813,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2219,7 +2225,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2425,7 +2431,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2503,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2631,7 +2637,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2837,7 +2843,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2918,7 +2924,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3043,7 +3049,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3249,7 +3255,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3455,7 +3461,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3533,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -3661,7 +3667,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4279,7 +4285,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4691,7 +4697,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5309,7 +5315,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5515,7 +5521,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5721,7 +5727,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5927,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6133,7 +6139,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6339,7 +6345,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6545,7 +6551,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6751,7 +6757,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7163,7 +7169,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7244,7 +7250,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7575,7 +7581,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7987,7 +7993,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8193,7 +8199,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8605,7 +8611,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9223,7 +9229,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9841,7 +9847,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10047,7 +10053,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10665,7 +10671,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -11155,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
         <v>0.67</v>
@@ -11570,7 +11576,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -12107,7 +12113,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12313,7 +12319,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12519,7 +12525,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12725,7 +12731,7 @@
         <v>94</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13137,7 +13143,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>3.15</v>
@@ -13507,7 +13513,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7481412</v>
+        <v>7481411</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13522,160 +13528,160 @@
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O62" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="Q62">
+        <v>2.75</v>
+      </c>
+      <c r="R62">
+        <v>2.1</v>
+      </c>
+      <c r="S62">
+        <v>4</v>
+      </c>
+      <c r="T62">
+        <v>1.4</v>
+      </c>
+      <c r="U62">
+        <v>2.75</v>
+      </c>
+      <c r="V62">
+        <v>3</v>
+      </c>
+      <c r="W62">
+        <v>1.36</v>
+      </c>
+      <c r="X62">
+        <v>8</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>2.06</v>
+      </c>
+      <c r="AA62">
+        <v>3.2</v>
+      </c>
+      <c r="AB62">
+        <v>3.6</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>8.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.53</v>
+      </c>
+      <c r="AF62">
         <v>2.5</v>
       </c>
-      <c r="R62">
-        <v>2.3</v>
-      </c>
-      <c r="S62">
-        <v>4.33</v>
-      </c>
-      <c r="T62">
+      <c r="AG62">
+        <v>2.06</v>
+      </c>
+      <c r="AH62">
+        <v>1.68</v>
+      </c>
+      <c r="AI62">
+        <v>1.8</v>
+      </c>
+      <c r="AJ62">
+        <v>1.91</v>
+      </c>
+      <c r="AK62">
+        <v>1.3</v>
+      </c>
+      <c r="AL62">
         <v>1.33</v>
       </c>
-      <c r="U62">
-        <v>3.25</v>
-      </c>
-      <c r="V62">
-        <v>2.63</v>
-      </c>
-      <c r="W62">
-        <v>1.44</v>
-      </c>
-      <c r="X62">
-        <v>6.5</v>
-      </c>
-      <c r="Y62">
-        <v>1.11</v>
-      </c>
-      <c r="Z62">
-        <v>2.15</v>
-      </c>
-      <c r="AA62">
-        <v>3.1</v>
-      </c>
-      <c r="AB62">
-        <v>3.2</v>
-      </c>
-      <c r="AC62">
-        <v>1.02</v>
-      </c>
-      <c r="AD62">
-        <v>10</v>
-      </c>
-      <c r="AE62">
-        <v>1.2</v>
-      </c>
-      <c r="AF62">
-        <v>4</v>
-      </c>
-      <c r="AG62">
-        <v>2.25</v>
-      </c>
-      <c r="AH62">
-        <v>1.65</v>
-      </c>
-      <c r="AI62">
-        <v>1.67</v>
-      </c>
-      <c r="AJ62">
-        <v>2.1</v>
-      </c>
-      <c r="AK62">
-        <v>1.25</v>
-      </c>
-      <c r="AL62">
-        <v>1.28</v>
-      </c>
       <c r="AM62">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AN62">
         <v>0.5</v>
       </c>
       <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>0.67</v>
+      </c>
+      <c r="AQ62">
+        <v>1.25</v>
+      </c>
+      <c r="AR62">
+        <v>1.93</v>
+      </c>
+      <c r="AS62">
+        <v>1.09</v>
+      </c>
+      <c r="AT62">
+        <v>3.02</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
         <v>3</v>
-      </c>
-      <c r="AP62">
-        <v>1</v>
-      </c>
-      <c r="AQ62">
-        <v>3</v>
-      </c>
-      <c r="AR62">
-        <v>1.39</v>
-      </c>
-      <c r="AS62">
-        <v>1.36</v>
-      </c>
-      <c r="AT62">
-        <v>2.75</v>
-      </c>
-      <c r="AU62">
-        <v>10</v>
-      </c>
-      <c r="AV62">
-        <v>7</v>
       </c>
       <c r="AW62">
         <v>7</v>
       </c>
       <c r="AX62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY62">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB62">
         <v>3</v>
       </c>
       <c r="BC62">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD62">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="BE62">
         <v>8</v>
       </c>
       <c r="BF62">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="BG62">
         <v>1.29</v>
@@ -13713,7 +13719,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7481413</v>
+        <v>7481412</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13728,10 +13734,10 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -13743,145 +13749,145 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="Q63">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="S63">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T63">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="U63">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="V63">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W63">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X63">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y63">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="Z63">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="AA63">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB63">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AC63">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD63">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AE63">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AF63">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AG63">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AH63">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AI63">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AJ63">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AK63">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AL63">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AM63">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AN63">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AR63">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AS63">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="AU63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD63">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="BE63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF63">
-        <v>4.86</v>
+        <v>2.62</v>
       </c>
       <c r="BG63">
         <v>1.29</v>
@@ -13896,10 +13902,10 @@
         <v>2.28</v>
       </c>
       <c r="BK63">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL63">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BM63">
         <v>2.48</v>
@@ -13919,7 +13925,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7481421</v>
+        <v>7481413</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13934,139 +13940,139 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="Q64">
-        <v>2.95</v>
+        <v>2.38</v>
       </c>
       <c r="R64">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="T64">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="U64">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V64">
+        <v>3.4</v>
+      </c>
+      <c r="W64">
+        <v>1.29</v>
+      </c>
+      <c r="X64">
+        <v>9</v>
+      </c>
+      <c r="Y64">
+        <v>1.03</v>
+      </c>
+      <c r="Z64">
+        <v>1.61</v>
+      </c>
+      <c r="AA64">
         <v>3.5</v>
       </c>
-      <c r="W64">
-        <v>1.25</v>
-      </c>
-      <c r="X64">
-        <v>12</v>
-      </c>
-      <c r="Y64">
-        <v>1.04</v>
-      </c>
-      <c r="Z64">
-        <v>2.15</v>
-      </c>
-      <c r="AA64">
-        <v>3</v>
-      </c>
       <c r="AB64">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="AC64">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD64">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AF64">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AG64">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AH64">
         <v>1.5</v>
       </c>
       <c r="AI64">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AJ64">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AK64">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AL64">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AM64">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
       </c>
       <c r="AR64">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AT64">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AU64">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY64">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ64">
         <v>6</v>
@@ -14075,49 +14081,49 @@
         <v>5</v>
       </c>
       <c r="BB64">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC64">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD64">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="BE64">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="BF64">
-        <v>2.29</v>
+        <v>4.86</v>
       </c>
       <c r="BG64">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BH64">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BI64">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="BJ64">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BK64">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BL64">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="BM64">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BN64">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="BO64">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="BP64">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14134,7 +14140,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45557.46875</v>
+        <v>45556.875</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -14167,7 +14173,7 @@
         <v>98</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14260,22 +14266,22 @@
         <v>2.69</v>
       </c>
       <c r="AU65">
+        <v>8</v>
+      </c>
+      <c r="AV65">
         <v>5</v>
       </c>
-      <c r="AV65">
-        <v>7</v>
-      </c>
       <c r="AW65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ65">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA65">
         <v>9</v>
@@ -14331,7 +14337,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7481411</v>
+        <v>7481421</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14340,16 +14346,16 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45557.66666666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F66">
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -14361,175 +14367,175 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O66" t="s">
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="Q66">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="R66">
+        <v>1.83</v>
+      </c>
+      <c r="S66">
+        <v>4.1</v>
+      </c>
+      <c r="T66">
+        <v>1.58</v>
+      </c>
+      <c r="U66">
+        <v>2.25</v>
+      </c>
+      <c r="V66">
+        <v>3.5</v>
+      </c>
+      <c r="W66">
+        <v>1.25</v>
+      </c>
+      <c r="X66">
+        <v>12</v>
+      </c>
+      <c r="Y66">
+        <v>1.04</v>
+      </c>
+      <c r="Z66">
+        <v>2.15</v>
+      </c>
+      <c r="AA66">
+        <v>3</v>
+      </c>
+      <c r="AB66">
+        <v>3.3</v>
+      </c>
+      <c r="AC66">
+        <v>1.09</v>
+      </c>
+      <c r="AD66">
+        <v>5.8</v>
+      </c>
+      <c r="AE66">
+        <v>1.5</v>
+      </c>
+      <c r="AF66">
+        <v>2.4</v>
+      </c>
+      <c r="AG66">
+        <v>2.5</v>
+      </c>
+      <c r="AH66">
+        <v>1.5</v>
+      </c>
+      <c r="AI66">
         <v>2.1</v>
       </c>
-      <c r="S66">
-        <v>4</v>
-      </c>
-      <c r="T66">
+      <c r="AJ66">
+        <v>1.67</v>
+      </c>
+      <c r="AK66">
+        <v>1.27</v>
+      </c>
+      <c r="AL66">
         <v>1.4</v>
       </c>
-      <c r="U66">
-        <v>2.75</v>
-      </c>
-      <c r="V66">
+      <c r="AM66">
+        <v>1.5</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0.5</v>
+      </c>
+      <c r="AP66">
+        <v>0.33</v>
+      </c>
+      <c r="AQ66">
+        <v>0.67</v>
+      </c>
+      <c r="AR66">
+        <v>1.36</v>
+      </c>
+      <c r="AS66">
+        <v>1.02</v>
+      </c>
+      <c r="AT66">
+        <v>2.38</v>
+      </c>
+      <c r="AU66">
         <v>3</v>
-      </c>
-      <c r="W66">
-        <v>1.36</v>
-      </c>
-      <c r="X66">
-        <v>8</v>
-      </c>
-      <c r="Y66">
-        <v>1.08</v>
-      </c>
-      <c r="Z66">
-        <v>2.06</v>
-      </c>
-      <c r="AA66">
-        <v>3.2</v>
-      </c>
-      <c r="AB66">
-        <v>3.6</v>
-      </c>
-      <c r="AC66">
-        <v>1.03</v>
-      </c>
-      <c r="AD66">
-        <v>8.5</v>
-      </c>
-      <c r="AE66">
-        <v>1.53</v>
-      </c>
-      <c r="AF66">
-        <v>2.5</v>
-      </c>
-      <c r="AG66">
-        <v>2.06</v>
-      </c>
-      <c r="AH66">
-        <v>1.68</v>
-      </c>
-      <c r="AI66">
-        <v>1.8</v>
-      </c>
-      <c r="AJ66">
-        <v>1.91</v>
-      </c>
-      <c r="AK66">
-        <v>1.3</v>
-      </c>
-      <c r="AL66">
-        <v>1.33</v>
-      </c>
-      <c r="AM66">
-        <v>1.55</v>
-      </c>
-      <c r="AN66">
-        <v>0.5</v>
-      </c>
-      <c r="AO66">
-        <v>2</v>
-      </c>
-      <c r="AP66">
-        <v>0.67</v>
-      </c>
-      <c r="AQ66">
-        <v>1.25</v>
-      </c>
-      <c r="AR66">
-        <v>1.93</v>
-      </c>
-      <c r="AS66">
-        <v>1.09</v>
-      </c>
-      <c r="AT66">
-        <v>3.02</v>
-      </c>
-      <c r="AU66">
-        <v>6</v>
       </c>
       <c r="AV66">
         <v>3</v>
       </c>
       <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>10</v>
+      </c>
+      <c r="AZ66">
+        <v>6</v>
+      </c>
+      <c r="BA66">
         <v>5</v>
       </c>
-      <c r="AX66">
-        <v>5</v>
-      </c>
-      <c r="AY66">
-        <v>11</v>
-      </c>
-      <c r="AZ66">
-        <v>8</v>
-      </c>
-      <c r="BA66">
-        <v>9</v>
-      </c>
       <c r="BB66">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC66">
         <v>12</v>
       </c>
       <c r="BD66">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="BE66">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF66">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="BG66">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BH66">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BI66">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="BJ66">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="BK66">
         <v>2</v>
       </c>
       <c r="BL66">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BM66">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BN66">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="BO66">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BP66">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14546,7 +14552,7 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45558.64583333334</v>
+        <v>45557.875</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -14672,7 +14678,7 @@
         <v>2.51</v>
       </c>
       <c r="AU67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV67">
         <v>5</v>
@@ -14684,7 +14690,7 @@
         <v>6</v>
       </c>
       <c r="AY67">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ67">
         <v>11</v>
@@ -14785,7 +14791,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15197,7 +15203,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15609,7 +15615,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15773,7 +15779,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7481428</v>
+        <v>7481423</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15782,196 +15788,196 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45564.375</v>
+        <v>45563.875</v>
       </c>
       <c r="F73">
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
         <v>4</v>
-      </c>
-      <c r="L73">
-        <v>4</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>6</v>
       </c>
       <c r="O73" t="s">
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q73">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="R73">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="S73">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="T73">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U73">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="V73">
-        <v>2.63</v>
+        <v>2.86</v>
       </c>
       <c r="W73">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="X73">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y73">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z73">
         <v>2.37</v>
       </c>
       <c r="AA73">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="AB73">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="AC73">
         <v>1.01</v>
       </c>
       <c r="AD73">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE73">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AF73">
+        <v>3.14</v>
+      </c>
+      <c r="AG73">
+        <v>1.91</v>
+      </c>
+      <c r="AH73">
+        <v>1.75</v>
+      </c>
+      <c r="AI73">
+        <v>1.76</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>1.4</v>
+      </c>
+      <c r="AL73">
+        <v>1.32</v>
+      </c>
+      <c r="AM73">
+        <v>1.59</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AP73">
+        <v>1.75</v>
+      </c>
+      <c r="AQ73">
+        <v>1.67</v>
+      </c>
+      <c r="AR73">
+        <v>1.54</v>
+      </c>
+      <c r="AS73">
+        <v>1.35</v>
+      </c>
+      <c r="AT73">
+        <v>2.89</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>3</v>
+      </c>
+      <c r="AW73">
+        <v>1</v>
+      </c>
+      <c r="AX73">
         <v>4</v>
       </c>
-      <c r="AG73">
-        <v>1.67</v>
-      </c>
-      <c r="AH73">
-        <v>2</v>
-      </c>
-      <c r="AI73">
-        <v>1.57</v>
-      </c>
-      <c r="AJ73">
-        <v>2.25</v>
-      </c>
-      <c r="AK73">
-        <v>1.35</v>
-      </c>
-      <c r="AL73">
-        <v>1.3</v>
-      </c>
-      <c r="AM73">
-        <v>1.52</v>
-      </c>
-      <c r="AN73">
-        <v>2</v>
-      </c>
-      <c r="AO73">
-        <v>1.33</v>
-      </c>
-      <c r="AP73">
-        <v>2.33</v>
-      </c>
-      <c r="AQ73">
-        <v>1</v>
-      </c>
-      <c r="AR73">
-        <v>2.06</v>
-      </c>
-      <c r="AS73">
-        <v>1.44</v>
-      </c>
-      <c r="AT73">
-        <v>3.5</v>
-      </c>
-      <c r="AU73">
-        <v>9</v>
-      </c>
-      <c r="AV73">
-        <v>5</v>
-      </c>
-      <c r="AW73">
-        <v>5</v>
-      </c>
-      <c r="AX73">
-        <v>8</v>
-      </c>
       <c r="AY73">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AZ73">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC73">
         <v>9</v>
       </c>
       <c r="BD73">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="BE73">
         <v>8</v>
       </c>
       <c r="BF73">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="BG73">
+        <v>1.31</v>
+      </c>
+      <c r="BH73">
+        <v>3.3</v>
+      </c>
+      <c r="BI73">
+        <v>1.56</v>
+      </c>
+      <c r="BJ73">
+        <v>2.34</v>
+      </c>
+      <c r="BK73">
+        <v>2</v>
+      </c>
+      <c r="BL73">
+        <v>1.8</v>
+      </c>
+      <c r="BM73">
+        <v>2.57</v>
+      </c>
+      <c r="BN73">
+        <v>1.47</v>
+      </c>
+      <c r="BO73">
+        <v>3.55</v>
+      </c>
+      <c r="BP73">
         <v>1.27</v>
-      </c>
-      <c r="BH73">
-        <v>3.52</v>
-      </c>
-      <c r="BI73">
-        <v>1.5</v>
-      </c>
-      <c r="BJ73">
-        <v>2.48</v>
-      </c>
-      <c r="BK73">
-        <v>1.88</v>
-      </c>
-      <c r="BL73">
-        <v>1.92</v>
-      </c>
-      <c r="BM73">
-        <v>2.41</v>
-      </c>
-      <c r="BN73">
-        <v>1.53</v>
-      </c>
-      <c r="BO73">
-        <v>3.3</v>
-      </c>
-      <c r="BP73">
-        <v>1.31</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -15979,7 +15985,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7481423</v>
+        <v>7481428</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -15988,196 +15994,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45564.46875</v>
+        <v>45564.375</v>
       </c>
       <c r="F74">
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M74">
         <v>2</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O74" t="s">
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="R74">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="S74">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="T74">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U74">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="V74">
-        <v>2.86</v>
+        <v>2.63</v>
       </c>
       <c r="W74">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="X74">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="Y74">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z74">
         <v>2.37</v>
       </c>
       <c r="AA74">
-        <v>2.87</v>
+        <v>3.4</v>
       </c>
       <c r="AB74">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="AC74">
         <v>1.01</v>
       </c>
       <c r="AD74">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AE74">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AF74">
-        <v>3.14</v>
+        <v>4</v>
       </c>
       <c r="AG74">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AH74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AI74">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AJ74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AK74">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AL74">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM74">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AN74">
         <v>2</v>
       </c>
       <c r="AO74">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR74">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="AS74">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT74">
-        <v>2.89</v>
+        <v>3.5</v>
       </c>
       <c r="AU74">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV74">
         <v>5</v>
       </c>
       <c r="AW74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX74">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY74">
+        <v>14</v>
+      </c>
+      <c r="AZ74">
+        <v>13</v>
+      </c>
+      <c r="BA74">
         <v>5</v>
       </c>
-      <c r="AZ74">
-        <v>8</v>
-      </c>
-      <c r="BA74">
-        <v>6</v>
-      </c>
       <c r="BB74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC74">
         <v>9</v>
       </c>
       <c r="BD74">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="BE74">
         <v>8</v>
       </c>
       <c r="BF74">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="BG74">
+        <v>1.27</v>
+      </c>
+      <c r="BH74">
+        <v>3.52</v>
+      </c>
+      <c r="BI74">
+        <v>1.5</v>
+      </c>
+      <c r="BJ74">
+        <v>2.48</v>
+      </c>
+      <c r="BK74">
+        <v>1.88</v>
+      </c>
+      <c r="BL74">
+        <v>1.92</v>
+      </c>
+      <c r="BM74">
+        <v>2.41</v>
+      </c>
+      <c r="BN74">
+        <v>1.53</v>
+      </c>
+      <c r="BO74">
+        <v>3.3</v>
+      </c>
+      <c r="BP74">
         <v>1.31</v>
-      </c>
-      <c r="BH74">
-        <v>3.3</v>
-      </c>
-      <c r="BI74">
-        <v>1.56</v>
-      </c>
-      <c r="BJ74">
-        <v>2.34</v>
-      </c>
-      <c r="BK74">
-        <v>2</v>
-      </c>
-      <c r="BL74">
-        <v>1.8</v>
-      </c>
-      <c r="BM74">
-        <v>2.57</v>
-      </c>
-      <c r="BN74">
-        <v>1.47</v>
-      </c>
-      <c r="BO74">
-        <v>3.55</v>
-      </c>
-      <c r="BP74">
-        <v>1.27</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16227,7 +16233,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16726,10 +16732,10 @@
         <v>1.33</v>
       </c>
       <c r="AS77">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AT77">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -16795,6 +16801,212 @@
         <v>3.3</v>
       </c>
       <c r="BP77">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7481429</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45565.64583333334</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>145</v>
+      </c>
+      <c r="P78" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q78">
+        <v>2.05</v>
+      </c>
+      <c r="R78">
+        <v>2.3</v>
+      </c>
+      <c r="S78">
+        <v>6.5</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>7</v>
+      </c>
+      <c r="Y78">
+        <v>1.1</v>
+      </c>
+      <c r="Z78">
+        <v>1.5</v>
+      </c>
+      <c r="AA78">
+        <v>4.1</v>
+      </c>
+      <c r="AB78">
+        <v>5.5</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>12.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.23</v>
+      </c>
+      <c r="AF78">
+        <v>3.34</v>
+      </c>
+      <c r="AG78">
+        <v>1.9</v>
+      </c>
+      <c r="AH78">
+        <v>1.91</v>
+      </c>
+      <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
+        <v>1.73</v>
+      </c>
+      <c r="AK78">
+        <v>1.12</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>2.55</v>
+      </c>
+      <c r="AN78">
+        <v>1.67</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.25</v>
+      </c>
+      <c r="AQ78">
+        <v>1.5</v>
+      </c>
+      <c r="AR78">
+        <v>1.42</v>
+      </c>
+      <c r="AS78">
+        <v>0.87</v>
+      </c>
+      <c r="AT78">
+        <v>2.29</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>11</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>15</v>
+      </c>
+      <c r="AZ78">
+        <v>9</v>
+      </c>
+      <c r="BA78">
+        <v>6</v>
+      </c>
+      <c r="BB78">
+        <v>1</v>
+      </c>
+      <c r="BC78">
+        <v>7</v>
+      </c>
+      <c r="BD78">
+        <v>1.26</v>
+      </c>
+      <c r="BE78">
+        <v>11</v>
+      </c>
+      <c r="BF78">
+        <v>4.35</v>
+      </c>
+      <c r="BG78">
+        <v>1.27</v>
+      </c>
+      <c r="BH78">
+        <v>3.52</v>
+      </c>
+      <c r="BI78">
+        <v>1.5</v>
+      </c>
+      <c r="BJ78">
+        <v>2.48</v>
+      </c>
+      <c r="BK78">
+        <v>1.86</v>
+      </c>
+      <c r="BL78">
+        <v>1.88</v>
+      </c>
+      <c r="BM78">
+        <v>2.41</v>
+      </c>
+      <c r="BN78">
+        <v>1.53</v>
+      </c>
+      <c r="BO78">
+        <v>3.3</v>
+      </c>
+      <c r="BP78">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,111 +403,72 @@
     <t>['56', '77']</t>
   </si>
   <si>
-    <t>['16', '85']</t>
-  </si>
-  <si>
     <t>['72']</t>
   </si>
   <si>
     <t>['44']</t>
   </si>
   <si>
-    <t>['57', '80']</t>
-  </si>
-  <si>
-    <t>['71']</t>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['42', '45+3']</t>
+  </si>
+  <si>
+    <t>['14', '43', '84', '90+1']</t>
+  </si>
+  <si>
+    <t>['45', '79']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['65', '71']</t>
+  </si>
+  <si>
+    <t>['14', '42']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['27', '56']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['82', '90+7']</t>
+  </si>
+  <si>
+    <t>['76', '80']</t>
+  </si>
+  <si>
+    <t>['21', '57', '90+8']</t>
+  </si>
+  <si>
+    <t>['26', '27', '75']</t>
+  </si>
+  <si>
+    <t>['26', '54']</t>
   </si>
   <si>
     <t>['84']</t>
   </si>
   <si>
-    <t>['13', '29', '31', '89']</t>
-  </si>
-  <si>
-    <t>['4', '76']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
-    <t>['65']</t>
-  </si>
-  <si>
-    <t>['27']</t>
-  </si>
-  <si>
-    <t>['72', '77']</t>
-  </si>
-  <si>
-    <t>['2', '15', '51', '74']</t>
-  </si>
-  <si>
-    <t>['20', '71']</t>
-  </si>
-  <si>
-    <t>['43', '71', '84']</t>
-  </si>
-  <si>
-    <t>['47']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
-    <t>['42', '45+3']</t>
-  </si>
-  <si>
-    <t>['14', '43', '84', '90+1']</t>
-  </si>
-  <si>
-    <t>['45', '79']</t>
-  </si>
-  <si>
-    <t>['5']</t>
-  </si>
-  <si>
-    <t>['65', '71']</t>
-  </si>
-  <si>
-    <t>['14', '42']</t>
-  </si>
-  <si>
-    <t>['14']</t>
-  </si>
-  <si>
-    <t>['87']</t>
-  </si>
-  <si>
-    <t>['63']</t>
-  </si>
-  <si>
-    <t>['27', '56']</t>
-  </si>
-  <si>
-    <t>['54']</t>
-  </si>
-  <si>
-    <t>['81']</t>
-  </si>
-  <si>
-    <t>['64']</t>
-  </si>
-  <si>
-    <t>['82', '90+7']</t>
-  </si>
-  <si>
-    <t>['76', '80']</t>
-  </si>
-  <si>
-    <t>['21', '57', '90+8']</t>
-  </si>
-  <si>
-    <t>['26', '27', '75']</t>
-  </si>
-  <si>
-    <t>['26', '54']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -547,31 +508,7 @@
     <t>['60', '90+3']</t>
   </si>
   <si>
-    <t>['88', '90+7']</t>
-  </si>
-  <si>
     <t>['48', '78', '90+1', '90+7']</t>
-  </si>
-  <si>
-    <t>['25', '55']</t>
-  </si>
-  <si>
-    <t>['22', '80']</t>
-  </si>
-  <si>
-    <t>['9', '12', '61', '74', '80']</t>
-  </si>
-  <si>
-    <t>['20', '72']</t>
-  </si>
-  <si>
-    <t>['3', '49', '77']</t>
-  </si>
-  <si>
-    <t>['51', '73']</t>
-  </si>
-  <si>
-    <t>['17', '45+2']</t>
   </si>
   <si>
     <t>['45', '58']</t>
@@ -936,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1132,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1479,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1607,7 +1544,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1685,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1813,7 +1750,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2225,7 +2162,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2303,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2431,7 +2368,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2512,7 +2449,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2637,7 +2574,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2715,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2843,7 +2780,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2921,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3049,7 +2986,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3127,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3255,7 +3192,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3336,7 +3273,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3461,7 +3398,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3542,7 +3479,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3667,7 +3604,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3745,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3951,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4160,7 +4097,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4285,7 +4222,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4363,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4569,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4697,7 +4634,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4775,10 +4712,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4981,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5187,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5315,7 +5252,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5396,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5521,7 +5458,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5599,10 +5536,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5727,7 +5664,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5808,7 +5745,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -5933,7 +5870,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6011,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -6139,7 +6076,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6217,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6345,7 +6282,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6423,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6551,7 +6488,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6629,7 +6566,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6757,7 +6694,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -6835,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7041,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7169,7 +7106,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7453,10 +7390,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7581,7 +7518,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7662,7 +7599,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -7865,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7993,7 +7930,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8071,7 +8008,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8199,7 +8136,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8280,7 +8217,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
         <v>2.09</v>
@@ -8483,10 +8420,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8611,7 +8548,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8689,7 +8626,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -8895,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9104,7 +9041,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9229,7 +9166,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9310,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9516,7 +9453,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -9722,7 +9659,7 @@
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -9847,7 +9784,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9925,10 +9862,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10053,7 +9990,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10131,10 +10068,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10337,10 +10274,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10546,7 +10483,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -10671,7 +10608,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -10749,10 +10686,10 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.72</v>
@@ -10955,10 +10892,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11164,7 +11101,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -11367,7 +11304,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11573,7 +11510,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11779,10 +11716,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
+        <v>0.67</v>
+      </c>
+      <c r="AQ53">
         <v>0.5</v>
-      </c>
-      <c r="AQ53">
-        <v>0.33</v>
       </c>
       <c r="AR53">
         <v>1.24</v>
@@ -11985,10 +11922,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
         <v>1.75</v>
-      </c>
-      <c r="AQ54">
-        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12113,7 +12050,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12191,10 +12128,10 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12319,7 +12256,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12397,7 +12334,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12525,7 +12462,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12689,7 +12626,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7481417</v>
+        <v>7481416</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12698,16 +12635,16 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45555.875</v>
+        <v>45556.46875</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -12719,73 +12656,73 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q58">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S58">
-        <v>4.5</v>
+        <v>4.02</v>
       </c>
       <c r="T58">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="U58">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="V58">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="W58">
         <v>1.33</v>
       </c>
       <c r="X58">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Y58">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z58">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="AA58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC58">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD58">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE58">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AF58">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="AG58">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AH58">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AI58">
         <v>2</v>
@@ -12794,100 +12731,100 @@
         <v>1.73</v>
       </c>
       <c r="AK58">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AL58">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AM58">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AN58">
+        <v>0.67</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>0.5</v>
+      </c>
+      <c r="AQ58">
         <v>1.5</v>
       </c>
-      <c r="AO58">
-        <v>2</v>
-      </c>
-      <c r="AP58">
-        <v>1</v>
-      </c>
-      <c r="AQ58">
-        <v>2.33</v>
-      </c>
       <c r="AR58">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="AS58">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="AT58">
-        <v>2.84</v>
+        <v>2.24</v>
       </c>
       <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>11</v>
+      </c>
+      <c r="AW58">
+        <v>6</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>10</v>
+      </c>
+      <c r="AZ58">
+        <v>18</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
         <v>3</v>
       </c>
-      <c r="AV58">
-        <v>5</v>
-      </c>
-      <c r="AW58">
-        <v>5</v>
-      </c>
-      <c r="AX58">
-        <v>3</v>
-      </c>
-      <c r="AY58">
-        <v>8</v>
-      </c>
-      <c r="AZ58">
-        <v>8</v>
-      </c>
-      <c r="BA58">
-        <v>10</v>
-      </c>
-      <c r="BB58">
-        <v>5</v>
-      </c>
       <c r="BC58">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD58">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="BE58">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF58">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="BG58">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="BH58">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="BI58">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="BJ58">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="BK58">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
       <c r="BL58">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="BM58">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="BN58">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BO58">
-        <v>3.1</v>
+        <v>4.35</v>
       </c>
       <c r="BP58">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12895,7 +12832,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7481420</v>
+        <v>7481414</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12904,16 +12841,16 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45555.875</v>
+        <v>45556.5625</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -12925,145 +12862,145 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P59" t="s">
         <v>124</v>
       </c>
       <c r="Q59">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="R59">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="T59">
+        <v>1.6</v>
+      </c>
+      <c r="U59">
+        <v>2.2</v>
+      </c>
+      <c r="V59">
+        <v>3.75</v>
+      </c>
+      <c r="W59">
+        <v>1.22</v>
+      </c>
+      <c r="X59">
+        <v>10.75</v>
+      </c>
+      <c r="Y59">
+        <v>1.03</v>
+      </c>
+      <c r="Z59">
+        <v>2.9</v>
+      </c>
+      <c r="AA59">
+        <v>2.9</v>
+      </c>
+      <c r="AB59">
+        <v>2.6</v>
+      </c>
+      <c r="AC59">
+        <v>1.11</v>
+      </c>
+      <c r="AD59">
+        <v>6.25</v>
+      </c>
+      <c r="AE59">
+        <v>1.52</v>
+      </c>
+      <c r="AF59">
+        <v>2.38</v>
+      </c>
+      <c r="AG59">
+        <v>2.45</v>
+      </c>
+      <c r="AH59">
         <v>1.5</v>
       </c>
-      <c r="U59">
-        <v>2.49</v>
-      </c>
-      <c r="V59">
-        <v>3.22</v>
-      </c>
-      <c r="W59">
-        <v>1.32</v>
-      </c>
-      <c r="X59">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y59">
-        <v>1.05</v>
-      </c>
-      <c r="Z59">
-        <v>2.15</v>
-      </c>
-      <c r="AA59">
-        <v>3.1</v>
-      </c>
-      <c r="AB59">
-        <v>3.4</v>
-      </c>
-      <c r="AC59">
-        <v>1.06</v>
-      </c>
-      <c r="AD59">
-        <v>7.5</v>
-      </c>
-      <c r="AE59">
-        <v>1.36</v>
-      </c>
-      <c r="AF59">
-        <v>2.88</v>
-      </c>
-      <c r="AG59">
-        <v>2.25</v>
-      </c>
-      <c r="AH59">
-        <v>1.57</v>
-      </c>
       <c r="AI59">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AJ59">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK59">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AL59">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AM59">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO59">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="AS59">
-        <v>1.21</v>
+        <v>0.87</v>
       </c>
       <c r="AT59">
-        <v>3.08</v>
+        <v>2.38</v>
       </c>
       <c r="AU59">
         <v>5</v>
       </c>
       <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>3</v>
+      </c>
+      <c r="AY59">
+        <v>11</v>
+      </c>
+      <c r="AZ59">
+        <v>9</v>
+      </c>
+      <c r="BA59">
+        <v>7</v>
+      </c>
+      <c r="BB59">
         <v>5</v>
-      </c>
-      <c r="AW59">
-        <v>5</v>
-      </c>
-      <c r="AX59">
-        <v>2</v>
-      </c>
-      <c r="AY59">
-        <v>10</v>
-      </c>
-      <c r="AZ59">
-        <v>7</v>
-      </c>
-      <c r="BA59">
-        <v>4</v>
-      </c>
-      <c r="BB59">
-        <v>8</v>
       </c>
       <c r="BC59">
         <v>12</v>
       </c>
       <c r="BD59">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="BE59">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF59">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="BG59">
         <v>1.3</v>
@@ -13081,7 +13018,7 @@
         <v>2</v>
       </c>
       <c r="BL59">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BM59">
         <v>2.55</v>
@@ -13101,7 +13038,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7481416</v>
+        <v>7481429</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13110,94 +13047,94 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45556.46875</v>
+        <v>45565.64583333334</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="Q60">
-        <v>3.15</v>
+        <v>2.05</v>
       </c>
       <c r="R60">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="S60">
-        <v>4.02</v>
+        <v>6.5</v>
       </c>
       <c r="T60">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="U60">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="V60">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="W60">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y60">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="Z60">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA60">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="AB60">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="AC60">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AD60">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE60">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AF60">
-        <v>2.62</v>
+        <v>3.34</v>
       </c>
       <c r="AG60">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AH60">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="AI60">
         <v>2</v>
@@ -13206,3807 +13143,99 @@
         <v>1.73</v>
       </c>
       <c r="AK60">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="AL60">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AM60">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="AN60">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AO60">
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
       </c>
       <c r="AR60">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AS60">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="AT60">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
       <c r="AU60">
         <v>4</v>
       </c>
       <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
         <v>11</v>
       </c>
-      <c r="AW60">
+      <c r="AX60">
         <v>6</v>
       </c>
-      <c r="AX60">
-        <v>7</v>
-      </c>
       <c r="AY60">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ60">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BA60">
         <v>6</v>
       </c>
       <c r="BB60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD60">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="BE60">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="BF60">
-        <v>2.64</v>
+        <v>4.35</v>
       </c>
       <c r="BG60">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="BH60">
-        <v>2.55</v>
+        <v>3.52</v>
       </c>
       <c r="BI60">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BJ60">
-        <v>1.91</v>
+        <v>2.48</v>
       </c>
       <c r="BK60">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="BL60">
+        <v>1.88</v>
+      </c>
+      <c r="BM60">
+        <v>2.41</v>
+      </c>
+      <c r="BN60">
         <v>1.53</v>
       </c>
-      <c r="BM60">
-        <v>3.1</v>
-      </c>
-      <c r="BN60">
-        <v>1.3</v>
-      </c>
       <c r="BO60">
-        <v>4.35</v>
+        <v>3.3</v>
       </c>
       <c r="BP60">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:68">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>7481414</v>
-      </c>
-      <c r="C61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="2">
-        <v>45556.5625</v>
-      </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
-      <c r="G61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>2</v>
-      </c>
-      <c r="O61" t="s">
-        <v>131</v>
-      </c>
-      <c r="P61" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q61">
-        <v>3.45</v>
-      </c>
-      <c r="R61">
-        <v>1.8</v>
-      </c>
-      <c r="S61">
-        <v>3.65</v>
-      </c>
-      <c r="T61">
-        <v>1.6</v>
-      </c>
-      <c r="U61">
-        <v>2.2</v>
-      </c>
-      <c r="V61">
-        <v>3.75</v>
-      </c>
-      <c r="W61">
-        <v>1.22</v>
-      </c>
-      <c r="X61">
-        <v>10.75</v>
-      </c>
-      <c r="Y61">
-        <v>1.03</v>
-      </c>
-      <c r="Z61">
-        <v>2.9</v>
-      </c>
-      <c r="AA61">
-        <v>2.9</v>
-      </c>
-      <c r="AB61">
-        <v>2.6</v>
-      </c>
-      <c r="AC61">
-        <v>1.11</v>
-      </c>
-      <c r="AD61">
-        <v>6.25</v>
-      </c>
-      <c r="AE61">
-        <v>1.52</v>
-      </c>
-      <c r="AF61">
-        <v>2.38</v>
-      </c>
-      <c r="AG61">
-        <v>2.45</v>
-      </c>
-      <c r="AH61">
-        <v>1.5</v>
-      </c>
-      <c r="AI61">
-        <v>2.05</v>
-      </c>
-      <c r="AJ61">
-        <v>1.67</v>
-      </c>
-      <c r="AK61">
-        <v>1.4</v>
-      </c>
-      <c r="AL61">
-        <v>1.35</v>
-      </c>
-      <c r="AM61">
-        <v>1.45</v>
-      </c>
-      <c r="AN61">
-        <v>2</v>
-      </c>
-      <c r="AO61">
-        <v>1.33</v>
-      </c>
-      <c r="AP61">
-        <v>1.75</v>
-      </c>
-      <c r="AQ61">
-        <v>1.25</v>
-      </c>
-      <c r="AR61">
-        <v>1.51</v>
-      </c>
-      <c r="AS61">
-        <v>0.87</v>
-      </c>
-      <c r="AT61">
-        <v>2.38</v>
-      </c>
-      <c r="AU61">
-        <v>5</v>
-      </c>
-      <c r="AV61">
-        <v>6</v>
-      </c>
-      <c r="AW61">
-        <v>6</v>
-      </c>
-      <c r="AX61">
-        <v>3</v>
-      </c>
-      <c r="AY61">
-        <v>11</v>
-      </c>
-      <c r="AZ61">
-        <v>9</v>
-      </c>
-      <c r="BA61">
-        <v>7</v>
-      </c>
-      <c r="BB61">
-        <v>5</v>
-      </c>
-      <c r="BC61">
-        <v>12</v>
-      </c>
-      <c r="BD61">
-        <v>1.85</v>
-      </c>
-      <c r="BE61">
-        <v>7.5</v>
-      </c>
-      <c r="BF61">
-        <v>2.29</v>
-      </c>
-      <c r="BG61">
-        <v>1.3</v>
-      </c>
-      <c r="BH61">
-        <v>3.05</v>
-      </c>
-      <c r="BI61">
-        <v>1.56</v>
-      </c>
-      <c r="BJ61">
-        <v>2.2</v>
-      </c>
-      <c r="BK61">
-        <v>2</v>
-      </c>
-      <c r="BL61">
-        <v>1.73</v>
-      </c>
-      <c r="BM61">
-        <v>2.55</v>
-      </c>
-      <c r="BN61">
-        <v>1.42</v>
-      </c>
-      <c r="BO61">
-        <v>3.5</v>
-      </c>
-      <c r="BP61">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:68">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>7481411</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F62">
-        <v>6</v>
-      </c>
-      <c r="G62" t="s">
-        <v>90</v>
-      </c>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>2</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
-      <c r="O62" t="s">
-        <v>132</v>
-      </c>
-      <c r="P62" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q62">
-        <v>2.75</v>
-      </c>
-      <c r="R62">
-        <v>2.1</v>
-      </c>
-      <c r="S62">
-        <v>4</v>
-      </c>
-      <c r="T62">
-        <v>1.4</v>
-      </c>
-      <c r="U62">
-        <v>2.75</v>
-      </c>
-      <c r="V62">
-        <v>3</v>
-      </c>
-      <c r="W62">
-        <v>1.36</v>
-      </c>
-      <c r="X62">
-        <v>8</v>
-      </c>
-      <c r="Y62">
-        <v>1.08</v>
-      </c>
-      <c r="Z62">
-        <v>2.06</v>
-      </c>
-      <c r="AA62">
-        <v>3.2</v>
-      </c>
-      <c r="AB62">
-        <v>3.6</v>
-      </c>
-      <c r="AC62">
-        <v>1.03</v>
-      </c>
-      <c r="AD62">
-        <v>8.5</v>
-      </c>
-      <c r="AE62">
-        <v>1.53</v>
-      </c>
-      <c r="AF62">
-        <v>2.5</v>
-      </c>
-      <c r="AG62">
-        <v>2.06</v>
-      </c>
-      <c r="AH62">
-        <v>1.68</v>
-      </c>
-      <c r="AI62">
-        <v>1.8</v>
-      </c>
-      <c r="AJ62">
-        <v>1.91</v>
-      </c>
-      <c r="AK62">
-        <v>1.3</v>
-      </c>
-      <c r="AL62">
-        <v>1.33</v>
-      </c>
-      <c r="AM62">
-        <v>1.55</v>
-      </c>
-      <c r="AN62">
-        <v>0.5</v>
-      </c>
-      <c r="AO62">
-        <v>2</v>
-      </c>
-      <c r="AP62">
-        <v>0.67</v>
-      </c>
-      <c r="AQ62">
-        <v>1.25</v>
-      </c>
-      <c r="AR62">
-        <v>1.93</v>
-      </c>
-      <c r="AS62">
-        <v>1.09</v>
-      </c>
-      <c r="AT62">
-        <v>3.02</v>
-      </c>
-      <c r="AU62">
-        <v>7</v>
-      </c>
-      <c r="AV62">
-        <v>3</v>
-      </c>
-      <c r="AW62">
-        <v>7</v>
-      </c>
-      <c r="AX62">
-        <v>4</v>
-      </c>
-      <c r="AY62">
-        <v>14</v>
-      </c>
-      <c r="AZ62">
-        <v>7</v>
-      </c>
-      <c r="BA62">
-        <v>9</v>
-      </c>
-      <c r="BB62">
-        <v>3</v>
-      </c>
-      <c r="BC62">
-        <v>12</v>
-      </c>
-      <c r="BD62">
-        <v>1.64</v>
-      </c>
-      <c r="BE62">
-        <v>8</v>
-      </c>
-      <c r="BF62">
-        <v>2.67</v>
-      </c>
-      <c r="BG62">
-        <v>1.29</v>
-      </c>
-      <c r="BH62">
-        <v>3.15</v>
-      </c>
-      <c r="BI62">
-        <v>1.53</v>
-      </c>
-      <c r="BJ62">
-        <v>2.28</v>
-      </c>
-      <c r="BK62">
-        <v>2</v>
-      </c>
-      <c r="BL62">
-        <v>1.8</v>
-      </c>
-      <c r="BM62">
-        <v>2.48</v>
-      </c>
-      <c r="BN62">
-        <v>1.45</v>
-      </c>
-      <c r="BO62">
-        <v>3.35</v>
-      </c>
-      <c r="BP62">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:68">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>7481412</v>
-      </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F63">
-        <v>6</v>
-      </c>
-      <c r="G63" t="s">
-        <v>86</v>
-      </c>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>94</v>
-      </c>
-      <c r="P63" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q63">
-        <v>2.5</v>
-      </c>
-      <c r="R63">
-        <v>2.3</v>
-      </c>
-      <c r="S63">
-        <v>4.33</v>
-      </c>
-      <c r="T63">
-        <v>1.33</v>
-      </c>
-      <c r="U63">
-        <v>3.25</v>
-      </c>
-      <c r="V63">
-        <v>2.63</v>
-      </c>
-      <c r="W63">
-        <v>1.44</v>
-      </c>
-      <c r="X63">
-        <v>6.5</v>
-      </c>
-      <c r="Y63">
-        <v>1.11</v>
-      </c>
-      <c r="Z63">
-        <v>2.15</v>
-      </c>
-      <c r="AA63">
-        <v>3.1</v>
-      </c>
-      <c r="AB63">
-        <v>3.2</v>
-      </c>
-      <c r="AC63">
-        <v>1.02</v>
-      </c>
-      <c r="AD63">
-        <v>10</v>
-      </c>
-      <c r="AE63">
-        <v>1.2</v>
-      </c>
-      <c r="AF63">
-        <v>4</v>
-      </c>
-      <c r="AG63">
-        <v>2.25</v>
-      </c>
-      <c r="AH63">
-        <v>1.65</v>
-      </c>
-      <c r="AI63">
-        <v>1.67</v>
-      </c>
-      <c r="AJ63">
-        <v>2.1</v>
-      </c>
-      <c r="AK63">
-        <v>1.25</v>
-      </c>
-      <c r="AL63">
-        <v>1.28</v>
-      </c>
-      <c r="AM63">
-        <v>1.7</v>
-      </c>
-      <c r="AN63">
-        <v>0.5</v>
-      </c>
-      <c r="AO63">
-        <v>3</v>
-      </c>
-      <c r="AP63">
-        <v>1</v>
-      </c>
-      <c r="AQ63">
-        <v>3</v>
-      </c>
-      <c r="AR63">
-        <v>1.39</v>
-      </c>
-      <c r="AS63">
-        <v>1.36</v>
-      </c>
-      <c r="AT63">
-        <v>2.75</v>
-      </c>
-      <c r="AU63">
-        <v>10</v>
-      </c>
-      <c r="AV63">
-        <v>7</v>
-      </c>
-      <c r="AW63">
-        <v>7</v>
-      </c>
-      <c r="AX63">
-        <v>1</v>
-      </c>
-      <c r="AY63">
-        <v>17</v>
-      </c>
-      <c r="AZ63">
-        <v>8</v>
-      </c>
-      <c r="BA63">
-        <v>7</v>
-      </c>
-      <c r="BB63">
-        <v>3</v>
-      </c>
-      <c r="BC63">
-        <v>10</v>
-      </c>
-      <c r="BD63">
-        <v>1.69</v>
-      </c>
-      <c r="BE63">
-        <v>8</v>
-      </c>
-      <c r="BF63">
-        <v>2.62</v>
-      </c>
-      <c r="BG63">
-        <v>1.29</v>
-      </c>
-      <c r="BH63">
-        <v>3.15</v>
-      </c>
-      <c r="BI63">
-        <v>1.53</v>
-      </c>
-      <c r="BJ63">
-        <v>2.28</v>
-      </c>
-      <c r="BK63">
-        <v>2</v>
-      </c>
-      <c r="BL63">
-        <v>1.8</v>
-      </c>
-      <c r="BM63">
-        <v>2.48</v>
-      </c>
-      <c r="BN63">
-        <v>1.45</v>
-      </c>
-      <c r="BO63">
-        <v>3.35</v>
-      </c>
-      <c r="BP63">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:68">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>7481413</v>
-      </c>
-      <c r="C64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F64">
-        <v>6</v>
-      </c>
-      <c r="G64" t="s">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s">
-        <v>71</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64" t="s">
-        <v>133</v>
-      </c>
-      <c r="P64" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q64">
-        <v>2.38</v>
-      </c>
-      <c r="R64">
-        <v>1.95</v>
-      </c>
-      <c r="S64">
-        <v>6</v>
-      </c>
-      <c r="T64">
-        <v>1.55</v>
-      </c>
-      <c r="U64">
-        <v>2.3</v>
-      </c>
-      <c r="V64">
-        <v>3.4</v>
-      </c>
-      <c r="W64">
-        <v>1.29</v>
-      </c>
-      <c r="X64">
-        <v>9</v>
-      </c>
-      <c r="Y64">
-        <v>1.03</v>
-      </c>
-      <c r="Z64">
-        <v>1.61</v>
-      </c>
-      <c r="AA64">
-        <v>3.5</v>
-      </c>
-      <c r="AB64">
-        <v>6</v>
-      </c>
-      <c r="AC64">
-        <v>1.07</v>
-      </c>
-      <c r="AD64">
-        <v>6.5</v>
-      </c>
-      <c r="AE64">
-        <v>1.45</v>
-      </c>
-      <c r="AF64">
-        <v>2.5</v>
-      </c>
-      <c r="AG64">
-        <v>2.43</v>
-      </c>
-      <c r="AH64">
-        <v>1.5</v>
-      </c>
-      <c r="AI64">
-        <v>2.25</v>
-      </c>
-      <c r="AJ64">
-        <v>1.55</v>
-      </c>
-      <c r="AK64">
-        <v>1.14</v>
-      </c>
-      <c r="AL64">
-        <v>1.31</v>
-      </c>
-      <c r="AM64">
-        <v>2.15</v>
-      </c>
-      <c r="AN64">
-        <v>1.33</v>
-      </c>
-      <c r="AO64">
-        <v>1</v>
-      </c>
-      <c r="AP64">
-        <v>1.75</v>
-      </c>
-      <c r="AQ64">
-        <v>0.67</v>
-      </c>
-      <c r="AR64">
-        <v>1.25</v>
-      </c>
-      <c r="AS64">
-        <v>1.05</v>
-      </c>
-      <c r="AT64">
-        <v>2.3</v>
-      </c>
-      <c r="AU64">
-        <v>9</v>
-      </c>
-      <c r="AV64">
-        <v>4</v>
-      </c>
-      <c r="AW64">
-        <v>6</v>
-      </c>
-      <c r="AX64">
-        <v>2</v>
-      </c>
-      <c r="AY64">
-        <v>15</v>
-      </c>
-      <c r="AZ64">
-        <v>6</v>
-      </c>
-      <c r="BA64">
-        <v>5</v>
-      </c>
-      <c r="BB64">
-        <v>0</v>
-      </c>
-      <c r="BC64">
-        <v>5</v>
-      </c>
-      <c r="BD64">
-        <v>1.26</v>
-      </c>
-      <c r="BE64">
-        <v>10</v>
-      </c>
-      <c r="BF64">
-        <v>4.86</v>
-      </c>
-      <c r="BG64">
-        <v>1.29</v>
-      </c>
-      <c r="BH64">
-        <v>3.15</v>
-      </c>
-      <c r="BI64">
-        <v>1.53</v>
-      </c>
-      <c r="BJ64">
-        <v>2.28</v>
-      </c>
-      <c r="BK64">
-        <v>1.98</v>
-      </c>
-      <c r="BL64">
-        <v>1.82</v>
-      </c>
-      <c r="BM64">
-        <v>2.48</v>
-      </c>
-      <c r="BN64">
-        <v>1.45</v>
-      </c>
-      <c r="BO64">
-        <v>3.35</v>
-      </c>
-      <c r="BP64">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:68">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>7481418</v>
-      </c>
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s">
-        <v>72</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>2</v>
-      </c>
-      <c r="N65">
-        <v>3</v>
-      </c>
-      <c r="O65" t="s">
-        <v>98</v>
-      </c>
-      <c r="P65" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q65">
-        <v>4</v>
-      </c>
-      <c r="R65">
-        <v>1.95</v>
-      </c>
-      <c r="S65">
-        <v>3.2</v>
-      </c>
-      <c r="T65">
-        <v>1.53</v>
-      </c>
-      <c r="U65">
-        <v>2.38</v>
-      </c>
-      <c r="V65">
-        <v>3.5</v>
-      </c>
-      <c r="W65">
-        <v>1.29</v>
-      </c>
-      <c r="X65">
-        <v>11</v>
-      </c>
-      <c r="Y65">
-        <v>1.05</v>
-      </c>
-      <c r="Z65">
-        <v>2.9</v>
-      </c>
-      <c r="AA65">
-        <v>3</v>
-      </c>
-      <c r="AB65">
-        <v>2.35</v>
-      </c>
-      <c r="AC65">
-        <v>1.06</v>
-      </c>
-      <c r="AD65">
-        <v>7.5</v>
-      </c>
-      <c r="AE65">
-        <v>1.4</v>
-      </c>
-      <c r="AF65">
-        <v>2.75</v>
-      </c>
-      <c r="AG65">
-        <v>2.17</v>
-      </c>
-      <c r="AH65">
-        <v>1.7</v>
-      </c>
-      <c r="AI65">
-        <v>2.1</v>
-      </c>
-      <c r="AJ65">
-        <v>1.67</v>
-      </c>
-      <c r="AK65">
-        <v>1.57</v>
-      </c>
-      <c r="AL65">
-        <v>1.37</v>
-      </c>
-      <c r="AM65">
-        <v>1.25</v>
-      </c>
-      <c r="AN65">
-        <v>0</v>
-      </c>
-      <c r="AO65">
-        <v>2</v>
-      </c>
-      <c r="AP65">
-        <v>0</v>
-      </c>
-      <c r="AQ65">
-        <v>2.33</v>
-      </c>
-      <c r="AR65">
-        <v>1.13</v>
-      </c>
-      <c r="AS65">
-        <v>1.56</v>
-      </c>
-      <c r="AT65">
-        <v>2.69</v>
-      </c>
-      <c r="AU65">
-        <v>8</v>
-      </c>
-      <c r="AV65">
-        <v>5</v>
-      </c>
-      <c r="AW65">
-        <v>3</v>
-      </c>
-      <c r="AX65">
-        <v>4</v>
-      </c>
-      <c r="AY65">
-        <v>11</v>
-      </c>
-      <c r="AZ65">
-        <v>9</v>
-      </c>
-      <c r="BA65">
-        <v>9</v>
-      </c>
-      <c r="BB65">
-        <v>9</v>
-      </c>
-      <c r="BC65">
-        <v>18</v>
-      </c>
-      <c r="BD65">
-        <v>2.44</v>
-      </c>
-      <c r="BE65">
-        <v>8</v>
-      </c>
-      <c r="BF65">
-        <v>1.75</v>
-      </c>
-      <c r="BG65">
-        <v>1.34</v>
-      </c>
-      <c r="BH65">
-        <v>2.88</v>
-      </c>
-      <c r="BI65">
-        <v>1.7</v>
-      </c>
-      <c r="BJ65">
-        <v>2.05</v>
-      </c>
-      <c r="BK65">
-        <v>2.05</v>
-      </c>
-      <c r="BL65">
-        <v>1.65</v>
-      </c>
-      <c r="BM65">
-        <v>2.7</v>
-      </c>
-      <c r="BN65">
-        <v>1.38</v>
-      </c>
-      <c r="BO65">
-        <v>3.75</v>
-      </c>
-      <c r="BP65">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:68">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>7481421</v>
-      </c>
-      <c r="C66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F66">
-        <v>6</v>
-      </c>
-      <c r="G66" t="s">
-        <v>84</v>
-      </c>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>2</v>
-      </c>
-      <c r="O66" t="s">
-        <v>134</v>
-      </c>
-      <c r="P66" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q66">
-        <v>2.95</v>
-      </c>
-      <c r="R66">
-        <v>1.83</v>
-      </c>
-      <c r="S66">
-        <v>4.1</v>
-      </c>
-      <c r="T66">
-        <v>1.58</v>
-      </c>
-      <c r="U66">
-        <v>2.25</v>
-      </c>
-      <c r="V66">
-        <v>3.5</v>
-      </c>
-      <c r="W66">
-        <v>1.25</v>
-      </c>
-      <c r="X66">
-        <v>12</v>
-      </c>
-      <c r="Y66">
-        <v>1.04</v>
-      </c>
-      <c r="Z66">
-        <v>2.15</v>
-      </c>
-      <c r="AA66">
-        <v>3</v>
-      </c>
-      <c r="AB66">
-        <v>3.3</v>
-      </c>
-      <c r="AC66">
-        <v>1.09</v>
-      </c>
-      <c r="AD66">
-        <v>5.8</v>
-      </c>
-      <c r="AE66">
-        <v>1.5</v>
-      </c>
-      <c r="AF66">
-        <v>2.4</v>
-      </c>
-      <c r="AG66">
-        <v>2.5</v>
-      </c>
-      <c r="AH66">
-        <v>1.5</v>
-      </c>
-      <c r="AI66">
-        <v>2.1</v>
-      </c>
-      <c r="AJ66">
-        <v>1.67</v>
-      </c>
-      <c r="AK66">
-        <v>1.27</v>
-      </c>
-      <c r="AL66">
-        <v>1.4</v>
-      </c>
-      <c r="AM66">
-        <v>1.5</v>
-      </c>
-      <c r="AN66">
-        <v>0</v>
-      </c>
-      <c r="AO66">
-        <v>0.5</v>
-      </c>
-      <c r="AP66">
-        <v>0.33</v>
-      </c>
-      <c r="AQ66">
-        <v>0.67</v>
-      </c>
-      <c r="AR66">
-        <v>1.36</v>
-      </c>
-      <c r="AS66">
-        <v>1.02</v>
-      </c>
-      <c r="AT66">
-        <v>2.38</v>
-      </c>
-      <c r="AU66">
-        <v>3</v>
-      </c>
-      <c r="AV66">
-        <v>3</v>
-      </c>
-      <c r="AW66">
-        <v>7</v>
-      </c>
-      <c r="AX66">
-        <v>3</v>
-      </c>
-      <c r="AY66">
-        <v>10</v>
-      </c>
-      <c r="AZ66">
-        <v>6</v>
-      </c>
-      <c r="BA66">
-        <v>5</v>
-      </c>
-      <c r="BB66">
-        <v>7</v>
-      </c>
-      <c r="BC66">
-        <v>12</v>
-      </c>
-      <c r="BD66">
-        <v>1.85</v>
-      </c>
-      <c r="BE66">
-        <v>7.5</v>
-      </c>
-      <c r="BF66">
-        <v>2.29</v>
-      </c>
-      <c r="BG66">
-        <v>1.3</v>
-      </c>
-      <c r="BH66">
-        <v>3.05</v>
-      </c>
-      <c r="BI66">
-        <v>1.56</v>
-      </c>
-      <c r="BJ66">
-        <v>2.2</v>
-      </c>
-      <c r="BK66">
-        <v>2</v>
-      </c>
-      <c r="BL66">
-        <v>1.73</v>
-      </c>
-      <c r="BM66">
-        <v>2.55</v>
-      </c>
-      <c r="BN66">
-        <v>1.42</v>
-      </c>
-      <c r="BO66">
-        <v>3.5</v>
-      </c>
-      <c r="BP66">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:68">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>7481419</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="2">
-        <v>45557.875</v>
-      </c>
-      <c r="F67">
-        <v>6</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" t="s">
-        <v>88</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>4</v>
-      </c>
-      <c r="L67">
-        <v>4</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>5</v>
-      </c>
-      <c r="O67" t="s">
-        <v>135</v>
-      </c>
-      <c r="P67" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q67">
-        <v>3.5</v>
-      </c>
-      <c r="R67">
-        <v>1.83</v>
-      </c>
-      <c r="S67">
-        <v>4</v>
-      </c>
-      <c r="T67">
-        <v>1.67</v>
-      </c>
-      <c r="U67">
-        <v>2.1</v>
-      </c>
-      <c r="V67">
-        <v>4</v>
-      </c>
-      <c r="W67">
-        <v>1.22</v>
-      </c>
-      <c r="X67">
-        <v>15</v>
-      </c>
-      <c r="Y67">
-        <v>1.03</v>
-      </c>
-      <c r="Z67">
-        <v>2.5</v>
-      </c>
-      <c r="AA67">
-        <v>2.8</v>
-      </c>
-      <c r="AB67">
-        <v>3.15</v>
-      </c>
-      <c r="AC67">
-        <v>1.12</v>
-      </c>
-      <c r="AD67">
-        <v>5.75</v>
-      </c>
-      <c r="AE67">
-        <v>1.58</v>
-      </c>
-      <c r="AF67">
-        <v>2.23</v>
-      </c>
-      <c r="AG67">
-        <v>2.55</v>
-      </c>
-      <c r="AH67">
-        <v>1.45</v>
-      </c>
-      <c r="AI67">
-        <v>2.38</v>
-      </c>
-      <c r="AJ67">
-        <v>1.53</v>
-      </c>
-      <c r="AK67">
-        <v>1.38</v>
-      </c>
-      <c r="AL67">
-        <v>1.35</v>
-      </c>
-      <c r="AM67">
-        <v>1.48</v>
-      </c>
-      <c r="AN67">
-        <v>1.5</v>
-      </c>
-      <c r="AO67">
-        <v>0</v>
-      </c>
-      <c r="AP67">
-        <v>2</v>
-      </c>
-      <c r="AQ67">
-        <v>0</v>
-      </c>
-      <c r="AR67">
-        <v>1.16</v>
-      </c>
-      <c r="AS67">
-        <v>1.35</v>
-      </c>
-      <c r="AT67">
-        <v>2.51</v>
-      </c>
-      <c r="AU67">
-        <v>3</v>
-      </c>
-      <c r="AV67">
-        <v>5</v>
-      </c>
-      <c r="AW67">
-        <v>3</v>
-      </c>
-      <c r="AX67">
-        <v>6</v>
-      </c>
-      <c r="AY67">
-        <v>6</v>
-      </c>
-      <c r="AZ67">
-        <v>11</v>
-      </c>
-      <c r="BA67">
-        <v>3</v>
-      </c>
-      <c r="BB67">
-        <v>7</v>
-      </c>
-      <c r="BC67">
-        <v>10</v>
-      </c>
-      <c r="BD67">
-        <v>2.28</v>
-      </c>
-      <c r="BE67">
-        <v>6.55</v>
-      </c>
-      <c r="BF67">
-        <v>2.04</v>
-      </c>
-      <c r="BG67">
-        <v>1.32</v>
-      </c>
-      <c r="BH67">
-        <v>3.38</v>
-      </c>
-      <c r="BI67">
-        <v>1.54</v>
-      </c>
-      <c r="BJ67">
-        <v>2.39</v>
-      </c>
-      <c r="BK67">
-        <v>1.96</v>
-      </c>
-      <c r="BL67">
-        <v>1.79</v>
-      </c>
-      <c r="BM67">
-        <v>2.63</v>
-      </c>
-      <c r="BN67">
-        <v>1.45</v>
-      </c>
-      <c r="BO67">
-        <v>3.65</v>
-      </c>
-      <c r="BP67">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:68">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>7481422</v>
-      </c>
-      <c r="C68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="2">
-        <v>45562.64583333334</v>
-      </c>
-      <c r="F68">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68">
-        <v>3</v>
-      </c>
-      <c r="L68">
-        <v>2</v>
-      </c>
-      <c r="M68">
-        <v>5</v>
-      </c>
-      <c r="N68">
-        <v>7</v>
-      </c>
-      <c r="O68" t="s">
-        <v>136</v>
-      </c>
-      <c r="P68" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q68">
-        <v>2.88</v>
-      </c>
-      <c r="R68">
-        <v>2.12</v>
-      </c>
-      <c r="S68">
-        <v>3.78</v>
-      </c>
-      <c r="T68">
-        <v>1.4</v>
-      </c>
-      <c r="U68">
-        <v>2.82</v>
-      </c>
-      <c r="V68">
-        <v>2.86</v>
-      </c>
-      <c r="W68">
-        <v>1.39</v>
-      </c>
-      <c r="X68">
-        <v>7.3</v>
-      </c>
-      <c r="Y68">
-        <v>1.07</v>
-      </c>
-      <c r="Z68">
-        <v>2.42</v>
-      </c>
-      <c r="AA68">
-        <v>3.3</v>
-      </c>
-      <c r="AB68">
-        <v>2.98</v>
-      </c>
-      <c r="AC68">
-        <v>1.02</v>
-      </c>
-      <c r="AD68">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE68">
-        <v>1.27</v>
-      </c>
-      <c r="AF68">
-        <v>3.08</v>
-      </c>
-      <c r="AG68">
-        <v>1.93</v>
-      </c>
-      <c r="AH68">
-        <v>1.78</v>
-      </c>
-      <c r="AI68">
-        <v>1.77</v>
-      </c>
-      <c r="AJ68">
-        <v>1.98</v>
-      </c>
-      <c r="AK68">
-        <v>1.37</v>
-      </c>
-      <c r="AL68">
-        <v>1.33</v>
-      </c>
-      <c r="AM68">
-        <v>1.62</v>
-      </c>
-      <c r="AN68">
-        <v>1.5</v>
-      </c>
-      <c r="AO68">
-        <v>0.33</v>
-      </c>
-      <c r="AP68">
-        <v>1</v>
-      </c>
-      <c r="AQ68">
-        <v>1</v>
-      </c>
-      <c r="AR68">
-        <v>1.16</v>
-      </c>
-      <c r="AS68">
-        <v>1.3</v>
-      </c>
-      <c r="AT68">
-        <v>2.46</v>
-      </c>
-      <c r="AU68">
-        <v>8</v>
-      </c>
-      <c r="AV68">
-        <v>8</v>
-      </c>
-      <c r="AW68">
-        <v>9</v>
-      </c>
-      <c r="AX68">
-        <v>4</v>
-      </c>
-      <c r="AY68">
-        <v>17</v>
-      </c>
-      <c r="AZ68">
-        <v>12</v>
-      </c>
-      <c r="BA68">
-        <v>10</v>
-      </c>
-      <c r="BB68">
-        <v>3</v>
-      </c>
-      <c r="BC68">
-        <v>13</v>
-      </c>
-      <c r="BD68">
-        <v>1.82</v>
-      </c>
-      <c r="BE68">
-        <v>7.5</v>
-      </c>
-      <c r="BF68">
-        <v>2.4</v>
-      </c>
-      <c r="BG68">
-        <v>1.38</v>
-      </c>
-      <c r="BH68">
-        <v>2.71</v>
-      </c>
-      <c r="BI68">
-        <v>1.73</v>
-      </c>
-      <c r="BJ68">
-        <v>2</v>
-      </c>
-      <c r="BK68">
-        <v>1.98</v>
-      </c>
-      <c r="BL68">
-        <v>1.82</v>
-      </c>
-      <c r="BM68">
-        <v>2.82</v>
-      </c>
-      <c r="BN68">
-        <v>1.31</v>
-      </c>
-      <c r="BO68">
-        <v>4</v>
-      </c>
-      <c r="BP68">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:68">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>7481432</v>
-      </c>
-      <c r="C69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="2">
-        <v>45563.46875</v>
-      </c>
-      <c r="F69">
-        <v>7</v>
-      </c>
-      <c r="G69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>137</v>
-      </c>
-      <c r="P69" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q69">
-        <v>3.25</v>
-      </c>
-      <c r="R69">
-        <v>1.83</v>
-      </c>
-      <c r="S69">
-        <v>4</v>
-      </c>
-      <c r="T69">
-        <v>1.6</v>
-      </c>
-      <c r="U69">
-        <v>2.2</v>
-      </c>
-      <c r="V69">
-        <v>3.8</v>
-      </c>
-      <c r="W69">
-        <v>1.22</v>
-      </c>
-      <c r="X69">
-        <v>10</v>
-      </c>
-      <c r="Y69">
-        <v>1.02</v>
-      </c>
-      <c r="Z69">
-        <v>2.25</v>
-      </c>
-      <c r="AA69">
-        <v>2.8</v>
-      </c>
-      <c r="AB69">
-        <v>3.2</v>
-      </c>
-      <c r="AC69">
-        <v>1.11</v>
-      </c>
-      <c r="AD69">
-        <v>6.5</v>
-      </c>
-      <c r="AE69">
-        <v>1.61</v>
-      </c>
-      <c r="AF69">
-        <v>2.05</v>
-      </c>
-      <c r="AG69">
-        <v>2.94</v>
-      </c>
-      <c r="AH69">
-        <v>1.35</v>
-      </c>
-      <c r="AI69">
-        <v>2.2</v>
-      </c>
-      <c r="AJ69">
-        <v>1.62</v>
-      </c>
-      <c r="AK69">
-        <v>1.35</v>
-      </c>
-      <c r="AL69">
-        <v>1.44</v>
-      </c>
-      <c r="AM69">
-        <v>1.5</v>
-      </c>
-      <c r="AN69">
-        <v>2.33</v>
-      </c>
-      <c r="AO69">
-        <v>2</v>
-      </c>
-      <c r="AP69">
-        <v>2.5</v>
-      </c>
-      <c r="AQ69">
-        <v>1.5</v>
-      </c>
-      <c r="AR69">
-        <v>1.04</v>
-      </c>
-      <c r="AS69">
-        <v>1.14</v>
-      </c>
-      <c r="AT69">
-        <v>2.18</v>
-      </c>
-      <c r="AU69">
-        <v>3</v>
-      </c>
-      <c r="AV69">
-        <v>2</v>
-      </c>
-      <c r="AW69">
-        <v>7</v>
-      </c>
-      <c r="AX69">
-        <v>3</v>
-      </c>
-      <c r="AY69">
-        <v>10</v>
-      </c>
-      <c r="AZ69">
-        <v>5</v>
-      </c>
-      <c r="BA69">
-        <v>6</v>
-      </c>
-      <c r="BB69">
-        <v>2</v>
-      </c>
-      <c r="BC69">
-        <v>8</v>
-      </c>
-      <c r="BD69">
-        <v>1.85</v>
-      </c>
-      <c r="BE69">
-        <v>7.5</v>
-      </c>
-      <c r="BF69">
-        <v>2.33</v>
-      </c>
-      <c r="BG69">
-        <v>1.38</v>
-      </c>
-      <c r="BH69">
-        <v>2.88</v>
-      </c>
-      <c r="BI69">
-        <v>1.7</v>
-      </c>
-      <c r="BJ69">
-        <v>2.05</v>
-      </c>
-      <c r="BK69">
-        <v>2.05</v>
-      </c>
-      <c r="BL69">
-        <v>1.7</v>
-      </c>
-      <c r="BM69">
-        <v>2.93</v>
-      </c>
-      <c r="BN69">
-        <v>1.37</v>
-      </c>
-      <c r="BO69">
-        <v>4.15</v>
-      </c>
-      <c r="BP69">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:68">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>7481424</v>
-      </c>
-      <c r="C70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="2">
-        <v>45563.46875</v>
-      </c>
-      <c r="F70">
-        <v>7</v>
-      </c>
-      <c r="G70" t="s">
-        <v>72</v>
-      </c>
-      <c r="H70" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>2</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70" t="s">
-        <v>138</v>
-      </c>
-      <c r="P70" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q70">
-        <v>2.1</v>
-      </c>
-      <c r="R70">
-        <v>2.1</v>
-      </c>
-      <c r="S70">
-        <v>5.7</v>
-      </c>
-      <c r="T70">
-        <v>1.45</v>
-      </c>
-      <c r="U70">
-        <v>2.5</v>
-      </c>
-      <c r="V70">
-        <v>3.2</v>
-      </c>
-      <c r="W70">
-        <v>1.3</v>
-      </c>
-      <c r="X70">
-        <v>7.8</v>
-      </c>
-      <c r="Y70">
-        <v>1.05</v>
-      </c>
-      <c r="Z70">
-        <v>1.61</v>
-      </c>
-      <c r="AA70">
-        <v>3.5</v>
-      </c>
-      <c r="AB70">
-        <v>4.6</v>
-      </c>
-      <c r="AC70">
-        <v>1.04</v>
-      </c>
-      <c r="AD70">
-        <v>7.8</v>
-      </c>
-      <c r="AE70">
-        <v>1.35</v>
-      </c>
-      <c r="AF70">
-        <v>2.9</v>
-      </c>
-      <c r="AG70">
-        <v>2.15</v>
-      </c>
-      <c r="AH70">
-        <v>1.57</v>
-      </c>
-      <c r="AI70">
-        <v>2.05</v>
-      </c>
-      <c r="AJ70">
-        <v>1.67</v>
-      </c>
-      <c r="AK70">
-        <v>1.07</v>
-      </c>
-      <c r="AL70">
-        <v>1.27</v>
-      </c>
-      <c r="AM70">
-        <v>2.25</v>
-      </c>
-      <c r="AN70">
-        <v>0.67</v>
-      </c>
-      <c r="AO70">
-        <v>0.5</v>
-      </c>
-      <c r="AP70">
-        <v>0.5</v>
-      </c>
-      <c r="AQ70">
-        <v>1.33</v>
-      </c>
-      <c r="AR70">
-        <v>1.25</v>
-      </c>
-      <c r="AS70">
-        <v>1.05</v>
-      </c>
-      <c r="AT70">
-        <v>2.3</v>
-      </c>
-      <c r="AU70">
-        <v>7</v>
-      </c>
-      <c r="AV70">
-        <v>7</v>
-      </c>
-      <c r="AW70">
-        <v>8</v>
-      </c>
-      <c r="AX70">
-        <v>5</v>
-      </c>
-      <c r="AY70">
-        <v>15</v>
-      </c>
-      <c r="AZ70">
-        <v>12</v>
-      </c>
-      <c r="BA70">
-        <v>2</v>
-      </c>
-      <c r="BB70">
-        <v>4</v>
-      </c>
-      <c r="BC70">
-        <v>6</v>
-      </c>
-      <c r="BD70">
-        <v>1.37</v>
-      </c>
-      <c r="BE70">
-        <v>9</v>
-      </c>
-      <c r="BF70">
-        <v>3.83</v>
-      </c>
-      <c r="BG70">
-        <v>1.38</v>
-      </c>
-      <c r="BH70">
-        <v>2.88</v>
-      </c>
-      <c r="BI70">
-        <v>1.7</v>
-      </c>
-      <c r="BJ70">
-        <v>2.05</v>
-      </c>
-      <c r="BK70">
-        <v>2.05</v>
-      </c>
-      <c r="BL70">
-        <v>1.7</v>
-      </c>
-      <c r="BM70">
-        <v>2.93</v>
-      </c>
-      <c r="BN70">
-        <v>1.37</v>
-      </c>
-      <c r="BO70">
-        <v>4.15</v>
-      </c>
-      <c r="BP70">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:68">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>7481427</v>
-      </c>
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="2">
-        <v>45563.5625</v>
-      </c>
-      <c r="F71">
-        <v>7</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71" t="s">
-        <v>139</v>
-      </c>
-      <c r="P71" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q71">
-        <v>2.95</v>
-      </c>
-      <c r="R71">
-        <v>1.93</v>
-      </c>
-      <c r="S71">
-        <v>3.7</v>
-      </c>
-      <c r="T71">
-        <v>1.52</v>
-      </c>
-      <c r="U71">
-        <v>2.35</v>
-      </c>
-      <c r="V71">
-        <v>3.6</v>
-      </c>
-      <c r="W71">
-        <v>1.25</v>
-      </c>
-      <c r="X71">
-        <v>8.5</v>
-      </c>
-      <c r="Y71">
-        <v>1.04</v>
-      </c>
-      <c r="Z71">
-        <v>2.28</v>
-      </c>
-      <c r="AA71">
-        <v>2.85</v>
-      </c>
-      <c r="AB71">
-        <v>3.35</v>
-      </c>
-      <c r="AC71">
-        <v>1.08</v>
-      </c>
-      <c r="AD71">
-        <v>6.2</v>
-      </c>
-      <c r="AE71">
-        <v>1.49</v>
-      </c>
-      <c r="AF71">
-        <v>2.43</v>
-      </c>
-      <c r="AG71">
-        <v>2.5</v>
-      </c>
-      <c r="AH71">
-        <v>1.47</v>
-      </c>
-      <c r="AI71">
-        <v>2.05</v>
-      </c>
-      <c r="AJ71">
-        <v>1.67</v>
-      </c>
-      <c r="AK71">
-        <v>1.3</v>
-      </c>
-      <c r="AL71">
-        <v>1.4</v>
-      </c>
-      <c r="AM71">
-        <v>1.47</v>
-      </c>
-      <c r="AN71">
-        <v>1.33</v>
-      </c>
-      <c r="AO71">
-        <v>1.75</v>
-      </c>
-      <c r="AP71">
-        <v>1.75</v>
-      </c>
-      <c r="AQ71">
-        <v>1.4</v>
-      </c>
-      <c r="AR71">
-        <v>1.44</v>
-      </c>
-      <c r="AS71">
-        <v>1.42</v>
-      </c>
-      <c r="AT71">
-        <v>2.86</v>
-      </c>
-      <c r="AU71">
-        <v>9</v>
-      </c>
-      <c r="AV71">
-        <v>3</v>
-      </c>
-      <c r="AW71">
-        <v>10</v>
-      </c>
-      <c r="AX71">
-        <v>5</v>
-      </c>
-      <c r="AY71">
-        <v>19</v>
-      </c>
-      <c r="AZ71">
-        <v>8</v>
-      </c>
-      <c r="BA71">
-        <v>6</v>
-      </c>
-      <c r="BB71">
-        <v>5</v>
-      </c>
-      <c r="BC71">
-        <v>11</v>
-      </c>
-      <c r="BD71">
-        <v>1.75</v>
-      </c>
-      <c r="BE71">
-        <v>8</v>
-      </c>
-      <c r="BF71">
-        <v>2.52</v>
-      </c>
-      <c r="BG71">
-        <v>1.31</v>
-      </c>
-      <c r="BH71">
-        <v>3.3</v>
-      </c>
-      <c r="BI71">
-        <v>1.59</v>
-      </c>
-      <c r="BJ71">
-        <v>2.25</v>
-      </c>
-      <c r="BK71">
-        <v>2</v>
-      </c>
-      <c r="BL71">
-        <v>1.8</v>
-      </c>
-      <c r="BM71">
-        <v>2.54</v>
-      </c>
-      <c r="BN71">
-        <v>1.47</v>
-      </c>
-      <c r="BO71">
-        <v>3.55</v>
-      </c>
-      <c r="BP71">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:68">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>7481431</v>
-      </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="2">
-        <v>45563.66666666666</v>
-      </c>
-      <c r="F72">
-        <v>7</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H72" t="s">
-        <v>79</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>3</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="O72" t="s">
-        <v>94</v>
-      </c>
-      <c r="P72" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q72">
-        <v>3.4</v>
-      </c>
-      <c r="R72">
-        <v>2.02</v>
-      </c>
-      <c r="S72">
-        <v>3.74</v>
-      </c>
-      <c r="T72">
-        <v>1.52</v>
-      </c>
-      <c r="U72">
-        <v>2.52</v>
-      </c>
-      <c r="V72">
-        <v>3.4</v>
-      </c>
-      <c r="W72">
-        <v>1.27</v>
-      </c>
-      <c r="X72">
-        <v>7.8</v>
-      </c>
-      <c r="Y72">
-        <v>1.05</v>
-      </c>
-      <c r="Z72">
-        <v>2.55</v>
-      </c>
-      <c r="AA72">
-        <v>2.9</v>
-      </c>
-      <c r="AB72">
-        <v>2.85</v>
-      </c>
-      <c r="AC72">
-        <v>1.07</v>
-      </c>
-      <c r="AD72">
-        <v>6.5</v>
-      </c>
-      <c r="AE72">
-        <v>1.4</v>
-      </c>
-      <c r="AF72">
-        <v>2.7</v>
-      </c>
-      <c r="AG72">
-        <v>2.38</v>
-      </c>
-      <c r="AH72">
-        <v>1.52</v>
-      </c>
-      <c r="AI72">
-        <v>1.93</v>
-      </c>
-      <c r="AJ72">
-        <v>1.75</v>
-      </c>
-      <c r="AK72">
-        <v>1.37</v>
-      </c>
-      <c r="AL72">
-        <v>1.32</v>
-      </c>
-      <c r="AM72">
-        <v>1.47</v>
-      </c>
-      <c r="AN72">
-        <v>2.33</v>
-      </c>
-      <c r="AO72">
-        <v>0</v>
-      </c>
-      <c r="AP72">
-        <v>1.75</v>
-      </c>
-      <c r="AQ72">
-        <v>1</v>
-      </c>
-      <c r="AR72">
-        <v>1.35</v>
-      </c>
-      <c r="AS72">
-        <v>1.12</v>
-      </c>
-      <c r="AT72">
-        <v>2.47</v>
-      </c>
-      <c r="AU72">
-        <v>0</v>
-      </c>
-      <c r="AV72">
-        <v>8</v>
-      </c>
-      <c r="AW72">
-        <v>4</v>
-      </c>
-      <c r="AX72">
-        <v>2</v>
-      </c>
-      <c r="AY72">
-        <v>4</v>
-      </c>
-      <c r="AZ72">
-        <v>10</v>
-      </c>
-      <c r="BA72">
-        <v>4</v>
-      </c>
-      <c r="BB72">
-        <v>5</v>
-      </c>
-      <c r="BC72">
-        <v>9</v>
-      </c>
-      <c r="BD72">
-        <v>1.95</v>
-      </c>
-      <c r="BE72">
-        <v>7.5</v>
-      </c>
-      <c r="BF72">
-        <v>2.1</v>
-      </c>
-      <c r="BG72">
-        <v>1.34</v>
-      </c>
-      <c r="BH72">
-        <v>3.07</v>
-      </c>
-      <c r="BI72">
-        <v>1.7</v>
-      </c>
-      <c r="BJ72">
-        <v>2.05</v>
-      </c>
-      <c r="BK72">
-        <v>2.1</v>
-      </c>
-      <c r="BL72">
-        <v>1.67</v>
-      </c>
-      <c r="BM72">
-        <v>2.75</v>
-      </c>
-      <c r="BN72">
-        <v>1.42</v>
-      </c>
-      <c r="BO72">
-        <v>3.82</v>
-      </c>
-      <c r="BP72">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:68">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>7481423</v>
-      </c>
-      <c r="C73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="2">
-        <v>45563.875</v>
-      </c>
-      <c r="F73">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s">
-        <v>78</v>
-      </c>
-      <c r="H73" t="s">
-        <v>70</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>2</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>4</v>
-      </c>
-      <c r="O73" t="s">
-        <v>140</v>
-      </c>
-      <c r="P73" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q73">
-        <v>2.93</v>
-      </c>
-      <c r="R73">
-        <v>2.12</v>
-      </c>
-      <c r="S73">
-        <v>3.56</v>
-      </c>
-      <c r="T73">
-        <v>1.4</v>
-      </c>
-      <c r="U73">
-        <v>2.82</v>
-      </c>
-      <c r="V73">
-        <v>2.86</v>
-      </c>
-      <c r="W73">
-        <v>1.39</v>
-      </c>
-      <c r="X73">
-        <v>7.3</v>
-      </c>
-      <c r="Y73">
-        <v>1.07</v>
-      </c>
-      <c r="Z73">
-        <v>2.37</v>
-      </c>
-      <c r="AA73">
-        <v>2.87</v>
-      </c>
-      <c r="AB73">
-        <v>2.87</v>
-      </c>
-      <c r="AC73">
-        <v>1.01</v>
-      </c>
-      <c r="AD73">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE73">
-        <v>1.26</v>
-      </c>
-      <c r="AF73">
-        <v>3.14</v>
-      </c>
-      <c r="AG73">
-        <v>1.91</v>
-      </c>
-      <c r="AH73">
-        <v>1.75</v>
-      </c>
-      <c r="AI73">
-        <v>1.76</v>
-      </c>
-      <c r="AJ73">
-        <v>2</v>
-      </c>
-      <c r="AK73">
-        <v>1.4</v>
-      </c>
-      <c r="AL73">
-        <v>1.32</v>
-      </c>
-      <c r="AM73">
-        <v>1.59</v>
-      </c>
-      <c r="AN73">
-        <v>2</v>
-      </c>
-      <c r="AO73">
-        <v>2</v>
-      </c>
-      <c r="AP73">
-        <v>1.75</v>
-      </c>
-      <c r="AQ73">
-        <v>1.67</v>
-      </c>
-      <c r="AR73">
-        <v>1.54</v>
-      </c>
-      <c r="AS73">
-        <v>1.35</v>
-      </c>
-      <c r="AT73">
-        <v>2.89</v>
-      </c>
-      <c r="AU73">
-        <v>3</v>
-      </c>
-      <c r="AV73">
-        <v>3</v>
-      </c>
-      <c r="AW73">
-        <v>1</v>
-      </c>
-      <c r="AX73">
-        <v>4</v>
-      </c>
-      <c r="AY73">
-        <v>4</v>
-      </c>
-      <c r="AZ73">
-        <v>7</v>
-      </c>
-      <c r="BA73">
-        <v>6</v>
-      </c>
-      <c r="BB73">
-        <v>3</v>
-      </c>
-      <c r="BC73">
-        <v>9</v>
-      </c>
-      <c r="BD73">
-        <v>1.75</v>
-      </c>
-      <c r="BE73">
-        <v>8</v>
-      </c>
-      <c r="BF73">
-        <v>2.44</v>
-      </c>
-      <c r="BG73">
-        <v>1.31</v>
-      </c>
-      <c r="BH73">
-        <v>3.3</v>
-      </c>
-      <c r="BI73">
-        <v>1.56</v>
-      </c>
-      <c r="BJ73">
-        <v>2.34</v>
-      </c>
-      <c r="BK73">
-        <v>2</v>
-      </c>
-      <c r="BL73">
-        <v>1.8</v>
-      </c>
-      <c r="BM73">
-        <v>2.57</v>
-      </c>
-      <c r="BN73">
-        <v>1.47</v>
-      </c>
-      <c r="BO73">
-        <v>3.55</v>
-      </c>
-      <c r="BP73">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:68">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>7481428</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="2">
-        <v>45564.375</v>
-      </c>
-      <c r="F74">
-        <v>7</v>
-      </c>
-      <c r="G74" t="s">
-        <v>82</v>
-      </c>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74">
-        <v>2</v>
-      </c>
-      <c r="K74">
-        <v>4</v>
-      </c>
-      <c r="L74">
-        <v>4</v>
-      </c>
-      <c r="M74">
-        <v>2</v>
-      </c>
-      <c r="N74">
-        <v>6</v>
-      </c>
-      <c r="O74" t="s">
-        <v>141</v>
-      </c>
-      <c r="P74" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q74">
-        <v>3.1</v>
-      </c>
-      <c r="R74">
-        <v>2.25</v>
-      </c>
-      <c r="S74">
-        <v>3.2</v>
-      </c>
-      <c r="T74">
-        <v>1.33</v>
-      </c>
-      <c r="U74">
-        <v>3.25</v>
-      </c>
-      <c r="V74">
-        <v>2.63</v>
-      </c>
-      <c r="W74">
-        <v>1.44</v>
-      </c>
-      <c r="X74">
-        <v>6.5</v>
-      </c>
-      <c r="Y74">
-        <v>1.11</v>
-      </c>
-      <c r="Z74">
-        <v>2.37</v>
-      </c>
-      <c r="AA74">
-        <v>3.4</v>
-      </c>
-      <c r="AB74">
-        <v>2.5</v>
-      </c>
-      <c r="AC74">
-        <v>1.01</v>
-      </c>
-      <c r="AD74">
-        <v>11</v>
-      </c>
-      <c r="AE74">
-        <v>1.2</v>
-      </c>
-      <c r="AF74">
-        <v>4</v>
-      </c>
-      <c r="AG74">
-        <v>1.67</v>
-      </c>
-      <c r="AH74">
-        <v>2</v>
-      </c>
-      <c r="AI74">
-        <v>1.57</v>
-      </c>
-      <c r="AJ74">
-        <v>2.25</v>
-      </c>
-      <c r="AK74">
-        <v>1.35</v>
-      </c>
-      <c r="AL74">
-        <v>1.3</v>
-      </c>
-      <c r="AM74">
-        <v>1.52</v>
-      </c>
-      <c r="AN74">
-        <v>2</v>
-      </c>
-      <c r="AO74">
-        <v>1.33</v>
-      </c>
-      <c r="AP74">
-        <v>2.33</v>
-      </c>
-      <c r="AQ74">
-        <v>1</v>
-      </c>
-      <c r="AR74">
-        <v>2.06</v>
-      </c>
-      <c r="AS74">
-        <v>1.44</v>
-      </c>
-      <c r="AT74">
-        <v>3.5</v>
-      </c>
-      <c r="AU74">
-        <v>9</v>
-      </c>
-      <c r="AV74">
-        <v>5</v>
-      </c>
-      <c r="AW74">
-        <v>5</v>
-      </c>
-      <c r="AX74">
-        <v>8</v>
-      </c>
-      <c r="AY74">
-        <v>14</v>
-      </c>
-      <c r="AZ74">
-        <v>13</v>
-      </c>
-      <c r="BA74">
-        <v>5</v>
-      </c>
-      <c r="BB74">
-        <v>4</v>
-      </c>
-      <c r="BC74">
-        <v>9</v>
-      </c>
-      <c r="BD74">
-        <v>1.82</v>
-      </c>
-      <c r="BE74">
-        <v>8</v>
-      </c>
-      <c r="BF74">
-        <v>2.33</v>
-      </c>
-      <c r="BG74">
-        <v>1.27</v>
-      </c>
-      <c r="BH74">
-        <v>3.52</v>
-      </c>
-      <c r="BI74">
-        <v>1.5</v>
-      </c>
-      <c r="BJ74">
-        <v>2.48</v>
-      </c>
-      <c r="BK74">
-        <v>1.88</v>
-      </c>
-      <c r="BL74">
-        <v>1.92</v>
-      </c>
-      <c r="BM74">
-        <v>2.41</v>
-      </c>
-      <c r="BN74">
-        <v>1.53</v>
-      </c>
-      <c r="BO74">
-        <v>3.3</v>
-      </c>
-      <c r="BP74">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:68">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>7481425</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="2">
-        <v>45564.46875</v>
-      </c>
-      <c r="F75">
-        <v>7</v>
-      </c>
-      <c r="G75" t="s">
-        <v>86</v>
-      </c>
-      <c r="H75" t="s">
-        <v>84</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>2</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75" t="s">
-        <v>142</v>
-      </c>
-      <c r="P75" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q75">
-        <v>2.4</v>
-      </c>
-      <c r="R75">
-        <v>2.2</v>
-      </c>
-      <c r="S75">
-        <v>4.75</v>
-      </c>
-      <c r="T75">
-        <v>1.4</v>
-      </c>
-      <c r="U75">
-        <v>2.75</v>
-      </c>
-      <c r="V75">
-        <v>2.75</v>
-      </c>
-      <c r="W75">
-        <v>1.4</v>
-      </c>
-      <c r="X75">
-        <v>8</v>
-      </c>
-      <c r="Y75">
-        <v>1.08</v>
-      </c>
-      <c r="Z75">
-        <v>1.73</v>
-      </c>
-      <c r="AA75">
-        <v>3.4</v>
-      </c>
-      <c r="AB75">
-        <v>4</v>
-      </c>
-      <c r="AC75">
-        <v>1.05</v>
-      </c>
-      <c r="AD75">
-        <v>9</v>
-      </c>
-      <c r="AE75">
-        <v>1.3</v>
-      </c>
-      <c r="AF75">
-        <v>3.35</v>
-      </c>
-      <c r="AG75">
-        <v>1.91</v>
-      </c>
-      <c r="AH75">
-        <v>1.75</v>
-      </c>
-      <c r="AI75">
-        <v>1.83</v>
-      </c>
-      <c r="AJ75">
-        <v>1.83</v>
-      </c>
-      <c r="AK75">
-        <v>1.2</v>
-      </c>
-      <c r="AL75">
-        <v>1.22</v>
-      </c>
-      <c r="AM75">
-        <v>2</v>
-      </c>
-      <c r="AN75">
-        <v>0.33</v>
-      </c>
-      <c r="AO75">
-        <v>0.33</v>
-      </c>
-      <c r="AP75">
-        <v>1</v>
-      </c>
-      <c r="AQ75">
-        <v>0.25</v>
-      </c>
-      <c r="AR75">
-        <v>1.39</v>
-      </c>
-      <c r="AS75">
-        <v>1.04</v>
-      </c>
-      <c r="AT75">
-        <v>2.43</v>
-      </c>
-      <c r="AU75">
-        <v>8</v>
-      </c>
-      <c r="AV75">
-        <v>7</v>
-      </c>
-      <c r="AW75">
-        <v>4</v>
-      </c>
-      <c r="AX75">
-        <v>5</v>
-      </c>
-      <c r="AY75">
-        <v>12</v>
-      </c>
-      <c r="AZ75">
-        <v>12</v>
-      </c>
-      <c r="BA75">
-        <v>7</v>
-      </c>
-      <c r="BB75">
-        <v>4</v>
-      </c>
-      <c r="BC75">
-        <v>11</v>
-      </c>
-      <c r="BD75">
-        <v>1.45</v>
-      </c>
-      <c r="BE75">
-        <v>8.5</v>
-      </c>
-      <c r="BF75">
-        <v>3.46</v>
-      </c>
-      <c r="BG75">
-        <v>1.36</v>
-      </c>
-      <c r="BH75">
-        <v>2.98</v>
-      </c>
-      <c r="BI75">
-        <v>1.7</v>
-      </c>
-      <c r="BJ75">
-        <v>2.05</v>
-      </c>
-      <c r="BK75">
-        <v>2.05</v>
-      </c>
-      <c r="BL75">
-        <v>1.7</v>
-      </c>
-      <c r="BM75">
-        <v>2.83</v>
-      </c>
-      <c r="BN75">
-        <v>1.39</v>
-      </c>
-      <c r="BO75">
-        <v>3.98</v>
-      </c>
-      <c r="BP75">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:68">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>7481426</v>
-      </c>
-      <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="2">
-        <v>45564.5625</v>
-      </c>
-      <c r="F76">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" t="s">
-        <v>73</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>3</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>4</v>
-      </c>
-      <c r="O76" t="s">
-        <v>143</v>
-      </c>
-      <c r="P76" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q76">
-        <v>2.62</v>
-      </c>
-      <c r="R76">
-        <v>2</v>
-      </c>
-      <c r="S76">
-        <v>4.5</v>
-      </c>
-      <c r="T76">
-        <v>1.5</v>
-      </c>
-      <c r="U76">
-        <v>2.4</v>
-      </c>
-      <c r="V76">
-        <v>3.3</v>
-      </c>
-      <c r="W76">
-        <v>1.29</v>
-      </c>
-      <c r="X76">
-        <v>8.5</v>
-      </c>
-      <c r="Y76">
-        <v>1.04</v>
-      </c>
-      <c r="Z76">
-        <v>1.91</v>
-      </c>
-      <c r="AA76">
-        <v>3.1</v>
-      </c>
-      <c r="AB76">
-        <v>4.1</v>
-      </c>
-      <c r="AC76">
-        <v>1.08</v>
-      </c>
-      <c r="AD76">
-        <v>6.5</v>
-      </c>
-      <c r="AE76">
-        <v>1.48</v>
-      </c>
-      <c r="AF76">
-        <v>2.5</v>
-      </c>
-      <c r="AG76">
-        <v>2.43</v>
-      </c>
-      <c r="AH76">
-        <v>1.5</v>
-      </c>
-      <c r="AI76">
-        <v>2.1</v>
-      </c>
-      <c r="AJ76">
-        <v>1.65</v>
-      </c>
-      <c r="AK76">
-        <v>1.25</v>
-      </c>
-      <c r="AL76">
-        <v>1.33</v>
-      </c>
-      <c r="AM76">
-        <v>1.83</v>
-      </c>
-      <c r="AN76">
-        <v>1.67</v>
-      </c>
-      <c r="AO76">
-        <v>0.5</v>
-      </c>
-      <c r="AP76">
-        <v>2</v>
-      </c>
-      <c r="AQ76">
-        <v>0.33</v>
-      </c>
-      <c r="AR76">
-        <v>1.57</v>
-      </c>
-      <c r="AS76">
-        <v>0.88</v>
-      </c>
-      <c r="AT76">
-        <v>2.45</v>
-      </c>
-      <c r="AU76">
-        <v>6</v>
-      </c>
-      <c r="AV76">
-        <v>4</v>
-      </c>
-      <c r="AW76">
-        <v>8</v>
-      </c>
-      <c r="AX76">
-        <v>4</v>
-      </c>
-      <c r="AY76">
-        <v>14</v>
-      </c>
-      <c r="AZ76">
-        <v>8</v>
-      </c>
-      <c r="BA76">
-        <v>6</v>
-      </c>
-      <c r="BB76">
-        <v>4</v>
-      </c>
-      <c r="BC76">
-        <v>10</v>
-      </c>
-      <c r="BD76">
-        <v>1.51</v>
-      </c>
-      <c r="BE76">
-        <v>8.5</v>
-      </c>
-      <c r="BF76">
-        <v>3.16</v>
-      </c>
-      <c r="BG76">
-        <v>1.31</v>
-      </c>
-      <c r="BH76">
-        <v>3.3</v>
-      </c>
-      <c r="BI76">
-        <v>1.56</v>
-      </c>
-      <c r="BJ76">
-        <v>2.34</v>
-      </c>
-      <c r="BK76">
-        <v>2</v>
-      </c>
-      <c r="BL76">
-        <v>1.8</v>
-      </c>
-      <c r="BM76">
-        <v>2.57</v>
-      </c>
-      <c r="BN76">
-        <v>1.47</v>
-      </c>
-      <c r="BO76">
-        <v>3.55</v>
-      </c>
-      <c r="BP76">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:68">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>7481430</v>
-      </c>
-      <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="2">
-        <v>45564.5625</v>
-      </c>
-      <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" t="s">
-        <v>74</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
-        <v>144</v>
-      </c>
-      <c r="P77" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q77">
-        <v>2.88</v>
-      </c>
-      <c r="R77">
-        <v>1.91</v>
-      </c>
-      <c r="S77">
-        <v>4</v>
-      </c>
-      <c r="T77">
-        <v>1.56</v>
-      </c>
-      <c r="U77">
-        <v>2.29</v>
-      </c>
-      <c r="V77">
-        <v>3.6</v>
-      </c>
-      <c r="W77">
-        <v>1.25</v>
-      </c>
-      <c r="X77">
-        <v>9.85</v>
-      </c>
-      <c r="Y77">
-        <v>1.03</v>
-      </c>
-      <c r="Z77">
-        <v>2.14</v>
-      </c>
-      <c r="AA77">
-        <v>2.9</v>
-      </c>
-      <c r="AB77">
-        <v>3.65</v>
-      </c>
-      <c r="AC77">
-        <v>1.07</v>
-      </c>
-      <c r="AD77">
-        <v>7</v>
-      </c>
-      <c r="AE77">
-        <v>1.44</v>
-      </c>
-      <c r="AF77">
-        <v>2.6</v>
-      </c>
-      <c r="AG77">
-        <v>2.43</v>
-      </c>
-      <c r="AH77">
-        <v>1.5</v>
-      </c>
-      <c r="AI77">
-        <v>2.1</v>
-      </c>
-      <c r="AJ77">
-        <v>1.67</v>
-      </c>
-      <c r="AK77">
-        <v>1.25</v>
-      </c>
-      <c r="AL77">
-        <v>1.37</v>
-      </c>
-      <c r="AM77">
-        <v>1.57</v>
-      </c>
-      <c r="AN77">
-        <v>1.5</v>
-      </c>
-      <c r="AO77">
-        <v>1.67</v>
-      </c>
-      <c r="AP77">
-        <v>2</v>
-      </c>
-      <c r="AQ77">
-        <v>1.25</v>
-      </c>
-      <c r="AR77">
-        <v>1.33</v>
-      </c>
-      <c r="AS77">
-        <v>1.09</v>
-      </c>
-      <c r="AT77">
-        <v>2.42</v>
-      </c>
-      <c r="AU77">
-        <v>6</v>
-      </c>
-      <c r="AV77">
-        <v>3</v>
-      </c>
-      <c r="AW77">
-        <v>8</v>
-      </c>
-      <c r="AX77">
-        <v>3</v>
-      </c>
-      <c r="AY77">
-        <v>14</v>
-      </c>
-      <c r="AZ77">
-        <v>6</v>
-      </c>
-      <c r="BA77">
-        <v>7</v>
-      </c>
-      <c r="BB77">
-        <v>4</v>
-      </c>
-      <c r="BC77">
-        <v>11</v>
-      </c>
-      <c r="BD77">
-        <v>1.75</v>
-      </c>
-      <c r="BE77">
-        <v>8</v>
-      </c>
-      <c r="BF77">
-        <v>2.44</v>
-      </c>
-      <c r="BG77">
-        <v>1.27</v>
-      </c>
-      <c r="BH77">
-        <v>3.52</v>
-      </c>
-      <c r="BI77">
-        <v>1.53</v>
-      </c>
-      <c r="BJ77">
-        <v>2.4</v>
-      </c>
-      <c r="BK77">
-        <v>1.85</v>
-      </c>
-      <c r="BL77">
-        <v>1.95</v>
-      </c>
-      <c r="BM77">
-        <v>2.4</v>
-      </c>
-      <c r="BN77">
-        <v>1.53</v>
-      </c>
-      <c r="BO77">
-        <v>3.3</v>
-      </c>
-      <c r="BP77">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:68">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>7481429</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="2">
-        <v>45565.64583333334</v>
-      </c>
-      <c r="F78">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
-        <v>76</v>
-      </c>
-      <c r="H78" t="s">
-        <v>87</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78" t="s">
-        <v>145</v>
-      </c>
-      <c r="P78" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q78">
-        <v>2.05</v>
-      </c>
-      <c r="R78">
-        <v>2.3</v>
-      </c>
-      <c r="S78">
-        <v>6.5</v>
-      </c>
-      <c r="T78">
-        <v>1.36</v>
-      </c>
-      <c r="U78">
-        <v>3</v>
-      </c>
-      <c r="V78">
-        <v>2.75</v>
-      </c>
-      <c r="W78">
-        <v>1.4</v>
-      </c>
-      <c r="X78">
-        <v>7</v>
-      </c>
-      <c r="Y78">
-        <v>1.1</v>
-      </c>
-      <c r="Z78">
-        <v>1.5</v>
-      </c>
-      <c r="AA78">
-        <v>4.1</v>
-      </c>
-      <c r="AB78">
-        <v>5.5</v>
-      </c>
-      <c r="AC78">
-        <v>1.01</v>
-      </c>
-      <c r="AD78">
-        <v>12.5</v>
-      </c>
-      <c r="AE78">
-        <v>1.23</v>
-      </c>
-      <c r="AF78">
-        <v>3.34</v>
-      </c>
-      <c r="AG78">
-        <v>1.9</v>
-      </c>
-      <c r="AH78">
-        <v>1.91</v>
-      </c>
-      <c r="AI78">
-        <v>2</v>
-      </c>
-      <c r="AJ78">
-        <v>1.73</v>
-      </c>
-      <c r="AK78">
-        <v>1.12</v>
-      </c>
-      <c r="AL78">
-        <v>1.22</v>
-      </c>
-      <c r="AM78">
-        <v>2.55</v>
-      </c>
-      <c r="AN78">
-        <v>1.67</v>
-      </c>
-      <c r="AO78">
-        <v>1</v>
-      </c>
-      <c r="AP78">
-        <v>1.25</v>
-      </c>
-      <c r="AQ78">
-        <v>1.5</v>
-      </c>
-      <c r="AR78">
-        <v>1.42</v>
-      </c>
-      <c r="AS78">
-        <v>0.87</v>
-      </c>
-      <c r="AT78">
-        <v>2.29</v>
-      </c>
-      <c r="AU78">
-        <v>4</v>
-      </c>
-      <c r="AV78">
-        <v>3</v>
-      </c>
-      <c r="AW78">
-        <v>11</v>
-      </c>
-      <c r="AX78">
-        <v>6</v>
-      </c>
-      <c r="AY78">
-        <v>15</v>
-      </c>
-      <c r="AZ78">
-        <v>9</v>
-      </c>
-      <c r="BA78">
-        <v>6</v>
-      </c>
-      <c r="BB78">
-        <v>1</v>
-      </c>
-      <c r="BC78">
-        <v>7</v>
-      </c>
-      <c r="BD78">
-        <v>1.26</v>
-      </c>
-      <c r="BE78">
-        <v>11</v>
-      </c>
-      <c r="BF78">
-        <v>4.35</v>
-      </c>
-      <c r="BG78">
-        <v>1.27</v>
-      </c>
-      <c r="BH78">
-        <v>3.52</v>
-      </c>
-      <c r="BI78">
-        <v>1.5</v>
-      </c>
-      <c r="BJ78">
-        <v>2.48</v>
-      </c>
-      <c r="BK78">
-        <v>1.86</v>
-      </c>
-      <c r="BL78">
-        <v>1.88</v>
-      </c>
-      <c r="BM78">
-        <v>2.41</v>
-      </c>
-      <c r="BN78">
-        <v>1.53</v>
-      </c>
-      <c r="BO78">
-        <v>3.3</v>
-      </c>
-      <c r="BP78">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,48 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['16', '85']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['57', '80']</t>
+  </si>
+  <si>
+    <t>['13', '29', '31', '89']</t>
+  </si>
+  <si>
+    <t>['4', '76']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['2', '15', '51', '74']</t>
+  </si>
+  <si>
+    <t>['72', '77']</t>
+  </si>
+  <si>
+    <t>['20', '71']</t>
+  </si>
+  <si>
+    <t>['43', '71', '84']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['74']</t>
   </si>
   <si>
@@ -466,9 +508,6 @@
     <t>['26', '54']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -509,6 +548,30 @@
   </si>
   <si>
     <t>['48', '78', '90+1', '90+7']</t>
+  </si>
+  <si>
+    <t>['88', '90+7']</t>
+  </si>
+  <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['25', '55']</t>
+  </si>
+  <si>
+    <t>['9', '12', '61', '74', '80']</t>
+  </si>
+  <si>
+    <t>['20', '72']</t>
+  </si>
+  <si>
+    <t>['3', '49', '77']</t>
+  </si>
+  <si>
+    <t>['17', '45+2']</t>
+  </si>
+  <si>
+    <t>['51', '73']</t>
   </si>
   <si>
     <t>['45', '58']</t>
@@ -873,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1195,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1237,10 +1300,10 @@
         <v>2</v>
       </c>
       <c r="AY2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>9</v>
@@ -1416,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1443,10 +1506,10 @@
         <v>7</v>
       </c>
       <c r="AY3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BA3">
         <v>2</v>
@@ -1544,7 +1607,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1622,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1649,10 +1712,10 @@
         <v>3</v>
       </c>
       <c r="AY4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -1750,7 +1813,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1855,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="AY5">
+        <v>14</v>
+      </c>
+      <c r="AZ5">
         <v>10</v>
-      </c>
-      <c r="AZ5">
-        <v>8</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2061,10 +2124,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA6">
         <v>3</v>
@@ -2162,7 +2225,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2240,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2267,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="AY7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA7">
         <v>3</v>
@@ -2368,7 +2431,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2449,7 +2512,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2473,10 +2536,10 @@
         <v>10</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA8">
         <v>5</v>
@@ -2574,7 +2637,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2652,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2679,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="AY9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA9">
         <v>7</v>
@@ -2780,7 +2843,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2858,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -2885,10 +2948,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
+        <v>13</v>
+      </c>
+      <c r="AZ10">
         <v>11</v>
-      </c>
-      <c r="AZ10">
-        <v>9</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -2986,7 +3049,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3064,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3091,10 +3154,10 @@
         <v>2</v>
       </c>
       <c r="AY11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA11">
         <v>3</v>
@@ -3192,7 +3255,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3273,7 +3336,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3297,10 +3360,10 @@
         <v>6</v>
       </c>
       <c r="AY12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA12">
         <v>7</v>
@@ -3398,7 +3461,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3479,7 +3542,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3503,10 +3566,10 @@
         <v>8</v>
       </c>
       <c r="AY13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA13">
         <v>7</v>
@@ -3604,7 +3667,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3682,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3709,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="AY14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA14">
         <v>3</v>
@@ -3888,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
+        <v>1.75</v>
+      </c>
+      <c r="AQ15">
         <v>1.33</v>
-      </c>
-      <c r="AQ15">
-        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -3915,7 +3978,7 @@
         <v>7</v>
       </c>
       <c r="AY15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ15">
         <v>12</v>
@@ -4097,7 +4160,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4121,10 +4184,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA16">
         <v>7</v>
@@ -4222,7 +4285,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4300,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4327,10 +4390,10 @@
         <v>6</v>
       </c>
       <c r="AY17">
+        <v>17</v>
+      </c>
+      <c r="AZ17">
         <v>15</v>
-      </c>
-      <c r="AZ17">
-        <v>14</v>
       </c>
       <c r="BA17">
         <v>6</v>
@@ -4506,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4533,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA18">
         <v>2</v>
@@ -4634,7 +4697,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4712,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4742,7 +4805,7 @@
         <v>12</v>
       </c>
       <c r="AZ19">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BA19">
         <v>4</v>
@@ -4918,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -4948,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="AZ20">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA20">
         <v>0</v>
@@ -5124,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5151,10 +5214,10 @@
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA21">
         <v>10</v>
@@ -5252,7 +5315,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5333,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5357,10 +5420,10 @@
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA22">
         <v>5</v>
@@ -5458,7 +5521,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5536,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5563,10 +5626,10 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA23">
         <v>4</v>
@@ -5664,7 +5727,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5745,7 +5808,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -5769,10 +5832,10 @@
         <v>7</v>
       </c>
       <c r="AY24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA24">
         <v>5</v>
@@ -5870,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5948,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -5975,10 +6038,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6076,7 +6139,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6154,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6181,10 +6244,10 @@
         <v>3</v>
       </c>
       <c r="AY26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA26">
         <v>3</v>
@@ -6282,7 +6345,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6360,10 +6423,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6387,10 +6450,10 @@
         <v>2</v>
       </c>
       <c r="AY27">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA27">
         <v>10</v>
@@ -6488,7 +6551,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6566,7 +6629,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6593,10 +6656,10 @@
         <v>4</v>
       </c>
       <c r="AY28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA28">
         <v>8</v>
@@ -6694,7 +6757,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -6772,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -6799,10 +6862,10 @@
         <v>5</v>
       </c>
       <c r="AY29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA29">
         <v>8</v>
@@ -6978,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7005,10 +7068,10 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA30">
         <v>9</v>
@@ -7106,7 +7169,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7211,10 +7274,10 @@
         <v>3</v>
       </c>
       <c r="AY31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA31">
         <v>7</v>
@@ -7390,10 +7453,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7417,10 +7480,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AZ32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA32">
         <v>6</v>
@@ -7518,7 +7581,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7599,7 +7662,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -7623,10 +7686,10 @@
         <v>2</v>
       </c>
       <c r="AY33">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA33">
         <v>10</v>
@@ -7802,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7829,10 +7892,10 @@
         <v>1</v>
       </c>
       <c r="AY34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA34">
         <v>5</v>
@@ -7930,7 +7993,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8008,7 +8071,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8035,10 +8098,10 @@
         <v>7</v>
       </c>
       <c r="AY35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ35">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8136,7 +8199,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8217,7 +8280,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.09</v>
@@ -8241,10 +8304,10 @@
         <v>2</v>
       </c>
       <c r="AY36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>4</v>
@@ -8420,10 +8483,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8447,10 +8510,10 @@
         <v>4</v>
       </c>
       <c r="AY37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA37">
         <v>4</v>
@@ -8548,7 +8611,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8626,7 +8689,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -8656,7 +8719,7 @@
         <v>11</v>
       </c>
       <c r="AZ38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA38">
         <v>1</v>
@@ -8832,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8859,7 +8922,7 @@
         <v>2</v>
       </c>
       <c r="AY39">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ39">
         <v>4</v>
@@ -9041,7 +9104,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9065,10 +9128,10 @@
         <v>3</v>
       </c>
       <c r="AY40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA40">
         <v>2</v>
@@ -9166,7 +9229,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9247,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9271,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="AY41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
         <v>11</v>
@@ -9453,7 +9516,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -9477,10 +9540,10 @@
         <v>5</v>
       </c>
       <c r="AY42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -9659,7 +9722,7 @@
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -9683,10 +9746,10 @@
         <v>2</v>
       </c>
       <c r="AY43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA43">
         <v>6</v>
@@ -9784,7 +9847,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9862,10 +9925,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -9889,10 +9952,10 @@
         <v>3</v>
       </c>
       <c r="AY44">
+        <v>17</v>
+      </c>
+      <c r="AZ44">
         <v>10</v>
-      </c>
-      <c r="AZ44">
-        <v>9</v>
       </c>
       <c r="BA44">
         <v>3</v>
@@ -9990,7 +10053,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10068,10 +10131,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10095,10 +10158,10 @@
         <v>5</v>
       </c>
       <c r="AY45">
+        <v>19</v>
+      </c>
+      <c r="AZ45">
         <v>11</v>
-      </c>
-      <c r="AZ45">
-        <v>7</v>
       </c>
       <c r="BA45">
         <v>4</v>
@@ -10274,10 +10337,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10301,10 +10364,10 @@
         <v>6</v>
       </c>
       <c r="AY46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ46">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA46">
         <v>6</v>
@@ -10483,7 +10546,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -10510,7 +10573,7 @@
         <v>6</v>
       </c>
       <c r="AZ47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA47">
         <v>4</v>
@@ -10608,7 +10671,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -10686,10 +10749,10 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.72</v>
@@ -10713,10 +10776,10 @@
         <v>1</v>
       </c>
       <c r="AY48">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AZ48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA48">
         <v>9</v>
@@ -10892,10 +10955,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -10919,10 +10982,10 @@
         <v>6</v>
       </c>
       <c r="AY49">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA49">
         <v>2</v>
@@ -11101,7 +11164,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -11125,10 +11188,10 @@
         <v>5</v>
       </c>
       <c r="AY50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA50">
         <v>5</v>
@@ -11304,7 +11367,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11331,10 +11394,10 @@
         <v>3</v>
       </c>
       <c r="AY51">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11510,7 +11573,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11537,10 +11600,10 @@
         <v>1</v>
       </c>
       <c r="AY52">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA52">
         <v>6</v>
@@ -11716,10 +11779,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR53">
         <v>1.24</v>
@@ -11743,10 +11806,10 @@
         <v>6</v>
       </c>
       <c r="AY53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ53">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -11922,10 +11985,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -11949,10 +12012,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12050,7 +12113,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12128,10 +12191,10 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12155,10 +12218,10 @@
         <v>5</v>
       </c>
       <c r="AY55">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA55">
         <v>3</v>
@@ -12256,7 +12319,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12334,7 +12397,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12361,10 +12424,10 @@
         <v>2</v>
       </c>
       <c r="AY56">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA56">
         <v>5</v>
@@ -12462,7 +12525,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12567,10 +12630,10 @@
         <v>6</v>
       </c>
       <c r="AY57">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA57">
         <v>5</v>
@@ -12668,7 +12731,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -12773,10 +12836,10 @@
         <v>7</v>
       </c>
       <c r="AY58">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ58">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA58">
         <v>6</v>
@@ -12979,10 +13042,10 @@
         <v>3</v>
       </c>
       <c r="AY59">
+        <v>15</v>
+      </c>
+      <c r="AZ59">
         <v>11</v>
-      </c>
-      <c r="AZ59">
-        <v>9</v>
       </c>
       <c r="BA59">
         <v>7</v>
@@ -13038,7 +13101,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7481429</v>
+        <v>7481417</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13047,94 +13110,94 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45565.64583333334</v>
+        <v>45556.5625</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>2</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q60">
+        <v>2.5</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>4.5</v>
+      </c>
+      <c r="T60">
+        <v>1.46</v>
+      </c>
+      <c r="U60">
+        <v>2.72</v>
+      </c>
+      <c r="V60">
+        <v>3.32</v>
+      </c>
+      <c r="W60">
+        <v>1.33</v>
+      </c>
+      <c r="X60">
+        <v>8.4</v>
+      </c>
+      <c r="Y60">
+        <v>1.05</v>
+      </c>
+      <c r="Z60">
+        <v>1.91</v>
+      </c>
+      <c r="AA60">
+        <v>3.2</v>
+      </c>
+      <c r="AB60">
+        <v>4</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.36</v>
+      </c>
+      <c r="AF60">
+        <v>2.88</v>
+      </c>
+      <c r="AG60">
         <v>2.05</v>
       </c>
-      <c r="R60">
-        <v>2.3</v>
-      </c>
-      <c r="S60">
-        <v>6.5</v>
-      </c>
-      <c r="T60">
-        <v>1.36</v>
-      </c>
-      <c r="U60">
-        <v>3</v>
-      </c>
-      <c r="V60">
-        <v>2.75</v>
-      </c>
-      <c r="W60">
-        <v>1.4</v>
-      </c>
-      <c r="X60">
-        <v>7</v>
-      </c>
-      <c r="Y60">
-        <v>1.1</v>
-      </c>
-      <c r="Z60">
-        <v>1.5</v>
-      </c>
-      <c r="AA60">
-        <v>4.1</v>
-      </c>
-      <c r="AB60">
-        <v>5.5</v>
-      </c>
-      <c r="AC60">
-        <v>1.01</v>
-      </c>
-      <c r="AD60">
-        <v>12.5</v>
-      </c>
-      <c r="AE60">
-        <v>1.23</v>
-      </c>
-      <c r="AF60">
-        <v>3.34</v>
-      </c>
-      <c r="AG60">
-        <v>1.9</v>
-      </c>
       <c r="AH60">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AI60">
         <v>2</v>
@@ -13143,99 +13206,3807 @@
         <v>1.73</v>
       </c>
       <c r="AK60">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AL60">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AM60">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="AN60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR60">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AS60">
-        <v>0.87</v>
+        <v>1.37</v>
       </c>
       <c r="AT60">
-        <v>2.29</v>
+        <v>2.84</v>
       </c>
       <c r="AU60">
         <v>4</v>
       </c>
       <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
         <v>3</v>
       </c>
-      <c r="AW60">
-        <v>11</v>
-      </c>
-      <c r="AX60">
-        <v>6</v>
-      </c>
       <c r="AY60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ60">
         <v>9</v>
       </c>
       <c r="BA60">
+        <v>10</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>15</v>
+      </c>
+      <c r="BD60">
+        <v>1.64</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>2.67</v>
+      </c>
+      <c r="BG60">
+        <v>1.25</v>
+      </c>
+      <c r="BH60">
+        <v>3.4</v>
+      </c>
+      <c r="BI60">
+        <v>1.47</v>
+      </c>
+      <c r="BJ60">
+        <v>2.43</v>
+      </c>
+      <c r="BK60">
+        <v>1.88</v>
+      </c>
+      <c r="BL60">
+        <v>1.92</v>
+      </c>
+      <c r="BM60">
+        <v>2.32</v>
+      </c>
+      <c r="BN60">
+        <v>1.5</v>
+      </c>
+      <c r="BO60">
+        <v>3.1</v>
+      </c>
+      <c r="BP60">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7481420</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45556.66666666666</v>
+      </c>
+      <c r="F61">
         <v>6</v>
       </c>
-      <c r="BB60">
-        <v>1</v>
-      </c>
-      <c r="BC60">
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>131</v>
+      </c>
+      <c r="P61" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q61">
+        <v>2.75</v>
+      </c>
+      <c r="R61">
+        <v>1.91</v>
+      </c>
+      <c r="S61">
+        <v>4.2</v>
+      </c>
+      <c r="T61">
+        <v>1.5</v>
+      </c>
+      <c r="U61">
+        <v>2.49</v>
+      </c>
+      <c r="V61">
+        <v>3.22</v>
+      </c>
+      <c r="W61">
+        <v>1.32</v>
+      </c>
+      <c r="X61">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>1.05</v>
+      </c>
+      <c r="Z61">
+        <v>2.15</v>
+      </c>
+      <c r="AA61">
+        <v>3.1</v>
+      </c>
+      <c r="AB61">
+        <v>3.4</v>
+      </c>
+      <c r="AC61">
+        <v>1.06</v>
+      </c>
+      <c r="AD61">
+        <v>7.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.36</v>
+      </c>
+      <c r="AF61">
+        <v>2.88</v>
+      </c>
+      <c r="AG61">
+        <v>2.25</v>
+      </c>
+      <c r="AH61">
+        <v>1.57</v>
+      </c>
+      <c r="AI61">
+        <v>2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.73</v>
+      </c>
+      <c r="AK61">
+        <v>1.27</v>
+      </c>
+      <c r="AL61">
+        <v>1.3</v>
+      </c>
+      <c r="AM61">
+        <v>1.65</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>2.33</v>
+      </c>
+      <c r="AP61">
+        <v>3</v>
+      </c>
+      <c r="AQ61">
+        <v>1.75</v>
+      </c>
+      <c r="AR61">
+        <v>1.87</v>
+      </c>
+      <c r="AS61">
+        <v>1.21</v>
+      </c>
+      <c r="AT61">
+        <v>3.08</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>8</v>
+      </c>
+      <c r="AX61">
+        <v>5</v>
+      </c>
+      <c r="AY61">
+        <v>18</v>
+      </c>
+      <c r="AZ61">
+        <v>14</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>8</v>
+      </c>
+      <c r="BC61">
+        <v>12</v>
+      </c>
+      <c r="BD61">
+        <v>1.64</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>2.67</v>
+      </c>
+      <c r="BG61">
+        <v>1.3</v>
+      </c>
+      <c r="BH61">
+        <v>3.05</v>
+      </c>
+      <c r="BI61">
+        <v>1.56</v>
+      </c>
+      <c r="BJ61">
+        <v>2.2</v>
+      </c>
+      <c r="BK61">
+        <v>2</v>
+      </c>
+      <c r="BL61">
+        <v>1.8</v>
+      </c>
+      <c r="BM61">
+        <v>2.55</v>
+      </c>
+      <c r="BN61">
+        <v>1.42</v>
+      </c>
+      <c r="BO61">
+        <v>3.5</v>
+      </c>
+      <c r="BP61">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7481421</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45557.375</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>132</v>
+      </c>
+      <c r="P62" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q62">
+        <v>2.95</v>
+      </c>
+      <c r="R62">
+        <v>1.83</v>
+      </c>
+      <c r="S62">
+        <v>4.1</v>
+      </c>
+      <c r="T62">
+        <v>1.58</v>
+      </c>
+      <c r="U62">
+        <v>2.25</v>
+      </c>
+      <c r="V62">
+        <v>3.5</v>
+      </c>
+      <c r="W62">
+        <v>1.25</v>
+      </c>
+      <c r="X62">
+        <v>12</v>
+      </c>
+      <c r="Y62">
+        <v>1.04</v>
+      </c>
+      <c r="Z62">
+        <v>2.15</v>
+      </c>
+      <c r="AA62">
+        <v>3</v>
+      </c>
+      <c r="AB62">
+        <v>3.3</v>
+      </c>
+      <c r="AC62">
+        <v>1.09</v>
+      </c>
+      <c r="AD62">
+        <v>5.8</v>
+      </c>
+      <c r="AE62">
+        <v>1.5</v>
+      </c>
+      <c r="AF62">
+        <v>2.4</v>
+      </c>
+      <c r="AG62">
+        <v>2.5</v>
+      </c>
+      <c r="AH62">
+        <v>1.5</v>
+      </c>
+      <c r="AI62">
+        <v>2.1</v>
+      </c>
+      <c r="AJ62">
+        <v>1.67</v>
+      </c>
+      <c r="AK62">
+        <v>1.27</v>
+      </c>
+      <c r="AL62">
+        <v>1.4</v>
+      </c>
+      <c r="AM62">
+        <v>1.5</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0.5</v>
+      </c>
+      <c r="AP62">
+        <v>0.33</v>
+      </c>
+      <c r="AQ62">
+        <v>0.67</v>
+      </c>
+      <c r="AR62">
+        <v>1.36</v>
+      </c>
+      <c r="AS62">
+        <v>1.02</v>
+      </c>
+      <c r="AT62">
+        <v>2.38</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>8</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>15</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>5</v>
+      </c>
+      <c r="BB62">
         <v>7</v>
       </c>
-      <c r="BD60">
+      <c r="BC62">
+        <v>12</v>
+      </c>
+      <c r="BD62">
+        <v>1.85</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.29</v>
+      </c>
+      <c r="BG62">
+        <v>1.3</v>
+      </c>
+      <c r="BH62">
+        <v>3.05</v>
+      </c>
+      <c r="BI62">
+        <v>1.56</v>
+      </c>
+      <c r="BJ62">
+        <v>2.2</v>
+      </c>
+      <c r="BK62">
+        <v>2</v>
+      </c>
+      <c r="BL62">
+        <v>1.73</v>
+      </c>
+      <c r="BM62">
+        <v>2.55</v>
+      </c>
+      <c r="BN62">
+        <v>1.42</v>
+      </c>
+      <c r="BO62">
+        <v>3.5</v>
+      </c>
+      <c r="BP62">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7481412</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45557.46875</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P63" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q63">
+        <v>2.5</v>
+      </c>
+      <c r="R63">
+        <v>2.3</v>
+      </c>
+      <c r="S63">
+        <v>4.33</v>
+      </c>
+      <c r="T63">
+        <v>1.33</v>
+      </c>
+      <c r="U63">
+        <v>3.25</v>
+      </c>
+      <c r="V63">
+        <v>2.63</v>
+      </c>
+      <c r="W63">
+        <v>1.44</v>
+      </c>
+      <c r="X63">
+        <v>6.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.11</v>
+      </c>
+      <c r="Z63">
+        <v>2.15</v>
+      </c>
+      <c r="AA63">
+        <v>3.1</v>
+      </c>
+      <c r="AB63">
+        <v>3.2</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.2</v>
+      </c>
+      <c r="AF63">
+        <v>4</v>
+      </c>
+      <c r="AG63">
+        <v>2.25</v>
+      </c>
+      <c r="AH63">
+        <v>1.65</v>
+      </c>
+      <c r="AI63">
+        <v>1.67</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.25</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>1.7</v>
+      </c>
+      <c r="AN63">
+        <v>0.5</v>
+      </c>
+      <c r="AO63">
+        <v>3</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>3</v>
+      </c>
+      <c r="AR63">
+        <v>1.39</v>
+      </c>
+      <c r="AS63">
+        <v>1.36</v>
+      </c>
+      <c r="AT63">
+        <v>2.75</v>
+      </c>
+      <c r="AU63">
+        <v>10</v>
+      </c>
+      <c r="AV63">
+        <v>8</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
+      <c r="AY63">
+        <v>18</v>
+      </c>
+      <c r="AZ63">
+        <v>10</v>
+      </c>
+      <c r="BA63">
+        <v>7</v>
+      </c>
+      <c r="BB63">
+        <v>3</v>
+      </c>
+      <c r="BC63">
+        <v>10</v>
+      </c>
+      <c r="BD63">
+        <v>1.69</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>2.62</v>
+      </c>
+      <c r="BG63">
+        <v>1.29</v>
+      </c>
+      <c r="BH63">
+        <v>3.15</v>
+      </c>
+      <c r="BI63">
+        <v>1.53</v>
+      </c>
+      <c r="BJ63">
+        <v>2.28</v>
+      </c>
+      <c r="BK63">
+        <v>2</v>
+      </c>
+      <c r="BL63">
+        <v>1.8</v>
+      </c>
+      <c r="BM63">
+        <v>2.48</v>
+      </c>
+      <c r="BN63">
+        <v>1.45</v>
+      </c>
+      <c r="BO63">
+        <v>3.35</v>
+      </c>
+      <c r="BP63">
         <v>1.26</v>
       </c>
-      <c r="BE60">
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7481418</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45557.46875</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>98</v>
+      </c>
+      <c r="P64" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>3.2</v>
+      </c>
+      <c r="T64">
+        <v>1.53</v>
+      </c>
+      <c r="U64">
+        <v>2.38</v>
+      </c>
+      <c r="V64">
+        <v>3.5</v>
+      </c>
+      <c r="W64">
+        <v>1.29</v>
+      </c>
+      <c r="X64">
         <v>11</v>
       </c>
-      <c r="BF60">
+      <c r="Y64">
+        <v>1.05</v>
+      </c>
+      <c r="Z64">
+        <v>2.9</v>
+      </c>
+      <c r="AA64">
+        <v>3</v>
+      </c>
+      <c r="AB64">
+        <v>2.35</v>
+      </c>
+      <c r="AC64">
+        <v>1.06</v>
+      </c>
+      <c r="AD64">
+        <v>7.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.4</v>
+      </c>
+      <c r="AF64">
+        <v>2.75</v>
+      </c>
+      <c r="AG64">
+        <v>2.17</v>
+      </c>
+      <c r="AH64">
+        <v>1.7</v>
+      </c>
+      <c r="AI64">
+        <v>2.1</v>
+      </c>
+      <c r="AJ64">
+        <v>1.67</v>
+      </c>
+      <c r="AK64">
+        <v>1.57</v>
+      </c>
+      <c r="AL64">
+        <v>1.37</v>
+      </c>
+      <c r="AM64">
+        <v>1.25</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>2.33</v>
+      </c>
+      <c r="AR64">
+        <v>1.13</v>
+      </c>
+      <c r="AS64">
+        <v>1.56</v>
+      </c>
+      <c r="AT64">
+        <v>2.69</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>7</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>13</v>
+      </c>
+      <c r="AZ64">
+        <v>14</v>
+      </c>
+      <c r="BA64">
+        <v>9</v>
+      </c>
+      <c r="BB64">
+        <v>9</v>
+      </c>
+      <c r="BC64">
+        <v>18</v>
+      </c>
+      <c r="BD64">
+        <v>2.44</v>
+      </c>
+      <c r="BE64">
+        <v>8</v>
+      </c>
+      <c r="BF64">
+        <v>1.75</v>
+      </c>
+      <c r="BG64">
+        <v>1.34</v>
+      </c>
+      <c r="BH64">
+        <v>2.88</v>
+      </c>
+      <c r="BI64">
+        <v>1.7</v>
+      </c>
+      <c r="BJ64">
+        <v>2.05</v>
+      </c>
+      <c r="BK64">
+        <v>2.05</v>
+      </c>
+      <c r="BL64">
+        <v>1.65</v>
+      </c>
+      <c r="BM64">
+        <v>2.7</v>
+      </c>
+      <c r="BN64">
+        <v>1.38</v>
+      </c>
+      <c r="BO64">
+        <v>3.75</v>
+      </c>
+      <c r="BP64">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7481413</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45557.5625</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>133</v>
+      </c>
+      <c r="P65" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q65">
+        <v>2.38</v>
+      </c>
+      <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>6</v>
+      </c>
+      <c r="T65">
+        <v>1.55</v>
+      </c>
+      <c r="U65">
+        <v>2.3</v>
+      </c>
+      <c r="V65">
+        <v>3.4</v>
+      </c>
+      <c r="W65">
+        <v>1.29</v>
+      </c>
+      <c r="X65">
+        <v>9</v>
+      </c>
+      <c r="Y65">
+        <v>1.03</v>
+      </c>
+      <c r="Z65">
+        <v>1.61</v>
+      </c>
+      <c r="AA65">
+        <v>3.5</v>
+      </c>
+      <c r="AB65">
+        <v>6</v>
+      </c>
+      <c r="AC65">
+        <v>1.07</v>
+      </c>
+      <c r="AD65">
+        <v>6.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.45</v>
+      </c>
+      <c r="AF65">
+        <v>2.5</v>
+      </c>
+      <c r="AG65">
+        <v>2.43</v>
+      </c>
+      <c r="AH65">
+        <v>1.5</v>
+      </c>
+      <c r="AI65">
+        <v>2.25</v>
+      </c>
+      <c r="AJ65">
+        <v>1.55</v>
+      </c>
+      <c r="AK65">
+        <v>1.14</v>
+      </c>
+      <c r="AL65">
+        <v>1.31</v>
+      </c>
+      <c r="AM65">
+        <v>2.15</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1.75</v>
+      </c>
+      <c r="AQ65">
+        <v>0.67</v>
+      </c>
+      <c r="AR65">
+        <v>1.25</v>
+      </c>
+      <c r="AS65">
+        <v>1.05</v>
+      </c>
+      <c r="AT65">
+        <v>2.3</v>
+      </c>
+      <c r="AU65">
+        <v>9</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>18</v>
+      </c>
+      <c r="AZ65">
+        <v>6</v>
+      </c>
+      <c r="BA65">
+        <v>5</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>5</v>
+      </c>
+      <c r="BD65">
+        <v>1.26</v>
+      </c>
+      <c r="BE65">
+        <v>10</v>
+      </c>
+      <c r="BF65">
+        <v>4.86</v>
+      </c>
+      <c r="BG65">
+        <v>1.29</v>
+      </c>
+      <c r="BH65">
+        <v>3.15</v>
+      </c>
+      <c r="BI65">
+        <v>1.53</v>
+      </c>
+      <c r="BJ65">
+        <v>2.28</v>
+      </c>
+      <c r="BK65">
+        <v>1.98</v>
+      </c>
+      <c r="BL65">
+        <v>1.82</v>
+      </c>
+      <c r="BM65">
+        <v>2.48</v>
+      </c>
+      <c r="BN65">
+        <v>1.45</v>
+      </c>
+      <c r="BO65">
+        <v>3.35</v>
+      </c>
+      <c r="BP65">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7481411</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45557.66666666666</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>134</v>
+      </c>
+      <c r="P66" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>2.1</v>
+      </c>
+      <c r="S66">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.75</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>1.36</v>
+      </c>
+      <c r="X66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>2.06</v>
+      </c>
+      <c r="AA66">
+        <v>3.2</v>
+      </c>
+      <c r="AB66">
+        <v>3.6</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>8.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.53</v>
+      </c>
+      <c r="AF66">
+        <v>2.5</v>
+      </c>
+      <c r="AG66">
+        <v>2.06</v>
+      </c>
+      <c r="AH66">
+        <v>1.68</v>
+      </c>
+      <c r="AI66">
+        <v>1.8</v>
+      </c>
+      <c r="AJ66">
+        <v>1.91</v>
+      </c>
+      <c r="AK66">
+        <v>1.3</v>
+      </c>
+      <c r="AL66">
+        <v>1.33</v>
+      </c>
+      <c r="AM66">
+        <v>1.55</v>
+      </c>
+      <c r="AN66">
+        <v>0.5</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>0.67</v>
+      </c>
+      <c r="AQ66">
+        <v>1.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.93</v>
+      </c>
+      <c r="AS66">
+        <v>1.09</v>
+      </c>
+      <c r="AT66">
+        <v>3.02</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>9</v>
+      </c>
+      <c r="BA66">
+        <v>9</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>12</v>
+      </c>
+      <c r="BD66">
+        <v>1.64</v>
+      </c>
+      <c r="BE66">
+        <v>8</v>
+      </c>
+      <c r="BF66">
+        <v>2.67</v>
+      </c>
+      <c r="BG66">
+        <v>1.29</v>
+      </c>
+      <c r="BH66">
+        <v>3.15</v>
+      </c>
+      <c r="BI66">
+        <v>1.53</v>
+      </c>
+      <c r="BJ66">
+        <v>2.28</v>
+      </c>
+      <c r="BK66">
+        <v>2</v>
+      </c>
+      <c r="BL66">
+        <v>1.8</v>
+      </c>
+      <c r="BM66">
+        <v>2.48</v>
+      </c>
+      <c r="BN66">
+        <v>1.45</v>
+      </c>
+      <c r="BO66">
+        <v>3.35</v>
+      </c>
+      <c r="BP66">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7481419</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45558.64583333334</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>135</v>
+      </c>
+      <c r="P67" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q67">
+        <v>3.5</v>
+      </c>
+      <c r="R67">
+        <v>1.83</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <v>1.67</v>
+      </c>
+      <c r="U67">
+        <v>2.1</v>
+      </c>
+      <c r="V67">
+        <v>4</v>
+      </c>
+      <c r="W67">
+        <v>1.22</v>
+      </c>
+      <c r="X67">
+        <v>15</v>
+      </c>
+      <c r="Y67">
+        <v>1.03</v>
+      </c>
+      <c r="Z67">
+        <v>2.5</v>
+      </c>
+      <c r="AA67">
+        <v>2.8</v>
+      </c>
+      <c r="AB67">
+        <v>3.15</v>
+      </c>
+      <c r="AC67">
+        <v>1.12</v>
+      </c>
+      <c r="AD67">
+        <v>5.75</v>
+      </c>
+      <c r="AE67">
+        <v>1.58</v>
+      </c>
+      <c r="AF67">
+        <v>2.23</v>
+      </c>
+      <c r="AG67">
+        <v>2.55</v>
+      </c>
+      <c r="AH67">
+        <v>1.45</v>
+      </c>
+      <c r="AI67">
+        <v>2.38</v>
+      </c>
+      <c r="AJ67">
+        <v>1.53</v>
+      </c>
+      <c r="AK67">
+        <v>1.38</v>
+      </c>
+      <c r="AL67">
+        <v>1.35</v>
+      </c>
+      <c r="AM67">
+        <v>1.48</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>1.16</v>
+      </c>
+      <c r="AS67">
+        <v>1.35</v>
+      </c>
+      <c r="AT67">
+        <v>2.51</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>3</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
+        <v>17</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>7</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>2.28</v>
+      </c>
+      <c r="BE67">
+        <v>6.55</v>
+      </c>
+      <c r="BF67">
+        <v>2.04</v>
+      </c>
+      <c r="BG67">
+        <v>1.32</v>
+      </c>
+      <c r="BH67">
+        <v>3.38</v>
+      </c>
+      <c r="BI67">
+        <v>1.54</v>
+      </c>
+      <c r="BJ67">
+        <v>2.39</v>
+      </c>
+      <c r="BK67">
+        <v>1.96</v>
+      </c>
+      <c r="BL67">
+        <v>1.79</v>
+      </c>
+      <c r="BM67">
+        <v>2.63</v>
+      </c>
+      <c r="BN67">
+        <v>1.45</v>
+      </c>
+      <c r="BO67">
+        <v>3.65</v>
+      </c>
+      <c r="BP67">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7481422</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45562.64583333334</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>7</v>
+      </c>
+      <c r="O68" t="s">
+        <v>136</v>
+      </c>
+      <c r="P68" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q68">
+        <v>2.88</v>
+      </c>
+      <c r="R68">
+        <v>2.12</v>
+      </c>
+      <c r="S68">
+        <v>3.78</v>
+      </c>
+      <c r="T68">
+        <v>1.4</v>
+      </c>
+      <c r="U68">
+        <v>2.82</v>
+      </c>
+      <c r="V68">
+        <v>2.86</v>
+      </c>
+      <c r="W68">
+        <v>1.39</v>
+      </c>
+      <c r="X68">
+        <v>7.3</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>2.42</v>
+      </c>
+      <c r="AA68">
+        <v>3.3</v>
+      </c>
+      <c r="AB68">
+        <v>2.98</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE68">
+        <v>1.27</v>
+      </c>
+      <c r="AF68">
+        <v>3.08</v>
+      </c>
+      <c r="AG68">
+        <v>1.93</v>
+      </c>
+      <c r="AH68">
+        <v>1.78</v>
+      </c>
+      <c r="AI68">
+        <v>1.77</v>
+      </c>
+      <c r="AJ68">
+        <v>1.98</v>
+      </c>
+      <c r="AK68">
+        <v>1.37</v>
+      </c>
+      <c r="AL68">
+        <v>1.33</v>
+      </c>
+      <c r="AM68">
+        <v>1.62</v>
+      </c>
+      <c r="AN68">
+        <v>1.5</v>
+      </c>
+      <c r="AO68">
+        <v>0.33</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1.16</v>
+      </c>
+      <c r="AS68">
+        <v>1.3</v>
+      </c>
+      <c r="AT68">
+        <v>2.46</v>
+      </c>
+      <c r="AU68">
+        <v>8</v>
+      </c>
+      <c r="AV68">
+        <v>8</v>
+      </c>
+      <c r="AW68">
+        <v>9</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>21</v>
+      </c>
+      <c r="AZ68">
+        <v>15</v>
+      </c>
+      <c r="BA68">
+        <v>10</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>13</v>
+      </c>
+      <c r="BD68">
+        <v>1.82</v>
+      </c>
+      <c r="BE68">
+        <v>7.5</v>
+      </c>
+      <c r="BF68">
+        <v>2.4</v>
+      </c>
+      <c r="BG68">
+        <v>1.38</v>
+      </c>
+      <c r="BH68">
+        <v>2.71</v>
+      </c>
+      <c r="BI68">
+        <v>1.73</v>
+      </c>
+      <c r="BJ68">
+        <v>2</v>
+      </c>
+      <c r="BK68">
+        <v>1.98</v>
+      </c>
+      <c r="BL68">
+        <v>1.82</v>
+      </c>
+      <c r="BM68">
+        <v>2.82</v>
+      </c>
+      <c r="BN68">
+        <v>1.31</v>
+      </c>
+      <c r="BO68">
+        <v>4</v>
+      </c>
+      <c r="BP68">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7481432</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45563.46875</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>137</v>
+      </c>
+      <c r="P69" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q69">
+        <v>3.25</v>
+      </c>
+      <c r="R69">
+        <v>1.83</v>
+      </c>
+      <c r="S69">
+        <v>4</v>
+      </c>
+      <c r="T69">
+        <v>1.6</v>
+      </c>
+      <c r="U69">
+        <v>2.2</v>
+      </c>
+      <c r="V69">
+        <v>3.8</v>
+      </c>
+      <c r="W69">
+        <v>1.22</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.02</v>
+      </c>
+      <c r="Z69">
+        <v>2.25</v>
+      </c>
+      <c r="AA69">
+        <v>2.8</v>
+      </c>
+      <c r="AB69">
+        <v>3.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.11</v>
+      </c>
+      <c r="AD69">
+        <v>6.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.61</v>
+      </c>
+      <c r="AF69">
+        <v>2.05</v>
+      </c>
+      <c r="AG69">
+        <v>2.94</v>
+      </c>
+      <c r="AH69">
+        <v>1.35</v>
+      </c>
+      <c r="AI69">
+        <v>2.2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.62</v>
+      </c>
+      <c r="AK69">
+        <v>1.35</v>
+      </c>
+      <c r="AL69">
+        <v>1.44</v>
+      </c>
+      <c r="AM69">
+        <v>1.5</v>
+      </c>
+      <c r="AN69">
+        <v>2.33</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>2.5</v>
+      </c>
+      <c r="AQ69">
+        <v>1.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.04</v>
+      </c>
+      <c r="AS69">
+        <v>1.14</v>
+      </c>
+      <c r="AT69">
+        <v>2.18</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>7</v>
+      </c>
+      <c r="BA69">
+        <v>6</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>8</v>
+      </c>
+      <c r="BD69">
+        <v>1.85</v>
+      </c>
+      <c r="BE69">
+        <v>7.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.33</v>
+      </c>
+      <c r="BG69">
+        <v>1.38</v>
+      </c>
+      <c r="BH69">
+        <v>2.88</v>
+      </c>
+      <c r="BI69">
+        <v>1.7</v>
+      </c>
+      <c r="BJ69">
+        <v>2.05</v>
+      </c>
+      <c r="BK69">
+        <v>2.05</v>
+      </c>
+      <c r="BL69">
+        <v>1.7</v>
+      </c>
+      <c r="BM69">
+        <v>2.93</v>
+      </c>
+      <c r="BN69">
+        <v>1.37</v>
+      </c>
+      <c r="BO69">
+        <v>4.15</v>
+      </c>
+      <c r="BP69">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7481424</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45563.46875</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q70">
+        <v>2.1</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>5.7</v>
+      </c>
+      <c r="T70">
+        <v>1.45</v>
+      </c>
+      <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>3.2</v>
+      </c>
+      <c r="W70">
+        <v>1.3</v>
+      </c>
+      <c r="X70">
+        <v>7.8</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>1.61</v>
+      </c>
+      <c r="AA70">
+        <v>3.5</v>
+      </c>
+      <c r="AB70">
+        <v>4.6</v>
+      </c>
+      <c r="AC70">
+        <v>1.04</v>
+      </c>
+      <c r="AD70">
+        <v>7.8</v>
+      </c>
+      <c r="AE70">
+        <v>1.35</v>
+      </c>
+      <c r="AF70">
+        <v>2.9</v>
+      </c>
+      <c r="AG70">
+        <v>2.15</v>
+      </c>
+      <c r="AH70">
+        <v>1.57</v>
+      </c>
+      <c r="AI70">
+        <v>2.05</v>
+      </c>
+      <c r="AJ70">
+        <v>1.67</v>
+      </c>
+      <c r="AK70">
+        <v>1.07</v>
+      </c>
+      <c r="AL70">
+        <v>1.27</v>
+      </c>
+      <c r="AM70">
+        <v>2.25</v>
+      </c>
+      <c r="AN70">
+        <v>0.67</v>
+      </c>
+      <c r="AO70">
+        <v>0.5</v>
+      </c>
+      <c r="AP70">
+        <v>0.5</v>
+      </c>
+      <c r="AQ70">
+        <v>1.33</v>
+      </c>
+      <c r="AR70">
+        <v>1.25</v>
+      </c>
+      <c r="AS70">
+        <v>1.05</v>
+      </c>
+      <c r="AT70">
+        <v>2.3</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>8</v>
+      </c>
+      <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
+        <v>21</v>
+      </c>
+      <c r="AZ70">
+        <v>16</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+      <c r="BD70">
+        <v>1.37</v>
+      </c>
+      <c r="BE70">
+        <v>9</v>
+      </c>
+      <c r="BF70">
+        <v>3.83</v>
+      </c>
+      <c r="BG70">
+        <v>1.38</v>
+      </c>
+      <c r="BH70">
+        <v>2.88</v>
+      </c>
+      <c r="BI70">
+        <v>1.7</v>
+      </c>
+      <c r="BJ70">
+        <v>2.05</v>
+      </c>
+      <c r="BK70">
+        <v>2.05</v>
+      </c>
+      <c r="BL70">
+        <v>1.7</v>
+      </c>
+      <c r="BM70">
+        <v>2.93</v>
+      </c>
+      <c r="BN70">
+        <v>1.37</v>
+      </c>
+      <c r="BO70">
+        <v>4.15</v>
+      </c>
+      <c r="BP70">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7481427</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45563.5625</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q71">
+        <v>2.95</v>
+      </c>
+      <c r="R71">
+        <v>1.93</v>
+      </c>
+      <c r="S71">
+        <v>3.7</v>
+      </c>
+      <c r="T71">
+        <v>1.52</v>
+      </c>
+      <c r="U71">
+        <v>2.35</v>
+      </c>
+      <c r="V71">
+        <v>3.6</v>
+      </c>
+      <c r="W71">
+        <v>1.25</v>
+      </c>
+      <c r="X71">
+        <v>8.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.04</v>
+      </c>
+      <c r="Z71">
+        <v>2.28</v>
+      </c>
+      <c r="AA71">
+        <v>2.85</v>
+      </c>
+      <c r="AB71">
+        <v>3.35</v>
+      </c>
+      <c r="AC71">
+        <v>1.08</v>
+      </c>
+      <c r="AD71">
+        <v>6.2</v>
+      </c>
+      <c r="AE71">
+        <v>1.49</v>
+      </c>
+      <c r="AF71">
+        <v>2.43</v>
+      </c>
+      <c r="AG71">
+        <v>2.5</v>
+      </c>
+      <c r="AH71">
+        <v>1.47</v>
+      </c>
+      <c r="AI71">
+        <v>2.05</v>
+      </c>
+      <c r="AJ71">
+        <v>1.67</v>
+      </c>
+      <c r="AK71">
+        <v>1.3</v>
+      </c>
+      <c r="AL71">
+        <v>1.4</v>
+      </c>
+      <c r="AM71">
+        <v>1.47</v>
+      </c>
+      <c r="AN71">
+        <v>1.33</v>
+      </c>
+      <c r="AO71">
+        <v>1.75</v>
+      </c>
+      <c r="AP71">
+        <v>1.75</v>
+      </c>
+      <c r="AQ71">
+        <v>1.4</v>
+      </c>
+      <c r="AR71">
+        <v>1.44</v>
+      </c>
+      <c r="AS71">
+        <v>1.42</v>
+      </c>
+      <c r="AT71">
+        <v>2.86</v>
+      </c>
+      <c r="AU71">
+        <v>9</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>10</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>22</v>
+      </c>
+      <c r="AZ71">
+        <v>8</v>
+      </c>
+      <c r="BA71">
+        <v>5</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>1.75</v>
+      </c>
+      <c r="BE71">
+        <v>8</v>
+      </c>
+      <c r="BF71">
+        <v>2.52</v>
+      </c>
+      <c r="BG71">
+        <v>1.31</v>
+      </c>
+      <c r="BH71">
+        <v>3.3</v>
+      </c>
+      <c r="BI71">
+        <v>1.59</v>
+      </c>
+      <c r="BJ71">
+        <v>2.25</v>
+      </c>
+      <c r="BK71">
+        <v>2</v>
+      </c>
+      <c r="BL71">
+        <v>1.8</v>
+      </c>
+      <c r="BM71">
+        <v>2.54</v>
+      </c>
+      <c r="BN71">
+        <v>1.47</v>
+      </c>
+      <c r="BO71">
+        <v>3.55</v>
+      </c>
+      <c r="BP71">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7481431</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45563.66666666666</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>94</v>
+      </c>
+      <c r="P72" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q72">
+        <v>3.4</v>
+      </c>
+      <c r="R72">
+        <v>2.02</v>
+      </c>
+      <c r="S72">
+        <v>3.74</v>
+      </c>
+      <c r="T72">
+        <v>1.52</v>
+      </c>
+      <c r="U72">
+        <v>2.52</v>
+      </c>
+      <c r="V72">
+        <v>3.4</v>
+      </c>
+      <c r="W72">
+        <v>1.27</v>
+      </c>
+      <c r="X72">
+        <v>7.8</v>
+      </c>
+      <c r="Y72">
+        <v>1.05</v>
+      </c>
+      <c r="Z72">
+        <v>2.55</v>
+      </c>
+      <c r="AA72">
+        <v>2.9</v>
+      </c>
+      <c r="AB72">
+        <v>2.85</v>
+      </c>
+      <c r="AC72">
+        <v>1.07</v>
+      </c>
+      <c r="AD72">
+        <v>6.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.4</v>
+      </c>
+      <c r="AF72">
+        <v>2.7</v>
+      </c>
+      <c r="AG72">
+        <v>2.38</v>
+      </c>
+      <c r="AH72">
+        <v>1.52</v>
+      </c>
+      <c r="AI72">
+        <v>1.93</v>
+      </c>
+      <c r="AJ72">
+        <v>1.75</v>
+      </c>
+      <c r="AK72">
+        <v>1.37</v>
+      </c>
+      <c r="AL72">
+        <v>1.32</v>
+      </c>
+      <c r="AM72">
+        <v>1.47</v>
+      </c>
+      <c r="AN72">
+        <v>2.33</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>1.75</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.35</v>
+      </c>
+      <c r="AS72">
+        <v>1.12</v>
+      </c>
+      <c r="AT72">
+        <v>2.47</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>8</v>
+      </c>
+      <c r="AW72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>6</v>
+      </c>
+      <c r="AZ72">
+        <v>14</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>5</v>
+      </c>
+      <c r="BC72">
+        <v>9</v>
+      </c>
+      <c r="BD72">
+        <v>1.95</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.1</v>
+      </c>
+      <c r="BG72">
+        <v>1.34</v>
+      </c>
+      <c r="BH72">
+        <v>3.07</v>
+      </c>
+      <c r="BI72">
+        <v>1.7</v>
+      </c>
+      <c r="BJ72">
+        <v>2.05</v>
+      </c>
+      <c r="BK72">
+        <v>2.1</v>
+      </c>
+      <c r="BL72">
+        <v>1.67</v>
+      </c>
+      <c r="BM72">
+        <v>2.75</v>
+      </c>
+      <c r="BN72">
+        <v>1.42</v>
+      </c>
+      <c r="BO72">
+        <v>3.82</v>
+      </c>
+      <c r="BP72">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7481428</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>6</v>
+      </c>
+      <c r="O73" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q73">
+        <v>3.1</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>3.2</v>
+      </c>
+      <c r="T73">
+        <v>1.33</v>
+      </c>
+      <c r="U73">
+        <v>3.25</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>6.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.11</v>
+      </c>
+      <c r="Z73">
+        <v>2.37</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>2.5</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>11</v>
+      </c>
+      <c r="AE73">
+        <v>1.2</v>
+      </c>
+      <c r="AF73">
+        <v>4</v>
+      </c>
+      <c r="AG73">
+        <v>1.67</v>
+      </c>
+      <c r="AH73">
+        <v>2</v>
+      </c>
+      <c r="AI73">
+        <v>1.57</v>
+      </c>
+      <c r="AJ73">
+        <v>2.25</v>
+      </c>
+      <c r="AK73">
+        <v>1.35</v>
+      </c>
+      <c r="AL73">
+        <v>1.3</v>
+      </c>
+      <c r="AM73">
+        <v>1.52</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>2.33</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>2.06</v>
+      </c>
+      <c r="AS73">
+        <v>1.44</v>
+      </c>
+      <c r="AT73">
+        <v>3.5</v>
+      </c>
+      <c r="AU73">
+        <v>9</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
+      <c r="AX73">
+        <v>8</v>
+      </c>
+      <c r="AY73">
+        <v>14</v>
+      </c>
+      <c r="AZ73">
+        <v>17</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>1.82</v>
+      </c>
+      <c r="BE73">
+        <v>8</v>
+      </c>
+      <c r="BF73">
+        <v>2.33</v>
+      </c>
+      <c r="BG73">
+        <v>1.27</v>
+      </c>
+      <c r="BH73">
+        <v>3.52</v>
+      </c>
+      <c r="BI73">
+        <v>1.5</v>
+      </c>
+      <c r="BJ73">
+        <v>2.48</v>
+      </c>
+      <c r="BK73">
+        <v>1.88</v>
+      </c>
+      <c r="BL73">
+        <v>1.92</v>
+      </c>
+      <c r="BM73">
+        <v>2.41</v>
+      </c>
+      <c r="BN73">
+        <v>1.53</v>
+      </c>
+      <c r="BO73">
+        <v>3.3</v>
+      </c>
+      <c r="BP73">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7481423</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45564.46875</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>141</v>
+      </c>
+      <c r="P74" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q74">
+        <v>2.93</v>
+      </c>
+      <c r="R74">
+        <v>2.12</v>
+      </c>
+      <c r="S74">
+        <v>3.56</v>
+      </c>
+      <c r="T74">
+        <v>1.4</v>
+      </c>
+      <c r="U74">
+        <v>2.82</v>
+      </c>
+      <c r="V74">
+        <v>2.86</v>
+      </c>
+      <c r="W74">
+        <v>1.39</v>
+      </c>
+      <c r="X74">
+        <v>7.3</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>2.37</v>
+      </c>
+      <c r="AA74">
+        <v>2.87</v>
+      </c>
+      <c r="AB74">
+        <v>2.87</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE74">
+        <v>1.26</v>
+      </c>
+      <c r="AF74">
+        <v>3.14</v>
+      </c>
+      <c r="AG74">
+        <v>1.91</v>
+      </c>
+      <c r="AH74">
+        <v>1.75</v>
+      </c>
+      <c r="AI74">
+        <v>1.76</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>1.4</v>
+      </c>
+      <c r="AL74">
+        <v>1.32</v>
+      </c>
+      <c r="AM74">
+        <v>1.59</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>1.67</v>
+      </c>
+      <c r="AR74">
+        <v>1.54</v>
+      </c>
+      <c r="AS74">
+        <v>1.35</v>
+      </c>
+      <c r="AT74">
+        <v>2.89</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>6</v>
+      </c>
+      <c r="AZ74">
+        <v>10</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>9</v>
+      </c>
+      <c r="BD74">
+        <v>1.75</v>
+      </c>
+      <c r="BE74">
+        <v>8</v>
+      </c>
+      <c r="BF74">
+        <v>2.44</v>
+      </c>
+      <c r="BG74">
+        <v>1.31</v>
+      </c>
+      <c r="BH74">
+        <v>3.3</v>
+      </c>
+      <c r="BI74">
+        <v>1.56</v>
+      </c>
+      <c r="BJ74">
+        <v>2.34</v>
+      </c>
+      <c r="BK74">
+        <v>2</v>
+      </c>
+      <c r="BL74">
+        <v>1.8</v>
+      </c>
+      <c r="BM74">
+        <v>2.57</v>
+      </c>
+      <c r="BN74">
+        <v>1.47</v>
+      </c>
+      <c r="BO74">
+        <v>3.55</v>
+      </c>
+      <c r="BP74">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7481425</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45564.46875</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>142</v>
+      </c>
+      <c r="P75" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q75">
+        <v>2.4</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>4.75</v>
+      </c>
+      <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>2.75</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>8</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>1.73</v>
+      </c>
+      <c r="AA75">
+        <v>3.4</v>
+      </c>
+      <c r="AB75">
+        <v>4</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>9</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.35</v>
+      </c>
+      <c r="AG75">
+        <v>1.91</v>
+      </c>
+      <c r="AH75">
+        <v>1.75</v>
+      </c>
+      <c r="AI75">
+        <v>1.83</v>
+      </c>
+      <c r="AJ75">
+        <v>1.83</v>
+      </c>
+      <c r="AK75">
+        <v>1.2</v>
+      </c>
+      <c r="AL75">
+        <v>1.22</v>
+      </c>
+      <c r="AM75">
+        <v>2</v>
+      </c>
+      <c r="AN75">
+        <v>0.33</v>
+      </c>
+      <c r="AO75">
+        <v>0.33</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>0.25</v>
+      </c>
+      <c r="AR75">
+        <v>1.58</v>
+      </c>
+      <c r="AS75">
+        <v>1.04</v>
+      </c>
+      <c r="AT75">
+        <v>2.62</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>4</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>19</v>
+      </c>
+      <c r="AZ75">
+        <v>16</v>
+      </c>
+      <c r="BA75">
+        <v>9</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>13</v>
+      </c>
+      <c r="BD75">
+        <v>1.45</v>
+      </c>
+      <c r="BE75">
+        <v>8.5</v>
+      </c>
+      <c r="BF75">
+        <v>3.46</v>
+      </c>
+      <c r="BG75">
+        <v>1.36</v>
+      </c>
+      <c r="BH75">
+        <v>2.98</v>
+      </c>
+      <c r="BI75">
+        <v>1.7</v>
+      </c>
+      <c r="BJ75">
+        <v>2.05</v>
+      </c>
+      <c r="BK75">
+        <v>2.05</v>
+      </c>
+      <c r="BL75">
+        <v>1.7</v>
+      </c>
+      <c r="BM75">
+        <v>2.83</v>
+      </c>
+      <c r="BN75">
+        <v>1.39</v>
+      </c>
+      <c r="BO75">
+        <v>3.98</v>
+      </c>
+      <c r="BP75">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7481426</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45564.5625</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>143</v>
+      </c>
+      <c r="P76" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q76">
+        <v>2.62</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>4.5</v>
+      </c>
+      <c r="T76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
+        <v>2.4</v>
+      </c>
+      <c r="V76">
+        <v>3.3</v>
+      </c>
+      <c r="W76">
+        <v>1.29</v>
+      </c>
+      <c r="X76">
+        <v>8.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.04</v>
+      </c>
+      <c r="Z76">
+        <v>1.91</v>
+      </c>
+      <c r="AA76">
+        <v>3.1</v>
+      </c>
+      <c r="AB76">
+        <v>4.1</v>
+      </c>
+      <c r="AC76">
+        <v>1.08</v>
+      </c>
+      <c r="AD76">
+        <v>6.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.48</v>
+      </c>
+      <c r="AF76">
+        <v>2.5</v>
+      </c>
+      <c r="AG76">
+        <v>2.43</v>
+      </c>
+      <c r="AH76">
+        <v>1.5</v>
+      </c>
+      <c r="AI76">
+        <v>2.1</v>
+      </c>
+      <c r="AJ76">
+        <v>1.65</v>
+      </c>
+      <c r="AK76">
+        <v>1.25</v>
+      </c>
+      <c r="AL76">
+        <v>1.33</v>
+      </c>
+      <c r="AM76">
+        <v>1.83</v>
+      </c>
+      <c r="AN76">
+        <v>1.67</v>
+      </c>
+      <c r="AO76">
+        <v>0.5</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
+      <c r="AQ76">
+        <v>0.33</v>
+      </c>
+      <c r="AR76">
+        <v>1.57</v>
+      </c>
+      <c r="AS76">
+        <v>0.88</v>
+      </c>
+      <c r="AT76">
+        <v>2.45</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>8</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>22</v>
+      </c>
+      <c r="AZ76">
+        <v>9</v>
+      </c>
+      <c r="BA76">
+        <v>6</v>
+      </c>
+      <c r="BB76">
+        <v>4</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.51</v>
+      </c>
+      <c r="BE76">
+        <v>8.5</v>
+      </c>
+      <c r="BF76">
+        <v>3.16</v>
+      </c>
+      <c r="BG76">
+        <v>1.31</v>
+      </c>
+      <c r="BH76">
+        <v>3.3</v>
+      </c>
+      <c r="BI76">
+        <v>1.56</v>
+      </c>
+      <c r="BJ76">
+        <v>2.34</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>1.8</v>
+      </c>
+      <c r="BM76">
+        <v>2.57</v>
+      </c>
+      <c r="BN76">
+        <v>1.47</v>
+      </c>
+      <c r="BO76">
+        <v>3.55</v>
+      </c>
+      <c r="BP76">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7481430</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45564.5625</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>144</v>
+      </c>
+      <c r="P77" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q77">
+        <v>2.88</v>
+      </c>
+      <c r="R77">
+        <v>1.91</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>1.56</v>
+      </c>
+      <c r="U77">
+        <v>2.29</v>
+      </c>
+      <c r="V77">
+        <v>3.6</v>
+      </c>
+      <c r="W77">
+        <v>1.25</v>
+      </c>
+      <c r="X77">
+        <v>9.85</v>
+      </c>
+      <c r="Y77">
+        <v>1.03</v>
+      </c>
+      <c r="Z77">
+        <v>2.14</v>
+      </c>
+      <c r="AA77">
+        <v>2.9</v>
+      </c>
+      <c r="AB77">
+        <v>3.65</v>
+      </c>
+      <c r="AC77">
+        <v>1.07</v>
+      </c>
+      <c r="AD77">
+        <v>7</v>
+      </c>
+      <c r="AE77">
+        <v>1.44</v>
+      </c>
+      <c r="AF77">
+        <v>2.6</v>
+      </c>
+      <c r="AG77">
+        <v>2.43</v>
+      </c>
+      <c r="AH77">
+        <v>1.5</v>
+      </c>
+      <c r="AI77">
+        <v>2.1</v>
+      </c>
+      <c r="AJ77">
+        <v>1.67</v>
+      </c>
+      <c r="AK77">
+        <v>1.25</v>
+      </c>
+      <c r="AL77">
+        <v>1.37</v>
+      </c>
+      <c r="AM77">
+        <v>1.57</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>1.67</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.25</v>
+      </c>
+      <c r="AR77">
+        <v>1.33</v>
+      </c>
+      <c r="AS77">
+        <v>1.03</v>
+      </c>
+      <c r="AT77">
+        <v>2.36</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>8</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>19</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>11</v>
+      </c>
+      <c r="BD77">
+        <v>1.75</v>
+      </c>
+      <c r="BE77">
+        <v>8</v>
+      </c>
+      <c r="BF77">
+        <v>2.44</v>
+      </c>
+      <c r="BG77">
+        <v>1.27</v>
+      </c>
+      <c r="BH77">
+        <v>3.52</v>
+      </c>
+      <c r="BI77">
+        <v>1.53</v>
+      </c>
+      <c r="BJ77">
+        <v>2.4</v>
+      </c>
+      <c r="BK77">
+        <v>1.85</v>
+      </c>
+      <c r="BL77">
+        <v>1.95</v>
+      </c>
+      <c r="BM77">
+        <v>2.4</v>
+      </c>
+      <c r="BN77">
+        <v>1.53</v>
+      </c>
+      <c r="BO77">
+        <v>3.3</v>
+      </c>
+      <c r="BP77">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7481429</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45565.64583333334</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>145</v>
+      </c>
+      <c r="P78" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q78">
+        <v>2.05</v>
+      </c>
+      <c r="R78">
+        <v>2.3</v>
+      </c>
+      <c r="S78">
+        <v>6.5</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>7</v>
+      </c>
+      <c r="Y78">
+        <v>1.1</v>
+      </c>
+      <c r="Z78">
+        <v>1.5</v>
+      </c>
+      <c r="AA78">
+        <v>4.1</v>
+      </c>
+      <c r="AB78">
+        <v>5.5</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>12.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.23</v>
+      </c>
+      <c r="AF78">
+        <v>3.34</v>
+      </c>
+      <c r="AG78">
+        <v>1.9</v>
+      </c>
+      <c r="AH78">
+        <v>1.91</v>
+      </c>
+      <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
+        <v>1.73</v>
+      </c>
+      <c r="AK78">
+        <v>1.12</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>2.55</v>
+      </c>
+      <c r="AN78">
+        <v>1.67</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.25</v>
+      </c>
+      <c r="AQ78">
+        <v>1.5</v>
+      </c>
+      <c r="AR78">
+        <v>1.42</v>
+      </c>
+      <c r="AS78">
+        <v>0.87</v>
+      </c>
+      <c r="AT78">
+        <v>2.29</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>11</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>18</v>
+      </c>
+      <c r="AZ78">
+        <v>10</v>
+      </c>
+      <c r="BA78">
+        <v>6</v>
+      </c>
+      <c r="BB78">
+        <v>1</v>
+      </c>
+      <c r="BC78">
+        <v>7</v>
+      </c>
+      <c r="BD78">
+        <v>1.26</v>
+      </c>
+      <c r="BE78">
+        <v>11</v>
+      </c>
+      <c r="BF78">
         <v>4.35</v>
       </c>
-      <c r="BG60">
+      <c r="BG78">
         <v>1.27</v>
       </c>
-      <c r="BH60">
+      <c r="BH78">
         <v>3.52</v>
       </c>
-      <c r="BI60">
+      <c r="BI78">
         <v>1.5</v>
       </c>
-      <c r="BJ60">
+      <c r="BJ78">
         <v>2.48</v>
       </c>
-      <c r="BK60">
+      <c r="BK78">
         <v>1.86</v>
       </c>
-      <c r="BL60">
+      <c r="BL78">
         <v>1.88</v>
       </c>
-      <c r="BM60">
+      <c r="BM78">
         <v>2.41</v>
       </c>
-      <c r="BN60">
+      <c r="BN78">
         <v>1.53</v>
       </c>
-      <c r="BO60">
+      <c r="BO78">
         <v>3.3</v>
       </c>
-      <c r="BP60">
+      <c r="BP78">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,24 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['45+3', '48', '62']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['57', '66']</t>
+  </si>
+  <si>
+    <t>['29', '89']</t>
+  </si>
+  <si>
+    <t>['36', '90+3']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -526,15 +544,9 @@
     <t>['49']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['49', '53', '56']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
     <t>['41']</t>
   </si>
   <si>
@@ -575,6 +587,18 @@
   </si>
   <si>
     <t>['45', '58']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['29', '39', '90+5']</t>
+  </si>
+  <si>
+    <t>['33', '40', '70']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1219,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1479,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1607,7 +1631,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1813,7 +1837,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1891,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2097,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2225,7 +2249,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2431,7 +2455,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2637,7 +2661,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2843,7 +2867,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2924,7 +2948,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3049,7 +3073,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3255,7 +3279,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3461,7 +3485,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3667,7 +3691,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3745,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4157,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4285,7 +4309,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4366,7 +4390,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4697,7 +4721,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4775,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4984,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5315,7 +5339,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5521,7 +5545,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5602,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5727,7 +5751,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5933,7 +5957,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6139,7 +6163,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6423,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6551,7 +6575,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6757,7 +6781,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7169,7 +7193,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7250,7 +7274,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7453,7 +7477,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.4</v>
@@ -7581,7 +7605,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7659,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7993,7 +8017,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8071,7 +8095,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8199,7 +8223,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8483,10 +8507,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8611,7 +8635,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9101,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9229,7 +9253,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9719,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -9847,7 +9871,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9928,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10053,7 +10077,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10543,7 +10567,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>0.25</v>
@@ -10671,7 +10695,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -11164,7 +11188,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -11367,7 +11391,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11576,7 +11600,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -12113,7 +12137,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12194,7 +12218,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12319,7 +12343,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12397,7 +12421,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12525,7 +12549,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12731,7 +12755,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -12809,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13143,7 +13167,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13224,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13427,7 +13451,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.75</v>
@@ -13633,10 +13657,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -13761,7 +13785,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -13967,7 +13991,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14048,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="AQ64">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR64">
         <v>1.13</v>
@@ -14379,7 +14403,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14457,7 +14481,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
         <v>1.25</v>
@@ -14663,7 +14687,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ67">
         <v>0</v>
@@ -14791,7 +14815,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15075,7 +15099,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15203,7 +15227,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15615,7 +15639,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15696,7 +15720,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -15821,7 +15845,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16027,7 +16051,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16108,7 +16132,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.54</v>
@@ -16233,7 +16257,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16851,7 +16875,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -16932,7 +16956,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17008,6 +17032,1448 @@
       </c>
       <c r="BP78">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7481438</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>146</v>
+      </c>
+      <c r="P79" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q79">
+        <v>3.85</v>
+      </c>
+      <c r="R79">
+        <v>1.88</v>
+      </c>
+      <c r="S79">
+        <v>3.75</v>
+      </c>
+      <c r="T79">
+        <v>1.65</v>
+      </c>
+      <c r="U79">
+        <v>2.24</v>
+      </c>
+      <c r="V79">
+        <v>3.95</v>
+      </c>
+      <c r="W79">
+        <v>1.2</v>
+      </c>
+      <c r="X79">
+        <v>11.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.02</v>
+      </c>
+      <c r="Z79">
+        <v>2.7</v>
+      </c>
+      <c r="AA79">
+        <v>2.9</v>
+      </c>
+      <c r="AB79">
+        <v>2.8</v>
+      </c>
+      <c r="AC79">
+        <v>1.13</v>
+      </c>
+      <c r="AD79">
+        <v>5.75</v>
+      </c>
+      <c r="AE79">
+        <v>1.58</v>
+      </c>
+      <c r="AF79">
+        <v>2.25</v>
+      </c>
+      <c r="AG79">
+        <v>2.89</v>
+      </c>
+      <c r="AH79">
+        <v>1.36</v>
+      </c>
+      <c r="AI79">
+        <v>2.15</v>
+      </c>
+      <c r="AJ79">
+        <v>1.6</v>
+      </c>
+      <c r="AK79">
+        <v>1.42</v>
+      </c>
+      <c r="AL79">
+        <v>1.36</v>
+      </c>
+      <c r="AM79">
+        <v>1.42</v>
+      </c>
+      <c r="AN79">
+        <v>2</v>
+      </c>
+      <c r="AO79">
+        <v>2.33</v>
+      </c>
+      <c r="AP79">
+        <v>2.25</v>
+      </c>
+      <c r="AQ79">
+        <v>1.75</v>
+      </c>
+      <c r="AR79">
+        <v>1.18</v>
+      </c>
+      <c r="AS79">
+        <v>1.59</v>
+      </c>
+      <c r="AT79">
+        <v>2.77</v>
+      </c>
+      <c r="AU79">
+        <v>3</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>3</v>
+      </c>
+      <c r="AZ79">
+        <v>6</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>6</v>
+      </c>
+      <c r="BD79">
+        <v>2.2</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>1.91</v>
+      </c>
+      <c r="BG79">
+        <v>1.27</v>
+      </c>
+      <c r="BH79">
+        <v>3.04</v>
+      </c>
+      <c r="BI79">
+        <v>1.54</v>
+      </c>
+      <c r="BJ79">
+        <v>2.25</v>
+      </c>
+      <c r="BK79">
+        <v>2</v>
+      </c>
+      <c r="BL79">
+        <v>1.8</v>
+      </c>
+      <c r="BM79">
+        <v>2.54</v>
+      </c>
+      <c r="BN79">
+        <v>1.43</v>
+      </c>
+      <c r="BO79">
+        <v>3.35</v>
+      </c>
+      <c r="BP79">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7481441</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s">
+        <v>79</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>147</v>
+      </c>
+      <c r="P80" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q80">
+        <v>3.9</v>
+      </c>
+      <c r="R80">
+        <v>1.85</v>
+      </c>
+      <c r="S80">
+        <v>3.1</v>
+      </c>
+      <c r="T80">
+        <v>1.57</v>
+      </c>
+      <c r="U80">
+        <v>2.25</v>
+      </c>
+      <c r="V80">
+        <v>3.55</v>
+      </c>
+      <c r="W80">
+        <v>1.25</v>
+      </c>
+      <c r="X80">
+        <v>10.2</v>
+      </c>
+      <c r="Y80">
+        <v>1.03</v>
+      </c>
+      <c r="Z80">
+        <v>2.9</v>
+      </c>
+      <c r="AA80">
+        <v>2.9</v>
+      </c>
+      <c r="AB80">
+        <v>2.5</v>
+      </c>
+      <c r="AC80">
+        <v>1.11</v>
+      </c>
+      <c r="AD80">
+        <v>6.25</v>
+      </c>
+      <c r="AE80">
+        <v>1.49</v>
+      </c>
+      <c r="AF80">
+        <v>2.43</v>
+      </c>
+      <c r="AG80">
+        <v>2.55</v>
+      </c>
+      <c r="AH80">
+        <v>1.5</v>
+      </c>
+      <c r="AI80">
+        <v>2</v>
+      </c>
+      <c r="AJ80">
+        <v>1.7</v>
+      </c>
+      <c r="AK80">
+        <v>1.53</v>
+      </c>
+      <c r="AL80">
+        <v>1.33</v>
+      </c>
+      <c r="AM80">
+        <v>1.33</v>
+      </c>
+      <c r="AN80">
+        <v>0.5</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>0.75</v>
+      </c>
+      <c r="AR80">
+        <v>1.23</v>
+      </c>
+      <c r="AS80">
+        <v>1.26</v>
+      </c>
+      <c r="AT80">
+        <v>2.49</v>
+      </c>
+      <c r="AU80">
+        <v>2</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>2</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>4</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>10</v>
+      </c>
+      <c r="BD80">
+        <v>2.2</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>1.91</v>
+      </c>
+      <c r="BG80">
+        <v>1.32</v>
+      </c>
+      <c r="BH80">
+        <v>2.95</v>
+      </c>
+      <c r="BI80">
+        <v>1.7</v>
+      </c>
+      <c r="BJ80">
+        <v>2.05</v>
+      </c>
+      <c r="BK80">
+        <v>2</v>
+      </c>
+      <c r="BL80">
+        <v>1.68</v>
+      </c>
+      <c r="BM80">
+        <v>2.63</v>
+      </c>
+      <c r="BN80">
+        <v>1.4</v>
+      </c>
+      <c r="BO80">
+        <v>3.6</v>
+      </c>
+      <c r="BP80">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7481442</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45570.46875</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q81">
+        <v>3.55</v>
+      </c>
+      <c r="R81">
+        <v>1.83</v>
+      </c>
+      <c r="S81">
+        <v>3.4</v>
+      </c>
+      <c r="T81">
+        <v>1.57</v>
+      </c>
+      <c r="U81">
+        <v>2.25</v>
+      </c>
+      <c r="V81">
+        <v>3.55</v>
+      </c>
+      <c r="W81">
+        <v>1.25</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>1.03</v>
+      </c>
+      <c r="Z81">
+        <v>2.75</v>
+      </c>
+      <c r="AA81">
+        <v>3</v>
+      </c>
+      <c r="AB81">
+        <v>2.6</v>
+      </c>
+      <c r="AC81">
+        <v>1.11</v>
+      </c>
+      <c r="AD81">
+        <v>6.25</v>
+      </c>
+      <c r="AE81">
+        <v>1.47</v>
+      </c>
+      <c r="AF81">
+        <v>2.48</v>
+      </c>
+      <c r="AG81">
+        <v>2.4</v>
+      </c>
+      <c r="AH81">
+        <v>1.52</v>
+      </c>
+      <c r="AI81">
+        <v>2</v>
+      </c>
+      <c r="AJ81">
+        <v>1.7</v>
+      </c>
+      <c r="AK81">
+        <v>1.45</v>
+      </c>
+      <c r="AL81">
+        <v>1.33</v>
+      </c>
+      <c r="AM81">
+        <v>1.4</v>
+      </c>
+      <c r="AN81">
+        <v>2.5</v>
+      </c>
+      <c r="AO81">
+        <v>1.67</v>
+      </c>
+      <c r="AP81">
+        <v>2</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>1.07</v>
+      </c>
+      <c r="AS81">
+        <v>1.28</v>
+      </c>
+      <c r="AT81">
+        <v>2.35</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>2</v>
+      </c>
+      <c r="AW81">
+        <v>3</v>
+      </c>
+      <c r="AX81">
+        <v>4</v>
+      </c>
+      <c r="AY81">
+        <v>12</v>
+      </c>
+      <c r="AZ81">
+        <v>6</v>
+      </c>
+      <c r="BA81">
+        <v>8</v>
+      </c>
+      <c r="BB81">
+        <v>1</v>
+      </c>
+      <c r="BC81">
+        <v>9</v>
+      </c>
+      <c r="BD81">
+        <v>2</v>
+      </c>
+      <c r="BE81">
+        <v>7.5</v>
+      </c>
+      <c r="BF81">
+        <v>2.05</v>
+      </c>
+      <c r="BG81">
+        <v>1.34</v>
+      </c>
+      <c r="BH81">
+        <v>2.88</v>
+      </c>
+      <c r="BI81">
+        <v>1.7</v>
+      </c>
+      <c r="BJ81">
+        <v>2.05</v>
+      </c>
+      <c r="BK81">
+        <v>2.05</v>
+      </c>
+      <c r="BL81">
+        <v>1.65</v>
+      </c>
+      <c r="BM81">
+        <v>2.7</v>
+      </c>
+      <c r="BN81">
+        <v>1.38</v>
+      </c>
+      <c r="BO81">
+        <v>3.75</v>
+      </c>
+      <c r="BP81">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7481436</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45570.46875</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>148</v>
+      </c>
+      <c r="P82" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q82">
+        <v>2.65</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
+        <v>4.33</v>
+      </c>
+      <c r="T82">
+        <v>1.59</v>
+      </c>
+      <c r="U82">
+        <v>2.28</v>
+      </c>
+      <c r="V82">
+        <v>3.34</v>
+      </c>
+      <c r="W82">
+        <v>1.3</v>
+      </c>
+      <c r="X82">
+        <v>9.1</v>
+      </c>
+      <c r="Y82">
+        <v>1.04</v>
+      </c>
+      <c r="Z82">
+        <v>1.95</v>
+      </c>
+      <c r="AA82">
+        <v>3.2</v>
+      </c>
+      <c r="AB82">
+        <v>3.9</v>
+      </c>
+      <c r="AC82">
+        <v>1.1</v>
+      </c>
+      <c r="AD82">
+        <v>6.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.45</v>
+      </c>
+      <c r="AF82">
+        <v>2.7</v>
+      </c>
+      <c r="AG82">
+        <v>2.3</v>
+      </c>
+      <c r="AH82">
+        <v>1.55</v>
+      </c>
+      <c r="AI82">
+        <v>1.95</v>
+      </c>
+      <c r="AJ82">
+        <v>1.73</v>
+      </c>
+      <c r="AK82">
+        <v>1.22</v>
+      </c>
+      <c r="AL82">
+        <v>1.33</v>
+      </c>
+      <c r="AM82">
+        <v>1.7</v>
+      </c>
+      <c r="AN82">
+        <v>2.33</v>
+      </c>
+      <c r="AO82">
+        <v>0.67</v>
+      </c>
+      <c r="AP82">
+        <v>1.75</v>
+      </c>
+      <c r="AQ82">
+        <v>1.25</v>
+      </c>
+      <c r="AR82">
+        <v>1.41</v>
+      </c>
+      <c r="AS82">
+        <v>1.01</v>
+      </c>
+      <c r="AT82">
+        <v>2.42</v>
+      </c>
+      <c r="AU82">
+        <v>8</v>
+      </c>
+      <c r="AV82">
+        <v>6</v>
+      </c>
+      <c r="AW82">
+        <v>6</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>15</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>7</v>
+      </c>
+      <c r="BD82">
+        <v>1.64</v>
+      </c>
+      <c r="BE82">
+        <v>8</v>
+      </c>
+      <c r="BF82">
+        <v>2.77</v>
+      </c>
+      <c r="BG82">
+        <v>1.34</v>
+      </c>
+      <c r="BH82">
+        <v>2.88</v>
+      </c>
+      <c r="BI82">
+        <v>1.7</v>
+      </c>
+      <c r="BJ82">
+        <v>2.05</v>
+      </c>
+      <c r="BK82">
+        <v>2.05</v>
+      </c>
+      <c r="BL82">
+        <v>1.65</v>
+      </c>
+      <c r="BM82">
+        <v>2.7</v>
+      </c>
+      <c r="BN82">
+        <v>1.38</v>
+      </c>
+      <c r="BO82">
+        <v>3.75</v>
+      </c>
+      <c r="BP82">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7481443</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45570.5625</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" t="s">
+        <v>76</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>149</v>
+      </c>
+      <c r="P83" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q83">
+        <v>2.88</v>
+      </c>
+      <c r="R83">
+        <v>2.1</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.63</v>
+      </c>
+      <c r="V83">
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <v>1.36</v>
+      </c>
+      <c r="X83">
+        <v>9</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>2.15</v>
+      </c>
+      <c r="AA83">
+        <v>3.25</v>
+      </c>
+      <c r="AB83">
+        <v>3.25</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>8</v>
+      </c>
+      <c r="AE83">
+        <v>1.29</v>
+      </c>
+      <c r="AF83">
+        <v>3.3</v>
+      </c>
+      <c r="AG83">
+        <v>1.96</v>
+      </c>
+      <c r="AH83">
+        <v>1.85</v>
+      </c>
+      <c r="AI83">
+        <v>1.83</v>
+      </c>
+      <c r="AJ83">
+        <v>1.83</v>
+      </c>
+      <c r="AK83">
+        <v>1.33</v>
+      </c>
+      <c r="AL83">
+        <v>1.33</v>
+      </c>
+      <c r="AM83">
+        <v>1.68</v>
+      </c>
+      <c r="AN83">
+        <v>3</v>
+      </c>
+      <c r="AO83">
+        <v>3</v>
+      </c>
+      <c r="AP83">
+        <v>2</v>
+      </c>
+      <c r="AQ83">
+        <v>3</v>
+      </c>
+      <c r="AR83">
+        <v>1.8</v>
+      </c>
+      <c r="AS83">
+        <v>1.39</v>
+      </c>
+      <c r="AT83">
+        <v>3.19</v>
+      </c>
+      <c r="AU83">
+        <v>9</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>8</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>19</v>
+      </c>
+      <c r="AZ83">
+        <v>15</v>
+      </c>
+      <c r="BA83">
+        <v>11</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>12</v>
+      </c>
+      <c r="BD83">
+        <v>1.75</v>
+      </c>
+      <c r="BE83">
+        <v>8</v>
+      </c>
+      <c r="BF83">
+        <v>2.44</v>
+      </c>
+      <c r="BG83">
+        <v>1.3</v>
+      </c>
+      <c r="BH83">
+        <v>3.05</v>
+      </c>
+      <c r="BI83">
+        <v>1.56</v>
+      </c>
+      <c r="BJ83">
+        <v>2.2</v>
+      </c>
+      <c r="BK83">
+        <v>2</v>
+      </c>
+      <c r="BL83">
+        <v>1.8</v>
+      </c>
+      <c r="BM83">
+        <v>2.55</v>
+      </c>
+      <c r="BN83">
+        <v>1.42</v>
+      </c>
+      <c r="BO83">
+        <v>3.5</v>
+      </c>
+      <c r="BP83">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7481434</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45570.5625</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>150</v>
+      </c>
+      <c r="P84" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q84">
+        <v>2.25</v>
+      </c>
+      <c r="R84">
+        <v>2.2</v>
+      </c>
+      <c r="S84">
+        <v>4.5</v>
+      </c>
+      <c r="T84">
+        <v>1.33</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>2.45</v>
+      </c>
+      <c r="W84">
+        <v>1.48</v>
+      </c>
+      <c r="X84">
+        <v>6.05</v>
+      </c>
+      <c r="Y84">
+        <v>1.11</v>
+      </c>
+      <c r="Z84">
+        <v>1.7</v>
+      </c>
+      <c r="AA84">
+        <v>3.8</v>
+      </c>
+      <c r="AB84">
+        <v>4.4</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>9.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.25</v>
+      </c>
+      <c r="AF84">
+        <v>3.95</v>
+      </c>
+      <c r="AG84">
+        <v>1.71</v>
+      </c>
+      <c r="AH84">
+        <v>2.02</v>
+      </c>
+      <c r="AI84">
+        <v>1.65</v>
+      </c>
+      <c r="AJ84">
+        <v>2.05</v>
+      </c>
+      <c r="AK84">
+        <v>1.18</v>
+      </c>
+      <c r="AL84">
+        <v>1.22</v>
+      </c>
+      <c r="AM84">
+        <v>2.05</v>
+      </c>
+      <c r="AN84">
+        <v>0.67</v>
+      </c>
+      <c r="AO84">
+        <v>2.33</v>
+      </c>
+      <c r="AP84">
+        <v>1.25</v>
+      </c>
+      <c r="AQ84">
+        <v>1.75</v>
+      </c>
+      <c r="AR84">
+        <v>1.79</v>
+      </c>
+      <c r="AS84">
+        <v>1.34</v>
+      </c>
+      <c r="AT84">
+        <v>3.13</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>6</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>9</v>
+      </c>
+      <c r="AY84">
+        <v>18</v>
+      </c>
+      <c r="AZ84">
+        <v>19</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
+        <v>8</v>
+      </c>
+      <c r="BC84">
+        <v>13</v>
+      </c>
+      <c r="BD84">
+        <v>1.51</v>
+      </c>
+      <c r="BE84">
+        <v>8.5</v>
+      </c>
+      <c r="BF84">
+        <v>3.07</v>
+      </c>
+      <c r="BG84">
+        <v>1.3</v>
+      </c>
+      <c r="BH84">
+        <v>3.05</v>
+      </c>
+      <c r="BI84">
+        <v>1.56</v>
+      </c>
+      <c r="BJ84">
+        <v>2.2</v>
+      </c>
+      <c r="BK84">
+        <v>2</v>
+      </c>
+      <c r="BL84">
+        <v>1.73</v>
+      </c>
+      <c r="BM84">
+        <v>2.55</v>
+      </c>
+      <c r="BN84">
+        <v>1.42</v>
+      </c>
+      <c r="BO84">
+        <v>3.5</v>
+      </c>
+      <c r="BP84">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7481439</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45570.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>151</v>
+      </c>
+      <c r="P85" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q85">
+        <v>2.5</v>
+      </c>
+      <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
+        <v>5.5</v>
+      </c>
+      <c r="T85">
+        <v>1.57</v>
+      </c>
+      <c r="U85">
+        <v>2.25</v>
+      </c>
+      <c r="V85">
+        <v>3.75</v>
+      </c>
+      <c r="W85">
+        <v>1.25</v>
+      </c>
+      <c r="X85">
+        <v>11</v>
+      </c>
+      <c r="Y85">
+        <v>1.05</v>
+      </c>
+      <c r="Z85">
+        <v>1.87</v>
+      </c>
+      <c r="AA85">
+        <v>3.38</v>
+      </c>
+      <c r="AB85">
+        <v>3.87</v>
+      </c>
+      <c r="AC85">
+        <v>1.07</v>
+      </c>
+      <c r="AD85">
+        <v>7</v>
+      </c>
+      <c r="AE85">
+        <v>1.5</v>
+      </c>
+      <c r="AF85">
+        <v>2.4</v>
+      </c>
+      <c r="AG85">
+        <v>1.95</v>
+      </c>
+      <c r="AH85">
+        <v>1.75</v>
+      </c>
+      <c r="AI85">
+        <v>2.25</v>
+      </c>
+      <c r="AJ85">
+        <v>1.57</v>
+      </c>
+      <c r="AK85">
+        <v>1.17</v>
+      </c>
+      <c r="AL85">
+        <v>1.33</v>
+      </c>
+      <c r="AM85">
+        <v>2.01</v>
+      </c>
+      <c r="AN85">
+        <v>0.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.5</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>1.2</v>
+      </c>
+      <c r="AR85">
+        <v>1.38</v>
+      </c>
+      <c r="AS85">
+        <v>0.89</v>
+      </c>
+      <c r="AT85">
+        <v>2.27</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
+        <v>9</v>
+      </c>
+      <c r="AX85">
+        <v>1</v>
+      </c>
+      <c r="AY85">
+        <v>19</v>
+      </c>
+      <c r="AZ85">
+        <v>5</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>6</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>1.51</v>
+      </c>
+      <c r="BE85">
+        <v>8.5</v>
+      </c>
+      <c r="BF85">
+        <v>3.16</v>
+      </c>
+      <c r="BG85">
+        <v>1.32</v>
+      </c>
+      <c r="BH85">
+        <v>2.95</v>
+      </c>
+      <c r="BI85">
+        <v>1.7</v>
+      </c>
+      <c r="BJ85">
+        <v>2.05</v>
+      </c>
+      <c r="BK85">
+        <v>2</v>
+      </c>
+      <c r="BL85">
+        <v>1.68</v>
+      </c>
+      <c r="BM85">
+        <v>2.63</v>
+      </c>
+      <c r="BN85">
+        <v>1.41</v>
+      </c>
+      <c r="BO85">
+        <v>3.6</v>
+      </c>
+      <c r="BP85">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,19 +457,25 @@
     <t>['45+3', '48', '62']</t>
   </si>
   <si>
+    <t>['57', '66']</t>
+  </si>
+  <si>
+    <t>['29', '89']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['36', '90+3']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['57', '66']</t>
-  </si>
-  <si>
-    <t>['29', '89']</t>
-  </si>
-  <si>
-    <t>['36', '90+3']</t>
+    <t>['18', '25']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -592,13 +598,19 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['33', '40', '71']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
     <t>['29', '39', '90+5']</t>
   </si>
   <si>
-    <t>['33', '40', '70']</t>
+    <t>['13', '38', '42']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1231,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1506,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1631,7 +1643,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1837,7 +1849,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2124,7 +2136,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,7 +2261,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2330,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2455,7 +2467,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2661,7 +2673,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2867,7 +2879,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3073,7 +3085,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3279,7 +3291,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3357,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3485,7 +3497,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3691,7 +3703,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4309,7 +4321,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4387,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.75</v>
@@ -4721,7 +4733,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5214,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5339,7 +5351,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5545,7 +5557,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5751,7 +5763,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5957,7 +5969,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6163,7 +6175,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6575,7 +6587,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6781,7 +6793,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -6862,7 +6874,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR29">
         <v>1.44</v>
@@ -7193,7 +7205,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7271,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>1.2</v>
@@ -7605,7 +7617,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7892,7 +7904,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8017,7 +8029,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8223,7 +8235,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8635,7 +8647,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8716,7 +8728,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9253,7 +9265,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -9537,7 +9549,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9871,7 +9883,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10077,7 +10089,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10695,7 +10707,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -10773,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -12137,7 +12149,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12343,7 +12355,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12424,7 +12436,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR56">
         <v>1.94</v>
@@ -12549,7 +12561,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12755,7 +12767,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13039,10 +13051,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
         <v>1.51</v>
@@ -13167,7 +13179,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13785,7 +13797,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -13991,7 +14003,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14403,7 +14415,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14690,7 +14702,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ67">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -14815,7 +14827,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15227,7 +15239,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15639,7 +15651,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15845,7 +15857,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -15923,7 +15935,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16051,7 +16063,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16257,7 +16269,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16875,7 +16887,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17048,7 +17060,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45568.875</v>
+        <v>45569.64583333334</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -17081,7 +17093,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17174,22 +17186,22 @@
         <v>2.77</v>
       </c>
       <c r="AU79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ79">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA79">
         <v>2</v>
@@ -17245,7 +17257,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7481441</v>
+        <v>7481443</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17257,193 +17269,193 @@
         <v>45569.875</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O80" t="s">
         <v>147</v>
       </c>
       <c r="P80" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="Q80">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>4</v>
+      </c>
+      <c r="T80">
+        <v>1.44</v>
+      </c>
+      <c r="U80">
+        <v>2.63</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>1.36</v>
+      </c>
+      <c r="X80">
+        <v>9</v>
+      </c>
+      <c r="Y80">
+        <v>1.07</v>
+      </c>
+      <c r="Z80">
+        <v>2.15</v>
+      </c>
+      <c r="AA80">
+        <v>3.25</v>
+      </c>
+      <c r="AB80">
+        <v>3.25</v>
+      </c>
+      <c r="AC80">
+        <v>1.05</v>
+      </c>
+      <c r="AD80">
+        <v>8</v>
+      </c>
+      <c r="AE80">
+        <v>1.29</v>
+      </c>
+      <c r="AF80">
+        <v>3.3</v>
+      </c>
+      <c r="AG80">
+        <v>1.96</v>
+      </c>
+      <c r="AH80">
         <v>1.85</v>
       </c>
-      <c r="S80">
-        <v>3.1</v>
-      </c>
-      <c r="T80">
-        <v>1.57</v>
-      </c>
-      <c r="U80">
-        <v>2.25</v>
-      </c>
-      <c r="V80">
-        <v>3.55</v>
-      </c>
-      <c r="W80">
-        <v>1.25</v>
-      </c>
-      <c r="X80">
-        <v>10.2</v>
-      </c>
-      <c r="Y80">
-        <v>1.03</v>
-      </c>
-      <c r="Z80">
-        <v>2.9</v>
-      </c>
-      <c r="AA80">
-        <v>2.9</v>
-      </c>
-      <c r="AB80">
-        <v>2.5</v>
-      </c>
-      <c r="AC80">
-        <v>1.11</v>
-      </c>
-      <c r="AD80">
-        <v>6.25</v>
-      </c>
-      <c r="AE80">
-        <v>1.49</v>
-      </c>
-      <c r="AF80">
-        <v>2.43</v>
-      </c>
-      <c r="AG80">
-        <v>2.55</v>
-      </c>
-      <c r="AH80">
-        <v>1.5</v>
-      </c>
       <c r="AI80">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ80">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AK80">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AL80">
         <v>1.33</v>
       </c>
       <c r="AM80">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="AN80">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AR80">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="AS80">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AT80">
-        <v>2.49</v>
+        <v>3.19</v>
       </c>
       <c r="AU80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV80">
         <v>5</v>
       </c>
       <c r="AW80">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY80">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AZ80">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA80">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC80">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD80">
+        <v>1.75</v>
+      </c>
+      <c r="BE80">
+        <v>8</v>
+      </c>
+      <c r="BF80">
+        <v>2.44</v>
+      </c>
+      <c r="BG80">
+        <v>1.3</v>
+      </c>
+      <c r="BH80">
+        <v>3.05</v>
+      </c>
+      <c r="BI80">
+        <v>1.56</v>
+      </c>
+      <c r="BJ80">
         <v>2.2</v>
       </c>
-      <c r="BE80">
-        <v>7.5</v>
-      </c>
-      <c r="BF80">
-        <v>1.91</v>
-      </c>
-      <c r="BG80">
-        <v>1.32</v>
-      </c>
-      <c r="BH80">
-        <v>2.95</v>
-      </c>
-      <c r="BI80">
-        <v>1.7</v>
-      </c>
-      <c r="BJ80">
-        <v>2.05</v>
-      </c>
       <c r="BK80">
         <v>2</v>
       </c>
       <c r="BL80">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="BM80">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BN80">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="BO80">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BP80">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17460,7 +17472,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45570.46875</v>
+        <v>45569.875</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -17493,7 +17505,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -17586,22 +17598,22 @@
         <v>2.35</v>
       </c>
       <c r="AU81">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW81">
         <v>3</v>
       </c>
       <c r="AX81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY81">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA81">
         <v>8</v>
@@ -17657,7 +17669,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7481436</v>
+        <v>7481434</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17666,196 +17678,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45570.46875</v>
+        <v>45569.875</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O82" t="s">
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="Q82">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S82">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T82">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="U82">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="V82">
-        <v>3.34</v>
+        <v>2.45</v>
       </c>
       <c r="W82">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="X82">
-        <v>9.1</v>
+        <v>6.05</v>
       </c>
       <c r="Y82">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="Z82">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AA82">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB82">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AC82">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AD82">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE82">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="AF82">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="AG82">
-        <v>2.3</v>
+        <v>1.71</v>
       </c>
       <c r="AH82">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="AI82">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AJ82">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AK82">
+        <v>1.18</v>
+      </c>
+      <c r="AL82">
         <v>1.22</v>
       </c>
-      <c r="AL82">
-        <v>1.33</v>
-      </c>
       <c r="AM82">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AN82">
+        <v>0.67</v>
+      </c>
+      <c r="AO82">
         <v>2.33</v>
       </c>
-      <c r="AO82">
-        <v>0.67</v>
-      </c>
       <c r="AP82">
+        <v>1.25</v>
+      </c>
+      <c r="AQ82">
         <v>1.75</v>
       </c>
-      <c r="AQ82">
-        <v>1.25</v>
-      </c>
       <c r="AR82">
-        <v>1.41</v>
+        <v>1.79</v>
       </c>
       <c r="AS82">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="AT82">
-        <v>2.42</v>
+        <v>3.13</v>
       </c>
       <c r="AU82">
         <v>8</v>
       </c>
       <c r="AV82">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX82">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY82">
         <v>15</v>
       </c>
       <c r="AZ82">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC82">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD82">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="BE82">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF82">
-        <v>2.77</v>
+        <v>3.07</v>
       </c>
       <c r="BG82">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH82">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="BI82">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BJ82">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BK82">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL82">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="BM82">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BN82">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BO82">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BP82">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17863,7 +17875,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7481443</v>
+        <v>7481436</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17872,196 +17884,196 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45570.5625</v>
+        <v>45569.875</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>2</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>3</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O83" t="s">
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q83">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="R83">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T83">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="U83">
-        <v>2.63</v>
+        <v>2.28</v>
       </c>
       <c r="V83">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="W83">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X83">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="Y83">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="Z83">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AA83">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB83">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="AC83">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AD83">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE83">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AF83">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AG83">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="AH83">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AI83">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AJ83">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK83">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AL83">
         <v>1.33</v>
       </c>
       <c r="AM83">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AN83">
+        <v>2.33</v>
+      </c>
+      <c r="AO83">
+        <v>0.67</v>
+      </c>
+      <c r="AP83">
+        <v>1.75</v>
+      </c>
+      <c r="AQ83">
+        <v>1.25</v>
+      </c>
+      <c r="AR83">
+        <v>1.41</v>
+      </c>
+      <c r="AS83">
+        <v>1.01</v>
+      </c>
+      <c r="AT83">
+        <v>2.42</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
         <v>3</v>
       </c>
-      <c r="AO83">
+      <c r="AW83">
+        <v>4</v>
+      </c>
+      <c r="AX83">
         <v>3</v>
       </c>
-      <c r="AP83">
-        <v>2</v>
-      </c>
-      <c r="AQ83">
-        <v>3</v>
-      </c>
-      <c r="AR83">
-        <v>1.8</v>
-      </c>
-      <c r="AS83">
-        <v>1.39</v>
-      </c>
-      <c r="AT83">
-        <v>3.19</v>
-      </c>
-      <c r="AU83">
-        <v>9</v>
-      </c>
-      <c r="AV83">
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>6</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
         <v>7</v>
       </c>
-      <c r="AW83">
-        <v>8</v>
-      </c>
-      <c r="AX83">
-        <v>6</v>
-      </c>
-      <c r="AY83">
-        <v>19</v>
-      </c>
-      <c r="AZ83">
-        <v>15</v>
-      </c>
-      <c r="BA83">
-        <v>11</v>
-      </c>
-      <c r="BB83">
-        <v>1</v>
-      </c>
-      <c r="BC83">
-        <v>12</v>
-      </c>
       <c r="BD83">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BE83">
         <v>8</v>
       </c>
       <c r="BF83">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="BG83">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH83">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="BI83">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BJ83">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BK83">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BL83">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BM83">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BN83">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BO83">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="BP83">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18069,7 +18081,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7481434</v>
+        <v>7481439</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18078,16 +18090,16 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45570.5625</v>
+        <v>45569.875</v>
       </c>
       <c r="F84">
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -18114,121 +18126,121 @@
         <v>94</v>
       </c>
       <c r="Q84">
+        <v>2.5</v>
+      </c>
+      <c r="R84">
+        <v>1.95</v>
+      </c>
+      <c r="S84">
+        <v>5.5</v>
+      </c>
+      <c r="T84">
+        <v>1.57</v>
+      </c>
+      <c r="U84">
         <v>2.25</v>
       </c>
-      <c r="R84">
-        <v>2.2</v>
-      </c>
-      <c r="S84">
-        <v>4.5</v>
-      </c>
-      <c r="T84">
+      <c r="V84">
+        <v>3.75</v>
+      </c>
+      <c r="W84">
+        <v>1.25</v>
+      </c>
+      <c r="X84">
+        <v>11</v>
+      </c>
+      <c r="Y84">
+        <v>1.05</v>
+      </c>
+      <c r="Z84">
+        <v>1.87</v>
+      </c>
+      <c r="AA84">
+        <v>3.38</v>
+      </c>
+      <c r="AB84">
+        <v>3.87</v>
+      </c>
+      <c r="AC84">
+        <v>1.07</v>
+      </c>
+      <c r="AD84">
+        <v>7</v>
+      </c>
+      <c r="AE84">
+        <v>1.5</v>
+      </c>
+      <c r="AF84">
+        <v>2.4</v>
+      </c>
+      <c r="AG84">
+        <v>1.95</v>
+      </c>
+      <c r="AH84">
+        <v>1.75</v>
+      </c>
+      <c r="AI84">
+        <v>2.25</v>
+      </c>
+      <c r="AJ84">
+        <v>1.57</v>
+      </c>
+      <c r="AK84">
+        <v>1.17</v>
+      </c>
+      <c r="AL84">
         <v>1.33</v>
       </c>
-      <c r="U84">
+      <c r="AM84">
+        <v>2.01</v>
+      </c>
+      <c r="AN84">
+        <v>0.33</v>
+      </c>
+      <c r="AO84">
+        <v>1.5</v>
+      </c>
+      <c r="AP84">
+        <v>1</v>
+      </c>
+      <c r="AQ84">
+        <v>1.2</v>
+      </c>
+      <c r="AR84">
+        <v>1.38</v>
+      </c>
+      <c r="AS84">
+        <v>0.89</v>
+      </c>
+      <c r="AT84">
+        <v>2.27</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>8</v>
+      </c>
+      <c r="AX84">
+        <v>1</v>
+      </c>
+      <c r="AY84">
+        <v>13</v>
+      </c>
+      <c r="AZ84">
+        <v>5</v>
+      </c>
+      <c r="BA84">
         <v>3</v>
       </c>
-      <c r="V84">
-        <v>2.45</v>
-      </c>
-      <c r="W84">
-        <v>1.48</v>
-      </c>
-      <c r="X84">
-        <v>6.05</v>
-      </c>
-      <c r="Y84">
-        <v>1.11</v>
-      </c>
-      <c r="Z84">
-        <v>1.7</v>
-      </c>
-      <c r="AA84">
-        <v>3.8</v>
-      </c>
-      <c r="AB84">
-        <v>4.4</v>
-      </c>
-      <c r="AC84">
-        <v>1.05</v>
-      </c>
-      <c r="AD84">
-        <v>9.5</v>
-      </c>
-      <c r="AE84">
-        <v>1.25</v>
-      </c>
-      <c r="AF84">
-        <v>3.95</v>
-      </c>
-      <c r="AG84">
-        <v>1.71</v>
-      </c>
-      <c r="AH84">
-        <v>2.02</v>
-      </c>
-      <c r="AI84">
-        <v>1.65</v>
-      </c>
-      <c r="AJ84">
-        <v>2.05</v>
-      </c>
-      <c r="AK84">
-        <v>1.18</v>
-      </c>
-      <c r="AL84">
-        <v>1.22</v>
-      </c>
-      <c r="AM84">
-        <v>2.05</v>
-      </c>
-      <c r="AN84">
-        <v>0.67</v>
-      </c>
-      <c r="AO84">
-        <v>2.33</v>
-      </c>
-      <c r="AP84">
-        <v>1.25</v>
-      </c>
-      <c r="AQ84">
-        <v>1.75</v>
-      </c>
-      <c r="AR84">
-        <v>1.79</v>
-      </c>
-      <c r="AS84">
-        <v>1.34</v>
-      </c>
-      <c r="AT84">
-        <v>3.13</v>
-      </c>
-      <c r="AU84">
+      <c r="BB84">
         <v>6</v>
       </c>
-      <c r="AV84">
-        <v>6</v>
-      </c>
-      <c r="AW84">
-        <v>5</v>
-      </c>
-      <c r="AX84">
+      <c r="BC84">
         <v>9</v>
-      </c>
-      <c r="AY84">
-        <v>18</v>
-      </c>
-      <c r="AZ84">
-        <v>19</v>
-      </c>
-      <c r="BA84">
-        <v>5</v>
-      </c>
-      <c r="BB84">
-        <v>8</v>
-      </c>
-      <c r="BC84">
-        <v>13</v>
       </c>
       <c r="BD84">
         <v>1.51</v>
@@ -18237,37 +18249,37 @@
         <v>8.5</v>
       </c>
       <c r="BF84">
-        <v>3.07</v>
+        <v>3.16</v>
       </c>
       <c r="BG84">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH84">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="BI84">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BJ84">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BK84">
         <v>2</v>
       </c>
       <c r="BL84">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="BM84">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BN84">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="BO84">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BP84">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18275,7 +18287,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7481439</v>
+        <v>7481441</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18284,16 +18296,16 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45570.66666666666</v>
+        <v>45570.375</v>
       </c>
       <c r="F85">
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H85" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -18305,13 +18317,13 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O85" t="s">
         <v>151</v>
@@ -18320,13 +18332,13 @@
         <v>94</v>
       </c>
       <c r="Q85">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T85">
         <v>1.57</v>
@@ -18335,115 +18347,115 @@
         <v>2.25</v>
       </c>
       <c r="V85">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="W85">
         <v>1.25</v>
       </c>
       <c r="X85">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="Y85">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z85">
-        <v>1.87</v>
+        <v>2.9</v>
       </c>
       <c r="AA85">
-        <v>3.38</v>
+        <v>2.9</v>
       </c>
       <c r="AB85">
-        <v>3.87</v>
+        <v>2.5</v>
       </c>
       <c r="AC85">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AD85">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AE85">
+        <v>1.49</v>
+      </c>
+      <c r="AF85">
+        <v>2.43</v>
+      </c>
+      <c r="AG85">
+        <v>2.55</v>
+      </c>
+      <c r="AH85">
         <v>1.5</v>
       </c>
-      <c r="AF85">
-        <v>2.4</v>
-      </c>
-      <c r="AG85">
-        <v>1.95</v>
-      </c>
-      <c r="AH85">
-        <v>1.75</v>
-      </c>
       <c r="AI85">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AJ85">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AK85">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="AL85">
         <v>1.33</v>
       </c>
       <c r="AM85">
-        <v>2.01</v>
+        <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO85">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP85">
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AR85">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AS85">
-        <v>0.89</v>
+        <v>1.26</v>
       </c>
       <c r="AT85">
-        <v>2.27</v>
+        <v>2.49</v>
       </c>
       <c r="AU85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
         <v>4</v>
       </c>
-      <c r="AW85">
-        <v>9</v>
-      </c>
-      <c r="AX85">
-        <v>1</v>
-      </c>
       <c r="AY85">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AZ85">
+        <v>11</v>
+      </c>
+      <c r="BA85">
         <v>5</v>
       </c>
-      <c r="BA85">
-        <v>3</v>
-      </c>
       <c r="BB85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC85">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD85">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="BE85">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF85">
-        <v>3.16</v>
+        <v>1.91</v>
       </c>
       <c r="BG85">
         <v>1.32</v>
@@ -18467,12 +18479,836 @@
         <v>2.63</v>
       </c>
       <c r="BN85">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BO85">
         <v>3.6</v>
       </c>
       <c r="BP85">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7481440</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45570.875</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s">
+        <v>86</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86" t="s">
+        <v>152</v>
+      </c>
+      <c r="P86" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q86">
+        <v>3.25</v>
+      </c>
+      <c r="R86">
+        <v>2.1</v>
+      </c>
+      <c r="S86">
+        <v>3.25</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>1.36</v>
+      </c>
+      <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>2.5</v>
+      </c>
+      <c r="AA86">
+        <v>3.15</v>
+      </c>
+      <c r="AB86">
+        <v>2.7</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>8</v>
+      </c>
+      <c r="AE86">
+        <v>1.26</v>
+      </c>
+      <c r="AF86">
+        <v>3.14</v>
+      </c>
+      <c r="AG86">
+        <v>1.95</v>
+      </c>
+      <c r="AH86">
+        <v>1.76</v>
+      </c>
+      <c r="AI86">
+        <v>1.73</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>1.46</v>
+      </c>
+      <c r="AL86">
+        <v>1.33</v>
+      </c>
+      <c r="AM86">
+        <v>1.5</v>
+      </c>
+      <c r="AN86">
+        <v>1.75</v>
+      </c>
+      <c r="AO86">
+        <v>2</v>
+      </c>
+      <c r="AP86">
+        <v>1.4</v>
+      </c>
+      <c r="AQ86">
+        <v>2.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.47</v>
+      </c>
+      <c r="AS86">
+        <v>1.43</v>
+      </c>
+      <c r="AT86">
+        <v>2.9</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>4</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>8</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>1</v>
+      </c>
+      <c r="BC86">
+        <v>9</v>
+      </c>
+      <c r="BD86">
+        <v>1.69</v>
+      </c>
+      <c r="BE86">
+        <v>8</v>
+      </c>
+      <c r="BF86">
+        <v>2.62</v>
+      </c>
+      <c r="BG86">
+        <v>1.3</v>
+      </c>
+      <c r="BH86">
+        <v>3.05</v>
+      </c>
+      <c r="BI86">
+        <v>1.56</v>
+      </c>
+      <c r="BJ86">
+        <v>2.2</v>
+      </c>
+      <c r="BK86">
+        <v>2</v>
+      </c>
+      <c r="BL86">
+        <v>1.8</v>
+      </c>
+      <c r="BM86">
+        <v>2.55</v>
+      </c>
+      <c r="BN86">
+        <v>1.42</v>
+      </c>
+      <c r="BO86">
+        <v>3.5</v>
+      </c>
+      <c r="BP86">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7481435</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45571.375</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>83</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>94</v>
+      </c>
+      <c r="P87" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q87">
+        <v>2.63</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
+        <v>4.75</v>
+      </c>
+      <c r="T87">
+        <v>1.5</v>
+      </c>
+      <c r="U87">
+        <v>2.5</v>
+      </c>
+      <c r="V87">
+        <v>3.4</v>
+      </c>
+      <c r="W87">
+        <v>1.3</v>
+      </c>
+      <c r="X87">
+        <v>10</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>1.9</v>
+      </c>
+      <c r="AA87">
+        <v>3</v>
+      </c>
+      <c r="AB87">
+        <v>4</v>
+      </c>
+      <c r="AC87">
+        <v>1.08</v>
+      </c>
+      <c r="AD87">
+        <v>7.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.42</v>
+      </c>
+      <c r="AF87">
+        <v>2.8</v>
+      </c>
+      <c r="AG87">
+        <v>2.2</v>
+      </c>
+      <c r="AH87">
+        <v>1.6</v>
+      </c>
+      <c r="AI87">
+        <v>2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.73</v>
+      </c>
+      <c r="AK87">
+        <v>1.22</v>
+      </c>
+      <c r="AL87">
+        <v>1.28</v>
+      </c>
+      <c r="AM87">
+        <v>1.83</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>1</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.47</v>
+      </c>
+      <c r="AS87">
+        <v>1</v>
+      </c>
+      <c r="AT87">
+        <v>2.47</v>
+      </c>
+      <c r="AU87">
+        <v>7</v>
+      </c>
+      <c r="AV87">
+        <v>6</v>
+      </c>
+      <c r="AW87">
+        <v>8</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+      <c r="AY87">
+        <v>21</v>
+      </c>
+      <c r="AZ87">
+        <v>14</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>5</v>
+      </c>
+      <c r="BC87">
+        <v>10</v>
+      </c>
+      <c r="BD87">
+        <v>1.69</v>
+      </c>
+      <c r="BE87">
+        <v>8</v>
+      </c>
+      <c r="BF87">
+        <v>2.54</v>
+      </c>
+      <c r="BG87">
+        <v>1.27</v>
+      </c>
+      <c r="BH87">
+        <v>3.3</v>
+      </c>
+      <c r="BI87">
+        <v>1.5</v>
+      </c>
+      <c r="BJ87">
+        <v>2.35</v>
+      </c>
+      <c r="BK87">
+        <v>1.92</v>
+      </c>
+      <c r="BL87">
+        <v>1.88</v>
+      </c>
+      <c r="BM87">
+        <v>2.4</v>
+      </c>
+      <c r="BN87">
+        <v>1.48</v>
+      </c>
+      <c r="BO87">
+        <v>3.25</v>
+      </c>
+      <c r="BP87">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7481437</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45571.5625</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s">
+        <v>89</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>94</v>
+      </c>
+      <c r="P88" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q88">
+        <v>2.75</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>4.33</v>
+      </c>
+      <c r="T88">
+        <v>1.44</v>
+      </c>
+      <c r="U88">
+        <v>2.63</v>
+      </c>
+      <c r="V88">
+        <v>3.25</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>2.08</v>
+      </c>
+      <c r="AA88">
+        <v>3.1</v>
+      </c>
+      <c r="AB88">
+        <v>3.45</v>
+      </c>
+      <c r="AC88">
+        <v>1.07</v>
+      </c>
+      <c r="AD88">
+        <v>8</v>
+      </c>
+      <c r="AE88">
+        <v>1.38</v>
+      </c>
+      <c r="AF88">
+        <v>3</v>
+      </c>
+      <c r="AG88">
+        <v>2.12</v>
+      </c>
+      <c r="AH88">
+        <v>1.64</v>
+      </c>
+      <c r="AI88">
+        <v>1.91</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.28</v>
+      </c>
+      <c r="AL88">
+        <v>1.34</v>
+      </c>
+      <c r="AM88">
+        <v>1.73</v>
+      </c>
+      <c r="AN88">
+        <v>2.33</v>
+      </c>
+      <c r="AO88">
+        <v>1.25</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>1.2</v>
+      </c>
+      <c r="AR88">
+        <v>1.96</v>
+      </c>
+      <c r="AS88">
+        <v>0.98</v>
+      </c>
+      <c r="AT88">
+        <v>2.94</v>
+      </c>
+      <c r="AU88">
+        <v>2</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>9</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>1</v>
+      </c>
+      <c r="BB88">
+        <v>9</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>1.64</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>2.77</v>
+      </c>
+      <c r="BG88">
+        <v>1.32</v>
+      </c>
+      <c r="BH88">
+        <v>2.95</v>
+      </c>
+      <c r="BI88">
+        <v>1.58</v>
+      </c>
+      <c r="BJ88">
+        <v>2.16</v>
+      </c>
+      <c r="BK88">
+        <v>2</v>
+      </c>
+      <c r="BL88">
+        <v>1.73</v>
+      </c>
+      <c r="BM88">
+        <v>2.63</v>
+      </c>
+      <c r="BN88">
+        <v>1.41</v>
+      </c>
+      <c r="BO88">
+        <v>3.6</v>
+      </c>
+      <c r="BP88">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7481433</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45571.66666666666</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>85</v>
+      </c>
+      <c r="H89" t="s">
+        <v>88</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>153</v>
+      </c>
+      <c r="P89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q89">
+        <v>2.75</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <v>1.36</v>
+      </c>
+      <c r="X89">
+        <v>9</v>
+      </c>
+      <c r="Y89">
+        <v>1.07</v>
+      </c>
+      <c r="Z89">
+        <v>2.18</v>
+      </c>
+      <c r="AA89">
+        <v>3.1</v>
+      </c>
+      <c r="AB89">
+        <v>3.2</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>8</v>
+      </c>
+      <c r="AE89">
+        <v>1.29</v>
+      </c>
+      <c r="AF89">
+        <v>3.3</v>
+      </c>
+      <c r="AG89">
+        <v>1.95</v>
+      </c>
+      <c r="AH89">
+        <v>1.76</v>
+      </c>
+      <c r="AI89">
+        <v>1.8</v>
+      </c>
+      <c r="AJ89">
+        <v>1.91</v>
+      </c>
+      <c r="AK89">
+        <v>1.3</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.65</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>0.25</v>
+      </c>
+      <c r="AR89">
+        <v>1.52</v>
+      </c>
+      <c r="AS89">
+        <v>1.43</v>
+      </c>
+      <c r="AT89">
+        <v>2.95</v>
+      </c>
+      <c r="AU89">
+        <v>6</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>9</v>
+      </c>
+      <c r="AX89">
+        <v>6</v>
+      </c>
+      <c r="AY89">
+        <v>19</v>
+      </c>
+      <c r="AZ89">
+        <v>12</v>
+      </c>
+      <c r="BA89">
+        <v>8</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>11</v>
+      </c>
+      <c r="BD89">
+        <v>2</v>
+      </c>
+      <c r="BE89">
+        <v>7.5</v>
+      </c>
+      <c r="BF89">
+        <v>2.1</v>
+      </c>
+      <c r="BG89">
+        <v>1.32</v>
+      </c>
+      <c r="BH89">
+        <v>2.95</v>
+      </c>
+      <c r="BI89">
+        <v>1.58</v>
+      </c>
+      <c r="BJ89">
+        <v>2.16</v>
+      </c>
+      <c r="BK89">
+        <v>2</v>
+      </c>
+      <c r="BL89">
+        <v>1.73</v>
+      </c>
+      <c r="BM89">
+        <v>2.63</v>
+      </c>
+      <c r="BN89">
+        <v>1.4</v>
+      </c>
+      <c r="BO89">
+        <v>3.6</v>
+      </c>
+      <c r="BP89">
         <v>1.23</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -457,27 +457,27 @@
     <t>['45+3', '48', '62']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['57', '66']</t>
   </si>
   <si>
     <t>['29', '89']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
     <t>['36', '90+3']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['18', '25']</t>
   </si>
   <si>
-    <t>['31']</t>
-  </si>
-  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -598,19 +598,19 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['29', '39', '90+5']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['33', '40', '71']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
-    <t>['29', '39', '90+5']</t>
+    <t>['80']</t>
   </si>
   <si>
     <t>['13', '38', '42']</t>
-  </si>
-  <si>
-    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -9265,7 +9265,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.75</v>
@@ -10089,7 +10089,7 @@
         <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -17257,7 +17257,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7481443</v>
+        <v>7481441</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17266,196 +17266,196 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45569.875</v>
+        <v>45570.375</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H80" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O80" t="s">
         <v>147</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="Q80">
-        <v>2.88</v>
+        <v>3.9</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="T80">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U80">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="V80">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="W80">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
-        <v>9</v>
+        <v>10.2</v>
       </c>
       <c r="Y80">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="Z80">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="AA80">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="AB80">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AC80">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="AD80">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="AE80">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AF80">
-        <v>3.3</v>
+        <v>2.43</v>
       </c>
       <c r="AG80">
-        <v>1.96</v>
+        <v>2.55</v>
       </c>
       <c r="AH80">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AI80">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ80">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AK80">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AL80">
         <v>1.33</v>
       </c>
       <c r="AM80">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AN80">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
-        <v>1.8</v>
+        <v>1.23</v>
       </c>
       <c r="AS80">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AT80">
-        <v>3.19</v>
+        <v>2.49</v>
       </c>
       <c r="AU80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV80">
         <v>5</v>
       </c>
       <c r="AW80">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY80">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ80">
         <v>11</v>
       </c>
       <c r="BA80">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BB80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC80">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD80">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="BE80">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF80">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="BG80">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH80">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="BI80">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BJ80">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BK80">
         <v>2</v>
       </c>
       <c r="BL80">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="BM80">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BN80">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BO80">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BP80">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17463,7 +17463,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7481442</v>
+        <v>7481436</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17472,166 +17472,166 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45569.875</v>
+        <v>45570.46875</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O81" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q81">
-        <v>3.55</v>
+        <v>2.65</v>
       </c>
       <c r="R81">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="T81">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U81">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="V81">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X81">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="Y81">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z81">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="AA81">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AB81">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="AC81">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD81">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE81">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AF81">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="AG81">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AH81">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AI81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ81">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AK81">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AL81">
         <v>1.33</v>
       </c>
       <c r="AM81">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AN81">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO81">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
-        <v>1.07</v>
+        <v>1.41</v>
       </c>
       <c r="AS81">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="AT81">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="AU81">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV81">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX81">
+        <v>4</v>
+      </c>
+      <c r="AY81">
+        <v>15</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BB81">
         <v>5</v>
       </c>
-      <c r="AY81">
-        <v>14</v>
-      </c>
-      <c r="AZ81">
-        <v>5</v>
-      </c>
-      <c r="BA81">
+      <c r="BC81">
+        <v>7</v>
+      </c>
+      <c r="BD81">
+        <v>1.64</v>
+      </c>
+      <c r="BE81">
         <v>8</v>
       </c>
-      <c r="BB81">
-        <v>1</v>
-      </c>
-      <c r="BC81">
-        <v>9</v>
-      </c>
-      <c r="BD81">
-        <v>2</v>
-      </c>
-      <c r="BE81">
-        <v>7.5</v>
-      </c>
       <c r="BF81">
-        <v>2.05</v>
+        <v>2.77</v>
       </c>
       <c r="BG81">
         <v>1.34</v>
@@ -17669,7 +17669,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7481434</v>
+        <v>7481442</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17678,196 +17678,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45569.875</v>
+        <v>45570.46875</v>
       </c>
       <c r="F82">
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H82" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="Q82">
+        <v>3.55</v>
+      </c>
+      <c r="R82">
+        <v>1.83</v>
+      </c>
+      <c r="S82">
+        <v>3.4</v>
+      </c>
+      <c r="T82">
+        <v>1.57</v>
+      </c>
+      <c r="U82">
         <v>2.25</v>
       </c>
-      <c r="R82">
-        <v>2.2</v>
-      </c>
-      <c r="S82">
-        <v>4.5</v>
-      </c>
-      <c r="T82">
+      <c r="V82">
+        <v>3.55</v>
+      </c>
+      <c r="W82">
+        <v>1.25</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Y82">
+        <v>1.03</v>
+      </c>
+      <c r="Z82">
+        <v>2.75</v>
+      </c>
+      <c r="AA82">
+        <v>3</v>
+      </c>
+      <c r="AB82">
+        <v>2.6</v>
+      </c>
+      <c r="AC82">
+        <v>1.11</v>
+      </c>
+      <c r="AD82">
+        <v>6.25</v>
+      </c>
+      <c r="AE82">
+        <v>1.47</v>
+      </c>
+      <c r="AF82">
+        <v>2.48</v>
+      </c>
+      <c r="AG82">
+        <v>2.4</v>
+      </c>
+      <c r="AH82">
+        <v>1.52</v>
+      </c>
+      <c r="AI82">
+        <v>2</v>
+      </c>
+      <c r="AJ82">
+        <v>1.7</v>
+      </c>
+      <c r="AK82">
+        <v>1.45</v>
+      </c>
+      <c r="AL82">
         <v>1.33</v>
       </c>
-      <c r="U82">
+      <c r="AM82">
+        <v>1.4</v>
+      </c>
+      <c r="AN82">
+        <v>2.5</v>
+      </c>
+      <c r="AO82">
+        <v>1.67</v>
+      </c>
+      <c r="AP82">
+        <v>2</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>1.07</v>
+      </c>
+      <c r="AS82">
+        <v>1.28</v>
+      </c>
+      <c r="AT82">
+        <v>2.35</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
         <v>3</v>
       </c>
-      <c r="V82">
-        <v>2.45</v>
-      </c>
-      <c r="W82">
-        <v>1.48</v>
-      </c>
-      <c r="X82">
-        <v>6.05</v>
-      </c>
-      <c r="Y82">
-        <v>1.11</v>
-      </c>
-      <c r="Z82">
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>12</v>
+      </c>
+      <c r="AZ82">
+        <v>6</v>
+      </c>
+      <c r="BA82">
+        <v>8</v>
+      </c>
+      <c r="BB82">
+        <v>1</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>2</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.05</v>
+      </c>
+      <c r="BG82">
+        <v>1.34</v>
+      </c>
+      <c r="BH82">
+        <v>2.88</v>
+      </c>
+      <c r="BI82">
         <v>1.7</v>
       </c>
-      <c r="AA82">
-        <v>3.8</v>
-      </c>
-      <c r="AB82">
-        <v>4.4</v>
-      </c>
-      <c r="AC82">
-        <v>1.05</v>
-      </c>
-      <c r="AD82">
-        <v>9.5</v>
-      </c>
-      <c r="AE82">
-        <v>1.25</v>
-      </c>
-      <c r="AF82">
-        <v>3.95</v>
-      </c>
-      <c r="AG82">
-        <v>1.71</v>
-      </c>
-      <c r="AH82">
-        <v>2.02</v>
-      </c>
-      <c r="AI82">
+      <c r="BJ82">
+        <v>2.05</v>
+      </c>
+      <c r="BK82">
+        <v>2.05</v>
+      </c>
+      <c r="BL82">
         <v>1.65</v>
       </c>
-      <c r="AJ82">
-        <v>2.05</v>
-      </c>
-      <c r="AK82">
-        <v>1.18</v>
-      </c>
-      <c r="AL82">
-        <v>1.22</v>
-      </c>
-      <c r="AM82">
-        <v>2.05</v>
-      </c>
-      <c r="AN82">
-        <v>0.67</v>
-      </c>
-      <c r="AO82">
-        <v>2.33</v>
-      </c>
-      <c r="AP82">
-        <v>1.25</v>
-      </c>
-      <c r="AQ82">
-        <v>1.75</v>
-      </c>
-      <c r="AR82">
-        <v>1.79</v>
-      </c>
-      <c r="AS82">
-        <v>1.34</v>
-      </c>
-      <c r="AT82">
-        <v>3.13</v>
-      </c>
-      <c r="AU82">
-        <v>8</v>
-      </c>
-      <c r="AV82">
-        <v>8</v>
-      </c>
-      <c r="AW82">
-        <v>7</v>
-      </c>
-      <c r="AX82">
-        <v>7</v>
-      </c>
-      <c r="AY82">
-        <v>15</v>
-      </c>
-      <c r="AZ82">
-        <v>15</v>
-      </c>
-      <c r="BA82">
-        <v>5</v>
-      </c>
-      <c r="BB82">
-        <v>8</v>
-      </c>
-      <c r="BC82">
-        <v>13</v>
-      </c>
-      <c r="BD82">
-        <v>1.51</v>
-      </c>
-      <c r="BE82">
-        <v>8.5</v>
-      </c>
-      <c r="BF82">
-        <v>3.07</v>
-      </c>
-      <c r="BG82">
-        <v>1.3</v>
-      </c>
-      <c r="BH82">
-        <v>3.05</v>
-      </c>
-      <c r="BI82">
-        <v>1.56</v>
-      </c>
-      <c r="BJ82">
-        <v>2.2</v>
-      </c>
-      <c r="BK82">
-        <v>2</v>
-      </c>
-      <c r="BL82">
-        <v>1.73</v>
-      </c>
       <c r="BM82">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BN82">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BO82">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="BP82">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17875,7 +17875,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7481436</v>
+        <v>7481443</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17884,34 +17884,34 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45569.875</v>
+        <v>45570.5625</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>2</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
         <v>3</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O83" t="s">
         <v>149</v>
@@ -17920,160 +17920,160 @@
         <v>196</v>
       </c>
       <c r="Q83">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S83">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T83">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="U83">
-        <v>2.28</v>
+        <v>2.63</v>
       </c>
       <c r="V83">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="W83">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X83">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="Y83">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="Z83">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AA83">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB83">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="AC83">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AD83">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE83">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AF83">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AG83">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="AH83">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AI83">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AJ83">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AK83">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AL83">
         <v>1.33</v>
       </c>
       <c r="AM83">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AN83">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO83">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AP83">
+        <v>2</v>
+      </c>
+      <c r="AQ83">
+        <v>3</v>
+      </c>
+      <c r="AR83">
+        <v>1.8</v>
+      </c>
+      <c r="AS83">
+        <v>1.39</v>
+      </c>
+      <c r="AT83">
+        <v>3.19</v>
+      </c>
+      <c r="AU83">
+        <v>9</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>8</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>19</v>
+      </c>
+      <c r="AZ83">
+        <v>15</v>
+      </c>
+      <c r="BA83">
+        <v>11</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>12</v>
+      </c>
+      <c r="BD83">
         <v>1.75</v>
-      </c>
-      <c r="AQ83">
-        <v>1.25</v>
-      </c>
-      <c r="AR83">
-        <v>1.41</v>
-      </c>
-      <c r="AS83">
-        <v>1.01</v>
-      </c>
-      <c r="AT83">
-        <v>2.42</v>
-      </c>
-      <c r="AU83">
-        <v>6</v>
-      </c>
-      <c r="AV83">
-        <v>3</v>
-      </c>
-      <c r="AW83">
-        <v>4</v>
-      </c>
-      <c r="AX83">
-        <v>3</v>
-      </c>
-      <c r="AY83">
-        <v>10</v>
-      </c>
-      <c r="AZ83">
-        <v>6</v>
-      </c>
-      <c r="BA83">
-        <v>2</v>
-      </c>
-      <c r="BB83">
-        <v>5</v>
-      </c>
-      <c r="BC83">
-        <v>7</v>
-      </c>
-      <c r="BD83">
-        <v>1.64</v>
       </c>
       <c r="BE83">
         <v>8</v>
       </c>
       <c r="BF83">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="BG83">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH83">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="BI83">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BJ83">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BK83">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL83">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BM83">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BN83">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BO83">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BP83">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18081,7 +18081,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7481439</v>
+        <v>7481434</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18090,16 +18090,16 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45569.875</v>
+        <v>45570.5625</v>
       </c>
       <c r="F84">
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -18126,121 +18126,121 @@
         <v>94</v>
       </c>
       <c r="Q84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S84">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T84">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="U84">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V84">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="W84">
+        <v>1.48</v>
+      </c>
+      <c r="X84">
+        <v>6.05</v>
+      </c>
+      <c r="Y84">
+        <v>1.11</v>
+      </c>
+      <c r="Z84">
+        <v>1.7</v>
+      </c>
+      <c r="AA84">
+        <v>3.8</v>
+      </c>
+      <c r="AB84">
+        <v>4.4</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>9.5</v>
+      </c>
+      <c r="AE84">
         <v>1.25</v>
       </c>
-      <c r="X84">
-        <v>11</v>
-      </c>
-      <c r="Y84">
-        <v>1.05</v>
-      </c>
-      <c r="Z84">
-        <v>1.87</v>
-      </c>
-      <c r="AA84">
-        <v>3.38</v>
-      </c>
-      <c r="AB84">
-        <v>3.87</v>
-      </c>
-      <c r="AC84">
-        <v>1.07</v>
-      </c>
-      <c r="AD84">
-        <v>7</v>
-      </c>
-      <c r="AE84">
-        <v>1.5</v>
-      </c>
       <c r="AF84">
-        <v>2.4</v>
+        <v>3.95</v>
       </c>
       <c r="AG84">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="AH84">
+        <v>2.02</v>
+      </c>
+      <c r="AI84">
+        <v>1.65</v>
+      </c>
+      <c r="AJ84">
+        <v>2.05</v>
+      </c>
+      <c r="AK84">
+        <v>1.18</v>
+      </c>
+      <c r="AL84">
+        <v>1.22</v>
+      </c>
+      <c r="AM84">
+        <v>2.05</v>
+      </c>
+      <c r="AN84">
+        <v>0.67</v>
+      </c>
+      <c r="AO84">
+        <v>2.33</v>
+      </c>
+      <c r="AP84">
+        <v>1.25</v>
+      </c>
+      <c r="AQ84">
         <v>1.75</v>
       </c>
-      <c r="AI84">
-        <v>2.25</v>
-      </c>
-      <c r="AJ84">
-        <v>1.57</v>
-      </c>
-      <c r="AK84">
-        <v>1.17</v>
-      </c>
-      <c r="AL84">
-        <v>1.33</v>
-      </c>
-      <c r="AM84">
-        <v>2.01</v>
-      </c>
-      <c r="AN84">
-        <v>0.33</v>
-      </c>
-      <c r="AO84">
-        <v>1.5</v>
-      </c>
-      <c r="AP84">
-        <v>1</v>
-      </c>
-      <c r="AQ84">
-        <v>1.2</v>
-      </c>
       <c r="AR84">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="AS84">
-        <v>0.89</v>
+        <v>1.34</v>
       </c>
       <c r="AT84">
-        <v>2.27</v>
+        <v>3.13</v>
       </c>
       <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>6</v>
+      </c>
+      <c r="AW84">
         <v>5</v>
       </c>
-      <c r="AV84">
-        <v>4</v>
-      </c>
-      <c r="AW84">
+      <c r="AX84">
+        <v>9</v>
+      </c>
+      <c r="AY84">
+        <v>18</v>
+      </c>
+      <c r="AZ84">
+        <v>19</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
         <v>8</v>
       </c>
-      <c r="AX84">
-        <v>1</v>
-      </c>
-      <c r="AY84">
+      <c r="BC84">
         <v>13</v>
-      </c>
-      <c r="AZ84">
-        <v>5</v>
-      </c>
-      <c r="BA84">
-        <v>3</v>
-      </c>
-      <c r="BB84">
-        <v>6</v>
-      </c>
-      <c r="BC84">
-        <v>9</v>
       </c>
       <c r="BD84">
         <v>1.51</v>
@@ -18249,37 +18249,37 @@
         <v>8.5</v>
       </c>
       <c r="BF84">
-        <v>3.16</v>
+        <v>3.07</v>
       </c>
       <c r="BG84">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH84">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="BI84">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BJ84">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BK84">
         <v>2</v>
       </c>
       <c r="BL84">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="BM84">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BN84">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="BO84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BP84">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18287,7 +18287,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7481441</v>
+        <v>7481439</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18296,16 +18296,16 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45570.375</v>
+        <v>45570.66666666666</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -18317,13 +18317,13 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O85" t="s">
         <v>151</v>
@@ -18332,13 +18332,13 @@
         <v>94</v>
       </c>
       <c r="Q85">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T85">
         <v>1.57</v>
@@ -18347,115 +18347,115 @@
         <v>2.25</v>
       </c>
       <c r="V85">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="W85">
         <v>1.25</v>
       </c>
       <c r="X85">
-        <v>10.2</v>
+        <v>11</v>
       </c>
       <c r="Y85">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z85">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="AA85">
-        <v>2.9</v>
+        <v>3.38</v>
       </c>
       <c r="AB85">
-        <v>2.5</v>
+        <v>3.87</v>
       </c>
       <c r="AC85">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AD85">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AE85">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AF85">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AG85">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="AH85">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AI85">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ85">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AK85">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="AL85">
         <v>1.33</v>
       </c>
       <c r="AM85">
-        <v>1.33</v>
+        <v>2.01</v>
       </c>
       <c r="AN85">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO85">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP85">
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AS85">
-        <v>1.26</v>
+        <v>0.89</v>
       </c>
       <c r="AT85">
-        <v>2.49</v>
+        <v>2.27</v>
       </c>
       <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
         <v>4</v>
       </c>
-      <c r="AV85">
+      <c r="AW85">
+        <v>9</v>
+      </c>
+      <c r="AX85">
+        <v>1</v>
+      </c>
+      <c r="AY85">
+        <v>19</v>
+      </c>
+      <c r="AZ85">
         <v>5</v>
       </c>
-      <c r="AW85">
+      <c r="BA85">
         <v>3</v>
       </c>
-      <c r="AX85">
-        <v>4</v>
-      </c>
-      <c r="AY85">
-        <v>10</v>
-      </c>
-      <c r="AZ85">
-        <v>11</v>
-      </c>
-      <c r="BA85">
-        <v>5</v>
-      </c>
       <c r="BB85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD85">
-        <v>2.2</v>
+        <v>1.51</v>
       </c>
       <c r="BE85">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF85">
-        <v>1.91</v>
+        <v>3.16</v>
       </c>
       <c r="BG85">
         <v>1.32</v>
@@ -18479,7 +18479,7 @@
         <v>2.63</v>
       </c>
       <c r="BN85">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BO85">
         <v>3.6</v>
@@ -18493,7 +18493,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7481440</v>
+        <v>7481433</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18505,31 +18505,31 @@
         <v>45570.875</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
         <v>152</v>
@@ -18538,13 +18538,13 @@
         <v>197</v>
       </c>
       <c r="Q86">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R86">
         <v>2.1</v>
       </c>
       <c r="S86">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T86">
         <v>1.4</v>
@@ -18559,31 +18559,31 @@
         <v>1.36</v>
       </c>
       <c r="X86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y86">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z86">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AA86">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AB86">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AC86">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD86">
         <v>8</v>
       </c>
       <c r="AE86">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AF86">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="AG86">
         <v>1.95</v>
@@ -18592,106 +18592,106 @@
         <v>1.76</v>
       </c>
       <c r="AI86">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ86">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK86">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AL86">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM86">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="AR86">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AS86">
         <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU86">
         <v>4</v>
       </c>
       <c r="AV86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW86">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX86">
         <v>4</v>
       </c>
       <c r="AY86">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA86">
         <v>8</v>
       </c>
       <c r="BB86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC86">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD86">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="BE86">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF86">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="BG86">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH86">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="BI86">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BJ86">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="BK86">
         <v>2</v>
       </c>
       <c r="BL86">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BM86">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BN86">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BO86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BP86">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18699,7 +18699,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7481435</v>
+        <v>7481437</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18708,16 +18708,16 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45571.375</v>
+        <v>45570.875</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -18744,25 +18744,25 @@
         <v>94</v>
       </c>
       <c r="Q87">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R87">
         <v>2.05</v>
       </c>
       <c r="S87">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="T87">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U87">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V87">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W87">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X87">
         <v>10</v>
@@ -18771,133 +18771,133 @@
         <v>1.06</v>
       </c>
       <c r="Z87">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AA87">
+        <v>3.1</v>
+      </c>
+      <c r="AB87">
+        <v>3.45</v>
+      </c>
+      <c r="AC87">
+        <v>1.07</v>
+      </c>
+      <c r="AD87">
+        <v>8</v>
+      </c>
+      <c r="AE87">
+        <v>1.38</v>
+      </c>
+      <c r="AF87">
         <v>3</v>
       </c>
-      <c r="AB87">
+      <c r="AG87">
+        <v>2.12</v>
+      </c>
+      <c r="AH87">
+        <v>1.64</v>
+      </c>
+      <c r="AI87">
+        <v>1.91</v>
+      </c>
+      <c r="AJ87">
+        <v>1.8</v>
+      </c>
+      <c r="AK87">
+        <v>1.28</v>
+      </c>
+      <c r="AL87">
+        <v>1.34</v>
+      </c>
+      <c r="AM87">
+        <v>1.73</v>
+      </c>
+      <c r="AN87">
+        <v>2.33</v>
+      </c>
+      <c r="AO87">
+        <v>1.25</v>
+      </c>
+      <c r="AP87">
+        <v>2</v>
+      </c>
+      <c r="AQ87">
+        <v>1.2</v>
+      </c>
+      <c r="AR87">
+        <v>1.96</v>
+      </c>
+      <c r="AS87">
+        <v>0.98</v>
+      </c>
+      <c r="AT87">
+        <v>2.94</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
         <v>4</v>
       </c>
-      <c r="AC87">
-        <v>1.08</v>
-      </c>
-      <c r="AD87">
-        <v>7.5</v>
-      </c>
-      <c r="AE87">
-        <v>1.42</v>
-      </c>
-      <c r="AF87">
-        <v>2.8</v>
-      </c>
-      <c r="AG87">
-        <v>2.2</v>
-      </c>
-      <c r="AH87">
-        <v>1.6</v>
-      </c>
-      <c r="AI87">
-        <v>2</v>
-      </c>
-      <c r="AJ87">
-        <v>1.73</v>
-      </c>
-      <c r="AK87">
-        <v>1.22</v>
-      </c>
-      <c r="AL87">
-        <v>1.28</v>
-      </c>
-      <c r="AM87">
-        <v>1.83</v>
-      </c>
-      <c r="AN87">
-        <v>1</v>
-      </c>
-      <c r="AO87">
-        <v>1</v>
-      </c>
-      <c r="AP87">
-        <v>1</v>
-      </c>
-      <c r="AQ87">
-        <v>1</v>
-      </c>
-      <c r="AR87">
-        <v>1.47</v>
-      </c>
-      <c r="AS87">
-        <v>1</v>
-      </c>
-      <c r="AT87">
-        <v>2.47</v>
-      </c>
-      <c r="AU87">
-        <v>7</v>
-      </c>
-      <c r="AV87">
-        <v>6</v>
-      </c>
-      <c r="AW87">
-        <v>8</v>
-      </c>
       <c r="AX87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY87">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AZ87">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BA87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB87">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC87">
         <v>10</v>
       </c>
       <c r="BD87">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="BE87">
         <v>8</v>
       </c>
       <c r="BF87">
-        <v>2.54</v>
+        <v>2.77</v>
       </c>
       <c r="BG87">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BH87">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BI87">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BJ87">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="BK87">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BL87">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BM87">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="BN87">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BO87">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="BP87">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18905,7 +18905,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7481437</v>
+        <v>7481435</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18914,16 +18914,16 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45571.5625</v>
+        <v>45571.375</v>
       </c>
       <c r="F88">
         <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -18950,25 +18950,25 @@
         <v>94</v>
       </c>
       <c r="Q88">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R88">
         <v>2.05</v>
       </c>
       <c r="S88">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="T88">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U88">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V88">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W88">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X88">
         <v>10</v>
@@ -18977,133 +18977,133 @@
         <v>1.06</v>
       </c>
       <c r="Z88">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="AA88">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB88">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="AC88">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD88">
+        <v>7.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.42</v>
+      </c>
+      <c r="AF88">
+        <v>2.8</v>
+      </c>
+      <c r="AG88">
+        <v>2.2</v>
+      </c>
+      <c r="AH88">
+        <v>1.6</v>
+      </c>
+      <c r="AI88">
+        <v>2</v>
+      </c>
+      <c r="AJ88">
+        <v>1.73</v>
+      </c>
+      <c r="AK88">
+        <v>1.22</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.83</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.47</v>
+      </c>
+      <c r="AS88">
+        <v>1</v>
+      </c>
+      <c r="AT88">
+        <v>2.47</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
         <v>8</v>
       </c>
-      <c r="AE88">
-        <v>1.38</v>
-      </c>
-      <c r="AF88">
-        <v>3</v>
-      </c>
-      <c r="AG88">
-        <v>2.12</v>
-      </c>
-      <c r="AH88">
-        <v>1.64</v>
-      </c>
-      <c r="AI88">
-        <v>1.91</v>
-      </c>
-      <c r="AJ88">
-        <v>1.8</v>
-      </c>
-      <c r="AK88">
-        <v>1.28</v>
-      </c>
-      <c r="AL88">
-        <v>1.34</v>
-      </c>
-      <c r="AM88">
-        <v>1.73</v>
-      </c>
-      <c r="AN88">
-        <v>2.33</v>
-      </c>
-      <c r="AO88">
-        <v>1.25</v>
-      </c>
-      <c r="AP88">
-        <v>2</v>
-      </c>
-      <c r="AQ88">
-        <v>1.2</v>
-      </c>
-      <c r="AR88">
-        <v>1.96</v>
-      </c>
-      <c r="AS88">
-        <v>0.98</v>
-      </c>
-      <c r="AT88">
-        <v>2.94</v>
-      </c>
-      <c r="AU88">
-        <v>2</v>
-      </c>
-      <c r="AV88">
-        <v>2</v>
-      </c>
-      <c r="AW88">
-        <v>4</v>
-      </c>
       <c r="AX88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY88">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AZ88">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB88">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC88">
         <v>10</v>
       </c>
       <c r="BD88">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="BE88">
         <v>8</v>
       </c>
       <c r="BF88">
-        <v>2.77</v>
+        <v>2.54</v>
       </c>
       <c r="BG88">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BH88">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BI88">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BJ88">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="BK88">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BL88">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BM88">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="BN88">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BO88">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="BP88">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19111,7 +19111,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7481433</v>
+        <v>7481440</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19120,34 +19120,34 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45571.66666666666</v>
+        <v>45571.46875</v>
       </c>
       <c r="F89">
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O89" t="s">
         <v>153</v>
@@ -19156,13 +19156,13 @@
         <v>198</v>
       </c>
       <c r="Q89">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R89">
         <v>2.1</v>
       </c>
       <c r="S89">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T89">
         <v>1.4</v>
@@ -19177,31 +19177,31 @@
         <v>1.36</v>
       </c>
       <c r="X89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y89">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z89">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AA89">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AB89">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AC89">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD89">
         <v>8</v>
       </c>
       <c r="AE89">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AF89">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="AG89">
         <v>1.95</v>
@@ -19210,106 +19210,106 @@
         <v>1.76</v>
       </c>
       <c r="AI89">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AJ89">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK89">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AL89">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM89">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="AR89">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AS89">
         <v>1.43</v>
       </c>
       <c r="AT89">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AU89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW89">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY89">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ89">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA89">
         <v>8</v>
       </c>
       <c r="BB89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC89">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD89">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="BE89">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF89">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="BG89">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH89">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="BI89">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BJ89">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="BK89">
         <v>2</v>
       </c>
       <c r="BL89">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BM89">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BN89">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="BO89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BP89">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -472,12 +472,12 @@
     <t>['36', '90+3']</t>
   </si>
   <si>
+    <t>['18', '25']</t>
+  </si>
+  <si>
     <t>['31']</t>
   </si>
   <si>
-    <t>['18', '25']</t>
-  </si>
-  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -598,19 +598,19 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['29', '39', '90+5']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['33', '40', '71']</t>
   </si>
   <si>
+    <t>['13', '38', '42']</t>
+  </si>
+  <si>
     <t>['80']</t>
-  </si>
-  <si>
-    <t>['13', '38', '42']</t>
   </si>
 </sst>
 </file>
@@ -10182,19 +10182,19 @@
         <v>2.23</v>
       </c>
       <c r="AU45">
+        <v>4</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
         <v>5</v>
-      </c>
-      <c r="AV45">
-        <v>2</v>
-      </c>
-      <c r="AW45">
-        <v>6</v>
       </c>
       <c r="AX45">
         <v>5</v>
       </c>
       <c r="AY45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ45">
         <v>11</v>
@@ -10818,13 +10818,13 @@
         <v>6</v>
       </c>
       <c r="BA48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB48">
         <v>2</v>
       </c>
       <c r="BC48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD48">
         <v>1.45</v>
@@ -14911,13 +14911,13 @@
         <v>1</v>
       </c>
       <c r="AR68">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AS68">
         <v>1.3</v>
       </c>
       <c r="AT68">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="AU68">
         <v>8</v>
@@ -15971,10 +15971,10 @@
         <v>5</v>
       </c>
       <c r="BB73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD73">
         <v>1.82</v>
@@ -17463,7 +17463,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7481436</v>
+        <v>7481442</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17475,163 +17475,163 @@
         <v>45570.46875</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H81" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O81" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="P81" t="s">
         <v>194</v>
       </c>
       <c r="Q81">
-        <v>2.65</v>
+        <v>3.55</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S81">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="T81">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U81">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="V81">
-        <v>3.34</v>
+        <v>3.55</v>
       </c>
       <c r="W81">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X81">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="Y81">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z81">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="AA81">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB81">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="AC81">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD81">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE81">
+        <v>1.47</v>
+      </c>
+      <c r="AF81">
+        <v>2.48</v>
+      </c>
+      <c r="AG81">
+        <v>2.4</v>
+      </c>
+      <c r="AH81">
+        <v>1.52</v>
+      </c>
+      <c r="AI81">
+        <v>2</v>
+      </c>
+      <c r="AJ81">
+        <v>1.7</v>
+      </c>
+      <c r="AK81">
         <v>1.45</v>
-      </c>
-      <c r="AF81">
-        <v>2.7</v>
-      </c>
-      <c r="AG81">
-        <v>2.3</v>
-      </c>
-      <c r="AH81">
-        <v>1.55</v>
-      </c>
-      <c r="AI81">
-        <v>1.95</v>
-      </c>
-      <c r="AJ81">
-        <v>1.73</v>
-      </c>
-      <c r="AK81">
-        <v>1.22</v>
       </c>
       <c r="AL81">
         <v>1.33</v>
       </c>
       <c r="AM81">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AN81">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AO81">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR81">
-        <v>1.41</v>
+        <v>1.07</v>
       </c>
       <c r="AS81">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="AT81">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="AU81">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX81">
         <v>4</v>
       </c>
       <c r="AY81">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ81">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA81">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC81">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD81">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="BE81">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF81">
-        <v>2.77</v>
+        <v>2.05</v>
       </c>
       <c r="BG81">
         <v>1.34</v>
@@ -17669,7 +17669,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7481442</v>
+        <v>7481436</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17681,163 +17681,163 @@
         <v>45570.46875</v>
       </c>
       <c r="F82">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O82" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="P82" t="s">
         <v>195</v>
       </c>
       <c r="Q82">
-        <v>3.55</v>
+        <v>2.65</v>
       </c>
       <c r="R82">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="T82">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U82">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="V82">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="W82">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X82">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="Y82">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z82">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="AA82">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AB82">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="AC82">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD82">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE82">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AF82">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="AG82">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AH82">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AI82">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ82">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AK82">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AL82">
         <v>1.33</v>
       </c>
       <c r="AM82">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AN82">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO82">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR82">
-        <v>1.07</v>
+        <v>1.41</v>
       </c>
       <c r="AS82">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="AT82">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="AU82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX82">
         <v>4</v>
       </c>
       <c r="AY82">
+        <v>15</v>
+      </c>
+      <c r="AZ82">
         <v>12</v>
       </c>
-      <c r="AZ82">
-        <v>6</v>
-      </c>
       <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>7</v>
+      </c>
+      <c r="BD82">
+        <v>1.64</v>
+      </c>
+      <c r="BE82">
         <v>8</v>
       </c>
-      <c r="BB82">
-        <v>1</v>
-      </c>
-      <c r="BC82">
-        <v>9</v>
-      </c>
-      <c r="BD82">
-        <v>2</v>
-      </c>
-      <c r="BE82">
-        <v>7.5</v>
-      </c>
       <c r="BF82">
-        <v>2.05</v>
+        <v>2.77</v>
       </c>
       <c r="BG82">
         <v>1.34</v>
@@ -18493,7 +18493,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7481433</v>
+        <v>7481435</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18502,196 +18502,196 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45570.875</v>
+        <v>45571.375</v>
       </c>
       <c r="F86">
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="Q86">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R86">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
+        <v>4.75</v>
+      </c>
+      <c r="T86">
+        <v>1.5</v>
+      </c>
+      <c r="U86">
+        <v>2.5</v>
+      </c>
+      <c r="V86">
+        <v>3.4</v>
+      </c>
+      <c r="W86">
+        <v>1.3</v>
+      </c>
+      <c r="X86">
+        <v>10</v>
+      </c>
+      <c r="Y86">
+        <v>1.06</v>
+      </c>
+      <c r="Z86">
+        <v>1.9</v>
+      </c>
+      <c r="AA86">
+        <v>3</v>
+      </c>
+      <c r="AB86">
         <v>4</v>
       </c>
-      <c r="T86">
-        <v>1.4</v>
-      </c>
-      <c r="U86">
-        <v>2.75</v>
-      </c>
-      <c r="V86">
-        <v>3</v>
-      </c>
-      <c r="W86">
-        <v>1.36</v>
-      </c>
-      <c r="X86">
-        <v>9</v>
-      </c>
-      <c r="Y86">
-        <v>1.07</v>
-      </c>
-      <c r="Z86">
-        <v>2.18</v>
-      </c>
-      <c r="AA86">
-        <v>3.1</v>
-      </c>
-      <c r="AB86">
-        <v>3.2</v>
-      </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD86">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE86">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AF86">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AG86">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AH86">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AI86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AJ86">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AK86">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL86">
         <v>1.28</v>
       </c>
       <c r="AM86">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AN86">
         <v>1</v>
       </c>
       <c r="AO86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP86">
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AR86">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AS86">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AT86">
-        <v>2.95</v>
+        <v>2.47</v>
       </c>
       <c r="AU86">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY86">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ86">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>10</v>
+      </c>
+      <c r="BD86">
+        <v>1.69</v>
+      </c>
+      <c r="BE86">
         <v>8</v>
       </c>
-      <c r="BB86">
-        <v>3</v>
-      </c>
-      <c r="BC86">
-        <v>11</v>
-      </c>
-      <c r="BD86">
-        <v>2</v>
-      </c>
-      <c r="BE86">
-        <v>7.5</v>
-      </c>
       <c r="BF86">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="BG86">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BH86">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BI86">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BJ86">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="BK86">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BL86">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BM86">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="BN86">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BO86">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="BP86">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18699,7 +18699,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7481437</v>
+        <v>7481440</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18708,196 +18708,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45570.875</v>
+        <v>45571.46875</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O87" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="Q87">
+        <v>3.25</v>
+      </c>
+      <c r="R87">
+        <v>2.1</v>
+      </c>
+      <c r="S87">
+        <v>3.25</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
         <v>2.75</v>
       </c>
-      <c r="R87">
-        <v>2.05</v>
-      </c>
-      <c r="S87">
-        <v>4.33</v>
-      </c>
-      <c r="T87">
-        <v>1.44</v>
-      </c>
-      <c r="U87">
-        <v>2.63</v>
-      </c>
       <c r="V87">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W87">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y87">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z87">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AA87">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AB87">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="AC87">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD87">
         <v>8</v>
       </c>
       <c r="AE87">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AF87">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="AG87">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="AH87">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="AI87">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AJ87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK87">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AL87">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AM87">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AN87">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO87">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR87">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="AS87">
-        <v>0.98</v>
+        <v>1.43</v>
       </c>
       <c r="AT87">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU87">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV87">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY87">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AZ87">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA87">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB87">
+        <v>1</v>
+      </c>
+      <c r="BC87">
         <v>9</v>
       </c>
-      <c r="BC87">
-        <v>10</v>
-      </c>
       <c r="BD87">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="BE87">
         <v>8</v>
       </c>
       <c r="BF87">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="BG87">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH87">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="BI87">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BJ87">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="BK87">
         <v>2</v>
       </c>
       <c r="BL87">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BM87">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BN87">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="BO87">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BP87">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18905,7 +18905,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7481435</v>
+        <v>7481437</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18914,16 +18914,16 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45571.375</v>
+        <v>45571.5625</v>
       </c>
       <c r="F88">
         <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -18950,25 +18950,25 @@
         <v>94</v>
       </c>
       <c r="Q88">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R88">
         <v>2.05</v>
       </c>
       <c r="S88">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="T88">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U88">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V88">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W88">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X88">
         <v>10</v>
@@ -18977,133 +18977,133 @@
         <v>1.06</v>
       </c>
       <c r="Z88">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AA88">
+        <v>3.1</v>
+      </c>
+      <c r="AB88">
+        <v>3.45</v>
+      </c>
+      <c r="AC88">
+        <v>1.07</v>
+      </c>
+      <c r="AD88">
+        <v>8</v>
+      </c>
+      <c r="AE88">
+        <v>1.38</v>
+      </c>
+      <c r="AF88">
         <v>3</v>
       </c>
-      <c r="AB88">
+      <c r="AG88">
+        <v>2.12</v>
+      </c>
+      <c r="AH88">
+        <v>1.64</v>
+      </c>
+      <c r="AI88">
+        <v>1.91</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.28</v>
+      </c>
+      <c r="AL88">
+        <v>1.34</v>
+      </c>
+      <c r="AM88">
+        <v>1.73</v>
+      </c>
+      <c r="AN88">
+        <v>2.33</v>
+      </c>
+      <c r="AO88">
+        <v>1.25</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>1.2</v>
+      </c>
+      <c r="AR88">
+        <v>1.96</v>
+      </c>
+      <c r="AS88">
+        <v>0.98</v>
+      </c>
+      <c r="AT88">
+        <v>2.94</v>
+      </c>
+      <c r="AU88">
+        <v>2</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
         <v>4</v>
       </c>
-      <c r="AC88">
-        <v>1.08</v>
-      </c>
-      <c r="AD88">
-        <v>7.5</v>
-      </c>
-      <c r="AE88">
-        <v>1.42</v>
-      </c>
-      <c r="AF88">
-        <v>2.8</v>
-      </c>
-      <c r="AG88">
-        <v>2.2</v>
-      </c>
-      <c r="AH88">
-        <v>1.6</v>
-      </c>
-      <c r="AI88">
-        <v>2</v>
-      </c>
-      <c r="AJ88">
-        <v>1.73</v>
-      </c>
-      <c r="AK88">
-        <v>1.22</v>
-      </c>
-      <c r="AL88">
-        <v>1.28</v>
-      </c>
-      <c r="AM88">
-        <v>1.83</v>
-      </c>
-      <c r="AN88">
-        <v>1</v>
-      </c>
-      <c r="AO88">
-        <v>1</v>
-      </c>
-      <c r="AP88">
-        <v>1</v>
-      </c>
-      <c r="AQ88">
-        <v>1</v>
-      </c>
-      <c r="AR88">
-        <v>1.47</v>
-      </c>
-      <c r="AS88">
-        <v>1</v>
-      </c>
-      <c r="AT88">
-        <v>2.47</v>
-      </c>
-      <c r="AU88">
-        <v>7</v>
-      </c>
-      <c r="AV88">
-        <v>6</v>
-      </c>
-      <c r="AW88">
-        <v>8</v>
-      </c>
       <c r="AX88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY88">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AZ88">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB88">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC88">
         <v>10</v>
       </c>
       <c r="BD88">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="BE88">
         <v>8</v>
       </c>
       <c r="BF88">
-        <v>2.54</v>
+        <v>2.77</v>
       </c>
       <c r="BG88">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BH88">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BI88">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BJ88">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="BK88">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BL88">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BM88">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="BN88">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BO88">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="BP88">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19111,7 +19111,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7481440</v>
+        <v>7481433</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19120,34 +19120,34 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45571.46875</v>
+        <v>45571.66666666666</v>
       </c>
       <c r="F89">
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
         <v>153</v>
@@ -19156,13 +19156,13 @@
         <v>198</v>
       </c>
       <c r="Q89">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R89">
         <v>2.1</v>
       </c>
       <c r="S89">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T89">
         <v>1.4</v>
@@ -19177,31 +19177,31 @@
         <v>1.36</v>
       </c>
       <c r="X89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y89">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z89">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AA89">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AB89">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AC89">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD89">
         <v>8</v>
       </c>
       <c r="AE89">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AF89">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="AG89">
         <v>1.95</v>
@@ -19210,106 +19210,106 @@
         <v>1.76</v>
       </c>
       <c r="AI89">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ89">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK89">
+        <v>1.3</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.65</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>0.25</v>
+      </c>
+      <c r="AR89">
         <v>1.46</v>
-      </c>
-      <c r="AL89">
-        <v>1.33</v>
-      </c>
-      <c r="AM89">
-        <v>1.5</v>
-      </c>
-      <c r="AN89">
-        <v>1.75</v>
-      </c>
-      <c r="AO89">
-        <v>2</v>
-      </c>
-      <c r="AP89">
-        <v>1.4</v>
-      </c>
-      <c r="AQ89">
-        <v>2.25</v>
-      </c>
-      <c r="AR89">
-        <v>1.47</v>
       </c>
       <c r="AS89">
         <v>1.43</v>
       </c>
       <c r="AT89">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="AU89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV89">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW89">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY89">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ89">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA89">
         <v>8</v>
       </c>
       <c r="BB89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD89">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="BE89">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF89">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="BG89">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH89">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="BI89">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BJ89">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="BK89">
         <v>2</v>
       </c>
       <c r="BL89">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BM89">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BN89">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BO89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BP89">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,15 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['11', '50']</t>
+  </si>
+  <si>
+    <t>['23', '41']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -611,6 +620,15 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['74', '79', '87']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['53', '82']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1249,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1643,7 +1661,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1721,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1849,7 +1867,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2133,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>2.25</v>
@@ -2261,7 +2279,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2467,7 +2485,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2673,7 +2691,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2879,7 +2897,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3085,7 +3103,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3291,7 +3309,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3497,7 +3515,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3703,7 +3721,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3990,7 +4008,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4321,7 +4339,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4733,7 +4751,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4811,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5351,7 +5369,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5432,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5557,7 +5575,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5763,7 +5781,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5969,7 +5987,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6175,7 +6193,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6253,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ26">
         <v>0.25</v>
@@ -6587,7 +6605,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6793,7 +6811,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7080,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7205,7 +7223,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7492,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7617,7 +7635,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7695,7 +7713,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -8029,7 +8047,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8107,7 +8125,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8235,7 +8253,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8647,7 +8665,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9883,7 +9901,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10579,7 +10597,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.25</v>
@@ -10707,7 +10725,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -10788,7 +10806,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.72</v>
@@ -11815,10 +11833,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ53">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.24</v>
@@ -12024,7 +12042,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12149,7 +12167,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12355,7 +12373,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12561,7 +12579,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12767,7 +12785,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13179,7 +13197,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13669,7 +13687,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -13797,7 +13815,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14003,7 +14021,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14415,7 +14433,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14827,7 +14845,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15239,7 +15257,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15317,10 +15335,10 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.25</v>
@@ -15526,7 +15544,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -15651,7 +15669,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15857,7 +15875,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16063,7 +16081,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16269,7 +16287,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16556,7 +16574,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -16887,7 +16905,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17093,7 +17111,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17505,7 +17523,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -17711,7 +17729,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -17789,7 +17807,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>1.25</v>
@@ -17917,7 +17935,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18407,7 +18425,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85">
         <v>1.2</v>
@@ -18741,7 +18759,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19153,7 +19171,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19310,6 +19328,830 @@
       </c>
       <c r="BP89">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7481448</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45575.875</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s">
+        <v>91</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90" t="s">
+        <v>154</v>
+      </c>
+      <c r="P90" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q90">
+        <v>3.2</v>
+      </c>
+      <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>4.2</v>
+      </c>
+      <c r="T90">
+        <v>1.64</v>
+      </c>
+      <c r="U90">
+        <v>2.14</v>
+      </c>
+      <c r="V90">
+        <v>3.95</v>
+      </c>
+      <c r="W90">
+        <v>1.21</v>
+      </c>
+      <c r="X90">
+        <v>11.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.01</v>
+      </c>
+      <c r="Z90">
+        <v>2.3</v>
+      </c>
+      <c r="AA90">
+        <v>3.04</v>
+      </c>
+      <c r="AB90">
+        <v>3.49</v>
+      </c>
+      <c r="AC90">
+        <v>1.12</v>
+      </c>
+      <c r="AD90">
+        <v>6</v>
+      </c>
+      <c r="AE90">
+        <v>1.57</v>
+      </c>
+      <c r="AF90">
+        <v>2.25</v>
+      </c>
+      <c r="AG90">
+        <v>2.75</v>
+      </c>
+      <c r="AH90">
+        <v>1.4</v>
+      </c>
+      <c r="AI90">
+        <v>2.2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.62</v>
+      </c>
+      <c r="AK90">
+        <v>1.3</v>
+      </c>
+      <c r="AL90">
+        <v>1.33</v>
+      </c>
+      <c r="AM90">
+        <v>1.57</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>1.4</v>
+      </c>
+      <c r="AP90">
+        <v>0.8</v>
+      </c>
+      <c r="AQ90">
+        <v>1.67</v>
+      </c>
+      <c r="AR90">
+        <v>1.45</v>
+      </c>
+      <c r="AS90">
+        <v>1.33</v>
+      </c>
+      <c r="AT90">
+        <v>2.78</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>12</v>
+      </c>
+      <c r="AW90">
+        <v>3</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>10</v>
+      </c>
+      <c r="AZ90">
+        <v>22</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>8</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>1.8</v>
+      </c>
+      <c r="BE90">
+        <v>7</v>
+      </c>
+      <c r="BF90">
+        <v>2.3</v>
+      </c>
+      <c r="BG90">
+        <v>1.31</v>
+      </c>
+      <c r="BH90">
+        <v>4.21</v>
+      </c>
+      <c r="BI90">
+        <v>1.44</v>
+      </c>
+      <c r="BJ90">
+        <v>2.55</v>
+      </c>
+      <c r="BK90">
+        <v>1.93</v>
+      </c>
+      <c r="BL90">
+        <v>2.08</v>
+      </c>
+      <c r="BM90">
+        <v>2.32</v>
+      </c>
+      <c r="BN90">
+        <v>1.52</v>
+      </c>
+      <c r="BO90">
+        <v>3.15</v>
+      </c>
+      <c r="BP90">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7481446</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45577.46875</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s">
+        <v>73</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>94</v>
+      </c>
+      <c r="P91" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q91">
+        <v>3.1</v>
+      </c>
+      <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
+        <v>3.75</v>
+      </c>
+      <c r="T91">
+        <v>1.58</v>
+      </c>
+      <c r="U91">
+        <v>2.26</v>
+      </c>
+      <c r="V91">
+        <v>3.6</v>
+      </c>
+      <c r="W91">
+        <v>1.25</v>
+      </c>
+      <c r="X91">
+        <v>9.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.03</v>
+      </c>
+      <c r="Z91">
+        <v>2.2</v>
+      </c>
+      <c r="AA91">
+        <v>2.87</v>
+      </c>
+      <c r="AB91">
+        <v>3.2</v>
+      </c>
+      <c r="AC91">
+        <v>1.1</v>
+      </c>
+      <c r="AD91">
+        <v>7</v>
+      </c>
+      <c r="AE91">
+        <v>1.48</v>
+      </c>
+      <c r="AF91">
+        <v>2.37</v>
+      </c>
+      <c r="AG91">
+        <v>2.4</v>
+      </c>
+      <c r="AH91">
+        <v>1.5</v>
+      </c>
+      <c r="AI91">
+        <v>2.1</v>
+      </c>
+      <c r="AJ91">
+        <v>1.68</v>
+      </c>
+      <c r="AK91">
+        <v>1.35</v>
+      </c>
+      <c r="AL91">
+        <v>1.3</v>
+      </c>
+      <c r="AM91">
+        <v>1.57</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0.33</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.18</v>
+      </c>
+      <c r="AS91">
+        <v>0.93</v>
+      </c>
+      <c r="AT91">
+        <v>2.11</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>2</v>
+      </c>
+      <c r="AX91">
+        <v>2</v>
+      </c>
+      <c r="AY91">
+        <v>7</v>
+      </c>
+      <c r="AZ91">
+        <v>6</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>4</v>
+      </c>
+      <c r="BD91">
+        <v>1.73</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>2.38</v>
+      </c>
+      <c r="BG91">
+        <v>1.27</v>
+      </c>
+      <c r="BH91">
+        <v>3.04</v>
+      </c>
+      <c r="BI91">
+        <v>1.7</v>
+      </c>
+      <c r="BJ91">
+        <v>2.05</v>
+      </c>
+      <c r="BK91">
+        <v>1.97</v>
+      </c>
+      <c r="BL91">
+        <v>1.78</v>
+      </c>
+      <c r="BM91">
+        <v>2.54</v>
+      </c>
+      <c r="BN91">
+        <v>1.43</v>
+      </c>
+      <c r="BO91">
+        <v>3.44</v>
+      </c>
+      <c r="BP91">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7481445</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45577.5625</v>
+      </c>
+      <c r="F92">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>83</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>155</v>
+      </c>
+      <c r="P92" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q92">
+        <v>2.38</v>
+      </c>
+      <c r="R92">
+        <v>2.05</v>
+      </c>
+      <c r="S92">
+        <v>6</v>
+      </c>
+      <c r="T92">
+        <v>1.5</v>
+      </c>
+      <c r="U92">
+        <v>2.5</v>
+      </c>
+      <c r="V92">
+        <v>3.4</v>
+      </c>
+      <c r="W92">
+        <v>1.3</v>
+      </c>
+      <c r="X92">
+        <v>10</v>
+      </c>
+      <c r="Y92">
+        <v>1.06</v>
+      </c>
+      <c r="Z92">
+        <v>1.65</v>
+      </c>
+      <c r="AA92">
+        <v>3.61</v>
+      </c>
+      <c r="AB92">
+        <v>5.47</v>
+      </c>
+      <c r="AC92">
+        <v>1.08</v>
+      </c>
+      <c r="AD92">
+        <v>7.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.42</v>
+      </c>
+      <c r="AF92">
+        <v>2.75</v>
+      </c>
+      <c r="AG92">
+        <v>2.3</v>
+      </c>
+      <c r="AH92">
+        <v>1.55</v>
+      </c>
+      <c r="AI92">
+        <v>2.2</v>
+      </c>
+      <c r="AJ92">
+        <v>1.62</v>
+      </c>
+      <c r="AK92">
+        <v>1.11</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>2.1</v>
+      </c>
+      <c r="AN92">
+        <v>0.5</v>
+      </c>
+      <c r="AO92">
+        <v>1</v>
+      </c>
+      <c r="AP92">
+        <v>0.6</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
+        <v>1.42</v>
+      </c>
+      <c r="AS92">
+        <v>1.11</v>
+      </c>
+      <c r="AT92">
+        <v>2.53</v>
+      </c>
+      <c r="AU92">
+        <v>9</v>
+      </c>
+      <c r="AV92">
+        <v>8</v>
+      </c>
+      <c r="AW92">
+        <v>5</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>16</v>
+      </c>
+      <c r="AZ92">
+        <v>14</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>10</v>
+      </c>
+      <c r="BD92">
+        <v>1.39</v>
+      </c>
+      <c r="BE92">
+        <v>7.5</v>
+      </c>
+      <c r="BF92">
+        <v>3.65</v>
+      </c>
+      <c r="BG92">
+        <v>1.37</v>
+      </c>
+      <c r="BH92">
+        <v>2.82</v>
+      </c>
+      <c r="BI92">
+        <v>1.7</v>
+      </c>
+      <c r="BJ92">
+        <v>2</v>
+      </c>
+      <c r="BK92">
+        <v>2.25</v>
+      </c>
+      <c r="BL92">
+        <v>1.55</v>
+      </c>
+      <c r="BM92">
+        <v>3.15</v>
+      </c>
+      <c r="BN92">
+        <v>1.3</v>
+      </c>
+      <c r="BO92">
+        <v>4.15</v>
+      </c>
+      <c r="BP92">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7481447</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45577.5625</v>
+      </c>
+      <c r="F93">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>156</v>
+      </c>
+      <c r="P93" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q93">
+        <v>2.3</v>
+      </c>
+      <c r="R93">
+        <v>2.05</v>
+      </c>
+      <c r="S93">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>1.44</v>
+      </c>
+      <c r="U93">
+        <v>2.6</v>
+      </c>
+      <c r="V93">
+        <v>2.95</v>
+      </c>
+      <c r="W93">
+        <v>1.35</v>
+      </c>
+      <c r="X93">
+        <v>7.6</v>
+      </c>
+      <c r="Y93">
+        <v>1.05</v>
+      </c>
+      <c r="Z93">
+        <v>1.71</v>
+      </c>
+      <c r="AA93">
+        <v>3.63</v>
+      </c>
+      <c r="AB93">
+        <v>4.86</v>
+      </c>
+      <c r="AC93">
+        <v>1.07</v>
+      </c>
+      <c r="AD93">
+        <v>8</v>
+      </c>
+      <c r="AE93">
+        <v>1.38</v>
+      </c>
+      <c r="AF93">
+        <v>3</v>
+      </c>
+      <c r="AG93">
+        <v>2.06</v>
+      </c>
+      <c r="AH93">
+        <v>1.68</v>
+      </c>
+      <c r="AI93">
+        <v>1.95</v>
+      </c>
+      <c r="AJ93">
+        <v>1.73</v>
+      </c>
+      <c r="AK93">
+        <v>1.15</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>2.1</v>
+      </c>
+      <c r="AN93">
+        <v>1.75</v>
+      </c>
+      <c r="AO93">
+        <v>1.33</v>
+      </c>
+      <c r="AP93">
+        <v>2</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.5</v>
+      </c>
+      <c r="AS93">
+        <v>1.19</v>
+      </c>
+      <c r="AT93">
+        <v>2.69</v>
+      </c>
+      <c r="AU93">
+        <v>8</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>8</v>
+      </c>
+      <c r="AY93">
+        <v>16</v>
+      </c>
+      <c r="AZ93">
+        <v>15</v>
+      </c>
+      <c r="BA93">
+        <v>6</v>
+      </c>
+      <c r="BB93">
+        <v>6</v>
+      </c>
+      <c r="BC93">
+        <v>12</v>
+      </c>
+      <c r="BD93">
+        <v>1.5</v>
+      </c>
+      <c r="BE93">
+        <v>8.6</v>
+      </c>
+      <c r="BF93">
+        <v>3.22</v>
+      </c>
+      <c r="BG93">
+        <v>1.22</v>
+      </c>
+      <c r="BH93">
+        <v>3.35</v>
+      </c>
+      <c r="BI93">
+        <v>1.7</v>
+      </c>
+      <c r="BJ93">
+        <v>2.05</v>
+      </c>
+      <c r="BK93">
+        <v>1.8</v>
+      </c>
+      <c r="BL93">
+        <v>1.9</v>
+      </c>
+      <c r="BM93">
+        <v>2.32</v>
+      </c>
+      <c r="BN93">
+        <v>1.51</v>
+      </c>
+      <c r="BO93">
+        <v>3.02</v>
+      </c>
+      <c r="BP93">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,10 +379,10 @@
     <t>['43', '90+8']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['44', '74', '81']</t>
   </si>
   <si>
-    <t>['44', '74', '81']</t>
+    <t>['46']</t>
   </si>
   <si>
     <t>['42']</t>
@@ -427,10 +427,10 @@
     <t>['4', '76']</t>
   </si>
   <si>
-    <t>['38']</t>
+    <t>['65']</t>
   </si>
   <si>
-    <t>['65']</t>
+    <t>['38']</t>
   </si>
   <si>
     <t>['27']</t>
@@ -445,10 +445,10 @@
     <t>['20', '71']</t>
   </si>
   <si>
-    <t>['43', '71', '84']</t>
+    <t>['47']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['43', '71', '84']</t>
   </si>
   <si>
     <t>['74']</t>
@@ -463,10 +463,10 @@
     <t>['18']</t>
   </si>
   <si>
-    <t>['57', '66']</t>
+    <t>['29', '89']</t>
   </si>
   <si>
-    <t>['29', '89']</t>
+    <t>['57', '66']</t>
   </si>
   <si>
     <t>['36', '90+3']</t>
@@ -485,6 +485,21 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['12', '18', '70']</t>
+  </si>
+  <si>
+    <t>['29', '80']</t>
+  </si>
+  <si>
+    <t>['62', '87']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -518,9 +533,6 @@
   </si>
   <si>
     <t>['54']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -607,10 +619,10 @@
     <t>['86']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['29', '39', '90+5']</t>
   </si>
   <si>
-    <t>['29', '39', '90+5']</t>
+    <t>['16']</t>
   </si>
   <si>
     <t>['33', '40', '71']</t>
@@ -625,10 +637,16 @@
     <t>['74', '79', '87']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['54', '82']</t>
   </si>
   <si>
-    <t>['53', '82']</t>
+    <t>['24', '67']</t>
+  </si>
+  <si>
+    <t>['38', '45+5']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1267,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1327,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1536,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1661,7 +1679,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1867,7 +1885,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2154,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2279,7 +2297,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2485,7 +2503,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2563,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2691,7 +2709,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2769,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2897,7 +2915,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2975,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>1.2</v>
@@ -3103,7 +3121,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3181,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3309,7 +3327,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3515,7 +3533,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3593,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -3721,7 +3739,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3799,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4005,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4339,7 +4357,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4626,7 +4644,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4751,7 +4769,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4832,7 +4850,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5369,7 +5387,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5575,7 +5593,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5781,7 +5799,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5859,7 +5877,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5987,7 +6005,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6065,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -6193,7 +6211,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6605,7 +6623,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6686,7 +6704,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -6811,7 +6829,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -6889,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR29">
         <v>1.44</v>
@@ -7223,7 +7241,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7635,7 +7653,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7716,7 +7734,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -7919,10 +7937,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8047,7 +8065,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8253,7 +8271,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8331,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8537,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8665,7 +8683,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8743,7 +8761,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.2</v>
@@ -9158,7 +9176,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9364,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9570,7 +9588,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -9901,7 +9919,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10477,7 +10495,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7481404</v>
+        <v>7481409</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10492,70 +10510,70 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O47" t="s">
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
       </c>
       <c r="R47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U47">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="V47">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="W47">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X47">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="Y47">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z47">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AA47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB47">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AC47">
         <v>1.05</v>
@@ -10564,118 +10582,118 @@
         <v>8</v>
       </c>
       <c r="AE47">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF47">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AG47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH47">
+        <v>1.7</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.73</v>
+      </c>
+      <c r="AK47">
+        <v>1.16</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.95</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
         <v>1.72</v>
       </c>
-      <c r="AI47">
-        <v>2.1</v>
-      </c>
-      <c r="AJ47">
-        <v>1.67</v>
-      </c>
-      <c r="AK47">
-        <v>1.17</v>
-      </c>
-      <c r="AL47">
-        <v>1.22</v>
-      </c>
-      <c r="AM47">
-        <v>2.05</v>
-      </c>
-      <c r="AN47">
-        <v>2</v>
-      </c>
-      <c r="AO47">
-        <v>0.5</v>
-      </c>
-      <c r="AP47">
-        <v>2</v>
-      </c>
-      <c r="AQ47">
-        <v>0.25</v>
-      </c>
-      <c r="AR47">
-        <v>1.67</v>
-      </c>
       <c r="AS47">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AT47">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
         <v>4</v>
       </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
       <c r="AW47">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>30</v>
+      </c>
+      <c r="AZ47">
         <v>6</v>
       </c>
-      <c r="AY47">
-        <v>6</v>
-      </c>
-      <c r="AZ47">
-        <v>8</v>
-      </c>
       <c r="BA47">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD47">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="BE47">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF47">
-        <v>3.83</v>
+        <v>3.46</v>
       </c>
       <c r="BG47">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH47">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="BI47">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BJ47">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BK47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL47">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BM47">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BN47">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BO47">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BP47">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10683,7 +10701,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7481409</v>
+        <v>7481404</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10698,70 +10716,70 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O48" t="s">
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S48">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T48">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U48">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="V48">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="W48">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X48">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="Y48">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z48">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AA48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB48">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AC48">
         <v>1.05</v>
@@ -10770,118 +10788,118 @@
         <v>8</v>
       </c>
       <c r="AE48">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF48">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AG48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AH48">
+        <v>1.72</v>
+      </c>
+      <c r="AI48">
+        <v>2.1</v>
+      </c>
+      <c r="AJ48">
+        <v>1.67</v>
+      </c>
+      <c r="AK48">
+        <v>1.17</v>
+      </c>
+      <c r="AL48">
+        <v>1.22</v>
+      </c>
+      <c r="AM48">
+        <v>2.05</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <v>0.25</v>
+      </c>
+      <c r="AR48">
+        <v>1.67</v>
+      </c>
+      <c r="AS48">
+        <v>1.19</v>
+      </c>
+      <c r="AT48">
+        <v>2.86</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>6</v>
+      </c>
+      <c r="AZ48">
+        <v>8</v>
+      </c>
+      <c r="BA48">
+        <v>4</v>
+      </c>
+      <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>1.37</v>
+      </c>
+      <c r="BE48">
+        <v>9</v>
+      </c>
+      <c r="BF48">
+        <v>3.83</v>
+      </c>
+      <c r="BG48">
+        <v>1.34</v>
+      </c>
+      <c r="BH48">
+        <v>2.88</v>
+      </c>
+      <c r="BI48">
         <v>1.7</v>
       </c>
-      <c r="AI48">
-        <v>2</v>
-      </c>
-      <c r="AJ48">
-        <v>1.73</v>
-      </c>
-      <c r="AK48">
-        <v>1.16</v>
-      </c>
-      <c r="AL48">
-        <v>1.25</v>
-      </c>
-      <c r="AM48">
-        <v>1.95</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>1</v>
-      </c>
-      <c r="AP48">
-        <v>2</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
-      </c>
-      <c r="AR48">
-        <v>1.72</v>
-      </c>
-      <c r="AS48">
+      <c r="BJ48">
+        <v>2.05</v>
+      </c>
+      <c r="BK48">
+        <v>2.1</v>
+      </c>
+      <c r="BL48">
+        <v>1.67</v>
+      </c>
+      <c r="BM48">
+        <v>2.7</v>
+      </c>
+      <c r="BN48">
         <v>1.38</v>
       </c>
-      <c r="AT48">
-        <v>3.1</v>
-      </c>
-      <c r="AU48">
-        <v>7</v>
-      </c>
-      <c r="AV48">
-        <v>4</v>
-      </c>
-      <c r="AW48">
-        <v>13</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>30</v>
-      </c>
-      <c r="AZ48">
-        <v>6</v>
-      </c>
-      <c r="BA48">
-        <v>10</v>
-      </c>
-      <c r="BB48">
-        <v>2</v>
-      </c>
-      <c r="BC48">
-        <v>12</v>
-      </c>
-      <c r="BD48">
-        <v>1.45</v>
-      </c>
-      <c r="BE48">
-        <v>8.5</v>
-      </c>
-      <c r="BF48">
-        <v>3.46</v>
-      </c>
-      <c r="BG48">
-        <v>1.3</v>
-      </c>
-      <c r="BH48">
-        <v>3.05</v>
-      </c>
-      <c r="BI48">
-        <v>1.56</v>
-      </c>
-      <c r="BJ48">
-        <v>2.2</v>
-      </c>
-      <c r="BK48">
-        <v>2</v>
-      </c>
-      <c r="BL48">
-        <v>1.8</v>
-      </c>
-      <c r="BM48">
-        <v>2.55</v>
-      </c>
-      <c r="BN48">
-        <v>1.42</v>
-      </c>
       <c r="BO48">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="BP48">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -11215,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11424,7 +11442,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -11627,7 +11645,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ52">
         <v>1.2</v>
@@ -12039,7 +12057,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>1.67</v>
@@ -12167,7 +12185,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12245,7 +12263,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12373,7 +12391,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12454,7 +12472,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR56">
         <v>1.94</v>
@@ -12579,7 +12597,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12657,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12785,7 +12803,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -12866,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13197,7 +13215,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13484,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13609,7 +13627,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q62">
         <v>2.95</v>
@@ -13773,7 +13791,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7481412</v>
+        <v>7481418</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13788,190 +13806,190 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q63">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R63">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T63">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="U63">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="V63">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="W63">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="X63">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y63">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="Z63">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="AA63">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB63">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="AC63">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AE63">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AF63">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="AG63">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AH63">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AI63">
+        <v>2.1</v>
+      </c>
+      <c r="AJ63">
         <v>1.67</v>
       </c>
-      <c r="AJ63">
-        <v>2.1</v>
-      </c>
       <c r="AK63">
+        <v>1.57</v>
+      </c>
+      <c r="AL63">
+        <v>1.37</v>
+      </c>
+      <c r="AM63">
         <v>1.25</v>
       </c>
-      <c r="AL63">
-        <v>1.28</v>
-      </c>
-      <c r="AM63">
-        <v>1.7</v>
-      </c>
       <c r="AN63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="AS63">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AT63">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="AU63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW63">
         <v>5</v>
       </c>
       <c r="AX63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY63">
+        <v>13</v>
+      </c>
+      <c r="AZ63">
+        <v>14</v>
+      </c>
+      <c r="BA63">
+        <v>9</v>
+      </c>
+      <c r="BB63">
+        <v>9</v>
+      </c>
+      <c r="BC63">
         <v>18</v>
       </c>
-      <c r="AZ63">
-        <v>10</v>
-      </c>
-      <c r="BA63">
-        <v>7</v>
-      </c>
-      <c r="BB63">
-        <v>3</v>
-      </c>
-      <c r="BC63">
-        <v>10</v>
-      </c>
       <c r="BD63">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="BE63">
         <v>8</v>
       </c>
       <c r="BF63">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="BG63">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BH63">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="BI63">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BJ63">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="BK63">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BL63">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BM63">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BN63">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BO63">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="BP63">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13979,7 +13997,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7481418</v>
+        <v>7481412</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13994,190 +14012,190 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>94</v>
+      </c>
+      <c r="P64" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q64">
+        <v>2.5</v>
+      </c>
+      <c r="R64">
+        <v>2.3</v>
+      </c>
+      <c r="S64">
+        <v>4.33</v>
+      </c>
+      <c r="T64">
+        <v>1.33</v>
+      </c>
+      <c r="U64">
+        <v>3.25</v>
+      </c>
+      <c r="V64">
+        <v>2.63</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>6.5</v>
+      </c>
+      <c r="Y64">
+        <v>1.11</v>
+      </c>
+      <c r="Z64">
+        <v>2.15</v>
+      </c>
+      <c r="AA64">
+        <v>3.1</v>
+      </c>
+      <c r="AB64">
+        <v>3.2</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>10</v>
+      </c>
+      <c r="AE64">
+        <v>1.2</v>
+      </c>
+      <c r="AF64">
+        <v>4</v>
+      </c>
+      <c r="AG64">
+        <v>2.25</v>
+      </c>
+      <c r="AH64">
+        <v>1.65</v>
+      </c>
+      <c r="AI64">
+        <v>1.67</v>
+      </c>
+      <c r="AJ64">
+        <v>2.1</v>
+      </c>
+      <c r="AK64">
+        <v>1.25</v>
+      </c>
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
+        <v>1.7</v>
+      </c>
+      <c r="AN64">
+        <v>0.5</v>
+      </c>
+      <c r="AO64">
         <v>3</v>
       </c>
-      <c r="O64" t="s">
-        <v>98</v>
-      </c>
-      <c r="P64" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q64">
-        <v>4</v>
-      </c>
-      <c r="R64">
-        <v>1.95</v>
-      </c>
-      <c r="S64">
-        <v>3.2</v>
-      </c>
-      <c r="T64">
-        <v>1.53</v>
-      </c>
-      <c r="U64">
-        <v>2.38</v>
-      </c>
-      <c r="V64">
-        <v>3.5</v>
-      </c>
-      <c r="W64">
-        <v>1.29</v>
-      </c>
-      <c r="X64">
-        <v>11</v>
-      </c>
-      <c r="Y64">
-        <v>1.05</v>
-      </c>
-      <c r="Z64">
-        <v>2.9</v>
-      </c>
-      <c r="AA64">
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
         <v>3</v>
       </c>
-      <c r="AB64">
-        <v>2.35</v>
-      </c>
-      <c r="AC64">
-        <v>1.06</v>
-      </c>
-      <c r="AD64">
-        <v>7.5</v>
-      </c>
-      <c r="AE64">
-        <v>1.4</v>
-      </c>
-      <c r="AF64">
+      <c r="AR64">
+        <v>1.39</v>
+      </c>
+      <c r="AS64">
+        <v>1.36</v>
+      </c>
+      <c r="AT64">
         <v>2.75</v>
       </c>
-      <c r="AG64">
-        <v>2.17</v>
-      </c>
-      <c r="AH64">
-        <v>1.7</v>
-      </c>
-      <c r="AI64">
-        <v>2.1</v>
-      </c>
-      <c r="AJ64">
-        <v>1.67</v>
-      </c>
-      <c r="AK64">
-        <v>1.57</v>
-      </c>
-      <c r="AL64">
-        <v>1.37</v>
-      </c>
-      <c r="AM64">
-        <v>1.25</v>
-      </c>
-      <c r="AN64">
-        <v>0</v>
-      </c>
-      <c r="AO64">
-        <v>2</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
-      </c>
-      <c r="AQ64">
-        <v>1.75</v>
-      </c>
-      <c r="AR64">
-        <v>1.13</v>
-      </c>
-      <c r="AS64">
-        <v>1.56</v>
-      </c>
-      <c r="AT64">
-        <v>2.69</v>
-      </c>
       <c r="AU64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW64">
         <v>5</v>
       </c>
       <c r="AX64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY64">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ64">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BC64">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BD64">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="BE64">
         <v>8</v>
       </c>
       <c r="BF64">
-        <v>1.75</v>
+        <v>2.62</v>
       </c>
       <c r="BG64">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BH64">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="BI64">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="BJ64">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="BK64">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL64">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BM64">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="BN64">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BO64">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="BP64">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14305,10 +14323,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14433,7 +14451,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14717,10 +14735,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -14845,7 +14863,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15009,7 +15027,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7481432</v>
+        <v>7481424</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15024,16 +15042,16 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -15042,142 +15060,142 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="Q69">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="R69">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="S69">
+        <v>5.7</v>
+      </c>
+      <c r="T69">
+        <v>1.45</v>
+      </c>
+      <c r="U69">
+        <v>2.5</v>
+      </c>
+      <c r="V69">
+        <v>3.2</v>
+      </c>
+      <c r="W69">
+        <v>1.3</v>
+      </c>
+      <c r="X69">
+        <v>7.8</v>
+      </c>
+      <c r="Y69">
+        <v>1.05</v>
+      </c>
+      <c r="Z69">
+        <v>1.61</v>
+      </c>
+      <c r="AA69">
+        <v>3.5</v>
+      </c>
+      <c r="AB69">
+        <v>4.6</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>7.8</v>
+      </c>
+      <c r="AE69">
+        <v>1.35</v>
+      </c>
+      <c r="AF69">
+        <v>2.9</v>
+      </c>
+      <c r="AG69">
+        <v>2.15</v>
+      </c>
+      <c r="AH69">
+        <v>1.57</v>
+      </c>
+      <c r="AI69">
+        <v>2.05</v>
+      </c>
+      <c r="AJ69">
+        <v>1.67</v>
+      </c>
+      <c r="AK69">
+        <v>1.07</v>
+      </c>
+      <c r="AL69">
+        <v>1.27</v>
+      </c>
+      <c r="AM69">
+        <v>2.25</v>
+      </c>
+      <c r="AN69">
+        <v>0.67</v>
+      </c>
+      <c r="AO69">
+        <v>0.5</v>
+      </c>
+      <c r="AP69">
+        <v>0.6</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1.25</v>
+      </c>
+      <c r="AS69">
+        <v>1.05</v>
+      </c>
+      <c r="AT69">
+        <v>2.3</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>7</v>
+      </c>
+      <c r="AW69">
+        <v>8</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>21</v>
+      </c>
+      <c r="AZ69">
+        <v>16</v>
+      </c>
+      <c r="BA69">
+        <v>2</v>
+      </c>
+      <c r="BB69">
         <v>4</v>
       </c>
-      <c r="T69">
-        <v>1.6</v>
-      </c>
-      <c r="U69">
-        <v>2.2</v>
-      </c>
-      <c r="V69">
-        <v>3.8</v>
-      </c>
-      <c r="W69">
-        <v>1.22</v>
-      </c>
-      <c r="X69">
-        <v>10</v>
-      </c>
-      <c r="Y69">
-        <v>1.02</v>
-      </c>
-      <c r="Z69">
-        <v>2.25</v>
-      </c>
-      <c r="AA69">
-        <v>2.8</v>
-      </c>
-      <c r="AB69">
-        <v>3.2</v>
-      </c>
-      <c r="AC69">
-        <v>1.11</v>
-      </c>
-      <c r="AD69">
-        <v>6.5</v>
-      </c>
-      <c r="AE69">
-        <v>1.61</v>
-      </c>
-      <c r="AF69">
-        <v>2.05</v>
-      </c>
-      <c r="AG69">
-        <v>2.94</v>
-      </c>
-      <c r="AH69">
-        <v>1.35</v>
-      </c>
-      <c r="AI69">
-        <v>2.2</v>
-      </c>
-      <c r="AJ69">
-        <v>1.62</v>
-      </c>
-      <c r="AK69">
-        <v>1.35</v>
-      </c>
-      <c r="AL69">
-        <v>1.44</v>
-      </c>
-      <c r="AM69">
-        <v>1.5</v>
-      </c>
-      <c r="AN69">
-        <v>2.33</v>
-      </c>
-      <c r="AO69">
-        <v>2</v>
-      </c>
-      <c r="AP69">
-        <v>2</v>
-      </c>
-      <c r="AQ69">
-        <v>1.5</v>
-      </c>
-      <c r="AR69">
-        <v>1.04</v>
-      </c>
-      <c r="AS69">
-        <v>1.14</v>
-      </c>
-      <c r="AT69">
-        <v>2.18</v>
-      </c>
-      <c r="AU69">
-        <v>3</v>
-      </c>
-      <c r="AV69">
-        <v>2</v>
-      </c>
-      <c r="AW69">
-        <v>7</v>
-      </c>
-      <c r="AX69">
-        <v>3</v>
-      </c>
-      <c r="AY69">
-        <v>16</v>
-      </c>
-      <c r="AZ69">
-        <v>7</v>
-      </c>
-      <c r="BA69">
+      <c r="BC69">
         <v>6</v>
       </c>
-      <c r="BB69">
-        <v>2</v>
-      </c>
-      <c r="BC69">
-        <v>8</v>
-      </c>
       <c r="BD69">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="BE69">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="BF69">
-        <v>2.33</v>
+        <v>3.83</v>
       </c>
       <c r="BG69">
         <v>1.38</v>
@@ -15215,7 +15233,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7481424</v>
+        <v>7481432</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15230,16 +15248,16 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -15248,142 +15266,142 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70" t="s">
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="Q70">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="R70">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S70">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="T70">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="U70">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V70">
+        <v>3.8</v>
+      </c>
+      <c r="W70">
+        <v>1.22</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>1.02</v>
+      </c>
+      <c r="Z70">
+        <v>2.25</v>
+      </c>
+      <c r="AA70">
+        <v>2.8</v>
+      </c>
+      <c r="AB70">
         <v>3.2</v>
       </c>
-      <c r="W70">
-        <v>1.3</v>
-      </c>
-      <c r="X70">
-        <v>7.8</v>
-      </c>
-      <c r="Y70">
-        <v>1.05</v>
-      </c>
-      <c r="Z70">
+      <c r="AC70">
+        <v>1.11</v>
+      </c>
+      <c r="AD70">
+        <v>6.5</v>
+      </c>
+      <c r="AE70">
         <v>1.61</v>
       </c>
-      <c r="AA70">
-        <v>3.5</v>
-      </c>
-      <c r="AB70">
-        <v>4.6</v>
-      </c>
-      <c r="AC70">
+      <c r="AF70">
+        <v>2.05</v>
+      </c>
+      <c r="AG70">
+        <v>2.94</v>
+      </c>
+      <c r="AH70">
+        <v>1.35</v>
+      </c>
+      <c r="AI70">
+        <v>2.2</v>
+      </c>
+      <c r="AJ70">
+        <v>1.62</v>
+      </c>
+      <c r="AK70">
+        <v>1.35</v>
+      </c>
+      <c r="AL70">
+        <v>1.44</v>
+      </c>
+      <c r="AM70">
+        <v>1.5</v>
+      </c>
+      <c r="AN70">
+        <v>2.33</v>
+      </c>
+      <c r="AO70">
+        <v>2</v>
+      </c>
+      <c r="AP70">
+        <v>2</v>
+      </c>
+      <c r="AQ70">
+        <v>1.5</v>
+      </c>
+      <c r="AR70">
         <v>1.04</v>
       </c>
-      <c r="AD70">
-        <v>7.8</v>
-      </c>
-      <c r="AE70">
-        <v>1.35</v>
-      </c>
-      <c r="AF70">
-        <v>2.9</v>
-      </c>
-      <c r="AG70">
-        <v>2.15</v>
-      </c>
-      <c r="AH70">
-        <v>1.57</v>
-      </c>
-      <c r="AI70">
-        <v>2.05</v>
-      </c>
-      <c r="AJ70">
-        <v>1.67</v>
-      </c>
-      <c r="AK70">
-        <v>1.07</v>
-      </c>
-      <c r="AL70">
-        <v>1.27</v>
-      </c>
-      <c r="AM70">
-        <v>2.25</v>
-      </c>
-      <c r="AN70">
-        <v>0.67</v>
-      </c>
-      <c r="AO70">
-        <v>0.5</v>
-      </c>
-      <c r="AP70">
-        <v>0.6</v>
-      </c>
-      <c r="AQ70">
-        <v>1</v>
-      </c>
-      <c r="AR70">
-        <v>1.25</v>
-      </c>
       <c r="AS70">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AT70">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70">
         <v>7</v>
       </c>
-      <c r="AV70">
+      <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>16</v>
+      </c>
+      <c r="AZ70">
         <v>7</v>
       </c>
-      <c r="AW70">
+      <c r="BA70">
+        <v>6</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
         <v>8</v>
       </c>
-      <c r="AX70">
-        <v>5</v>
-      </c>
-      <c r="AY70">
-        <v>21</v>
-      </c>
-      <c r="AZ70">
-        <v>16</v>
-      </c>
-      <c r="BA70">
-        <v>2</v>
-      </c>
-      <c r="BB70">
-        <v>4</v>
-      </c>
-      <c r="BC70">
-        <v>6</v>
-      </c>
       <c r="BD70">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="BE70">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF70">
-        <v>3.83</v>
+        <v>2.33</v>
       </c>
       <c r="BG70">
         <v>1.38</v>
@@ -15541,7 +15559,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.67</v>
@@ -15669,7 +15687,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15875,7 +15893,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -15956,7 +15974,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16081,7 +16099,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16159,7 +16177,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ74">
         <v>2</v>
@@ -16287,7 +16305,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16451,7 +16469,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7481426</v>
+        <v>7481430</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16466,82 +16484,82 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O76" t="s">
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="Q76">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S76">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T76">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="U76">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="V76">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="W76">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X76">
-        <v>8.5</v>
+        <v>9.85</v>
       </c>
       <c r="Y76">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z76">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="AA76">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AB76">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="AC76">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD76">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE76">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AF76">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AG76">
         <v>2.43</v>
@@ -16553,103 +16571,103 @@
         <v>2.1</v>
       </c>
       <c r="AJ76">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AK76">
         <v>1.25</v>
       </c>
       <c r="AL76">
+        <v>1.37</v>
+      </c>
+      <c r="AM76">
+        <v>1.57</v>
+      </c>
+      <c r="AN76">
+        <v>1.5</v>
+      </c>
+      <c r="AO76">
+        <v>1.67</v>
+      </c>
+      <c r="AP76">
+        <v>2.25</v>
+      </c>
+      <c r="AQ76">
+        <v>1.25</v>
+      </c>
+      <c r="AR76">
         <v>1.33</v>
       </c>
-      <c r="AM76">
-        <v>1.83</v>
-      </c>
-      <c r="AN76">
-        <v>1.67</v>
-      </c>
-      <c r="AO76">
-        <v>0.5</v>
-      </c>
-      <c r="AP76">
-        <v>2</v>
-      </c>
-      <c r="AQ76">
-        <v>1</v>
-      </c>
-      <c r="AR76">
-        <v>1.57</v>
-      </c>
       <c r="AS76">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AT76">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AU76">
         <v>6</v>
       </c>
       <c r="AV76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW76">
         <v>8</v>
       </c>
       <c r="AX76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY76">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ76">
         <v>9</v>
       </c>
       <c r="BA76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB76">
         <v>4</v>
       </c>
       <c r="BC76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD76">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="BE76">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF76">
-        <v>3.16</v>
+        <v>2.44</v>
       </c>
       <c r="BG76">
+        <v>1.27</v>
+      </c>
+      <c r="BH76">
+        <v>3.52</v>
+      </c>
+      <c r="BI76">
+        <v>1.53</v>
+      </c>
+      <c r="BJ76">
+        <v>2.4</v>
+      </c>
+      <c r="BK76">
+        <v>1.85</v>
+      </c>
+      <c r="BL76">
+        <v>1.95</v>
+      </c>
+      <c r="BM76">
+        <v>2.4</v>
+      </c>
+      <c r="BN76">
+        <v>1.53</v>
+      </c>
+      <c r="BO76">
+        <v>3.3</v>
+      </c>
+      <c r="BP76">
         <v>1.31</v>
-      </c>
-      <c r="BH76">
-        <v>3.3</v>
-      </c>
-      <c r="BI76">
-        <v>1.56</v>
-      </c>
-      <c r="BJ76">
-        <v>2.34</v>
-      </c>
-      <c r="BK76">
-        <v>2</v>
-      </c>
-      <c r="BL76">
-        <v>1.8</v>
-      </c>
-      <c r="BM76">
-        <v>2.57</v>
-      </c>
-      <c r="BN76">
-        <v>1.47</v>
-      </c>
-      <c r="BO76">
-        <v>3.55</v>
-      </c>
-      <c r="BP76">
-        <v>1.27</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16657,7 +16675,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7481430</v>
+        <v>7481426</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16672,82 +16690,82 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O77" t="s">
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="Q77">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>4.5</v>
+      </c>
+      <c r="T77">
+        <v>1.5</v>
+      </c>
+      <c r="U77">
+        <v>2.4</v>
+      </c>
+      <c r="V77">
+        <v>3.3</v>
+      </c>
+      <c r="W77">
+        <v>1.29</v>
+      </c>
+      <c r="X77">
+        <v>8.5</v>
+      </c>
+      <c r="Y77">
+        <v>1.04</v>
+      </c>
+      <c r="Z77">
         <v>1.91</v>
       </c>
-      <c r="S77">
-        <v>4</v>
-      </c>
-      <c r="T77">
-        <v>1.56</v>
-      </c>
-      <c r="U77">
-        <v>2.29</v>
-      </c>
-      <c r="V77">
-        <v>3.6</v>
-      </c>
-      <c r="W77">
-        <v>1.25</v>
-      </c>
-      <c r="X77">
-        <v>9.85</v>
-      </c>
-      <c r="Y77">
-        <v>1.03</v>
-      </c>
-      <c r="Z77">
-        <v>2.14</v>
-      </c>
       <c r="AA77">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AB77">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="AC77">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD77">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE77">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AF77">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AG77">
         <v>2.43</v>
@@ -16759,103 +16777,103 @@
         <v>2.1</v>
       </c>
       <c r="AJ77">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AK77">
         <v>1.25</v>
       </c>
       <c r="AL77">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AM77">
+        <v>1.83</v>
+      </c>
+      <c r="AN77">
+        <v>1.67</v>
+      </c>
+      <c r="AO77">
+        <v>0.5</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
         <v>1.57</v>
       </c>
-      <c r="AN77">
-        <v>1.5</v>
-      </c>
-      <c r="AO77">
-        <v>1.67</v>
-      </c>
-      <c r="AP77">
-        <v>2</v>
-      </c>
-      <c r="AQ77">
-        <v>1.25</v>
-      </c>
-      <c r="AR77">
-        <v>1.33</v>
-      </c>
       <c r="AS77">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AT77">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AU77">
         <v>6</v>
       </c>
       <c r="AV77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW77">
         <v>8</v>
       </c>
       <c r="AX77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY77">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ77">
         <v>9</v>
       </c>
       <c r="BA77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB77">
         <v>4</v>
       </c>
       <c r="BC77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD77">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="BE77">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF77">
-        <v>2.44</v>
+        <v>3.16</v>
       </c>
       <c r="BG77">
+        <v>1.31</v>
+      </c>
+      <c r="BH77">
+        <v>3.3</v>
+      </c>
+      <c r="BI77">
+        <v>1.56</v>
+      </c>
+      <c r="BJ77">
+        <v>2.34</v>
+      </c>
+      <c r="BK77">
+        <v>2</v>
+      </c>
+      <c r="BL77">
+        <v>1.8</v>
+      </c>
+      <c r="BM77">
+        <v>2.57</v>
+      </c>
+      <c r="BN77">
+        <v>1.47</v>
+      </c>
+      <c r="BO77">
+        <v>3.55</v>
+      </c>
+      <c r="BP77">
         <v>1.27</v>
-      </c>
-      <c r="BH77">
-        <v>3.52</v>
-      </c>
-      <c r="BI77">
-        <v>1.53</v>
-      </c>
-      <c r="BJ77">
-        <v>2.4</v>
-      </c>
-      <c r="BK77">
-        <v>1.85</v>
-      </c>
-      <c r="BL77">
-        <v>1.95</v>
-      </c>
-      <c r="BM77">
-        <v>2.4</v>
-      </c>
-      <c r="BN77">
-        <v>1.53</v>
-      </c>
-      <c r="BO77">
-        <v>3.3</v>
-      </c>
-      <c r="BP77">
-        <v>1.31</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16905,7 +16923,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -16983,7 +17001,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
         <v>1.2</v>
@@ -17111,7 +17129,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17189,7 +17207,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1.75</v>
@@ -17481,7 +17499,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7481442</v>
+        <v>7481436</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17493,163 +17511,163 @@
         <v>45570.46875</v>
       </c>
       <c r="F81">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O81" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q81">
-        <v>3.55</v>
+        <v>2.65</v>
       </c>
       <c r="R81">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="T81">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U81">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="V81">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X81">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="Y81">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z81">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="AA81">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AB81">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="AC81">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD81">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE81">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AF81">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="AG81">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AH81">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AI81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ81">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AK81">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AL81">
         <v>1.33</v>
       </c>
       <c r="AM81">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AN81">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO81">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AP81">
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
-        <v>1.07</v>
+        <v>1.41</v>
       </c>
       <c r="AS81">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="AT81">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="AU81">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX81">
         <v>4</v>
       </c>
       <c r="AY81">
+        <v>15</v>
+      </c>
+      <c r="AZ81">
         <v>12</v>
       </c>
-      <c r="AZ81">
-        <v>6</v>
-      </c>
       <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BB81">
+        <v>5</v>
+      </c>
+      <c r="BC81">
+        <v>7</v>
+      </c>
+      <c r="BD81">
+        <v>1.64</v>
+      </c>
+      <c r="BE81">
         <v>8</v>
       </c>
-      <c r="BB81">
-        <v>1</v>
-      </c>
-      <c r="BC81">
-        <v>9</v>
-      </c>
-      <c r="BD81">
-        <v>2</v>
-      </c>
-      <c r="BE81">
-        <v>7.5</v>
-      </c>
       <c r="BF81">
-        <v>2.05</v>
+        <v>2.77</v>
       </c>
       <c r="BG81">
         <v>1.34</v>
@@ -17687,7 +17705,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7481436</v>
+        <v>7481442</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17699,163 +17717,163 @@
         <v>45570.46875</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H82" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>94</v>
+      </c>
+      <c r="P82" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q82">
+        <v>3.55</v>
+      </c>
+      <c r="R82">
+        <v>1.83</v>
+      </c>
+      <c r="S82">
+        <v>3.4</v>
+      </c>
+      <c r="T82">
+        <v>1.57</v>
+      </c>
+      <c r="U82">
+        <v>2.25</v>
+      </c>
+      <c r="V82">
+        <v>3.55</v>
+      </c>
+      <c r="W82">
+        <v>1.25</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Y82">
+        <v>1.03</v>
+      </c>
+      <c r="Z82">
+        <v>2.75</v>
+      </c>
+      <c r="AA82">
         <v>3</v>
       </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>3</v>
-      </c>
-      <c r="N82">
-        <v>4</v>
-      </c>
-      <c r="O82" t="s">
-        <v>148</v>
-      </c>
-      <c r="P82" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q82">
-        <v>2.65</v>
-      </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>4.33</v>
-      </c>
-      <c r="T82">
-        <v>1.59</v>
-      </c>
-      <c r="U82">
-        <v>2.28</v>
-      </c>
-      <c r="V82">
-        <v>3.34</v>
-      </c>
-      <c r="W82">
-        <v>1.3</v>
-      </c>
-      <c r="X82">
-        <v>9.1</v>
-      </c>
-      <c r="Y82">
-        <v>1.04</v>
-      </c>
-      <c r="Z82">
-        <v>1.95</v>
-      </c>
-      <c r="AA82">
-        <v>3.2</v>
-      </c>
       <c r="AB82">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="AC82">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD82">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE82">
+        <v>1.47</v>
+      </c>
+      <c r="AF82">
+        <v>2.48</v>
+      </c>
+      <c r="AG82">
+        <v>2.4</v>
+      </c>
+      <c r="AH82">
+        <v>1.52</v>
+      </c>
+      <c r="AI82">
+        <v>2</v>
+      </c>
+      <c r="AJ82">
+        <v>1.7</v>
+      </c>
+      <c r="AK82">
         <v>1.45</v>
-      </c>
-      <c r="AF82">
-        <v>2.7</v>
-      </c>
-      <c r="AG82">
-        <v>2.3</v>
-      </c>
-      <c r="AH82">
-        <v>1.55</v>
-      </c>
-      <c r="AI82">
-        <v>1.95</v>
-      </c>
-      <c r="AJ82">
-        <v>1.73</v>
-      </c>
-      <c r="AK82">
-        <v>1.22</v>
       </c>
       <c r="AL82">
         <v>1.33</v>
       </c>
       <c r="AM82">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AO82">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AP82">
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR82">
-        <v>1.41</v>
+        <v>1.07</v>
       </c>
       <c r="AS82">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="AT82">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="AU82">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX82">
         <v>4</v>
       </c>
       <c r="AY82">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA82">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD82">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="BE82">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF82">
-        <v>2.77</v>
+        <v>2.05</v>
       </c>
       <c r="BG82">
         <v>1.34</v>
@@ -17893,7 +17911,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7481443</v>
+        <v>7481434</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17908,160 +17926,160 @@
         <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>2</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O83" t="s">
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="Q83">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="R83">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T83">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U83">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V83">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="W83">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="X83">
-        <v>9</v>
+        <v>6.05</v>
       </c>
       <c r="Y83">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z83">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AA83">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AB83">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="AC83">
         <v>1.05</v>
       </c>
       <c r="AD83">
+        <v>9.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.25</v>
+      </c>
+      <c r="AF83">
+        <v>3.95</v>
+      </c>
+      <c r="AG83">
+        <v>1.71</v>
+      </c>
+      <c r="AH83">
+        <v>2.02</v>
+      </c>
+      <c r="AI83">
+        <v>1.65</v>
+      </c>
+      <c r="AJ83">
+        <v>2.05</v>
+      </c>
+      <c r="AK83">
+        <v>1.18</v>
+      </c>
+      <c r="AL83">
+        <v>1.22</v>
+      </c>
+      <c r="AM83">
+        <v>2.05</v>
+      </c>
+      <c r="AN83">
+        <v>0.67</v>
+      </c>
+      <c r="AO83">
+        <v>2.33</v>
+      </c>
+      <c r="AP83">
+        <v>1.25</v>
+      </c>
+      <c r="AQ83">
+        <v>1.75</v>
+      </c>
+      <c r="AR83">
+        <v>1.79</v>
+      </c>
+      <c r="AS83">
+        <v>1.34</v>
+      </c>
+      <c r="AT83">
+        <v>3.13</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>5</v>
+      </c>
+      <c r="AX83">
+        <v>9</v>
+      </c>
+      <c r="AY83">
+        <v>18</v>
+      </c>
+      <c r="AZ83">
+        <v>19</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
         <v>8</v>
       </c>
-      <c r="AE83">
-        <v>1.29</v>
-      </c>
-      <c r="AF83">
-        <v>3.3</v>
-      </c>
-      <c r="AG83">
-        <v>1.96</v>
-      </c>
-      <c r="AH83">
-        <v>1.85</v>
-      </c>
-      <c r="AI83">
-        <v>1.83</v>
-      </c>
-      <c r="AJ83">
-        <v>1.83</v>
-      </c>
-      <c r="AK83">
-        <v>1.33</v>
-      </c>
-      <c r="AL83">
-        <v>1.33</v>
-      </c>
-      <c r="AM83">
-        <v>1.68</v>
-      </c>
-      <c r="AN83">
-        <v>3</v>
-      </c>
-      <c r="AO83">
-        <v>3</v>
-      </c>
-      <c r="AP83">
-        <v>2</v>
-      </c>
-      <c r="AQ83">
-        <v>3</v>
-      </c>
-      <c r="AR83">
-        <v>1.8</v>
-      </c>
-      <c r="AS83">
-        <v>1.39</v>
-      </c>
-      <c r="AT83">
-        <v>3.19</v>
-      </c>
-      <c r="AU83">
-        <v>9</v>
-      </c>
-      <c r="AV83">
-        <v>7</v>
-      </c>
-      <c r="AW83">
-        <v>8</v>
-      </c>
-      <c r="AX83">
-        <v>6</v>
-      </c>
-      <c r="AY83">
-        <v>19</v>
-      </c>
-      <c r="AZ83">
-        <v>15</v>
-      </c>
-      <c r="BA83">
-        <v>11</v>
-      </c>
-      <c r="BB83">
-        <v>1</v>
-      </c>
       <c r="BC83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD83">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="BE83">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF83">
-        <v>2.44</v>
+        <v>3.07</v>
       </c>
       <c r="BG83">
         <v>1.3</v>
@@ -18079,7 +18097,7 @@
         <v>2</v>
       </c>
       <c r="BL83">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BM83">
         <v>2.55</v>
@@ -18099,7 +18117,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7481434</v>
+        <v>7481443</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18114,160 +18132,160 @@
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84">
         <v>2</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O84" t="s">
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="Q84">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="R84">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S84">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T84">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U84">
+        <v>2.63</v>
+      </c>
+      <c r="V84">
         <v>3</v>
       </c>
-      <c r="V84">
-        <v>2.45</v>
-      </c>
       <c r="W84">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="X84">
-        <v>6.05</v>
+        <v>9</v>
       </c>
       <c r="Y84">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z84">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AA84">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="AB84">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="AC84">
         <v>1.05</v>
       </c>
       <c r="AD84">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE84">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AF84">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="AG84">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="AH84">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="AI84">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AJ84">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AK84">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AL84">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AM84">
-        <v>2.05</v>
+        <v>1.68</v>
       </c>
       <c r="AN84">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AO84">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
+        <v>3</v>
+      </c>
+      <c r="AR84">
+        <v>1.8</v>
+      </c>
+      <c r="AS84">
+        <v>1.39</v>
+      </c>
+      <c r="AT84">
+        <v>3.19</v>
+      </c>
+      <c r="AU84">
+        <v>9</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>8</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>19</v>
+      </c>
+      <c r="AZ84">
+        <v>15</v>
+      </c>
+      <c r="BA84">
+        <v>11</v>
+      </c>
+      <c r="BB84">
+        <v>1</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
         <v>1.75</v>
       </c>
-      <c r="AR84">
-        <v>1.79</v>
-      </c>
-      <c r="AS84">
-        <v>1.34</v>
-      </c>
-      <c r="AT84">
-        <v>3.13</v>
-      </c>
-      <c r="AU84">
-        <v>6</v>
-      </c>
-      <c r="AV84">
-        <v>6</v>
-      </c>
-      <c r="AW84">
-        <v>5</v>
-      </c>
-      <c r="AX84">
-        <v>9</v>
-      </c>
-      <c r="AY84">
-        <v>18</v>
-      </c>
-      <c r="AZ84">
-        <v>19</v>
-      </c>
-      <c r="BA84">
-        <v>5</v>
-      </c>
-      <c r="BB84">
+      <c r="BE84">
         <v>8</v>
       </c>
-      <c r="BC84">
-        <v>13</v>
-      </c>
-      <c r="BD84">
-        <v>1.51</v>
-      </c>
-      <c r="BE84">
-        <v>8.5</v>
-      </c>
       <c r="BF84">
-        <v>3.07</v>
+        <v>2.44</v>
       </c>
       <c r="BG84">
         <v>1.3</v>
@@ -18285,7 +18303,7 @@
         <v>2</v>
       </c>
       <c r="BL84">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BM84">
         <v>2.55</v>
@@ -18759,7 +18777,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18840,7 +18858,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ87">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR87">
         <v>1.47</v>
@@ -19171,7 +19189,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19252,7 +19270,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19344,7 +19362,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45575.875</v>
+        <v>45576.64583333334</v>
       </c>
       <c r="F90">
         <v>9</v>
@@ -19377,7 +19395,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19541,7 +19559,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7481446</v>
+        <v>7481445</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19550,196 +19568,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45577.46875</v>
+        <v>45576.875</v>
       </c>
       <c r="F91">
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H91" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O91" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q91">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S91">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="T91">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="U91">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="V91">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="W91">
+        <v>1.3</v>
+      </c>
+      <c r="X91">
+        <v>10</v>
+      </c>
+      <c r="Y91">
+        <v>1.06</v>
+      </c>
+      <c r="Z91">
+        <v>1.65</v>
+      </c>
+      <c r="AA91">
+        <v>3.61</v>
+      </c>
+      <c r="AB91">
+        <v>5.47</v>
+      </c>
+      <c r="AC91">
+        <v>1.08</v>
+      </c>
+      <c r="AD91">
+        <v>7.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.42</v>
+      </c>
+      <c r="AF91">
+        <v>2.75</v>
+      </c>
+      <c r="AG91">
+        <v>2.3</v>
+      </c>
+      <c r="AH91">
+        <v>1.55</v>
+      </c>
+      <c r="AI91">
+        <v>2.2</v>
+      </c>
+      <c r="AJ91">
+        <v>1.62</v>
+      </c>
+      <c r="AK91">
+        <v>1.11</v>
+      </c>
+      <c r="AL91">
         <v>1.25</v>
       </c>
-      <c r="X91">
-        <v>9.5</v>
-      </c>
-      <c r="Y91">
-        <v>1.03</v>
-      </c>
-      <c r="Z91">
-        <v>2.2</v>
-      </c>
-      <c r="AA91">
-        <v>2.87</v>
-      </c>
-      <c r="AB91">
-        <v>3.2</v>
-      </c>
-      <c r="AC91">
-        <v>1.1</v>
-      </c>
-      <c r="AD91">
-        <v>7</v>
-      </c>
-      <c r="AE91">
-        <v>1.48</v>
-      </c>
-      <c r="AF91">
-        <v>2.37</v>
-      </c>
-      <c r="AG91">
-        <v>2.4</v>
-      </c>
-      <c r="AH91">
-        <v>1.5</v>
-      </c>
-      <c r="AI91">
+      <c r="AM91">
         <v>2.1</v>
       </c>
-      <c r="AJ91">
-        <v>1.68</v>
-      </c>
-      <c r="AK91">
-        <v>1.35</v>
-      </c>
-      <c r="AL91">
-        <v>1.3</v>
-      </c>
-      <c r="AM91">
-        <v>1.57</v>
-      </c>
       <c r="AN91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO91">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP91">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ91">
         <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AS91">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>2.11</v>
+        <v>2.53</v>
       </c>
       <c r="AU91">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV91">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY91">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ91">
+        <v>14</v>
+      </c>
+      <c r="BA91">
         <v>6</v>
       </c>
-      <c r="BA91">
-        <v>3</v>
-      </c>
       <c r="BB91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC91">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD91">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="BE91">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF91">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="BG91">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="BH91">
-        <v>3.04</v>
+        <v>2.82</v>
       </c>
       <c r="BI91">
         <v>1.7</v>
       </c>
       <c r="BJ91">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BK91">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="BL91">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="BM91">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="BN91">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="BO91">
-        <v>3.44</v>
+        <v>4.15</v>
       </c>
       <c r="BP91">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19747,7 +19765,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7481445</v>
+        <v>7481446</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19756,196 +19774,196 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45577.5625</v>
+        <v>45576.875</v>
       </c>
       <c r="F92">
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>94</v>
+      </c>
+      <c r="P92" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q92">
+        <v>3.1</v>
+      </c>
+      <c r="R92">
+        <v>1.9</v>
+      </c>
+      <c r="S92">
+        <v>3.75</v>
+      </c>
+      <c r="T92">
+        <v>1.58</v>
+      </c>
+      <c r="U92">
+        <v>2.26</v>
+      </c>
+      <c r="V92">
+        <v>3.6</v>
+      </c>
+      <c r="W92">
+        <v>1.25</v>
+      </c>
+      <c r="X92">
+        <v>9.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.03</v>
+      </c>
+      <c r="Z92">
+        <v>2.2</v>
+      </c>
+      <c r="AA92">
+        <v>2.87</v>
+      </c>
+      <c r="AB92">
+        <v>3.2</v>
+      </c>
+      <c r="AC92">
+        <v>1.1</v>
+      </c>
+      <c r="AD92">
+        <v>7</v>
+      </c>
+      <c r="AE92">
+        <v>1.48</v>
+      </c>
+      <c r="AF92">
+        <v>2.37</v>
+      </c>
+      <c r="AG92">
+        <v>2.4</v>
+      </c>
+      <c r="AH92">
+        <v>1.5</v>
+      </c>
+      <c r="AI92">
+        <v>2.1</v>
+      </c>
+      <c r="AJ92">
+        <v>1.68</v>
+      </c>
+      <c r="AK92">
+        <v>1.35</v>
+      </c>
+      <c r="AL92">
+        <v>1.3</v>
+      </c>
+      <c r="AM92">
+        <v>1.57</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0.33</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
+        <v>1.18</v>
+      </c>
+      <c r="AS92">
+        <v>0.93</v>
+      </c>
+      <c r="AT92">
+        <v>2.11</v>
+      </c>
+      <c r="AU92">
+        <v>2</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>2</v>
+      </c>
+      <c r="AY92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
+        <v>6</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>1</v>
+      </c>
+      <c r="BC92">
         <v>4</v>
       </c>
-      <c r="O92" t="s">
-        <v>155</v>
-      </c>
-      <c r="P92" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q92">
+      <c r="BD92">
+        <v>1.73</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
         <v>2.38</v>
       </c>
-      <c r="R92">
-        <v>2.05</v>
-      </c>
-      <c r="S92">
-        <v>6</v>
-      </c>
-      <c r="T92">
-        <v>1.5</v>
-      </c>
-      <c r="U92">
-        <v>2.5</v>
-      </c>
-      <c r="V92">
-        <v>3.4</v>
-      </c>
-      <c r="W92">
-        <v>1.3</v>
-      </c>
-      <c r="X92">
-        <v>10</v>
-      </c>
-      <c r="Y92">
-        <v>1.06</v>
-      </c>
-      <c r="Z92">
-        <v>1.65</v>
-      </c>
-      <c r="AA92">
-        <v>3.61</v>
-      </c>
-      <c r="AB92">
-        <v>5.47</v>
-      </c>
-      <c r="AC92">
-        <v>1.08</v>
-      </c>
-      <c r="AD92">
-        <v>7.5</v>
-      </c>
-      <c r="AE92">
-        <v>1.42</v>
-      </c>
-      <c r="AF92">
-        <v>2.75</v>
-      </c>
-      <c r="AG92">
-        <v>2.3</v>
-      </c>
-      <c r="AH92">
-        <v>1.55</v>
-      </c>
-      <c r="AI92">
-        <v>2.2</v>
-      </c>
-      <c r="AJ92">
-        <v>1.62</v>
-      </c>
-      <c r="AK92">
-        <v>1.11</v>
-      </c>
-      <c r="AL92">
-        <v>1.25</v>
-      </c>
-      <c r="AM92">
-        <v>2.1</v>
-      </c>
-      <c r="AN92">
-        <v>0.5</v>
-      </c>
-      <c r="AO92">
-        <v>1</v>
-      </c>
-      <c r="AP92">
-        <v>0.6</v>
-      </c>
-      <c r="AQ92">
-        <v>1</v>
-      </c>
-      <c r="AR92">
-        <v>1.42</v>
-      </c>
-      <c r="AS92">
-        <v>1.11</v>
-      </c>
-      <c r="AT92">
-        <v>2.53</v>
-      </c>
-      <c r="AU92">
-        <v>9</v>
-      </c>
-      <c r="AV92">
-        <v>8</v>
-      </c>
-      <c r="AW92">
-        <v>5</v>
-      </c>
-      <c r="AX92">
-        <v>4</v>
-      </c>
-      <c r="AY92">
-        <v>16</v>
-      </c>
-      <c r="AZ92">
-        <v>14</v>
-      </c>
-      <c r="BA92">
-        <v>6</v>
-      </c>
-      <c r="BB92">
-        <v>4</v>
-      </c>
-      <c r="BC92">
-        <v>10</v>
-      </c>
-      <c r="BD92">
-        <v>1.39</v>
-      </c>
-      <c r="BE92">
-        <v>7.5</v>
-      </c>
-      <c r="BF92">
-        <v>3.65</v>
-      </c>
       <c r="BG92">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="BH92">
-        <v>2.82</v>
+        <v>3.04</v>
       </c>
       <c r="BI92">
         <v>1.7</v>
       </c>
       <c r="BJ92">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BK92">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="BL92">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="BM92">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="BN92">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="BO92">
-        <v>4.15</v>
+        <v>3.44</v>
       </c>
       <c r="BP92">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19962,7 +19980,7 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45577.5625</v>
+        <v>45576.875</v>
       </c>
       <c r="F93">
         <v>9</v>
@@ -20151,6 +20169,1448 @@
         <v>3.02</v>
       </c>
       <c r="BP93">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7481454</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45577.875</v>
+      </c>
+      <c r="F94">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>157</v>
+      </c>
+      <c r="P94" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q94">
+        <v>2.6</v>
+      </c>
+      <c r="R94">
+        <v>2.38</v>
+      </c>
+      <c r="S94">
+        <v>3.75</v>
+      </c>
+      <c r="T94">
+        <v>1.29</v>
+      </c>
+      <c r="U94">
+        <v>3.5</v>
+      </c>
+      <c r="V94">
+        <v>2.38</v>
+      </c>
+      <c r="W94">
+        <v>1.53</v>
+      </c>
+      <c r="X94">
+        <v>5.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.14</v>
+      </c>
+      <c r="Z94">
+        <v>1.6</v>
+      </c>
+      <c r="AA94">
+        <v>4</v>
+      </c>
+      <c r="AB94">
+        <v>4.26</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>10</v>
+      </c>
+      <c r="AE94">
+        <v>1.18</v>
+      </c>
+      <c r="AF94">
+        <v>4.5</v>
+      </c>
+      <c r="AG94">
+        <v>1.57</v>
+      </c>
+      <c r="AH94">
+        <v>2.25</v>
+      </c>
+      <c r="AI94">
+        <v>1.53</v>
+      </c>
+      <c r="AJ94">
+        <v>2.38</v>
+      </c>
+      <c r="AK94">
+        <v>1.3</v>
+      </c>
+      <c r="AL94">
+        <v>1.22</v>
+      </c>
+      <c r="AM94">
+        <v>1.75</v>
+      </c>
+      <c r="AN94">
+        <v>1.25</v>
+      </c>
+      <c r="AO94">
+        <v>1.75</v>
+      </c>
+      <c r="AP94">
+        <v>1.6</v>
+      </c>
+      <c r="AQ94">
+        <v>1.4</v>
+      </c>
+      <c r="AR94">
+        <v>1.53</v>
+      </c>
+      <c r="AS94">
+        <v>1.23</v>
+      </c>
+      <c r="AT94">
+        <v>2.76</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>11</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>17</v>
+      </c>
+      <c r="AZ94">
+        <v>7</v>
+      </c>
+      <c r="BA94">
+        <v>7</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>1.68</v>
+      </c>
+      <c r="BE94">
+        <v>7.4</v>
+      </c>
+      <c r="BF94">
+        <v>2.75</v>
+      </c>
+      <c r="BG94">
+        <v>1.15</v>
+      </c>
+      <c r="BH94">
+        <v>4.1</v>
+      </c>
+      <c r="BI94">
+        <v>1.32</v>
+      </c>
+      <c r="BJ94">
+        <v>2.78</v>
+      </c>
+      <c r="BK94">
+        <v>1.8</v>
+      </c>
+      <c r="BL94">
+        <v>1.91</v>
+      </c>
+      <c r="BM94">
+        <v>2.06</v>
+      </c>
+      <c r="BN94">
+        <v>1.71</v>
+      </c>
+      <c r="BO94">
+        <v>2.64</v>
+      </c>
+      <c r="BP94">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7481452</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45577.875</v>
+      </c>
+      <c r="F95">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>70</v>
+      </c>
+      <c r="H95" t="s">
+        <v>88</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>158</v>
+      </c>
+      <c r="P95" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q95">
+        <v>2.63</v>
+      </c>
+      <c r="R95">
+        <v>2.2</v>
+      </c>
+      <c r="S95">
+        <v>4.33</v>
+      </c>
+      <c r="T95">
+        <v>1.4</v>
+      </c>
+      <c r="U95">
+        <v>2.75</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.43</v>
+      </c>
+      <c r="AA95">
+        <v>8.6</v>
+      </c>
+      <c r="AB95">
+        <v>1.71</v>
+      </c>
+      <c r="AC95">
+        <v>1.06</v>
+      </c>
+      <c r="AD95">
+        <v>8.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.3</v>
+      </c>
+      <c r="AF95">
+        <v>3.3</v>
+      </c>
+      <c r="AG95">
+        <v>1.86</v>
+      </c>
+      <c r="AH95">
+        <v>1.86</v>
+      </c>
+      <c r="AI95">
+        <v>1.8</v>
+      </c>
+      <c r="AJ95">
+        <v>1.91</v>
+      </c>
+      <c r="AK95">
+        <v>1.25</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.78</v>
+      </c>
+      <c r="AN95">
+        <v>0.5</v>
+      </c>
+      <c r="AO95">
+        <v>0.25</v>
+      </c>
+      <c r="AP95">
+        <v>1</v>
+      </c>
+      <c r="AQ95">
+        <v>0.2</v>
+      </c>
+      <c r="AR95">
+        <v>1.7</v>
+      </c>
+      <c r="AS95">
+        <v>1.38</v>
+      </c>
+      <c r="AT95">
+        <v>3.08</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>3</v>
+      </c>
+      <c r="AW95">
+        <v>9</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>18</v>
+      </c>
+      <c r="AZ95">
+        <v>9</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>4</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
+        <v>1.96</v>
+      </c>
+      <c r="BE95">
+        <v>6.55</v>
+      </c>
+      <c r="BF95">
+        <v>2.42</v>
+      </c>
+      <c r="BG95">
+        <v>1.31</v>
+      </c>
+      <c r="BH95">
+        <v>3.3</v>
+      </c>
+      <c r="BI95">
+        <v>1.56</v>
+      </c>
+      <c r="BJ95">
+        <v>2.34</v>
+      </c>
+      <c r="BK95">
+        <v>1.91</v>
+      </c>
+      <c r="BL95">
+        <v>1.8</v>
+      </c>
+      <c r="BM95">
+        <v>2.57</v>
+      </c>
+      <c r="BN95">
+        <v>1.47</v>
+      </c>
+      <c r="BO95">
+        <v>3.55</v>
+      </c>
+      <c r="BP95">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7481450</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45577.875</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>89</v>
+      </c>
+      <c r="H96" t="s">
+        <v>90</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96" t="s">
+        <v>159</v>
+      </c>
+      <c r="P96" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q96">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>3.75</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.63</v>
+      </c>
+      <c r="V96">
+        <v>3.25</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.63</v>
+      </c>
+      <c r="AA96">
+        <v>3.75</v>
+      </c>
+      <c r="AB96">
+        <v>2.17</v>
+      </c>
+      <c r="AC96">
+        <v>1.07</v>
+      </c>
+      <c r="AD96">
+        <v>8</v>
+      </c>
+      <c r="AE96">
+        <v>1.33</v>
+      </c>
+      <c r="AF96">
+        <v>3.2</v>
+      </c>
+      <c r="AG96">
+        <v>1.95</v>
+      </c>
+      <c r="AH96">
+        <v>1.75</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.91</v>
+      </c>
+      <c r="AK96">
+        <v>1.36</v>
+      </c>
+      <c r="AL96">
+        <v>1.28</v>
+      </c>
+      <c r="AM96">
+        <v>1.57</v>
+      </c>
+      <c r="AN96">
+        <v>2</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>2.25</v>
+      </c>
+      <c r="AQ96">
+        <v>0.8</v>
+      </c>
+      <c r="AR96">
+        <v>1.44</v>
+      </c>
+      <c r="AS96">
+        <v>1.45</v>
+      </c>
+      <c r="AT96">
+        <v>2.89</v>
+      </c>
+      <c r="AU96">
+        <v>10</v>
+      </c>
+      <c r="AV96">
+        <v>6</v>
+      </c>
+      <c r="AW96">
+        <v>10</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>23</v>
+      </c>
+      <c r="AZ96">
+        <v>9</v>
+      </c>
+      <c r="BA96">
+        <v>6</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>6</v>
+      </c>
+      <c r="BD96">
+        <v>1.8</v>
+      </c>
+      <c r="BE96">
+        <v>6.65</v>
+      </c>
+      <c r="BF96">
+        <v>2.7</v>
+      </c>
+      <c r="BG96">
+        <v>1.27</v>
+      </c>
+      <c r="BH96">
+        <v>3.52</v>
+      </c>
+      <c r="BI96">
+        <v>1.5</v>
+      </c>
+      <c r="BJ96">
+        <v>2.48</v>
+      </c>
+      <c r="BK96">
+        <v>1.85</v>
+      </c>
+      <c r="BL96">
+        <v>1.85</v>
+      </c>
+      <c r="BM96">
+        <v>2.41</v>
+      </c>
+      <c r="BN96">
+        <v>1.53</v>
+      </c>
+      <c r="BO96">
+        <v>3.3</v>
+      </c>
+      <c r="BP96">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7481449</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45577.875</v>
+      </c>
+      <c r="F97">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>160</v>
+      </c>
+      <c r="P97" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q97">
+        <v>3.25</v>
+      </c>
+      <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>3.75</v>
+      </c>
+      <c r="T97">
+        <v>1.53</v>
+      </c>
+      <c r="U97">
+        <v>2.38</v>
+      </c>
+      <c r="V97">
+        <v>3.5</v>
+      </c>
+      <c r="W97">
+        <v>1.29</v>
+      </c>
+      <c r="X97">
+        <v>11</v>
+      </c>
+      <c r="Y97">
+        <v>1.05</v>
+      </c>
+      <c r="Z97">
+        <v>2.55</v>
+      </c>
+      <c r="AA97">
+        <v>2.75</v>
+      </c>
+      <c r="AB97">
+        <v>3</v>
+      </c>
+      <c r="AC97">
+        <v>1.1</v>
+      </c>
+      <c r="AD97">
+        <v>6.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.48</v>
+      </c>
+      <c r="AF97">
+        <v>2.45</v>
+      </c>
+      <c r="AG97">
+        <v>2.38</v>
+      </c>
+      <c r="AH97">
+        <v>1.52</v>
+      </c>
+      <c r="AI97">
+        <v>2</v>
+      </c>
+      <c r="AJ97">
+        <v>1.73</v>
+      </c>
+      <c r="AK97">
+        <v>1.36</v>
+      </c>
+      <c r="AL97">
+        <v>1.33</v>
+      </c>
+      <c r="AM97">
+        <v>1.53</v>
+      </c>
+      <c r="AN97">
+        <v>2.25</v>
+      </c>
+      <c r="AO97">
+        <v>1.5</v>
+      </c>
+      <c r="AP97">
+        <v>2</v>
+      </c>
+      <c r="AQ97">
+        <v>1.4</v>
+      </c>
+      <c r="AR97">
+        <v>1.16</v>
+      </c>
+      <c r="AS97">
+        <v>1.32</v>
+      </c>
+      <c r="AT97">
+        <v>2.48</v>
+      </c>
+      <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>2</v>
+      </c>
+      <c r="AY97">
+        <v>10</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
+        <v>6</v>
+      </c>
+      <c r="BB97">
+        <v>5</v>
+      </c>
+      <c r="BC97">
+        <v>11</v>
+      </c>
+      <c r="BD97">
+        <v>1.75</v>
+      </c>
+      <c r="BE97">
+        <v>5.9</v>
+      </c>
+      <c r="BF97">
+        <v>2.6</v>
+      </c>
+      <c r="BG97">
+        <v>1.3</v>
+      </c>
+      <c r="BH97">
+        <v>3.15</v>
+      </c>
+      <c r="BI97">
+        <v>1.55</v>
+      </c>
+      <c r="BJ97">
+        <v>2.22</v>
+      </c>
+      <c r="BK97">
+        <v>2</v>
+      </c>
+      <c r="BL97">
+        <v>1.7</v>
+      </c>
+      <c r="BM97">
+        <v>2.68</v>
+      </c>
+      <c r="BN97">
+        <v>1.4</v>
+      </c>
+      <c r="BO97">
+        <v>3.8</v>
+      </c>
+      <c r="BP97">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7481444</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45577.875</v>
+      </c>
+      <c r="F98">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>94</v>
+      </c>
+      <c r="P98" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q98">
+        <v>2.75</v>
+      </c>
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>4.75</v>
+      </c>
+      <c r="T98">
+        <v>1.53</v>
+      </c>
+      <c r="U98">
+        <v>2.38</v>
+      </c>
+      <c r="V98">
+        <v>3.5</v>
+      </c>
+      <c r="W98">
+        <v>1.29</v>
+      </c>
+      <c r="X98">
+        <v>11</v>
+      </c>
+      <c r="Y98">
+        <v>1.05</v>
+      </c>
+      <c r="Z98">
+        <v>2.23</v>
+      </c>
+      <c r="AA98">
+        <v>2.98</v>
+      </c>
+      <c r="AB98">
+        <v>3.09</v>
+      </c>
+      <c r="AC98">
+        <v>1.1</v>
+      </c>
+      <c r="AD98">
+        <v>6.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.5</v>
+      </c>
+      <c r="AF98">
+        <v>2.4</v>
+      </c>
+      <c r="AG98">
+        <v>2.35</v>
+      </c>
+      <c r="AH98">
+        <v>1.53</v>
+      </c>
+      <c r="AI98">
+        <v>2.1</v>
+      </c>
+      <c r="AJ98">
+        <v>1.67</v>
+      </c>
+      <c r="AK98">
+        <v>1.22</v>
+      </c>
+      <c r="AL98">
+        <v>1.28</v>
+      </c>
+      <c r="AM98">
+        <v>1.75</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>0.67</v>
+      </c>
+      <c r="AP98">
+        <v>1.4</v>
+      </c>
+      <c r="AQ98">
+        <v>1.25</v>
+      </c>
+      <c r="AR98">
+        <v>1.35</v>
+      </c>
+      <c r="AS98">
+        <v>0.99</v>
+      </c>
+      <c r="AT98">
+        <v>2.34</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>5</v>
+      </c>
+      <c r="AY98">
+        <v>10</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>4</v>
+      </c>
+      <c r="BB98">
+        <v>6</v>
+      </c>
+      <c r="BC98">
+        <v>10</v>
+      </c>
+      <c r="BD98">
+        <v>1.56</v>
+      </c>
+      <c r="BE98">
+        <v>8.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.99</v>
+      </c>
+      <c r="BG98">
+        <v>1.24</v>
+      </c>
+      <c r="BH98">
+        <v>3.22</v>
+      </c>
+      <c r="BI98">
+        <v>1.49</v>
+      </c>
+      <c r="BJ98">
+        <v>2.38</v>
+      </c>
+      <c r="BK98">
+        <v>1.91</v>
+      </c>
+      <c r="BL98">
+        <v>1.8</v>
+      </c>
+      <c r="BM98">
+        <v>2.38</v>
+      </c>
+      <c r="BN98">
+        <v>1.49</v>
+      </c>
+      <c r="BO98">
+        <v>3.08</v>
+      </c>
+      <c r="BP98">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7481453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45578.66666666666</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s">
+        <v>75</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s">
+        <v>94</v>
+      </c>
+      <c r="P99" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q99">
+        <v>3.1</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>3.75</v>
+      </c>
+      <c r="T99">
+        <v>1.44</v>
+      </c>
+      <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3.25</v>
+      </c>
+      <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>10</v>
+      </c>
+      <c r="Y99">
+        <v>1.06</v>
+      </c>
+      <c r="Z99">
+        <v>2.27</v>
+      </c>
+      <c r="AA99">
+        <v>3.63</v>
+      </c>
+      <c r="AB99">
+        <v>2.55</v>
+      </c>
+      <c r="AC99">
+        <v>1.08</v>
+      </c>
+      <c r="AD99">
+        <v>7.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.38</v>
+      </c>
+      <c r="AF99">
+        <v>2.9</v>
+      </c>
+      <c r="AG99">
+        <v>2.1</v>
+      </c>
+      <c r="AH99">
+        <v>1.65</v>
+      </c>
+      <c r="AI99">
+        <v>1.83</v>
+      </c>
+      <c r="AJ99">
+        <v>1.83</v>
+      </c>
+      <c r="AK99">
+        <v>1.33</v>
+      </c>
+      <c r="AL99">
+        <v>1.3</v>
+      </c>
+      <c r="AM99">
+        <v>1.57</v>
+      </c>
+      <c r="AN99">
+        <v>1.75</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>1.6</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
+        <v>1.46</v>
+      </c>
+      <c r="AS99">
+        <v>1.34</v>
+      </c>
+      <c r="AT99">
+        <v>2.8</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>6</v>
+      </c>
+      <c r="AW99">
+        <v>8</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>13</v>
+      </c>
+      <c r="AZ99">
+        <v>11</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>7</v>
+      </c>
+      <c r="BD99">
+        <v>1.64</v>
+      </c>
+      <c r="BE99">
+        <v>6.85</v>
+      </c>
+      <c r="BF99">
+        <v>3.14</v>
+      </c>
+      <c r="BG99">
+        <v>1.28</v>
+      </c>
+      <c r="BH99">
+        <v>3.48</v>
+      </c>
+      <c r="BI99">
+        <v>1.51</v>
+      </c>
+      <c r="BJ99">
+        <v>2.45</v>
+      </c>
+      <c r="BK99">
+        <v>1.85</v>
+      </c>
+      <c r="BL99">
+        <v>1.85</v>
+      </c>
+      <c r="BM99">
+        <v>2.45</v>
+      </c>
+      <c r="BN99">
+        <v>1.51</v>
+      </c>
+      <c r="BO99">
+        <v>3.35</v>
+      </c>
+      <c r="BP99">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7481451</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45579.64583333334</v>
+      </c>
+      <c r="F100">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s">
+        <v>86</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q100">
+        <v>2.88</v>
+      </c>
+      <c r="R100">
+        <v>2.25</v>
+      </c>
+      <c r="S100">
+        <v>3.5</v>
+      </c>
+      <c r="T100">
+        <v>1.36</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100">
+        <v>2.63</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>7</v>
+      </c>
+      <c r="Y100">
+        <v>1.1</v>
+      </c>
+      <c r="Z100">
+        <v>51</v>
+      </c>
+      <c r="AA100">
+        <v>1</v>
+      </c>
+      <c r="AB100">
+        <v>51</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.28</v>
+      </c>
+      <c r="AF100">
+        <v>3.65</v>
+      </c>
+      <c r="AG100">
+        <v>2.3</v>
+      </c>
+      <c r="AH100">
+        <v>1.62</v>
+      </c>
+      <c r="AI100">
+        <v>1.62</v>
+      </c>
+      <c r="AJ100">
+        <v>2.2</v>
+      </c>
+      <c r="AK100">
+        <v>1.35</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.62</v>
+      </c>
+      <c r="AN100">
+        <v>1.75</v>
+      </c>
+      <c r="AO100">
+        <v>2.25</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>1.8</v>
+      </c>
+      <c r="AR100">
+        <v>1.65</v>
+      </c>
+      <c r="AS100">
+        <v>1.47</v>
+      </c>
+      <c r="AT100">
+        <v>3.12</v>
+      </c>
+      <c r="AU100">
+        <v>9</v>
+      </c>
+      <c r="AV100">
+        <v>2</v>
+      </c>
+      <c r="AW100">
+        <v>6</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>18</v>
+      </c>
+      <c r="AZ100">
+        <v>12</v>
+      </c>
+      <c r="BA100">
+        <v>7</v>
+      </c>
+      <c r="BB100">
+        <v>4</v>
+      </c>
+      <c r="BC100">
+        <v>11</v>
+      </c>
+      <c r="BD100">
+        <v>1.75</v>
+      </c>
+      <c r="BE100">
+        <v>8</v>
+      </c>
+      <c r="BF100">
+        <v>2.52</v>
+      </c>
+      <c r="BG100">
+        <v>1.31</v>
+      </c>
+      <c r="BH100">
+        <v>3.3</v>
+      </c>
+      <c r="BI100">
+        <v>1.56</v>
+      </c>
+      <c r="BJ100">
+        <v>2.34</v>
+      </c>
+      <c r="BK100">
+        <v>1.98</v>
+      </c>
+      <c r="BL100">
+        <v>1.82</v>
+      </c>
+      <c r="BM100">
+        <v>2.57</v>
+      </c>
+      <c r="BN100">
+        <v>1.47</v>
+      </c>
+      <c r="BO100">
+        <v>3.55</v>
+      </c>
+      <c r="BP100">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -21422,7 +21422,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45579.64583333334</v>
+        <v>45578.875</v>
       </c>
       <c r="F100">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['62', '87']</t>
   </si>
   <si>
+    <t>['60', '66']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -647,6 +650,9 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1273,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1679,7 +1685,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1885,7 +1891,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2297,7 +2303,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2503,7 +2509,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2709,7 +2715,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2915,7 +2921,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2996,7 +3002,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3121,7 +3127,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3327,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3533,7 +3539,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3739,7 +3745,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4769,7 +4775,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5387,7 +5393,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5593,7 +5599,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5671,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23">
         <v>1.75</v>
@@ -5799,7 +5805,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6005,7 +6011,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6211,7 +6217,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6623,7 +6629,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6829,7 +6835,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7241,7 +7247,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7322,7 +7328,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7653,7 +7659,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8065,7 +8071,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8271,7 +8277,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8683,7 +8689,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8967,7 +8973,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9919,7 +9925,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10409,7 +10415,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10537,7 +10543,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11648,7 +11654,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -12185,7 +12191,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12391,7 +12397,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12597,7 +12603,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12803,7 +12809,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13215,7 +13221,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13833,7 +13839,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14039,7 +14045,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14451,7 +14457,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14863,7 +14869,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15069,7 +15075,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15687,7 +15693,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15893,7 +15899,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16099,7 +16105,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16305,7 +16311,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16795,7 +16801,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16923,7 +16929,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17004,7 +17010,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17129,7 +17135,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17541,7 +17547,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17747,7 +17753,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18159,7 +18165,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18446,7 +18452,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -18777,7 +18783,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19189,7 +19195,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19395,7 +19401,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19601,7 +19607,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -20631,7 +20637,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20837,7 +20843,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21455,7 +21461,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21612,6 +21618,212 @@
       </c>
       <c r="BP100">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7481464</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45583.64583333334</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" t="s">
+        <v>87</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>162</v>
+      </c>
+      <c r="P101" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q101">
+        <v>2.5</v>
+      </c>
+      <c r="R101">
+        <v>2.1</v>
+      </c>
+      <c r="S101">
+        <v>5</v>
+      </c>
+      <c r="T101">
+        <v>1.44</v>
+      </c>
+      <c r="U101">
+        <v>2.63</v>
+      </c>
+      <c r="V101">
+        <v>3.25</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>10</v>
+      </c>
+      <c r="Y101">
+        <v>1.06</v>
+      </c>
+      <c r="Z101">
+        <v>1.8</v>
+      </c>
+      <c r="AA101">
+        <v>3.25</v>
+      </c>
+      <c r="AB101">
+        <v>4.1</v>
+      </c>
+      <c r="AC101">
+        <v>1.07</v>
+      </c>
+      <c r="AD101">
+        <v>8</v>
+      </c>
+      <c r="AE101">
+        <v>1.4</v>
+      </c>
+      <c r="AF101">
+        <v>2.8</v>
+      </c>
+      <c r="AG101">
+        <v>2.12</v>
+      </c>
+      <c r="AH101">
+        <v>1.64</v>
+      </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.73</v>
+      </c>
+      <c r="AK101">
+        <v>1.15</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.95</v>
+      </c>
+      <c r="AN101">
+        <v>2</v>
+      </c>
+      <c r="AO101">
+        <v>1.2</v>
+      </c>
+      <c r="AP101">
+        <v>2.2</v>
+      </c>
+      <c r="AQ101">
+        <v>1</v>
+      </c>
+      <c r="AR101">
+        <v>1.58</v>
+      </c>
+      <c r="AS101">
+        <v>0.87</v>
+      </c>
+      <c r="AT101">
+        <v>2.45</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>21</v>
+      </c>
+      <c r="AZ101">
+        <v>7</v>
+      </c>
+      <c r="BA101">
+        <v>7</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>9</v>
+      </c>
+      <c r="BD101">
+        <v>1.19</v>
+      </c>
+      <c r="BE101">
+        <v>11</v>
+      </c>
+      <c r="BF101">
+        <v>5.67</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>2</v>
+      </c>
+      <c r="BL101">
+        <v>1.8</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,19 +235,19 @@
     <t>Cádiz</t>
   </si>
   <si>
-    <t>Racing Club de Ferrol</t>
+    <t>SD Eibar</t>
   </si>
   <si>
-    <t>SD Eibar</t>
+    <t>Racing Club de Ferrol</t>
   </si>
   <si>
     <t>Deportivo La Coruña</t>
   </si>
   <si>
-    <t>Racing Santander</t>
+    <t>Sporting Gijón</t>
   </si>
   <si>
-    <t>Sporting Gijón</t>
+    <t>Racing Santander</t>
   </si>
   <si>
     <t>Burgos CF</t>
@@ -301,16 +301,16 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['69', '82']</t>
   </si>
   <si>
-    <t>['2']</t>
+    <t>['59']</t>
   </si>
   <si>
     <t>['7', '31']</t>
-  </si>
-  <si>
-    <t>['59']</t>
   </si>
   <si>
     <t>['25', '40', '90+3']</t>
@@ -379,10 +379,10 @@
     <t>['43', '90+8']</t>
   </si>
   <si>
-    <t>['44', '74', '81']</t>
+    <t>['46']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['44', '74', '81']</t>
   </si>
   <si>
     <t>['42']</t>
@@ -445,10 +445,10 @@
     <t>['20', '71']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['43', '71', '84']</t>
   </si>
   <si>
-    <t>['43', '71', '84']</t>
+    <t>['47']</t>
   </si>
   <si>
     <t>['74']</t>
@@ -481,28 +481,37 @@
     <t>['11', '50']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['23', '41']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['29', '80']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['12', '18', '70']</t>
   </si>
   <si>
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['12', '18', '70']</t>
-  </si>
-  <si>
-    <t>['29', '80']</t>
+    <t>['81']</t>
   </si>
   <si>
     <t>['62', '87']</t>
   </si>
   <si>
     <t>['60', '66']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['20', '33', '81', '90+5']</t>
+  </si>
+  <si>
+    <t>['53', '77']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -517,10 +526,10 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['65', '71']</t>
+    <t>['14', '42']</t>
   </si>
   <si>
-    <t>['14', '42']</t>
+    <t>['65', '71']</t>
   </si>
   <si>
     <t>['14']</t>
@@ -643,16 +652,19 @@
     <t>['54', '82']</t>
   </si>
   <si>
-    <t>['24', '67']</t>
+    <t>['38', '45+5']</t>
   </si>
   <si>
-    <t>['38', '45+5']</t>
+    <t>['24', '67']</t>
   </si>
   <si>
     <t>['21']</t>
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1285,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1351,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.4</v>
@@ -1557,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
         <v>0.2</v>
@@ -1685,7 +1697,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1849,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7481361</v>
+        <v>7481364</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1867,100 +1879,100 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="Q5">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T5">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U5">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V5">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W5">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y5">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z5">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AB5">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="AC5">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AD5">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AE5">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AF5">
-        <v>2.43</v>
+        <v>2.98</v>
       </c>
       <c r="AG5">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="AH5">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AI5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ5">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK5">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL5">
         <v>1.3</v>
       </c>
       <c r="AM5">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1969,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1984,22 +1996,22 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX5">
         <v>4</v>
       </c>
       <c r="AY5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2011,43 +2023,43 @@
         <v>6</v>
       </c>
       <c r="BD5">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="BE5">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="BF5">
-        <v>2.53</v>
+        <v>3.58</v>
       </c>
       <c r="BG5">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BH5">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BI5">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="BJ5">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="BK5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL5">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="BM5">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="BN5">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="BO5">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="BP5">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -2055,7 +2067,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7481364</v>
+        <v>7481361</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -2073,100 +2085,100 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O6" t="s">
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="Q6">
+        <v>3.1</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>1.53</v>
+      </c>
+      <c r="U6">
         <v>2.38</v>
       </c>
-      <c r="R6">
+      <c r="V6">
+        <v>3.75</v>
+      </c>
+      <c r="W6">
+        <v>1.25</v>
+      </c>
+      <c r="X6">
+        <v>11</v>
+      </c>
+      <c r="Y6">
+        <v>1.05</v>
+      </c>
+      <c r="Z6">
+        <v>1.85</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>1.1</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+      <c r="AE6">
+        <v>1.49</v>
+      </c>
+      <c r="AF6">
+        <v>2.43</v>
+      </c>
+      <c r="AG6">
+        <v>2.37</v>
+      </c>
+      <c r="AH6">
+        <v>1.48</v>
+      </c>
+      <c r="AI6">
         <v>2.1</v>
       </c>
-      <c r="S6">
-        <v>5.5</v>
-      </c>
-      <c r="T6">
-        <v>1.44</v>
-      </c>
-      <c r="U6">
-        <v>2.63</v>
-      </c>
-      <c r="V6">
-        <v>3.25</v>
-      </c>
-      <c r="W6">
-        <v>1.33</v>
-      </c>
-      <c r="X6">
-        <v>9</v>
-      </c>
-      <c r="Y6">
-        <v>1.07</v>
-      </c>
-      <c r="Z6">
-        <v>1.6</v>
-      </c>
-      <c r="AA6">
-        <v>3.4</v>
-      </c>
-      <c r="AB6">
-        <v>5.25</v>
-      </c>
-      <c r="AC6">
-        <v>1.03</v>
-      </c>
-      <c r="AD6">
-        <v>7.9</v>
-      </c>
-      <c r="AE6">
-        <v>1.32</v>
-      </c>
-      <c r="AF6">
-        <v>2.98</v>
-      </c>
-      <c r="AG6">
-        <v>2.05</v>
-      </c>
-      <c r="AH6">
-        <v>1.61</v>
-      </c>
-      <c r="AI6">
-        <v>2</v>
-      </c>
       <c r="AJ6">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK6">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL6">
         <v>1.3</v>
       </c>
       <c r="AM6">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2175,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2190,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="AU6">
+        <v>6</v>
+      </c>
+      <c r="AV6">
         <v>4</v>
       </c>
-      <c r="AV6">
-        <v>5</v>
-      </c>
       <c r="AW6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX6">
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA6">
         <v>3</v>
@@ -2217,43 +2229,43 @@
         <v>6</v>
       </c>
       <c r="BD6">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="BE6">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF6">
-        <v>3.58</v>
+        <v>2.53</v>
       </c>
       <c r="BG6">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BH6">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BI6">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="BJ6">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="BK6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL6">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="BM6">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="BN6">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BO6">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="BP6">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -2303,7 +2315,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2384,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2467,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7481363</v>
+        <v>7481366</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -2485,100 +2497,100 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q8">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S8">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V8">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y8">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z8">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="AA8">
-        <v>3.07</v>
+        <v>2.98</v>
       </c>
       <c r="AB8">
-        <v>3.07</v>
+        <v>3.73</v>
       </c>
       <c r="AC8">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD8">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE8">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AF8">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="AG8">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AH8">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AI8">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AJ8">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AK8">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AL8">
         <v>1.28</v>
       </c>
       <c r="AM8">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -2587,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2602,70 +2614,70 @@
         <v>0</v>
       </c>
       <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
         <v>6</v>
       </c>
-      <c r="AV8">
-        <v>9</v>
-      </c>
       <c r="AW8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>11</v>
+      </c>
+      <c r="AZ8">
         <v>10</v>
       </c>
-      <c r="AY8">
-        <v>13</v>
-      </c>
-      <c r="AZ8">
-        <v>21</v>
-      </c>
       <c r="BA8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD8">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BE8">
         <v>8</v>
       </c>
       <c r="BF8">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="BG8">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BH8">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI8">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="BJ8">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="BK8">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BL8">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BM8">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="BN8">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BO8">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BP8">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -2673,7 +2685,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7481366</v>
+        <v>7481363</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -2691,100 +2703,100 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q9">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R9">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="T9">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y9">
+        <v>1.06</v>
+      </c>
+      <c r="Z9">
+        <v>2.09</v>
+      </c>
+      <c r="AA9">
+        <v>3.07</v>
+      </c>
+      <c r="AB9">
+        <v>3.07</v>
+      </c>
+      <c r="AC9">
         <v>1.04</v>
       </c>
-      <c r="Z9">
-        <v>1.9</v>
-      </c>
-      <c r="AA9">
-        <v>2.98</v>
-      </c>
-      <c r="AB9">
-        <v>3.73</v>
-      </c>
-      <c r="AC9">
-        <v>1.1</v>
-      </c>
       <c r="AD9">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AF9">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="AG9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH9">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AI9">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AJ9">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AK9">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AL9">
         <v>1.28</v>
       </c>
       <c r="AM9">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2793,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2808,70 +2820,70 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BA9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
         <v>7</v>
       </c>
-      <c r="BB9">
-        <v>1</v>
-      </c>
       <c r="BC9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD9">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="BE9">
         <v>8</v>
       </c>
       <c r="BF9">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="BG9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH9">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI9">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="BJ9">
-        <v>2.28</v>
+        <v>2.43</v>
       </c>
       <c r="BK9">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BL9">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BM9">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="BN9">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="BO9">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BP9">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -2921,7 +2933,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3127,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3333,7 +3345,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3414,7 +3426,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3512,10 +3524,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3539,7 +3551,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3620,7 +3632,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3745,7 +3757,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3909,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7481377</v>
+        <v>7481370</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3924,10 +3936,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3942,25 +3954,25 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="s">
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="Q15">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R15">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="T15">
         <v>1.5</v>
@@ -3969,145 +3981,145 @@
         <v>2.5</v>
       </c>
       <c r="V15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W15">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y15">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z15">
-        <v>1.75</v>
+        <v>2.57</v>
       </c>
       <c r="AA15">
-        <v>3.51</v>
+        <v>3.08</v>
       </c>
       <c r="AB15">
-        <v>4.74</v>
+        <v>2.89</v>
       </c>
       <c r="AC15">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AD15">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE15">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AF15">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AG15">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="AH15">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AI15">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AJ15">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK15">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AL15">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM15">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AS15">
         <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW15">
         <v>10</v>
       </c>
       <c r="AX15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ15">
         <v>12</v>
       </c>
       <c r="BA15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD15">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="BE15">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF15">
-        <v>3.33</v>
+        <v>2</v>
       </c>
       <c r="BG15">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="BH15">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="BI15">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="BJ15">
-        <v>2.29</v>
+        <v>1.99</v>
       </c>
       <c r="BK15">
-        <v>1.97</v>
+        <v>2.34</v>
       </c>
       <c r="BL15">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="BM15">
-        <v>2.57</v>
+        <v>3.32</v>
       </c>
       <c r="BN15">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="BO15">
-        <v>3.48</v>
+        <v>4.5</v>
       </c>
       <c r="BP15">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4115,7 +4127,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7481370</v>
+        <v>7481377</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -4130,10 +4142,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4148,25 +4160,25 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="Q16">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S16">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>1.5</v>
@@ -4175,145 +4187,145 @@
         <v>2.5</v>
       </c>
       <c r="V16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W16">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z16">
-        <v>2.57</v>
+        <v>1.75</v>
       </c>
       <c r="AA16">
-        <v>3.08</v>
+        <v>3.51</v>
       </c>
       <c r="AB16">
-        <v>2.89</v>
+        <v>4.74</v>
       </c>
       <c r="AC16">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD16">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE16">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AF16">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AG16">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="AH16">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AI16">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ16">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK16">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AL16">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM16">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AS16">
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AU16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW16">
         <v>10</v>
       </c>
       <c r="AX16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ16">
         <v>12</v>
       </c>
       <c r="BA16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD16">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="BE16">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>3.33</v>
       </c>
       <c r="BG16">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="BH16">
-        <v>2.78</v>
+        <v>3.18</v>
       </c>
       <c r="BI16">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="BJ16">
-        <v>1.99</v>
+        <v>2.29</v>
       </c>
       <c r="BK16">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="BL16">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="BM16">
-        <v>3.32</v>
+        <v>2.57</v>
       </c>
       <c r="BN16">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="BO16">
-        <v>4.5</v>
+        <v>3.48</v>
       </c>
       <c r="BP16">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4363,7 +4375,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4647,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -4775,7 +4787,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5265,10 +5277,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5393,7 +5405,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5599,7 +5611,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5802,10 +5814,10 @@
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5883,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5987,7 +5999,7 @@
         <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -6011,7 +6023,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6217,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6298,7 +6310,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6399,7 +6411,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -6629,7 +6641,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6707,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1.4</v>
@@ -6835,7 +6847,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7017,7 +7029,7 @@
         <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -7205,7 +7217,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7481387</v>
+        <v>7481384</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7220,49 +7232,49 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="Q31">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="T31">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U31">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V31">
         <v>3.75</v>
@@ -7271,109 +7283,109 @@
         <v>1.25</v>
       </c>
       <c r="X31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z31">
-        <v>1.91</v>
+        <v>2.7</v>
       </c>
       <c r="AA31">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AB31">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="AC31">
         <v>1.07</v>
       </c>
       <c r="AD31">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AE31">
+        <v>1.5</v>
+      </c>
+      <c r="AF31">
+        <v>2.4</v>
+      </c>
+      <c r="AG31">
+        <v>2.55</v>
+      </c>
+      <c r="AH31">
+        <v>1.45</v>
+      </c>
+      <c r="AI31">
+        <v>2.1</v>
+      </c>
+      <c r="AJ31">
+        <v>1.67</v>
+      </c>
+      <c r="AK31">
+        <v>1.46</v>
+      </c>
+      <c r="AL31">
+        <v>1.38</v>
+      </c>
+      <c r="AM31">
         <v>1.44</v>
-      </c>
-      <c r="AF31">
-        <v>2.6</v>
-      </c>
-      <c r="AG31">
-        <v>2.35</v>
-      </c>
-      <c r="AH31">
-        <v>1.53</v>
-      </c>
-      <c r="AI31">
-        <v>2.2</v>
-      </c>
-      <c r="AJ31">
-        <v>1.62</v>
-      </c>
-      <c r="AK31">
-        <v>1.22</v>
-      </c>
-      <c r="AL31">
-        <v>1.28</v>
-      </c>
-      <c r="AM31">
-        <v>1.8</v>
       </c>
       <c r="AN31">
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
-        <v>1.31</v>
+        <v>0.48</v>
       </c>
       <c r="AS31">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="AT31">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="AU31">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AV31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW31">
         <v>7</v>
       </c>
       <c r="AX31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY31">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD31">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="BE31">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF31">
-        <v>3.17</v>
+        <v>2</v>
       </c>
       <c r="BG31">
         <v>1.36</v>
@@ -7382,10 +7394,10 @@
         <v>2.8</v>
       </c>
       <c r="BI31">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="BJ31">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="BK31">
         <v>2.05</v>
@@ -7411,7 +7423,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7481384</v>
+        <v>7481387</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7426,49 +7438,49 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="Q32">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R32">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U32">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V32">
         <v>3.75</v>
@@ -7477,109 +7489,109 @@
         <v>1.25</v>
       </c>
       <c r="X32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y32">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z32">
-        <v>2.7</v>
+        <v>1.91</v>
       </c>
       <c r="AA32">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB32">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="AC32">
         <v>1.07</v>
       </c>
       <c r="AD32">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AE32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AF32">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AG32">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AH32">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AI32">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ32">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK32">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AL32">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AM32">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AN32">
         <v>3</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>0.48</v>
+        <v>1.31</v>
       </c>
       <c r="AS32">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="AT32">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="AU32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW32">
         <v>7</v>
       </c>
       <c r="AX32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD32">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="BE32">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF32">
-        <v>2</v>
+        <v>3.17</v>
       </c>
       <c r="BG32">
         <v>1.36</v>
@@ -7588,10 +7600,10 @@
         <v>2.8</v>
       </c>
       <c r="BI32">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="BJ32">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="BK32">
         <v>2.05</v>
@@ -7632,7 +7644,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
         <v>82</v>
@@ -7659,7 +7671,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7740,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -8047,7 +8059,7 @@
         <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -8071,7 +8083,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8277,7 +8289,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8355,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8441,7 +8453,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7481394</v>
+        <v>7481398</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8456,190 +8468,190 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T37">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U37">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="V37">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="W37">
         <v>1.25</v>
       </c>
       <c r="X37">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Y37">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z37">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AA37">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="AB37">
-        <v>3.15</v>
+        <v>3.64</v>
       </c>
       <c r="AC37">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AD37">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE37">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AF37">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AG37">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AH37">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AI37">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AJ37">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK37">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AL37">
         <v>1.3</v>
       </c>
       <c r="AM37">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP37">
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AS37">
-        <v>1.28</v>
+        <v>0.7</v>
       </c>
       <c r="AT37">
-        <v>2.63</v>
+        <v>2.11</v>
       </c>
       <c r="AU37">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>2</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>11</v>
+      </c>
+      <c r="AZ37">
+        <v>13</v>
+      </c>
+      <c r="BA37">
+        <v>1</v>
+      </c>
+      <c r="BB37">
+        <v>6</v>
+      </c>
+      <c r="BC37">
         <v>7</v>
       </c>
-      <c r="AW37">
-        <v>6</v>
-      </c>
-      <c r="AX37">
-        <v>4</v>
-      </c>
-      <c r="AY37">
-        <v>12</v>
-      </c>
-      <c r="AZ37">
-        <v>15</v>
-      </c>
-      <c r="BA37">
-        <v>4</v>
-      </c>
-      <c r="BB37">
-        <v>4</v>
-      </c>
-      <c r="BC37">
-        <v>8</v>
-      </c>
       <c r="BD37">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BE37">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="BF37">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BG37">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BH37">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="BI37">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="BJ37">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="BK37">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BL37">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM37">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="BN37">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BO37">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BP37">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8647,7 +8659,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7481398</v>
+        <v>7481394</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8662,190 +8674,190 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="Q38">
         <v>3</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T38">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U38">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="V38">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="W38">
         <v>1.25</v>
       </c>
       <c r="X38">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y38">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z38">
-        <v>2.26</v>
+        <v>2.39</v>
       </c>
       <c r="AA38">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="AB38">
-        <v>3.64</v>
+        <v>3.15</v>
       </c>
       <c r="AC38">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD38">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE38">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AF38">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AG38">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AH38">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AI38">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ38">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK38">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AL38">
         <v>1.3</v>
       </c>
       <c r="AM38">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP38">
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AS38">
-        <v>0.7</v>
+        <v>1.28</v>
       </c>
       <c r="AT38">
-        <v>2.11</v>
+        <v>2.63</v>
       </c>
       <c r="AU38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV38">
+        <v>7</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
         <v>4</v>
       </c>
-      <c r="AW38">
-        <v>2</v>
-      </c>
-      <c r="AX38">
-        <v>6</v>
-      </c>
       <c r="AY38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD38">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BE38">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="BF38">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BG38">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BH38">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="BI38">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="BJ38">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="BK38">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL38">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM38">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="BN38">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BO38">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="BP38">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -9074,7 +9086,7 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
         <v>71</v>
@@ -9388,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9925,7 +9937,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10003,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>1.75</v>
@@ -10107,7 +10119,7 @@
         <v>85</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -10212,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10501,7 +10513,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7481409</v>
+        <v>7481404</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10516,70 +10528,70 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O47" t="s">
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S47">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T47">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U47">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="V47">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="W47">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X47">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="Y47">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z47">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AA47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB47">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AC47">
         <v>1.05</v>
@@ -10588,118 +10600,118 @@
         <v>8</v>
       </c>
       <c r="AE47">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF47">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AG47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AH47">
+        <v>1.72</v>
+      </c>
+      <c r="AI47">
+        <v>2.1</v>
+      </c>
+      <c r="AJ47">
+        <v>1.67</v>
+      </c>
+      <c r="AK47">
+        <v>1.17</v>
+      </c>
+      <c r="AL47">
+        <v>1.22</v>
+      </c>
+      <c r="AM47">
+        <v>2.05</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AO47">
+        <v>0.5</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>0.2</v>
+      </c>
+      <c r="AR47">
+        <v>1.67</v>
+      </c>
+      <c r="AS47">
+        <v>1.19</v>
+      </c>
+      <c r="AT47">
+        <v>2.86</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>6</v>
+      </c>
+      <c r="AZ47">
+        <v>8</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>1.37</v>
+      </c>
+      <c r="BE47">
+        <v>9</v>
+      </c>
+      <c r="BF47">
+        <v>3.83</v>
+      </c>
+      <c r="BG47">
+        <v>1.34</v>
+      </c>
+      <c r="BH47">
+        <v>2.88</v>
+      </c>
+      <c r="BI47">
         <v>1.7</v>
       </c>
-      <c r="AI47">
-        <v>2</v>
-      </c>
-      <c r="AJ47">
-        <v>1.73</v>
-      </c>
-      <c r="AK47">
-        <v>1.16</v>
-      </c>
-      <c r="AL47">
-        <v>1.25</v>
-      </c>
-      <c r="AM47">
-        <v>1.95</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>1</v>
-      </c>
-      <c r="AP47">
-        <v>2</v>
-      </c>
-      <c r="AQ47">
-        <v>1</v>
-      </c>
-      <c r="AR47">
-        <v>1.72</v>
-      </c>
-      <c r="AS47">
+      <c r="BJ47">
+        <v>2.05</v>
+      </c>
+      <c r="BK47">
+        <v>2.1</v>
+      </c>
+      <c r="BL47">
+        <v>1.67</v>
+      </c>
+      <c r="BM47">
+        <v>2.7</v>
+      </c>
+      <c r="BN47">
         <v>1.38</v>
       </c>
-      <c r="AT47">
-        <v>3.1</v>
-      </c>
-      <c r="AU47">
-        <v>7</v>
-      </c>
-      <c r="AV47">
-        <v>4</v>
-      </c>
-      <c r="AW47">
-        <v>13</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>30</v>
-      </c>
-      <c r="AZ47">
-        <v>6</v>
-      </c>
-      <c r="BA47">
-        <v>10</v>
-      </c>
-      <c r="BB47">
-        <v>2</v>
-      </c>
-      <c r="BC47">
-        <v>12</v>
-      </c>
-      <c r="BD47">
-        <v>1.45</v>
-      </c>
-      <c r="BE47">
-        <v>8.5</v>
-      </c>
-      <c r="BF47">
-        <v>3.46</v>
-      </c>
-      <c r="BG47">
-        <v>1.3</v>
-      </c>
-      <c r="BH47">
-        <v>3.05</v>
-      </c>
-      <c r="BI47">
-        <v>1.56</v>
-      </c>
-      <c r="BJ47">
-        <v>2.2</v>
-      </c>
-      <c r="BK47">
-        <v>2</v>
-      </c>
-      <c r="BL47">
-        <v>1.8</v>
-      </c>
-      <c r="BM47">
-        <v>2.55</v>
-      </c>
-      <c r="BN47">
-        <v>1.42</v>
-      </c>
       <c r="BO47">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="BP47">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10707,7 +10719,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7481404</v>
+        <v>7481409</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10722,70 +10734,70 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O48" t="s">
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
       </c>
       <c r="R48">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T48">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U48">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="V48">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="W48">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X48">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="Y48">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z48">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AA48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB48">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AC48">
         <v>1.05</v>
@@ -10794,118 +10806,118 @@
         <v>8</v>
       </c>
       <c r="AE48">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF48">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AG48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH48">
+        <v>1.7</v>
+      </c>
+      <c r="AI48">
+        <v>2</v>
+      </c>
+      <c r="AJ48">
+        <v>1.73</v>
+      </c>
+      <c r="AK48">
+        <v>1.16</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.95</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
         <v>1.72</v>
       </c>
-      <c r="AI48">
-        <v>2.1</v>
-      </c>
-      <c r="AJ48">
-        <v>1.67</v>
-      </c>
-      <c r="AK48">
-        <v>1.17</v>
-      </c>
-      <c r="AL48">
-        <v>1.22</v>
-      </c>
-      <c r="AM48">
-        <v>2.05</v>
-      </c>
-      <c r="AN48">
-        <v>2</v>
-      </c>
-      <c r="AO48">
-        <v>0.5</v>
-      </c>
-      <c r="AP48">
-        <v>2</v>
-      </c>
-      <c r="AQ48">
-        <v>0.25</v>
-      </c>
-      <c r="AR48">
-        <v>1.67</v>
-      </c>
       <c r="AS48">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AU48">
+        <v>7</v>
+      </c>
+      <c r="AV48">
         <v>4</v>
       </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
       <c r="AW48">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AX48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>30</v>
+      </c>
+      <c r="AZ48">
         <v>6</v>
       </c>
-      <c r="AY48">
-        <v>6</v>
-      </c>
-      <c r="AZ48">
-        <v>8</v>
-      </c>
       <c r="BA48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD48">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="BE48">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF48">
-        <v>3.83</v>
+        <v>3.46</v>
       </c>
       <c r="BG48">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH48">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="BI48">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BJ48">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BK48">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL48">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BM48">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BN48">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BO48">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BP48">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -11033,7 +11045,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11134,10 +11146,10 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
         <v>76</v>
-      </c>
-      <c r="H50" t="s">
-        <v>77</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11445,7 +11457,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>1.4</v>
@@ -11737,7 +11749,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7481402</v>
+        <v>7481401</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11752,10 +11764,10 @@
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -11767,175 +11779,175 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="P53" t="s">
         <v>94</v>
       </c>
       <c r="Q53">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="T53">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="U53">
-        <v>2.63</v>
+        <v>2.39</v>
       </c>
       <c r="V53">
         <v>3.4</v>
       </c>
       <c r="W53">
+        <v>1.28</v>
+      </c>
+      <c r="X53">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>1.04</v>
+      </c>
+      <c r="Z53">
+        <v>2.32</v>
+      </c>
+      <c r="AA53">
+        <v>3.15</v>
+      </c>
+      <c r="AB53">
+        <v>2.93</v>
+      </c>
+      <c r="AC53">
+        <v>1.09</v>
+      </c>
+      <c r="AD53">
+        <v>7</v>
+      </c>
+      <c r="AE53">
+        <v>1.42</v>
+      </c>
+      <c r="AF53">
+        <v>2.7</v>
+      </c>
+      <c r="AG53">
+        <v>2.21</v>
+      </c>
+      <c r="AH53">
+        <v>1.59</v>
+      </c>
+      <c r="AI53">
+        <v>1.95</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.36</v>
+      </c>
+      <c r="AL53">
         <v>1.3</v>
       </c>
-      <c r="X53">
-        <v>10</v>
-      </c>
-      <c r="Y53">
-        <v>1.06</v>
-      </c>
-      <c r="Z53">
-        <v>1.65</v>
-      </c>
-      <c r="AA53">
-        <v>3.65</v>
-      </c>
-      <c r="AB53">
+      <c r="AM53">
+        <v>1.55</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>2.33</v>
+      </c>
+      <c r="AP53">
+        <v>1.4</v>
+      </c>
+      <c r="AQ53">
+        <v>1.67</v>
+      </c>
+      <c r="AR53">
+        <v>1.46</v>
+      </c>
+      <c r="AS53">
+        <v>1.42</v>
+      </c>
+      <c r="AT53">
+        <v>2.88</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
         <v>5</v>
       </c>
-      <c r="AC53">
-        <v>1.05</v>
-      </c>
-      <c r="AD53">
+      <c r="AW53">
+        <v>7</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="AY53">
+        <v>16</v>
+      </c>
+      <c r="AZ53">
+        <v>13</v>
+      </c>
+      <c r="BA53">
+        <v>6</v>
+      </c>
+      <c r="BB53">
+        <v>7</v>
+      </c>
+      <c r="BC53">
+        <v>13</v>
+      </c>
+      <c r="BD53">
+        <v>1.85</v>
+      </c>
+      <c r="BE53">
         <v>8</v>
       </c>
-      <c r="AE53">
-        <v>1.36</v>
-      </c>
-      <c r="AF53">
-        <v>2.88</v>
-      </c>
-      <c r="AG53">
-        <v>2.14</v>
-      </c>
-      <c r="AH53">
-        <v>1.63</v>
-      </c>
-      <c r="AI53">
-        <v>2.2</v>
-      </c>
-      <c r="AJ53">
-        <v>1.62</v>
-      </c>
-      <c r="AK53">
-        <v>1.15</v>
-      </c>
-      <c r="AL53">
-        <v>1.22</v>
-      </c>
-      <c r="AM53">
-        <v>2.15</v>
-      </c>
-      <c r="AN53">
-        <v>0.5</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0.6</v>
-      </c>
-      <c r="AQ53">
-        <v>1</v>
-      </c>
-      <c r="AR53">
-        <v>1.24</v>
-      </c>
-      <c r="AS53">
-        <v>0.82</v>
-      </c>
-      <c r="AT53">
-        <v>2.06</v>
-      </c>
-      <c r="AU53">
-        <v>4</v>
-      </c>
-      <c r="AV53">
-        <v>2</v>
-      </c>
-      <c r="AW53">
-        <v>6</v>
-      </c>
-      <c r="AX53">
-        <v>6</v>
-      </c>
-      <c r="AY53">
-        <v>14</v>
-      </c>
-      <c r="AZ53">
-        <v>16</v>
-      </c>
-      <c r="BA53">
-        <v>4</v>
-      </c>
-      <c r="BB53">
-        <v>3</v>
-      </c>
-      <c r="BC53">
-        <v>7</v>
-      </c>
-      <c r="BD53">
-        <v>1.41</v>
-      </c>
-      <c r="BE53">
-        <v>8.5</v>
-      </c>
       <c r="BF53">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="BG53">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BH53">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="BI53">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="BJ53">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="BK53">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="BL53">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="BM53">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="BN53">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="BO53">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="BP53">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11943,7 +11955,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7481401</v>
+        <v>7481402</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11958,10 +11970,10 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -11973,175 +11985,175 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="P54" t="s">
         <v>94</v>
       </c>
       <c r="Q54">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S54">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="T54">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U54">
-        <v>2.39</v>
+        <v>2.63</v>
       </c>
       <c r="V54">
         <v>3.4</v>
       </c>
       <c r="W54">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X54">
-        <v>8.949999999999999</v>
+        <v>10</v>
       </c>
       <c r="Y54">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z54">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="AA54">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="AB54">
-        <v>2.93</v>
+        <v>5</v>
       </c>
       <c r="AC54">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>1.36</v>
+      </c>
+      <c r="AF54">
+        <v>2.88</v>
+      </c>
+      <c r="AG54">
+        <v>2.14</v>
+      </c>
+      <c r="AH54">
+        <v>1.63</v>
+      </c>
+      <c r="AI54">
+        <v>2.2</v>
+      </c>
+      <c r="AJ54">
+        <v>1.62</v>
+      </c>
+      <c r="AK54">
+        <v>1.15</v>
+      </c>
+      <c r="AL54">
+        <v>1.22</v>
+      </c>
+      <c r="AM54">
+        <v>2.15</v>
+      </c>
+      <c r="AN54">
+        <v>0.5</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0.6</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1.24</v>
+      </c>
+      <c r="AS54">
+        <v>0.82</v>
+      </c>
+      <c r="AT54">
+        <v>2.06</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
+      <c r="AY54">
+        <v>14</v>
+      </c>
+      <c r="AZ54">
+        <v>16</v>
+      </c>
+      <c r="BA54">
+        <v>4</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
         <v>7</v>
       </c>
-      <c r="AE54">
-        <v>1.42</v>
-      </c>
-      <c r="AF54">
-        <v>2.7</v>
-      </c>
-      <c r="AG54">
-        <v>2.21</v>
-      </c>
-      <c r="AH54">
-        <v>1.59</v>
-      </c>
-      <c r="AI54">
-        <v>1.95</v>
-      </c>
-      <c r="AJ54">
-        <v>1.8</v>
-      </c>
-      <c r="AK54">
-        <v>1.36</v>
-      </c>
-      <c r="AL54">
-        <v>1.3</v>
-      </c>
-      <c r="AM54">
-        <v>1.55</v>
-      </c>
-      <c r="AN54">
-        <v>1.5</v>
-      </c>
-      <c r="AO54">
-        <v>2.33</v>
-      </c>
-      <c r="AP54">
+      <c r="BD54">
+        <v>1.41</v>
+      </c>
+      <c r="BE54">
+        <v>8.5</v>
+      </c>
+      <c r="BF54">
+        <v>3.5</v>
+      </c>
+      <c r="BG54">
         <v>1.4</v>
       </c>
-      <c r="AQ54">
-        <v>1.67</v>
-      </c>
-      <c r="AR54">
-        <v>1.46</v>
-      </c>
-      <c r="AS54">
-        <v>1.42</v>
-      </c>
-      <c r="AT54">
-        <v>2.88</v>
-      </c>
-      <c r="AU54">
-        <v>7</v>
-      </c>
-      <c r="AV54">
-        <v>5</v>
-      </c>
-      <c r="AW54">
-        <v>7</v>
-      </c>
-      <c r="AX54">
-        <v>5</v>
-      </c>
-      <c r="AY54">
-        <v>16</v>
-      </c>
-      <c r="AZ54">
-        <v>13</v>
-      </c>
-      <c r="BA54">
-        <v>6</v>
-      </c>
-      <c r="BB54">
-        <v>7</v>
-      </c>
-      <c r="BC54">
-        <v>13</v>
-      </c>
-      <c r="BD54">
-        <v>1.85</v>
-      </c>
-      <c r="BE54">
-        <v>8</v>
-      </c>
-      <c r="BF54">
-        <v>2.28</v>
-      </c>
-      <c r="BG54">
-        <v>1.29</v>
-      </c>
       <c r="BH54">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="BI54">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="BJ54">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="BK54">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BL54">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="BM54">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="BN54">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="BO54">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="BP54">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12191,7 +12203,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12397,7 +12409,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12603,7 +12615,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12681,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12782,7 +12794,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
         <v>85</v>
@@ -12809,7 +12821,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13096,7 +13108,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.51</v>
@@ -13221,7 +13233,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13508,7 +13520,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13609,7 +13621,7 @@
         <v>84</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -13836,10 +13848,10 @@
         <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14021,7 +14033,7 @@
         <v>86</v>
       </c>
       <c r="H64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -14045,7 +14057,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14123,7 +14135,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
         <v>3</v>
@@ -14433,7 +14445,7 @@
         <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -14457,7 +14469,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14538,7 +14550,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -14869,7 +14881,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15075,7 +15087,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15359,7 +15371,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15460,7 +15472,7 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s">
         <v>91</v>
@@ -15693,7 +15705,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15771,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -15899,7 +15911,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16105,7 +16117,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16311,7 +16323,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16389,10 +16401,10 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16475,7 +16487,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7481430</v>
+        <v>7481426</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16490,82 +16502,82 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s">
         <v>74</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O76" t="s">
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="Q76">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>4.5</v>
+      </c>
+      <c r="T76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
+        <v>2.4</v>
+      </c>
+      <c r="V76">
+        <v>3.3</v>
+      </c>
+      <c r="W76">
+        <v>1.29</v>
+      </c>
+      <c r="X76">
+        <v>8.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.04</v>
+      </c>
+      <c r="Z76">
         <v>1.91</v>
       </c>
-      <c r="S76">
-        <v>4</v>
-      </c>
-      <c r="T76">
-        <v>1.56</v>
-      </c>
-      <c r="U76">
-        <v>2.29</v>
-      </c>
-      <c r="V76">
-        <v>3.6</v>
-      </c>
-      <c r="W76">
-        <v>1.25</v>
-      </c>
-      <c r="X76">
-        <v>9.85</v>
-      </c>
-      <c r="Y76">
-        <v>1.03</v>
-      </c>
-      <c r="Z76">
-        <v>2.14</v>
-      </c>
       <c r="AA76">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AB76">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="AC76">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD76">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE76">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AF76">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AG76">
         <v>2.43</v>
@@ -16577,103 +16589,103 @@
         <v>2.1</v>
       </c>
       <c r="AJ76">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AK76">
         <v>1.25</v>
       </c>
       <c r="AL76">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AM76">
+        <v>1.83</v>
+      </c>
+      <c r="AN76">
+        <v>1.67</v>
+      </c>
+      <c r="AO76">
+        <v>0.5</v>
+      </c>
+      <c r="AP76">
+        <v>2.2</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
         <v>1.57</v>
       </c>
-      <c r="AN76">
-        <v>1.5</v>
-      </c>
-      <c r="AO76">
-        <v>1.67</v>
-      </c>
-      <c r="AP76">
-        <v>2.25</v>
-      </c>
-      <c r="AQ76">
-        <v>1.25</v>
-      </c>
-      <c r="AR76">
-        <v>1.33</v>
-      </c>
       <c r="AS76">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AT76">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AU76">
         <v>6</v>
       </c>
       <c r="AV76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW76">
         <v>8</v>
       </c>
       <c r="AX76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY76">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ76">
         <v>9</v>
       </c>
       <c r="BA76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB76">
         <v>4</v>
       </c>
       <c r="BC76">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD76">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="BE76">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF76">
-        <v>2.44</v>
+        <v>3.16</v>
       </c>
       <c r="BG76">
+        <v>1.31</v>
+      </c>
+      <c r="BH76">
+        <v>3.3</v>
+      </c>
+      <c r="BI76">
+        <v>1.56</v>
+      </c>
+      <c r="BJ76">
+        <v>2.34</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>1.8</v>
+      </c>
+      <c r="BM76">
+        <v>2.57</v>
+      </c>
+      <c r="BN76">
+        <v>1.47</v>
+      </c>
+      <c r="BO76">
+        <v>3.55</v>
+      </c>
+      <c r="BP76">
         <v>1.27</v>
-      </c>
-      <c r="BH76">
-        <v>3.52</v>
-      </c>
-      <c r="BI76">
-        <v>1.53</v>
-      </c>
-      <c r="BJ76">
-        <v>2.4</v>
-      </c>
-      <c r="BK76">
-        <v>1.85</v>
-      </c>
-      <c r="BL76">
-        <v>1.95</v>
-      </c>
-      <c r="BM76">
-        <v>2.4</v>
-      </c>
-      <c r="BN76">
-        <v>1.53</v>
-      </c>
-      <c r="BO76">
-        <v>3.3</v>
-      </c>
-      <c r="BP76">
-        <v>1.31</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16681,7 +16693,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7481426</v>
+        <v>7481430</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16696,82 +16708,82 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s">
         <v>73</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O77" t="s">
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="Q77">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S77">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T77">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="U77">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="V77">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="W77">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X77">
-        <v>8.5</v>
+        <v>9.85</v>
       </c>
       <c r="Y77">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z77">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="AA77">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AB77">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="AC77">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE77">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AF77">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AG77">
         <v>2.43</v>
@@ -16783,103 +16795,103 @@
         <v>2.1</v>
       </c>
       <c r="AJ77">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AK77">
         <v>1.25</v>
       </c>
       <c r="AL77">
+        <v>1.37</v>
+      </c>
+      <c r="AM77">
+        <v>1.57</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>1.67</v>
+      </c>
+      <c r="AP77">
+        <v>2.25</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
         <v>1.33</v>
       </c>
-      <c r="AM77">
-        <v>1.83</v>
-      </c>
-      <c r="AN77">
-        <v>1.67</v>
-      </c>
-      <c r="AO77">
-        <v>0.5</v>
-      </c>
-      <c r="AP77">
-        <v>2.2</v>
-      </c>
-      <c r="AQ77">
-        <v>1</v>
-      </c>
-      <c r="AR77">
-        <v>1.57</v>
-      </c>
       <c r="AS77">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AT77">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AU77">
         <v>6</v>
       </c>
       <c r="AV77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW77">
         <v>8</v>
       </c>
       <c r="AX77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY77">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ77">
         <v>9</v>
       </c>
       <c r="BA77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB77">
         <v>4</v>
       </c>
       <c r="BC77">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD77">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="BE77">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF77">
-        <v>3.16</v>
+        <v>2.44</v>
       </c>
       <c r="BG77">
+        <v>1.27</v>
+      </c>
+      <c r="BH77">
+        <v>3.52</v>
+      </c>
+      <c r="BI77">
+        <v>1.53</v>
+      </c>
+      <c r="BJ77">
+        <v>2.4</v>
+      </c>
+      <c r="BK77">
+        <v>1.85</v>
+      </c>
+      <c r="BL77">
+        <v>1.95</v>
+      </c>
+      <c r="BM77">
+        <v>2.4</v>
+      </c>
+      <c r="BN77">
+        <v>1.53</v>
+      </c>
+      <c r="BO77">
+        <v>3.3</v>
+      </c>
+      <c r="BP77">
         <v>1.31</v>
-      </c>
-      <c r="BH77">
-        <v>3.3</v>
-      </c>
-      <c r="BI77">
-        <v>1.56</v>
-      </c>
-      <c r="BJ77">
-        <v>2.34</v>
-      </c>
-      <c r="BK77">
-        <v>2</v>
-      </c>
-      <c r="BL77">
-        <v>1.8</v>
-      </c>
-      <c r="BM77">
-        <v>2.57</v>
-      </c>
-      <c r="BN77">
-        <v>1.47</v>
-      </c>
-      <c r="BO77">
-        <v>3.55</v>
-      </c>
-      <c r="BP77">
-        <v>1.27</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16902,7 +16914,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s">
         <v>87</v>
@@ -16929,7 +16941,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17135,7 +17147,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17314,7 +17326,7 @@
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H80" t="s">
         <v>79</v>
@@ -17520,10 +17532,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -17547,7 +17559,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17753,7 +17765,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -17831,7 +17843,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ82">
         <v>2</v>
@@ -18141,7 +18153,7 @@
         <v>91</v>
       </c>
       <c r="H84" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -18165,7 +18177,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18783,7 +18795,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19070,7 +19082,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR88">
         <v>1.96</v>
@@ -19195,7 +19207,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19401,7 +19413,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19565,7 +19577,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7481445</v>
+        <v>7481447</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19580,190 +19592,190 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H91" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="Q91">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R91">
         <v>2.05</v>
       </c>
       <c r="S91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T91">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U91">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V91">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="W91">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X91">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="Y91">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z91">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AA91">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="AB91">
-        <v>5.47</v>
+        <v>4.86</v>
       </c>
       <c r="AC91">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD91">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE91">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AF91">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AG91">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="AH91">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AI91">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ91">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AK91">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AL91">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM91">
         <v>2.1</v>
       </c>
       <c r="AN91">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO91">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT91">
-        <v>2.53</v>
+        <v>2.69</v>
       </c>
       <c r="AU91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
+        <v>4</v>
+      </c>
+      <c r="AX91">
         <v>8</v>
-      </c>
-      <c r="AW91">
-        <v>5</v>
-      </c>
-      <c r="AX91">
-        <v>4</v>
       </c>
       <c r="AY91">
         <v>16</v>
       </c>
       <c r="AZ91">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA91">
         <v>6</v>
       </c>
       <c r="BB91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC91">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD91">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="BE91">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="BF91">
-        <v>3.65</v>
+        <v>3.22</v>
       </c>
       <c r="BG91">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="BH91">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="BI91">
         <v>1.7</v>
       </c>
       <c r="BJ91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BK91">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="BL91">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="BM91">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="BN91">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="BO91">
-        <v>4.15</v>
+        <v>3.02</v>
       </c>
       <c r="BP91">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19771,7 +19783,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7481446</v>
+        <v>7481445</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19786,190 +19798,190 @@
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H92" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O92" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="Q92">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S92">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="T92">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="U92">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="V92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="W92">
+        <v>1.3</v>
+      </c>
+      <c r="X92">
+        <v>10</v>
+      </c>
+      <c r="Y92">
+        <v>1.06</v>
+      </c>
+      <c r="Z92">
+        <v>1.65</v>
+      </c>
+      <c r="AA92">
+        <v>3.61</v>
+      </c>
+      <c r="AB92">
+        <v>5.47</v>
+      </c>
+      <c r="AC92">
+        <v>1.08</v>
+      </c>
+      <c r="AD92">
+        <v>7.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.42</v>
+      </c>
+      <c r="AF92">
+        <v>2.75</v>
+      </c>
+      <c r="AG92">
+        <v>2.3</v>
+      </c>
+      <c r="AH92">
+        <v>1.55</v>
+      </c>
+      <c r="AI92">
+        <v>2.2</v>
+      </c>
+      <c r="AJ92">
+        <v>1.62</v>
+      </c>
+      <c r="AK92">
+        <v>1.11</v>
+      </c>
+      <c r="AL92">
         <v>1.25</v>
       </c>
-      <c r="X92">
-        <v>9.5</v>
-      </c>
-      <c r="Y92">
-        <v>1.03</v>
-      </c>
-      <c r="Z92">
-        <v>2.2</v>
-      </c>
-      <c r="AA92">
-        <v>2.87</v>
-      </c>
-      <c r="AB92">
-        <v>3.2</v>
-      </c>
-      <c r="AC92">
-        <v>1.1</v>
-      </c>
-      <c r="AD92">
-        <v>7</v>
-      </c>
-      <c r="AE92">
-        <v>1.48</v>
-      </c>
-      <c r="AF92">
-        <v>2.37</v>
-      </c>
-      <c r="AG92">
-        <v>2.4</v>
-      </c>
-      <c r="AH92">
-        <v>1.5</v>
-      </c>
-      <c r="AI92">
+      <c r="AM92">
         <v>2.1</v>
       </c>
-      <c r="AJ92">
-        <v>1.68</v>
-      </c>
-      <c r="AK92">
-        <v>1.35</v>
-      </c>
-      <c r="AL92">
-        <v>1.3</v>
-      </c>
-      <c r="AM92">
-        <v>1.57</v>
-      </c>
       <c r="AN92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO92">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP92">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ92">
         <v>1</v>
       </c>
       <c r="AR92">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AS92">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AT92">
-        <v>2.11</v>
+        <v>2.53</v>
       </c>
       <c r="AU92">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV92">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY92">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ92">
+        <v>14</v>
+      </c>
+      <c r="BA92">
         <v>6</v>
       </c>
-      <c r="BA92">
-        <v>3</v>
-      </c>
       <c r="BB92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC92">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD92">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="BE92">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF92">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="BG92">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="BH92">
-        <v>3.04</v>
+        <v>2.82</v>
       </c>
       <c r="BI92">
         <v>1.7</v>
       </c>
       <c r="BJ92">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BK92">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="BL92">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="BM92">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="BN92">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="BO92">
-        <v>3.44</v>
+        <v>4.15</v>
       </c>
       <c r="BP92">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19977,7 +19989,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7481447</v>
+        <v>7481446</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -19992,166 +20004,166 @@
         <v>9</v>
       </c>
       <c r="G93" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s">
         <v>74</v>
       </c>
-      <c r="H93" t="s">
-        <v>80</v>
-      </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="P93" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q93">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T93">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="U93">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="V93">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="W93">
+        <v>1.25</v>
+      </c>
+      <c r="X93">
+        <v>9.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.03</v>
+      </c>
+      <c r="Z93">
+        <v>2.2</v>
+      </c>
+      <c r="AA93">
+        <v>2.87</v>
+      </c>
+      <c r="AB93">
+        <v>3.2</v>
+      </c>
+      <c r="AC93">
+        <v>1.1</v>
+      </c>
+      <c r="AD93">
+        <v>7</v>
+      </c>
+      <c r="AE93">
+        <v>1.48</v>
+      </c>
+      <c r="AF93">
+        <v>2.37</v>
+      </c>
+      <c r="AG93">
+        <v>2.4</v>
+      </c>
+      <c r="AH93">
+        <v>1.5</v>
+      </c>
+      <c r="AI93">
+        <v>2.1</v>
+      </c>
+      <c r="AJ93">
+        <v>1.68</v>
+      </c>
+      <c r="AK93">
         <v>1.35</v>
       </c>
-      <c r="X93">
-        <v>7.6</v>
-      </c>
-      <c r="Y93">
-        <v>1.05</v>
-      </c>
-      <c r="Z93">
-        <v>1.71</v>
-      </c>
-      <c r="AA93">
-        <v>3.63</v>
-      </c>
-      <c r="AB93">
-        <v>4.86</v>
-      </c>
-      <c r="AC93">
-        <v>1.07</v>
-      </c>
-      <c r="AD93">
+      <c r="AL93">
+        <v>1.3</v>
+      </c>
+      <c r="AM93">
+        <v>1.57</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
+      </c>
+      <c r="AO93">
+        <v>0.33</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.18</v>
+      </c>
+      <c r="AS93">
+        <v>0.93</v>
+      </c>
+      <c r="AT93">
+        <v>2.11</v>
+      </c>
+      <c r="AU93">
+        <v>2</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>7</v>
+      </c>
+      <c r="AZ93">
+        <v>6</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>4</v>
+      </c>
+      <c r="BD93">
+        <v>1.73</v>
+      </c>
+      <c r="BE93">
         <v>8</v>
       </c>
-      <c r="AE93">
-        <v>1.38</v>
-      </c>
-      <c r="AF93">
-        <v>3</v>
-      </c>
-      <c r="AG93">
-        <v>2.06</v>
-      </c>
-      <c r="AH93">
-        <v>1.68</v>
-      </c>
-      <c r="AI93">
-        <v>1.95</v>
-      </c>
-      <c r="AJ93">
-        <v>1.73</v>
-      </c>
-      <c r="AK93">
-        <v>1.15</v>
-      </c>
-      <c r="AL93">
-        <v>1.22</v>
-      </c>
-      <c r="AM93">
-        <v>2.1</v>
-      </c>
-      <c r="AN93">
-        <v>1.75</v>
-      </c>
-      <c r="AO93">
-        <v>1.33</v>
-      </c>
-      <c r="AP93">
-        <v>2</v>
-      </c>
-      <c r="AQ93">
-        <v>1</v>
-      </c>
-      <c r="AR93">
-        <v>1.5</v>
-      </c>
-      <c r="AS93">
-        <v>1.19</v>
-      </c>
-      <c r="AT93">
-        <v>2.69</v>
-      </c>
-      <c r="AU93">
-        <v>8</v>
-      </c>
-      <c r="AV93">
-        <v>4</v>
-      </c>
-      <c r="AW93">
-        <v>4</v>
-      </c>
-      <c r="AX93">
-        <v>8</v>
-      </c>
-      <c r="AY93">
-        <v>16</v>
-      </c>
-      <c r="AZ93">
-        <v>15</v>
-      </c>
-      <c r="BA93">
-        <v>6</v>
-      </c>
-      <c r="BB93">
-        <v>6</v>
-      </c>
-      <c r="BC93">
-        <v>12</v>
-      </c>
-      <c r="BD93">
-        <v>1.5</v>
-      </c>
-      <c r="BE93">
-        <v>8.6</v>
-      </c>
       <c r="BF93">
-        <v>3.22</v>
+        <v>2.38</v>
       </c>
       <c r="BG93">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH93">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="BI93">
         <v>1.7</v>
@@ -20160,22 +20172,22 @@
         <v>2.05</v>
       </c>
       <c r="BK93">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="BL93">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="BM93">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="BN93">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="BO93">
-        <v>3.02</v>
+        <v>3.44</v>
       </c>
       <c r="BP93">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20183,7 +20195,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7481454</v>
+        <v>7481444</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20198,10 +20210,10 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -20213,175 +20225,175 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <v>1</v>
       </c>
       <c r="O94" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="P94" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="Q94">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>4.75</v>
+      </c>
+      <c r="T94">
+        <v>1.53</v>
+      </c>
+      <c r="U94">
         <v>2.38</v>
       </c>
-      <c r="S94">
-        <v>3.75</v>
-      </c>
-      <c r="T94">
+      <c r="V94">
+        <v>3.5</v>
+      </c>
+      <c r="W94">
         <v>1.29</v>
       </c>
-      <c r="U94">
-        <v>3.5</v>
-      </c>
-      <c r="V94">
-        <v>2.38</v>
-      </c>
-      <c r="W94">
+      <c r="X94">
+        <v>11</v>
+      </c>
+      <c r="Y94">
+        <v>1.05</v>
+      </c>
+      <c r="Z94">
+        <v>2.23</v>
+      </c>
+      <c r="AA94">
+        <v>2.98</v>
+      </c>
+      <c r="AB94">
+        <v>3.09</v>
+      </c>
+      <c r="AC94">
+        <v>1.1</v>
+      </c>
+      <c r="AD94">
+        <v>6.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.5</v>
+      </c>
+      <c r="AF94">
+        <v>2.4</v>
+      </c>
+      <c r="AG94">
+        <v>2.35</v>
+      </c>
+      <c r="AH94">
         <v>1.53</v>
       </c>
-      <c r="X94">
-        <v>5.5</v>
-      </c>
-      <c r="Y94">
-        <v>1.14</v>
-      </c>
-      <c r="Z94">
-        <v>1.6</v>
-      </c>
-      <c r="AA94">
-        <v>4</v>
-      </c>
-      <c r="AB94">
-        <v>4.26</v>
-      </c>
-      <c r="AC94">
-        <v>1.04</v>
-      </c>
-      <c r="AD94">
-        <v>10</v>
-      </c>
-      <c r="AE94">
-        <v>1.18</v>
-      </c>
-      <c r="AF94">
-        <v>4.5</v>
-      </c>
-      <c r="AG94">
-        <v>1.57</v>
-      </c>
-      <c r="AH94">
-        <v>2.25</v>
-      </c>
       <c r="AI94">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AJ94">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="AK94">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL94">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM94">
         <v>1.75</v>
       </c>
       <c r="AN94">
+        <v>1.75</v>
+      </c>
+      <c r="AO94">
+        <v>0.67</v>
+      </c>
+      <c r="AP94">
+        <v>1.4</v>
+      </c>
+      <c r="AQ94">
         <v>1.25</v>
       </c>
-      <c r="AO94">
-        <v>1.75</v>
-      </c>
-      <c r="AP94">
-        <v>1.6</v>
-      </c>
-      <c r="AQ94">
-        <v>1.4</v>
-      </c>
       <c r="AR94">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AS94">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="AT94">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="AU94">
+        <v>4</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
         <v>3</v>
       </c>
-      <c r="AV94">
-        <v>3</v>
-      </c>
-      <c r="AW94">
-        <v>11</v>
-      </c>
       <c r="AX94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY94">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ94">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA94">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC94">
         <v>10</v>
       </c>
       <c r="BD94">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="BE94">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF94">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="BG94">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="BH94">
-        <v>4.1</v>
+        <v>3.22</v>
       </c>
       <c r="BI94">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="BJ94">
-        <v>2.78</v>
+        <v>2.38</v>
       </c>
       <c r="BK94">
+        <v>1.91</v>
+      </c>
+      <c r="BL94">
         <v>1.8</v>
       </c>
-      <c r="BL94">
-        <v>1.91</v>
-      </c>
       <c r="BM94">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="BN94">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="BO94">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="BP94">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20389,7 +20401,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7481452</v>
+        <v>7481449</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20404,190 +20416,190 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="Q95">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="R95">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T95">
+        <v>1.53</v>
+      </c>
+      <c r="U95">
+        <v>2.38</v>
+      </c>
+      <c r="V95">
+        <v>3.5</v>
+      </c>
+      <c r="W95">
+        <v>1.29</v>
+      </c>
+      <c r="X95">
+        <v>11</v>
+      </c>
+      <c r="Y95">
+        <v>1.05</v>
+      </c>
+      <c r="Z95">
+        <v>2.55</v>
+      </c>
+      <c r="AA95">
+        <v>2.75</v>
+      </c>
+      <c r="AB95">
+        <v>3</v>
+      </c>
+      <c r="AC95">
+        <v>1.1</v>
+      </c>
+      <c r="AD95">
+        <v>6.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.48</v>
+      </c>
+      <c r="AF95">
+        <v>2.45</v>
+      </c>
+      <c r="AG95">
+        <v>2.38</v>
+      </c>
+      <c r="AH95">
+        <v>1.52</v>
+      </c>
+      <c r="AI95">
+        <v>2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.73</v>
+      </c>
+      <c r="AK95">
+        <v>1.36</v>
+      </c>
+      <c r="AL95">
+        <v>1.33</v>
+      </c>
+      <c r="AM95">
+        <v>1.53</v>
+      </c>
+      <c r="AN95">
+        <v>2.25</v>
+      </c>
+      <c r="AO95">
+        <v>1.5</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
         <v>1.4</v>
       </c>
-      <c r="U95">
-        <v>2.75</v>
-      </c>
-      <c r="V95">
+      <c r="AR95">
+        <v>1.16</v>
+      </c>
+      <c r="AS95">
+        <v>1.32</v>
+      </c>
+      <c r="AT95">
+        <v>2.48</v>
+      </c>
+      <c r="AU95">
         <v>3</v>
-      </c>
-      <c r="W95">
-        <v>1.36</v>
-      </c>
-      <c r="X95">
-        <v>8</v>
-      </c>
-      <c r="Y95">
-        <v>1.08</v>
-      </c>
-      <c r="Z95">
-        <v>2.43</v>
-      </c>
-      <c r="AA95">
-        <v>8.6</v>
-      </c>
-      <c r="AB95">
-        <v>1.71</v>
-      </c>
-      <c r="AC95">
-        <v>1.06</v>
-      </c>
-      <c r="AD95">
-        <v>8.5</v>
-      </c>
-      <c r="AE95">
-        <v>1.3</v>
-      </c>
-      <c r="AF95">
-        <v>3.3</v>
-      </c>
-      <c r="AG95">
-        <v>1.86</v>
-      </c>
-      <c r="AH95">
-        <v>1.86</v>
-      </c>
-      <c r="AI95">
-        <v>1.8</v>
-      </c>
-      <c r="AJ95">
-        <v>1.91</v>
-      </c>
-      <c r="AK95">
-        <v>1.25</v>
-      </c>
-      <c r="AL95">
-        <v>1.25</v>
-      </c>
-      <c r="AM95">
-        <v>1.78</v>
-      </c>
-      <c r="AN95">
-        <v>0.5</v>
-      </c>
-      <c r="AO95">
-        <v>0.25</v>
-      </c>
-      <c r="AP95">
-        <v>1</v>
-      </c>
-      <c r="AQ95">
-        <v>0.2</v>
-      </c>
-      <c r="AR95">
-        <v>1.7</v>
-      </c>
-      <c r="AS95">
-        <v>1.38</v>
-      </c>
-      <c r="AT95">
-        <v>3.08</v>
-      </c>
-      <c r="AU95">
-        <v>6</v>
       </c>
       <c r="AV95">
         <v>3</v>
       </c>
       <c r="AW95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY95">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
         <v>5</v>
       </c>
-      <c r="BB95">
-        <v>4</v>
-      </c>
       <c r="BC95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD95">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="BE95">
-        <v>6.55</v>
+        <v>5.9</v>
       </c>
       <c r="BF95">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="BG95">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BH95">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="BI95">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="BJ95">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="BK95">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BL95">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM95">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="BN95">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="BO95">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="BP95">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20634,10 +20646,10 @@
         <v>5</v>
       </c>
       <c r="O96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20801,7 +20813,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7481449</v>
+        <v>7481452</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20816,190 +20828,190 @@
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H97" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>159</v>
+      </c>
+      <c r="P97" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q97">
+        <v>2.63</v>
+      </c>
+      <c r="R97">
+        <v>2.2</v>
+      </c>
+      <c r="S97">
+        <v>4.33</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
         <v>3</v>
       </c>
-      <c r="L97">
-        <v>2</v>
-      </c>
-      <c r="M97">
-        <v>2</v>
-      </c>
-      <c r="N97">
-        <v>4</v>
-      </c>
-      <c r="O97" t="s">
-        <v>160</v>
-      </c>
-      <c r="P97" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q97">
-        <v>3.25</v>
-      </c>
-      <c r="R97">
-        <v>1.95</v>
-      </c>
-      <c r="S97">
-        <v>3.75</v>
-      </c>
-      <c r="T97">
-        <v>1.53</v>
-      </c>
-      <c r="U97">
-        <v>2.38</v>
-      </c>
-      <c r="V97">
-        <v>3.5</v>
-      </c>
       <c r="W97">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="X97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y97">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z97">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="AA97">
-        <v>2.75</v>
+        <v>8.6</v>
       </c>
       <c r="AB97">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="AC97">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AD97">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE97">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AF97">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="AG97">
-        <v>2.38</v>
+        <v>1.86</v>
       </c>
       <c r="AH97">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="AI97">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AJ97">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AK97">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.78</v>
+      </c>
+      <c r="AN97">
+        <v>0.5</v>
+      </c>
+      <c r="AO97">
+        <v>0.25</v>
+      </c>
+      <c r="AP97">
         <v>1.33</v>
       </c>
-      <c r="AM97">
-        <v>1.53</v>
-      </c>
-      <c r="AN97">
-        <v>2.25</v>
-      </c>
-      <c r="AO97">
-        <v>1.5</v>
-      </c>
-      <c r="AP97">
-        <v>2</v>
-      </c>
       <c r="AQ97">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AR97">
-        <v>1.16</v>
+        <v>1.7</v>
       </c>
       <c r="AS97">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AT97">
-        <v>2.48</v>
+        <v>3.08</v>
       </c>
       <c r="AU97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV97">
         <v>3</v>
       </c>
       <c r="AW97">
+        <v>9</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>18</v>
+      </c>
+      <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
         <v>5</v>
       </c>
-      <c r="AX97">
-        <v>2</v>
-      </c>
-      <c r="AY97">
-        <v>10</v>
-      </c>
-      <c r="AZ97">
-        <v>6</v>
-      </c>
-      <c r="BA97">
-        <v>6</v>
-      </c>
       <c r="BB97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC97">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD97">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="BE97">
-        <v>5.9</v>
+        <v>6.55</v>
       </c>
       <c r="BF97">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="BG97">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="BH97">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="BI97">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="BJ97">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="BK97">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BL97">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM97">
-        <v>2.68</v>
+        <v>2.57</v>
       </c>
       <c r="BN97">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="BO97">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="BP97">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21007,7 +21019,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7481444</v>
+        <v>7481454</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21022,10 +21034,10 @@
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H98" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -21037,175 +21049,175 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
       <c r="O98" t="s">
+        <v>160</v>
+      </c>
+      <c r="P98" t="s">
         <v>94</v>
       </c>
-      <c r="P98" t="s">
-        <v>157</v>
-      </c>
       <c r="Q98">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="S98">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T98">
+        <v>1.29</v>
+      </c>
+      <c r="U98">
+        <v>3.5</v>
+      </c>
+      <c r="V98">
+        <v>2.38</v>
+      </c>
+      <c r="W98">
         <v>1.53</v>
       </c>
-      <c r="U98">
+      <c r="X98">
+        <v>5.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.14</v>
+      </c>
+      <c r="Z98">
+        <v>1.6</v>
+      </c>
+      <c r="AA98">
+        <v>4</v>
+      </c>
+      <c r="AB98">
+        <v>4.26</v>
+      </c>
+      <c r="AC98">
+        <v>1.04</v>
+      </c>
+      <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
+        <v>1.18</v>
+      </c>
+      <c r="AF98">
+        <v>4.5</v>
+      </c>
+      <c r="AG98">
+        <v>1.57</v>
+      </c>
+      <c r="AH98">
+        <v>2.25</v>
+      </c>
+      <c r="AI98">
+        <v>1.53</v>
+      </c>
+      <c r="AJ98">
         <v>2.38</v>
       </c>
-      <c r="V98">
-        <v>3.5</v>
-      </c>
-      <c r="W98">
-        <v>1.29</v>
-      </c>
-      <c r="X98">
-        <v>11</v>
-      </c>
-      <c r="Y98">
-        <v>1.05</v>
-      </c>
-      <c r="Z98">
-        <v>2.23</v>
-      </c>
-      <c r="AA98">
-        <v>2.98</v>
-      </c>
-      <c r="AB98">
-        <v>3.09</v>
-      </c>
-      <c r="AC98">
-        <v>1.1</v>
-      </c>
-      <c r="AD98">
-        <v>6.5</v>
-      </c>
-      <c r="AE98">
-        <v>1.5</v>
-      </c>
-      <c r="AF98">
-        <v>2.4</v>
-      </c>
-      <c r="AG98">
-        <v>2.35</v>
-      </c>
-      <c r="AH98">
-        <v>1.53</v>
-      </c>
-      <c r="AI98">
-        <v>2.1</v>
-      </c>
-      <c r="AJ98">
-        <v>1.67</v>
-      </c>
       <c r="AK98">
+        <v>1.3</v>
+      </c>
+      <c r="AL98">
         <v>1.22</v>
-      </c>
-      <c r="AL98">
-        <v>1.28</v>
       </c>
       <c r="AM98">
         <v>1.75</v>
       </c>
       <c r="AN98">
+        <v>1.25</v>
+      </c>
+      <c r="AO98">
         <v>1.75</v>
       </c>
-      <c r="AO98">
-        <v>0.67</v>
-      </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AR98">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AS98">
-        <v>0.99</v>
+        <v>1.23</v>
       </c>
       <c r="AT98">
-        <v>2.34</v>
+        <v>2.76</v>
       </c>
       <c r="AU98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW98">
+        <v>11</v>
+      </c>
+      <c r="AX98">
         <v>3</v>
       </c>
-      <c r="AX98">
-        <v>5</v>
-      </c>
       <c r="AY98">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ98">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC98">
         <v>10</v>
       </c>
       <c r="BD98">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="BE98">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="BF98">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="BG98">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="BH98">
-        <v>3.22</v>
+        <v>4.1</v>
       </c>
       <c r="BI98">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="BJ98">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="BK98">
+        <v>1.8</v>
+      </c>
+      <c r="BL98">
         <v>1.91</v>
       </c>
-      <c r="BL98">
-        <v>1.8</v>
-      </c>
       <c r="BM98">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="BN98">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="BO98">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BP98">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21434,7 +21446,7 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s">
         <v>86</v>
@@ -21461,7 +21473,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21634,7 +21646,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45583.64583333334</v>
+        <v>45582.875</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -21667,7 +21679,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21824,6 +21836,1036 @@
       </c>
       <c r="BP101">
         <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7481462</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45584.46875</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>83</v>
+      </c>
+      <c r="H102" t="s">
+        <v>89</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>94</v>
+      </c>
+      <c r="P102" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q102">
+        <v>3.4</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>3.4</v>
+      </c>
+      <c r="T102">
+        <v>1.5</v>
+      </c>
+      <c r="U102">
+        <v>2.5</v>
+      </c>
+      <c r="V102">
+        <v>3.4</v>
+      </c>
+      <c r="W102">
+        <v>1.3</v>
+      </c>
+      <c r="X102">
+        <v>10</v>
+      </c>
+      <c r="Y102">
+        <v>1.06</v>
+      </c>
+      <c r="Z102">
+        <v>2.67</v>
+      </c>
+      <c r="AA102">
+        <v>2.79</v>
+      </c>
+      <c r="AB102">
+        <v>2.4</v>
+      </c>
+      <c r="AC102">
+        <v>1.08</v>
+      </c>
+      <c r="AD102">
+        <v>7.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.47</v>
+      </c>
+      <c r="AF102">
+        <v>2.48</v>
+      </c>
+      <c r="AG102">
+        <v>2.2</v>
+      </c>
+      <c r="AH102">
+        <v>1.6</v>
+      </c>
+      <c r="AI102">
+        <v>1.91</v>
+      </c>
+      <c r="AJ102">
+        <v>1.8</v>
+      </c>
+      <c r="AK102">
+        <v>1.45</v>
+      </c>
+      <c r="AL102">
+        <v>1.3</v>
+      </c>
+      <c r="AM102">
+        <v>1.45</v>
+      </c>
+      <c r="AN102">
+        <v>1.75</v>
+      </c>
+      <c r="AO102">
+        <v>1.2</v>
+      </c>
+      <c r="AP102">
+        <v>1.6</v>
+      </c>
+      <c r="AQ102">
+        <v>1.17</v>
+      </c>
+      <c r="AR102">
+        <v>1.13</v>
+      </c>
+      <c r="AS102">
+        <v>0.97</v>
+      </c>
+      <c r="AT102">
+        <v>2.1</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>8</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>7</v>
+      </c>
+      <c r="AY102">
+        <v>12</v>
+      </c>
+      <c r="AZ102">
+        <v>19</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>6</v>
+      </c>
+      <c r="BC102">
+        <v>12</v>
+      </c>
+      <c r="BD102">
+        <v>2.02</v>
+      </c>
+      <c r="BE102">
+        <v>8.5</v>
+      </c>
+      <c r="BF102">
+        <v>2.13</v>
+      </c>
+      <c r="BG102">
+        <v>1.35</v>
+      </c>
+      <c r="BH102">
+        <v>3.02</v>
+      </c>
+      <c r="BI102">
+        <v>1.62</v>
+      </c>
+      <c r="BJ102">
+        <v>2.22</v>
+      </c>
+      <c r="BK102">
+        <v>2.02</v>
+      </c>
+      <c r="BL102">
+        <v>1.74</v>
+      </c>
+      <c r="BM102">
+        <v>2.63</v>
+      </c>
+      <c r="BN102">
+        <v>1.45</v>
+      </c>
+      <c r="BO102">
+        <v>3.58</v>
+      </c>
+      <c r="BP102">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7481458</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45584.46875</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>80</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>163</v>
+      </c>
+      <c r="P103" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q103">
+        <v>2.75</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>4.75</v>
+      </c>
+      <c r="T103">
+        <v>1.53</v>
+      </c>
+      <c r="U103">
+        <v>2.38</v>
+      </c>
+      <c r="V103">
+        <v>3.5</v>
+      </c>
+      <c r="W103">
+        <v>1.29</v>
+      </c>
+      <c r="X103">
+        <v>11</v>
+      </c>
+      <c r="Y103">
+        <v>1.05</v>
+      </c>
+      <c r="Z103">
+        <v>1.93</v>
+      </c>
+      <c r="AA103">
+        <v>3.09</v>
+      </c>
+      <c r="AB103">
+        <v>3.59</v>
+      </c>
+      <c r="AC103">
+        <v>1.08</v>
+      </c>
+      <c r="AD103">
+        <v>7.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.44</v>
+      </c>
+      <c r="AF103">
+        <v>2.65</v>
+      </c>
+      <c r="AG103">
+        <v>2.3</v>
+      </c>
+      <c r="AH103">
+        <v>1.55</v>
+      </c>
+      <c r="AI103">
+        <v>2.1</v>
+      </c>
+      <c r="AJ103">
+        <v>1.67</v>
+      </c>
+      <c r="AK103">
+        <v>1.22</v>
+      </c>
+      <c r="AL103">
+        <v>1.28</v>
+      </c>
+      <c r="AM103">
+        <v>1.8</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>1</v>
+      </c>
+      <c r="AQ103">
+        <v>1</v>
+      </c>
+      <c r="AR103">
+        <v>1.55</v>
+      </c>
+      <c r="AS103">
+        <v>1.21</v>
+      </c>
+      <c r="AT103">
+        <v>2.76</v>
+      </c>
+      <c r="AU103">
+        <v>7</v>
+      </c>
+      <c r="AV103">
+        <v>3</v>
+      </c>
+      <c r="AW103">
+        <v>8</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>23</v>
+      </c>
+      <c r="AZ103">
+        <v>7</v>
+      </c>
+      <c r="BA103">
+        <v>16</v>
+      </c>
+      <c r="BB103">
+        <v>4</v>
+      </c>
+      <c r="BC103">
+        <v>20</v>
+      </c>
+      <c r="BD103">
+        <v>1.7</v>
+      </c>
+      <c r="BE103">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF103">
+        <v>2.69</v>
+      </c>
+      <c r="BG103">
+        <v>1.3</v>
+      </c>
+      <c r="BH103">
+        <v>3.32</v>
+      </c>
+      <c r="BI103">
+        <v>1.53</v>
+      </c>
+      <c r="BJ103">
+        <v>2.4</v>
+      </c>
+      <c r="BK103">
+        <v>2.38</v>
+      </c>
+      <c r="BL103">
+        <v>1.85</v>
+      </c>
+      <c r="BM103">
+        <v>2.42</v>
+      </c>
+      <c r="BN103">
+        <v>1.52</v>
+      </c>
+      <c r="BO103">
+        <v>3.25</v>
+      </c>
+      <c r="BP103">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7481461</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45584.5625</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>84</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>4</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>164</v>
+      </c>
+      <c r="P104" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q104">
+        <v>2.4</v>
+      </c>
+      <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>5.5</v>
+      </c>
+      <c r="T104">
+        <v>1.5</v>
+      </c>
+      <c r="U104">
+        <v>2.5</v>
+      </c>
+      <c r="V104">
+        <v>3.4</v>
+      </c>
+      <c r="W104">
+        <v>1.3</v>
+      </c>
+      <c r="X104">
+        <v>10</v>
+      </c>
+      <c r="Y104">
+        <v>1.06</v>
+      </c>
+      <c r="Z104">
+        <v>1.73</v>
+      </c>
+      <c r="AA104">
+        <v>3.35</v>
+      </c>
+      <c r="AB104">
+        <v>5.25</v>
+      </c>
+      <c r="AC104">
+        <v>1.03</v>
+      </c>
+      <c r="AD104">
+        <v>6.85</v>
+      </c>
+      <c r="AE104">
+        <v>1.36</v>
+      </c>
+      <c r="AF104">
+        <v>2.64</v>
+      </c>
+      <c r="AG104">
+        <v>2.2</v>
+      </c>
+      <c r="AH104">
+        <v>1.6</v>
+      </c>
+      <c r="AI104">
+        <v>2.1</v>
+      </c>
+      <c r="AJ104">
+        <v>1.67</v>
+      </c>
+      <c r="AK104">
+        <v>1.15</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>2</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>0.25</v>
+      </c>
+      <c r="AP104">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104">
+        <v>0.2</v>
+      </c>
+      <c r="AR104">
+        <v>1.75</v>
+      </c>
+      <c r="AS104">
+        <v>1.14</v>
+      </c>
+      <c r="AT104">
+        <v>2.89</v>
+      </c>
+      <c r="AU104">
+        <v>12</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>3</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>18</v>
+      </c>
+      <c r="AZ104">
+        <v>8</v>
+      </c>
+      <c r="BA104">
+        <v>7</v>
+      </c>
+      <c r="BB104">
+        <v>1</v>
+      </c>
+      <c r="BC104">
+        <v>8</v>
+      </c>
+      <c r="BD104">
+        <v>1.5</v>
+      </c>
+      <c r="BE104">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF104">
+        <v>3.32</v>
+      </c>
+      <c r="BG104">
+        <v>1.32</v>
+      </c>
+      <c r="BH104">
+        <v>3.2</v>
+      </c>
+      <c r="BI104">
+        <v>1.56</v>
+      </c>
+      <c r="BJ104">
+        <v>2.32</v>
+      </c>
+      <c r="BK104">
+        <v>1.94</v>
+      </c>
+      <c r="BL104">
+        <v>1.81</v>
+      </c>
+      <c r="BM104">
+        <v>2.5</v>
+      </c>
+      <c r="BN104">
+        <v>1.49</v>
+      </c>
+      <c r="BO104">
+        <v>3.35</v>
+      </c>
+      <c r="BP104">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7481457</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45584.5625</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H105" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>165</v>
+      </c>
+      <c r="P105" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q105">
+        <v>3.4</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>3.4</v>
+      </c>
+      <c r="T105">
+        <v>1.5</v>
+      </c>
+      <c r="U105">
+        <v>2.5</v>
+      </c>
+      <c r="V105">
+        <v>3.4</v>
+      </c>
+      <c r="W105">
+        <v>1.3</v>
+      </c>
+      <c r="X105">
+        <v>10</v>
+      </c>
+      <c r="Y105">
+        <v>1.06</v>
+      </c>
+      <c r="Z105">
+        <v>2.2</v>
+      </c>
+      <c r="AA105">
+        <v>3.45</v>
+      </c>
+      <c r="AB105">
+        <v>3.1</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>13.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.19</v>
+      </c>
+      <c r="AF105">
+        <v>3.68</v>
+      </c>
+      <c r="AG105">
+        <v>2.2</v>
+      </c>
+      <c r="AH105">
+        <v>1.6</v>
+      </c>
+      <c r="AI105">
+        <v>1.91</v>
+      </c>
+      <c r="AJ105">
+        <v>1.8</v>
+      </c>
+      <c r="AK105">
+        <v>1.3</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.72</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
+        <v>1.4</v>
+      </c>
+      <c r="AP105">
+        <v>1.4</v>
+      </c>
+      <c r="AQ105">
+        <v>1.17</v>
+      </c>
+      <c r="AR105">
+        <v>1.64</v>
+      </c>
+      <c r="AS105">
+        <v>1.15</v>
+      </c>
+      <c r="AT105">
+        <v>2.79</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>5</v>
+      </c>
+      <c r="AW105">
+        <v>7</v>
+      </c>
+      <c r="AX105">
+        <v>8</v>
+      </c>
+      <c r="AY105">
+        <v>16</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>4</v>
+      </c>
+      <c r="BB105">
+        <v>6</v>
+      </c>
+      <c r="BC105">
+        <v>10</v>
+      </c>
+      <c r="BD105">
+        <v>1.88</v>
+      </c>
+      <c r="BE105">
+        <v>8.6</v>
+      </c>
+      <c r="BF105">
+        <v>2.34</v>
+      </c>
+      <c r="BG105">
+        <v>1.32</v>
+      </c>
+      <c r="BH105">
+        <v>3.2</v>
+      </c>
+      <c r="BI105">
+        <v>1.56</v>
+      </c>
+      <c r="BJ105">
+        <v>2.32</v>
+      </c>
+      <c r="BK105">
+        <v>1.94</v>
+      </c>
+      <c r="BL105">
+        <v>1.81</v>
+      </c>
+      <c r="BM105">
+        <v>2.5</v>
+      </c>
+      <c r="BN105">
+        <v>1.49</v>
+      </c>
+      <c r="BO105">
+        <v>3.35</v>
+      </c>
+      <c r="BP105">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7481465</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45584.66666666666</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>71</v>
+      </c>
+      <c r="H106" t="s">
+        <v>73</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>163</v>
+      </c>
+      <c r="P106" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q106">
+        <v>3.5</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>3.4</v>
+      </c>
+      <c r="T106">
+        <v>1.5</v>
+      </c>
+      <c r="U106">
+        <v>2.5</v>
+      </c>
+      <c r="V106">
+        <v>3.5</v>
+      </c>
+      <c r="W106">
+        <v>1.29</v>
+      </c>
+      <c r="X106">
+        <v>11</v>
+      </c>
+      <c r="Y106">
+        <v>1.05</v>
+      </c>
+      <c r="Z106">
+        <v>2.98</v>
+      </c>
+      <c r="AA106">
+        <v>2.85</v>
+      </c>
+      <c r="AB106">
+        <v>2.57</v>
+      </c>
+      <c r="AC106">
+        <v>1.06</v>
+      </c>
+      <c r="AD106">
+        <v>5.85</v>
+      </c>
+      <c r="AE106">
+        <v>1.54</v>
+      </c>
+      <c r="AF106">
+        <v>2.32</v>
+      </c>
+      <c r="AG106">
+        <v>2.62</v>
+      </c>
+      <c r="AH106">
+        <v>1.43</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.73</v>
+      </c>
+      <c r="AK106">
+        <v>1.5</v>
+      </c>
+      <c r="AL106">
+        <v>1.33</v>
+      </c>
+      <c r="AM106">
+        <v>1.38</v>
+      </c>
+      <c r="AN106">
+        <v>2</v>
+      </c>
+      <c r="AO106">
+        <v>1.25</v>
+      </c>
+      <c r="AP106">
+        <v>2.17</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>1.12</v>
+      </c>
+      <c r="AS106">
+        <v>0.98</v>
+      </c>
+      <c r="AT106">
+        <v>2.1</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>9</v>
+      </c>
+      <c r="AZ106">
+        <v>8</v>
+      </c>
+      <c r="BA106">
+        <v>4</v>
+      </c>
+      <c r="BB106">
+        <v>3</v>
+      </c>
+      <c r="BC106">
+        <v>7</v>
+      </c>
+      <c r="BD106">
+        <v>2.15</v>
+      </c>
+      <c r="BE106">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BF106">
+        <v>2.01</v>
+      </c>
+      <c r="BG106">
+        <v>1.38</v>
+      </c>
+      <c r="BH106">
+        <v>2.88</v>
+      </c>
+      <c r="BI106">
+        <v>1.67</v>
+      </c>
+      <c r="BJ106">
+        <v>2.13</v>
+      </c>
+      <c r="BK106">
+        <v>2.1</v>
+      </c>
+      <c r="BL106">
+        <v>1.68</v>
+      </c>
+      <c r="BM106">
+        <v>2.77</v>
+      </c>
+      <c r="BN106">
+        <v>1.41</v>
+      </c>
+      <c r="BO106">
+        <v>3.78</v>
+      </c>
+      <c r="BP106">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,19 +235,19 @@
     <t>Cádiz</t>
   </si>
   <si>
-    <t>SD Eibar</t>
+    <t>Racing Club de Ferrol</t>
   </si>
   <si>
-    <t>Racing Club de Ferrol</t>
+    <t>SD Eibar</t>
   </si>
   <si>
     <t>Deportivo La Coruña</t>
   </si>
   <si>
-    <t>Sporting Gijón</t>
+    <t>Racing Santander</t>
   </si>
   <si>
-    <t>Racing Santander</t>
+    <t>Sporting Gijón</t>
   </si>
   <si>
     <t>Burgos CF</t>
@@ -301,16 +301,16 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['69', '82']</t>
+  </si>
+  <si>
     <t>['2']</t>
   </si>
   <si>
-    <t>['69', '82']</t>
+    <t>['7', '31']</t>
   </si>
   <si>
     <t>['59']</t>
-  </si>
-  <si>
-    <t>['7', '31']</t>
   </si>
   <si>
     <t>['25', '40', '90+3']</t>
@@ -379,10 +379,10 @@
     <t>['43', '90+8']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['44', '74', '81']</t>
   </si>
   <si>
-    <t>['44', '74', '81']</t>
+    <t>['46']</t>
   </si>
   <si>
     <t>['42']</t>
@@ -493,10 +493,10 @@
     <t>['12', '18', '70']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['81']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['90+1']</t>
   </si>
   <si>
     <t>['62', '87']</t>
@@ -508,10 +508,13 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['53', '77']</t>
+  </si>
+  <si>
     <t>['20', '33', '81', '90+5']</t>
   </si>
   <si>
-    <t>['53', '77']</t>
+    <t>['49', '66']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -526,10 +529,10 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['14', '42']</t>
+    <t>['65', '71']</t>
   </si>
   <si>
-    <t>['65', '71']</t>
+    <t>['14', '42']</t>
   </si>
   <si>
     <t>['14']</t>
@@ -665,6 +668,12 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['9', '67']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1294,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1697,7 +1706,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1775,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>1.67</v>
@@ -1861,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7481364</v>
+        <v>7481361</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1879,100 +1888,100 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="Q5">
+        <v>3.1</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>1.53</v>
+      </c>
+      <c r="U5">
         <v>2.38</v>
       </c>
-      <c r="R5">
+      <c r="V5">
+        <v>3.75</v>
+      </c>
+      <c r="W5">
+        <v>1.25</v>
+      </c>
+      <c r="X5">
+        <v>11</v>
+      </c>
+      <c r="Y5">
+        <v>1.05</v>
+      </c>
+      <c r="Z5">
+        <v>1.85</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>1.1</v>
+      </c>
+      <c r="AD5">
+        <v>7</v>
+      </c>
+      <c r="AE5">
+        <v>1.49</v>
+      </c>
+      <c r="AF5">
+        <v>2.43</v>
+      </c>
+      <c r="AG5">
+        <v>2.37</v>
+      </c>
+      <c r="AH5">
+        <v>1.48</v>
+      </c>
+      <c r="AI5">
         <v>2.1</v>
       </c>
-      <c r="S5">
-        <v>5.5</v>
-      </c>
-      <c r="T5">
-        <v>1.44</v>
-      </c>
-      <c r="U5">
-        <v>2.63</v>
-      </c>
-      <c r="V5">
-        <v>3.25</v>
-      </c>
-      <c r="W5">
-        <v>1.33</v>
-      </c>
-      <c r="X5">
-        <v>9</v>
-      </c>
-      <c r="Y5">
-        <v>1.07</v>
-      </c>
-      <c r="Z5">
-        <v>1.6</v>
-      </c>
-      <c r="AA5">
-        <v>3.4</v>
-      </c>
-      <c r="AB5">
-        <v>5.25</v>
-      </c>
-      <c r="AC5">
-        <v>1.03</v>
-      </c>
-      <c r="AD5">
-        <v>7.9</v>
-      </c>
-      <c r="AE5">
-        <v>1.32</v>
-      </c>
-      <c r="AF5">
-        <v>2.98</v>
-      </c>
-      <c r="AG5">
-        <v>2.05</v>
-      </c>
-      <c r="AH5">
-        <v>1.61</v>
-      </c>
-      <c r="AI5">
-        <v>2</v>
-      </c>
       <c r="AJ5">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK5">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL5">
         <v>1.3</v>
       </c>
       <c r="AM5">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1981,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1996,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
         <v>4</v>
       </c>
-      <c r="AV5">
-        <v>5</v>
-      </c>
       <c r="AW5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX5">
         <v>4</v>
       </c>
       <c r="AY5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2023,43 +2032,43 @@
         <v>6</v>
       </c>
       <c r="BD5">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="BE5">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF5">
-        <v>3.58</v>
+        <v>2.53</v>
       </c>
       <c r="BG5">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BH5">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BI5">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="BJ5">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="BK5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL5">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="BM5">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="BN5">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BO5">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="BP5">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -2067,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7481361</v>
+        <v>7481364</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -2085,100 +2094,100 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="Q6">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T6">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U6">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W6">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z6">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AA6">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="AC6">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AD6">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AE6">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AF6">
-        <v>2.43</v>
+        <v>2.98</v>
       </c>
       <c r="AG6">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="AH6">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AI6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ6">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK6">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL6">
         <v>1.3</v>
       </c>
       <c r="AM6">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2187,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2202,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX6">
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA6">
         <v>3</v>
@@ -2229,43 +2238,43 @@
         <v>6</v>
       </c>
       <c r="BD6">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="BE6">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="BF6">
-        <v>2.53</v>
+        <v>3.58</v>
       </c>
       <c r="BG6">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BH6">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BI6">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="BJ6">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="BK6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL6">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="BM6">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="BN6">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="BO6">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="BP6">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -2315,7 +2324,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2479,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7481366</v>
+        <v>7481363</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -2497,100 +2506,100 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R8">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="T8">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V8">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W8">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y8">
+        <v>1.06</v>
+      </c>
+      <c r="Z8">
+        <v>2.09</v>
+      </c>
+      <c r="AA8">
+        <v>3.07</v>
+      </c>
+      <c r="AB8">
+        <v>3.07</v>
+      </c>
+      <c r="AC8">
         <v>1.04</v>
       </c>
-      <c r="Z8">
-        <v>1.9</v>
-      </c>
-      <c r="AA8">
-        <v>2.98</v>
-      </c>
-      <c r="AB8">
-        <v>3.73</v>
-      </c>
-      <c r="AC8">
-        <v>1.1</v>
-      </c>
       <c r="AD8">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AF8">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="AG8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH8">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AI8">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AJ8">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AK8">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AL8">
         <v>1.28</v>
       </c>
       <c r="AM8">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -2599,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
         <v>1.17</v>
@@ -2614,70 +2623,70 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BA8">
+        <v>5</v>
+      </c>
+      <c r="BB8">
         <v>7</v>
       </c>
-      <c r="BB8">
-        <v>1</v>
-      </c>
       <c r="BC8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD8">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="BE8">
         <v>8</v>
       </c>
       <c r="BF8">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="BG8">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH8">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI8">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="BJ8">
-        <v>2.28</v>
+        <v>2.43</v>
       </c>
       <c r="BK8">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BL8">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BM8">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="BN8">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="BO8">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BP8">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -2685,7 +2694,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7481363</v>
+        <v>7481366</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -2703,100 +2712,100 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q9">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S9">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V9">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y9">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z9">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="AA9">
-        <v>3.07</v>
+        <v>2.98</v>
       </c>
       <c r="AB9">
-        <v>3.07</v>
+        <v>3.73</v>
       </c>
       <c r="AC9">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD9">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AF9">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="AG9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AH9">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AI9">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AJ9">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AK9">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AL9">
         <v>1.28</v>
       </c>
       <c r="AM9">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2805,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2820,70 +2829,70 @@
         <v>0</v>
       </c>
       <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
         <v>6</v>
       </c>
-      <c r="AV9">
-        <v>9</v>
-      </c>
       <c r="AW9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>11</v>
+      </c>
+      <c r="AZ9">
         <v>10</v>
       </c>
-      <c r="AY9">
-        <v>13</v>
-      </c>
-      <c r="AZ9">
-        <v>21</v>
-      </c>
       <c r="BA9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD9">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BE9">
         <v>8</v>
       </c>
       <c r="BF9">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="BG9">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BH9">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI9">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="BJ9">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="BK9">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BL9">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BM9">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="BN9">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BO9">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BP9">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -2933,7 +2942,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3139,7 +3148,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3217,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3345,7 +3354,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3524,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3551,7 +3560,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3757,7 +3766,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3921,7 +3930,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7481370</v>
+        <v>7481377</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3936,10 +3945,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3954,25 +3963,25 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="Q15">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S15">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>1.5</v>
@@ -3981,145 +3990,145 @@
         <v>2.5</v>
       </c>
       <c r="V15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W15">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z15">
-        <v>2.57</v>
+        <v>1.75</v>
       </c>
       <c r="AA15">
-        <v>3.08</v>
+        <v>3.51</v>
       </c>
       <c r="AB15">
-        <v>2.89</v>
+        <v>4.74</v>
       </c>
       <c r="AC15">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD15">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE15">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AF15">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AG15">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="AH15">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AI15">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ15">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK15">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AL15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM15">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AS15">
         <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AU15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW15">
         <v>10</v>
       </c>
       <c r="AX15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ15">
         <v>12</v>
       </c>
       <c r="BA15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD15">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="BE15">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>3.33</v>
       </c>
       <c r="BG15">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="BH15">
-        <v>2.78</v>
+        <v>3.18</v>
       </c>
       <c r="BI15">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="BJ15">
-        <v>1.99</v>
+        <v>2.29</v>
       </c>
       <c r="BK15">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="BL15">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="BM15">
-        <v>3.32</v>
+        <v>2.57</v>
       </c>
       <c r="BN15">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="BO15">
-        <v>4.5</v>
+        <v>3.48</v>
       </c>
       <c r="BP15">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4127,7 +4136,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7481377</v>
+        <v>7481370</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -4142,10 +4151,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4160,25 +4169,25 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="Q16">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R16">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="T16">
         <v>1.5</v>
@@ -4187,145 +4196,145 @@
         <v>2.5</v>
       </c>
       <c r="V16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W16">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y16">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z16">
-        <v>1.75</v>
+        <v>2.57</v>
       </c>
       <c r="AA16">
-        <v>3.51</v>
+        <v>3.08</v>
       </c>
       <c r="AB16">
-        <v>4.74</v>
+        <v>2.89</v>
       </c>
       <c r="AC16">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AD16">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE16">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AF16">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AG16">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="AH16">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AI16">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AJ16">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK16">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AL16">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM16">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR16">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AS16">
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW16">
         <v>10</v>
       </c>
       <c r="AX16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ16">
         <v>12</v>
       </c>
       <c r="BA16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD16">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="BE16">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF16">
-        <v>3.33</v>
+        <v>2</v>
       </c>
       <c r="BG16">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="BH16">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="BI16">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="BJ16">
-        <v>2.29</v>
+        <v>1.99</v>
       </c>
       <c r="BK16">
-        <v>1.97</v>
+        <v>2.34</v>
       </c>
       <c r="BL16">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="BM16">
-        <v>2.57</v>
+        <v>3.32</v>
       </c>
       <c r="BN16">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="BO16">
-        <v>3.48</v>
+        <v>4.5</v>
       </c>
       <c r="BP16">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4375,7 +4384,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4787,7 +4796,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4868,7 +4877,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5405,7 +5414,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5611,7 +5620,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5814,10 +5823,10 @@
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5898,7 +5907,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -5999,7 +6008,7 @@
         <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -6023,7 +6032,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6229,7 +6238,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6307,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26">
         <v>0.2</v>
@@ -6411,7 +6420,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -6516,7 +6525,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6641,7 +6650,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6847,7 +6856,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7029,7 +7038,7 @@
         <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -7217,7 +7226,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7481384</v>
+        <v>7481387</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7232,49 +7241,49 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="Q31">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R31">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U31">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V31">
         <v>3.75</v>
@@ -7283,109 +7292,109 @@
         <v>1.25</v>
       </c>
       <c r="X31">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y31">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>2.7</v>
+        <v>1.91</v>
       </c>
       <c r="AA31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB31">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="AC31">
         <v>1.07</v>
       </c>
       <c r="AD31">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AE31">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AF31">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AG31">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AH31">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AI31">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ31">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK31">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AL31">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AM31">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AN31">
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>0.48</v>
+        <v>1.31</v>
       </c>
       <c r="AS31">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="AT31">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="AU31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW31">
         <v>7</v>
       </c>
       <c r="AX31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY31">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD31">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="BE31">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>3.17</v>
       </c>
       <c r="BG31">
         <v>1.36</v>
@@ -7394,10 +7403,10 @@
         <v>2.8</v>
       </c>
       <c r="BI31">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="BJ31">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="BK31">
         <v>2.05</v>
@@ -7423,7 +7432,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7481387</v>
+        <v>7481384</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7438,49 +7447,49 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="Q32">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="T32">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U32">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V32">
         <v>3.75</v>
@@ -7489,109 +7498,109 @@
         <v>1.25</v>
       </c>
       <c r="X32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y32">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z32">
-        <v>1.91</v>
+        <v>2.7</v>
       </c>
       <c r="AA32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AB32">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="AC32">
         <v>1.07</v>
       </c>
       <c r="AD32">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AE32">
+        <v>1.5</v>
+      </c>
+      <c r="AF32">
+        <v>2.4</v>
+      </c>
+      <c r="AG32">
+        <v>2.55</v>
+      </c>
+      <c r="AH32">
+        <v>1.45</v>
+      </c>
+      <c r="AI32">
+        <v>2.1</v>
+      </c>
+      <c r="AJ32">
+        <v>1.67</v>
+      </c>
+      <c r="AK32">
+        <v>1.46</v>
+      </c>
+      <c r="AL32">
+        <v>1.38</v>
+      </c>
+      <c r="AM32">
         <v>1.44</v>
-      </c>
-      <c r="AF32">
-        <v>2.6</v>
-      </c>
-      <c r="AG32">
-        <v>2.35</v>
-      </c>
-      <c r="AH32">
-        <v>1.53</v>
-      </c>
-      <c r="AI32">
-        <v>2.2</v>
-      </c>
-      <c r="AJ32">
-        <v>1.62</v>
-      </c>
-      <c r="AK32">
-        <v>1.22</v>
-      </c>
-      <c r="AL32">
-        <v>1.28</v>
-      </c>
-      <c r="AM32">
-        <v>1.8</v>
       </c>
       <c r="AN32">
         <v>3</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
-        <v>1.31</v>
+        <v>0.48</v>
       </c>
       <c r="AS32">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="AT32">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="AU32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AV32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW32">
         <v>7</v>
       </c>
       <c r="AX32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY32">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC32">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD32">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="BE32">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF32">
-        <v>3.17</v>
+        <v>2</v>
       </c>
       <c r="BG32">
         <v>1.36</v>
@@ -7600,10 +7609,10 @@
         <v>2.8</v>
       </c>
       <c r="BI32">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="BJ32">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="BK32">
         <v>2.05</v>
@@ -7644,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
         <v>82</v>
@@ -7671,7 +7680,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7955,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>0.2</v>
@@ -8059,7 +8068,7 @@
         <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -8083,7 +8092,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8289,7 +8298,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8453,7 +8462,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7481398</v>
+        <v>7481394</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8468,190 +8477,190 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T37">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U37">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="V37">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="W37">
         <v>1.25</v>
       </c>
       <c r="X37">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y37">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z37">
-        <v>2.26</v>
+        <v>2.39</v>
       </c>
       <c r="AA37">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="AB37">
-        <v>3.64</v>
+        <v>3.15</v>
       </c>
       <c r="AC37">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD37">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE37">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AF37">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AG37">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AH37">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AI37">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ37">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK37">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AL37">
         <v>1.3</v>
       </c>
       <c r="AM37">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AN37">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP37">
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AS37">
-        <v>0.7</v>
+        <v>1.28</v>
       </c>
       <c r="AT37">
-        <v>2.11</v>
+        <v>2.63</v>
       </c>
       <c r="AU37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV37">
+        <v>7</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
         <v>4</v>
       </c>
-      <c r="AW37">
-        <v>2</v>
-      </c>
-      <c r="AX37">
-        <v>6</v>
-      </c>
       <c r="AY37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD37">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BE37">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="BF37">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BG37">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BH37">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="BI37">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="BJ37">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="BK37">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL37">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM37">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="BN37">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BO37">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="BP37">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8659,7 +8668,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7481394</v>
+        <v>7481398</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8674,190 +8683,190 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>3</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U38">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="V38">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="W38">
         <v>1.25</v>
       </c>
       <c r="X38">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Y38">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z38">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AA38">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="AB38">
-        <v>3.15</v>
+        <v>3.64</v>
       </c>
       <c r="AC38">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AD38">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE38">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AF38">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AG38">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AH38">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AI38">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AJ38">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK38">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AL38">
         <v>1.3</v>
       </c>
       <c r="AM38">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP38">
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AS38">
-        <v>1.28</v>
+        <v>0.7</v>
       </c>
       <c r="AT38">
-        <v>2.63</v>
+        <v>2.11</v>
       </c>
       <c r="AU38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>2</v>
+      </c>
+      <c r="AX38">
+        <v>6</v>
+      </c>
+      <c r="AY38">
+        <v>11</v>
+      </c>
+      <c r="AZ38">
+        <v>13</v>
+      </c>
+      <c r="BA38">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>6</v>
+      </c>
+      <c r="BC38">
         <v>7</v>
       </c>
-      <c r="AW38">
-        <v>6</v>
-      </c>
-      <c r="AX38">
-        <v>4</v>
-      </c>
-      <c r="AY38">
-        <v>12</v>
-      </c>
-      <c r="AZ38">
-        <v>15</v>
-      </c>
-      <c r="BA38">
-        <v>4</v>
-      </c>
-      <c r="BB38">
-        <v>4</v>
-      </c>
-      <c r="BC38">
-        <v>8</v>
-      </c>
       <c r="BD38">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BE38">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="BF38">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BG38">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BH38">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="BI38">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="BJ38">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="BK38">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BL38">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM38">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="BN38">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BO38">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BP38">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -9086,7 +9095,7 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
         <v>71</v>
@@ -9606,7 +9615,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -9809,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -9937,7 +9946,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10119,7 +10128,7 @@
         <v>85</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -10513,7 +10522,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7481404</v>
+        <v>7481409</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10528,70 +10537,70 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O47" t="s">
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
       </c>
       <c r="R47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U47">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="V47">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="W47">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X47">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="Y47">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z47">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AA47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB47">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AC47">
         <v>1.05</v>
@@ -10600,118 +10609,118 @@
         <v>8</v>
       </c>
       <c r="AE47">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF47">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AG47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH47">
+        <v>1.7</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.73</v>
+      </c>
+      <c r="AK47">
+        <v>1.16</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.95</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
         <v>1.72</v>
       </c>
-      <c r="AI47">
-        <v>2.1</v>
-      </c>
-      <c r="AJ47">
-        <v>1.67</v>
-      </c>
-      <c r="AK47">
-        <v>1.17</v>
-      </c>
-      <c r="AL47">
-        <v>1.22</v>
-      </c>
-      <c r="AM47">
-        <v>2.05</v>
-      </c>
-      <c r="AN47">
-        <v>2</v>
-      </c>
-      <c r="AO47">
-        <v>0.5</v>
-      </c>
-      <c r="AP47">
-        <v>2</v>
-      </c>
-      <c r="AQ47">
-        <v>0.2</v>
-      </c>
-      <c r="AR47">
-        <v>1.67</v>
-      </c>
       <c r="AS47">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AT47">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
         <v>4</v>
       </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
       <c r="AW47">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>30</v>
+      </c>
+      <c r="AZ47">
         <v>6</v>
       </c>
-      <c r="AY47">
-        <v>6</v>
-      </c>
-      <c r="AZ47">
-        <v>8</v>
-      </c>
       <c r="BA47">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD47">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="BE47">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF47">
-        <v>3.83</v>
+        <v>3.46</v>
       </c>
       <c r="BG47">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH47">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="BI47">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BJ47">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BK47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL47">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BM47">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BN47">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BO47">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BP47">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10719,7 +10728,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7481409</v>
+        <v>7481404</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10734,70 +10743,70 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O48" t="s">
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S48">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T48">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U48">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="V48">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="W48">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X48">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="Y48">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z48">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AA48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB48">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AC48">
         <v>1.05</v>
@@ -10806,118 +10815,118 @@
         <v>8</v>
       </c>
       <c r="AE48">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF48">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AG48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AH48">
+        <v>1.72</v>
+      </c>
+      <c r="AI48">
+        <v>2.1</v>
+      </c>
+      <c r="AJ48">
+        <v>1.67</v>
+      </c>
+      <c r="AK48">
+        <v>1.17</v>
+      </c>
+      <c r="AL48">
+        <v>1.22</v>
+      </c>
+      <c r="AM48">
+        <v>2.05</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <v>0.2</v>
+      </c>
+      <c r="AR48">
+        <v>1.67</v>
+      </c>
+      <c r="AS48">
+        <v>1.19</v>
+      </c>
+      <c r="AT48">
+        <v>2.86</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>6</v>
+      </c>
+      <c r="AZ48">
+        <v>8</v>
+      </c>
+      <c r="BA48">
+        <v>4</v>
+      </c>
+      <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>1.37</v>
+      </c>
+      <c r="BE48">
+        <v>9</v>
+      </c>
+      <c r="BF48">
+        <v>3.83</v>
+      </c>
+      <c r="BG48">
+        <v>1.34</v>
+      </c>
+      <c r="BH48">
+        <v>2.88</v>
+      </c>
+      <c r="BI48">
         <v>1.7</v>
       </c>
-      <c r="AI48">
-        <v>2</v>
-      </c>
-      <c r="AJ48">
-        <v>1.73</v>
-      </c>
-      <c r="AK48">
-        <v>1.16</v>
-      </c>
-      <c r="AL48">
-        <v>1.25</v>
-      </c>
-      <c r="AM48">
-        <v>1.95</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>1</v>
-      </c>
-      <c r="AP48">
-        <v>2</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
-      </c>
-      <c r="AR48">
-        <v>1.72</v>
-      </c>
-      <c r="AS48">
+      <c r="BJ48">
+        <v>2.05</v>
+      </c>
+      <c r="BK48">
+        <v>2.1</v>
+      </c>
+      <c r="BL48">
+        <v>1.67</v>
+      </c>
+      <c r="BM48">
+        <v>2.7</v>
+      </c>
+      <c r="BN48">
         <v>1.38</v>
       </c>
-      <c r="AT48">
-        <v>3.1</v>
-      </c>
-      <c r="AU48">
-        <v>7</v>
-      </c>
-      <c r="AV48">
-        <v>4</v>
-      </c>
-      <c r="AW48">
-        <v>13</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>30</v>
-      </c>
-      <c r="AZ48">
-        <v>6</v>
-      </c>
-      <c r="BA48">
-        <v>10</v>
-      </c>
-      <c r="BB48">
-        <v>2</v>
-      </c>
-      <c r="BC48">
-        <v>12</v>
-      </c>
-      <c r="BD48">
-        <v>1.45</v>
-      </c>
-      <c r="BE48">
-        <v>8.5</v>
-      </c>
-      <c r="BF48">
-        <v>3.46</v>
-      </c>
-      <c r="BG48">
-        <v>1.3</v>
-      </c>
-      <c r="BH48">
-        <v>3.05</v>
-      </c>
-      <c r="BI48">
-        <v>1.56</v>
-      </c>
-      <c r="BJ48">
-        <v>2.2</v>
-      </c>
-      <c r="BK48">
-        <v>2</v>
-      </c>
-      <c r="BL48">
-        <v>1.8</v>
-      </c>
-      <c r="BM48">
-        <v>2.55</v>
-      </c>
-      <c r="BN48">
-        <v>1.42</v>
-      </c>
       <c r="BO48">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="BP48">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -11048,7 +11057,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11146,10 +11155,10 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
         <v>77</v>
-      </c>
-      <c r="H50" t="s">
-        <v>76</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11254,7 +11263,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -11749,7 +11758,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7481401</v>
+        <v>7481402</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11764,10 +11773,10 @@
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -11779,175 +11788,175 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="P53" t="s">
         <v>94</v>
       </c>
       <c r="Q53">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S53">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="T53">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U53">
-        <v>2.39</v>
+        <v>2.63</v>
       </c>
       <c r="V53">
         <v>3.4</v>
       </c>
       <c r="W53">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X53">
-        <v>8.949999999999999</v>
+        <v>10</v>
       </c>
       <c r="Y53">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z53">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="AA53">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="AB53">
-        <v>2.93</v>
+        <v>5</v>
       </c>
       <c r="AC53">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AD53">
+        <v>8</v>
+      </c>
+      <c r="AE53">
+        <v>1.36</v>
+      </c>
+      <c r="AF53">
+        <v>2.88</v>
+      </c>
+      <c r="AG53">
+        <v>2.14</v>
+      </c>
+      <c r="AH53">
+        <v>1.63</v>
+      </c>
+      <c r="AI53">
+        <v>2.2</v>
+      </c>
+      <c r="AJ53">
+        <v>1.62</v>
+      </c>
+      <c r="AK53">
+        <v>1.15</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>2.15</v>
+      </c>
+      <c r="AN53">
+        <v>0.5</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0.5</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1.24</v>
+      </c>
+      <c r="AS53">
+        <v>0.82</v>
+      </c>
+      <c r="AT53">
+        <v>2.06</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>14</v>
+      </c>
+      <c r="AZ53">
+        <v>16</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
         <v>7</v>
       </c>
-      <c r="AE53">
-        <v>1.42</v>
-      </c>
-      <c r="AF53">
-        <v>2.7</v>
-      </c>
-      <c r="AG53">
-        <v>2.21</v>
-      </c>
-      <c r="AH53">
-        <v>1.59</v>
-      </c>
-      <c r="AI53">
-        <v>1.95</v>
-      </c>
-      <c r="AJ53">
-        <v>1.8</v>
-      </c>
-      <c r="AK53">
-        <v>1.36</v>
-      </c>
-      <c r="AL53">
-        <v>1.3</v>
-      </c>
-      <c r="AM53">
-        <v>1.55</v>
-      </c>
-      <c r="AN53">
-        <v>1.5</v>
-      </c>
-      <c r="AO53">
-        <v>2.33</v>
-      </c>
-      <c r="AP53">
+      <c r="BD53">
+        <v>1.41</v>
+      </c>
+      <c r="BE53">
+        <v>8.5</v>
+      </c>
+      <c r="BF53">
+        <v>3.5</v>
+      </c>
+      <c r="BG53">
         <v>1.4</v>
       </c>
-      <c r="AQ53">
-        <v>1.67</v>
-      </c>
-      <c r="AR53">
-        <v>1.46</v>
-      </c>
-      <c r="AS53">
-        <v>1.42</v>
-      </c>
-      <c r="AT53">
-        <v>2.88</v>
-      </c>
-      <c r="AU53">
-        <v>7</v>
-      </c>
-      <c r="AV53">
-        <v>5</v>
-      </c>
-      <c r="AW53">
-        <v>7</v>
-      </c>
-      <c r="AX53">
-        <v>5</v>
-      </c>
-      <c r="AY53">
-        <v>16</v>
-      </c>
-      <c r="AZ53">
-        <v>13</v>
-      </c>
-      <c r="BA53">
-        <v>6</v>
-      </c>
-      <c r="BB53">
-        <v>7</v>
-      </c>
-      <c r="BC53">
-        <v>13</v>
-      </c>
-      <c r="BD53">
-        <v>1.85</v>
-      </c>
-      <c r="BE53">
-        <v>8</v>
-      </c>
-      <c r="BF53">
-        <v>2.28</v>
-      </c>
-      <c r="BG53">
-        <v>1.29</v>
-      </c>
       <c r="BH53">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="BI53">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="BJ53">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="BK53">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BL53">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="BM53">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="BN53">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="BO53">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="BP53">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11955,7 +11964,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7481402</v>
+        <v>7481401</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11970,10 +11979,10 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -11985,175 +11994,175 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="P54" t="s">
         <v>94</v>
       </c>
       <c r="Q54">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="R54">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="T54">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="U54">
-        <v>2.63</v>
+        <v>2.39</v>
       </c>
       <c r="V54">
         <v>3.4</v>
       </c>
       <c r="W54">
+        <v>1.28</v>
+      </c>
+      <c r="X54">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>1.04</v>
+      </c>
+      <c r="Z54">
+        <v>2.32</v>
+      </c>
+      <c r="AA54">
+        <v>3.15</v>
+      </c>
+      <c r="AB54">
+        <v>2.93</v>
+      </c>
+      <c r="AC54">
+        <v>1.09</v>
+      </c>
+      <c r="AD54">
+        <v>7</v>
+      </c>
+      <c r="AE54">
+        <v>1.42</v>
+      </c>
+      <c r="AF54">
+        <v>2.7</v>
+      </c>
+      <c r="AG54">
+        <v>2.21</v>
+      </c>
+      <c r="AH54">
+        <v>1.59</v>
+      </c>
+      <c r="AI54">
+        <v>1.95</v>
+      </c>
+      <c r="AJ54">
+        <v>1.8</v>
+      </c>
+      <c r="AK54">
+        <v>1.36</v>
+      </c>
+      <c r="AL54">
         <v>1.3</v>
       </c>
-      <c r="X54">
-        <v>10</v>
-      </c>
-      <c r="Y54">
-        <v>1.06</v>
-      </c>
-      <c r="Z54">
-        <v>1.65</v>
-      </c>
-      <c r="AA54">
-        <v>3.65</v>
-      </c>
-      <c r="AB54">
+      <c r="AM54">
+        <v>1.55</v>
+      </c>
+      <c r="AN54">
+        <v>1.5</v>
+      </c>
+      <c r="AO54">
+        <v>2.33</v>
+      </c>
+      <c r="AP54">
+        <v>1.4</v>
+      </c>
+      <c r="AQ54">
+        <v>1.67</v>
+      </c>
+      <c r="AR54">
+        <v>1.46</v>
+      </c>
+      <c r="AS54">
+        <v>1.42</v>
+      </c>
+      <c r="AT54">
+        <v>2.88</v>
+      </c>
+      <c r="AU54">
+        <v>7</v>
+      </c>
+      <c r="AV54">
         <v>5</v>
       </c>
-      <c r="AC54">
-        <v>1.05</v>
-      </c>
-      <c r="AD54">
+      <c r="AW54">
+        <v>7</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>16</v>
+      </c>
+      <c r="AZ54">
+        <v>13</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>7</v>
+      </c>
+      <c r="BC54">
+        <v>13</v>
+      </c>
+      <c r="BD54">
+        <v>1.85</v>
+      </c>
+      <c r="BE54">
         <v>8</v>
       </c>
-      <c r="AE54">
-        <v>1.36</v>
-      </c>
-      <c r="AF54">
-        <v>2.88</v>
-      </c>
-      <c r="AG54">
-        <v>2.14</v>
-      </c>
-      <c r="AH54">
-        <v>1.63</v>
-      </c>
-      <c r="AI54">
-        <v>2.2</v>
-      </c>
-      <c r="AJ54">
-        <v>1.62</v>
-      </c>
-      <c r="AK54">
-        <v>1.15</v>
-      </c>
-      <c r="AL54">
-        <v>1.22</v>
-      </c>
-      <c r="AM54">
-        <v>2.15</v>
-      </c>
-      <c r="AN54">
-        <v>0.5</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0.6</v>
-      </c>
-      <c r="AQ54">
-        <v>1</v>
-      </c>
-      <c r="AR54">
-        <v>1.24</v>
-      </c>
-      <c r="AS54">
-        <v>0.82</v>
-      </c>
-      <c r="AT54">
-        <v>2.06</v>
-      </c>
-      <c r="AU54">
-        <v>4</v>
-      </c>
-      <c r="AV54">
-        <v>2</v>
-      </c>
-      <c r="AW54">
-        <v>6</v>
-      </c>
-      <c r="AX54">
-        <v>6</v>
-      </c>
-      <c r="AY54">
-        <v>14</v>
-      </c>
-      <c r="AZ54">
-        <v>16</v>
-      </c>
-      <c r="BA54">
-        <v>4</v>
-      </c>
-      <c r="BB54">
-        <v>3</v>
-      </c>
-      <c r="BC54">
-        <v>7</v>
-      </c>
-      <c r="BD54">
-        <v>1.41</v>
-      </c>
-      <c r="BE54">
-        <v>8.5</v>
-      </c>
       <c r="BF54">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="BG54">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BH54">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="BI54">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="BJ54">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="BK54">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="BL54">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="BM54">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="BN54">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="BO54">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="BP54">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12203,7 +12212,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12281,7 +12290,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12409,7 +12418,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12615,7 +12624,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12794,7 +12803,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
         <v>85</v>
@@ -12821,7 +12830,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -12985,7 +12994,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7481414</v>
+        <v>7481417</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13000,190 +13009,190 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="Q59">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="T59">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="U59">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="V59">
-        <v>3.75</v>
+        <v>3.32</v>
       </c>
       <c r="W59">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="X59">
-        <v>10.75</v>
+        <v>8.4</v>
       </c>
       <c r="Y59">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z59">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="AA59">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AB59">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="AC59">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AD59">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="AE59">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="AF59">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="AG59">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="AH59">
+        <v>1.7</v>
+      </c>
+      <c r="AI59">
+        <v>2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.73</v>
+      </c>
+      <c r="AK59">
+        <v>1.25</v>
+      </c>
+      <c r="AL59">
+        <v>1.31</v>
+      </c>
+      <c r="AM59">
+        <v>1.85</v>
+      </c>
+      <c r="AN59">
         <v>1.5</v>
       </c>
-      <c r="AI59">
-        <v>2.05</v>
-      </c>
-      <c r="AJ59">
-        <v>1.67</v>
-      </c>
-      <c r="AK59">
-        <v>1.4</v>
-      </c>
-      <c r="AL59">
-        <v>1.35</v>
-      </c>
-      <c r="AM59">
-        <v>1.45</v>
-      </c>
-      <c r="AN59">
-        <v>2</v>
-      </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AS59">
-        <v>0.87</v>
+        <v>1.37</v>
       </c>
       <c r="AT59">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
         <v>5</v>
       </c>
-      <c r="AV59">
-        <v>6</v>
-      </c>
       <c r="AW59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX59">
         <v>3</v>
       </c>
       <c r="AY59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB59">
         <v>5</v>
       </c>
       <c r="BC59">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD59">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="BE59">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF59">
-        <v>2.29</v>
+        <v>2.67</v>
       </c>
       <c r="BG59">
+        <v>1.25</v>
+      </c>
+      <c r="BH59">
+        <v>3.4</v>
+      </c>
+      <c r="BI59">
+        <v>1.47</v>
+      </c>
+      <c r="BJ59">
+        <v>2.43</v>
+      </c>
+      <c r="BK59">
+        <v>1.88</v>
+      </c>
+      <c r="BL59">
+        <v>1.92</v>
+      </c>
+      <c r="BM59">
+        <v>2.32</v>
+      </c>
+      <c r="BN59">
+        <v>1.5</v>
+      </c>
+      <c r="BO59">
+        <v>3.1</v>
+      </c>
+      <c r="BP59">
         <v>1.3</v>
-      </c>
-      <c r="BH59">
-        <v>3.05</v>
-      </c>
-      <c r="BI59">
-        <v>1.56</v>
-      </c>
-      <c r="BJ59">
-        <v>2.2</v>
-      </c>
-      <c r="BK59">
-        <v>2</v>
-      </c>
-      <c r="BL59">
-        <v>1.73</v>
-      </c>
-      <c r="BM59">
-        <v>2.55</v>
-      </c>
-      <c r="BN59">
-        <v>1.42</v>
-      </c>
-      <c r="BO59">
-        <v>3.5</v>
-      </c>
-      <c r="BP59">
-        <v>1.24</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13191,7 +13200,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7481417</v>
+        <v>7481414</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13206,190 +13215,190 @@
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="Q60">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="T60">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="U60">
-        <v>2.72</v>
+        <v>2.2</v>
       </c>
       <c r="V60">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="W60">
+        <v>1.22</v>
+      </c>
+      <c r="X60">
+        <v>10.75</v>
+      </c>
+      <c r="Y60">
+        <v>1.03</v>
+      </c>
+      <c r="Z60">
+        <v>2.9</v>
+      </c>
+      <c r="AA60">
+        <v>2.9</v>
+      </c>
+      <c r="AB60">
+        <v>2.6</v>
+      </c>
+      <c r="AC60">
+        <v>1.11</v>
+      </c>
+      <c r="AD60">
+        <v>6.25</v>
+      </c>
+      <c r="AE60">
+        <v>1.52</v>
+      </c>
+      <c r="AF60">
+        <v>2.38</v>
+      </c>
+      <c r="AG60">
+        <v>2.45</v>
+      </c>
+      <c r="AH60">
+        <v>1.5</v>
+      </c>
+      <c r="AI60">
+        <v>2.05</v>
+      </c>
+      <c r="AJ60">
+        <v>1.67</v>
+      </c>
+      <c r="AK60">
+        <v>1.4</v>
+      </c>
+      <c r="AL60">
+        <v>1.35</v>
+      </c>
+      <c r="AM60">
+        <v>1.45</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
         <v>1.33</v>
       </c>
-      <c r="X60">
-        <v>8.4</v>
-      </c>
-      <c r="Y60">
-        <v>1.05</v>
-      </c>
-      <c r="Z60">
-        <v>1.91</v>
-      </c>
-      <c r="AA60">
-        <v>3.2</v>
-      </c>
-      <c r="AB60">
-        <v>4</v>
-      </c>
-      <c r="AC60">
-        <v>1.05</v>
-      </c>
-      <c r="AD60">
-        <v>8</v>
-      </c>
-      <c r="AE60">
-        <v>1.36</v>
-      </c>
-      <c r="AF60">
-        <v>2.88</v>
-      </c>
-      <c r="AG60">
-        <v>2.05</v>
-      </c>
-      <c r="AH60">
-        <v>1.7</v>
-      </c>
-      <c r="AI60">
-        <v>2</v>
-      </c>
-      <c r="AJ60">
-        <v>1.73</v>
-      </c>
-      <c r="AK60">
-        <v>1.25</v>
-      </c>
-      <c r="AL60">
-        <v>1.31</v>
-      </c>
-      <c r="AM60">
-        <v>1.85</v>
-      </c>
-      <c r="AN60">
-        <v>1.5</v>
-      </c>
-      <c r="AO60">
-        <v>2</v>
-      </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AS60">
-        <v>1.37</v>
+        <v>0.87</v>
       </c>
       <c r="AT60">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="AU60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX60">
         <v>3</v>
       </c>
       <c r="AY60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB60">
         <v>5</v>
       </c>
       <c r="BC60">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD60">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="BE60">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF60">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="BG60">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH60">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI60">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="BJ60">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BK60">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BL60">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="BM60">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="BN60">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BO60">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP60">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13517,7 +13526,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.17</v>
@@ -13621,7 +13630,7 @@
         <v>84</v>
       </c>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -13726,7 +13735,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -13809,7 +13818,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7481418</v>
+        <v>7481412</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13824,190 +13833,190 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P63" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q63">
+        <v>2.5</v>
+      </c>
+      <c r="R63">
+        <v>2.3</v>
+      </c>
+      <c r="S63">
+        <v>4.33</v>
+      </c>
+      <c r="T63">
+        <v>1.33</v>
+      </c>
+      <c r="U63">
+        <v>3.25</v>
+      </c>
+      <c r="V63">
+        <v>2.63</v>
+      </c>
+      <c r="W63">
+        <v>1.44</v>
+      </c>
+      <c r="X63">
+        <v>6.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.11</v>
+      </c>
+      <c r="Z63">
+        <v>2.15</v>
+      </c>
+      <c r="AA63">
+        <v>3.1</v>
+      </c>
+      <c r="AB63">
+        <v>3.2</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.2</v>
+      </c>
+      <c r="AF63">
+        <v>4</v>
+      </c>
+      <c r="AG63">
+        <v>2.25</v>
+      </c>
+      <c r="AH63">
+        <v>1.65</v>
+      </c>
+      <c r="AI63">
+        <v>1.67</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.25</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>1.7</v>
+      </c>
+      <c r="AN63">
+        <v>0.5</v>
+      </c>
+      <c r="AO63">
         <v>3</v>
       </c>
-      <c r="O63" t="s">
-        <v>97</v>
-      </c>
-      <c r="P63" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q63">
-        <v>4</v>
-      </c>
-      <c r="R63">
-        <v>1.95</v>
-      </c>
-      <c r="S63">
-        <v>3.2</v>
-      </c>
-      <c r="T63">
-        <v>1.53</v>
-      </c>
-      <c r="U63">
-        <v>2.38</v>
-      </c>
-      <c r="V63">
-        <v>3.5</v>
-      </c>
-      <c r="W63">
-        <v>1.29</v>
-      </c>
-      <c r="X63">
-        <v>11</v>
-      </c>
-      <c r="Y63">
-        <v>1.05</v>
-      </c>
-      <c r="Z63">
-        <v>2.9</v>
-      </c>
-      <c r="AA63">
+      <c r="AP63">
+        <v>1.4</v>
+      </c>
+      <c r="AQ63">
         <v>3</v>
       </c>
-      <c r="AB63">
-        <v>2.35</v>
-      </c>
-      <c r="AC63">
-        <v>1.06</v>
-      </c>
-      <c r="AD63">
-        <v>7.5</v>
-      </c>
-      <c r="AE63">
-        <v>1.4</v>
-      </c>
-      <c r="AF63">
+      <c r="AR63">
+        <v>1.39</v>
+      </c>
+      <c r="AS63">
+        <v>1.36</v>
+      </c>
+      <c r="AT63">
         <v>2.75</v>
       </c>
-      <c r="AG63">
-        <v>2.17</v>
-      </c>
-      <c r="AH63">
-        <v>1.7</v>
-      </c>
-      <c r="AI63">
-        <v>2.1</v>
-      </c>
-      <c r="AJ63">
-        <v>1.67</v>
-      </c>
-      <c r="AK63">
-        <v>1.57</v>
-      </c>
-      <c r="AL63">
-        <v>1.37</v>
-      </c>
-      <c r="AM63">
-        <v>1.25</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>2</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>1.75</v>
-      </c>
-      <c r="AR63">
-        <v>1.13</v>
-      </c>
-      <c r="AS63">
-        <v>1.56</v>
-      </c>
-      <c r="AT63">
-        <v>2.69</v>
-      </c>
       <c r="AU63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW63">
         <v>5</v>
       </c>
       <c r="AX63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY63">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ63">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB63">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BC63">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BD63">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="BE63">
         <v>8</v>
       </c>
       <c r="BF63">
-        <v>1.75</v>
+        <v>2.62</v>
       </c>
       <c r="BG63">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BH63">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="BI63">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="BJ63">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="BK63">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL63">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BM63">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="BN63">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BO63">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="BP63">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -14015,7 +14024,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7481412</v>
+        <v>7481418</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14030,190 +14039,190 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q64">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R64">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T64">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="U64">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="V64">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="W64">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="X64">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y64">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="Z64">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="AA64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB64">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="AC64">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AE64">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AF64">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="AG64">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AH64">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AI64">
+        <v>2.1</v>
+      </c>
+      <c r="AJ64">
         <v>1.67</v>
       </c>
-      <c r="AJ64">
-        <v>2.1</v>
-      </c>
       <c r="AK64">
+        <v>1.57</v>
+      </c>
+      <c r="AL64">
+        <v>1.37</v>
+      </c>
+      <c r="AM64">
         <v>1.25</v>
       </c>
-      <c r="AL64">
-        <v>1.28</v>
-      </c>
-      <c r="AM64">
-        <v>1.7</v>
-      </c>
       <c r="AN64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AQ64">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AR64">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="AS64">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AT64">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="AU64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW64">
         <v>5</v>
       </c>
       <c r="AX64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY64">
+        <v>13</v>
+      </c>
+      <c r="AZ64">
+        <v>14</v>
+      </c>
+      <c r="BA64">
+        <v>9</v>
+      </c>
+      <c r="BB64">
+        <v>9</v>
+      </c>
+      <c r="BC64">
         <v>18</v>
       </c>
-      <c r="AZ64">
-        <v>10</v>
-      </c>
-      <c r="BA64">
-        <v>7</v>
-      </c>
-      <c r="BB64">
-        <v>3</v>
-      </c>
-      <c r="BC64">
-        <v>10</v>
-      </c>
       <c r="BD64">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="BE64">
         <v>8</v>
       </c>
       <c r="BF64">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="BG64">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BH64">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="BI64">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BJ64">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="BK64">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BL64">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BM64">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BN64">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BO64">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="BP64">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14341,7 +14350,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ65">
         <v>1.25</v>
@@ -14445,7 +14454,7 @@
         <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -14469,7 +14478,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14881,7 +14890,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15087,7 +15096,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15165,7 +15174,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15374,7 +15383,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR70">
         <v>1.04</v>
@@ -15472,7 +15481,7 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s">
         <v>91</v>
@@ -15705,7 +15714,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15911,7 +15920,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -15992,7 +16001,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16117,7 +16126,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16323,7 +16332,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16505,7 +16514,7 @@
         <v>88</v>
       </c>
       <c r="H76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -16711,7 +16720,7 @@
         <v>89</v>
       </c>
       <c r="H77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -16914,7 +16923,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s">
         <v>87</v>
@@ -16941,7 +16950,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17147,7 +17156,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17326,7 +17335,7 @@
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H80" t="s">
         <v>79</v>
@@ -17532,10 +17541,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -17559,7 +17568,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17640,7 +17649,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -17765,7 +17774,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18153,7 +18162,7 @@
         <v>91</v>
       </c>
       <c r="H84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -18177,7 +18186,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18255,7 +18264,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -18795,7 +18804,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19207,7 +19216,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19413,7 +19422,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19577,7 +19586,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7481447</v>
+        <v>7481446</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19586,172 +19595,172 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45576.875</v>
+        <v>45577.46875</v>
       </c>
       <c r="F91">
         <v>9</v>
       </c>
       <c r="G91" t="s">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s">
         <v>73</v>
       </c>
-      <c r="H91" t="s">
-        <v>80</v>
-      </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>1</v>
       </c>
       <c r="O91" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="P91" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="Q91">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R91">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
+        <v>3.75</v>
+      </c>
+      <c r="T91">
+        <v>1.58</v>
+      </c>
+      <c r="U91">
+        <v>2.26</v>
+      </c>
+      <c r="V91">
+        <v>3.6</v>
+      </c>
+      <c r="W91">
+        <v>1.25</v>
+      </c>
+      <c r="X91">
+        <v>9.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.03</v>
+      </c>
+      <c r="Z91">
+        <v>2.2</v>
+      </c>
+      <c r="AA91">
+        <v>2.87</v>
+      </c>
+      <c r="AB91">
+        <v>3.2</v>
+      </c>
+      <c r="AC91">
+        <v>1.1</v>
+      </c>
+      <c r="AD91">
+        <v>7</v>
+      </c>
+      <c r="AE91">
+        <v>1.48</v>
+      </c>
+      <c r="AF91">
+        <v>2.37</v>
+      </c>
+      <c r="AG91">
+        <v>2.4</v>
+      </c>
+      <c r="AH91">
+        <v>1.5</v>
+      </c>
+      <c r="AI91">
+        <v>2.1</v>
+      </c>
+      <c r="AJ91">
+        <v>1.68</v>
+      </c>
+      <c r="AK91">
+        <v>1.35</v>
+      </c>
+      <c r="AL91">
+        <v>1.3</v>
+      </c>
+      <c r="AM91">
+        <v>1.57</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0.33</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.18</v>
+      </c>
+      <c r="AS91">
+        <v>0.93</v>
+      </c>
+      <c r="AT91">
+        <v>2.11</v>
+      </c>
+      <c r="AU91">
         <v>5</v>
       </c>
-      <c r="T91">
-        <v>1.44</v>
-      </c>
-      <c r="U91">
-        <v>2.6</v>
-      </c>
-      <c r="V91">
-        <v>2.95</v>
-      </c>
-      <c r="W91">
-        <v>1.35</v>
-      </c>
-      <c r="X91">
-        <v>7.6</v>
-      </c>
-      <c r="Y91">
-        <v>1.05</v>
-      </c>
-      <c r="Z91">
-        <v>1.71</v>
-      </c>
-      <c r="AA91">
-        <v>3.63</v>
-      </c>
-      <c r="AB91">
-        <v>4.86</v>
-      </c>
-      <c r="AC91">
-        <v>1.07</v>
-      </c>
-      <c r="AD91">
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>3</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
         <v>8</v>
       </c>
-      <c r="AE91">
-        <v>1.38</v>
-      </c>
-      <c r="AF91">
+      <c r="AZ91">
+        <v>5</v>
+      </c>
+      <c r="BA91">
         <v>3</v>
       </c>
-      <c r="AG91">
-        <v>2.06</v>
-      </c>
-      <c r="AH91">
-        <v>1.68</v>
-      </c>
-      <c r="AI91">
-        <v>1.95</v>
-      </c>
-      <c r="AJ91">
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>4</v>
+      </c>
+      <c r="BD91">
         <v>1.73</v>
       </c>
-      <c r="AK91">
-        <v>1.15</v>
-      </c>
-      <c r="AL91">
-        <v>1.22</v>
-      </c>
-      <c r="AM91">
-        <v>2.1</v>
-      </c>
-      <c r="AN91">
-        <v>1.75</v>
-      </c>
-      <c r="AO91">
-        <v>1.33</v>
-      </c>
-      <c r="AP91">
-        <v>2</v>
-      </c>
-      <c r="AQ91">
-        <v>1</v>
-      </c>
-      <c r="AR91">
-        <v>1.5</v>
-      </c>
-      <c r="AS91">
-        <v>1.19</v>
-      </c>
-      <c r="AT91">
-        <v>2.69</v>
-      </c>
-      <c r="AU91">
+      <c r="BE91">
         <v>8</v>
       </c>
-      <c r="AV91">
-        <v>4</v>
-      </c>
-      <c r="AW91">
-        <v>4</v>
-      </c>
-      <c r="AX91">
-        <v>8</v>
-      </c>
-      <c r="AY91">
-        <v>16</v>
-      </c>
-      <c r="AZ91">
-        <v>15</v>
-      </c>
-      <c r="BA91">
-        <v>6</v>
-      </c>
-      <c r="BB91">
-        <v>6</v>
-      </c>
-      <c r="BC91">
-        <v>12</v>
-      </c>
-      <c r="BD91">
-        <v>1.5</v>
-      </c>
-      <c r="BE91">
-        <v>8.6</v>
-      </c>
       <c r="BF91">
-        <v>3.22</v>
+        <v>2.38</v>
       </c>
       <c r="BG91">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH91">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="BI91">
         <v>1.7</v>
@@ -19760,22 +19769,22 @@
         <v>2.05</v>
       </c>
       <c r="BK91">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="BL91">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="BM91">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="BN91">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="BO91">
-        <v>3.02</v>
+        <v>3.44</v>
       </c>
       <c r="BP91">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19783,7 +19792,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7481445</v>
+        <v>7481447</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19792,196 +19801,196 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45576.875</v>
+        <v>45577.5625</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="Q92">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R92">
         <v>2.05</v>
       </c>
       <c r="S92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T92">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U92">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V92">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X92">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="Y92">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z92">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AA92">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="AB92">
-        <v>5.47</v>
+        <v>4.86</v>
       </c>
       <c r="AC92">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD92">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE92">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AF92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AG92">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="AH92">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AI92">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ92">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AK92">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AL92">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM92">
         <v>2.1</v>
       </c>
       <c r="AN92">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO92">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>1</v>
       </c>
       <c r="AR92">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AS92">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT92">
-        <v>2.53</v>
+        <v>2.69</v>
       </c>
       <c r="AU92">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
         <v>8</v>
       </c>
-      <c r="AW92">
-        <v>5</v>
-      </c>
-      <c r="AX92">
-        <v>4</v>
-      </c>
-      <c r="AY92">
-        <v>16</v>
-      </c>
       <c r="AZ92">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA92">
         <v>6</v>
       </c>
       <c r="BB92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC92">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD92">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="BE92">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="BF92">
-        <v>3.65</v>
+        <v>3.22</v>
       </c>
       <c r="BG92">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="BH92">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="BI92">
         <v>1.7</v>
       </c>
       <c r="BJ92">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BK92">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="BL92">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="BM92">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="BN92">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="BO92">
-        <v>4.15</v>
+        <v>3.02</v>
       </c>
       <c r="BP92">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19989,7 +19998,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7481446</v>
+        <v>7481445</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -19998,196 +20007,196 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45576.875</v>
+        <v>45577.5625</v>
       </c>
       <c r="F93">
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H93" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O93" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="Q93">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S93">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="T93">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="U93">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="V93">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="W93">
+        <v>1.3</v>
+      </c>
+      <c r="X93">
+        <v>10</v>
+      </c>
+      <c r="Y93">
+        <v>1.06</v>
+      </c>
+      <c r="Z93">
+        <v>1.65</v>
+      </c>
+      <c r="AA93">
+        <v>3.61</v>
+      </c>
+      <c r="AB93">
+        <v>5.47</v>
+      </c>
+      <c r="AC93">
+        <v>1.08</v>
+      </c>
+      <c r="AD93">
+        <v>7.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.42</v>
+      </c>
+      <c r="AF93">
+        <v>2.75</v>
+      </c>
+      <c r="AG93">
+        <v>2.3</v>
+      </c>
+      <c r="AH93">
+        <v>1.55</v>
+      </c>
+      <c r="AI93">
+        <v>2.2</v>
+      </c>
+      <c r="AJ93">
+        <v>1.62</v>
+      </c>
+      <c r="AK93">
+        <v>1.11</v>
+      </c>
+      <c r="AL93">
         <v>1.25</v>
       </c>
-      <c r="X93">
-        <v>9.5</v>
-      </c>
-      <c r="Y93">
-        <v>1.03</v>
-      </c>
-      <c r="Z93">
-        <v>2.2</v>
-      </c>
-      <c r="AA93">
-        <v>2.87</v>
-      </c>
-      <c r="AB93">
-        <v>3.2</v>
-      </c>
-      <c r="AC93">
-        <v>1.1</v>
-      </c>
-      <c r="AD93">
-        <v>7</v>
-      </c>
-      <c r="AE93">
-        <v>1.48</v>
-      </c>
-      <c r="AF93">
-        <v>2.37</v>
-      </c>
-      <c r="AG93">
-        <v>2.4</v>
-      </c>
-      <c r="AH93">
-        <v>1.5</v>
-      </c>
-      <c r="AI93">
+      <c r="AM93">
         <v>2.1</v>
       </c>
-      <c r="AJ93">
-        <v>1.68</v>
-      </c>
-      <c r="AK93">
-        <v>1.35</v>
-      </c>
-      <c r="AL93">
-        <v>1.3</v>
-      </c>
-      <c r="AM93">
-        <v>1.57</v>
-      </c>
       <c r="AN93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO93">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ93">
         <v>1</v>
       </c>
       <c r="AR93">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AS93">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AT93">
-        <v>2.11</v>
+        <v>2.53</v>
       </c>
       <c r="AU93">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
         <v>3</v>
       </c>
-      <c r="AW93">
-        <v>2</v>
-      </c>
-      <c r="AX93">
-        <v>2</v>
-      </c>
       <c r="AY93">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
         <v>6</v>
       </c>
-      <c r="BA93">
-        <v>3</v>
-      </c>
       <c r="BB93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD93">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="BE93">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF93">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="BG93">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="BH93">
-        <v>3.04</v>
+        <v>2.82</v>
       </c>
       <c r="BI93">
         <v>1.7</v>
       </c>
       <c r="BJ93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BK93">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="BL93">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="BM93">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="BN93">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="BO93">
-        <v>3.44</v>
+        <v>4.15</v>
       </c>
       <c r="BP93">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20195,7 +20204,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7481444</v>
+        <v>7481449</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20204,49 +20213,49 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45577.875</v>
+        <v>45578.375</v>
       </c>
       <c r="F94">
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O94" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="Q94">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R94">
         <v>1.95</v>
       </c>
       <c r="S94">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T94">
         <v>1.53</v>
@@ -20267,13 +20276,13 @@
         <v>1.05</v>
       </c>
       <c r="Z94">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="AA94">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="AB94">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="AC94">
         <v>1.1</v>
@@ -20282,118 +20291,118 @@
         <v>6.5</v>
       </c>
       <c r="AE94">
+        <v>1.48</v>
+      </c>
+      <c r="AF94">
+        <v>2.45</v>
+      </c>
+      <c r="AG94">
+        <v>2.38</v>
+      </c>
+      <c r="AH94">
+        <v>1.52</v>
+      </c>
+      <c r="AI94">
+        <v>2</v>
+      </c>
+      <c r="AJ94">
+        <v>1.73</v>
+      </c>
+      <c r="AK94">
+        <v>1.36</v>
+      </c>
+      <c r="AL94">
+        <v>1.33</v>
+      </c>
+      <c r="AM94">
+        <v>1.53</v>
+      </c>
+      <c r="AN94">
+        <v>2.25</v>
+      </c>
+      <c r="AO94">
         <v>1.5</v>
       </c>
-      <c r="AF94">
-        <v>2.4</v>
-      </c>
-      <c r="AG94">
-        <v>2.35</v>
-      </c>
-      <c r="AH94">
-        <v>1.53</v>
-      </c>
-      <c r="AI94">
-        <v>2.1</v>
-      </c>
-      <c r="AJ94">
-        <v>1.67</v>
-      </c>
-      <c r="AK94">
+      <c r="AP94">
+        <v>2</v>
+      </c>
+      <c r="AQ94">
+        <v>1.4</v>
+      </c>
+      <c r="AR94">
+        <v>1.16</v>
+      </c>
+      <c r="AS94">
+        <v>1.32</v>
+      </c>
+      <c r="AT94">
+        <v>2.48</v>
+      </c>
+      <c r="AU94">
+        <v>2</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>8</v>
+      </c>
+      <c r="AZ94">
+        <v>3</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>11</v>
+      </c>
+      <c r="BD94">
+        <v>1.75</v>
+      </c>
+      <c r="BE94">
+        <v>5.9</v>
+      </c>
+      <c r="BF94">
+        <v>2.6</v>
+      </c>
+      <c r="BG94">
+        <v>1.3</v>
+      </c>
+      <c r="BH94">
+        <v>3.15</v>
+      </c>
+      <c r="BI94">
+        <v>1.55</v>
+      </c>
+      <c r="BJ94">
+        <v>2.22</v>
+      </c>
+      <c r="BK94">
+        <v>2</v>
+      </c>
+      <c r="BL94">
+        <v>1.7</v>
+      </c>
+      <c r="BM94">
+        <v>2.68</v>
+      </c>
+      <c r="BN94">
+        <v>1.4</v>
+      </c>
+      <c r="BO94">
+        <v>3.8</v>
+      </c>
+      <c r="BP94">
         <v>1.22</v>
-      </c>
-      <c r="AL94">
-        <v>1.28</v>
-      </c>
-      <c r="AM94">
-        <v>1.75</v>
-      </c>
-      <c r="AN94">
-        <v>1.75</v>
-      </c>
-      <c r="AO94">
-        <v>0.67</v>
-      </c>
-      <c r="AP94">
-        <v>1.4</v>
-      </c>
-      <c r="AQ94">
-        <v>1.25</v>
-      </c>
-      <c r="AR94">
-        <v>1.35</v>
-      </c>
-      <c r="AS94">
-        <v>0.99</v>
-      </c>
-      <c r="AT94">
-        <v>2.34</v>
-      </c>
-      <c r="AU94">
-        <v>4</v>
-      </c>
-      <c r="AV94">
-        <v>4</v>
-      </c>
-      <c r="AW94">
-        <v>3</v>
-      </c>
-      <c r="AX94">
-        <v>5</v>
-      </c>
-      <c r="AY94">
-        <v>10</v>
-      </c>
-      <c r="AZ94">
-        <v>12</v>
-      </c>
-      <c r="BA94">
-        <v>4</v>
-      </c>
-      <c r="BB94">
-        <v>6</v>
-      </c>
-      <c r="BC94">
-        <v>10</v>
-      </c>
-      <c r="BD94">
-        <v>1.56</v>
-      </c>
-      <c r="BE94">
-        <v>8.5</v>
-      </c>
-      <c r="BF94">
-        <v>2.99</v>
-      </c>
-      <c r="BG94">
-        <v>1.24</v>
-      </c>
-      <c r="BH94">
-        <v>3.22</v>
-      </c>
-      <c r="BI94">
-        <v>1.49</v>
-      </c>
-      <c r="BJ94">
-        <v>2.38</v>
-      </c>
-      <c r="BK94">
-        <v>1.91</v>
-      </c>
-      <c r="BL94">
-        <v>1.8</v>
-      </c>
-      <c r="BM94">
-        <v>2.38</v>
-      </c>
-      <c r="BN94">
-        <v>1.49</v>
-      </c>
-      <c r="BO94">
-        <v>3.08</v>
-      </c>
-      <c r="BP94">
-        <v>1.26</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20401,7 +20410,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7481449</v>
+        <v>7481450</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20410,145 +20419,145 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45577.875</v>
+        <v>45578.46875</v>
       </c>
       <c r="F95">
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H95" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>3</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M95">
         <v>2</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O95" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q95">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S95">
         <v>3.75</v>
       </c>
       <c r="T95">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U95">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W95">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X95">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y95">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z95">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AA95">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AB95">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AC95">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AD95">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE95">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AF95">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="AG95">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="AH95">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="AI95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AJ95">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AK95">
         <v>1.36</v>
       </c>
       <c r="AL95">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM95">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AN95">
+        <v>2</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
         <v>2.25</v>
       </c>
-      <c r="AO95">
-        <v>1.5</v>
-      </c>
-      <c r="AP95">
-        <v>2</v>
-      </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AS95">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AT95">
-        <v>2.48</v>
+        <v>2.89</v>
       </c>
       <c r="AU95">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV95">
         <v>3</v>
       </c>
       <c r="AW95">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY95">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ95">
         <v>6</v>
@@ -20557,49 +20566,49 @@
         <v>6</v>
       </c>
       <c r="BB95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC95">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD95">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="BE95">
-        <v>5.9</v>
+        <v>6.65</v>
       </c>
       <c r="BF95">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BG95">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH95">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="BI95">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="BJ95">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="BK95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BL95">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BM95">
-        <v>2.68</v>
+        <v>2.41</v>
       </c>
       <c r="BN95">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="BO95">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BP95">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20607,7 +20616,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7481450</v>
+        <v>7481454</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20616,196 +20625,196 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45577.875</v>
+        <v>45578.46875</v>
       </c>
       <c r="F96">
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H96" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="Q96">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R96">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S96">
         <v>3.75</v>
       </c>
       <c r="T96">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="U96">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="V96">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="W96">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="X96">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="Y96">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="Z96">
-        <v>2.63</v>
+        <v>1.6</v>
       </c>
       <c r="AA96">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AB96">
-        <v>2.17</v>
+        <v>4.26</v>
       </c>
       <c r="AC96">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE96">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AF96">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG96">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AH96">
+        <v>2.25</v>
+      </c>
+      <c r="AI96">
+        <v>1.53</v>
+      </c>
+      <c r="AJ96">
+        <v>2.38</v>
+      </c>
+      <c r="AK96">
+        <v>1.3</v>
+      </c>
+      <c r="AL96">
+        <v>1.22</v>
+      </c>
+      <c r="AM96">
         <v>1.75</v>
       </c>
-      <c r="AI96">
-        <v>1.8</v>
-      </c>
-      <c r="AJ96">
-        <v>1.91</v>
-      </c>
-      <c r="AK96">
-        <v>1.36</v>
-      </c>
-      <c r="AL96">
-        <v>1.28</v>
-      </c>
-      <c r="AM96">
-        <v>1.57</v>
-      </c>
       <c r="AN96">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO96">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ96">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AS96">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AT96">
-        <v>2.89</v>
+        <v>2.76</v>
       </c>
       <c r="AU96">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AV96">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX96">
         <v>3</v>
       </c>
       <c r="AY96">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AZ96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC96">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD96">
+        <v>1.68</v>
+      </c>
+      <c r="BE96">
+        <v>7.4</v>
+      </c>
+      <c r="BF96">
+        <v>2.75</v>
+      </c>
+      <c r="BG96">
+        <v>1.15</v>
+      </c>
+      <c r="BH96">
+        <v>4.1</v>
+      </c>
+      <c r="BI96">
+        <v>1.32</v>
+      </c>
+      <c r="BJ96">
+        <v>2.78</v>
+      </c>
+      <c r="BK96">
         <v>1.8</v>
       </c>
-      <c r="BE96">
-        <v>6.65</v>
-      </c>
-      <c r="BF96">
-        <v>2.7</v>
-      </c>
-      <c r="BG96">
-        <v>1.27</v>
-      </c>
-      <c r="BH96">
-        <v>3.52</v>
-      </c>
-      <c r="BI96">
-        <v>1.5</v>
-      </c>
-      <c r="BJ96">
-        <v>2.48</v>
-      </c>
-      <c r="BK96">
-        <v>1.85</v>
-      </c>
       <c r="BL96">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BM96">
-        <v>2.41</v>
+        <v>2.06</v>
       </c>
       <c r="BN96">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="BO96">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="BP96">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20822,7 +20831,7 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45577.875</v>
+        <v>45578.5625</v>
       </c>
       <c r="F97">
         <v>9</v>
@@ -20852,7 +20861,7 @@
         <v>1</v>
       </c>
       <c r="O97" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P97" t="s">
         <v>94</v>
@@ -20954,16 +20963,16 @@
         <v>3</v>
       </c>
       <c r="AW97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY97">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ97">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA97">
         <v>5</v>
@@ -21019,7 +21028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7481454</v>
+        <v>7481444</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21028,16 +21037,16 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45577.875</v>
+        <v>45578.5625</v>
       </c>
       <c r="F98">
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -21049,175 +21058,175 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
       <c r="O98" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="P98" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q98">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>4.75</v>
+      </c>
+      <c r="T98">
+        <v>1.53</v>
+      </c>
+      <c r="U98">
         <v>2.38</v>
       </c>
-      <c r="S98">
-        <v>3.75</v>
-      </c>
-      <c r="T98">
+      <c r="V98">
+        <v>3.5</v>
+      </c>
+      <c r="W98">
         <v>1.29</v>
       </c>
-      <c r="U98">
-        <v>3.5</v>
-      </c>
-      <c r="V98">
-        <v>2.38</v>
-      </c>
-      <c r="W98">
+      <c r="X98">
+        <v>11</v>
+      </c>
+      <c r="Y98">
+        <v>1.05</v>
+      </c>
+      <c r="Z98">
+        <v>2.23</v>
+      </c>
+      <c r="AA98">
+        <v>2.98</v>
+      </c>
+      <c r="AB98">
+        <v>3.09</v>
+      </c>
+      <c r="AC98">
+        <v>1.1</v>
+      </c>
+      <c r="AD98">
+        <v>6.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.5</v>
+      </c>
+      <c r="AF98">
+        <v>2.4</v>
+      </c>
+      <c r="AG98">
+        <v>2.35</v>
+      </c>
+      <c r="AH98">
         <v>1.53</v>
       </c>
-      <c r="X98">
-        <v>5.5</v>
-      </c>
-      <c r="Y98">
-        <v>1.14</v>
-      </c>
-      <c r="Z98">
-        <v>1.6</v>
-      </c>
-      <c r="AA98">
-        <v>4</v>
-      </c>
-      <c r="AB98">
-        <v>4.26</v>
-      </c>
-      <c r="AC98">
-        <v>1.04</v>
-      </c>
-      <c r="AD98">
-        <v>10</v>
-      </c>
-      <c r="AE98">
-        <v>1.18</v>
-      </c>
-      <c r="AF98">
-        <v>4.5</v>
-      </c>
-      <c r="AG98">
-        <v>1.57</v>
-      </c>
-      <c r="AH98">
-        <v>2.25</v>
-      </c>
       <c r="AI98">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AJ98">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="AK98">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL98">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM98">
         <v>1.75</v>
       </c>
       <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>0.67</v>
+      </c>
+      <c r="AP98">
+        <v>1.4</v>
+      </c>
+      <c r="AQ98">
         <v>1.25</v>
       </c>
-      <c r="AO98">
-        <v>1.75</v>
-      </c>
-      <c r="AP98">
-        <v>1.6</v>
-      </c>
-      <c r="AQ98">
-        <v>1.17</v>
-      </c>
       <c r="AR98">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AS98">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="AT98">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="AU98">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV98">
         <v>3</v>
       </c>
       <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
         <v>11</v>
       </c>
-      <c r="AX98">
-        <v>3</v>
-      </c>
-      <c r="AY98">
-        <v>17</v>
-      </c>
       <c r="AZ98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC98">
         <v>10</v>
       </c>
       <c r="BD98">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="BE98">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF98">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="BG98">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="BH98">
-        <v>4.1</v>
+        <v>3.22</v>
       </c>
       <c r="BI98">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="BJ98">
-        <v>2.78</v>
+        <v>2.38</v>
       </c>
       <c r="BK98">
+        <v>1.91</v>
+      </c>
+      <c r="BL98">
         <v>1.8</v>
       </c>
-      <c r="BL98">
-        <v>1.91</v>
-      </c>
       <c r="BM98">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="BN98">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="BO98">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="BP98">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21345,7 +21354,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21440,13 +21449,13 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45578.875</v>
+        <v>45579.64583333334</v>
       </c>
       <c r="F100">
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s">
         <v>86</v>
@@ -21473,7 +21482,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21566,22 +21575,22 @@
         <v>3.12</v>
       </c>
       <c r="AU100">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX100">
         <v>6</v>
       </c>
       <c r="AY100">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ100">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA100">
         <v>7</v>
@@ -21646,7 +21655,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45582.875</v>
+        <v>45583.64583333334</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -21679,7 +21688,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21772,22 +21781,22 @@
         <v>2.45</v>
       </c>
       <c r="AU101">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY101">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ101">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA101">
         <v>7</v>
@@ -21843,7 +21852,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7481462</v>
+        <v>7481458</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21855,73 +21864,73 @@
         <v>45584.46875</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H102" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O102" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="Q102">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R102">
         <v>2</v>
       </c>
       <c r="S102">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="T102">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U102">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V102">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W102">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y102">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z102">
-        <v>2.67</v>
+        <v>1.93</v>
       </c>
       <c r="AA102">
-        <v>2.79</v>
+        <v>3.09</v>
       </c>
       <c r="AB102">
-        <v>2.4</v>
+        <v>3.59</v>
       </c>
       <c r="AC102">
         <v>1.08</v>
@@ -21930,118 +21939,118 @@
         <v>7.5</v>
       </c>
       <c r="AE102">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AF102">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="AG102">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AH102">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AI102">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ102">
+        <v>1.67</v>
+      </c>
+      <c r="AK102">
+        <v>1.22</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
         <v>1.8</v>
       </c>
-      <c r="AK102">
-        <v>1.45</v>
-      </c>
-      <c r="AL102">
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
+        <v>1</v>
+      </c>
+      <c r="AP102">
+        <v>1</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>1.55</v>
+      </c>
+      <c r="AS102">
+        <v>1.19</v>
+      </c>
+      <c r="AT102">
+        <v>2.74</v>
+      </c>
+      <c r="AU102">
+        <v>7</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>8</v>
+      </c>
+      <c r="AX102">
+        <v>3</v>
+      </c>
+      <c r="AY102">
+        <v>23</v>
+      </c>
+      <c r="AZ102">
+        <v>7</v>
+      </c>
+      <c r="BA102">
+        <v>16</v>
+      </c>
+      <c r="BB102">
+        <v>4</v>
+      </c>
+      <c r="BC102">
+        <v>20</v>
+      </c>
+      <c r="BD102">
+        <v>1.7</v>
+      </c>
+      <c r="BE102">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF102">
+        <v>2.69</v>
+      </c>
+      <c r="BG102">
         <v>1.3</v>
       </c>
-      <c r="AM102">
-        <v>1.45</v>
-      </c>
-      <c r="AN102">
-        <v>1.75</v>
-      </c>
-      <c r="AO102">
-        <v>1.2</v>
-      </c>
-      <c r="AP102">
-        <v>1.6</v>
-      </c>
-      <c r="AQ102">
-        <v>1.17</v>
-      </c>
-      <c r="AR102">
-        <v>1.13</v>
-      </c>
-      <c r="AS102">
-        <v>0.97</v>
-      </c>
-      <c r="AT102">
-        <v>2.1</v>
-      </c>
-      <c r="AU102">
-        <v>5</v>
-      </c>
-      <c r="AV102">
-        <v>8</v>
-      </c>
-      <c r="AW102">
-        <v>3</v>
-      </c>
-      <c r="AX102">
-        <v>7</v>
-      </c>
-      <c r="AY102">
-        <v>12</v>
-      </c>
-      <c r="AZ102">
-        <v>19</v>
-      </c>
-      <c r="BA102">
-        <v>6</v>
-      </c>
-      <c r="BB102">
-        <v>6</v>
-      </c>
-      <c r="BC102">
-        <v>12</v>
-      </c>
-      <c r="BD102">
-        <v>2.02</v>
-      </c>
-      <c r="BE102">
-        <v>8.5</v>
-      </c>
-      <c r="BF102">
-        <v>2.13</v>
-      </c>
-      <c r="BG102">
-        <v>1.35</v>
-      </c>
       <c r="BH102">
-        <v>3.02</v>
+        <v>3.32</v>
       </c>
       <c r="BI102">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="BJ102">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="BK102">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="BL102">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="BM102">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="BN102">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="BO102">
-        <v>3.58</v>
+        <v>3.25</v>
       </c>
       <c r="BP102">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22049,7 +22058,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7481458</v>
+        <v>7481462</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22061,73 +22070,73 @@
         <v>45584.46875</v>
       </c>
       <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" t="s">
+        <v>89</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>94</v>
+      </c>
+      <c r="P103" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q103">
+        <v>3.4</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>3.4</v>
+      </c>
+      <c r="T103">
+        <v>1.5</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
+        <v>3.4</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+      <c r="X103">
         <v>10</v>
       </c>
-      <c r="G103" t="s">
-        <v>75</v>
-      </c>
-      <c r="H103" t="s">
-        <v>80</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="K103">
-        <v>2</v>
-      </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <v>2</v>
-      </c>
-      <c r="O103" t="s">
-        <v>163</v>
-      </c>
-      <c r="P103" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q103">
-        <v>2.75</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>4.75</v>
-      </c>
-      <c r="T103">
-        <v>1.53</v>
-      </c>
-      <c r="U103">
-        <v>2.38</v>
-      </c>
-      <c r="V103">
-        <v>3.5</v>
-      </c>
-      <c r="W103">
-        <v>1.29</v>
-      </c>
-      <c r="X103">
-        <v>11</v>
-      </c>
       <c r="Y103">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z103">
-        <v>1.93</v>
+        <v>2.67</v>
       </c>
       <c r="AA103">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="AB103">
-        <v>3.59</v>
+        <v>2.4</v>
       </c>
       <c r="AC103">
         <v>1.08</v>
@@ -22136,118 +22145,118 @@
         <v>7.5</v>
       </c>
       <c r="AE103">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AF103">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="AG103">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AH103">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AI103">
+        <v>1.91</v>
+      </c>
+      <c r="AJ103">
+        <v>1.8</v>
+      </c>
+      <c r="AK103">
+        <v>1.45</v>
+      </c>
+      <c r="AL103">
+        <v>1.3</v>
+      </c>
+      <c r="AM103">
+        <v>1.45</v>
+      </c>
+      <c r="AN103">
+        <v>1.75</v>
+      </c>
+      <c r="AO103">
+        <v>1.2</v>
+      </c>
+      <c r="AP103">
+        <v>1.6</v>
+      </c>
+      <c r="AQ103">
+        <v>1.17</v>
+      </c>
+      <c r="AR103">
+        <v>1.13</v>
+      </c>
+      <c r="AS103">
+        <v>0.97</v>
+      </c>
+      <c r="AT103">
         <v>2.1</v>
       </c>
-      <c r="AJ103">
-        <v>1.67</v>
-      </c>
-      <c r="AK103">
-        <v>1.22</v>
-      </c>
-      <c r="AL103">
-        <v>1.28</v>
-      </c>
-      <c r="AM103">
-        <v>1.8</v>
-      </c>
-      <c r="AN103">
-        <v>1</v>
-      </c>
-      <c r="AO103">
-        <v>1</v>
-      </c>
-      <c r="AP103">
-        <v>1</v>
-      </c>
-      <c r="AQ103">
-        <v>1</v>
-      </c>
-      <c r="AR103">
-        <v>1.55</v>
-      </c>
-      <c r="AS103">
-        <v>1.21</v>
-      </c>
-      <c r="AT103">
-        <v>2.76</v>
-      </c>
       <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>8</v>
+      </c>
+      <c r="AW103">
+        <v>3</v>
+      </c>
+      <c r="AX103">
         <v>7</v>
       </c>
-      <c r="AV103">
-        <v>3</v>
-      </c>
-      <c r="AW103">
-        <v>8</v>
-      </c>
-      <c r="AX103">
-        <v>3</v>
-      </c>
       <c r="AY103">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AZ103">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BA103">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BB103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC103">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BD103">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="BE103">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="BF103">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="BG103">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="BH103">
-        <v>3.32</v>
+        <v>3.02</v>
       </c>
       <c r="BI103">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="BJ103">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="BK103">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="BL103">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BM103">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="BN103">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="BO103">
-        <v>3.25</v>
+        <v>3.58</v>
       </c>
       <c r="BP103">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22255,7 +22264,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7481461</v>
+        <v>7481457</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22270,28 +22279,28 @@
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O104" t="s">
         <v>164</v>
@@ -22300,13 +22309,13 @@
         <v>94</v>
       </c>
       <c r="Q104">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="T104">
         <v>1.5</v>
@@ -22327,25 +22336,25 @@
         <v>1.06</v>
       </c>
       <c r="Z104">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AA104">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AB104">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="AC104">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD104">
-        <v>6.85</v>
+        <v>13.5</v>
       </c>
       <c r="AE104">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AF104">
-        <v>2.64</v>
+        <v>3.68</v>
       </c>
       <c r="AG104">
         <v>2.2</v>
@@ -22354,76 +22363,76 @@
         <v>1.6</v>
       </c>
       <c r="AI104">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AJ104">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK104">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AL104">
         <v>1.25</v>
       </c>
       <c r="AM104">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AN104">
         <v>1</v>
       </c>
       <c r="AO104">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AQ104">
-        <v>0.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR104">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AS104">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AT104">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="AU104">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AV104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX104">
+        <v>8</v>
+      </c>
+      <c r="AY104">
+        <v>16</v>
+      </c>
+      <c r="AZ104">
+        <v>15</v>
+      </c>
+      <c r="BA104">
+        <v>4</v>
+      </c>
+      <c r="BB104">
         <v>6</v>
       </c>
-      <c r="AY104">
-        <v>18</v>
-      </c>
-      <c r="AZ104">
-        <v>8</v>
-      </c>
-      <c r="BA104">
-        <v>7</v>
-      </c>
-      <c r="BB104">
-        <v>1</v>
-      </c>
       <c r="BC104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD104">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="BE104">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BF104">
-        <v>3.32</v>
+        <v>2.34</v>
       </c>
       <c r="BG104">
         <v>1.32</v>
@@ -22461,7 +22470,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7481457</v>
+        <v>7481461</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22473,31 +22482,31 @@
         <v>45584.5625</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O105" t="s">
         <v>165</v>
@@ -22506,13 +22515,13 @@
         <v>94</v>
       </c>
       <c r="Q105">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="T105">
         <v>1.5</v>
@@ -22533,25 +22542,25 @@
         <v>1.06</v>
       </c>
       <c r="Z105">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AA105">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AB105">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="AC105">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD105">
-        <v>13.5</v>
+        <v>6.85</v>
       </c>
       <c r="AE105">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AF105">
-        <v>3.68</v>
+        <v>2.64</v>
       </c>
       <c r="AG105">
         <v>2.2</v>
@@ -22560,76 +22569,76 @@
         <v>1.6</v>
       </c>
       <c r="AI105">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ105">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK105">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AL105">
         <v>1.25</v>
       </c>
       <c r="AM105">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AN105">
         <v>1</v>
       </c>
       <c r="AO105">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>1.17</v>
+        <v>0.2</v>
       </c>
       <c r="AR105">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AS105">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT105">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AU105">
+        <v>12</v>
+      </c>
+      <c r="AV105">
+        <v>0</v>
+      </c>
+      <c r="AW105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
         <v>6</v>
       </c>
-      <c r="AV105">
-        <v>5</v>
-      </c>
-      <c r="AW105">
+      <c r="AY105">
+        <v>18</v>
+      </c>
+      <c r="AZ105">
+        <v>8</v>
+      </c>
+      <c r="BA105">
         <v>7</v>
       </c>
-      <c r="AX105">
+      <c r="BB105">
+        <v>1</v>
+      </c>
+      <c r="BC105">
         <v>8</v>
       </c>
-      <c r="AY105">
-        <v>16</v>
-      </c>
-      <c r="AZ105">
-        <v>15</v>
-      </c>
-      <c r="BA105">
-        <v>4</v>
-      </c>
-      <c r="BB105">
-        <v>6</v>
-      </c>
-      <c r="BC105">
-        <v>10</v>
-      </c>
       <c r="BD105">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="BE105">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF105">
-        <v>2.34</v>
+        <v>3.32</v>
       </c>
       <c r="BG105">
         <v>1.32</v>
@@ -22685,7 +22694,7 @@
         <v>71</v>
       </c>
       <c r="H106" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -22866,6 +22875,830 @@
       </c>
       <c r="BP106">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7481456</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45585.375</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>72</v>
+      </c>
+      <c r="H107" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>94</v>
+      </c>
+      <c r="P107" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q107">
+        <v>3.4</v>
+      </c>
+      <c r="R107">
+        <v>2.1</v>
+      </c>
+      <c r="S107">
+        <v>3.25</v>
+      </c>
+      <c r="T107">
+        <v>1.44</v>
+      </c>
+      <c r="U107">
+        <v>2.63</v>
+      </c>
+      <c r="V107">
+        <v>3</v>
+      </c>
+      <c r="W107">
+        <v>1.36</v>
+      </c>
+      <c r="X107">
+        <v>9</v>
+      </c>
+      <c r="Y107">
+        <v>1.07</v>
+      </c>
+      <c r="Z107">
+        <v>2.65</v>
+      </c>
+      <c r="AA107">
+        <v>3.32</v>
+      </c>
+      <c r="AB107">
+        <v>2.65</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>9</v>
+      </c>
+      <c r="AE107">
+        <v>1.28</v>
+      </c>
+      <c r="AF107">
+        <v>3.5</v>
+      </c>
+      <c r="AG107">
+        <v>2.06</v>
+      </c>
+      <c r="AH107">
+        <v>1.76</v>
+      </c>
+      <c r="AI107">
+        <v>1.8</v>
+      </c>
+      <c r="AJ107">
+        <v>1.91</v>
+      </c>
+      <c r="AK107">
+        <v>1.35</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.65</v>
+      </c>
+      <c r="AN107">
+        <v>0.6</v>
+      </c>
+      <c r="AO107">
+        <v>3</v>
+      </c>
+      <c r="AP107">
+        <v>0.5</v>
+      </c>
+      <c r="AQ107">
+        <v>3</v>
+      </c>
+      <c r="AR107">
+        <v>1.42</v>
+      </c>
+      <c r="AS107">
+        <v>1.42</v>
+      </c>
+      <c r="AT107">
+        <v>2.84</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>3</v>
+      </c>
+      <c r="AW107">
+        <v>6</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>16</v>
+      </c>
+      <c r="AZ107">
+        <v>14</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>9</v>
+      </c>
+      <c r="BC107">
+        <v>13</v>
+      </c>
+      <c r="BD107">
+        <v>1.73</v>
+      </c>
+      <c r="BE107">
+        <v>8.5</v>
+      </c>
+      <c r="BF107">
+        <v>2.63</v>
+      </c>
+      <c r="BG107">
+        <v>1.38</v>
+      </c>
+      <c r="BH107">
+        <v>2.88</v>
+      </c>
+      <c r="BI107">
+        <v>1.67</v>
+      </c>
+      <c r="BJ107">
+        <v>2.13</v>
+      </c>
+      <c r="BK107">
+        <v>2.1</v>
+      </c>
+      <c r="BL107">
+        <v>1.68</v>
+      </c>
+      <c r="BM107">
+        <v>2.77</v>
+      </c>
+      <c r="BN107">
+        <v>1.41</v>
+      </c>
+      <c r="BO107">
+        <v>3.78</v>
+      </c>
+      <c r="BP107">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7481460</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45585.46875</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>81</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>94</v>
+      </c>
+      <c r="P108" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q108">
+        <v>3.6</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>3.25</v>
+      </c>
+      <c r="T108">
+        <v>1.5</v>
+      </c>
+      <c r="U108">
+        <v>2.5</v>
+      </c>
+      <c r="V108">
+        <v>3.5</v>
+      </c>
+      <c r="W108">
+        <v>1.29</v>
+      </c>
+      <c r="X108">
+        <v>10</v>
+      </c>
+      <c r="Y108">
+        <v>1.06</v>
+      </c>
+      <c r="Z108">
+        <v>2.9</v>
+      </c>
+      <c r="AA108">
+        <v>3.2</v>
+      </c>
+      <c r="AB108">
+        <v>2.52</v>
+      </c>
+      <c r="AC108">
+        <v>1.12</v>
+      </c>
+      <c r="AD108">
+        <v>6</v>
+      </c>
+      <c r="AE108">
+        <v>1.57</v>
+      </c>
+      <c r="AF108">
+        <v>2.25</v>
+      </c>
+      <c r="AG108">
+        <v>2.31</v>
+      </c>
+      <c r="AH108">
+        <v>1.61</v>
+      </c>
+      <c r="AI108">
+        <v>1.91</v>
+      </c>
+      <c r="AJ108">
+        <v>1.8</v>
+      </c>
+      <c r="AK108">
+        <v>1.3</v>
+      </c>
+      <c r="AL108">
+        <v>1.35</v>
+      </c>
+      <c r="AM108">
+        <v>1.55</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>1.5</v>
+      </c>
+      <c r="AP108">
+        <v>1</v>
+      </c>
+      <c r="AQ108">
+        <v>1.4</v>
+      </c>
+      <c r="AR108">
+        <v>1.17</v>
+      </c>
+      <c r="AS108">
+        <v>1.02</v>
+      </c>
+      <c r="AT108">
+        <v>2.19</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>6</v>
+      </c>
+      <c r="AX108">
+        <v>7</v>
+      </c>
+      <c r="AY108">
+        <v>13</v>
+      </c>
+      <c r="AZ108">
+        <v>11</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>11</v>
+      </c>
+      <c r="BD108">
+        <v>1.72</v>
+      </c>
+      <c r="BE108">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BF108">
+        <v>2.66</v>
+      </c>
+      <c r="BG108">
+        <v>1.41</v>
+      </c>
+      <c r="BH108">
+        <v>2.77</v>
+      </c>
+      <c r="BI108">
+        <v>1.71</v>
+      </c>
+      <c r="BJ108">
+        <v>2.06</v>
+      </c>
+      <c r="BK108">
+        <v>2.17</v>
+      </c>
+      <c r="BL108">
+        <v>1.64</v>
+      </c>
+      <c r="BM108">
+        <v>2.88</v>
+      </c>
+      <c r="BN108">
+        <v>1.38</v>
+      </c>
+      <c r="BO108">
+        <v>3.98</v>
+      </c>
+      <c r="BP108">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7481459</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45585.5625</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s">
+        <v>77</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q109">
+        <v>2.88</v>
+      </c>
+      <c r="R109">
+        <v>2.05</v>
+      </c>
+      <c r="S109">
+        <v>4</v>
+      </c>
+      <c r="T109">
+        <v>1.44</v>
+      </c>
+      <c r="U109">
+        <v>2.63</v>
+      </c>
+      <c r="V109">
+        <v>3.25</v>
+      </c>
+      <c r="W109">
+        <v>1.33</v>
+      </c>
+      <c r="X109">
+        <v>10</v>
+      </c>
+      <c r="Y109">
+        <v>1.06</v>
+      </c>
+      <c r="Z109">
+        <v>2.1</v>
+      </c>
+      <c r="AA109">
+        <v>3.1</v>
+      </c>
+      <c r="AB109">
+        <v>3.1</v>
+      </c>
+      <c r="AC109">
+        <v>1.09</v>
+      </c>
+      <c r="AD109">
+        <v>7</v>
+      </c>
+      <c r="AE109">
+        <v>1.44</v>
+      </c>
+      <c r="AF109">
+        <v>2.65</v>
+      </c>
+      <c r="AG109">
+        <v>2.1</v>
+      </c>
+      <c r="AH109">
+        <v>1.65</v>
+      </c>
+      <c r="AI109">
+        <v>1.83</v>
+      </c>
+      <c r="AJ109">
+        <v>1.83</v>
+      </c>
+      <c r="AK109">
+        <v>1.22</v>
+      </c>
+      <c r="AL109">
+        <v>1.28</v>
+      </c>
+      <c r="AM109">
+        <v>1.78</v>
+      </c>
+      <c r="AN109">
+        <v>1.6</v>
+      </c>
+      <c r="AO109">
+        <v>1.25</v>
+      </c>
+      <c r="AP109">
+        <v>1.83</v>
+      </c>
+      <c r="AQ109">
+        <v>1</v>
+      </c>
+      <c r="AR109">
+        <v>1.4</v>
+      </c>
+      <c r="AS109">
+        <v>1.1</v>
+      </c>
+      <c r="AT109">
+        <v>2.5</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>5</v>
+      </c>
+      <c r="AX109">
+        <v>5</v>
+      </c>
+      <c r="AY109">
+        <v>13</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>8</v>
+      </c>
+      <c r="BD109">
+        <v>1.64</v>
+      </c>
+      <c r="BE109">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF109">
+        <v>2.86</v>
+      </c>
+      <c r="BG109">
+        <v>1.35</v>
+      </c>
+      <c r="BH109">
+        <v>3.02</v>
+      </c>
+      <c r="BI109">
+        <v>1.62</v>
+      </c>
+      <c r="BJ109">
+        <v>2.22</v>
+      </c>
+      <c r="BK109">
+        <v>2.02</v>
+      </c>
+      <c r="BL109">
+        <v>1.74</v>
+      </c>
+      <c r="BM109">
+        <v>2.63</v>
+      </c>
+      <c r="BN109">
+        <v>1.45</v>
+      </c>
+      <c r="BO109">
+        <v>3.58</v>
+      </c>
+      <c r="BP109">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7481463</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45585.5625</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s">
+        <v>90</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>108</v>
+      </c>
+      <c r="P110" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q110">
+        <v>2.3</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>8</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>2.1</v>
+      </c>
+      <c r="AA110">
+        <v>3.3</v>
+      </c>
+      <c r="AB110">
+        <v>3</v>
+      </c>
+      <c r="AC110">
+        <v>1.06</v>
+      </c>
+      <c r="AD110">
+        <v>8.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.28</v>
+      </c>
+      <c r="AF110">
+        <v>3.5</v>
+      </c>
+      <c r="AG110">
+        <v>1.91</v>
+      </c>
+      <c r="AH110">
+        <v>1.83</v>
+      </c>
+      <c r="AI110">
+        <v>1.83</v>
+      </c>
+      <c r="AJ110">
+        <v>1.83</v>
+      </c>
+      <c r="AK110">
+        <v>1.35</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.66</v>
+      </c>
+      <c r="AN110">
+        <v>2</v>
+      </c>
+      <c r="AO110">
+        <v>0.8</v>
+      </c>
+      <c r="AP110">
+        <v>1.5</v>
+      </c>
+      <c r="AQ110">
+        <v>1.17</v>
+      </c>
+      <c r="AR110">
+        <v>1.96</v>
+      </c>
+      <c r="AS110">
+        <v>1.45</v>
+      </c>
+      <c r="AT110">
+        <v>3.41</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>6</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>15</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>9</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
+      <c r="BC110">
+        <v>10</v>
+      </c>
+      <c r="BD110">
+        <v>1.75</v>
+      </c>
+      <c r="BE110">
+        <v>8.65</v>
+      </c>
+      <c r="BF110">
+        <v>2.58</v>
+      </c>
+      <c r="BG110">
+        <v>1.3</v>
+      </c>
+      <c r="BH110">
+        <v>3.32</v>
+      </c>
+      <c r="BI110">
+        <v>1.53</v>
+      </c>
+      <c r="BJ110">
+        <v>2.4</v>
+      </c>
+      <c r="BK110">
+        <v>1.89</v>
+      </c>
+      <c r="BL110">
+        <v>1.85</v>
+      </c>
+      <c r="BM110">
+        <v>2.42</v>
+      </c>
+      <c r="BN110">
+        <v>1.52</v>
+      </c>
+      <c r="BO110">
+        <v>3.25</v>
+      </c>
+      <c r="BP110">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>['49', '66']</t>
+  </si>
+  <si>
+    <t>['26', '32']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -1035,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1297,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1706,7 +1709,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1912,7 +1915,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2324,7 +2327,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2530,7 +2533,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2736,7 +2739,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2942,7 +2945,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3148,7 +3151,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3354,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3560,7 +3563,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3766,7 +3769,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4796,7 +4799,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5080,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.75</v>
@@ -5414,7 +5417,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5620,7 +5623,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5701,7 +5704,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5826,7 +5829,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6032,7 +6035,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6238,7 +6241,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6650,7 +6653,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6856,7 +6859,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7268,7 +7271,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7680,7 +7683,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8092,7 +8095,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8298,7 +8301,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8585,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8710,7 +8713,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9946,7 +9949,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10230,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10564,7 +10567,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12212,7 +12215,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12418,7 +12421,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12624,7 +12627,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12830,7 +12833,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13036,7 +13039,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13117,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
         <v>1.47</v>
@@ -13860,7 +13863,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14066,7 +14069,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14478,7 +14481,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14890,7 +14893,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14968,7 +14971,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15096,7 +15099,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15714,7 +15717,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15920,7 +15923,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16126,7 +16129,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16332,7 +16335,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16950,7 +16953,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17156,7 +17159,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17568,7 +17571,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17774,7 +17777,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18061,7 +18064,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18186,7 +18189,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18804,7 +18807,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19216,7 +19219,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19294,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>0.2</v>
@@ -19422,7 +19425,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20040,7 +20043,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20246,7 +20249,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20452,7 +20455,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21482,7 +21485,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21688,7 +21691,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21894,7 +21897,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -21981,10 +21984,10 @@
         <v>1.55</v>
       </c>
       <c r="AS102">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AT102">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22393,10 +22396,10 @@
         <v>1.64</v>
       </c>
       <c r="AS104">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AT104">
-        <v>2.87</v>
+        <v>2.76</v>
       </c>
       <c r="AU104">
         <v>6</v>
@@ -22596,13 +22599,13 @@
         <v>0.2</v>
       </c>
       <c r="AR105">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS105">
         <v>1.14</v>
       </c>
       <c r="AT105">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="AU105">
         <v>12</v>
@@ -22891,7 +22894,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45585.375</v>
+        <v>45584.875</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -22924,7 +22927,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23008,13 +23011,13 @@
         <v>3</v>
       </c>
       <c r="AR107">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AS107">
         <v>1.42</v>
       </c>
       <c r="AT107">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23088,7 +23091,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7481460</v>
+        <v>7481459</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23097,16 +23100,16 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45585.46875</v>
+        <v>45584.875</v>
       </c>
       <c r="F108">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -23118,40 +23121,40 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O108" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="Q108">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S108">
+        <v>4</v>
+      </c>
+      <c r="T108">
+        <v>1.44</v>
+      </c>
+      <c r="U108">
+        <v>2.63</v>
+      </c>
+      <c r="V108">
         <v>3.25</v>
       </c>
-      <c r="T108">
-        <v>1.5</v>
-      </c>
-      <c r="U108">
-        <v>2.5</v>
-      </c>
-      <c r="V108">
-        <v>3.5</v>
-      </c>
       <c r="W108">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X108">
         <v>10</v>
@@ -23160,67 +23163,67 @@
         <v>1.06</v>
       </c>
       <c r="Z108">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="AA108">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB108">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="AC108">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AD108">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE108">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AF108">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="AG108">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="AH108">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AI108">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ108">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK108">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL108">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AM108">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AN108">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO108">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
         <v>1.4</v>
       </c>
-      <c r="AR108">
-        <v>1.17</v>
-      </c>
       <c r="AS108">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="AT108">
-        <v>2.19</v>
+        <v>2.5</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23229,64 +23232,64 @@
         <v>3</v>
       </c>
       <c r="AW108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY108">
         <v>13</v>
       </c>
       <c r="AZ108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA108">
+        <v>4</v>
+      </c>
+      <c r="BB108">
+        <v>4</v>
+      </c>
+      <c r="BC108">
         <v>8</v>
       </c>
-      <c r="BB108">
-        <v>3</v>
-      </c>
-      <c r="BC108">
-        <v>11</v>
-      </c>
       <c r="BD108">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="BE108">
-        <v>8.449999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF108">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="BG108">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BH108">
-        <v>2.77</v>
+        <v>3.02</v>
       </c>
       <c r="BI108">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="BJ108">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="BK108">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="BL108">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="BM108">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="BN108">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BO108">
-        <v>3.98</v>
+        <v>3.58</v>
       </c>
       <c r="BP108">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23294,7 +23297,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7481459</v>
+        <v>7481460</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23303,16 +23306,16 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45585.5625</v>
+        <v>45584.875</v>
       </c>
       <c r="F109">
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H109" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -23324,40 +23327,40 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="P109" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q109">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="R109">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T109">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U109">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W109">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X109">
         <v>10</v>
@@ -23366,67 +23369,67 @@
         <v>1.06</v>
       </c>
       <c r="Z109">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AA109">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB109">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="AC109">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AD109">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE109">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AF109">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="AG109">
-        <v>2.1</v>
+        <v>2.31</v>
       </c>
       <c r="AH109">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AI109">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ109">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK109">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AL109">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AM109">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AN109">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO109">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR109">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AS109">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="AT109">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23435,64 +23438,64 @@
         <v>3</v>
       </c>
       <c r="AW109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX109">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY109">
         <v>13</v>
       </c>
       <c r="AZ109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA109">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC109">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD109">
+        <v>1.72</v>
+      </c>
+      <c r="BE109">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BF109">
+        <v>2.66</v>
+      </c>
+      <c r="BG109">
+        <v>1.41</v>
+      </c>
+      <c r="BH109">
+        <v>2.77</v>
+      </c>
+      <c r="BI109">
+        <v>1.71</v>
+      </c>
+      <c r="BJ109">
+        <v>2.06</v>
+      </c>
+      <c r="BK109">
+        <v>2.17</v>
+      </c>
+      <c r="BL109">
         <v>1.64</v>
       </c>
-      <c r="BE109">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF109">
-        <v>2.86</v>
-      </c>
-      <c r="BG109">
-        <v>1.35</v>
-      </c>
-      <c r="BH109">
-        <v>3.02</v>
-      </c>
-      <c r="BI109">
-        <v>1.62</v>
-      </c>
-      <c r="BJ109">
-        <v>2.22</v>
-      </c>
-      <c r="BK109">
-        <v>2.02</v>
-      </c>
-      <c r="BL109">
-        <v>1.74</v>
-      </c>
       <c r="BM109">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="BN109">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BO109">
-        <v>3.58</v>
+        <v>3.98</v>
       </c>
       <c r="BP109">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23509,7 +23512,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45585.5625</v>
+        <v>45584.875</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -23542,7 +23545,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23629,10 +23632,10 @@
         <v>1.96</v>
       </c>
       <c r="AS110">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AT110">
-        <v>3.41</v>
+        <v>3.26</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -23699,6 +23702,212 @@
       </c>
       <c r="BP110">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7481455</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45586.64583333334</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>85</v>
+      </c>
+      <c r="H111" t="s">
+        <v>78</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q111">
+        <v>3.1</v>
+      </c>
+      <c r="R111">
+        <v>2.05</v>
+      </c>
+      <c r="S111">
+        <v>3.6</v>
+      </c>
+      <c r="T111">
+        <v>1.44</v>
+      </c>
+      <c r="U111">
+        <v>2.63</v>
+      </c>
+      <c r="V111">
+        <v>3.25</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>9</v>
+      </c>
+      <c r="Y111">
+        <v>1.07</v>
+      </c>
+      <c r="Z111">
+        <v>1.98</v>
+      </c>
+      <c r="AA111">
+        <v>3.4</v>
+      </c>
+      <c r="AB111">
+        <v>3.45</v>
+      </c>
+      <c r="AC111">
+        <v>1.06</v>
+      </c>
+      <c r="AD111">
+        <v>8.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.3</v>
+      </c>
+      <c r="AF111">
+        <v>3.3</v>
+      </c>
+      <c r="AG111">
+        <v>2.01</v>
+      </c>
+      <c r="AH111">
+        <v>1.83</v>
+      </c>
+      <c r="AI111">
+        <v>1.83</v>
+      </c>
+      <c r="AJ111">
+        <v>1.83</v>
+      </c>
+      <c r="AK111">
+        <v>1.3</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>1.72</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
+        <v>1.75</v>
+      </c>
+      <c r="AP111">
+        <v>1.4</v>
+      </c>
+      <c r="AQ111">
+        <v>1.4</v>
+      </c>
+      <c r="AR111">
+        <v>1.54</v>
+      </c>
+      <c r="AS111">
+        <v>1.44</v>
+      </c>
+      <c r="AT111">
+        <v>2.98</v>
+      </c>
+      <c r="AU111">
+        <v>10</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
+        <v>6</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>18</v>
+      </c>
+      <c r="AZ111">
+        <v>14</v>
+      </c>
+      <c r="BA111">
+        <v>2</v>
+      </c>
+      <c r="BB111">
+        <v>7</v>
+      </c>
+      <c r="BC111">
+        <v>9</v>
+      </c>
+      <c r="BD111">
+        <v>1.79</v>
+      </c>
+      <c r="BE111">
+        <v>8.6</v>
+      </c>
+      <c r="BF111">
+        <v>2.5</v>
+      </c>
+      <c r="BG111">
+        <v>1.32</v>
+      </c>
+      <c r="BH111">
+        <v>3.2</v>
+      </c>
+      <c r="BI111">
+        <v>1.56</v>
+      </c>
+      <c r="BJ111">
+        <v>2.32</v>
+      </c>
+      <c r="BK111">
+        <v>1.94</v>
+      </c>
+      <c r="BL111">
+        <v>1.81</v>
+      </c>
+      <c r="BM111">
+        <v>2.5</v>
+      </c>
+      <c r="BN111">
+        <v>1.49</v>
+      </c>
+      <c r="BO111">
+        <v>3.35</v>
+      </c>
+      <c r="BP111">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,12 @@
     <t>['26', '32']</t>
   </si>
   <si>
+    <t>['41', '45+3', '73', '82']</t>
+  </si>
+  <si>
+    <t>['33', '35']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -677,6 +683,9 @@
   </si>
   <si>
     <t>['9', '67']</t>
+  </si>
+  <si>
+    <t>['26', '49', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1306,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1709,7 +1718,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1915,7 +1924,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2327,7 +2336,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2533,7 +2542,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2739,7 +2748,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2945,7 +2954,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3151,7 +3160,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3357,7 +3366,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3563,7 +3572,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3769,7 +3778,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4262,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4674,7 +4683,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4799,7 +4808,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5289,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
         <v>1.17</v>
@@ -5417,7 +5426,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5623,7 +5632,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5829,7 +5838,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6035,7 +6044,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6113,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -6241,7 +6250,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6653,7 +6662,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6859,7 +6868,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7271,7 +7280,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7683,7 +7692,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8095,7 +8104,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8301,7 +8310,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8713,7 +8722,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9206,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9949,7 +9958,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10027,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>1.75</v>
@@ -10567,7 +10576,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11675,7 +11684,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -12215,7 +12224,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12296,7 +12305,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12421,7 +12430,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12627,7 +12636,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12833,7 +12842,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13039,7 +13048,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13863,7 +13872,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -13941,7 +13950,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63">
         <v>3</v>
@@ -14069,7 +14078,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14356,7 +14365,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14481,7 +14490,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14893,7 +14902,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15099,7 +15108,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15717,7 +15726,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15923,7 +15932,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16129,7 +16138,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16210,7 +16219,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR74">
         <v>1.54</v>
@@ -16335,7 +16344,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16413,7 +16422,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75">
         <v>0.2</v>
@@ -16825,7 +16834,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16953,7 +16962,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17159,7 +17168,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17571,7 +17580,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17777,7 +17786,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -17858,7 +17867,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR82">
         <v>1.07</v>
@@ -18189,7 +18198,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18807,7 +18816,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19219,7 +19228,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19425,7 +19434,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20043,7 +20052,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20249,7 +20258,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20455,7 +20464,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20533,7 +20542,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ95">
         <v>1.17</v>
@@ -21154,7 +21163,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21485,7 +21494,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21691,7 +21700,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21897,7 +21906,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22387,7 +22396,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
         <v>1.17</v>
@@ -22927,7 +22936,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23545,7 +23554,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23718,7 +23727,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45586.64583333334</v>
+        <v>45585.875</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -23908,6 +23917,418 @@
       </c>
       <c r="BP111">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7481476</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45586.875</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>89</v>
+      </c>
+      <c r="H112" t="s">
+        <v>71</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q112">
+        <v>2.45</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>5.5</v>
+      </c>
+      <c r="T112">
+        <v>1.55</v>
+      </c>
+      <c r="U112">
+        <v>2.32</v>
+      </c>
+      <c r="V112">
+        <v>3.7</v>
+      </c>
+      <c r="W112">
+        <v>1.24</v>
+      </c>
+      <c r="X112">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y112">
+        <v>1.03</v>
+      </c>
+      <c r="Z112">
+        <v>1.68</v>
+      </c>
+      <c r="AA112">
+        <v>3.2</v>
+      </c>
+      <c r="AB112">
+        <v>5.98</v>
+      </c>
+      <c r="AC112">
+        <v>1.09</v>
+      </c>
+      <c r="AD112">
+        <v>7</v>
+      </c>
+      <c r="AE112">
+        <v>1.48</v>
+      </c>
+      <c r="AF112">
+        <v>2.37</v>
+      </c>
+      <c r="AG112">
+        <v>2.94</v>
+      </c>
+      <c r="AH112">
+        <v>1.35</v>
+      </c>
+      <c r="AI112">
+        <v>2.38</v>
+      </c>
+      <c r="AJ112">
+        <v>1.53</v>
+      </c>
+      <c r="AK112">
+        <v>1.12</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>2.05</v>
+      </c>
+      <c r="AN112">
+        <v>2.25</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>2.4</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.61</v>
+      </c>
+      <c r="AS112">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT112">
+        <v>2.55</v>
+      </c>
+      <c r="AU112">
+        <v>9</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>17</v>
+      </c>
+      <c r="AZ112">
+        <v>6</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>8</v>
+      </c>
+      <c r="BD112">
+        <v>1.28</v>
+      </c>
+      <c r="BE112">
+        <v>7.2</v>
+      </c>
+      <c r="BF112">
+        <v>4.75</v>
+      </c>
+      <c r="BG112">
+        <v>1.26</v>
+      </c>
+      <c r="BH112">
+        <v>3.4</v>
+      </c>
+      <c r="BI112">
+        <v>1.5</v>
+      </c>
+      <c r="BJ112">
+        <v>2.4</v>
+      </c>
+      <c r="BK112">
+        <v>1.9</v>
+      </c>
+      <c r="BL112">
+        <v>1.8</v>
+      </c>
+      <c r="BM112">
+        <v>2.5</v>
+      </c>
+      <c r="BN112">
+        <v>1.46</v>
+      </c>
+      <c r="BO112">
+        <v>3.5</v>
+      </c>
+      <c r="BP112">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7481468</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45587.66666666666</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113" t="s">
+        <v>169</v>
+      </c>
+      <c r="P113" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q113">
+        <v>2.65</v>
+      </c>
+      <c r="R113">
+        <v>2.15</v>
+      </c>
+      <c r="S113">
+        <v>3.75</v>
+      </c>
+      <c r="T113">
+        <v>1.35</v>
+      </c>
+      <c r="U113">
+        <v>2.95</v>
+      </c>
+      <c r="V113">
+        <v>2.65</v>
+      </c>
+      <c r="W113">
+        <v>1.42</v>
+      </c>
+      <c r="X113">
+        <v>6.45</v>
+      </c>
+      <c r="Y113">
+        <v>1.09</v>
+      </c>
+      <c r="Z113">
+        <v>2.35</v>
+      </c>
+      <c r="AA113">
+        <v>3.4</v>
+      </c>
+      <c r="AB113">
+        <v>2.81</v>
+      </c>
+      <c r="AC113">
+        <v>1.05</v>
+      </c>
+      <c r="AD113">
+        <v>9.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.25</v>
+      </c>
+      <c r="AF113">
+        <v>3.75</v>
+      </c>
+      <c r="AG113">
+        <v>1.72</v>
+      </c>
+      <c r="AH113">
+        <v>2</v>
+      </c>
+      <c r="AI113">
+        <v>1.62</v>
+      </c>
+      <c r="AJ113">
+        <v>2.2</v>
+      </c>
+      <c r="AK113">
+        <v>1.3</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>1.75</v>
+      </c>
+      <c r="AN113">
+        <v>1.4</v>
+      </c>
+      <c r="AO113">
+        <v>2</v>
+      </c>
+      <c r="AP113">
+        <v>1.17</v>
+      </c>
+      <c r="AQ113">
+        <v>2.2</v>
+      </c>
+      <c r="AR113">
+        <v>1.63</v>
+      </c>
+      <c r="AS113">
+        <v>1.12</v>
+      </c>
+      <c r="AT113">
+        <v>2.75</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>6</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>3</v>
+      </c>
+      <c r="AY113">
+        <v>12</v>
+      </c>
+      <c r="AZ113">
+        <v>12</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>1</v>
+      </c>
+      <c r="BC113">
+        <v>7</v>
+      </c>
+      <c r="BD113">
+        <v>1.8</v>
+      </c>
+      <c r="BE113">
+        <v>5.9</v>
+      </c>
+      <c r="BF113">
+        <v>2.5</v>
+      </c>
+      <c r="BG113">
+        <v>1.22</v>
+      </c>
+      <c r="BH113">
+        <v>3.35</v>
+      </c>
+      <c r="BI113">
+        <v>1.45</v>
+      </c>
+      <c r="BJ113">
+        <v>2.48</v>
+      </c>
+      <c r="BK113">
+        <v>1.83</v>
+      </c>
+      <c r="BL113">
+        <v>1.91</v>
+      </c>
+      <c r="BM113">
+        <v>2.3</v>
+      </c>
+      <c r="BN113">
+        <v>1.52</v>
+      </c>
+      <c r="BO113">
+        <v>3.02</v>
+      </c>
+      <c r="BP113">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,10 +520,16 @@
     <t>['26', '32']</t>
   </si>
   <si>
+    <t>['33', '35']</t>
+  </si>
+  <si>
     <t>['41', '45+3', '73', '82']</t>
   </si>
   <si>
-    <t>['33', '35']</t>
+    <t>['11', '72']</t>
+  </si>
+  <si>
+    <t>['73', '87']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -686,6 +692,9 @@
   </si>
   <si>
     <t>['26', '49', '90+3']</t>
+  </si>
+  <si>
+    <t>['34', '45+4', '80']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1315,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1593,7 +1602,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1718,7 +1727,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1799,7 +1808,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1924,7 +1933,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2208,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
         <v>1.8</v>
@@ -2336,7 +2345,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2542,7 +2551,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2620,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8">
         <v>1.17</v>
@@ -2748,7 +2757,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2954,7 +2963,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3160,7 +3169,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3366,7 +3375,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3444,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
         <v>0.2</v>
@@ -3572,7 +3581,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3650,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3778,7 +3787,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4477,7 +4486,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4808,7 +4817,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5095,7 +5104,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5426,7 +5435,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5504,10 +5513,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5632,7 +5641,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5838,7 +5847,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6044,7 +6053,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6250,7 +6259,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6662,7 +6671,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6868,7 +6877,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7280,7 +7289,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7358,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7567,7 +7576,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7692,7 +7701,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7770,7 +7779,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
         <v>1.17</v>
@@ -7979,7 +7988,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ34">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8104,7 +8113,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8310,7 +8319,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8722,7 +8731,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9418,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ41">
         <v>1.17</v>
@@ -9624,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
         <v>1.17</v>
@@ -9833,7 +9842,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -9958,7 +9967,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10039,7 +10048,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10576,7 +10585,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10860,7 +10869,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48">
         <v>0.2</v>
@@ -11272,7 +11281,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -12099,7 +12108,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12224,7 +12233,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12430,7 +12439,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12636,7 +12645,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12842,7 +12851,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13048,7 +13057,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13332,7 +13341,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60">
         <v>1.17</v>
@@ -13872,7 +13881,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14078,7 +14087,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14156,10 +14165,10 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ64">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR64">
         <v>1.13</v>
@@ -14490,7 +14499,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14777,7 +14786,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -14902,7 +14911,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15108,7 +15117,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15601,7 +15610,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -15726,7 +15735,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15807,7 +15816,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -15932,7 +15941,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16138,7 +16147,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16344,7 +16353,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16962,7 +16971,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17040,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17168,7 +17177,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17249,7 +17258,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR79">
         <v>1.18</v>
@@ -17455,7 +17464,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17580,7 +17589,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17658,7 +17667,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17786,7 +17795,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18198,7 +18207,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18816,7 +18825,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18894,7 +18903,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ87">
         <v>1.8</v>
@@ -19228,7 +19237,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19309,7 +19318,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19434,7 +19443,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19515,7 +19524,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -19718,7 +19727,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -19924,7 +19933,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20052,7 +20061,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20258,7 +20267,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20464,7 +20473,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20748,7 +20757,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ96">
         <v>1.17</v>
@@ -20957,7 +20966,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21494,7 +21503,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21700,7 +21709,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21906,7 +21915,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22903,7 +22912,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45584.875</v>
+        <v>45585.375</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -22936,7 +22945,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23032,19 +23041,19 @@
         <v>5</v>
       </c>
       <c r="AV107">
+        <v>2</v>
+      </c>
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
         <v>3</v>
       </c>
-      <c r="AW107">
-        <v>6</v>
-      </c>
-      <c r="AX107">
+      <c r="AY107">
+        <v>9</v>
+      </c>
+      <c r="AZ107">
         <v>5</v>
-      </c>
-      <c r="AY107">
-        <v>16</v>
-      </c>
-      <c r="AZ107">
-        <v>14</v>
       </c>
       <c r="BA107">
         <v>4</v>
@@ -23100,7 +23109,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7481459</v>
+        <v>7481460</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23109,16 +23118,16 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45584.875</v>
+        <v>45585.46875</v>
       </c>
       <c r="F108">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -23130,40 +23139,40 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="P108" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q108">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="R108">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T108">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U108">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V108">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W108">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X108">
         <v>10</v>
@@ -23172,133 +23181,133 @@
         <v>1.06</v>
       </c>
       <c r="Z108">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AA108">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB108">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="AC108">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AD108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE108">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AF108">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="AG108">
-        <v>2.1</v>
+        <v>2.31</v>
       </c>
       <c r="AH108">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AI108">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ108">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK108">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AL108">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AM108">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AN108">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO108">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR108">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AS108">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="AT108">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="AU108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV108">
         <v>3</v>
       </c>
       <c r="AW108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX108">
         <v>5</v>
       </c>
       <c r="AY108">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC108">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD108">
+        <v>1.72</v>
+      </c>
+      <c r="BE108">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BF108">
+        <v>2.66</v>
+      </c>
+      <c r="BG108">
+        <v>1.41</v>
+      </c>
+      <c r="BH108">
+        <v>2.77</v>
+      </c>
+      <c r="BI108">
+        <v>1.71</v>
+      </c>
+      <c r="BJ108">
+        <v>2.06</v>
+      </c>
+      <c r="BK108">
+        <v>2.17</v>
+      </c>
+      <c r="BL108">
         <v>1.64</v>
       </c>
-      <c r="BE108">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF108">
-        <v>2.86</v>
-      </c>
-      <c r="BG108">
-        <v>1.35</v>
-      </c>
-      <c r="BH108">
-        <v>3.02</v>
-      </c>
-      <c r="BI108">
-        <v>1.62</v>
-      </c>
-      <c r="BJ108">
-        <v>2.22</v>
-      </c>
-      <c r="BK108">
-        <v>2.02</v>
-      </c>
-      <c r="BL108">
-        <v>1.74</v>
-      </c>
       <c r="BM108">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="BN108">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BO108">
-        <v>3.58</v>
+        <v>3.98</v>
       </c>
       <c r="BP108">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23306,7 +23315,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7481460</v>
+        <v>7481459</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23315,16 +23324,16 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45584.875</v>
+        <v>45585.5625</v>
       </c>
       <c r="F109">
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H109" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -23336,40 +23345,40 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O109" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="Q109">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S109">
+        <v>4</v>
+      </c>
+      <c r="T109">
+        <v>1.44</v>
+      </c>
+      <c r="U109">
+        <v>2.63</v>
+      </c>
+      <c r="V109">
         <v>3.25</v>
       </c>
-      <c r="T109">
-        <v>1.5</v>
-      </c>
-      <c r="U109">
-        <v>2.5</v>
-      </c>
-      <c r="V109">
-        <v>3.5</v>
-      </c>
       <c r="W109">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X109">
         <v>10</v>
@@ -23378,133 +23387,133 @@
         <v>1.06</v>
       </c>
       <c r="Z109">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="AA109">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB109">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="AC109">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AD109">
+        <v>7</v>
+      </c>
+      <c r="AE109">
+        <v>1.44</v>
+      </c>
+      <c r="AF109">
+        <v>2.65</v>
+      </c>
+      <c r="AG109">
+        <v>2.1</v>
+      </c>
+      <c r="AH109">
+        <v>1.65</v>
+      </c>
+      <c r="AI109">
+        <v>1.83</v>
+      </c>
+      <c r="AJ109">
+        <v>1.83</v>
+      </c>
+      <c r="AK109">
+        <v>1.22</v>
+      </c>
+      <c r="AL109">
+        <v>1.28</v>
+      </c>
+      <c r="AM109">
+        <v>1.78</v>
+      </c>
+      <c r="AN109">
+        <v>1.6</v>
+      </c>
+      <c r="AO109">
+        <v>1.25</v>
+      </c>
+      <c r="AP109">
+        <v>1.83</v>
+      </c>
+      <c r="AQ109">
+        <v>1</v>
+      </c>
+      <c r="AR109">
+        <v>1.4</v>
+      </c>
+      <c r="AS109">
+        <v>1.1</v>
+      </c>
+      <c r="AT109">
+        <v>2.5</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>5</v>
+      </c>
+      <c r="AY109">
         <v>6</v>
       </c>
-      <c r="AE109">
-        <v>1.57</v>
-      </c>
-      <c r="AF109">
-        <v>2.25</v>
-      </c>
-      <c r="AG109">
-        <v>2.31</v>
-      </c>
-      <c r="AH109">
-        <v>1.61</v>
-      </c>
-      <c r="AI109">
-        <v>1.91</v>
-      </c>
-      <c r="AJ109">
-        <v>1.8</v>
-      </c>
-      <c r="AK109">
-        <v>1.3</v>
-      </c>
-      <c r="AL109">
+      <c r="AZ109">
+        <v>7</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>8</v>
+      </c>
+      <c r="BD109">
+        <v>1.64</v>
+      </c>
+      <c r="BE109">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF109">
+        <v>2.86</v>
+      </c>
+      <c r="BG109">
         <v>1.35</v>
       </c>
-      <c r="AM109">
-        <v>1.55</v>
-      </c>
-      <c r="AN109">
-        <v>1</v>
-      </c>
-      <c r="AO109">
-        <v>1.5</v>
-      </c>
-      <c r="AP109">
-        <v>1</v>
-      </c>
-      <c r="AQ109">
-        <v>1.4</v>
-      </c>
-      <c r="AR109">
-        <v>1.17</v>
-      </c>
-      <c r="AS109">
-        <v>1.02</v>
-      </c>
-      <c r="AT109">
-        <v>2.19</v>
-      </c>
-      <c r="AU109">
-        <v>5</v>
-      </c>
-      <c r="AV109">
-        <v>3</v>
-      </c>
-      <c r="AW109">
-        <v>6</v>
-      </c>
-      <c r="AX109">
-        <v>7</v>
-      </c>
-      <c r="AY109">
-        <v>13</v>
-      </c>
-      <c r="AZ109">
-        <v>11</v>
-      </c>
-      <c r="BA109">
-        <v>8</v>
-      </c>
-      <c r="BB109">
-        <v>3</v>
-      </c>
-      <c r="BC109">
-        <v>11</v>
-      </c>
-      <c r="BD109">
-        <v>1.72</v>
-      </c>
-      <c r="BE109">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="BF109">
-        <v>2.66</v>
-      </c>
-      <c r="BG109">
-        <v>1.41</v>
-      </c>
       <c r="BH109">
-        <v>2.77</v>
+        <v>3.02</v>
       </c>
       <c r="BI109">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="BJ109">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="BK109">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="BL109">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="BM109">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="BN109">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BO109">
-        <v>3.98</v>
+        <v>3.58</v>
       </c>
       <c r="BP109">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23521,7 +23530,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45584.875</v>
+        <v>45585.5625</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -23554,7 +23563,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23650,28 +23659,28 @@
         <v>4</v>
       </c>
       <c r="AV110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW110">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX110">
         <v>3</v>
       </c>
       <c r="AY110">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ110">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA110">
+        <v>8</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
+      <c r="BC110">
         <v>9</v>
-      </c>
-      <c r="BB110">
-        <v>1</v>
-      </c>
-      <c r="BC110">
-        <v>10</v>
       </c>
       <c r="BD110">
         <v>1.75</v>
@@ -23727,7 +23736,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45585.875</v>
+        <v>45586.64583333334</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -23924,7 +23933,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7481476</v>
+        <v>7481468</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23939,25 +23948,25 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N112">
         <v>5</v>
@@ -23966,163 +23975,163 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q112">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S112">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T112">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="U112">
-        <v>2.32</v>
+        <v>2.95</v>
       </c>
       <c r="V112">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="W112">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="X112">
-        <v>9.949999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="Y112">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="Z112">
-        <v>1.68</v>
+        <v>2.35</v>
       </c>
       <c r="AA112">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB112">
-        <v>5.98</v>
+        <v>2.81</v>
       </c>
       <c r="AC112">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AD112">
+        <v>9.5</v>
+      </c>
+      <c r="AE112">
+        <v>1.25</v>
+      </c>
+      <c r="AF112">
+        <v>3.75</v>
+      </c>
+      <c r="AG112">
+        <v>1.72</v>
+      </c>
+      <c r="AH112">
+        <v>2</v>
+      </c>
+      <c r="AI112">
+        <v>1.62</v>
+      </c>
+      <c r="AJ112">
+        <v>2.2</v>
+      </c>
+      <c r="AK112">
+        <v>1.3</v>
+      </c>
+      <c r="AL112">
+        <v>1.22</v>
+      </c>
+      <c r="AM112">
+        <v>1.75</v>
+      </c>
+      <c r="AN112">
+        <v>1.4</v>
+      </c>
+      <c r="AO112">
+        <v>2</v>
+      </c>
+      <c r="AP112">
+        <v>1.17</v>
+      </c>
+      <c r="AQ112">
+        <v>2.2</v>
+      </c>
+      <c r="AR112">
+        <v>1.63</v>
+      </c>
+      <c r="AS112">
+        <v>1.12</v>
+      </c>
+      <c r="AT112">
+        <v>2.75</v>
+      </c>
+      <c r="AU112">
+        <v>5</v>
+      </c>
+      <c r="AV112">
+        <v>6</v>
+      </c>
+      <c r="AW112">
+        <v>4</v>
+      </c>
+      <c r="AX112">
+        <v>3</v>
+      </c>
+      <c r="AY112">
+        <v>12</v>
+      </c>
+      <c r="AZ112">
+        <v>12</v>
+      </c>
+      <c r="BA112">
+        <v>6</v>
+      </c>
+      <c r="BB112">
+        <v>1</v>
+      </c>
+      <c r="BC112">
         <v>7</v>
       </c>
-      <c r="AE112">
-        <v>1.48</v>
-      </c>
-      <c r="AF112">
-        <v>2.37</v>
-      </c>
-      <c r="AG112">
-        <v>2.94</v>
-      </c>
-      <c r="AH112">
-        <v>1.35</v>
-      </c>
-      <c r="AI112">
-        <v>2.38</v>
-      </c>
-      <c r="AJ112">
-        <v>1.53</v>
-      </c>
-      <c r="AK112">
-        <v>1.12</v>
-      </c>
-      <c r="AL112">
-        <v>1.25</v>
-      </c>
-      <c r="AM112">
-        <v>2.05</v>
-      </c>
-      <c r="AN112">
-        <v>2.25</v>
-      </c>
-      <c r="AO112">
-        <v>1.25</v>
-      </c>
-      <c r="AP112">
-        <v>2.4</v>
-      </c>
-      <c r="AQ112">
-        <v>1</v>
-      </c>
-      <c r="AR112">
-        <v>1.61</v>
-      </c>
-      <c r="AS112">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT112">
-        <v>2.55</v>
-      </c>
-      <c r="AU112">
-        <v>9</v>
-      </c>
-      <c r="AV112">
-        <v>3</v>
-      </c>
-      <c r="AW112">
-        <v>5</v>
-      </c>
-      <c r="AX112">
-        <v>2</v>
-      </c>
-      <c r="AY112">
-        <v>17</v>
-      </c>
-      <c r="AZ112">
-        <v>6</v>
-      </c>
-      <c r="BA112">
-        <v>5</v>
-      </c>
-      <c r="BB112">
-        <v>3</v>
-      </c>
-      <c r="BC112">
-        <v>8</v>
-      </c>
       <c r="BD112">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="BE112">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="BF112">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="BG112">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BH112">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="BI112">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BJ112">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="BK112">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BL112">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="BM112">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="BN112">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="BO112">
-        <v>3.5</v>
+        <v>3.02</v>
       </c>
       <c r="BP112">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24130,7 +24139,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7481468</v>
+        <v>7481476</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24139,31 +24148,31 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45587.66666666666</v>
+        <v>45587.58333333334</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N113">
         <v>5</v>
@@ -24172,163 +24181,987 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="Q113">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>5.5</v>
+      </c>
+      <c r="T113">
+        <v>1.55</v>
+      </c>
+      <c r="U113">
+        <v>2.32</v>
+      </c>
+      <c r="V113">
+        <v>3.7</v>
+      </c>
+      <c r="W113">
+        <v>1.24</v>
+      </c>
+      <c r="X113">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y113">
+        <v>1.03</v>
+      </c>
+      <c r="Z113">
+        <v>1.68</v>
+      </c>
+      <c r="AA113">
+        <v>3.2</v>
+      </c>
+      <c r="AB113">
+        <v>5.98</v>
+      </c>
+      <c r="AC113">
+        <v>1.09</v>
+      </c>
+      <c r="AD113">
+        <v>7</v>
+      </c>
+      <c r="AE113">
+        <v>1.48</v>
+      </c>
+      <c r="AF113">
+        <v>2.37</v>
+      </c>
+      <c r="AG113">
+        <v>2.94</v>
+      </c>
+      <c r="AH113">
+        <v>1.35</v>
+      </c>
+      <c r="AI113">
+        <v>2.38</v>
+      </c>
+      <c r="AJ113">
+        <v>1.53</v>
+      </c>
+      <c r="AK113">
+        <v>1.12</v>
+      </c>
+      <c r="AL113">
+        <v>1.25</v>
+      </c>
+      <c r="AM113">
+        <v>2.05</v>
+      </c>
+      <c r="AN113">
+        <v>2.25</v>
+      </c>
+      <c r="AO113">
+        <v>1.25</v>
+      </c>
+      <c r="AP113">
+        <v>2.4</v>
+      </c>
+      <c r="AQ113">
+        <v>1</v>
+      </c>
+      <c r="AR113">
+        <v>1.61</v>
+      </c>
+      <c r="AS113">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT113">
+        <v>2.55</v>
+      </c>
+      <c r="AU113">
+        <v>9</v>
+      </c>
+      <c r="AV113">
+        <v>3</v>
+      </c>
+      <c r="AW113">
+        <v>5</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>17</v>
+      </c>
+      <c r="AZ113">
+        <v>6</v>
+      </c>
+      <c r="BA113">
+        <v>5</v>
+      </c>
+      <c r="BB113">
+        <v>3</v>
+      </c>
+      <c r="BC113">
+        <v>8</v>
+      </c>
+      <c r="BD113">
+        <v>1.28</v>
+      </c>
+      <c r="BE113">
+        <v>7.2</v>
+      </c>
+      <c r="BF113">
+        <v>4.75</v>
+      </c>
+      <c r="BG113">
+        <v>1.26</v>
+      </c>
+      <c r="BH113">
+        <v>3.4</v>
+      </c>
+      <c r="BI113">
+        <v>1.5</v>
+      </c>
+      <c r="BJ113">
+        <v>2.4</v>
+      </c>
+      <c r="BK113">
+        <v>1.9</v>
+      </c>
+      <c r="BL113">
+        <v>1.8</v>
+      </c>
+      <c r="BM113">
+        <v>2.5</v>
+      </c>
+      <c r="BN113">
+        <v>1.46</v>
+      </c>
+      <c r="BO113">
+        <v>3.5</v>
+      </c>
+      <c r="BP113">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7481469</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45588.58333333334</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s">
+        <v>91</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114" t="s">
+        <v>170</v>
+      </c>
+      <c r="P114" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q114">
+        <v>3.45</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
+        <v>3.45</v>
+      </c>
+      <c r="T114">
+        <v>1.55</v>
+      </c>
+      <c r="U114">
+        <v>2.3</v>
+      </c>
+      <c r="V114">
+        <v>3.55</v>
+      </c>
+      <c r="W114">
+        <v>1.25</v>
+      </c>
+      <c r="X114">
+        <v>10</v>
+      </c>
+      <c r="Y114">
+        <v>1.03</v>
+      </c>
+      <c r="Z114">
+        <v>2.75</v>
+      </c>
+      <c r="AA114">
+        <v>3.1</v>
+      </c>
+      <c r="AB114">
+        <v>2.75</v>
+      </c>
+      <c r="AC114">
+        <v>1.1</v>
+      </c>
+      <c r="AD114">
+        <v>6.5</v>
+      </c>
+      <c r="AE114">
+        <v>1.53</v>
+      </c>
+      <c r="AF114">
+        <v>2.5</v>
+      </c>
+      <c r="AG114">
+        <v>2.3</v>
+      </c>
+      <c r="AH114">
+        <v>1.57</v>
+      </c>
+      <c r="AI114">
+        <v>2.05</v>
+      </c>
+      <c r="AJ114">
+        <v>1.67</v>
+      </c>
+      <c r="AK114">
+        <v>1.44</v>
+      </c>
+      <c r="AL114">
+        <v>1.3</v>
+      </c>
+      <c r="AM114">
+        <v>1.44</v>
+      </c>
+      <c r="AN114">
+        <v>1.4</v>
+      </c>
+      <c r="AO114">
+        <v>1.67</v>
+      </c>
+      <c r="AP114">
+        <v>1.17</v>
+      </c>
+      <c r="AQ114">
+        <v>1.86</v>
+      </c>
+      <c r="AR114">
+        <v>1.49</v>
+      </c>
+      <c r="AS114">
+        <v>1.5</v>
+      </c>
+      <c r="AT114">
+        <v>2.99</v>
+      </c>
+      <c r="AU114">
+        <v>7</v>
+      </c>
+      <c r="AV114">
+        <v>5</v>
+      </c>
+      <c r="AW114">
+        <v>8</v>
+      </c>
+      <c r="AX114">
+        <v>3</v>
+      </c>
+      <c r="AY114">
+        <v>21</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>2</v>
+      </c>
+      <c r="BC114">
+        <v>6</v>
+      </c>
+      <c r="BD114">
+        <v>2.02</v>
+      </c>
+      <c r="BE114">
+        <v>6.5</v>
+      </c>
+      <c r="BF114">
+        <v>2.25</v>
+      </c>
+      <c r="BG114">
+        <v>1.22</v>
+      </c>
+      <c r="BH114">
+        <v>3.35</v>
+      </c>
+      <c r="BI114">
+        <v>1.49</v>
+      </c>
+      <c r="BJ114">
+        <v>2.49</v>
+      </c>
+      <c r="BK114">
+        <v>1.84</v>
+      </c>
+      <c r="BL114">
+        <v>1.95</v>
+      </c>
+      <c r="BM114">
+        <v>2.27</v>
+      </c>
+      <c r="BN114">
+        <v>1.58</v>
+      </c>
+      <c r="BO114">
+        <v>3.02</v>
+      </c>
+      <c r="BP114">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7481471</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45588.58333333334</v>
+      </c>
+      <c r="F115">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>74</v>
+      </c>
+      <c r="H115" t="s">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>153</v>
+      </c>
+      <c r="P115" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q115">
+        <v>2.95</v>
+      </c>
+      <c r="R115">
+        <v>1.93</v>
+      </c>
+      <c r="S115">
+        <v>3.8</v>
+      </c>
+      <c r="T115">
+        <v>1.48</v>
+      </c>
+      <c r="U115">
+        <v>2.45</v>
+      </c>
+      <c r="V115">
+        <v>3.2</v>
+      </c>
+      <c r="W115">
+        <v>1.3</v>
+      </c>
+      <c r="X115">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y115">
+        <v>1.04</v>
+      </c>
+      <c r="Z115">
+        <v>2.3</v>
+      </c>
+      <c r="AA115">
+        <v>3.25</v>
+      </c>
+      <c r="AB115">
+        <v>3.25</v>
+      </c>
+      <c r="AC115">
+        <v>1.09</v>
+      </c>
+      <c r="AD115">
+        <v>7</v>
+      </c>
+      <c r="AE115">
+        <v>1.42</v>
+      </c>
+      <c r="AF115">
+        <v>2.8</v>
+      </c>
+      <c r="AG115">
+        <v>2.35</v>
+      </c>
+      <c r="AH115">
+        <v>1.57</v>
+      </c>
+      <c r="AI115">
+        <v>1.85</v>
+      </c>
+      <c r="AJ115">
+        <v>1.8</v>
+      </c>
+      <c r="AK115">
+        <v>1.33</v>
+      </c>
+      <c r="AL115">
+        <v>1.3</v>
+      </c>
+      <c r="AM115">
+        <v>1.57</v>
+      </c>
+      <c r="AN115">
+        <v>2</v>
+      </c>
+      <c r="AO115">
+        <v>1.75</v>
+      </c>
+      <c r="AP115">
+        <v>2.17</v>
+      </c>
+      <c r="AQ115">
+        <v>1.4</v>
+      </c>
+      <c r="AR115">
+        <v>1.43</v>
+      </c>
+      <c r="AS115">
+        <v>1.54</v>
+      </c>
+      <c r="AT115">
+        <v>2.97</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>4</v>
+      </c>
+      <c r="AX115">
+        <v>1</v>
+      </c>
+      <c r="AY115">
+        <v>12</v>
+      </c>
+      <c r="AZ115">
+        <v>12</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>6</v>
+      </c>
+      <c r="BC115">
+        <v>11</v>
+      </c>
+      <c r="BD115">
+        <v>1.72</v>
+      </c>
+      <c r="BE115">
+        <v>6.6</v>
+      </c>
+      <c r="BF115">
+        <v>2.77</v>
+      </c>
+      <c r="BG115">
+        <v>1.24</v>
+      </c>
+      <c r="BH115">
+        <v>3.22</v>
+      </c>
+      <c r="BI115">
+        <v>1.54</v>
+      </c>
+      <c r="BJ115">
+        <v>2.36</v>
+      </c>
+      <c r="BK115">
+        <v>1.92</v>
+      </c>
+      <c r="BL115">
+        <v>1.88</v>
+      </c>
+      <c r="BM115">
+        <v>2.41</v>
+      </c>
+      <c r="BN115">
+        <v>1.52</v>
+      </c>
+      <c r="BO115">
+        <v>3.14</v>
+      </c>
+      <c r="BP115">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7481467</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45588.66666666666</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>87</v>
+      </c>
+      <c r="H116" t="s">
+        <v>79</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" t="s">
+        <v>94</v>
+      </c>
+      <c r="P116" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q116">
+        <v>4.5</v>
+      </c>
+      <c r="R116">
+        <v>1.93</v>
+      </c>
+      <c r="S116">
+        <v>2.6</v>
+      </c>
+      <c r="T116">
+        <v>1.53</v>
+      </c>
+      <c r="U116">
+        <v>2.35</v>
+      </c>
+      <c r="V116">
+        <v>3.5</v>
+      </c>
+      <c r="W116">
+        <v>1.25</v>
+      </c>
+      <c r="X116">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y116">
+        <v>1.03</v>
+      </c>
+      <c r="Z116">
+        <v>4.3</v>
+      </c>
+      <c r="AA116">
+        <v>3.35</v>
+      </c>
+      <c r="AB116">
+        <v>1.93</v>
+      </c>
+      <c r="AC116">
+        <v>1.09</v>
+      </c>
+      <c r="AD116">
+        <v>7</v>
+      </c>
+      <c r="AE116">
+        <v>1.48</v>
+      </c>
+      <c r="AF116">
+        <v>2.6</v>
+      </c>
+      <c r="AG116">
+        <v>2.4</v>
+      </c>
+      <c r="AH116">
+        <v>1.53</v>
+      </c>
+      <c r="AI116">
+        <v>2.1</v>
+      </c>
+      <c r="AJ116">
+        <v>1.62</v>
+      </c>
+      <c r="AK116">
+        <v>1.83</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.22</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>0.75</v>
+      </c>
+      <c r="AP116">
+        <v>0.2</v>
+      </c>
+      <c r="AQ116">
+        <v>0.8</v>
+      </c>
+      <c r="AR116">
+        <v>1.16</v>
+      </c>
+      <c r="AS116">
+        <v>1.27</v>
+      </c>
+      <c r="AT116">
+        <v>2.43</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>10</v>
+      </c>
+      <c r="AY116">
+        <v>9</v>
+      </c>
+      <c r="AZ116">
+        <v>15</v>
+      </c>
+      <c r="BA116">
+        <v>3</v>
+      </c>
+      <c r="BB116">
+        <v>5</v>
+      </c>
+      <c r="BC116">
+        <v>8</v>
+      </c>
+      <c r="BD116">
+        <v>2.28</v>
+      </c>
+      <c r="BE116">
+        <v>6.35</v>
+      </c>
+      <c r="BF116">
+        <v>2.01</v>
+      </c>
+      <c r="BG116">
+        <v>1.3</v>
+      </c>
+      <c r="BH116">
+        <v>2.88</v>
+      </c>
+      <c r="BI116">
+        <v>1.59</v>
+      </c>
+      <c r="BJ116">
+        <v>2.16</v>
+      </c>
+      <c r="BK116">
+        <v>2.06</v>
+      </c>
+      <c r="BL116">
+        <v>1.71</v>
+      </c>
+      <c r="BM116">
+        <v>2.67</v>
+      </c>
+      <c r="BN116">
+        <v>1.39</v>
+      </c>
+      <c r="BO116">
+        <v>3.62</v>
+      </c>
+      <c r="BP116">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7481472</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45588.66666666666</v>
+      </c>
+      <c r="F117">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
+        <v>76</v>
+      </c>
+      <c r="H117" t="s">
+        <v>88</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>171</v>
+      </c>
+      <c r="P117" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q117">
+        <v>2.4</v>
+      </c>
+      <c r="R117">
+        <v>2.2</v>
+      </c>
+      <c r="S117">
+        <v>4</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.45</v>
+      </c>
+      <c r="W117">
+        <v>1.48</v>
+      </c>
+      <c r="X117">
+        <v>5.9</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>1.91</v>
+      </c>
+      <c r="AA117">
+        <v>3.6</v>
+      </c>
+      <c r="AB117">
+        <v>3.95</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>9.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.25</v>
+      </c>
+      <c r="AF117">
+        <v>3.95</v>
+      </c>
+      <c r="AG117">
+        <v>1.75</v>
+      </c>
+      <c r="AH117">
+        <v>2.05</v>
+      </c>
+      <c r="AI117">
+        <v>1.6</v>
+      </c>
+      <c r="AJ117">
         <v>2.15</v>
       </c>
-      <c r="S113">
-        <v>3.75</v>
-      </c>
-      <c r="T113">
-        <v>1.35</v>
-      </c>
-      <c r="U113">
-        <v>2.95</v>
-      </c>
-      <c r="V113">
-        <v>2.65</v>
-      </c>
-      <c r="W113">
-        <v>1.42</v>
-      </c>
-      <c r="X113">
-        <v>6.45</v>
-      </c>
-      <c r="Y113">
-        <v>1.09</v>
-      </c>
-      <c r="Z113">
-        <v>2.35</v>
-      </c>
-      <c r="AA113">
-        <v>3.4</v>
-      </c>
-      <c r="AB113">
-        <v>2.81</v>
-      </c>
-      <c r="AC113">
-        <v>1.05</v>
-      </c>
-      <c r="AD113">
-        <v>9.5</v>
-      </c>
-      <c r="AE113">
+      <c r="AK117">
         <v>1.25</v>
       </c>
-      <c r="AF113">
-        <v>3.75</v>
-      </c>
-      <c r="AG113">
-        <v>1.72</v>
-      </c>
-      <c r="AH113">
-        <v>2</v>
-      </c>
-      <c r="AI113">
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>1.85</v>
+      </c>
+      <c r="AN117">
+        <v>1.6</v>
+      </c>
+      <c r="AO117">
+        <v>0.2</v>
+      </c>
+      <c r="AP117">
+        <v>1.83</v>
+      </c>
+      <c r="AQ117">
+        <v>0.17</v>
+      </c>
+      <c r="AR117">
+        <v>1.47</v>
+      </c>
+      <c r="AS117">
+        <v>1.25</v>
+      </c>
+      <c r="AT117">
+        <v>2.72</v>
+      </c>
+      <c r="AU117">
+        <v>8</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>5</v>
+      </c>
+      <c r="AX117">
+        <v>7</v>
+      </c>
+      <c r="AY117">
+        <v>20</v>
+      </c>
+      <c r="AZ117">
+        <v>13</v>
+      </c>
+      <c r="BA117">
+        <v>7</v>
+      </c>
+      <c r="BB117">
+        <v>2</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
         <v>1.62</v>
       </c>
-      <c r="AJ113">
-        <v>2.2</v>
-      </c>
-      <c r="AK113">
-        <v>1.3</v>
-      </c>
-      <c r="AL113">
-        <v>1.22</v>
-      </c>
-      <c r="AM113">
-        <v>1.75</v>
-      </c>
-      <c r="AN113">
-        <v>1.4</v>
-      </c>
-      <c r="AO113">
-        <v>2</v>
-      </c>
-      <c r="AP113">
+      <c r="BE117">
+        <v>7</v>
+      </c>
+      <c r="BF117">
+        <v>3.02</v>
+      </c>
+      <c r="BG117">
         <v>1.17</v>
       </c>
-      <c r="AQ113">
-        <v>2.2</v>
-      </c>
-      <c r="AR113">
+      <c r="BH117">
+        <v>3.82</v>
+      </c>
+      <c r="BI117">
+        <v>1.38</v>
+      </c>
+      <c r="BJ117">
+        <v>2.71</v>
+      </c>
+      <c r="BK117">
+        <v>1.7</v>
+      </c>
+      <c r="BL117">
+        <v>2.08</v>
+      </c>
+      <c r="BM117">
+        <v>2.09</v>
+      </c>
+      <c r="BN117">
         <v>1.63</v>
       </c>
-      <c r="AS113">
-        <v>1.12</v>
-      </c>
-      <c r="AT113">
-        <v>2.75</v>
-      </c>
-      <c r="AU113">
-        <v>5</v>
-      </c>
-      <c r="AV113">
-        <v>6</v>
-      </c>
-      <c r="AW113">
-        <v>4</v>
-      </c>
-      <c r="AX113">
-        <v>3</v>
-      </c>
-      <c r="AY113">
-        <v>12</v>
-      </c>
-      <c r="AZ113">
-        <v>12</v>
-      </c>
-      <c r="BA113">
-        <v>6</v>
-      </c>
-      <c r="BB113">
-        <v>1</v>
-      </c>
-      <c r="BC113">
-        <v>7</v>
-      </c>
-      <c r="BD113">
-        <v>1.8</v>
-      </c>
-      <c r="BE113">
-        <v>5.9</v>
-      </c>
-      <c r="BF113">
-        <v>2.5</v>
-      </c>
-      <c r="BG113">
-        <v>1.22</v>
-      </c>
-      <c r="BH113">
-        <v>3.35</v>
-      </c>
-      <c r="BI113">
-        <v>1.45</v>
-      </c>
-      <c r="BJ113">
-        <v>2.48</v>
-      </c>
-      <c r="BK113">
-        <v>1.83</v>
-      </c>
-      <c r="BL113">
-        <v>1.91</v>
-      </c>
-      <c r="BM113">
-        <v>2.3</v>
-      </c>
-      <c r="BN113">
-        <v>1.52</v>
-      </c>
-      <c r="BO113">
-        <v>3.02</v>
-      </c>
-      <c r="BP113">
-        <v>1.27</v>
+      <c r="BO117">
+        <v>2.69</v>
+      </c>
+      <c r="BP117">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,16 +520,28 @@
     <t>['26', '32']</t>
   </si>
   <si>
-    <t>['33', '35']</t>
+    <t>['41', '45+3', '73', '82']</t>
   </si>
   <si>
-    <t>['41', '45+3', '73', '82']</t>
+    <t>['33', '35']</t>
   </si>
   <si>
     <t>['11', '72']</t>
   </si>
   <si>
     <t>['73', '87']</t>
+  </si>
+  <si>
+    <t>['7', '28']</t>
+  </si>
+  <si>
+    <t>['15', '49', '57']</t>
+  </si>
+  <si>
+    <t>['5', '79']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -695,6 +707,12 @@
   </si>
   <si>
     <t>['34', '45+4', '80']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1333,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1396,7 +1414,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1727,7 +1745,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1933,7 +1951,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2345,7 +2363,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2551,7 +2569,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2757,7 +2775,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2835,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>1.17</v>
@@ -2963,7 +2981,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3169,7 +3187,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3250,7 +3268,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3375,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3581,7 +3599,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3787,7 +3805,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3868,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4071,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4483,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
         <v>1.4</v>
@@ -4817,7 +4835,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4895,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19">
         <v>1.17</v>
@@ -5435,7 +5453,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5641,7 +5659,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5847,7 +5865,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5928,7 +5946,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -6053,7 +6071,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6259,7 +6277,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6543,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6671,7 +6689,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6752,7 +6770,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -6877,7 +6895,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -6955,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>1.8</v>
@@ -7289,7 +7307,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7701,7 +7719,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8113,7 +8131,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8191,7 +8209,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8319,7 +8337,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8400,7 +8418,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>2.09</v>
@@ -8731,7 +8749,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8809,7 +8827,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9967,7 +9985,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10460,7 +10478,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10585,7 +10603,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10663,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11078,7 +11096,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11490,7 +11508,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -12105,7 +12123,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>1.86</v>
@@ -12233,7 +12251,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12439,7 +12457,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12517,7 +12535,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56">
         <v>1.8</v>
@@ -12645,7 +12663,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12851,7 +12869,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -12932,7 +12950,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13057,7 +13075,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13753,7 +13771,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13881,7 +13899,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14087,7 +14105,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14499,7 +14517,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14577,7 +14595,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14911,7 +14929,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14992,7 +15010,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15117,7 +15135,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15404,7 +15422,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR70">
         <v>1.04</v>
@@ -15607,7 +15625,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ71">
         <v>1.86</v>
@@ -15735,7 +15753,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15941,7 +15959,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16019,7 +16037,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ73">
         <v>1.17</v>
@@ -16147,7 +16165,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16225,7 +16243,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
         <v>2.2</v>
@@ -16353,7 +16371,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16971,7 +16989,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17177,7 +17195,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17589,7 +17607,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17795,7 +17813,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18079,7 +18097,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ83">
         <v>1.4</v>
@@ -18207,7 +18225,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18491,7 +18509,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18825,7 +18843,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19109,7 +19127,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ88">
         <v>1.17</v>
@@ -19237,7 +19255,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19443,7 +19461,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19521,7 +19539,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ90">
         <v>1.86</v>
@@ -20061,7 +20079,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20267,7 +20285,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20348,7 +20366,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.16</v>
@@ -20473,7 +20491,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21169,7 +21187,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21378,7 +21396,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR99">
         <v>1.46</v>
@@ -21503,7 +21521,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21581,7 +21599,7 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ100">
         <v>1.8</v>
@@ -21709,7 +21727,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21915,7 +21933,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22945,7 +22963,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23232,7 +23250,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR108">
         <v>1.17</v>
@@ -23563,7 +23581,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23933,7 +23951,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7481468</v>
+        <v>7481476</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23942,31 +23960,31 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45586.875</v>
+        <v>45587.58333333334</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N112">
         <v>5</v>
@@ -23975,163 +23993,163 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="Q112">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="R112">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="T112">
+        <v>1.55</v>
+      </c>
+      <c r="U112">
+        <v>2.32</v>
+      </c>
+      <c r="V112">
+        <v>3.7</v>
+      </c>
+      <c r="W112">
+        <v>1.24</v>
+      </c>
+      <c r="X112">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y112">
+        <v>1.03</v>
+      </c>
+      <c r="Z112">
+        <v>1.68</v>
+      </c>
+      <c r="AA112">
+        <v>3.2</v>
+      </c>
+      <c r="AB112">
+        <v>5.98</v>
+      </c>
+      <c r="AC112">
+        <v>1.09</v>
+      </c>
+      <c r="AD112">
+        <v>7</v>
+      </c>
+      <c r="AE112">
+        <v>1.48</v>
+      </c>
+      <c r="AF112">
+        <v>2.37</v>
+      </c>
+      <c r="AG112">
+        <v>2.94</v>
+      </c>
+      <c r="AH112">
         <v>1.35</v>
       </c>
-      <c r="U112">
-        <v>2.95</v>
-      </c>
-      <c r="V112">
-        <v>2.65</v>
-      </c>
-      <c r="W112">
-        <v>1.42</v>
-      </c>
-      <c r="X112">
-        <v>6.45</v>
-      </c>
-      <c r="Y112">
-        <v>1.09</v>
-      </c>
-      <c r="Z112">
-        <v>2.35</v>
-      </c>
-      <c r="AA112">
+      <c r="AI112">
+        <v>2.38</v>
+      </c>
+      <c r="AJ112">
+        <v>1.53</v>
+      </c>
+      <c r="AK112">
+        <v>1.12</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>2.05</v>
+      </c>
+      <c r="AN112">
+        <v>2.25</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>2.4</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.61</v>
+      </c>
+      <c r="AS112">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT112">
+        <v>2.55</v>
+      </c>
+      <c r="AU112">
+        <v>9</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>17</v>
+      </c>
+      <c r="AZ112">
+        <v>6</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>8</v>
+      </c>
+      <c r="BD112">
+        <v>1.28</v>
+      </c>
+      <c r="BE112">
+        <v>7.2</v>
+      </c>
+      <c r="BF112">
+        <v>4.75</v>
+      </c>
+      <c r="BG112">
+        <v>1.26</v>
+      </c>
+      <c r="BH112">
         <v>3.4</v>
       </c>
-      <c r="AB112">
-        <v>2.81</v>
-      </c>
-      <c r="AC112">
-        <v>1.05</v>
-      </c>
-      <c r="AD112">
-        <v>9.5</v>
-      </c>
-      <c r="AE112">
+      <c r="BI112">
+        <v>1.5</v>
+      </c>
+      <c r="BJ112">
+        <v>2.4</v>
+      </c>
+      <c r="BK112">
+        <v>1.9</v>
+      </c>
+      <c r="BL112">
+        <v>1.8</v>
+      </c>
+      <c r="BM112">
+        <v>2.5</v>
+      </c>
+      <c r="BN112">
+        <v>1.46</v>
+      </c>
+      <c r="BO112">
+        <v>3.5</v>
+      </c>
+      <c r="BP112">
         <v>1.25</v>
-      </c>
-      <c r="AF112">
-        <v>3.75</v>
-      </c>
-      <c r="AG112">
-        <v>1.72</v>
-      </c>
-      <c r="AH112">
-        <v>2</v>
-      </c>
-      <c r="AI112">
-        <v>1.62</v>
-      </c>
-      <c r="AJ112">
-        <v>2.2</v>
-      </c>
-      <c r="AK112">
-        <v>1.3</v>
-      </c>
-      <c r="AL112">
-        <v>1.22</v>
-      </c>
-      <c r="AM112">
-        <v>1.75</v>
-      </c>
-      <c r="AN112">
-        <v>1.4</v>
-      </c>
-      <c r="AO112">
-        <v>2</v>
-      </c>
-      <c r="AP112">
-        <v>1.17</v>
-      </c>
-      <c r="AQ112">
-        <v>2.2</v>
-      </c>
-      <c r="AR112">
-        <v>1.63</v>
-      </c>
-      <c r="AS112">
-        <v>1.12</v>
-      </c>
-      <c r="AT112">
-        <v>2.75</v>
-      </c>
-      <c r="AU112">
-        <v>5</v>
-      </c>
-      <c r="AV112">
-        <v>6</v>
-      </c>
-      <c r="AW112">
-        <v>4</v>
-      </c>
-      <c r="AX112">
-        <v>3</v>
-      </c>
-      <c r="AY112">
-        <v>12</v>
-      </c>
-      <c r="AZ112">
-        <v>12</v>
-      </c>
-      <c r="BA112">
-        <v>6</v>
-      </c>
-      <c r="BB112">
-        <v>1</v>
-      </c>
-      <c r="BC112">
-        <v>7</v>
-      </c>
-      <c r="BD112">
-        <v>1.8</v>
-      </c>
-      <c r="BE112">
-        <v>5.9</v>
-      </c>
-      <c r="BF112">
-        <v>2.5</v>
-      </c>
-      <c r="BG112">
-        <v>1.22</v>
-      </c>
-      <c r="BH112">
-        <v>3.35</v>
-      </c>
-      <c r="BI112">
-        <v>1.45</v>
-      </c>
-      <c r="BJ112">
-        <v>2.48</v>
-      </c>
-      <c r="BK112">
-        <v>1.83</v>
-      </c>
-      <c r="BL112">
-        <v>1.91</v>
-      </c>
-      <c r="BM112">
-        <v>2.3</v>
-      </c>
-      <c r="BN112">
-        <v>1.52</v>
-      </c>
-      <c r="BO112">
-        <v>3.02</v>
-      </c>
-      <c r="BP112">
-        <v>1.27</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24139,7 +24157,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7481476</v>
+        <v>7481468</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24148,31 +24166,31 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45587.58333333334</v>
+        <v>45587.66666666666</v>
       </c>
       <c r="F113">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N113">
         <v>5</v>
@@ -24181,163 +24199,163 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q113">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S113">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T113">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="U113">
-        <v>2.32</v>
+        <v>2.95</v>
       </c>
       <c r="V113">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="W113">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="X113">
-        <v>9.949999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="Y113">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="Z113">
-        <v>1.68</v>
+        <v>2.35</v>
       </c>
       <c r="AA113">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB113">
-        <v>5.98</v>
+        <v>2.81</v>
       </c>
       <c r="AC113">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AD113">
+        <v>9.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.25</v>
+      </c>
+      <c r="AF113">
+        <v>3.75</v>
+      </c>
+      <c r="AG113">
+        <v>1.72</v>
+      </c>
+      <c r="AH113">
+        <v>2</v>
+      </c>
+      <c r="AI113">
+        <v>1.62</v>
+      </c>
+      <c r="AJ113">
+        <v>2.2</v>
+      </c>
+      <c r="AK113">
+        <v>1.3</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>1.75</v>
+      </c>
+      <c r="AN113">
+        <v>1.4</v>
+      </c>
+      <c r="AO113">
+        <v>2</v>
+      </c>
+      <c r="AP113">
+        <v>1.17</v>
+      </c>
+      <c r="AQ113">
+        <v>2.2</v>
+      </c>
+      <c r="AR113">
+        <v>1.63</v>
+      </c>
+      <c r="AS113">
+        <v>1.12</v>
+      </c>
+      <c r="AT113">
+        <v>2.75</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>6</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>3</v>
+      </c>
+      <c r="AY113">
+        <v>12</v>
+      </c>
+      <c r="AZ113">
+        <v>12</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>1</v>
+      </c>
+      <c r="BC113">
         <v>7</v>
       </c>
-      <c r="AE113">
-        <v>1.48</v>
-      </c>
-      <c r="AF113">
-        <v>2.37</v>
-      </c>
-      <c r="AG113">
-        <v>2.94</v>
-      </c>
-      <c r="AH113">
-        <v>1.35</v>
-      </c>
-      <c r="AI113">
-        <v>2.38</v>
-      </c>
-      <c r="AJ113">
-        <v>1.53</v>
-      </c>
-      <c r="AK113">
-        <v>1.12</v>
-      </c>
-      <c r="AL113">
-        <v>1.25</v>
-      </c>
-      <c r="AM113">
-        <v>2.05</v>
-      </c>
-      <c r="AN113">
-        <v>2.25</v>
-      </c>
-      <c r="AO113">
-        <v>1.25</v>
-      </c>
-      <c r="AP113">
-        <v>2.4</v>
-      </c>
-      <c r="AQ113">
-        <v>1</v>
-      </c>
-      <c r="AR113">
-        <v>1.61</v>
-      </c>
-      <c r="AS113">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT113">
-        <v>2.55</v>
-      </c>
-      <c r="AU113">
-        <v>9</v>
-      </c>
-      <c r="AV113">
-        <v>3</v>
-      </c>
-      <c r="AW113">
-        <v>5</v>
-      </c>
-      <c r="AX113">
-        <v>2</v>
-      </c>
-      <c r="AY113">
-        <v>17</v>
-      </c>
-      <c r="AZ113">
-        <v>6</v>
-      </c>
-      <c r="BA113">
-        <v>5</v>
-      </c>
-      <c r="BB113">
-        <v>3</v>
-      </c>
-      <c r="BC113">
-        <v>8</v>
-      </c>
       <c r="BD113">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="BE113">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="BF113">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="BG113">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BH113">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="BI113">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BJ113">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="BK113">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BL113">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="BM113">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="BN113">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="BO113">
-        <v>3.5</v>
+        <v>3.02</v>
       </c>
       <c r="BP113">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24357,7 +24375,7 @@
         <v>45588.58333333334</v>
       </c>
       <c r="F114">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>80</v>
@@ -24387,7 +24405,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -24563,7 +24581,7 @@
         <v>45588.58333333334</v>
       </c>
       <c r="F115">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>74</v>
@@ -24769,7 +24787,7 @@
         <v>45588.66666666666</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
         <v>87</v>
@@ -25162,6 +25180,1036 @@
       </c>
       <c r="BP117">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7481473</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45589.58333333334</v>
+      </c>
+      <c r="F118">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>82</v>
+      </c>
+      <c r="H118" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>172</v>
+      </c>
+      <c r="P118" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q118">
+        <v>2.8</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>3.75</v>
+      </c>
+      <c r="T118">
+        <v>1.42</v>
+      </c>
+      <c r="U118">
+        <v>2.65</v>
+      </c>
+      <c r="V118">
+        <v>2.85</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>7.2</v>
+      </c>
+      <c r="Y118">
+        <v>1.06</v>
+      </c>
+      <c r="Z118">
+        <v>2.05</v>
+      </c>
+      <c r="AA118">
+        <v>3.24</v>
+      </c>
+      <c r="AB118">
+        <v>3.49</v>
+      </c>
+      <c r="AC118">
+        <v>1.07</v>
+      </c>
+      <c r="AD118">
+        <v>8</v>
+      </c>
+      <c r="AE118">
+        <v>1.35</v>
+      </c>
+      <c r="AF118">
+        <v>3.1</v>
+      </c>
+      <c r="AG118">
+        <v>1.99</v>
+      </c>
+      <c r="AH118">
+        <v>1.75</v>
+      </c>
+      <c r="AI118">
+        <v>1.75</v>
+      </c>
+      <c r="AJ118">
+        <v>1.93</v>
+      </c>
+      <c r="AK118">
+        <v>1.3</v>
+      </c>
+      <c r="AL118">
+        <v>1.28</v>
+      </c>
+      <c r="AM118">
+        <v>1.62</v>
+      </c>
+      <c r="AN118">
+        <v>2</v>
+      </c>
+      <c r="AO118">
+        <v>1</v>
+      </c>
+      <c r="AP118">
+        <v>2.2</v>
+      </c>
+      <c r="AQ118">
+        <v>0.83</v>
+      </c>
+      <c r="AR118">
+        <v>1.68</v>
+      </c>
+      <c r="AS118">
+        <v>1.32</v>
+      </c>
+      <c r="AT118">
+        <v>3</v>
+      </c>
+      <c r="AU118">
+        <v>6</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>8</v>
+      </c>
+      <c r="AY118">
+        <v>14</v>
+      </c>
+      <c r="AZ118">
+        <v>17</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>4</v>
+      </c>
+      <c r="BC118">
+        <v>10</v>
+      </c>
+      <c r="BD118">
+        <v>1.52</v>
+      </c>
+      <c r="BE118">
+        <v>7.5</v>
+      </c>
+      <c r="BF118">
+        <v>2.92</v>
+      </c>
+      <c r="BG118">
+        <v>1.21</v>
+      </c>
+      <c r="BH118">
+        <v>3.8</v>
+      </c>
+      <c r="BI118">
+        <v>1.4</v>
+      </c>
+      <c r="BJ118">
+        <v>2.65</v>
+      </c>
+      <c r="BK118">
+        <v>1.73</v>
+      </c>
+      <c r="BL118">
+        <v>2</v>
+      </c>
+      <c r="BM118">
+        <v>2.14</v>
+      </c>
+      <c r="BN118">
+        <v>1.6</v>
+      </c>
+      <c r="BO118">
+        <v>2.8</v>
+      </c>
+      <c r="BP118">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7481470</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45589.58333333334</v>
+      </c>
+      <c r="F119">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>90</v>
+      </c>
+      <c r="H119" t="s">
+        <v>85</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>173</v>
+      </c>
+      <c r="P119" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q119">
+        <v>2.75</v>
+      </c>
+      <c r="R119">
+        <v>2.3</v>
+      </c>
+      <c r="S119">
+        <v>3.6</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>6.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>2.09</v>
+      </c>
+      <c r="AA119">
+        <v>3.08</v>
+      </c>
+      <c r="AB119">
+        <v>3.27</v>
+      </c>
+      <c r="AC119">
+        <v>1.05</v>
+      </c>
+      <c r="AD119">
+        <v>9.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.25</v>
+      </c>
+      <c r="AF119">
+        <v>3.95</v>
+      </c>
+      <c r="AG119">
+        <v>1.67</v>
+      </c>
+      <c r="AH119">
+        <v>2.07</v>
+      </c>
+      <c r="AI119">
+        <v>1.57</v>
+      </c>
+      <c r="AJ119">
+        <v>2.25</v>
+      </c>
+      <c r="AK119">
+        <v>1.4</v>
+      </c>
+      <c r="AL119">
+        <v>1.28</v>
+      </c>
+      <c r="AM119">
+        <v>1.55</v>
+      </c>
+      <c r="AN119">
+        <v>1.25</v>
+      </c>
+      <c r="AO119">
+        <v>1.4</v>
+      </c>
+      <c r="AP119">
+        <v>1.6</v>
+      </c>
+      <c r="AQ119">
+        <v>1.17</v>
+      </c>
+      <c r="AR119">
+        <v>1.69</v>
+      </c>
+      <c r="AS119">
+        <v>1.32</v>
+      </c>
+      <c r="AT119">
+        <v>3.01</v>
+      </c>
+      <c r="AU119">
+        <v>8</v>
+      </c>
+      <c r="AV119">
+        <v>8</v>
+      </c>
+      <c r="AW119">
+        <v>10</v>
+      </c>
+      <c r="AX119">
+        <v>7</v>
+      </c>
+      <c r="AY119">
+        <v>24</v>
+      </c>
+      <c r="AZ119">
+        <v>16</v>
+      </c>
+      <c r="BA119">
+        <v>2</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>7</v>
+      </c>
+      <c r="BD119">
+        <v>1.31</v>
+      </c>
+      <c r="BE119">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF119">
+        <v>4.05</v>
+      </c>
+      <c r="BG119">
+        <v>1.29</v>
+      </c>
+      <c r="BH119">
+        <v>3.15</v>
+      </c>
+      <c r="BI119">
+        <v>1.53</v>
+      </c>
+      <c r="BJ119">
+        <v>2.28</v>
+      </c>
+      <c r="BK119">
+        <v>1.98</v>
+      </c>
+      <c r="BL119">
+        <v>1.82</v>
+      </c>
+      <c r="BM119">
+        <v>2.48</v>
+      </c>
+      <c r="BN119">
+        <v>1.45</v>
+      </c>
+      <c r="BO119">
+        <v>3.35</v>
+      </c>
+      <c r="BP119">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7481474</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45589.66666666666</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>174</v>
+      </c>
+      <c r="P120" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q120">
+        <v>2.55</v>
+      </c>
+      <c r="R120">
+        <v>1.91</v>
+      </c>
+      <c r="S120">
+        <v>5</v>
+      </c>
+      <c r="T120">
+        <v>1.55</v>
+      </c>
+      <c r="U120">
+        <v>2.3</v>
+      </c>
+      <c r="V120">
+        <v>3.55</v>
+      </c>
+      <c r="W120">
+        <v>1.25</v>
+      </c>
+      <c r="X120">
+        <v>9.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.02</v>
+      </c>
+      <c r="Z120">
+        <v>1.82</v>
+      </c>
+      <c r="AA120">
+        <v>3.07</v>
+      </c>
+      <c r="AB120">
+        <v>4.71</v>
+      </c>
+      <c r="AC120">
+        <v>1.1</v>
+      </c>
+      <c r="AD120">
+        <v>6.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.49</v>
+      </c>
+      <c r="AF120">
+        <v>2.43</v>
+      </c>
+      <c r="AG120">
+        <v>2.45</v>
+      </c>
+      <c r="AH120">
+        <v>1.48</v>
+      </c>
+      <c r="AI120">
+        <v>2.15</v>
+      </c>
+      <c r="AJ120">
+        <v>1.6</v>
+      </c>
+      <c r="AK120">
+        <v>1.2</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.85</v>
+      </c>
+      <c r="AN120">
+        <v>2</v>
+      </c>
+      <c r="AO120">
+        <v>1.4</v>
+      </c>
+      <c r="AP120">
+        <v>2.17</v>
+      </c>
+      <c r="AQ120">
+        <v>1.17</v>
+      </c>
+      <c r="AR120">
+        <v>1.6</v>
+      </c>
+      <c r="AS120">
+        <v>1.01</v>
+      </c>
+      <c r="AT120">
+        <v>2.61</v>
+      </c>
+      <c r="AU120">
+        <v>6</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>3</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>16</v>
+      </c>
+      <c r="AZ120">
+        <v>11</v>
+      </c>
+      <c r="BA120">
+        <v>6</v>
+      </c>
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
+        <v>9</v>
+      </c>
+      <c r="BD120">
+        <v>1.29</v>
+      </c>
+      <c r="BE120">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF120">
+        <v>4.35</v>
+      </c>
+      <c r="BG120">
+        <v>1.38</v>
+      </c>
+      <c r="BH120">
+        <v>2.7</v>
+      </c>
+      <c r="BI120">
+        <v>1.73</v>
+      </c>
+      <c r="BJ120">
+        <v>2</v>
+      </c>
+      <c r="BK120">
+        <v>2.17</v>
+      </c>
+      <c r="BL120">
+        <v>1.58</v>
+      </c>
+      <c r="BM120">
+        <v>2.9</v>
+      </c>
+      <c r="BN120">
+        <v>1.34</v>
+      </c>
+      <c r="BO120">
+        <v>4</v>
+      </c>
+      <c r="BP120">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7481475</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45589.66666666666</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H121" t="s">
+        <v>83</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>94</v>
+      </c>
+      <c r="P121" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q121">
+        <v>2.7</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>4.75</v>
+      </c>
+      <c r="T121">
+        <v>1.6</v>
+      </c>
+      <c r="U121">
+        <v>2.2</v>
+      </c>
+      <c r="V121">
+        <v>3.75</v>
+      </c>
+      <c r="W121">
+        <v>1.22</v>
+      </c>
+      <c r="X121">
+        <v>10.25</v>
+      </c>
+      <c r="Y121">
+        <v>1.02</v>
+      </c>
+      <c r="Z121">
+        <v>1.89</v>
+      </c>
+      <c r="AA121">
+        <v>3.04</v>
+      </c>
+      <c r="AB121">
+        <v>4.42</v>
+      </c>
+      <c r="AC121">
+        <v>1.11</v>
+      </c>
+      <c r="AD121">
+        <v>6.25</v>
+      </c>
+      <c r="AE121">
+        <v>1.54</v>
+      </c>
+      <c r="AF121">
+        <v>2.32</v>
+      </c>
+      <c r="AG121">
+        <v>2.75</v>
+      </c>
+      <c r="AH121">
+        <v>1.4</v>
+      </c>
+      <c r="AI121">
+        <v>2.15</v>
+      </c>
+      <c r="AJ121">
+        <v>1.6</v>
+      </c>
+      <c r="AK121">
+        <v>1.22</v>
+      </c>
+      <c r="AL121">
+        <v>1.33</v>
+      </c>
+      <c r="AM121">
+        <v>1.75</v>
+      </c>
+      <c r="AN121">
+        <v>0.8</v>
+      </c>
+      <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>0.83</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>1.32</v>
+      </c>
+      <c r="AS121">
+        <v>1.15</v>
+      </c>
+      <c r="AT121">
+        <v>2.47</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121">
+        <v>5</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>14</v>
+      </c>
+      <c r="AZ121">
+        <v>6</v>
+      </c>
+      <c r="BA121">
+        <v>5</v>
+      </c>
+      <c r="BB121">
+        <v>4</v>
+      </c>
+      <c r="BC121">
+        <v>9</v>
+      </c>
+      <c r="BD121">
+        <v>1.58</v>
+      </c>
+      <c r="BE121">
+        <v>7</v>
+      </c>
+      <c r="BF121">
+        <v>2.82</v>
+      </c>
+      <c r="BG121">
+        <v>1.28</v>
+      </c>
+      <c r="BH121">
+        <v>2.94</v>
+      </c>
+      <c r="BI121">
+        <v>1.57</v>
+      </c>
+      <c r="BJ121">
+        <v>2.19</v>
+      </c>
+      <c r="BK121">
+        <v>2.02</v>
+      </c>
+      <c r="BL121">
+        <v>1.74</v>
+      </c>
+      <c r="BM121">
+        <v>2.64</v>
+      </c>
+      <c r="BN121">
+        <v>1.4</v>
+      </c>
+      <c r="BO121">
+        <v>3.54</v>
+      </c>
+      <c r="BP121">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7481466</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45589.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>175</v>
+      </c>
+      <c r="P122" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q122">
+        <v>2.5</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>1.44</v>
+      </c>
+      <c r="U122">
+        <v>2.63</v>
+      </c>
+      <c r="V122">
+        <v>3.25</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>1.07</v>
+      </c>
+      <c r="Z122">
+        <v>1.76</v>
+      </c>
+      <c r="AA122">
+        <v>3.47</v>
+      </c>
+      <c r="AB122">
+        <v>3.94</v>
+      </c>
+      <c r="AC122">
+        <v>1.06</v>
+      </c>
+      <c r="AD122">
+        <v>8.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.36</v>
+      </c>
+      <c r="AF122">
+        <v>3.1</v>
+      </c>
+      <c r="AG122">
+        <v>2.3</v>
+      </c>
+      <c r="AH122">
+        <v>1.55</v>
+      </c>
+      <c r="AI122">
+        <v>2</v>
+      </c>
+      <c r="AJ122">
+        <v>1.73</v>
+      </c>
+      <c r="AK122">
+        <v>1.22</v>
+      </c>
+      <c r="AL122">
+        <v>1.22</v>
+      </c>
+      <c r="AM122">
+        <v>1.95</v>
+      </c>
+      <c r="AN122">
+        <v>1.4</v>
+      </c>
+      <c r="AO122">
+        <v>1</v>
+      </c>
+      <c r="AP122">
+        <v>1.33</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.4</v>
+      </c>
+      <c r="AS122">
+        <v>0.91</v>
+      </c>
+      <c r="AT122">
+        <v>2.31</v>
+      </c>
+      <c r="AU122">
+        <v>3</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>9</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>15</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>2</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>7</v>
+      </c>
+      <c r="BD122">
+        <v>1.49</v>
+      </c>
+      <c r="BE122">
+        <v>7.2</v>
+      </c>
+      <c r="BF122">
+        <v>3.54</v>
+      </c>
+      <c r="BG122">
+        <v>1.32</v>
+      </c>
+      <c r="BH122">
+        <v>2.95</v>
+      </c>
+      <c r="BI122">
+        <v>1.58</v>
+      </c>
+      <c r="BJ122">
+        <v>2.16</v>
+      </c>
+      <c r="BK122">
+        <v>2.05</v>
+      </c>
+      <c r="BL122">
+        <v>1.7</v>
+      </c>
+      <c r="BM122">
+        <v>2.63</v>
+      </c>
+      <c r="BN122">
+        <v>1.41</v>
+      </c>
+      <c r="BO122">
+        <v>3.6</v>
+      </c>
+      <c r="BP122">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -25405,7 +25405,7 @@
         <v>45589.58333333334</v>
       </c>
       <c r="F119">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>90</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['11', '26', '61']</t>
+  </si>
+  <si>
+    <t>['45', '86']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -1074,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1339,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1617,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ3">
         <v>0.17</v>
@@ -1745,7 +1751,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1823,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ4">
         <v>1.86</v>
@@ -1951,7 +1957,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2363,7 +2369,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2444,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2569,7 +2575,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2775,7 +2781,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2981,7 +2987,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3062,7 +3068,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3187,7 +3193,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3393,7 +3399,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3599,7 +3605,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3805,7 +3811,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4835,7 +4841,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5328,7 +5334,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5453,7 +5459,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5659,7 +5665,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5865,7 +5871,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6071,7 +6077,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6277,7 +6283,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6355,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26">
         <v>0.2</v>
@@ -6689,7 +6695,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6895,7 +6901,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7307,7 +7313,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7388,7 +7394,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7591,7 +7597,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ32">
         <v>1.86</v>
@@ -7719,7 +7725,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8131,7 +8137,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8337,7 +8343,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8749,7 +8755,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8830,7 +8836,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9985,7 +9991,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10603,7 +10609,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11505,7 +11511,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
         <v>1.17</v>
@@ -11714,7 +11720,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -11917,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12251,7 +12257,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12457,7 +12463,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12663,7 +12669,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12869,7 +12875,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13075,7 +13081,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13362,7 +13368,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13899,7 +13905,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14105,7 +14111,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14517,7 +14523,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14929,7 +14935,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15135,7 +15141,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15213,7 +15219,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15419,7 +15425,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ70">
         <v>1.17</v>
@@ -15753,7 +15759,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15959,7 +15965,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16165,7 +16171,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16371,7 +16377,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16989,7 +16995,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17070,7 +17076,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17195,7 +17201,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17607,7 +17613,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17813,7 +17819,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -17891,7 +17897,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ82">
         <v>2.2</v>
@@ -18225,7 +18231,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18512,7 +18518,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -18843,7 +18849,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19130,7 +19136,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ88">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.96</v>
@@ -19255,7 +19261,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19461,7 +19467,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20079,7 +20085,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20157,7 +20163,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20285,7 +20291,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20491,7 +20497,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21521,7 +21527,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21727,7 +21733,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21808,7 +21814,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR101">
         <v>1.58</v>
@@ -21933,7 +21939,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22220,7 +22226,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.13</v>
@@ -22835,7 +22841,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -22963,7 +22969,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23041,7 +23047,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ107">
         <v>3</v>
@@ -23581,7 +23587,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23993,7 +23999,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24199,7 +24205,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24405,7 +24411,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25229,7 +25235,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25641,7 +25647,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26053,7 +26059,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26210,6 +26216,418 @@
       </c>
       <c r="BP122">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7481485</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45591.46875</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>87</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>176</v>
+      </c>
+      <c r="P123" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q123">
+        <v>2.4</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>5.5</v>
+      </c>
+      <c r="T123">
+        <v>1.5</v>
+      </c>
+      <c r="U123">
+        <v>2.5</v>
+      </c>
+      <c r="V123">
+        <v>3.5</v>
+      </c>
+      <c r="W123">
+        <v>1.29</v>
+      </c>
+      <c r="X123">
+        <v>11</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>1.72</v>
+      </c>
+      <c r="AA123">
+        <v>3.4</v>
+      </c>
+      <c r="AB123">
+        <v>4.5</v>
+      </c>
+      <c r="AC123">
+        <v>1.09</v>
+      </c>
+      <c r="AD123">
+        <v>7</v>
+      </c>
+      <c r="AE123">
+        <v>1.57</v>
+      </c>
+      <c r="AF123">
+        <v>2.25</v>
+      </c>
+      <c r="AG123">
+        <v>2.1</v>
+      </c>
+      <c r="AH123">
+        <v>1.65</v>
+      </c>
+      <c r="AI123">
+        <v>2.2</v>
+      </c>
+      <c r="AJ123">
+        <v>1.62</v>
+      </c>
+      <c r="AK123">
+        <v>1.15</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>2.05</v>
+      </c>
+      <c r="AN123">
+        <v>2.17</v>
+      </c>
+      <c r="AO123">
+        <v>1</v>
+      </c>
+      <c r="AP123">
+        <v>2.29</v>
+      </c>
+      <c r="AQ123">
+        <v>0.86</v>
+      </c>
+      <c r="AR123">
+        <v>1.12</v>
+      </c>
+      <c r="AS123">
+        <v>0.85</v>
+      </c>
+      <c r="AT123">
+        <v>1.97</v>
+      </c>
+      <c r="AU123">
+        <v>7</v>
+      </c>
+      <c r="AV123">
+        <v>6</v>
+      </c>
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>13</v>
+      </c>
+      <c r="AZ123">
+        <v>12</v>
+      </c>
+      <c r="BA123">
+        <v>4</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>8</v>
+      </c>
+      <c r="BD123">
+        <v>1.45</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>3.33</v>
+      </c>
+      <c r="BG123">
+        <v>1.43</v>
+      </c>
+      <c r="BH123">
+        <v>2.6</v>
+      </c>
+      <c r="BI123">
+        <v>1.75</v>
+      </c>
+      <c r="BJ123">
+        <v>1.96</v>
+      </c>
+      <c r="BK123">
+        <v>2.24</v>
+      </c>
+      <c r="BL123">
+        <v>1.57</v>
+      </c>
+      <c r="BM123">
+        <v>2.98</v>
+      </c>
+      <c r="BN123">
+        <v>1.34</v>
+      </c>
+      <c r="BO123">
+        <v>3.62</v>
+      </c>
+      <c r="BP123">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7481478</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45591.46875</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" t="s">
+        <v>89</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>177</v>
+      </c>
+      <c r="P124" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q124">
+        <v>3.4</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>3.6</v>
+      </c>
+      <c r="T124">
+        <v>1.5</v>
+      </c>
+      <c r="U124">
+        <v>2.5</v>
+      </c>
+      <c r="V124">
+        <v>3.5</v>
+      </c>
+      <c r="W124">
+        <v>1.29</v>
+      </c>
+      <c r="X124">
+        <v>10</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>2.5</v>
+      </c>
+      <c r="AA124">
+        <v>3.1</v>
+      </c>
+      <c r="AB124">
+        <v>2.7</v>
+      </c>
+      <c r="AC124">
+        <v>1.08</v>
+      </c>
+      <c r="AD124">
+        <v>7.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.42</v>
+      </c>
+      <c r="AF124">
+        <v>2.8</v>
+      </c>
+      <c r="AG124">
+        <v>2.2</v>
+      </c>
+      <c r="AH124">
+        <v>1.57</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.73</v>
+      </c>
+      <c r="AK124">
+        <v>1.42</v>
+      </c>
+      <c r="AL124">
+        <v>1.3</v>
+      </c>
+      <c r="AM124">
+        <v>1.48</v>
+      </c>
+      <c r="AN124">
+        <v>0.5</v>
+      </c>
+      <c r="AO124">
+        <v>1.17</v>
+      </c>
+      <c r="AP124">
+        <v>0.86</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.53</v>
+      </c>
+      <c r="AS124">
+        <v>1.12</v>
+      </c>
+      <c r="AT124">
+        <v>2.65</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>2</v>
+      </c>
+      <c r="AW124">
+        <v>4</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>11</v>
+      </c>
+      <c r="AZ124">
+        <v>5</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>7</v>
+      </c>
+      <c r="BC124">
+        <v>10</v>
+      </c>
+      <c r="BD124">
+        <v>1.85</v>
+      </c>
+      <c r="BE124">
+        <v>7.5</v>
+      </c>
+      <c r="BF124">
+        <v>2.29</v>
+      </c>
+      <c r="BG124">
+        <v>1.35</v>
+      </c>
+      <c r="BH124">
+        <v>2.95</v>
+      </c>
+      <c r="BI124">
+        <v>1.61</v>
+      </c>
+      <c r="BJ124">
+        <v>2.18</v>
+      </c>
+      <c r="BK124">
+        <v>2.01</v>
+      </c>
+      <c r="BL124">
+        <v>1.72</v>
+      </c>
+      <c r="BM124">
+        <v>2.62</v>
+      </c>
+      <c r="BN124">
+        <v>1.43</v>
+      </c>
+      <c r="BO124">
+        <v>3.52</v>
+      </c>
+      <c r="BP124">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,12 @@
     <t>['45', '86']</t>
   </si>
   <si>
+    <t>['45+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -700,9 +706,6 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -719,6 +722,9 @@
   </si>
   <si>
     <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['1', '76']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1345,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1751,7 +1757,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1957,7 +1963,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2244,7 +2250,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2369,7 +2375,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2575,7 +2581,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2781,7 +2787,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2987,7 +2993,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3193,7 +3199,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3399,7 +3405,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3605,7 +3611,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3811,7 +3817,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4098,7 +4104,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4841,7 +4847,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5459,7 +5465,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5665,7 +5671,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5743,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23">
         <v>1.4</v>
@@ -5871,7 +5877,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6077,7 +6083,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6283,7 +6289,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6695,7 +6701,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6901,7 +6907,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -6982,7 +6988,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.44</v>
@@ -7313,7 +7319,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7725,7 +7731,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8137,7 +8143,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8343,7 +8349,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8755,7 +8761,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9039,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9863,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>0.8</v>
@@ -9991,7 +9997,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10481,7 +10487,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ46">
         <v>0.83</v>
@@ -10609,7 +10615,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10690,7 +10696,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -12257,7 +12263,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12463,7 +12469,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12544,7 +12550,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.94</v>
@@ -12669,7 +12675,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12875,7 +12881,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13081,7 +13087,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13571,7 +13577,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>1.17</v>
@@ -13905,7 +13911,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14111,7 +14117,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14523,7 +14529,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14935,7 +14941,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15141,7 +15147,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15222,7 +15228,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15759,7 +15765,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15965,7 +15971,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16171,7 +16177,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16377,7 +16383,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16661,7 +16667,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16995,7 +17001,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17201,7 +17207,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17613,7 +17619,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17819,7 +17825,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18231,7 +18237,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18309,7 +18315,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -18849,7 +18855,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18930,7 +18936,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.47</v>
@@ -19261,7 +19267,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19467,7 +19473,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19960,7 +19966,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20085,7 +20091,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20291,7 +20297,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20497,7 +20503,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21527,7 +21533,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21608,7 +21614,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ100">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR100">
         <v>1.65</v>
@@ -21733,7 +21739,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21811,7 +21817,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ101">
         <v>0.86</v>
@@ -21939,7 +21945,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22020,7 +22026,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22969,7 +22975,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23587,7 +23593,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23665,7 +23671,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -23999,7 +24005,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24205,7 +24211,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24411,7 +24417,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25235,7 +25241,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25647,7 +25653,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26059,7 +26065,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26265,7 +26271,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26628,6 +26634,418 @@
       </c>
       <c r="BP124">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7481479</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45591.5625</v>
+      </c>
+      <c r="F125">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>88</v>
+      </c>
+      <c r="H125" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>178</v>
+      </c>
+      <c r="P125" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q125">
+        <v>2.6</v>
+      </c>
+      <c r="R125">
+        <v>2.1</v>
+      </c>
+      <c r="S125">
+        <v>4.5</v>
+      </c>
+      <c r="T125">
+        <v>1.44</v>
+      </c>
+      <c r="U125">
+        <v>2.63</v>
+      </c>
+      <c r="V125">
+        <v>3.25</v>
+      </c>
+      <c r="W125">
+        <v>1.33</v>
+      </c>
+      <c r="X125">
+        <v>9</v>
+      </c>
+      <c r="Y125">
+        <v>1.07</v>
+      </c>
+      <c r="Z125">
+        <v>1.98</v>
+      </c>
+      <c r="AA125">
+        <v>3.3</v>
+      </c>
+      <c r="AB125">
+        <v>3.5</v>
+      </c>
+      <c r="AC125">
+        <v>1.07</v>
+      </c>
+      <c r="AD125">
+        <v>8</v>
+      </c>
+      <c r="AE125">
+        <v>1.36</v>
+      </c>
+      <c r="AF125">
+        <v>3.1</v>
+      </c>
+      <c r="AG125">
+        <v>2</v>
+      </c>
+      <c r="AH125">
+        <v>1.7</v>
+      </c>
+      <c r="AI125">
+        <v>1.83</v>
+      </c>
+      <c r="AJ125">
+        <v>1.83</v>
+      </c>
+      <c r="AK125">
+        <v>1.25</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.8</v>
+      </c>
+      <c r="AN125">
+        <v>2.2</v>
+      </c>
+      <c r="AO125">
+        <v>1</v>
+      </c>
+      <c r="AP125">
+        <v>2.33</v>
+      </c>
+      <c r="AQ125">
+        <v>0.83</v>
+      </c>
+      <c r="AR125">
+        <v>1.56</v>
+      </c>
+      <c r="AS125">
+        <v>1.12</v>
+      </c>
+      <c r="AT125">
+        <v>2.68</v>
+      </c>
+      <c r="AU125">
+        <v>10</v>
+      </c>
+      <c r="AV125">
+        <v>4</v>
+      </c>
+      <c r="AW125">
+        <v>5</v>
+      </c>
+      <c r="AX125">
+        <v>3</v>
+      </c>
+      <c r="AY125">
+        <v>18</v>
+      </c>
+      <c r="AZ125">
+        <v>8</v>
+      </c>
+      <c r="BA125">
+        <v>2</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>8</v>
+      </c>
+      <c r="BD125">
+        <v>1.41</v>
+      </c>
+      <c r="BE125">
+        <v>9</v>
+      </c>
+      <c r="BF125">
+        <v>3.49</v>
+      </c>
+      <c r="BG125">
+        <v>1.28</v>
+      </c>
+      <c r="BH125">
+        <v>3.38</v>
+      </c>
+      <c r="BI125">
+        <v>1.49</v>
+      </c>
+      <c r="BJ125">
+        <v>2.43</v>
+      </c>
+      <c r="BK125">
+        <v>1.95</v>
+      </c>
+      <c r="BL125">
+        <v>1.85</v>
+      </c>
+      <c r="BM125">
+        <v>2.32</v>
+      </c>
+      <c r="BN125">
+        <v>1.54</v>
+      </c>
+      <c r="BO125">
+        <v>3.07</v>
+      </c>
+      <c r="BP125">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7481486</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45591.5625</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>91</v>
+      </c>
+      <c r="H126" t="s">
+        <v>86</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>179</v>
+      </c>
+      <c r="P126" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q126">
+        <v>2.63</v>
+      </c>
+      <c r="R126">
+        <v>2.1</v>
+      </c>
+      <c r="S126">
+        <v>4.5</v>
+      </c>
+      <c r="T126">
+        <v>1.44</v>
+      </c>
+      <c r="U126">
+        <v>2.63</v>
+      </c>
+      <c r="V126">
+        <v>3.25</v>
+      </c>
+      <c r="W126">
+        <v>1.33</v>
+      </c>
+      <c r="X126">
+        <v>9</v>
+      </c>
+      <c r="Y126">
+        <v>1.07</v>
+      </c>
+      <c r="Z126">
+        <v>1.9</v>
+      </c>
+      <c r="AA126">
+        <v>3.3</v>
+      </c>
+      <c r="AB126">
+        <v>3.7</v>
+      </c>
+      <c r="AC126">
+        <v>1.07</v>
+      </c>
+      <c r="AD126">
+        <v>8</v>
+      </c>
+      <c r="AE126">
+        <v>1.38</v>
+      </c>
+      <c r="AF126">
+        <v>3</v>
+      </c>
+      <c r="AG126">
+        <v>2.1</v>
+      </c>
+      <c r="AH126">
+        <v>1.65</v>
+      </c>
+      <c r="AI126">
+        <v>1.91</v>
+      </c>
+      <c r="AJ126">
+        <v>1.8</v>
+      </c>
+      <c r="AK126">
+        <v>1.22</v>
+      </c>
+      <c r="AL126">
+        <v>1.25</v>
+      </c>
+      <c r="AM126">
+        <v>1.83</v>
+      </c>
+      <c r="AN126">
+        <v>1.5</v>
+      </c>
+      <c r="AO126">
+        <v>1.8</v>
+      </c>
+      <c r="AP126">
+        <v>1.2</v>
+      </c>
+      <c r="AQ126">
+        <v>2</v>
+      </c>
+      <c r="AR126">
+        <v>1.8</v>
+      </c>
+      <c r="AS126">
+        <v>1.31</v>
+      </c>
+      <c r="AT126">
+        <v>3.11</v>
+      </c>
+      <c r="AU126">
+        <v>5</v>
+      </c>
+      <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>4</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>11</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
+        <v>2</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>7</v>
+      </c>
+      <c r="BD126">
+        <v>1.59</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>2.9</v>
+      </c>
+      <c r="BG126">
+        <v>1.28</v>
+      </c>
+      <c r="BH126">
+        <v>3.35</v>
+      </c>
+      <c r="BI126">
+        <v>1.5</v>
+      </c>
+      <c r="BJ126">
+        <v>2.42</v>
+      </c>
+      <c r="BK126">
+        <v>1.98</v>
+      </c>
+      <c r="BL126">
+        <v>1.82</v>
+      </c>
+      <c r="BM126">
+        <v>2.33</v>
+      </c>
+      <c r="BN126">
+        <v>1.53</v>
+      </c>
+      <c r="BO126">
+        <v>3.1</v>
+      </c>
+      <c r="BP126">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,15 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['9', '56']</t>
+  </si>
+  <si>
+    <t>['42', '79', '90']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -725,6 +734,18 @@
   </si>
   <si>
     <t>['1', '76']</t>
+  </si>
+  <si>
+    <t>['18', '23']</t>
+  </si>
+  <si>
+    <t>['82', '85']</t>
+  </si>
+  <si>
+    <t>['6', '9', '85']</t>
+  </si>
+  <si>
+    <t>['18', '31']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1366,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1423,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1757,7 +1778,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1963,7 +1984,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2375,7 +2396,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2453,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2581,7 +2602,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2662,7 +2683,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ8">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2787,7 +2808,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2868,7 +2889,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ9">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2993,7 +3014,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3199,7 +3220,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3277,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3405,7 +3426,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3611,7 +3632,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3692,7 +3713,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3817,7 +3838,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3895,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
         <v>0.83</v>
@@ -4719,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4847,7 +4868,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4928,7 +4949,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5131,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5465,7 +5486,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5671,7 +5692,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5752,7 +5773,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5877,7 +5898,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5955,7 +5976,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6083,7 +6104,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6289,7 +6310,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6701,7 +6722,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6779,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -6907,7 +6928,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7191,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7319,7 +7340,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7731,7 +7752,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7812,7 +7833,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -8015,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.17</v>
@@ -8143,7 +8164,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8349,7 +8370,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8427,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
         <v>0.83</v>
@@ -8633,10 +8654,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8761,7 +8782,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9460,7 +9481,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ41">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9666,7 +9687,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -9997,7 +10018,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10281,10 +10302,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10615,7 +10636,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11105,7 +11126,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -12263,7 +12284,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12341,7 +12362,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>2.2</v>
@@ -12469,7 +12490,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12675,7 +12696,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12753,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12881,7 +12902,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13087,7 +13108,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13165,10 +13186,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.47</v>
@@ -13580,7 +13601,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13911,7 +13932,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14117,7 +14138,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14401,7 +14422,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14529,7 +14550,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14610,7 +14631,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -14813,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
         <v>0.17</v>
@@ -14941,7 +14962,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15019,7 +15040,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
         <v>0.83</v>
@@ -15147,7 +15168,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15765,7 +15786,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15843,7 +15864,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -15971,7 +15992,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16052,7 +16073,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16177,7 +16198,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16383,7 +16404,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16876,7 +16897,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.33</v>
@@ -17001,7 +17022,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17207,7 +17228,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17285,7 +17306,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
         <v>1.4</v>
@@ -17619,7 +17640,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17825,7 +17846,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18112,7 +18133,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ83">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18237,7 +18258,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18727,7 +18748,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -18855,7 +18876,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19267,7 +19288,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19345,7 +19366,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>0.17</v>
@@ -19473,7 +19494,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20091,7 +20112,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20297,7 +20318,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20375,7 +20396,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ94">
         <v>1.17</v>
@@ -20503,7 +20524,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20584,7 +20605,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ95">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -20790,7 +20811,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -20993,7 +21014,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ97">
         <v>0.17</v>
@@ -21405,7 +21426,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>0.83</v>
@@ -21533,7 +21554,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21739,7 +21760,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22023,7 +22044,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ102">
         <v>0.83</v>
@@ -22229,7 +22250,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22438,7 +22459,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ104">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR104">
         <v>1.64</v>
@@ -22641,7 +22662,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ105">
         <v>0.2</v>
@@ -22850,7 +22871,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR106">
         <v>1.12</v>
@@ -22975,7 +22996,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23465,7 +23486,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23593,7 +23614,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23674,7 +23695,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ110">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -23877,10 +23898,10 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR111">
         <v>1.54</v>
@@ -24005,7 +24026,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24211,7 +24232,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24417,7 +24438,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25241,7 +25262,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25653,7 +25674,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26065,7 +26086,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26271,7 +26292,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26447,7 +26468,7 @@
         <v>45591.46875</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
         <v>72</v>
@@ -26859,7 +26880,7 @@
         <v>45591.5625</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
         <v>91</v>
@@ -26889,7 +26910,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27046,6 +27067,1242 @@
       </c>
       <c r="BP126">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7481487</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45592.41666666666</v>
+      </c>
+      <c r="F127">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>83</v>
+      </c>
+      <c r="H127" t="s">
+        <v>74</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>106</v>
+      </c>
+      <c r="P127" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q127">
+        <v>3.4</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>3.5</v>
+      </c>
+      <c r="T127">
+        <v>1.5</v>
+      </c>
+      <c r="U127">
+        <v>2.5</v>
+      </c>
+      <c r="V127">
+        <v>3.5</v>
+      </c>
+      <c r="W127">
+        <v>1.29</v>
+      </c>
+      <c r="X127">
+        <v>10</v>
+      </c>
+      <c r="Y127">
+        <v>1.06</v>
+      </c>
+      <c r="Z127">
+        <v>2.43</v>
+      </c>
+      <c r="AA127">
+        <v>2.96</v>
+      </c>
+      <c r="AB127">
+        <v>3.22</v>
+      </c>
+      <c r="AC127">
+        <v>1.08</v>
+      </c>
+      <c r="AD127">
+        <v>7.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.47</v>
+      </c>
+      <c r="AF127">
+        <v>2.5</v>
+      </c>
+      <c r="AG127">
+        <v>2.25</v>
+      </c>
+      <c r="AH127">
+        <v>1.57</v>
+      </c>
+      <c r="AI127">
+        <v>1.91</v>
+      </c>
+      <c r="AJ127">
+        <v>1.8</v>
+      </c>
+      <c r="AK127">
+        <v>1.45</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.45</v>
+      </c>
+      <c r="AN127">
+        <v>1.6</v>
+      </c>
+      <c r="AO127">
+        <v>1</v>
+      </c>
+      <c r="AP127">
+        <v>1.83</v>
+      </c>
+      <c r="AQ127">
+        <v>0.83</v>
+      </c>
+      <c r="AR127">
+        <v>1.1</v>
+      </c>
+      <c r="AS127">
+        <v>0.97</v>
+      </c>
+      <c r="AT127">
+        <v>2.07</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>11</v>
+      </c>
+      <c r="AZ127">
+        <v>16</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>6</v>
+      </c>
+      <c r="BC127">
+        <v>6</v>
+      </c>
+      <c r="BD127">
+        <v>1.95</v>
+      </c>
+      <c r="BE127">
+        <v>7.5</v>
+      </c>
+      <c r="BF127">
+        <v>2.1</v>
+      </c>
+      <c r="BG127">
+        <v>1.34</v>
+      </c>
+      <c r="BH127">
+        <v>2.98</v>
+      </c>
+      <c r="BI127">
+        <v>1.6</v>
+      </c>
+      <c r="BJ127">
+        <v>2.19</v>
+      </c>
+      <c r="BK127">
+        <v>2</v>
+      </c>
+      <c r="BL127">
+        <v>1.72</v>
+      </c>
+      <c r="BM127">
+        <v>2.6</v>
+      </c>
+      <c r="BN127">
+        <v>1.44</v>
+      </c>
+      <c r="BO127">
+        <v>3.5</v>
+      </c>
+      <c r="BP127">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7481480</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45592.51041666666</v>
+      </c>
+      <c r="F128">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" t="s">
+        <v>76</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>137</v>
+      </c>
+      <c r="P128" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q128">
+        <v>3.2</v>
+      </c>
+      <c r="R128">
+        <v>2.1</v>
+      </c>
+      <c r="S128">
+        <v>3.5</v>
+      </c>
+      <c r="T128">
+        <v>1.44</v>
+      </c>
+      <c r="U128">
+        <v>2.63</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>1.36</v>
+      </c>
+      <c r="X128">
+        <v>9</v>
+      </c>
+      <c r="Y128">
+        <v>1.07</v>
+      </c>
+      <c r="Z128">
+        <v>2.54</v>
+      </c>
+      <c r="AA128">
+        <v>3.23</v>
+      </c>
+      <c r="AB128">
+        <v>2.89</v>
+      </c>
+      <c r="AC128">
+        <v>1.07</v>
+      </c>
+      <c r="AD128">
+        <v>8</v>
+      </c>
+      <c r="AE128">
+        <v>1.33</v>
+      </c>
+      <c r="AF128">
+        <v>3.25</v>
+      </c>
+      <c r="AG128">
+        <v>1.9</v>
+      </c>
+      <c r="AH128">
+        <v>1.72</v>
+      </c>
+      <c r="AI128">
+        <v>1.73</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
+        <v>1.42</v>
+      </c>
+      <c r="AL128">
+        <v>1.28</v>
+      </c>
+      <c r="AM128">
+        <v>1.5</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>3</v>
+      </c>
+      <c r="AP128">
+        <v>0.83</v>
+      </c>
+      <c r="AQ128">
+        <v>3</v>
+      </c>
+      <c r="AR128">
+        <v>1.61</v>
+      </c>
+      <c r="AS128">
+        <v>1.42</v>
+      </c>
+      <c r="AT128">
+        <v>3.03</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>8</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>16</v>
+      </c>
+      <c r="AZ128">
+        <v>12</v>
+      </c>
+      <c r="BA128">
+        <v>10</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>13</v>
+      </c>
+      <c r="BD128">
+        <v>2</v>
+      </c>
+      <c r="BE128">
+        <v>8</v>
+      </c>
+      <c r="BF128">
+        <v>2.05</v>
+      </c>
+      <c r="BG128">
+        <v>1.25</v>
+      </c>
+      <c r="BH128">
+        <v>3.58</v>
+      </c>
+      <c r="BI128">
+        <v>1.45</v>
+      </c>
+      <c r="BJ128">
+        <v>2.55</v>
+      </c>
+      <c r="BK128">
+        <v>1.75</v>
+      </c>
+      <c r="BL128">
+        <v>1.96</v>
+      </c>
+      <c r="BM128">
+        <v>2.21</v>
+      </c>
+      <c r="BN128">
+        <v>1.59</v>
+      </c>
+      <c r="BO128">
+        <v>2.9</v>
+      </c>
+      <c r="BP128">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7481484</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45592.51041666666</v>
+      </c>
+      <c r="F129">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>93</v>
+      </c>
+      <c r="P129" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q129">
+        <v>2.6</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>1.5</v>
+      </c>
+      <c r="U129">
+        <v>2.5</v>
+      </c>
+      <c r="V129">
+        <v>3.4</v>
+      </c>
+      <c r="W129">
+        <v>1.3</v>
+      </c>
+      <c r="X129">
+        <v>10</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>2.43</v>
+      </c>
+      <c r="AA129">
+        <v>2.92</v>
+      </c>
+      <c r="AB129">
+        <v>2.83</v>
+      </c>
+      <c r="AC129">
+        <v>1.09</v>
+      </c>
+      <c r="AD129">
+        <v>7</v>
+      </c>
+      <c r="AE129">
+        <v>1.44</v>
+      </c>
+      <c r="AF129">
+        <v>2.75</v>
+      </c>
+      <c r="AG129">
+        <v>2.19</v>
+      </c>
+      <c r="AH129">
+        <v>1.6</v>
+      </c>
+      <c r="AI129">
+        <v>2.1</v>
+      </c>
+      <c r="AJ129">
+        <v>1.67</v>
+      </c>
+      <c r="AK129">
+        <v>1.18</v>
+      </c>
+      <c r="AL129">
+        <v>1.25</v>
+      </c>
+      <c r="AM129">
+        <v>1.93</v>
+      </c>
+      <c r="AN129">
+        <v>1.83</v>
+      </c>
+      <c r="AO129">
+        <v>1.4</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>1.17</v>
+      </c>
+      <c r="AR129">
+        <v>1.3</v>
+      </c>
+      <c r="AS129">
+        <v>1.4</v>
+      </c>
+      <c r="AT129">
+        <v>2.7</v>
+      </c>
+      <c r="AU129">
+        <v>9</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>4</v>
+      </c>
+      <c r="AX129">
+        <v>2</v>
+      </c>
+      <c r="AY129">
+        <v>21</v>
+      </c>
+      <c r="AZ129">
+        <v>7</v>
+      </c>
+      <c r="BA129">
+        <v>12</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>15</v>
+      </c>
+      <c r="BD129">
+        <v>1.51</v>
+      </c>
+      <c r="BE129">
+        <v>8.5</v>
+      </c>
+      <c r="BF129">
+        <v>3.16</v>
+      </c>
+      <c r="BG129">
+        <v>1.31</v>
+      </c>
+      <c r="BH129">
+        <v>3.15</v>
+      </c>
+      <c r="BI129">
+        <v>1.55</v>
+      </c>
+      <c r="BJ129">
+        <v>2.29</v>
+      </c>
+      <c r="BK129">
+        <v>2</v>
+      </c>
+      <c r="BL129">
+        <v>1.8</v>
+      </c>
+      <c r="BM129">
+        <v>2.47</v>
+      </c>
+      <c r="BN129">
+        <v>1.48</v>
+      </c>
+      <c r="BO129">
+        <v>3.3</v>
+      </c>
+      <c r="BP129">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7481483</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45592.60416666666</v>
+      </c>
+      <c r="F130">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
+        <v>90</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>180</v>
+      </c>
+      <c r="P130" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q130">
+        <v>2.75</v>
+      </c>
+      <c r="R130">
+        <v>2.1</v>
+      </c>
+      <c r="S130">
+        <v>4</v>
+      </c>
+      <c r="T130">
+        <v>1.4</v>
+      </c>
+      <c r="U130">
+        <v>2.75</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>3.08</v>
+      </c>
+      <c r="AA130">
+        <v>2.14</v>
+      </c>
+      <c r="AB130">
+        <v>3.16</v>
+      </c>
+      <c r="AC130">
+        <v>1.08</v>
+      </c>
+      <c r="AD130">
+        <v>7.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.36</v>
+      </c>
+      <c r="AF130">
+        <v>2.95</v>
+      </c>
+      <c r="AG130">
+        <v>1.76</v>
+      </c>
+      <c r="AH130">
+        <v>1.85</v>
+      </c>
+      <c r="AI130">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130">
+        <v>1.91</v>
+      </c>
+      <c r="AK130">
+        <v>1.52</v>
+      </c>
+      <c r="AL130">
+        <v>1.28</v>
+      </c>
+      <c r="AM130">
+        <v>1.4</v>
+      </c>
+      <c r="AN130">
+        <v>2</v>
+      </c>
+      <c r="AO130">
+        <v>1.17</v>
+      </c>
+      <c r="AP130">
+        <v>1.83</v>
+      </c>
+      <c r="AQ130">
+        <v>1.14</v>
+      </c>
+      <c r="AR130">
+        <v>1.16</v>
+      </c>
+      <c r="AS130">
+        <v>1.25</v>
+      </c>
+      <c r="AT130">
+        <v>2.41</v>
+      </c>
+      <c r="AU130">
+        <v>4</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>13</v>
+      </c>
+      <c r="AY130">
+        <v>10</v>
+      </c>
+      <c r="AZ130">
+        <v>25</v>
+      </c>
+      <c r="BA130">
+        <v>1</v>
+      </c>
+      <c r="BB130">
+        <v>7</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>2.12</v>
+      </c>
+      <c r="BE130">
+        <v>5.8</v>
+      </c>
+      <c r="BF130">
+        <v>2.05</v>
+      </c>
+      <c r="BG130">
+        <v>1.23</v>
+      </c>
+      <c r="BH130">
+        <v>3.7</v>
+      </c>
+      <c r="BI130">
+        <v>1.46</v>
+      </c>
+      <c r="BJ130">
+        <v>2.5</v>
+      </c>
+      <c r="BK130">
+        <v>1.82</v>
+      </c>
+      <c r="BL130">
+        <v>1.85</v>
+      </c>
+      <c r="BM130">
+        <v>2.42</v>
+      </c>
+      <c r="BN130">
+        <v>1.48</v>
+      </c>
+      <c r="BO130">
+        <v>3.3</v>
+      </c>
+      <c r="BP130">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7481477</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45592.60416666666</v>
+      </c>
+      <c r="F131">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>85</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>6</v>
+      </c>
+      <c r="O131" t="s">
+        <v>181</v>
+      </c>
+      <c r="P131" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q131">
+        <v>3.25</v>
+      </c>
+      <c r="R131">
+        <v>2.05</v>
+      </c>
+      <c r="S131">
+        <v>3.5</v>
+      </c>
+      <c r="T131">
+        <v>1.5</v>
+      </c>
+      <c r="U131">
+        <v>2.5</v>
+      </c>
+      <c r="V131">
+        <v>3.4</v>
+      </c>
+      <c r="W131">
+        <v>1.3</v>
+      </c>
+      <c r="X131">
+        <v>10</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>2.37</v>
+      </c>
+      <c r="AA131">
+        <v>3.11</v>
+      </c>
+      <c r="AB131">
+        <v>3.26</v>
+      </c>
+      <c r="AC131">
+        <v>1.08</v>
+      </c>
+      <c r="AD131">
+        <v>7.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.4</v>
+      </c>
+      <c r="AF131">
+        <v>2.9</v>
+      </c>
+      <c r="AG131">
+        <v>2.12</v>
+      </c>
+      <c r="AH131">
+        <v>1.64</v>
+      </c>
+      <c r="AI131">
+        <v>1.83</v>
+      </c>
+      <c r="AJ131">
+        <v>1.83</v>
+      </c>
+      <c r="AK131">
+        <v>1.42</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.48</v>
+      </c>
+      <c r="AN131">
+        <v>1.4</v>
+      </c>
+      <c r="AO131">
+        <v>1</v>
+      </c>
+      <c r="AP131">
+        <v>1.33</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>1.64</v>
+      </c>
+      <c r="AS131">
+        <v>1.08</v>
+      </c>
+      <c r="AT131">
+        <v>2.72</v>
+      </c>
+      <c r="AU131">
+        <v>12</v>
+      </c>
+      <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>8</v>
+      </c>
+      <c r="AX131">
+        <v>2</v>
+      </c>
+      <c r="AY131">
+        <v>24</v>
+      </c>
+      <c r="AZ131">
+        <v>10</v>
+      </c>
+      <c r="BA131">
+        <v>12</v>
+      </c>
+      <c r="BB131">
+        <v>5</v>
+      </c>
+      <c r="BC131">
+        <v>17</v>
+      </c>
+      <c r="BD131">
+        <v>1.95</v>
+      </c>
+      <c r="BE131">
+        <v>7.5</v>
+      </c>
+      <c r="BF131">
+        <v>2.1</v>
+      </c>
+      <c r="BG131">
+        <v>1.34</v>
+      </c>
+      <c r="BH131">
+        <v>2.98</v>
+      </c>
+      <c r="BI131">
+        <v>1.6</v>
+      </c>
+      <c r="BJ131">
+        <v>2.19</v>
+      </c>
+      <c r="BK131">
+        <v>2</v>
+      </c>
+      <c r="BL131">
+        <v>1.72</v>
+      </c>
+      <c r="BM131">
+        <v>2.6</v>
+      </c>
+      <c r="BN131">
+        <v>1.44</v>
+      </c>
+      <c r="BO131">
+        <v>3.5</v>
+      </c>
+      <c r="BP131">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7481482</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45592.70833333334</v>
+      </c>
+      <c r="F132">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>70</v>
+      </c>
+      <c r="H132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>182</v>
+      </c>
+      <c r="P132" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q132">
+        <v>2.88</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>4.33</v>
+      </c>
+      <c r="T132">
+        <v>1.5</v>
+      </c>
+      <c r="U132">
+        <v>2.5</v>
+      </c>
+      <c r="V132">
+        <v>3.4</v>
+      </c>
+      <c r="W132">
+        <v>1.3</v>
+      </c>
+      <c r="X132">
+        <v>10</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>2.21</v>
+      </c>
+      <c r="AA132">
+        <v>4.56</v>
+      </c>
+      <c r="AB132">
+        <v>2.29</v>
+      </c>
+      <c r="AC132">
+        <v>1.08</v>
+      </c>
+      <c r="AD132">
+        <v>7.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.42</v>
+      </c>
+      <c r="AF132">
+        <v>2.8</v>
+      </c>
+      <c r="AG132">
+        <v>1.94</v>
+      </c>
+      <c r="AH132">
+        <v>1.9</v>
+      </c>
+      <c r="AI132">
+        <v>2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.73</v>
+      </c>
+      <c r="AK132">
+        <v>1.28</v>
+      </c>
+      <c r="AL132">
+        <v>1.3</v>
+      </c>
+      <c r="AM132">
+        <v>1.7</v>
+      </c>
+      <c r="AN132">
+        <v>1.33</v>
+      </c>
+      <c r="AO132">
+        <v>1.17</v>
+      </c>
+      <c r="AP132">
+        <v>1.14</v>
+      </c>
+      <c r="AQ132">
+        <v>1.43</v>
+      </c>
+      <c r="AR132">
+        <v>1.78</v>
+      </c>
+      <c r="AS132">
+        <v>1.19</v>
+      </c>
+      <c r="AT132">
+        <v>2.97</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>9</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>3</v>
+      </c>
+      <c r="AY132">
+        <v>18</v>
+      </c>
+      <c r="AZ132">
+        <v>13</v>
+      </c>
+      <c r="BA132">
+        <v>3</v>
+      </c>
+      <c r="BB132">
+        <v>7</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>1.82</v>
+      </c>
+      <c r="BE132">
+        <v>8</v>
+      </c>
+      <c r="BF132">
+        <v>2.33</v>
+      </c>
+      <c r="BG132">
+        <v>1.29</v>
+      </c>
+      <c r="BH132">
+        <v>3.25</v>
+      </c>
+      <c r="BI132">
+        <v>1.52</v>
+      </c>
+      <c r="BJ132">
+        <v>2.36</v>
+      </c>
+      <c r="BK132">
+        <v>1.92</v>
+      </c>
+      <c r="BL132">
+        <v>1.88</v>
+      </c>
+      <c r="BM132">
+        <v>2.39</v>
+      </c>
+      <c r="BN132">
+        <v>1.51</v>
+      </c>
+      <c r="BO132">
+        <v>3.2</v>
+      </c>
+      <c r="BP132">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -747,6 +747,9 @@
   <si>
     <t>['18', '31']</t>
   </si>
+  <si>
+    <t>['13']</t>
+  </si>
 </sst>
 </file>
 
@@ -1107,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3507,7 +3510,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -6391,7 +6394,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ26">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -10923,7 +10926,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>1.67</v>
@@ -16485,7 +16488,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ75">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -22665,7 +22668,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ105">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR105">
         <v>1.71</v>
@@ -27292,7 +27295,7 @@
         <v>45592.51041666666</v>
       </c>
       <c r="F128">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
         <v>75</v>
@@ -28303,6 +28306,212 @@
       </c>
       <c r="BP132">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7481481</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45593.6875</v>
+      </c>
+      <c r="F133">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s">
+        <v>84</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>106</v>
+      </c>
+      <c r="P133" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q133">
+        <v>3.1</v>
+      </c>
+      <c r="R133">
+        <v>1.91</v>
+      </c>
+      <c r="S133">
+        <v>4.33</v>
+      </c>
+      <c r="T133">
+        <v>1.62</v>
+      </c>
+      <c r="U133">
+        <v>2.2</v>
+      </c>
+      <c r="V133">
+        <v>4</v>
+      </c>
+      <c r="W133">
+        <v>1.22</v>
+      </c>
+      <c r="X133">
+        <v>13</v>
+      </c>
+      <c r="Y133">
+        <v>1.04</v>
+      </c>
+      <c r="Z133">
+        <v>2.36</v>
+      </c>
+      <c r="AA133">
+        <v>3.44</v>
+      </c>
+      <c r="AB133">
+        <v>2.55</v>
+      </c>
+      <c r="AC133">
+        <v>1.12</v>
+      </c>
+      <c r="AD133">
+        <v>6</v>
+      </c>
+      <c r="AE133">
+        <v>1.55</v>
+      </c>
+      <c r="AF133">
+        <v>2.3</v>
+      </c>
+      <c r="AG133">
+        <v>2.4</v>
+      </c>
+      <c r="AH133">
+        <v>1.5</v>
+      </c>
+      <c r="AI133">
+        <v>2.25</v>
+      </c>
+      <c r="AJ133">
+        <v>1.57</v>
+      </c>
+      <c r="AK133">
+        <v>1.3</v>
+      </c>
+      <c r="AL133">
+        <v>1.33</v>
+      </c>
+      <c r="AM133">
+        <v>1.62</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>0.2</v>
+      </c>
+      <c r="AP133">
+        <v>1</v>
+      </c>
+      <c r="AQ133">
+        <v>0.33</v>
+      </c>
+      <c r="AR133">
+        <v>1.15</v>
+      </c>
+      <c r="AS133">
+        <v>1.03</v>
+      </c>
+      <c r="AT133">
+        <v>2.18</v>
+      </c>
+      <c r="AU133">
+        <v>5</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>2</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>9</v>
+      </c>
+      <c r="AZ133">
+        <v>11</v>
+      </c>
+      <c r="BA133">
+        <v>9</v>
+      </c>
+      <c r="BB133">
+        <v>2</v>
+      </c>
+      <c r="BC133">
+        <v>11</v>
+      </c>
+      <c r="BD133">
+        <v>1.55</v>
+      </c>
+      <c r="BE133">
+        <v>8</v>
+      </c>
+      <c r="BF133">
+        <v>2.92</v>
+      </c>
+      <c r="BG133">
+        <v>1.35</v>
+      </c>
+      <c r="BH133">
+        <v>2.95</v>
+      </c>
+      <c r="BI133">
+        <v>1.61</v>
+      </c>
+      <c r="BJ133">
+        <v>2.17</v>
+      </c>
+      <c r="BK133">
+        <v>2.02</v>
+      </c>
+      <c r="BL133">
+        <v>1.71</v>
+      </c>
+      <c r="BM133">
+        <v>2.63</v>
+      </c>
+      <c r="BN133">
+        <v>1.43</v>
+      </c>
+      <c r="BO133">
+        <v>3.55</v>
+      </c>
+      <c r="BP133">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,21 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['27', '90+3']</t>
+  </si>
+  <si>
+    <t>['1', '63']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['42', '72', '88']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -749,6 +764,15 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['41', '45']</t>
+  </si>
+  <si>
+    <t>['7', '25', '48', '88', '89']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1393,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1450,7 +1474,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1781,7 +1805,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1987,7 +2011,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2271,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2399,7 +2423,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2605,7 +2629,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2683,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
         <v>1.14</v>
@@ -2811,7 +2835,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2889,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
         <v>1.43</v>
@@ -3017,7 +3041,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3223,7 +3247,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3429,7 +3453,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3635,7 +3659,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3713,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
         <v>0.83</v>
@@ -3841,7 +3865,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3922,7 +3946,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4125,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ15">
         <v>0.83</v>
@@ -4334,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4540,7 +4564,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4746,7 +4770,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4871,7 +4895,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4949,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19">
         <v>1.14</v>
@@ -5158,7 +5182,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5489,7 +5513,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5567,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ22">
         <v>1.86</v>
@@ -5695,7 +5719,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5776,7 +5800,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5901,7 +5925,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6107,7 +6131,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6185,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -6313,7 +6337,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6725,7 +6749,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6806,7 +6830,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -6931,7 +6955,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7343,7 +7367,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7755,7 +7779,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7833,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33">
         <v>1.43</v>
@@ -8167,7 +8191,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8245,7 +8269,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8373,7 +8397,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8454,7 +8478,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ36">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR36">
         <v>2.09</v>
@@ -8660,7 +8684,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8785,7 +8809,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8863,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9278,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9481,7 +9505,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ41">
         <v>1.43</v>
@@ -9893,10 +9917,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -10021,7 +10045,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10102,7 +10126,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10514,7 +10538,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10639,7 +10663,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10923,7 +10947,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ48">
         <v>0.33</v>
@@ -11335,7 +11359,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11544,7 +11568,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -11747,7 +11771,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12287,7 +12311,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12368,7 +12392,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12493,7 +12517,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12699,7 +12723,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12905,7 +12929,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -12986,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13111,7 +13135,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13192,7 +13216,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.47</v>
@@ -13601,7 +13625,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -13807,7 +13831,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13935,7 +13959,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14141,7 +14165,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14219,10 +14243,10 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ64">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>1.13</v>
@@ -14428,7 +14452,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14553,7 +14577,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14965,7 +14989,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15046,7 +15070,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15171,7 +15195,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15661,7 +15685,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ71">
         <v>1.86</v>
@@ -15789,7 +15813,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15870,7 +15894,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -15995,7 +16019,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16201,7 +16225,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16282,7 +16306,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR74">
         <v>1.54</v>
@@ -16407,7 +16431,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16897,7 +16921,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -17025,7 +17049,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17103,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78">
         <v>0.86</v>
@@ -17231,7 +17255,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17312,7 +17336,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>1.18</v>
@@ -17518,7 +17542,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17643,7 +17667,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17721,7 +17745,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17849,7 +17873,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -17930,7 +17954,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ82">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR82">
         <v>1.07</v>
@@ -18136,7 +18160,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18261,7 +18285,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18339,7 +18363,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -18545,7 +18569,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ85">
         <v>0.86</v>
@@ -18879,7 +18903,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19291,7 +19315,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19497,7 +19521,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19575,7 +19599,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ90">
         <v>1.86</v>
@@ -19781,7 +19805,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -19987,7 +20011,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ92">
         <v>0.83</v>
@@ -20115,7 +20139,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20321,7 +20345,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20402,7 +20426,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR94">
         <v>1.16</v>
@@ -20527,7 +20551,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20605,7 +20629,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ95">
         <v>1.14</v>
@@ -20811,7 +20835,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -21226,7 +21250,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21432,7 +21456,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR99">
         <v>1.46</v>
@@ -21557,7 +21581,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21635,7 +21659,7 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ100">
         <v>2</v>
@@ -21763,7 +21787,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22999,7 +23023,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23617,7 +23641,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23695,7 +23719,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.14</v>
@@ -23904,7 +23928,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ111">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.54</v>
@@ -24029,7 +24053,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24107,10 +24131,10 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24235,7 +24259,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24316,7 +24340,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ113">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24441,7 +24465,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -24725,10 +24749,10 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ115">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -24931,10 +24955,10 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ116">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR116">
         <v>1.16</v>
@@ -25137,7 +25161,7 @@
         <v>0.2</v>
       </c>
       <c r="AP117">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
         <v>0.17</v>
@@ -25265,7 +25289,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25346,7 +25370,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ118">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR118">
         <v>1.68</v>
@@ -25552,7 +25576,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ119">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR119">
         <v>1.69</v>
@@ -25677,7 +25701,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -25755,7 +25779,7 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ120">
         <v>1.17</v>
@@ -25961,7 +25985,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26089,7 +26113,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26295,7 +26319,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26913,7 +26937,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -26991,7 +27015,7 @@
         <v>1.8</v>
       </c>
       <c r="AP126">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
         <v>2</v>
@@ -27325,7 +27349,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27612,7 +27636,7 @@
         <v>2</v>
       </c>
       <c r="AQ129">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27737,7 +27761,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -27943,7 +27967,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28149,7 +28173,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28355,7 +28379,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28512,6 +28536,1448 @@
       </c>
       <c r="BP133">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7481491</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45598.41666666666</v>
+      </c>
+      <c r="F134">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>74</v>
+      </c>
+      <c r="H134" t="s">
+        <v>79</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>94</v>
+      </c>
+      <c r="P134" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q134">
+        <v>3.1</v>
+      </c>
+      <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
+        <v>3.75</v>
+      </c>
+      <c r="T134">
+        <v>1.55</v>
+      </c>
+      <c r="U134">
+        <v>2.3</v>
+      </c>
+      <c r="V134">
+        <v>3.5</v>
+      </c>
+      <c r="W134">
+        <v>1.25</v>
+      </c>
+      <c r="X134">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y134">
+        <v>1.03</v>
+      </c>
+      <c r="Z134">
+        <v>2.31</v>
+      </c>
+      <c r="AA134">
+        <v>3.02</v>
+      </c>
+      <c r="AB134">
+        <v>3.17</v>
+      </c>
+      <c r="AC134">
+        <v>1.09</v>
+      </c>
+      <c r="AD134">
+        <v>7</v>
+      </c>
+      <c r="AE134">
+        <v>1.48</v>
+      </c>
+      <c r="AF134">
+        <v>2.62</v>
+      </c>
+      <c r="AG134">
+        <v>2.37</v>
+      </c>
+      <c r="AH134">
+        <v>1.52</v>
+      </c>
+      <c r="AI134">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134">
+        <v>1.73</v>
+      </c>
+      <c r="AK134">
+        <v>1.35</v>
+      </c>
+      <c r="AL134">
+        <v>1.3</v>
+      </c>
+      <c r="AM134">
+        <v>1.57</v>
+      </c>
+      <c r="AN134">
+        <v>2.17</v>
+      </c>
+      <c r="AO134">
+        <v>0.8</v>
+      </c>
+      <c r="AP134">
+        <v>1.86</v>
+      </c>
+      <c r="AQ134">
+        <v>1.17</v>
+      </c>
+      <c r="AR134">
+        <v>1.4</v>
+      </c>
+      <c r="AS134">
+        <v>1.31</v>
+      </c>
+      <c r="AT134">
+        <v>2.71</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>5</v>
+      </c>
+      <c r="AY134">
+        <v>13</v>
+      </c>
+      <c r="AZ134">
+        <v>16</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>6</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>1.91</v>
+      </c>
+      <c r="BE134">
+        <v>7.5</v>
+      </c>
+      <c r="BF134">
+        <v>2.2</v>
+      </c>
+      <c r="BG134">
+        <v>1.37</v>
+      </c>
+      <c r="BH134">
+        <v>2.83</v>
+      </c>
+      <c r="BI134">
+        <v>1.65</v>
+      </c>
+      <c r="BJ134">
+        <v>2.1</v>
+      </c>
+      <c r="BK134">
+        <v>2.08</v>
+      </c>
+      <c r="BL134">
+        <v>1.67</v>
+      </c>
+      <c r="BM134">
+        <v>2.73</v>
+      </c>
+      <c r="BN134">
+        <v>1.4</v>
+      </c>
+      <c r="BO134">
+        <v>3.7</v>
+      </c>
+      <c r="BP134">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7481489</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45598.51041666666</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>87</v>
+      </c>
+      <c r="H135" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>5</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135" t="s">
+        <v>183</v>
+      </c>
+      <c r="P135" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q135">
+        <v>3.9</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>2.8</v>
+      </c>
+      <c r="T135">
+        <v>1.45</v>
+      </c>
+      <c r="U135">
+        <v>2.55</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135">
+        <v>1.33</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>3.77</v>
+      </c>
+      <c r="AA135">
+        <v>3.17</v>
+      </c>
+      <c r="AB135">
+        <v>2.01</v>
+      </c>
+      <c r="AC135">
+        <v>1.07</v>
+      </c>
+      <c r="AD135">
+        <v>8</v>
+      </c>
+      <c r="AE135">
+        <v>1.38</v>
+      </c>
+      <c r="AF135">
+        <v>3</v>
+      </c>
+      <c r="AG135">
+        <v>2.18</v>
+      </c>
+      <c r="AH135">
+        <v>1.61</v>
+      </c>
+      <c r="AI135">
+        <v>1.83</v>
+      </c>
+      <c r="AJ135">
+        <v>1.85</v>
+      </c>
+      <c r="AK135">
+        <v>1.62</v>
+      </c>
+      <c r="AL135">
+        <v>1.3</v>
+      </c>
+      <c r="AM135">
+        <v>1.3</v>
+      </c>
+      <c r="AN135">
+        <v>0.2</v>
+      </c>
+      <c r="AO135">
+        <v>0.83</v>
+      </c>
+      <c r="AP135">
+        <v>0.17</v>
+      </c>
+      <c r="AQ135">
+        <v>1.14</v>
+      </c>
+      <c r="AR135">
+        <v>1.12</v>
+      </c>
+      <c r="AS135">
+        <v>1.34</v>
+      </c>
+      <c r="AT135">
+        <v>2.46</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>13</v>
+      </c>
+      <c r="AW135">
+        <v>10</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>17</v>
+      </c>
+      <c r="AZ135">
+        <v>18</v>
+      </c>
+      <c r="BA135">
+        <v>9</v>
+      </c>
+      <c r="BB135">
+        <v>3</v>
+      </c>
+      <c r="BC135">
+        <v>12</v>
+      </c>
+      <c r="BD135">
+        <v>2.22</v>
+      </c>
+      <c r="BE135">
+        <v>8.1</v>
+      </c>
+      <c r="BF135">
+        <v>1.86</v>
+      </c>
+      <c r="BG135">
+        <v>1.29</v>
+      </c>
+      <c r="BH135">
+        <v>3.25</v>
+      </c>
+      <c r="BI135">
+        <v>1.52</v>
+      </c>
+      <c r="BJ135">
+        <v>2.36</v>
+      </c>
+      <c r="BK135">
+        <v>1.92</v>
+      </c>
+      <c r="BL135">
+        <v>1.88</v>
+      </c>
+      <c r="BM135">
+        <v>2.39</v>
+      </c>
+      <c r="BN135">
+        <v>1.51</v>
+      </c>
+      <c r="BO135">
+        <v>3.2</v>
+      </c>
+      <c r="BP135">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7481496</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45598.51041666666</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>77</v>
+      </c>
+      <c r="H136" t="s">
+        <v>72</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>184</v>
+      </c>
+      <c r="P136" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q136">
+        <v>2.9</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>4</v>
+      </c>
+      <c r="T136">
+        <v>1.51</v>
+      </c>
+      <c r="U136">
+        <v>2.4</v>
+      </c>
+      <c r="V136">
+        <v>3.4</v>
+      </c>
+      <c r="W136">
+        <v>1.28</v>
+      </c>
+      <c r="X136">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y136">
+        <v>1.04</v>
+      </c>
+      <c r="Z136">
+        <v>2.1</v>
+      </c>
+      <c r="AA136">
+        <v>3.2</v>
+      </c>
+      <c r="AB136">
+        <v>3.43</v>
+      </c>
+      <c r="AC136">
+        <v>1.09</v>
+      </c>
+      <c r="AD136">
+        <v>7</v>
+      </c>
+      <c r="AE136">
+        <v>1.42</v>
+      </c>
+      <c r="AF136">
+        <v>2.75</v>
+      </c>
+      <c r="AG136">
+        <v>2.23</v>
+      </c>
+      <c r="AH136">
+        <v>1.58</v>
+      </c>
+      <c r="AI136">
+        <v>1.95</v>
+      </c>
+      <c r="AJ136">
+        <v>1.8</v>
+      </c>
+      <c r="AK136">
+        <v>1.3</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.63</v>
+      </c>
+      <c r="AN136">
+        <v>2.17</v>
+      </c>
+      <c r="AO136">
+        <v>1.4</v>
+      </c>
+      <c r="AP136">
+        <v>2.29</v>
+      </c>
+      <c r="AQ136">
+        <v>1.17</v>
+      </c>
+      <c r="AR136">
+        <v>1.55</v>
+      </c>
+      <c r="AS136">
+        <v>1.46</v>
+      </c>
+      <c r="AT136">
+        <v>3.01</v>
+      </c>
+      <c r="AU136">
+        <v>3</v>
+      </c>
+      <c r="AV136">
+        <v>0</v>
+      </c>
+      <c r="AW136">
+        <v>2</v>
+      </c>
+      <c r="AX136">
+        <v>6</v>
+      </c>
+      <c r="AY136">
+        <v>5</v>
+      </c>
+      <c r="AZ136">
+        <v>9</v>
+      </c>
+      <c r="BA136">
+        <v>2</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>7</v>
+      </c>
+      <c r="BD136">
+        <v>1.91</v>
+      </c>
+      <c r="BE136">
+        <v>8</v>
+      </c>
+      <c r="BF136">
+        <v>2.2</v>
+      </c>
+      <c r="BG136">
+        <v>1.31</v>
+      </c>
+      <c r="BH136">
+        <v>3.15</v>
+      </c>
+      <c r="BI136">
+        <v>1.55</v>
+      </c>
+      <c r="BJ136">
+        <v>2.29</v>
+      </c>
+      <c r="BK136">
+        <v>2</v>
+      </c>
+      <c r="BL136">
+        <v>1.8</v>
+      </c>
+      <c r="BM136">
+        <v>2.47</v>
+      </c>
+      <c r="BN136">
+        <v>1.48</v>
+      </c>
+      <c r="BO136">
+        <v>3.3</v>
+      </c>
+      <c r="BP136">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7481497</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45598.60416666666</v>
+      </c>
+      <c r="F137">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>91</v>
+      </c>
+      <c r="H137" t="s">
+        <v>70</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>185</v>
+      </c>
+      <c r="P137" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q137">
+        <v>2.85</v>
+      </c>
+      <c r="R137">
+        <v>2.05</v>
+      </c>
+      <c r="S137">
+        <v>3.75</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.6</v>
+      </c>
+      <c r="V137">
+        <v>2.95</v>
+      </c>
+      <c r="W137">
+        <v>1.35</v>
+      </c>
+      <c r="X137">
+        <v>7.9</v>
+      </c>
+      <c r="Y137">
+        <v>1.05</v>
+      </c>
+      <c r="Z137">
+        <v>2.13</v>
+      </c>
+      <c r="AA137">
+        <v>3.18</v>
+      </c>
+      <c r="AB137">
+        <v>3.31</v>
+      </c>
+      <c r="AC137">
+        <v>1.07</v>
+      </c>
+      <c r="AD137">
+        <v>8</v>
+      </c>
+      <c r="AE137">
+        <v>1.33</v>
+      </c>
+      <c r="AF137">
+        <v>3.1</v>
+      </c>
+      <c r="AG137">
+        <v>2.11</v>
+      </c>
+      <c r="AH137">
+        <v>1.73</v>
+      </c>
+      <c r="AI137">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137">
+        <v>1.95</v>
+      </c>
+      <c r="AK137">
+        <v>1.33</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.63</v>
+      </c>
+      <c r="AN137">
+        <v>1.2</v>
+      </c>
+      <c r="AO137">
+        <v>2.2</v>
+      </c>
+      <c r="AP137">
+        <v>1.5</v>
+      </c>
+      <c r="AQ137">
+        <v>1.83</v>
+      </c>
+      <c r="AR137">
+        <v>1.67</v>
+      </c>
+      <c r="AS137">
+        <v>1.13</v>
+      </c>
+      <c r="AT137">
+        <v>2.8</v>
+      </c>
+      <c r="AU137">
+        <v>7</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>2</v>
+      </c>
+      <c r="AX137">
+        <v>7</v>
+      </c>
+      <c r="AY137">
+        <v>14</v>
+      </c>
+      <c r="AZ137">
+        <v>16</v>
+      </c>
+      <c r="BA137">
+        <v>1</v>
+      </c>
+      <c r="BB137">
+        <v>4</v>
+      </c>
+      <c r="BC137">
+        <v>5</v>
+      </c>
+      <c r="BD137">
+        <v>1.69</v>
+      </c>
+      <c r="BE137">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF137">
+        <v>2.58</v>
+      </c>
+      <c r="BG137">
+        <v>1.34</v>
+      </c>
+      <c r="BH137">
+        <v>2.98</v>
+      </c>
+      <c r="BI137">
+        <v>1.6</v>
+      </c>
+      <c r="BJ137">
+        <v>2.19</v>
+      </c>
+      <c r="BK137">
+        <v>2</v>
+      </c>
+      <c r="BL137">
+        <v>1.72</v>
+      </c>
+      <c r="BM137">
+        <v>2.6</v>
+      </c>
+      <c r="BN137">
+        <v>1.44</v>
+      </c>
+      <c r="BO137">
+        <v>3.5</v>
+      </c>
+      <c r="BP137">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7481494</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45598.60416666666</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>85</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>186</v>
+      </c>
+      <c r="P138" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q138">
+        <v>2.4</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>4.2</v>
+      </c>
+      <c r="T138">
+        <v>1.34</v>
+      </c>
+      <c r="U138">
+        <v>3.05</v>
+      </c>
+      <c r="V138">
+        <v>2.5</v>
+      </c>
+      <c r="W138">
+        <v>1.47</v>
+      </c>
+      <c r="X138">
+        <v>5.95</v>
+      </c>
+      <c r="Y138">
+        <v>1.1</v>
+      </c>
+      <c r="Z138">
+        <v>1.78</v>
+      </c>
+      <c r="AA138">
+        <v>3.67</v>
+      </c>
+      <c r="AB138">
+        <v>4</v>
+      </c>
+      <c r="AC138">
+        <v>1.04</v>
+      </c>
+      <c r="AD138">
+        <v>10</v>
+      </c>
+      <c r="AE138">
+        <v>1.22</v>
+      </c>
+      <c r="AF138">
+        <v>4</v>
+      </c>
+      <c r="AG138">
+        <v>1.72</v>
+      </c>
+      <c r="AH138">
+        <v>2.12</v>
+      </c>
+      <c r="AI138">
+        <v>1.65</v>
+      </c>
+      <c r="AJ138">
+        <v>2.15</v>
+      </c>
+      <c r="AK138">
+        <v>1.18</v>
+      </c>
+      <c r="AL138">
+        <v>1.2</v>
+      </c>
+      <c r="AM138">
+        <v>1.95</v>
+      </c>
+      <c r="AN138">
+        <v>1.83</v>
+      </c>
+      <c r="AO138">
+        <v>1.17</v>
+      </c>
+      <c r="AP138">
+        <v>1.71</v>
+      </c>
+      <c r="AQ138">
+        <v>1.14</v>
+      </c>
+      <c r="AR138">
+        <v>1.52</v>
+      </c>
+      <c r="AS138">
+        <v>1.42</v>
+      </c>
+      <c r="AT138">
+        <v>2.94</v>
+      </c>
+      <c r="AU138">
+        <v>9</v>
+      </c>
+      <c r="AV138">
+        <v>5</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
+        <v>17</v>
+      </c>
+      <c r="AZ138">
+        <v>12</v>
+      </c>
+      <c r="BA138">
+        <v>3</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>9</v>
+      </c>
+      <c r="BD138">
+        <v>1.45</v>
+      </c>
+      <c r="BE138">
+        <v>8.5</v>
+      </c>
+      <c r="BF138">
+        <v>3.29</v>
+      </c>
+      <c r="BG138">
+        <v>1.16</v>
+      </c>
+      <c r="BH138">
+        <v>3.85</v>
+      </c>
+      <c r="BI138">
+        <v>1.35</v>
+      </c>
+      <c r="BJ138">
+        <v>2.65</v>
+      </c>
+      <c r="BK138">
+        <v>1.92</v>
+      </c>
+      <c r="BL138">
+        <v>1.88</v>
+      </c>
+      <c r="BM138">
+        <v>2.13</v>
+      </c>
+      <c r="BN138">
+        <v>1.67</v>
+      </c>
+      <c r="BO138">
+        <v>2.75</v>
+      </c>
+      <c r="BP138">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7481495</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45599.41666666666</v>
+      </c>
+      <c r="F139">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>89</v>
+      </c>
+      <c r="H139" t="s">
+        <v>78</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>187</v>
+      </c>
+      <c r="P139" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q139">
+        <v>2.45</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>4.75</v>
+      </c>
+      <c r="T139">
+        <v>1.45</v>
+      </c>
+      <c r="U139">
+        <v>2.55</v>
+      </c>
+      <c r="V139">
+        <v>3.2</v>
+      </c>
+      <c r="W139">
+        <v>1.3</v>
+      </c>
+      <c r="X139">
+        <v>8.1</v>
+      </c>
+      <c r="Y139">
+        <v>1.04</v>
+      </c>
+      <c r="Z139">
+        <v>1.8</v>
+      </c>
+      <c r="AA139">
+        <v>3.3</v>
+      </c>
+      <c r="AB139">
+        <v>4.2</v>
+      </c>
+      <c r="AC139">
+        <v>1.07</v>
+      </c>
+      <c r="AD139">
+        <v>8</v>
+      </c>
+      <c r="AE139">
+        <v>1.38</v>
+      </c>
+      <c r="AF139">
+        <v>2.95</v>
+      </c>
+      <c r="AG139">
+        <v>2.15</v>
+      </c>
+      <c r="AH139">
+        <v>1.61</v>
+      </c>
+      <c r="AI139">
+        <v>1.95</v>
+      </c>
+      <c r="AJ139">
+        <v>1.73</v>
+      </c>
+      <c r="AK139">
+        <v>1.2</v>
+      </c>
+      <c r="AL139">
+        <v>1.25</v>
+      </c>
+      <c r="AM139">
+        <v>1.93</v>
+      </c>
+      <c r="AN139">
+        <v>2.4</v>
+      </c>
+      <c r="AO139">
+        <v>1.17</v>
+      </c>
+      <c r="AP139">
+        <v>2.5</v>
+      </c>
+      <c r="AQ139">
+        <v>1</v>
+      </c>
+      <c r="AR139">
+        <v>1.66</v>
+      </c>
+      <c r="AS139">
+        <v>1.31</v>
+      </c>
+      <c r="AT139">
+        <v>2.97</v>
+      </c>
+      <c r="AU139">
+        <v>7</v>
+      </c>
+      <c r="AV139">
+        <v>4</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>6</v>
+      </c>
+      <c r="AY139">
+        <v>18</v>
+      </c>
+      <c r="AZ139">
+        <v>11</v>
+      </c>
+      <c r="BA139">
+        <v>4</v>
+      </c>
+      <c r="BB139">
+        <v>7</v>
+      </c>
+      <c r="BC139">
+        <v>11</v>
+      </c>
+      <c r="BD139">
+        <v>1.3</v>
+      </c>
+      <c r="BE139">
+        <v>8.4</v>
+      </c>
+      <c r="BF139">
+        <v>4.1</v>
+      </c>
+      <c r="BG139">
+        <v>1.19</v>
+      </c>
+      <c r="BH139">
+        <v>3.62</v>
+      </c>
+      <c r="BI139">
+        <v>1.41</v>
+      </c>
+      <c r="BJ139">
+        <v>2.6</v>
+      </c>
+      <c r="BK139">
+        <v>1.9</v>
+      </c>
+      <c r="BL139">
+        <v>1.9</v>
+      </c>
+      <c r="BM139">
+        <v>2.19</v>
+      </c>
+      <c r="BN139">
+        <v>1.57</v>
+      </c>
+      <c r="BO139">
+        <v>2.82</v>
+      </c>
+      <c r="BP139">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7481498</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45599.60416666666</v>
+      </c>
+      <c r="F140">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>84</v>
+      </c>
+      <c r="H140" t="s">
+        <v>71</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>92</v>
+      </c>
+      <c r="P140" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q140">
+        <v>3</v>
+      </c>
+      <c r="R140">
+        <v>1.77</v>
+      </c>
+      <c r="S140">
+        <v>4.5</v>
+      </c>
+      <c r="T140">
+        <v>1.67</v>
+      </c>
+      <c r="U140">
+        <v>2.1</v>
+      </c>
+      <c r="V140">
+        <v>4</v>
+      </c>
+      <c r="W140">
+        <v>1.2</v>
+      </c>
+      <c r="X140">
+        <v>11.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.01</v>
+      </c>
+      <c r="Z140">
+        <v>2.08</v>
+      </c>
+      <c r="AA140">
+        <v>2.95</v>
+      </c>
+      <c r="AB140">
+        <v>4.3</v>
+      </c>
+      <c r="AC140">
+        <v>1.14</v>
+      </c>
+      <c r="AD140">
+        <v>5.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.62</v>
+      </c>
+      <c r="AF140">
+        <v>2.3</v>
+      </c>
+      <c r="AG140">
+        <v>2.94</v>
+      </c>
+      <c r="AH140">
+        <v>1.35</v>
+      </c>
+      <c r="AI140">
+        <v>2.35</v>
+      </c>
+      <c r="AJ140">
+        <v>1.5</v>
+      </c>
+      <c r="AK140">
+        <v>1.25</v>
+      </c>
+      <c r="AL140">
+        <v>1.35</v>
+      </c>
+      <c r="AM140">
+        <v>1.65</v>
+      </c>
+      <c r="AN140">
+        <v>0.83</v>
+      </c>
+      <c r="AO140">
+        <v>1</v>
+      </c>
+      <c r="AP140">
+        <v>1.14</v>
+      </c>
+      <c r="AQ140">
+        <v>0.83</v>
+      </c>
+      <c r="AR140">
+        <v>1.34</v>
+      </c>
+      <c r="AS140">
+        <v>0.9</v>
+      </c>
+      <c r="AT140">
+        <v>2.24</v>
+      </c>
+      <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>2</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>9</v>
+      </c>
+      <c r="AZ140">
+        <v>7</v>
+      </c>
+      <c r="BA140">
+        <v>3</v>
+      </c>
+      <c r="BB140">
+        <v>6</v>
+      </c>
+      <c r="BC140">
+        <v>9</v>
+      </c>
+      <c r="BD140">
+        <v>1.77</v>
+      </c>
+      <c r="BE140">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="BF140">
+        <v>2.44</v>
+      </c>
+      <c r="BG140">
+        <v>1.37</v>
+      </c>
+      <c r="BH140">
+        <v>2.83</v>
+      </c>
+      <c r="BI140">
+        <v>1.65</v>
+      </c>
+      <c r="BJ140">
+        <v>2.1</v>
+      </c>
+      <c r="BK140">
+        <v>2.08</v>
+      </c>
+      <c r="BL140">
+        <v>1.67</v>
+      </c>
+      <c r="BM140">
+        <v>2.73</v>
+      </c>
+      <c r="BN140">
+        <v>1.4</v>
+      </c>
+      <c r="BO140">
+        <v>3.7</v>
+      </c>
+      <c r="BP140">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,10 +544,10 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['11', '26', '61']</t>
+    <t>['45', '86']</t>
   </si>
   <si>
-    <t>['45', '86']</t>
+    <t>['11', '26', '61']</t>
   </si>
   <si>
     <t>['45+2', '90+5']</t>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>['42', '72', '88']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -773,6 +776,9 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['37', '54']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1399,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1805,7 +1811,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2011,7 +2017,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2423,7 +2429,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2629,7 +2635,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2710,7 +2716,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2835,7 +2841,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3041,7 +3047,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3247,7 +3253,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3325,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3453,7 +3459,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3659,7 +3665,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3865,7 +3871,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4895,7 +4901,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4976,7 +4982,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5513,7 +5519,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5719,7 +5725,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5925,7 +5931,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6131,7 +6137,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6337,7 +6343,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6749,7 +6755,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6955,7 +6961,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7367,7 +7373,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7779,7 +7785,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8063,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0.17</v>
@@ -8191,7 +8197,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8397,7 +8403,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8809,7 +8815,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9714,7 +9720,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -10045,7 +10051,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10663,7 +10669,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12311,7 +12317,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12389,7 +12395,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>1.83</v>
@@ -12517,7 +12523,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12723,7 +12729,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12929,7 +12935,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13135,7 +13141,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13959,7 +13965,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14165,7 +14171,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14449,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14577,7 +14583,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14989,7 +14995,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15195,7 +15201,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15813,7 +15819,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16019,7 +16025,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16100,7 +16106,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ73">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16225,7 +16231,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16431,7 +16437,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -17049,7 +17055,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17255,7 +17261,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17667,7 +17673,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17873,7 +17879,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18285,7 +18291,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18903,7 +18909,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19315,7 +19321,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19521,7 +19527,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20139,7 +20145,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20345,7 +20351,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20551,7 +20557,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20632,7 +20638,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ95">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -21453,7 +21459,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ99">
         <v>1.14</v>
@@ -21581,7 +21587,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21787,7 +21793,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -23023,7 +23029,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23513,7 +23519,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23641,7 +23647,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23722,7 +23728,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24053,7 +24059,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24259,7 +24265,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24465,7 +24471,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25289,7 +25295,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25701,7 +25707,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26113,7 +26119,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26277,7 +26283,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7481485</v>
+        <v>7481478</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26289,46 +26295,46 @@
         <v>45591.46875</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H123" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O123" t="s">
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="Q123">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="T123">
         <v>1.5</v>
@@ -26343,139 +26349,139 @@
         <v>1.29</v>
       </c>
       <c r="X123">
+        <v>10</v>
+      </c>
+      <c r="Y123">
+        <v>1.06</v>
+      </c>
+      <c r="Z123">
+        <v>2.5</v>
+      </c>
+      <c r="AA123">
+        <v>3.1</v>
+      </c>
+      <c r="AB123">
+        <v>2.7</v>
+      </c>
+      <c r="AC123">
+        <v>1.08</v>
+      </c>
+      <c r="AD123">
+        <v>7.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.42</v>
+      </c>
+      <c r="AF123">
+        <v>2.8</v>
+      </c>
+      <c r="AG123">
+        <v>2.2</v>
+      </c>
+      <c r="AH123">
+        <v>1.57</v>
+      </c>
+      <c r="AI123">
+        <v>2</v>
+      </c>
+      <c r="AJ123">
+        <v>1.73</v>
+      </c>
+      <c r="AK123">
+        <v>1.42</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.48</v>
+      </c>
+      <c r="AN123">
+        <v>0.5</v>
+      </c>
+      <c r="AO123">
+        <v>1.17</v>
+      </c>
+      <c r="AP123">
+        <v>0.86</v>
+      </c>
+      <c r="AQ123">
+        <v>1</v>
+      </c>
+      <c r="AR123">
+        <v>1.53</v>
+      </c>
+      <c r="AS123">
+        <v>1.12</v>
+      </c>
+      <c r="AT123">
+        <v>2.65</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>2</v>
+      </c>
+      <c r="AW123">
+        <v>4</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
         <v>11</v>
       </c>
-      <c r="Y123">
-        <v>1.05</v>
-      </c>
-      <c r="Z123">
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>3</v>
+      </c>
+      <c r="BB123">
+        <v>7</v>
+      </c>
+      <c r="BC123">
+        <v>10</v>
+      </c>
+      <c r="BD123">
+        <v>1.85</v>
+      </c>
+      <c r="BE123">
+        <v>7.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.29</v>
+      </c>
+      <c r="BG123">
+        <v>1.35</v>
+      </c>
+      <c r="BH123">
+        <v>2.95</v>
+      </c>
+      <c r="BI123">
+        <v>1.61</v>
+      </c>
+      <c r="BJ123">
+        <v>2.18</v>
+      </c>
+      <c r="BK123">
+        <v>2.01</v>
+      </c>
+      <c r="BL123">
         <v>1.72</v>
       </c>
-      <c r="AA123">
-        <v>3.4</v>
-      </c>
-      <c r="AB123">
-        <v>4.5</v>
-      </c>
-      <c r="AC123">
-        <v>1.09</v>
-      </c>
-      <c r="AD123">
-        <v>7</v>
-      </c>
-      <c r="AE123">
-        <v>1.57</v>
-      </c>
-      <c r="AF123">
-        <v>2.25</v>
-      </c>
-      <c r="AG123">
-        <v>2.1</v>
-      </c>
-      <c r="AH123">
-        <v>1.65</v>
-      </c>
-      <c r="AI123">
-        <v>2.2</v>
-      </c>
-      <c r="AJ123">
-        <v>1.62</v>
-      </c>
-      <c r="AK123">
-        <v>1.15</v>
-      </c>
-      <c r="AL123">
+      <c r="BM123">
+        <v>2.62</v>
+      </c>
+      <c r="BN123">
+        <v>1.43</v>
+      </c>
+      <c r="BO123">
+        <v>3.52</v>
+      </c>
+      <c r="BP123">
         <v>1.25</v>
-      </c>
-      <c r="AM123">
-        <v>2.05</v>
-      </c>
-      <c r="AN123">
-        <v>2.17</v>
-      </c>
-      <c r="AO123">
-        <v>1</v>
-      </c>
-      <c r="AP123">
-        <v>2.29</v>
-      </c>
-      <c r="AQ123">
-        <v>0.86</v>
-      </c>
-      <c r="AR123">
-        <v>1.12</v>
-      </c>
-      <c r="AS123">
-        <v>0.85</v>
-      </c>
-      <c r="AT123">
-        <v>1.97</v>
-      </c>
-      <c r="AU123">
-        <v>7</v>
-      </c>
-      <c r="AV123">
-        <v>6</v>
-      </c>
-      <c r="AW123">
-        <v>3</v>
-      </c>
-      <c r="AX123">
-        <v>3</v>
-      </c>
-      <c r="AY123">
-        <v>13</v>
-      </c>
-      <c r="AZ123">
-        <v>12</v>
-      </c>
-      <c r="BA123">
-        <v>4</v>
-      </c>
-      <c r="BB123">
-        <v>4</v>
-      </c>
-      <c r="BC123">
-        <v>8</v>
-      </c>
-      <c r="BD123">
-        <v>1.45</v>
-      </c>
-      <c r="BE123">
-        <v>8.5</v>
-      </c>
-      <c r="BF123">
-        <v>3.33</v>
-      </c>
-      <c r="BG123">
-        <v>1.43</v>
-      </c>
-      <c r="BH123">
-        <v>2.6</v>
-      </c>
-      <c r="BI123">
-        <v>1.75</v>
-      </c>
-      <c r="BJ123">
-        <v>1.96</v>
-      </c>
-      <c r="BK123">
-        <v>2.24</v>
-      </c>
-      <c r="BL123">
-        <v>1.57</v>
-      </c>
-      <c r="BM123">
-        <v>2.98</v>
-      </c>
-      <c r="BN123">
-        <v>1.34</v>
-      </c>
-      <c r="BO123">
-        <v>3.62</v>
-      </c>
-      <c r="BP123">
-        <v>1.24</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26483,7 +26489,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7481478</v>
+        <v>7481485</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26495,46 +26501,46 @@
         <v>45591.46875</v>
       </c>
       <c r="F124">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H124" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O124" t="s">
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="Q124">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="T124">
         <v>1.5</v>
@@ -26549,139 +26555,139 @@
         <v>1.29</v>
       </c>
       <c r="X124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y124">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
-        <v>2.5</v>
+        <v>1.72</v>
       </c>
       <c r="AA124">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB124">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AC124">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AD124">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE124">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AF124">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AG124">
+        <v>2.1</v>
+      </c>
+      <c r="AH124">
+        <v>1.65</v>
+      </c>
+      <c r="AI124">
         <v>2.2</v>
       </c>
-      <c r="AH124">
+      <c r="AJ124">
+        <v>1.62</v>
+      </c>
+      <c r="AK124">
+        <v>1.15</v>
+      </c>
+      <c r="AL124">
+        <v>1.25</v>
+      </c>
+      <c r="AM124">
+        <v>2.05</v>
+      </c>
+      <c r="AN124">
+        <v>2.17</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>2.29</v>
+      </c>
+      <c r="AQ124">
+        <v>0.86</v>
+      </c>
+      <c r="AR124">
+        <v>1.12</v>
+      </c>
+      <c r="AS124">
+        <v>0.85</v>
+      </c>
+      <c r="AT124">
+        <v>1.97</v>
+      </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>6</v>
+      </c>
+      <c r="AW124">
+        <v>3</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>13</v>
+      </c>
+      <c r="AZ124">
+        <v>12</v>
+      </c>
+      <c r="BA124">
+        <v>4</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>8</v>
+      </c>
+      <c r="BD124">
+        <v>1.45</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>3.33</v>
+      </c>
+      <c r="BG124">
+        <v>1.43</v>
+      </c>
+      <c r="BH124">
+        <v>2.6</v>
+      </c>
+      <c r="BI124">
+        <v>1.75</v>
+      </c>
+      <c r="BJ124">
+        <v>1.96</v>
+      </c>
+      <c r="BK124">
+        <v>2.24</v>
+      </c>
+      <c r="BL124">
         <v>1.57</v>
       </c>
-      <c r="AI124">
-        <v>2</v>
-      </c>
-      <c r="AJ124">
-        <v>1.73</v>
-      </c>
-      <c r="AK124">
-        <v>1.42</v>
-      </c>
-      <c r="AL124">
-        <v>1.3</v>
-      </c>
-      <c r="AM124">
-        <v>1.48</v>
-      </c>
-      <c r="AN124">
-        <v>0.5</v>
-      </c>
-      <c r="AO124">
-        <v>1.17</v>
-      </c>
-      <c r="AP124">
-        <v>0.86</v>
-      </c>
-      <c r="AQ124">
-        <v>1</v>
-      </c>
-      <c r="AR124">
-        <v>1.53</v>
-      </c>
-      <c r="AS124">
-        <v>1.12</v>
-      </c>
-      <c r="AT124">
-        <v>2.65</v>
-      </c>
-      <c r="AU124">
-        <v>5</v>
-      </c>
-      <c r="AV124">
-        <v>2</v>
-      </c>
-      <c r="AW124">
-        <v>4</v>
-      </c>
-      <c r="AX124">
-        <v>2</v>
-      </c>
-      <c r="AY124">
-        <v>11</v>
-      </c>
-      <c r="AZ124">
-        <v>5</v>
-      </c>
-      <c r="BA124">
-        <v>3</v>
-      </c>
-      <c r="BB124">
-        <v>7</v>
-      </c>
-      <c r="BC124">
-        <v>10</v>
-      </c>
-      <c r="BD124">
-        <v>1.85</v>
-      </c>
-      <c r="BE124">
-        <v>7.5</v>
-      </c>
-      <c r="BF124">
-        <v>2.29</v>
-      </c>
-      <c r="BG124">
-        <v>1.35</v>
-      </c>
-      <c r="BH124">
-        <v>2.95</v>
-      </c>
-      <c r="BI124">
-        <v>1.61</v>
-      </c>
-      <c r="BJ124">
-        <v>2.18</v>
-      </c>
-      <c r="BK124">
-        <v>2.01</v>
-      </c>
-      <c r="BL124">
-        <v>1.72</v>
-      </c>
       <c r="BM124">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="BN124">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="BO124">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="BP124">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26937,7 +26943,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27307,7 +27313,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7481480</v>
+        <v>7481484</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27319,193 +27325,193 @@
         <v>45592.51041666666</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H128" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O128" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="Q128">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="R128">
+        <v>2.05</v>
+      </c>
+      <c r="S128">
+        <v>5</v>
+      </c>
+      <c r="T128">
+        <v>1.5</v>
+      </c>
+      <c r="U128">
+        <v>2.5</v>
+      </c>
+      <c r="V128">
+        <v>3.4</v>
+      </c>
+      <c r="W128">
+        <v>1.3</v>
+      </c>
+      <c r="X128">
+        <v>10</v>
+      </c>
+      <c r="Y128">
+        <v>1.06</v>
+      </c>
+      <c r="Z128">
+        <v>2.43</v>
+      </c>
+      <c r="AA128">
+        <v>2.92</v>
+      </c>
+      <c r="AB128">
+        <v>2.83</v>
+      </c>
+      <c r="AC128">
+        <v>1.09</v>
+      </c>
+      <c r="AD128">
+        <v>7</v>
+      </c>
+      <c r="AE128">
+        <v>1.44</v>
+      </c>
+      <c r="AF128">
+        <v>2.75</v>
+      </c>
+      <c r="AG128">
+        <v>2.19</v>
+      </c>
+      <c r="AH128">
+        <v>1.6</v>
+      </c>
+      <c r="AI128">
         <v>2.1</v>
       </c>
-      <c r="S128">
-        <v>3.5</v>
-      </c>
-      <c r="T128">
-        <v>1.44</v>
-      </c>
-      <c r="U128">
-        <v>2.63</v>
-      </c>
-      <c r="V128">
-        <v>3</v>
-      </c>
-      <c r="W128">
-        <v>1.36</v>
-      </c>
-      <c r="X128">
+      <c r="AJ128">
+        <v>1.67</v>
+      </c>
+      <c r="AK128">
+        <v>1.18</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
+        <v>1.93</v>
+      </c>
+      <c r="AN128">
+        <v>1.83</v>
+      </c>
+      <c r="AO128">
+        <v>1.4</v>
+      </c>
+      <c r="AP128">
+        <v>1.75</v>
+      </c>
+      <c r="AQ128">
+        <v>1</v>
+      </c>
+      <c r="AR128">
+        <v>1.3</v>
+      </c>
+      <c r="AS128">
+        <v>1.4</v>
+      </c>
+      <c r="AT128">
+        <v>2.7</v>
+      </c>
+      <c r="AU128">
         <v>9</v>
       </c>
-      <c r="Y128">
-        <v>1.07</v>
-      </c>
-      <c r="Z128">
-        <v>2.54</v>
-      </c>
-      <c r="AA128">
-        <v>3.23</v>
-      </c>
-      <c r="AB128">
-        <v>2.89</v>
-      </c>
-      <c r="AC128">
-        <v>1.07</v>
-      </c>
-      <c r="AD128">
-        <v>8</v>
-      </c>
-      <c r="AE128">
-        <v>1.33</v>
-      </c>
-      <c r="AF128">
-        <v>3.25</v>
-      </c>
-      <c r="AG128">
-        <v>1.9</v>
-      </c>
-      <c r="AH128">
-        <v>1.72</v>
-      </c>
-      <c r="AI128">
-        <v>1.73</v>
-      </c>
-      <c r="AJ128">
-        <v>2</v>
-      </c>
-      <c r="AK128">
-        <v>1.42</v>
-      </c>
-      <c r="AL128">
-        <v>1.28</v>
-      </c>
-      <c r="AM128">
-        <v>1.5</v>
-      </c>
-      <c r="AN128">
-        <v>1</v>
-      </c>
-      <c r="AO128">
-        <v>3</v>
-      </c>
-      <c r="AP128">
-        <v>0.83</v>
-      </c>
-      <c r="AQ128">
-        <v>3</v>
-      </c>
-      <c r="AR128">
-        <v>1.61</v>
-      </c>
-      <c r="AS128">
-        <v>1.42</v>
-      </c>
-      <c r="AT128">
-        <v>3.03</v>
-      </c>
-      <c r="AU128">
+      <c r="AV128">
         <v>4</v>
       </c>
-      <c r="AV128">
-        <v>8</v>
-      </c>
       <c r="AW128">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY128">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ128">
+        <v>7</v>
+      </c>
+      <c r="BA128">
         <v>12</v>
-      </c>
-      <c r="BA128">
-        <v>10</v>
       </c>
       <c r="BB128">
         <v>3</v>
       </c>
       <c r="BC128">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD128">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="BE128">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF128">
-        <v>2.05</v>
+        <v>3.16</v>
       </c>
       <c r="BG128">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="BH128">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="BI128">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="BJ128">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="BK128">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="BL128">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="BM128">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="BN128">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="BO128">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP128">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27513,7 +27519,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7481484</v>
+        <v>7481480</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27525,193 +27531,193 @@
         <v>45592.51041666666</v>
       </c>
       <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" t="s">
+        <v>76</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>137</v>
+      </c>
+      <c r="P129" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q129">
+        <v>3.2</v>
+      </c>
+      <c r="R129">
+        <v>2.1</v>
+      </c>
+      <c r="S129">
+        <v>3.5</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.63</v>
+      </c>
+      <c r="V129">
+        <v>3</v>
+      </c>
+      <c r="W129">
+        <v>1.36</v>
+      </c>
+      <c r="X129">
+        <v>9</v>
+      </c>
+      <c r="Y129">
+        <v>1.07</v>
+      </c>
+      <c r="Z129">
+        <v>2.54</v>
+      </c>
+      <c r="AA129">
+        <v>3.23</v>
+      </c>
+      <c r="AB129">
+        <v>2.89</v>
+      </c>
+      <c r="AC129">
+        <v>1.07</v>
+      </c>
+      <c r="AD129">
+        <v>8</v>
+      </c>
+      <c r="AE129">
+        <v>1.33</v>
+      </c>
+      <c r="AF129">
+        <v>3.25</v>
+      </c>
+      <c r="AG129">
+        <v>1.9</v>
+      </c>
+      <c r="AH129">
+        <v>1.72</v>
+      </c>
+      <c r="AI129">
+        <v>1.73</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.42</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.5</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
+        <v>3</v>
+      </c>
+      <c r="AP129">
+        <v>0.83</v>
+      </c>
+      <c r="AQ129">
+        <v>3</v>
+      </c>
+      <c r="AR129">
+        <v>1.61</v>
+      </c>
+      <c r="AS129">
+        <v>1.42</v>
+      </c>
+      <c r="AT129">
+        <v>3.03</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>8</v>
+      </c>
+      <c r="AW129">
+        <v>9</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+      <c r="AY129">
+        <v>16</v>
+      </c>
+      <c r="AZ129">
         <v>12</v>
       </c>
-      <c r="G129" t="s">
-        <v>79</v>
-      </c>
-      <c r="H129" t="s">
-        <v>78</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129">
-        <v>1</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129" t="s">
-        <v>93</v>
-      </c>
-      <c r="P129" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q129">
-        <v>2.6</v>
-      </c>
-      <c r="R129">
-        <v>2.05</v>
-      </c>
-      <c r="S129">
-        <v>5</v>
-      </c>
-      <c r="T129">
-        <v>1.5</v>
-      </c>
-      <c r="U129">
-        <v>2.5</v>
-      </c>
-      <c r="V129">
-        <v>3.4</v>
-      </c>
-      <c r="W129">
-        <v>1.3</v>
-      </c>
-      <c r="X129">
+      <c r="BA129">
         <v>10</v>
-      </c>
-      <c r="Y129">
-        <v>1.06</v>
-      </c>
-      <c r="Z129">
-        <v>2.43</v>
-      </c>
-      <c r="AA129">
-        <v>2.92</v>
-      </c>
-      <c r="AB129">
-        <v>2.83</v>
-      </c>
-      <c r="AC129">
-        <v>1.09</v>
-      </c>
-      <c r="AD129">
-        <v>7</v>
-      </c>
-      <c r="AE129">
-        <v>1.44</v>
-      </c>
-      <c r="AF129">
-        <v>2.75</v>
-      </c>
-      <c r="AG129">
-        <v>2.19</v>
-      </c>
-      <c r="AH129">
-        <v>1.6</v>
-      </c>
-      <c r="AI129">
-        <v>2.1</v>
-      </c>
-      <c r="AJ129">
-        <v>1.67</v>
-      </c>
-      <c r="AK129">
-        <v>1.18</v>
-      </c>
-      <c r="AL129">
-        <v>1.25</v>
-      </c>
-      <c r="AM129">
-        <v>1.93</v>
-      </c>
-      <c r="AN129">
-        <v>1.83</v>
-      </c>
-      <c r="AO129">
-        <v>1.4</v>
-      </c>
-      <c r="AP129">
-        <v>2</v>
-      </c>
-      <c r="AQ129">
-        <v>1</v>
-      </c>
-      <c r="AR129">
-        <v>1.3</v>
-      </c>
-      <c r="AS129">
-        <v>1.4</v>
-      </c>
-      <c r="AT129">
-        <v>2.7</v>
-      </c>
-      <c r="AU129">
-        <v>9</v>
-      </c>
-      <c r="AV129">
-        <v>4</v>
-      </c>
-      <c r="AW129">
-        <v>4</v>
-      </c>
-      <c r="AX129">
-        <v>2</v>
-      </c>
-      <c r="AY129">
-        <v>21</v>
-      </c>
-      <c r="AZ129">
-        <v>7</v>
-      </c>
-      <c r="BA129">
-        <v>12</v>
       </c>
       <c r="BB129">
         <v>3</v>
       </c>
       <c r="BC129">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD129">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="BE129">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF129">
-        <v>3.16</v>
+        <v>2.05</v>
       </c>
       <c r="BG129">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="BH129">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="BI129">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="BJ129">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="BK129">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="BL129">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="BM129">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="BN129">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="BO129">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP129">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27761,7 +27767,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -27842,7 +27848,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR130">
         <v>1.16</v>
@@ -27967,7 +27973,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28173,7 +28179,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28379,7 +28385,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28585,7 +28591,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28791,7 +28797,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29409,7 +29415,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29978,6 +29984,212 @@
       </c>
       <c r="BP140">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7481504</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45604.6875</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>79</v>
+      </c>
+      <c r="H141" t="s">
+        <v>90</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>188</v>
+      </c>
+      <c r="P141" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q141">
+        <v>2.62</v>
+      </c>
+      <c r="R141">
+        <v>2.05</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>1.42</v>
+      </c>
+      <c r="U141">
+        <v>2.65</v>
+      </c>
+      <c r="V141">
+        <v>2.85</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>7.3</v>
+      </c>
+      <c r="Y141">
+        <v>1.06</v>
+      </c>
+      <c r="Z141">
+        <v>1.58</v>
+      </c>
+      <c r="AA141">
+        <v>5.01</v>
+      </c>
+      <c r="AB141">
+        <v>3.62</v>
+      </c>
+      <c r="AC141">
+        <v>1.06</v>
+      </c>
+      <c r="AD141">
+        <v>8.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.33</v>
+      </c>
+      <c r="AF141">
+        <v>3.3</v>
+      </c>
+      <c r="AG141">
+        <v>1.9</v>
+      </c>
+      <c r="AH141">
+        <v>1.8</v>
+      </c>
+      <c r="AI141">
+        <v>1.73</v>
+      </c>
+      <c r="AJ141">
+        <v>1.95</v>
+      </c>
+      <c r="AK141">
+        <v>1.25</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.75</v>
+      </c>
+      <c r="AN141">
+        <v>2</v>
+      </c>
+      <c r="AO141">
+        <v>1.14</v>
+      </c>
+      <c r="AP141">
+        <v>1.75</v>
+      </c>
+      <c r="AQ141">
+        <v>1.38</v>
+      </c>
+      <c r="AR141">
+        <v>1.42</v>
+      </c>
+      <c r="AS141">
+        <v>1.37</v>
+      </c>
+      <c r="AT141">
+        <v>2.79</v>
+      </c>
+      <c r="AU141">
+        <v>5</v>
+      </c>
+      <c r="AV141">
+        <v>7</v>
+      </c>
+      <c r="AW141">
+        <v>9</v>
+      </c>
+      <c r="AX141">
+        <v>5</v>
+      </c>
+      <c r="AY141">
+        <v>20</v>
+      </c>
+      <c r="AZ141">
+        <v>12</v>
+      </c>
+      <c r="BA141">
+        <v>4</v>
+      </c>
+      <c r="BB141">
+        <v>1</v>
+      </c>
+      <c r="BC141">
+        <v>5</v>
+      </c>
+      <c r="BD141">
+        <v>1.59</v>
+      </c>
+      <c r="BE141">
+        <v>8</v>
+      </c>
+      <c r="BF141">
+        <v>2.8</v>
+      </c>
+      <c r="BG141">
+        <v>1.29</v>
+      </c>
+      <c r="BH141">
+        <v>3.25</v>
+      </c>
+      <c r="BI141">
+        <v>1.52</v>
+      </c>
+      <c r="BJ141">
+        <v>2.36</v>
+      </c>
+      <c r="BK141">
+        <v>1.92</v>
+      </c>
+      <c r="BL141">
+        <v>1.88</v>
+      </c>
+      <c r="BM141">
+        <v>2.39</v>
+      </c>
+      <c r="BN141">
+        <v>1.51</v>
+      </c>
+      <c r="BO141">
+        <v>3.2</v>
+      </c>
+      <c r="BP141">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,16 +571,28 @@
     <t>['27', '90+3']</t>
   </si>
   <si>
-    <t>['1', '63']</t>
+    <t>['22']</t>
   </si>
   <si>
-    <t>['22']</t>
+    <t>['1', '63']</t>
   </si>
   <si>
     <t>['42', '72', '88']</t>
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['17', '45+1', '90']</t>
+  </si>
+  <si>
+    <t>['4', '60']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -779,6 +791,12 @@
   </si>
   <si>
     <t>['37', '54']</t>
+  </si>
+  <si>
+    <t>['49', '53']</t>
+  </si>
+  <si>
+    <t>['42', '67']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1417,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>1.14</v>
@@ -1683,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ3">
         <v>0.17</v>
@@ -1811,7 +1829,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1892,7 +1910,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ4">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2017,7 +2035,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2429,7 +2447,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2635,7 +2653,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2841,7 +2859,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3047,7 +3065,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3128,7 +3146,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3253,7 +3271,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3459,7 +3477,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3665,7 +3683,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3871,7 +3889,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3949,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ14">
         <v>1.14</v>
@@ -4158,7 +4176,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4570,7 +4588,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4773,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.83</v>
@@ -4901,7 +4919,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5519,7 +5537,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5600,7 +5618,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ22">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5725,7 +5743,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5931,7 +5949,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6009,7 +6027,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6137,7 +6155,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6343,7 +6361,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6755,7 +6773,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6833,7 +6851,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.14</v>
@@ -6961,7 +6979,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7373,7 +7391,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7454,7 +7472,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7657,10 +7675,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7785,7 +7803,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8197,7 +8215,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8403,7 +8421,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8481,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>1.14</v>
@@ -8687,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8815,7 +8833,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -10051,7 +10069,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10132,7 +10150,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10669,7 +10687,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10750,7 +10768,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -11159,7 +11177,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -11571,7 +11589,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>1.14</v>
@@ -11780,7 +11798,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -12192,7 +12210,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12317,7 +12335,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12523,7 +12541,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12729,7 +12747,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12807,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12935,7 +12953,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13141,7 +13159,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13965,7 +13983,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14171,7 +14189,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14252,7 +14270,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
         <v>1.13</v>
@@ -14583,7 +14601,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14867,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67">
         <v>0.17</v>
@@ -14995,7 +15013,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15201,7 +15219,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15282,7 +15300,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15485,7 +15503,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ70">
         <v>1.17</v>
@@ -15694,7 +15712,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ71">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -15819,7 +15837,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15897,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16025,7 +16043,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16231,7 +16249,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16437,7 +16455,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -17055,7 +17073,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17136,7 +17154,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17261,7 +17279,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17339,10 +17357,10 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR79">
         <v>1.18</v>
@@ -17673,7 +17691,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17879,7 +17897,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -17957,7 +17975,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ82">
         <v>1.83</v>
@@ -18291,7 +18309,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18578,7 +18596,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -18909,7 +18927,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19321,7 +19339,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19527,7 +19545,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19608,7 +19626,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20020,7 +20038,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ92">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20145,7 +20163,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20351,7 +20369,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20429,7 +20447,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>1.14</v>
@@ -20557,7 +20575,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21047,7 +21065,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97">
         <v>0.17</v>
@@ -21587,7 +21605,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21793,7 +21811,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21874,7 +21892,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ101">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.58</v>
@@ -22080,7 +22098,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ102">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22283,7 +22301,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22695,7 +22713,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ105">
         <v>0.33</v>
@@ -22901,7 +22919,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ106">
         <v>0.83</v>
@@ -23029,7 +23047,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23647,7 +23665,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24059,7 +24077,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24265,7 +24283,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24471,7 +24489,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -24552,7 +24570,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ114">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -24758,7 +24776,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ115">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25295,7 +25313,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25707,7 +25725,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26119,7 +26137,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26531,7 +26549,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -26609,10 +26627,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ124">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR124">
         <v>1.12</v>
@@ -26818,7 +26836,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ125">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR125">
         <v>1.56</v>
@@ -26943,7 +26961,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27227,7 +27245,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>0.83</v>
@@ -27561,7 +27579,7 @@
         <v>137</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27767,7 +27785,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -27845,7 +27863,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
         <v>1.38</v>
@@ -27973,7 +27991,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28179,7 +28197,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28257,7 +28275,7 @@
         <v>1.17</v>
       </c>
       <c r="AP132">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
         <v>1.43</v>
@@ -28385,7 +28403,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28591,7 +28609,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28797,7 +28815,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29084,7 +29102,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ136">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -29167,7 +29185,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7481497</v>
+        <v>7481494</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29179,13 +29197,13 @@
         <v>45598.60416666666</v>
       </c>
       <c r="F137">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H137" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -29197,175 +29215,175 @@
         <v>1</v>
       </c>
       <c r="L137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137">
         <v>1</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O137" t="s">
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="Q137">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S137">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T137">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="U137">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="V137">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="W137">
+        <v>1.47</v>
+      </c>
+      <c r="X137">
+        <v>5.95</v>
+      </c>
+      <c r="Y137">
+        <v>1.1</v>
+      </c>
+      <c r="Z137">
+        <v>1.78</v>
+      </c>
+      <c r="AA137">
+        <v>3.67</v>
+      </c>
+      <c r="AB137">
+        <v>4</v>
+      </c>
+      <c r="AC137">
+        <v>1.04</v>
+      </c>
+      <c r="AD137">
+        <v>10</v>
+      </c>
+      <c r="AE137">
+        <v>1.22</v>
+      </c>
+      <c r="AF137">
+        <v>4</v>
+      </c>
+      <c r="AG137">
+        <v>1.72</v>
+      </c>
+      <c r="AH137">
+        <v>2.12</v>
+      </c>
+      <c r="AI137">
+        <v>1.65</v>
+      </c>
+      <c r="AJ137">
+        <v>2.15</v>
+      </c>
+      <c r="AK137">
+        <v>1.18</v>
+      </c>
+      <c r="AL137">
+        <v>1.2</v>
+      </c>
+      <c r="AM137">
+        <v>1.95</v>
+      </c>
+      <c r="AN137">
+        <v>1.83</v>
+      </c>
+      <c r="AO137">
+        <v>1.17</v>
+      </c>
+      <c r="AP137">
+        <v>1.71</v>
+      </c>
+      <c r="AQ137">
+        <v>1.14</v>
+      </c>
+      <c r="AR137">
+        <v>1.52</v>
+      </c>
+      <c r="AS137">
+        <v>1.42</v>
+      </c>
+      <c r="AT137">
+        <v>2.94</v>
+      </c>
+      <c r="AU137">
+        <v>9</v>
+      </c>
+      <c r="AV137">
+        <v>5</v>
+      </c>
+      <c r="AW137">
+        <v>7</v>
+      </c>
+      <c r="AX137">
+        <v>5</v>
+      </c>
+      <c r="AY137">
+        <v>17</v>
+      </c>
+      <c r="AZ137">
+        <v>12</v>
+      </c>
+      <c r="BA137">
+        <v>3</v>
+      </c>
+      <c r="BB137">
+        <v>6</v>
+      </c>
+      <c r="BC137">
+        <v>9</v>
+      </c>
+      <c r="BD137">
+        <v>1.45</v>
+      </c>
+      <c r="BE137">
+        <v>8.5</v>
+      </c>
+      <c r="BF137">
+        <v>3.29</v>
+      </c>
+      <c r="BG137">
+        <v>1.16</v>
+      </c>
+      <c r="BH137">
+        <v>3.85</v>
+      </c>
+      <c r="BI137">
         <v>1.35</v>
       </c>
-      <c r="X137">
-        <v>7.9</v>
-      </c>
-      <c r="Y137">
-        <v>1.05</v>
-      </c>
-      <c r="Z137">
+      <c r="BJ137">
+        <v>2.65</v>
+      </c>
+      <c r="BK137">
+        <v>1.92</v>
+      </c>
+      <c r="BL137">
+        <v>1.88</v>
+      </c>
+      <c r="BM137">
         <v>2.13</v>
       </c>
-      <c r="AA137">
-        <v>3.18</v>
-      </c>
-      <c r="AB137">
-        <v>3.31</v>
-      </c>
-      <c r="AC137">
-        <v>1.07</v>
-      </c>
-      <c r="AD137">
-        <v>8</v>
-      </c>
-      <c r="AE137">
-        <v>1.33</v>
-      </c>
-      <c r="AF137">
-        <v>3.1</v>
-      </c>
-      <c r="AG137">
-        <v>2.11</v>
-      </c>
-      <c r="AH137">
-        <v>1.73</v>
-      </c>
-      <c r="AI137">
-        <v>1.8</v>
-      </c>
-      <c r="AJ137">
-        <v>1.95</v>
-      </c>
-      <c r="AK137">
-        <v>1.33</v>
-      </c>
-      <c r="AL137">
-        <v>1.25</v>
-      </c>
-      <c r="AM137">
-        <v>1.63</v>
-      </c>
-      <c r="AN137">
-        <v>1.2</v>
-      </c>
-      <c r="AO137">
-        <v>2.2</v>
-      </c>
-      <c r="AP137">
-        <v>1.5</v>
-      </c>
-      <c r="AQ137">
-        <v>1.83</v>
-      </c>
-      <c r="AR137">
+      <c r="BN137">
         <v>1.67</v>
       </c>
-      <c r="AS137">
-        <v>1.13</v>
-      </c>
-      <c r="AT137">
-        <v>2.8</v>
-      </c>
-      <c r="AU137">
-        <v>7</v>
-      </c>
-      <c r="AV137">
-        <v>4</v>
-      </c>
-      <c r="AW137">
-        <v>2</v>
-      </c>
-      <c r="AX137">
-        <v>7</v>
-      </c>
-      <c r="AY137">
-        <v>14</v>
-      </c>
-      <c r="AZ137">
-        <v>16</v>
-      </c>
-      <c r="BA137">
-        <v>1</v>
-      </c>
-      <c r="BB137">
-        <v>4</v>
-      </c>
-      <c r="BC137">
-        <v>5</v>
-      </c>
-      <c r="BD137">
-        <v>1.69</v>
-      </c>
-      <c r="BE137">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF137">
-        <v>2.58</v>
-      </c>
-      <c r="BG137">
-        <v>1.34</v>
-      </c>
-      <c r="BH137">
-        <v>2.98</v>
-      </c>
-      <c r="BI137">
-        <v>1.6</v>
-      </c>
-      <c r="BJ137">
-        <v>2.19</v>
-      </c>
-      <c r="BK137">
-        <v>2</v>
-      </c>
-      <c r="BL137">
-        <v>1.72</v>
-      </c>
-      <c r="BM137">
-        <v>2.6</v>
-      </c>
-      <c r="BN137">
-        <v>1.44</v>
-      </c>
       <c r="BO137">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="BP137">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -29373,7 +29391,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7481494</v>
+        <v>7481497</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29385,13 +29403,13 @@
         <v>45598.60416666666</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H138" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -29403,175 +29421,175 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M138">
         <v>1</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O138" t="s">
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="Q138">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="R138">
+        <v>2.05</v>
+      </c>
+      <c r="S138">
+        <v>3.75</v>
+      </c>
+      <c r="T138">
+        <v>1.44</v>
+      </c>
+      <c r="U138">
+        <v>2.6</v>
+      </c>
+      <c r="V138">
+        <v>2.95</v>
+      </c>
+      <c r="W138">
+        <v>1.35</v>
+      </c>
+      <c r="X138">
+        <v>7.9</v>
+      </c>
+      <c r="Y138">
+        <v>1.05</v>
+      </c>
+      <c r="Z138">
+        <v>2.13</v>
+      </c>
+      <c r="AA138">
+        <v>3.18</v>
+      </c>
+      <c r="AB138">
+        <v>3.31</v>
+      </c>
+      <c r="AC138">
+        <v>1.07</v>
+      </c>
+      <c r="AD138">
+        <v>8</v>
+      </c>
+      <c r="AE138">
+        <v>1.33</v>
+      </c>
+      <c r="AF138">
+        <v>3.1</v>
+      </c>
+      <c r="AG138">
+        <v>2.11</v>
+      </c>
+      <c r="AH138">
+        <v>1.73</v>
+      </c>
+      <c r="AI138">
+        <v>1.8</v>
+      </c>
+      <c r="AJ138">
+        <v>1.95</v>
+      </c>
+      <c r="AK138">
+        <v>1.33</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>1.63</v>
+      </c>
+      <c r="AN138">
+        <v>1.2</v>
+      </c>
+      <c r="AO138">
         <v>2.2</v>
       </c>
-      <c r="S138">
-        <v>4.2</v>
-      </c>
-      <c r="T138">
+      <c r="AP138">
+        <v>1.5</v>
+      </c>
+      <c r="AQ138">
+        <v>1.83</v>
+      </c>
+      <c r="AR138">
+        <v>1.67</v>
+      </c>
+      <c r="AS138">
+        <v>1.13</v>
+      </c>
+      <c r="AT138">
+        <v>2.8</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>2</v>
+      </c>
+      <c r="AX138">
+        <v>7</v>
+      </c>
+      <c r="AY138">
+        <v>14</v>
+      </c>
+      <c r="AZ138">
+        <v>16</v>
+      </c>
+      <c r="BA138">
+        <v>1</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>5</v>
+      </c>
+      <c r="BD138">
+        <v>1.69</v>
+      </c>
+      <c r="BE138">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF138">
+        <v>2.58</v>
+      </c>
+      <c r="BG138">
         <v>1.34</v>
       </c>
-      <c r="U138">
-        <v>3.05</v>
-      </c>
-      <c r="V138">
-        <v>2.5</v>
-      </c>
-      <c r="W138">
-        <v>1.47</v>
-      </c>
-      <c r="X138">
-        <v>5.95</v>
-      </c>
-      <c r="Y138">
-        <v>1.1</v>
-      </c>
-      <c r="Z138">
-        <v>1.78</v>
-      </c>
-      <c r="AA138">
-        <v>3.67</v>
-      </c>
-      <c r="AB138">
-        <v>4</v>
-      </c>
-      <c r="AC138">
-        <v>1.04</v>
-      </c>
-      <c r="AD138">
-        <v>10</v>
-      </c>
-      <c r="AE138">
-        <v>1.22</v>
-      </c>
-      <c r="AF138">
-        <v>4</v>
-      </c>
-      <c r="AG138">
+      <c r="BH138">
+        <v>2.98</v>
+      </c>
+      <c r="BI138">
+        <v>1.6</v>
+      </c>
+      <c r="BJ138">
+        <v>2.19</v>
+      </c>
+      <c r="BK138">
+        <v>2</v>
+      </c>
+      <c r="BL138">
         <v>1.72</v>
       </c>
-      <c r="AH138">
-        <v>2.12</v>
-      </c>
-      <c r="AI138">
-        <v>1.65</v>
-      </c>
-      <c r="AJ138">
-        <v>2.15</v>
-      </c>
-      <c r="AK138">
-        <v>1.18</v>
-      </c>
-      <c r="AL138">
-        <v>1.2</v>
-      </c>
-      <c r="AM138">
-        <v>1.95</v>
-      </c>
-      <c r="AN138">
-        <v>1.83</v>
-      </c>
-      <c r="AO138">
-        <v>1.17</v>
-      </c>
-      <c r="AP138">
-        <v>1.71</v>
-      </c>
-      <c r="AQ138">
-        <v>1.14</v>
-      </c>
-      <c r="AR138">
-        <v>1.52</v>
-      </c>
-      <c r="AS138">
-        <v>1.42</v>
-      </c>
-      <c r="AT138">
-        <v>2.94</v>
-      </c>
-      <c r="AU138">
-        <v>9</v>
-      </c>
-      <c r="AV138">
-        <v>5</v>
-      </c>
-      <c r="AW138">
-        <v>7</v>
-      </c>
-      <c r="AX138">
-        <v>5</v>
-      </c>
-      <c r="AY138">
-        <v>17</v>
-      </c>
-      <c r="AZ138">
-        <v>12</v>
-      </c>
-      <c r="BA138">
-        <v>3</v>
-      </c>
-      <c r="BB138">
-        <v>6</v>
-      </c>
-      <c r="BC138">
-        <v>9</v>
-      </c>
-      <c r="BD138">
-        <v>1.45</v>
-      </c>
-      <c r="BE138">
-        <v>8.5</v>
-      </c>
-      <c r="BF138">
-        <v>3.29</v>
-      </c>
-      <c r="BG138">
-        <v>1.16</v>
-      </c>
-      <c r="BH138">
-        <v>3.85</v>
-      </c>
-      <c r="BI138">
-        <v>1.35</v>
-      </c>
-      <c r="BJ138">
-        <v>2.65</v>
-      </c>
-      <c r="BK138">
-        <v>1.92</v>
-      </c>
-      <c r="BL138">
-        <v>1.88</v>
-      </c>
       <c r="BM138">
-        <v>2.13</v>
+        <v>2.6</v>
       </c>
       <c r="BN138">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BO138">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="BP138">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -30000,7 +30018,7 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45604.6875</v>
+        <v>45603.875</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -30033,7 +30051,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30190,6 +30208,830 @@
       </c>
       <c r="BP141">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7481503</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45604.875</v>
+      </c>
+      <c r="F142">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>91</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>189</v>
+      </c>
+      <c r="P142" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q142">
+        <v>3.75</v>
+      </c>
+      <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
+        <v>3.35</v>
+      </c>
+      <c r="T142">
+        <v>1.6</v>
+      </c>
+      <c r="U142">
+        <v>2.2</v>
+      </c>
+      <c r="V142">
+        <v>3.75</v>
+      </c>
+      <c r="W142">
+        <v>1.22</v>
+      </c>
+      <c r="X142">
+        <v>9</v>
+      </c>
+      <c r="Y142">
+        <v>1.03</v>
+      </c>
+      <c r="Z142">
+        <v>3.04</v>
+      </c>
+      <c r="AA142">
+        <v>3</v>
+      </c>
+      <c r="AB142">
+        <v>2.57</v>
+      </c>
+      <c r="AC142">
+        <v>1.12</v>
+      </c>
+      <c r="AD142">
+        <v>5.75</v>
+      </c>
+      <c r="AE142">
+        <v>1.5</v>
+      </c>
+      <c r="AF142">
+        <v>2.4</v>
+      </c>
+      <c r="AG142">
+        <v>2.75</v>
+      </c>
+      <c r="AH142">
+        <v>1.4</v>
+      </c>
+      <c r="AI142">
+        <v>2.05</v>
+      </c>
+      <c r="AJ142">
+        <v>1.65</v>
+      </c>
+      <c r="AK142">
+        <v>1.48</v>
+      </c>
+      <c r="AL142">
+        <v>1.36</v>
+      </c>
+      <c r="AM142">
+        <v>1.36</v>
+      </c>
+      <c r="AN142">
+        <v>1.83</v>
+      </c>
+      <c r="AO142">
+        <v>1.86</v>
+      </c>
+      <c r="AP142">
+        <v>1.71</v>
+      </c>
+      <c r="AQ142">
+        <v>1.75</v>
+      </c>
+      <c r="AR142">
+        <v>1.11</v>
+      </c>
+      <c r="AS142">
+        <v>1.43</v>
+      </c>
+      <c r="AT142">
+        <v>2.54</v>
+      </c>
+      <c r="AU142">
+        <v>3</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>7</v>
+      </c>
+      <c r="AZ142">
+        <v>11</v>
+      </c>
+      <c r="BA142">
+        <v>8</v>
+      </c>
+      <c r="BB142">
+        <v>3</v>
+      </c>
+      <c r="BC142">
+        <v>11</v>
+      </c>
+      <c r="BD142">
+        <v>2.1</v>
+      </c>
+      <c r="BE142">
+        <v>8</v>
+      </c>
+      <c r="BF142">
+        <v>1.95</v>
+      </c>
+      <c r="BG142">
+        <v>1.31</v>
+      </c>
+      <c r="BH142">
+        <v>3.15</v>
+      </c>
+      <c r="BI142">
+        <v>1.55</v>
+      </c>
+      <c r="BJ142">
+        <v>2.29</v>
+      </c>
+      <c r="BK142">
+        <v>1.98</v>
+      </c>
+      <c r="BL142">
+        <v>1.82</v>
+      </c>
+      <c r="BM142">
+        <v>2.47</v>
+      </c>
+      <c r="BN142">
+        <v>1.48</v>
+      </c>
+      <c r="BO142">
+        <v>3.3</v>
+      </c>
+      <c r="BP142">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7481508</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45604.875</v>
+      </c>
+      <c r="F143">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>70</v>
+      </c>
+      <c r="H143" t="s">
+        <v>80</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" t="s">
+        <v>190</v>
+      </c>
+      <c r="P143" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q143">
+        <v>2.25</v>
+      </c>
+      <c r="R143">
+        <v>2.15</v>
+      </c>
+      <c r="S143">
+        <v>4.75</v>
+      </c>
+      <c r="T143">
+        <v>1.4</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>2.8</v>
+      </c>
+      <c r="W143">
+        <v>1.38</v>
+      </c>
+      <c r="X143">
+        <v>6.4</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>1.77</v>
+      </c>
+      <c r="AA143">
+        <v>3.74</v>
+      </c>
+      <c r="AB143">
+        <v>4.58</v>
+      </c>
+      <c r="AC143">
+        <v>1.05</v>
+      </c>
+      <c r="AD143">
+        <v>9</v>
+      </c>
+      <c r="AE143">
+        <v>1.3</v>
+      </c>
+      <c r="AF143">
+        <v>3.35</v>
+      </c>
+      <c r="AG143">
+        <v>2</v>
+      </c>
+      <c r="AH143">
+        <v>1.75</v>
+      </c>
+      <c r="AI143">
+        <v>1.85</v>
+      </c>
+      <c r="AJ143">
+        <v>1.83</v>
+      </c>
+      <c r="AK143">
+        <v>1.17</v>
+      </c>
+      <c r="AL143">
+        <v>1.22</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>1.14</v>
+      </c>
+      <c r="AO143">
+        <v>0.83</v>
+      </c>
+      <c r="AP143">
+        <v>1.38</v>
+      </c>
+      <c r="AQ143">
+        <v>0.71</v>
+      </c>
+      <c r="AR143">
+        <v>1.75</v>
+      </c>
+      <c r="AS143">
+        <v>1.1</v>
+      </c>
+      <c r="AT143">
+        <v>2.85</v>
+      </c>
+      <c r="AU143">
+        <v>2</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>5</v>
+      </c>
+      <c r="AY143">
+        <v>7</v>
+      </c>
+      <c r="AZ143">
+        <v>10</v>
+      </c>
+      <c r="BA143">
+        <v>5</v>
+      </c>
+      <c r="BB143">
+        <v>5</v>
+      </c>
+      <c r="BC143">
+        <v>10</v>
+      </c>
+      <c r="BD143">
+        <v>1.59</v>
+      </c>
+      <c r="BE143">
+        <v>8</v>
+      </c>
+      <c r="BF143">
+        <v>2.9</v>
+      </c>
+      <c r="BG143">
+        <v>1.31</v>
+      </c>
+      <c r="BH143">
+        <v>3.15</v>
+      </c>
+      <c r="BI143">
+        <v>1.55</v>
+      </c>
+      <c r="BJ143">
+        <v>2.29</v>
+      </c>
+      <c r="BK143">
+        <v>2</v>
+      </c>
+      <c r="BL143">
+        <v>1.8</v>
+      </c>
+      <c r="BM143">
+        <v>2.47</v>
+      </c>
+      <c r="BN143">
+        <v>1.48</v>
+      </c>
+      <c r="BO143">
+        <v>3.3</v>
+      </c>
+      <c r="BP143">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7481505</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45605.51041666666</v>
+      </c>
+      <c r="F144">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>71</v>
+      </c>
+      <c r="H144" t="s">
+        <v>72</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>191</v>
+      </c>
+      <c r="P144" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q144">
+        <v>3.6</v>
+      </c>
+      <c r="R144">
+        <v>1.91</v>
+      </c>
+      <c r="S144">
+        <v>3.6</v>
+      </c>
+      <c r="T144">
+        <v>1.62</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>4</v>
+      </c>
+      <c r="W144">
+        <v>1.22</v>
+      </c>
+      <c r="X144">
+        <v>13</v>
+      </c>
+      <c r="Y144">
+        <v>1.04</v>
+      </c>
+      <c r="Z144">
+        <v>2.63</v>
+      </c>
+      <c r="AA144">
+        <v>2.8</v>
+      </c>
+      <c r="AB144">
+        <v>2.63</v>
+      </c>
+      <c r="AC144">
+        <v>1.12</v>
+      </c>
+      <c r="AD144">
+        <v>5.75</v>
+      </c>
+      <c r="AE144">
+        <v>1.52</v>
+      </c>
+      <c r="AF144">
+        <v>2.35</v>
+      </c>
+      <c r="AG144">
+        <v>2.65</v>
+      </c>
+      <c r="AH144">
+        <v>1.42</v>
+      </c>
+      <c r="AI144">
+        <v>2.2</v>
+      </c>
+      <c r="AJ144">
+        <v>1.62</v>
+      </c>
+      <c r="AK144">
+        <v>1.42</v>
+      </c>
+      <c r="AL144">
+        <v>1.36</v>
+      </c>
+      <c r="AM144">
+        <v>1.4</v>
+      </c>
+      <c r="AN144">
+        <v>2.29</v>
+      </c>
+      <c r="AO144">
+        <v>1.17</v>
+      </c>
+      <c r="AP144">
+        <v>2.13</v>
+      </c>
+      <c r="AQ144">
+        <v>1.14</v>
+      </c>
+      <c r="AR144">
+        <v>1.16</v>
+      </c>
+      <c r="AS144">
+        <v>1.36</v>
+      </c>
+      <c r="AT144">
+        <v>2.52</v>
+      </c>
+      <c r="AU144">
+        <v>4</v>
+      </c>
+      <c r="AV144">
+        <v>3</v>
+      </c>
+      <c r="AW144">
+        <v>7</v>
+      </c>
+      <c r="AX144">
+        <v>2</v>
+      </c>
+      <c r="AY144">
+        <v>20</v>
+      </c>
+      <c r="AZ144">
+        <v>5</v>
+      </c>
+      <c r="BA144">
+        <v>9</v>
+      </c>
+      <c r="BB144">
+        <v>2</v>
+      </c>
+      <c r="BC144">
+        <v>11</v>
+      </c>
+      <c r="BD144">
+        <v>2.2</v>
+      </c>
+      <c r="BE144">
+        <v>7.5</v>
+      </c>
+      <c r="BF144">
+        <v>1.91</v>
+      </c>
+      <c r="BG144">
+        <v>1.37</v>
+      </c>
+      <c r="BH144">
+        <v>2.83</v>
+      </c>
+      <c r="BI144">
+        <v>1.65</v>
+      </c>
+      <c r="BJ144">
+        <v>2.1</v>
+      </c>
+      <c r="BK144">
+        <v>2.08</v>
+      </c>
+      <c r="BL144">
+        <v>1.67</v>
+      </c>
+      <c r="BM144">
+        <v>2.73</v>
+      </c>
+      <c r="BN144">
+        <v>1.4</v>
+      </c>
+      <c r="BO144">
+        <v>3.7</v>
+      </c>
+      <c r="BP144">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7481506</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45605.70833333334</v>
+      </c>
+      <c r="F145">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>83</v>
+      </c>
+      <c r="H145" t="s">
+        <v>87</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>192</v>
+      </c>
+      <c r="P145" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q145">
+        <v>2.45</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>5</v>
+      </c>
+      <c r="T145">
+        <v>1.53</v>
+      </c>
+      <c r="U145">
+        <v>2.38</v>
+      </c>
+      <c r="V145">
+        <v>3.45</v>
+      </c>
+      <c r="W145">
+        <v>1.25</v>
+      </c>
+      <c r="X145">
+        <v>9</v>
+      </c>
+      <c r="Y145">
+        <v>1.03</v>
+      </c>
+      <c r="Z145">
+        <v>1.79</v>
+      </c>
+      <c r="AA145">
+        <v>3.4</v>
+      </c>
+      <c r="AB145">
+        <v>5.01</v>
+      </c>
+      <c r="AC145">
+        <v>1.09</v>
+      </c>
+      <c r="AD145">
+        <v>7</v>
+      </c>
+      <c r="AE145">
+        <v>1.49</v>
+      </c>
+      <c r="AF145">
+        <v>2.45</v>
+      </c>
+      <c r="AG145">
+        <v>2.25</v>
+      </c>
+      <c r="AH145">
+        <v>1.57</v>
+      </c>
+      <c r="AI145">
+        <v>2.15</v>
+      </c>
+      <c r="AJ145">
+        <v>1.6</v>
+      </c>
+      <c r="AK145">
+        <v>1.17</v>
+      </c>
+      <c r="AL145">
+        <v>1.28</v>
+      </c>
+      <c r="AM145">
+        <v>1.95</v>
+      </c>
+      <c r="AN145">
+        <v>1.83</v>
+      </c>
+      <c r="AO145">
+        <v>0.86</v>
+      </c>
+      <c r="AP145">
+        <v>2</v>
+      </c>
+      <c r="AQ145">
+        <v>0.75</v>
+      </c>
+      <c r="AR145">
+        <v>1.15</v>
+      </c>
+      <c r="AS145">
+        <v>0.93</v>
+      </c>
+      <c r="AT145">
+        <v>2.08</v>
+      </c>
+      <c r="AU145">
+        <v>7</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>9</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>20</v>
+      </c>
+      <c r="AZ145">
+        <v>10</v>
+      </c>
+      <c r="BA145">
+        <v>8</v>
+      </c>
+      <c r="BB145">
+        <v>2</v>
+      </c>
+      <c r="BC145">
+        <v>10</v>
+      </c>
+      <c r="BD145">
+        <v>1.41</v>
+      </c>
+      <c r="BE145">
+        <v>9</v>
+      </c>
+      <c r="BF145">
+        <v>3.58</v>
+      </c>
+      <c r="BG145">
+        <v>1.29</v>
+      </c>
+      <c r="BH145">
+        <v>2.92</v>
+      </c>
+      <c r="BI145">
+        <v>1.58</v>
+      </c>
+      <c r="BJ145">
+        <v>2.17</v>
+      </c>
+      <c r="BK145">
+        <v>1.92</v>
+      </c>
+      <c r="BL145">
+        <v>1.88</v>
+      </c>
+      <c r="BM145">
+        <v>2.64</v>
+      </c>
+      <c r="BN145">
+        <v>1.4</v>
+      </c>
+      <c r="BO145">
+        <v>3.56</v>
+      </c>
+      <c r="BP145">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,10 +571,10 @@
     <t>['27', '90+3']</t>
   </si>
   <si>
-    <t>['22']</t>
+    <t>['1', '63']</t>
   </si>
   <si>
-    <t>['1', '63']</t>
+    <t>['22']</t>
   </si>
   <si>
     <t>['42', '72', '88']</t>
@@ -583,16 +583,22 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['4', '60']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
     <t>['17', '45+1', '90']</t>
   </si>
   <si>
-    <t>['4', '60']</t>
+    <t>['45+5']</t>
   </si>
   <si>
-    <t>['45+5']</t>
+    <t>['47', '77']</t>
+  </si>
+  <si>
+    <t>['45+1', '62']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -793,10 +799,22 @@
     <t>['37', '54']</t>
   </si>
   <si>
+    <t>['42', '67']</t>
+  </si>
+  <si>
     <t>['49', '53']</t>
   </si>
   <si>
-    <t>['42', '67']</t>
+    <t>['9', '45']</t>
+  </si>
+  <si>
+    <t>['13', '33']</t>
+  </si>
+  <si>
+    <t>['30', '58']</t>
+  </si>
+  <si>
+    <t>['39', '78']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1435,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1829,7 +1847,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2035,7 +2053,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2113,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2322,7 +2340,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2447,7 +2465,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2525,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2653,7 +2671,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2859,7 +2877,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3065,7 +3083,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3143,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
         <v>0.75</v>
@@ -3271,7 +3289,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3477,7 +3495,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3683,7 +3701,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3764,7 +3782,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3889,7 +3907,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4379,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ16">
         <v>1.83</v>
@@ -4919,7 +4937,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5203,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20">
         <v>1.17</v>
@@ -5537,7 +5555,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5743,7 +5761,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5821,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5949,7 +5967,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6155,7 +6173,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6361,7 +6379,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6648,7 +6666,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6773,7 +6791,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6979,7 +6997,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7057,10 +7075,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR29">
         <v>1.44</v>
@@ -7263,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7391,7 +7409,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7803,7 +7821,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8215,7 +8233,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8421,7 +8439,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8833,7 +8851,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9117,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9323,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40">
         <v>0.83</v>
@@ -10069,7 +10087,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10353,10 +10371,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10559,7 +10577,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46">
         <v>1.14</v>
@@ -10687,7 +10705,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11386,7 +11404,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -12207,7 +12225,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12335,7 +12353,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12541,7 +12559,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12622,7 +12640,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
         <v>1.94</v>
@@ -12747,7 +12765,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12953,7 +12971,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13031,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -13159,7 +13177,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13237,7 +13255,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13858,7 +13876,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -13983,7 +14001,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14189,7 +14207,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14601,7 +14619,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14682,7 +14700,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -15013,7 +15031,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15091,7 +15109,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>1.14</v>
@@ -15219,7 +15237,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15837,7 +15855,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16043,7 +16061,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16249,7 +16267,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16327,7 +16345,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74">
         <v>1.83</v>
@@ -16455,7 +16473,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16739,7 +16757,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16948,7 +16966,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR77">
         <v>1.33</v>
@@ -17073,7 +17091,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17279,7 +17297,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17563,7 +17581,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ80">
         <v>1.17</v>
@@ -17691,7 +17709,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17772,7 +17790,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -17897,7 +17915,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18309,7 +18327,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18799,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -18927,7 +18945,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19008,7 +19026,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR87">
         <v>1.47</v>
@@ -19339,7 +19357,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19417,7 +19435,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
         <v>0.17</v>
@@ -19545,7 +19563,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20163,7 +20181,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20369,7 +20387,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20575,7 +20593,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21271,7 +21289,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ98">
         <v>0.83</v>
@@ -21605,7 +21623,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21686,7 +21704,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR100">
         <v>1.65</v>
@@ -21811,7 +21829,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21889,7 +21907,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22095,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ102">
         <v>0.71</v>
@@ -22922,7 +22940,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ106">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR106">
         <v>1.12</v>
@@ -23047,7 +23065,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23331,7 +23349,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ108">
         <v>1.17</v>
@@ -23540,7 +23558,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23665,7 +23683,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23949,7 +23967,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24077,7 +24095,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24283,7 +24301,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24489,7 +24507,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25313,7 +25331,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25725,7 +25743,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26137,7 +26155,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26215,7 +26233,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26549,7 +26567,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -26833,7 +26851,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ125">
         <v>0.71</v>
@@ -26961,7 +26979,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27042,7 +27060,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR126">
         <v>1.8</v>
@@ -27248,7 +27266,7 @@
         <v>2</v>
       </c>
       <c r="AQ127">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27579,7 +27597,7 @@
         <v>137</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27657,7 +27675,7 @@
         <v>3</v>
       </c>
       <c r="AP129">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ129">
         <v>3</v>
@@ -27785,7 +27803,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -27991,7 +28009,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28069,10 +28087,10 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28197,7 +28215,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28403,7 +28421,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28481,7 +28499,7 @@
         <v>0.2</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ133">
         <v>0.33</v>
@@ -28609,7 +28627,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28815,7 +28833,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29185,7 +29203,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7481494</v>
+        <v>7481497</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29197,13 +29215,13 @@
         <v>45598.60416666666</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H137" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -29215,175 +29233,175 @@
         <v>1</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M137">
         <v>1</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O137" t="s">
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="Q137">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="R137">
+        <v>2.05</v>
+      </c>
+      <c r="S137">
+        <v>3.75</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.6</v>
+      </c>
+      <c r="V137">
+        <v>2.95</v>
+      </c>
+      <c r="W137">
+        <v>1.35</v>
+      </c>
+      <c r="X137">
+        <v>7.9</v>
+      </c>
+      <c r="Y137">
+        <v>1.05</v>
+      </c>
+      <c r="Z137">
+        <v>2.13</v>
+      </c>
+      <c r="AA137">
+        <v>3.18</v>
+      </c>
+      <c r="AB137">
+        <v>3.31</v>
+      </c>
+      <c r="AC137">
+        <v>1.07</v>
+      </c>
+      <c r="AD137">
+        <v>8</v>
+      </c>
+      <c r="AE137">
+        <v>1.33</v>
+      </c>
+      <c r="AF137">
+        <v>3.1</v>
+      </c>
+      <c r="AG137">
+        <v>2.11</v>
+      </c>
+      <c r="AH137">
+        <v>1.73</v>
+      </c>
+      <c r="AI137">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137">
+        <v>1.95</v>
+      </c>
+      <c r="AK137">
+        <v>1.33</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.63</v>
+      </c>
+      <c r="AN137">
+        <v>1.2</v>
+      </c>
+      <c r="AO137">
         <v>2.2</v>
       </c>
-      <c r="S137">
-        <v>4.2</v>
-      </c>
-      <c r="T137">
+      <c r="AP137">
+        <v>1.5</v>
+      </c>
+      <c r="AQ137">
+        <v>1.83</v>
+      </c>
+      <c r="AR137">
+        <v>1.67</v>
+      </c>
+      <c r="AS137">
+        <v>1.13</v>
+      </c>
+      <c r="AT137">
+        <v>2.8</v>
+      </c>
+      <c r="AU137">
+        <v>7</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>2</v>
+      </c>
+      <c r="AX137">
+        <v>7</v>
+      </c>
+      <c r="AY137">
+        <v>14</v>
+      </c>
+      <c r="AZ137">
+        <v>16</v>
+      </c>
+      <c r="BA137">
+        <v>1</v>
+      </c>
+      <c r="BB137">
+        <v>4</v>
+      </c>
+      <c r="BC137">
+        <v>5</v>
+      </c>
+      <c r="BD137">
+        <v>1.69</v>
+      </c>
+      <c r="BE137">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF137">
+        <v>2.58</v>
+      </c>
+      <c r="BG137">
         <v>1.34</v>
       </c>
-      <c r="U137">
-        <v>3.05</v>
-      </c>
-      <c r="V137">
-        <v>2.5</v>
-      </c>
-      <c r="W137">
-        <v>1.47</v>
-      </c>
-      <c r="X137">
-        <v>5.95</v>
-      </c>
-      <c r="Y137">
-        <v>1.1</v>
-      </c>
-      <c r="Z137">
-        <v>1.78</v>
-      </c>
-      <c r="AA137">
-        <v>3.67</v>
-      </c>
-      <c r="AB137">
-        <v>4</v>
-      </c>
-      <c r="AC137">
-        <v>1.04</v>
-      </c>
-      <c r="AD137">
-        <v>10</v>
-      </c>
-      <c r="AE137">
-        <v>1.22</v>
-      </c>
-      <c r="AF137">
-        <v>4</v>
-      </c>
-      <c r="AG137">
+      <c r="BH137">
+        <v>2.98</v>
+      </c>
+      <c r="BI137">
+        <v>1.6</v>
+      </c>
+      <c r="BJ137">
+        <v>2.19</v>
+      </c>
+      <c r="BK137">
+        <v>2</v>
+      </c>
+      <c r="BL137">
         <v>1.72</v>
       </c>
-      <c r="AH137">
-        <v>2.12</v>
-      </c>
-      <c r="AI137">
-        <v>1.65</v>
-      </c>
-      <c r="AJ137">
-        <v>2.15</v>
-      </c>
-      <c r="AK137">
-        <v>1.18</v>
-      </c>
-      <c r="AL137">
-        <v>1.2</v>
-      </c>
-      <c r="AM137">
-        <v>1.95</v>
-      </c>
-      <c r="AN137">
-        <v>1.83</v>
-      </c>
-      <c r="AO137">
-        <v>1.17</v>
-      </c>
-      <c r="AP137">
-        <v>1.71</v>
-      </c>
-      <c r="AQ137">
-        <v>1.14</v>
-      </c>
-      <c r="AR137">
-        <v>1.52</v>
-      </c>
-      <c r="AS137">
-        <v>1.42</v>
-      </c>
-      <c r="AT137">
-        <v>2.94</v>
-      </c>
-      <c r="AU137">
-        <v>9</v>
-      </c>
-      <c r="AV137">
-        <v>5</v>
-      </c>
-      <c r="AW137">
-        <v>7</v>
-      </c>
-      <c r="AX137">
-        <v>5</v>
-      </c>
-      <c r="AY137">
-        <v>17</v>
-      </c>
-      <c r="AZ137">
-        <v>12</v>
-      </c>
-      <c r="BA137">
-        <v>3</v>
-      </c>
-      <c r="BB137">
-        <v>6</v>
-      </c>
-      <c r="BC137">
-        <v>9</v>
-      </c>
-      <c r="BD137">
-        <v>1.45</v>
-      </c>
-      <c r="BE137">
-        <v>8.5</v>
-      </c>
-      <c r="BF137">
-        <v>3.29</v>
-      </c>
-      <c r="BG137">
-        <v>1.16</v>
-      </c>
-      <c r="BH137">
-        <v>3.85</v>
-      </c>
-      <c r="BI137">
-        <v>1.35</v>
-      </c>
-      <c r="BJ137">
-        <v>2.65</v>
-      </c>
-      <c r="BK137">
-        <v>1.92</v>
-      </c>
-      <c r="BL137">
-        <v>1.88</v>
-      </c>
       <c r="BM137">
-        <v>2.13</v>
+        <v>2.6</v>
       </c>
       <c r="BN137">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BO137">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="BP137">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -29391,7 +29409,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7481497</v>
+        <v>7481494</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29403,13 +29421,13 @@
         <v>45598.60416666666</v>
       </c>
       <c r="F138">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H138" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -29421,175 +29439,175 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <v>1</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O138" t="s">
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="Q138">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S138">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T138">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="U138">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="V138">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="W138">
+        <v>1.47</v>
+      </c>
+      <c r="X138">
+        <v>5.95</v>
+      </c>
+      <c r="Y138">
+        <v>1.1</v>
+      </c>
+      <c r="Z138">
+        <v>1.78</v>
+      </c>
+      <c r="AA138">
+        <v>3.67</v>
+      </c>
+      <c r="AB138">
+        <v>4</v>
+      </c>
+      <c r="AC138">
+        <v>1.04</v>
+      </c>
+      <c r="AD138">
+        <v>10</v>
+      </c>
+      <c r="AE138">
+        <v>1.22</v>
+      </c>
+      <c r="AF138">
+        <v>4</v>
+      </c>
+      <c r="AG138">
+        <v>1.72</v>
+      </c>
+      <c r="AH138">
+        <v>2.12</v>
+      </c>
+      <c r="AI138">
+        <v>1.65</v>
+      </c>
+      <c r="AJ138">
+        <v>2.15</v>
+      </c>
+      <c r="AK138">
+        <v>1.18</v>
+      </c>
+      <c r="AL138">
+        <v>1.2</v>
+      </c>
+      <c r="AM138">
+        <v>1.95</v>
+      </c>
+      <c r="AN138">
+        <v>1.83</v>
+      </c>
+      <c r="AO138">
+        <v>1.17</v>
+      </c>
+      <c r="AP138">
+        <v>1.71</v>
+      </c>
+      <c r="AQ138">
+        <v>1.14</v>
+      </c>
+      <c r="AR138">
+        <v>1.52</v>
+      </c>
+      <c r="AS138">
+        <v>1.42</v>
+      </c>
+      <c r="AT138">
+        <v>2.94</v>
+      </c>
+      <c r="AU138">
+        <v>9</v>
+      </c>
+      <c r="AV138">
+        <v>5</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
+        <v>17</v>
+      </c>
+      <c r="AZ138">
+        <v>12</v>
+      </c>
+      <c r="BA138">
+        <v>3</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>9</v>
+      </c>
+      <c r="BD138">
+        <v>1.45</v>
+      </c>
+      <c r="BE138">
+        <v>8.5</v>
+      </c>
+      <c r="BF138">
+        <v>3.29</v>
+      </c>
+      <c r="BG138">
+        <v>1.16</v>
+      </c>
+      <c r="BH138">
+        <v>3.85</v>
+      </c>
+      <c r="BI138">
         <v>1.35</v>
       </c>
-      <c r="X138">
-        <v>7.9</v>
-      </c>
-      <c r="Y138">
-        <v>1.05</v>
-      </c>
-      <c r="Z138">
+      <c r="BJ138">
+        <v>2.65</v>
+      </c>
+      <c r="BK138">
+        <v>1.92</v>
+      </c>
+      <c r="BL138">
+        <v>1.88</v>
+      </c>
+      <c r="BM138">
         <v>2.13</v>
       </c>
-      <c r="AA138">
-        <v>3.18</v>
-      </c>
-      <c r="AB138">
-        <v>3.31</v>
-      </c>
-      <c r="AC138">
-        <v>1.07</v>
-      </c>
-      <c r="AD138">
-        <v>8</v>
-      </c>
-      <c r="AE138">
-        <v>1.33</v>
-      </c>
-      <c r="AF138">
-        <v>3.1</v>
-      </c>
-      <c r="AG138">
-        <v>2.11</v>
-      </c>
-      <c r="AH138">
-        <v>1.73</v>
-      </c>
-      <c r="AI138">
-        <v>1.8</v>
-      </c>
-      <c r="AJ138">
-        <v>1.95</v>
-      </c>
-      <c r="AK138">
-        <v>1.33</v>
-      </c>
-      <c r="AL138">
-        <v>1.25</v>
-      </c>
-      <c r="AM138">
-        <v>1.63</v>
-      </c>
-      <c r="AN138">
-        <v>1.2</v>
-      </c>
-      <c r="AO138">
-        <v>2.2</v>
-      </c>
-      <c r="AP138">
-        <v>1.5</v>
-      </c>
-      <c r="AQ138">
-        <v>1.83</v>
-      </c>
-      <c r="AR138">
+      <c r="BN138">
         <v>1.67</v>
       </c>
-      <c r="AS138">
-        <v>1.13</v>
-      </c>
-      <c r="AT138">
-        <v>2.8</v>
-      </c>
-      <c r="AU138">
-        <v>7</v>
-      </c>
-      <c r="AV138">
-        <v>4</v>
-      </c>
-      <c r="AW138">
-        <v>2</v>
-      </c>
-      <c r="AX138">
-        <v>7</v>
-      </c>
-      <c r="AY138">
-        <v>14</v>
-      </c>
-      <c r="AZ138">
-        <v>16</v>
-      </c>
-      <c r="BA138">
-        <v>1</v>
-      </c>
-      <c r="BB138">
-        <v>4</v>
-      </c>
-      <c r="BC138">
-        <v>5</v>
-      </c>
-      <c r="BD138">
-        <v>1.69</v>
-      </c>
-      <c r="BE138">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF138">
-        <v>2.58</v>
-      </c>
-      <c r="BG138">
-        <v>1.34</v>
-      </c>
-      <c r="BH138">
-        <v>2.98</v>
-      </c>
-      <c r="BI138">
-        <v>1.6</v>
-      </c>
-      <c r="BJ138">
-        <v>2.19</v>
-      </c>
-      <c r="BK138">
-        <v>2</v>
-      </c>
-      <c r="BL138">
-        <v>1.72</v>
-      </c>
-      <c r="BM138">
-        <v>2.6</v>
-      </c>
-      <c r="BN138">
-        <v>1.44</v>
-      </c>
       <c r="BO138">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="BP138">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -30018,7 +30036,7 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45603.875</v>
+        <v>45604.6875</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -30051,7 +30069,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30215,7 +30233,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7481503</v>
+        <v>7481505</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30224,76 +30242,76 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45604.875</v>
+        <v>45605.51041666666</v>
       </c>
       <c r="F142">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H142" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O142" t="s">
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="Q142">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S142">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T142">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U142">
         <v>2.2</v>
       </c>
       <c r="V142">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W142">
         <v>1.22</v>
       </c>
       <c r="X142">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y142">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z142">
-        <v>3.04</v>
+        <v>2.63</v>
       </c>
       <c r="AA142">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AB142">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AC142">
         <v>1.12</v>
@@ -30302,118 +30320,118 @@
         <v>5.75</v>
       </c>
       <c r="AE142">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AF142">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AG142">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AH142">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AI142">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AJ142">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AK142">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AL142">
         <v>1.36</v>
       </c>
       <c r="AM142">
+        <v>1.4</v>
+      </c>
+      <c r="AN142">
+        <v>2.29</v>
+      </c>
+      <c r="AO142">
+        <v>1.17</v>
+      </c>
+      <c r="AP142">
+        <v>2.13</v>
+      </c>
+      <c r="AQ142">
+        <v>1.14</v>
+      </c>
+      <c r="AR142">
+        <v>1.16</v>
+      </c>
+      <c r="AS142">
         <v>1.36</v>
       </c>
-      <c r="AN142">
-        <v>1.83</v>
-      </c>
-      <c r="AO142">
-        <v>1.86</v>
-      </c>
-      <c r="AP142">
-        <v>1.71</v>
-      </c>
-      <c r="AQ142">
-        <v>1.75</v>
-      </c>
-      <c r="AR142">
-        <v>1.11</v>
-      </c>
-      <c r="AS142">
-        <v>1.43</v>
-      </c>
       <c r="AT142">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="AU142">
+        <v>4</v>
+      </c>
+      <c r="AV142">
         <v>3</v>
       </c>
-      <c r="AV142">
+      <c r="AW142">
+        <v>7</v>
+      </c>
+      <c r="AX142">
+        <v>2</v>
+      </c>
+      <c r="AY142">
+        <v>20</v>
+      </c>
+      <c r="AZ142">
         <v>5</v>
       </c>
-      <c r="AW142">
-        <v>4</v>
-      </c>
-      <c r="AX142">
-        <v>6</v>
-      </c>
-      <c r="AY142">
-        <v>7</v>
-      </c>
-      <c r="AZ142">
-        <v>11</v>
-      </c>
       <c r="BA142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC142">
         <v>11</v>
       </c>
       <c r="BD142">
+        <v>2.2</v>
+      </c>
+      <c r="BE142">
+        <v>7.5</v>
+      </c>
+      <c r="BF142">
+        <v>1.91</v>
+      </c>
+      <c r="BG142">
+        <v>1.37</v>
+      </c>
+      <c r="BH142">
+        <v>2.83</v>
+      </c>
+      <c r="BI142">
+        <v>1.65</v>
+      </c>
+      <c r="BJ142">
         <v>2.1</v>
       </c>
-      <c r="BE142">
-        <v>8</v>
-      </c>
-      <c r="BF142">
-        <v>1.95</v>
-      </c>
-      <c r="BG142">
-        <v>1.31</v>
-      </c>
-      <c r="BH142">
-        <v>3.15</v>
-      </c>
-      <c r="BI142">
-        <v>1.55</v>
-      </c>
-      <c r="BJ142">
-        <v>2.29</v>
-      </c>
       <c r="BK142">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="BL142">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="BM142">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="BN142">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BO142">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="BP142">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30421,7 +30439,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7481508</v>
+        <v>7481503</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30430,166 +30448,166 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45604.875</v>
+        <v>45605.60416666666</v>
       </c>
       <c r="F143">
         <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O143" t="s">
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="Q143">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="R143">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>4.75</v>
+        <v>3.35</v>
       </c>
       <c r="T143">
+        <v>1.6</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>3.75</v>
+      </c>
+      <c r="W143">
+        <v>1.22</v>
+      </c>
+      <c r="X143">
+        <v>9</v>
+      </c>
+      <c r="Y143">
+        <v>1.03</v>
+      </c>
+      <c r="Z143">
+        <v>3.04</v>
+      </c>
+      <c r="AA143">
+        <v>3</v>
+      </c>
+      <c r="AB143">
+        <v>2.57</v>
+      </c>
+      <c r="AC143">
+        <v>1.12</v>
+      </c>
+      <c r="AD143">
+        <v>5.75</v>
+      </c>
+      <c r="AE143">
+        <v>1.5</v>
+      </c>
+      <c r="AF143">
+        <v>2.4</v>
+      </c>
+      <c r="AG143">
+        <v>2.75</v>
+      </c>
+      <c r="AH143">
         <v>1.4</v>
       </c>
-      <c r="U143">
-        <v>2.75</v>
-      </c>
-      <c r="V143">
-        <v>2.8</v>
-      </c>
-      <c r="W143">
-        <v>1.38</v>
-      </c>
-      <c r="X143">
-        <v>6.4</v>
-      </c>
-      <c r="Y143">
-        <v>1.08</v>
-      </c>
-      <c r="Z143">
-        <v>1.77</v>
-      </c>
-      <c r="AA143">
-        <v>3.74</v>
-      </c>
-      <c r="AB143">
-        <v>4.58</v>
-      </c>
-      <c r="AC143">
-        <v>1.05</v>
-      </c>
-      <c r="AD143">
-        <v>9</v>
-      </c>
-      <c r="AE143">
-        <v>1.3</v>
-      </c>
-      <c r="AF143">
-        <v>3.35</v>
-      </c>
-      <c r="AG143">
-        <v>2</v>
-      </c>
-      <c r="AH143">
+      <c r="AI143">
+        <v>2.05</v>
+      </c>
+      <c r="AJ143">
+        <v>1.65</v>
+      </c>
+      <c r="AK143">
+        <v>1.48</v>
+      </c>
+      <c r="AL143">
+        <v>1.36</v>
+      </c>
+      <c r="AM143">
+        <v>1.36</v>
+      </c>
+      <c r="AN143">
+        <v>1.83</v>
+      </c>
+      <c r="AO143">
+        <v>1.86</v>
+      </c>
+      <c r="AP143">
+        <v>1.71</v>
+      </c>
+      <c r="AQ143">
         <v>1.75</v>
       </c>
-      <c r="AI143">
-        <v>1.85</v>
-      </c>
-      <c r="AJ143">
-        <v>1.83</v>
-      </c>
-      <c r="AK143">
-        <v>1.17</v>
-      </c>
-      <c r="AL143">
-        <v>1.22</v>
-      </c>
-      <c r="AM143">
+      <c r="AR143">
+        <v>1.11</v>
+      </c>
+      <c r="AS143">
+        <v>1.43</v>
+      </c>
+      <c r="AT143">
+        <v>2.54</v>
+      </c>
+      <c r="AU143">
+        <v>5</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>6</v>
+      </c>
+      <c r="AX143">
+        <v>7</v>
+      </c>
+      <c r="AY143">
+        <v>12</v>
+      </c>
+      <c r="AZ143">
+        <v>15</v>
+      </c>
+      <c r="BA143">
+        <v>8</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>11</v>
+      </c>
+      <c r="BD143">
         <v>2.1</v>
-      </c>
-      <c r="AN143">
-        <v>1.14</v>
-      </c>
-      <c r="AO143">
-        <v>0.83</v>
-      </c>
-      <c r="AP143">
-        <v>1.38</v>
-      </c>
-      <c r="AQ143">
-        <v>0.71</v>
-      </c>
-      <c r="AR143">
-        <v>1.75</v>
-      </c>
-      <c r="AS143">
-        <v>1.1</v>
-      </c>
-      <c r="AT143">
-        <v>2.85</v>
-      </c>
-      <c r="AU143">
-        <v>2</v>
-      </c>
-      <c r="AV143">
-        <v>5</v>
-      </c>
-      <c r="AW143">
-        <v>5</v>
-      </c>
-      <c r="AX143">
-        <v>5</v>
-      </c>
-      <c r="AY143">
-        <v>7</v>
-      </c>
-      <c r="AZ143">
-        <v>10</v>
-      </c>
-      <c r="BA143">
-        <v>5</v>
-      </c>
-      <c r="BB143">
-        <v>5</v>
-      </c>
-      <c r="BC143">
-        <v>10</v>
-      </c>
-      <c r="BD143">
-        <v>1.59</v>
       </c>
       <c r="BE143">
         <v>8</v>
       </c>
       <c r="BF143">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="BG143">
         <v>1.31</v>
@@ -30604,10 +30622,10 @@
         <v>2.29</v>
       </c>
       <c r="BK143">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BL143">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BM143">
         <v>2.47</v>
@@ -30627,7 +30645,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7481505</v>
+        <v>7481508</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30636,196 +30654,196 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45605.51041666666</v>
+        <v>45605.60416666666</v>
       </c>
       <c r="F144">
         <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H144" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
         <v>2</v>
       </c>
       <c r="L144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M144">
         <v>2</v>
       </c>
       <c r="N144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O144" t="s">
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q144">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="R144">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="S144">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="T144">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="U144">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="V144">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="W144">
+        <v>1.38</v>
+      </c>
+      <c r="X144">
+        <v>6.4</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>1.77</v>
+      </c>
+      <c r="AA144">
+        <v>3.74</v>
+      </c>
+      <c r="AB144">
+        <v>4.58</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>9</v>
+      </c>
+      <c r="AE144">
+        <v>1.3</v>
+      </c>
+      <c r="AF144">
+        <v>3.35</v>
+      </c>
+      <c r="AG144">
+        <v>2</v>
+      </c>
+      <c r="AH144">
+        <v>1.75</v>
+      </c>
+      <c r="AI144">
+        <v>1.85</v>
+      </c>
+      <c r="AJ144">
+        <v>1.83</v>
+      </c>
+      <c r="AK144">
+        <v>1.17</v>
+      </c>
+      <c r="AL144">
         <v>1.22</v>
       </c>
-      <c r="X144">
-        <v>13</v>
-      </c>
-      <c r="Y144">
-        <v>1.04</v>
-      </c>
-      <c r="Z144">
-        <v>2.63</v>
-      </c>
-      <c r="AA144">
-        <v>2.8</v>
-      </c>
-      <c r="AB144">
-        <v>2.63</v>
-      </c>
-      <c r="AC144">
-        <v>1.12</v>
-      </c>
-      <c r="AD144">
-        <v>5.75</v>
-      </c>
-      <c r="AE144">
-        <v>1.52</v>
-      </c>
-      <c r="AF144">
-        <v>2.35</v>
-      </c>
-      <c r="AG144">
-        <v>2.65</v>
-      </c>
-      <c r="AH144">
-        <v>1.42</v>
-      </c>
-      <c r="AI144">
-        <v>2.2</v>
-      </c>
-      <c r="AJ144">
-        <v>1.62</v>
-      </c>
-      <c r="AK144">
-        <v>1.42</v>
-      </c>
-      <c r="AL144">
-        <v>1.36</v>
-      </c>
       <c r="AM144">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AN144">
+        <v>1.14</v>
+      </c>
+      <c r="AO144">
+        <v>0.83</v>
+      </c>
+      <c r="AP144">
+        <v>1.38</v>
+      </c>
+      <c r="AQ144">
+        <v>0.71</v>
+      </c>
+      <c r="AR144">
+        <v>1.75</v>
+      </c>
+      <c r="AS144">
+        <v>1.1</v>
+      </c>
+      <c r="AT144">
+        <v>2.85</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>7</v>
+      </c>
+      <c r="AW144">
+        <v>5</v>
+      </c>
+      <c r="AX144">
+        <v>3</v>
+      </c>
+      <c r="AY144">
+        <v>14</v>
+      </c>
+      <c r="AZ144">
+        <v>11</v>
+      </c>
+      <c r="BA144">
+        <v>5</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>10</v>
+      </c>
+      <c r="BD144">
+        <v>1.59</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>2.9</v>
+      </c>
+      <c r="BG144">
+        <v>1.31</v>
+      </c>
+      <c r="BH144">
+        <v>3.15</v>
+      </c>
+      <c r="BI144">
+        <v>1.55</v>
+      </c>
+      <c r="BJ144">
         <v>2.29</v>
       </c>
-      <c r="AO144">
-        <v>1.17</v>
-      </c>
-      <c r="AP144">
-        <v>2.13</v>
-      </c>
-      <c r="AQ144">
-        <v>1.14</v>
-      </c>
-      <c r="AR144">
-        <v>1.16</v>
-      </c>
-      <c r="AS144">
-        <v>1.36</v>
-      </c>
-      <c r="AT144">
-        <v>2.52</v>
-      </c>
-      <c r="AU144">
-        <v>4</v>
-      </c>
-      <c r="AV144">
-        <v>3</v>
-      </c>
-      <c r="AW144">
-        <v>7</v>
-      </c>
-      <c r="AX144">
-        <v>2</v>
-      </c>
-      <c r="AY144">
-        <v>20</v>
-      </c>
-      <c r="AZ144">
-        <v>5</v>
-      </c>
-      <c r="BA144">
-        <v>9</v>
-      </c>
-      <c r="BB144">
-        <v>2</v>
-      </c>
-      <c r="BC144">
-        <v>11</v>
-      </c>
-      <c r="BD144">
-        <v>2.2</v>
-      </c>
-      <c r="BE144">
-        <v>7.5</v>
-      </c>
-      <c r="BF144">
-        <v>1.91</v>
-      </c>
-      <c r="BG144">
-        <v>1.37</v>
-      </c>
-      <c r="BH144">
-        <v>2.83</v>
-      </c>
-      <c r="BI144">
-        <v>1.65</v>
-      </c>
-      <c r="BJ144">
-        <v>2.1</v>
-      </c>
       <c r="BK144">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BL144">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BM144">
-        <v>2.73</v>
+        <v>2.47</v>
       </c>
       <c r="BN144">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BO144">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="BP144">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -31032,6 +31050,1036 @@
       </c>
       <c r="BP145">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7481507</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>88</v>
+      </c>
+      <c r="H146" t="s">
+        <v>86</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>193</v>
+      </c>
+      <c r="P146" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q146">
+        <v>2.75</v>
+      </c>
+      <c r="R146">
+        <v>2.15</v>
+      </c>
+      <c r="S146">
+        <v>3.4</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3</v>
+      </c>
+      <c r="V146">
+        <v>2.45</v>
+      </c>
+      <c r="W146">
+        <v>1.48</v>
+      </c>
+      <c r="X146">
+        <v>5.65</v>
+      </c>
+      <c r="Y146">
+        <v>1.11</v>
+      </c>
+      <c r="Z146">
+        <v>2.05</v>
+      </c>
+      <c r="AA146">
+        <v>3.4</v>
+      </c>
+      <c r="AB146">
+        <v>3.25</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>9.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.22</v>
+      </c>
+      <c r="AF146">
+        <v>4.2</v>
+      </c>
+      <c r="AG146">
+        <v>1.62</v>
+      </c>
+      <c r="AH146">
+        <v>2.2</v>
+      </c>
+      <c r="AI146">
+        <v>1.5</v>
+      </c>
+      <c r="AJ146">
+        <v>2.35</v>
+      </c>
+      <c r="AK146">
+        <v>1.36</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.62</v>
+      </c>
+      <c r="AN146">
+        <v>2.33</v>
+      </c>
+      <c r="AO146">
+        <v>2</v>
+      </c>
+      <c r="AP146">
+        <v>2.14</v>
+      </c>
+      <c r="AQ146">
+        <v>1.86</v>
+      </c>
+      <c r="AR146">
+        <v>1.62</v>
+      </c>
+      <c r="AS146">
+        <v>1.29</v>
+      </c>
+      <c r="AT146">
+        <v>2.91</v>
+      </c>
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AV146">
+        <v>7</v>
+      </c>
+      <c r="AW146">
+        <v>7</v>
+      </c>
+      <c r="AX146">
+        <v>5</v>
+      </c>
+      <c r="AY146">
+        <v>19</v>
+      </c>
+      <c r="AZ146">
+        <v>15</v>
+      </c>
+      <c r="BA146">
+        <v>8</v>
+      </c>
+      <c r="BB146">
+        <v>6</v>
+      </c>
+      <c r="BC146">
+        <v>14</v>
+      </c>
+      <c r="BD146">
+        <v>1.51</v>
+      </c>
+      <c r="BE146">
+        <v>8.5</v>
+      </c>
+      <c r="BF146">
+        <v>3.16</v>
+      </c>
+      <c r="BG146">
+        <v>1.29</v>
+      </c>
+      <c r="BH146">
+        <v>3.25</v>
+      </c>
+      <c r="BI146">
+        <v>1.52</v>
+      </c>
+      <c r="BJ146">
+        <v>2.36</v>
+      </c>
+      <c r="BK146">
+        <v>1.87</v>
+      </c>
+      <c r="BL146">
+        <v>1.83</v>
+      </c>
+      <c r="BM146">
+        <v>2.39</v>
+      </c>
+      <c r="BN146">
+        <v>1.51</v>
+      </c>
+      <c r="BO146">
+        <v>3.2</v>
+      </c>
+      <c r="BP146">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7481502</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>73</v>
+      </c>
+      <c r="H147" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>98</v>
+      </c>
+      <c r="P147" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q147">
+        <v>3.65</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>2.9</v>
+      </c>
+      <c r="T147">
+        <v>1.45</v>
+      </c>
+      <c r="U147">
+        <v>2.55</v>
+      </c>
+      <c r="V147">
+        <v>3</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y147">
+        <v>1.04</v>
+      </c>
+      <c r="Z147">
+        <v>3.1</v>
+      </c>
+      <c r="AA147">
+        <v>3.1</v>
+      </c>
+      <c r="AB147">
+        <v>2.25</v>
+      </c>
+      <c r="AC147">
+        <v>1.07</v>
+      </c>
+      <c r="AD147">
+        <v>8</v>
+      </c>
+      <c r="AE147">
+        <v>1.38</v>
+      </c>
+      <c r="AF147">
+        <v>3</v>
+      </c>
+      <c r="AG147">
+        <v>2.08</v>
+      </c>
+      <c r="AH147">
+        <v>1.75</v>
+      </c>
+      <c r="AI147">
+        <v>1.77</v>
+      </c>
+      <c r="AJ147">
+        <v>1.9</v>
+      </c>
+      <c r="AK147">
+        <v>1.6</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.35</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
+        <v>3</v>
+      </c>
+      <c r="AP147">
+        <v>0.88</v>
+      </c>
+      <c r="AQ147">
+        <v>3</v>
+      </c>
+      <c r="AR147">
+        <v>1.13</v>
+      </c>
+      <c r="AS147">
+        <v>1.46</v>
+      </c>
+      <c r="AT147">
+        <v>2.59</v>
+      </c>
+      <c r="AU147">
+        <v>2</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>8</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>12</v>
+      </c>
+      <c r="AZ147">
+        <v>13</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>2</v>
+      </c>
+      <c r="BC147">
+        <v>7</v>
+      </c>
+      <c r="BD147">
+        <v>2.1</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
+        <v>1.95</v>
+      </c>
+      <c r="BG147">
+        <v>1.31</v>
+      </c>
+      <c r="BH147">
+        <v>3.15</v>
+      </c>
+      <c r="BI147">
+        <v>1.55</v>
+      </c>
+      <c r="BJ147">
+        <v>2.29</v>
+      </c>
+      <c r="BK147">
+        <v>1.92</v>
+      </c>
+      <c r="BL147">
+        <v>1.79</v>
+      </c>
+      <c r="BM147">
+        <v>2.47</v>
+      </c>
+      <c r="BN147">
+        <v>1.48</v>
+      </c>
+      <c r="BO147">
+        <v>3.3</v>
+      </c>
+      <c r="BP147">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7481499</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F148">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>85</v>
+      </c>
+      <c r="H148" t="s">
+        <v>89</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>194</v>
+      </c>
+      <c r="P148" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q148">
+        <v>3.25</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>3.5</v>
+      </c>
+      <c r="T148">
+        <v>1.44</v>
+      </c>
+      <c r="U148">
+        <v>2.63</v>
+      </c>
+      <c r="V148">
+        <v>3.25</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>10</v>
+      </c>
+      <c r="Y148">
+        <v>1.06</v>
+      </c>
+      <c r="Z148">
+        <v>2.5</v>
+      </c>
+      <c r="AA148">
+        <v>3</v>
+      </c>
+      <c r="AB148">
+        <v>2.93</v>
+      </c>
+      <c r="AC148">
+        <v>1.07</v>
+      </c>
+      <c r="AD148">
+        <v>8</v>
+      </c>
+      <c r="AE148">
+        <v>1.36</v>
+      </c>
+      <c r="AF148">
+        <v>3.1</v>
+      </c>
+      <c r="AG148">
+        <v>2.07</v>
+      </c>
+      <c r="AH148">
+        <v>1.67</v>
+      </c>
+      <c r="AI148">
+        <v>1.83</v>
+      </c>
+      <c r="AJ148">
+        <v>1.83</v>
+      </c>
+      <c r="AK148">
+        <v>1.42</v>
+      </c>
+      <c r="AL148">
+        <v>1.28</v>
+      </c>
+      <c r="AM148">
+        <v>1.5</v>
+      </c>
+      <c r="AN148">
+        <v>1.33</v>
+      </c>
+      <c r="AO148">
+        <v>1</v>
+      </c>
+      <c r="AP148">
+        <v>1.29</v>
+      </c>
+      <c r="AQ148">
+        <v>1</v>
+      </c>
+      <c r="AR148">
+        <v>1.82</v>
+      </c>
+      <c r="AS148">
+        <v>1.06</v>
+      </c>
+      <c r="AT148">
+        <v>2.88</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>7</v>
+      </c>
+      <c r="AZ148">
+        <v>11</v>
+      </c>
+      <c r="BA148">
+        <v>2</v>
+      </c>
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>5</v>
+      </c>
+      <c r="BD148">
+        <v>1.85</v>
+      </c>
+      <c r="BE148">
+        <v>8</v>
+      </c>
+      <c r="BF148">
+        <v>2.28</v>
+      </c>
+      <c r="BG148">
+        <v>1.34</v>
+      </c>
+      <c r="BH148">
+        <v>2.98</v>
+      </c>
+      <c r="BI148">
+        <v>1.6</v>
+      </c>
+      <c r="BJ148">
+        <v>2.19</v>
+      </c>
+      <c r="BK148">
+        <v>2</v>
+      </c>
+      <c r="BL148">
+        <v>1.72</v>
+      </c>
+      <c r="BM148">
+        <v>2.6</v>
+      </c>
+      <c r="BN148">
+        <v>1.44</v>
+      </c>
+      <c r="BO148">
+        <v>3.5</v>
+      </c>
+      <c r="BP148">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7481500</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s">
+        <v>77</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>94</v>
+      </c>
+      <c r="P149" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q149">
+        <v>3.1</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>3.55</v>
+      </c>
+      <c r="T149">
+        <v>1.48</v>
+      </c>
+      <c r="U149">
+        <v>2.45</v>
+      </c>
+      <c r="V149">
+        <v>3.2</v>
+      </c>
+      <c r="W149">
+        <v>1.3</v>
+      </c>
+      <c r="X149">
+        <v>8.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.04</v>
+      </c>
+      <c r="Z149">
+        <v>2.35</v>
+      </c>
+      <c r="AA149">
+        <v>3.1</v>
+      </c>
+      <c r="AB149">
+        <v>2.88</v>
+      </c>
+      <c r="AC149">
+        <v>1.07</v>
+      </c>
+      <c r="AD149">
+        <v>8</v>
+      </c>
+      <c r="AE149">
+        <v>1.4</v>
+      </c>
+      <c r="AF149">
+        <v>2.9</v>
+      </c>
+      <c r="AG149">
+        <v>2.2</v>
+      </c>
+      <c r="AH149">
+        <v>1.67</v>
+      </c>
+      <c r="AI149">
+        <v>1.83</v>
+      </c>
+      <c r="AJ149">
+        <v>1.83</v>
+      </c>
+      <c r="AK149">
+        <v>1.38</v>
+      </c>
+      <c r="AL149">
+        <v>1.28</v>
+      </c>
+      <c r="AM149">
+        <v>1.53</v>
+      </c>
+      <c r="AN149">
+        <v>1.33</v>
+      </c>
+      <c r="AO149">
+        <v>1</v>
+      </c>
+      <c r="AP149">
+        <v>1.14</v>
+      </c>
+      <c r="AQ149">
+        <v>1.29</v>
+      </c>
+      <c r="AR149">
+        <v>1.4</v>
+      </c>
+      <c r="AS149">
+        <v>1.1</v>
+      </c>
+      <c r="AT149">
+        <v>2.5</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>5</v>
+      </c>
+      <c r="AW149">
+        <v>6</v>
+      </c>
+      <c r="AX149">
+        <v>5</v>
+      </c>
+      <c r="AY149">
+        <v>14</v>
+      </c>
+      <c r="AZ149">
+        <v>13</v>
+      </c>
+      <c r="BA149">
+        <v>5</v>
+      </c>
+      <c r="BB149">
+        <v>4</v>
+      </c>
+      <c r="BC149">
+        <v>9</v>
+      </c>
+      <c r="BD149">
+        <v>1.91</v>
+      </c>
+      <c r="BE149">
+        <v>8</v>
+      </c>
+      <c r="BF149">
+        <v>2.2</v>
+      </c>
+      <c r="BG149">
+        <v>1.31</v>
+      </c>
+      <c r="BH149">
+        <v>3.15</v>
+      </c>
+      <c r="BI149">
+        <v>1.55</v>
+      </c>
+      <c r="BJ149">
+        <v>2.29</v>
+      </c>
+      <c r="BK149">
+        <v>1.92</v>
+      </c>
+      <c r="BL149">
+        <v>1.79</v>
+      </c>
+      <c r="BM149">
+        <v>2.47</v>
+      </c>
+      <c r="BN149">
+        <v>1.48</v>
+      </c>
+      <c r="BO149">
+        <v>3.3</v>
+      </c>
+      <c r="BP149">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7481501</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45607.6875</v>
+      </c>
+      <c r="F150">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>74</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>160</v>
+      </c>
+      <c r="P150" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q150">
+        <v>2.55</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>4.33</v>
+      </c>
+      <c r="T150">
+        <v>1.48</v>
+      </c>
+      <c r="U150">
+        <v>2.5</v>
+      </c>
+      <c r="V150">
+        <v>3.1</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>7.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.07</v>
+      </c>
+      <c r="Z150">
+        <v>1.83</v>
+      </c>
+      <c r="AA150">
+        <v>3.21</v>
+      </c>
+      <c r="AB150">
+        <v>3.68</v>
+      </c>
+      <c r="AC150">
+        <v>1.07</v>
+      </c>
+      <c r="AD150">
+        <v>8</v>
+      </c>
+      <c r="AE150">
+        <v>1.38</v>
+      </c>
+      <c r="AF150">
+        <v>3</v>
+      </c>
+      <c r="AG150">
+        <v>2.05</v>
+      </c>
+      <c r="AH150">
+        <v>1.65</v>
+      </c>
+      <c r="AI150">
+        <v>1.85</v>
+      </c>
+      <c r="AJ150">
+        <v>1.8</v>
+      </c>
+      <c r="AK150">
+        <v>1.25</v>
+      </c>
+      <c r="AL150">
+        <v>1.28</v>
+      </c>
+      <c r="AM150">
+        <v>1.77</v>
+      </c>
+      <c r="AN150">
+        <v>0.83</v>
+      </c>
+      <c r="AO150">
+        <v>0.83</v>
+      </c>
+      <c r="AP150">
+        <v>1.14</v>
+      </c>
+      <c r="AQ150">
+        <v>0.71</v>
+      </c>
+      <c r="AR150">
+        <v>1.6</v>
+      </c>
+      <c r="AS150">
+        <v>1.08</v>
+      </c>
+      <c r="AT150">
+        <v>2.68</v>
+      </c>
+      <c r="AU150">
+        <v>5</v>
+      </c>
+      <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>6</v>
+      </c>
+      <c r="AX150">
+        <v>8</v>
+      </c>
+      <c r="AY150">
+        <v>13</v>
+      </c>
+      <c r="AZ150">
+        <v>15</v>
+      </c>
+      <c r="BA150">
+        <v>7</v>
+      </c>
+      <c r="BB150">
+        <v>6</v>
+      </c>
+      <c r="BC150">
+        <v>13</v>
+      </c>
+      <c r="BD150">
+        <v>1.69</v>
+      </c>
+      <c r="BE150">
+        <v>8</v>
+      </c>
+      <c r="BF150">
+        <v>2.62</v>
+      </c>
+      <c r="BG150">
+        <v>1.27</v>
+      </c>
+      <c r="BH150">
+        <v>3.38</v>
+      </c>
+      <c r="BI150">
+        <v>1.38</v>
+      </c>
+      <c r="BJ150">
+        <v>2.8</v>
+      </c>
+      <c r="BK150">
+        <v>1.65</v>
+      </c>
+      <c r="BL150">
+        <v>2.11</v>
+      </c>
+      <c r="BM150">
+        <v>2.05</v>
+      </c>
+      <c r="BN150">
+        <v>1.69</v>
+      </c>
+      <c r="BO150">
+        <v>2.65</v>
+      </c>
+      <c r="BP150">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -808,13 +808,13 @@
     <t>['9', '45']</t>
   </si>
   <si>
+    <t>['39', '78']</t>
+  </si>
+  <si>
     <t>['13', '33']</t>
   </si>
   <si>
     <t>['30', '58']</t>
-  </si>
-  <si>
-    <t>['39', '78']</t>
   </si>
 </sst>
 </file>
@@ -31066,10 +31066,10 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45605.875</v>
+        <v>45606.41666666666</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
         <v>88</v>
@@ -31263,7 +31263,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7481502</v>
+        <v>7481500</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31272,76 +31272,76 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45605.875</v>
+        <v>45606.51041666666</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H147" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M147">
         <v>2</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O147" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P147" t="s">
         <v>264</v>
       </c>
       <c r="Q147">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="T147">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U147">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V147">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W147">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X147">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="Y147">
         <v>1.04</v>
       </c>
       <c r="Z147">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AA147">
         <v>3.1</v>
       </c>
       <c r="AB147">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="AC147">
         <v>1.07</v>
@@ -31350,67 +31350,67 @@
         <v>8</v>
       </c>
       <c r="AE147">
+        <v>1.4</v>
+      </c>
+      <c r="AF147">
+        <v>2.9</v>
+      </c>
+      <c r="AG147">
+        <v>2.2</v>
+      </c>
+      <c r="AH147">
+        <v>1.67</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
         <v>1.38</v>
-      </c>
-      <c r="AF147">
-        <v>3</v>
-      </c>
-      <c r="AG147">
-        <v>2.08</v>
-      </c>
-      <c r="AH147">
-        <v>1.75</v>
-      </c>
-      <c r="AI147">
-        <v>1.77</v>
-      </c>
-      <c r="AJ147">
-        <v>1.9</v>
-      </c>
-      <c r="AK147">
-        <v>1.6</v>
       </c>
       <c r="AL147">
         <v>1.28</v>
       </c>
       <c r="AM147">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AN147">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP147">
-        <v>0.88</v>
+        <v>1.14</v>
       </c>
       <c r="AQ147">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AS147">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="AT147">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AU147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV147">
         <v>5</v>
       </c>
       <c r="AW147">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX147">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY147">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ147">
         <v>13</v>
@@ -31419,19 +31419,19 @@
         <v>5</v>
       </c>
       <c r="BB147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC147">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD147">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BE147">
         <v>8</v>
       </c>
       <c r="BF147">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BG147">
         <v>1.31</v>
@@ -31469,7 +31469,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7481499</v>
+        <v>7481502</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31478,76 +31478,76 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45605.875</v>
+        <v>45606.51041666666</v>
       </c>
       <c r="F148">
         <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H148" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K148">
         <v>2</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M148">
         <v>2</v>
       </c>
       <c r="N148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O148" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="P148" t="s">
         <v>265</v>
       </c>
       <c r="Q148">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="T148">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U148">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="V148">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W148">
         <v>1.33</v>
       </c>
       <c r="X148">
-        <v>10</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y148">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z148">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AA148">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB148">
-        <v>2.93</v>
+        <v>2.25</v>
       </c>
       <c r="AC148">
         <v>1.07</v>
@@ -31556,118 +31556,118 @@
         <v>8</v>
       </c>
       <c r="AE148">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF148">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG148">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="AH148">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AI148">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AJ148">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AK148">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AL148">
         <v>1.28</v>
       </c>
       <c r="AM148">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AN148">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP148">
-        <v>1.29</v>
+        <v>0.88</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR148">
-        <v>1.82</v>
+        <v>1.13</v>
       </c>
       <c r="AS148">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="AT148">
-        <v>2.88</v>
+        <v>2.59</v>
       </c>
       <c r="AU148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>8</v>
+      </c>
+      <c r="AX148">
         <v>6</v>
       </c>
-      <c r="AW148">
-        <v>2</v>
-      </c>
-      <c r="AX148">
+      <c r="AY148">
+        <v>12</v>
+      </c>
+      <c r="AZ148">
+        <v>13</v>
+      </c>
+      <c r="BA148">
         <v>5</v>
       </c>
-      <c r="AY148">
+      <c r="BB148">
+        <v>2</v>
+      </c>
+      <c r="BC148">
         <v>7</v>
       </c>
-      <c r="AZ148">
-        <v>11</v>
-      </c>
-      <c r="BA148">
-        <v>2</v>
-      </c>
-      <c r="BB148">
-        <v>3</v>
-      </c>
-      <c r="BC148">
-        <v>5</v>
-      </c>
       <c r="BD148">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="BE148">
         <v>8</v>
       </c>
       <c r="BF148">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="BG148">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="BH148">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="BI148">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BJ148">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="BK148">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BL148">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="BM148">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="BN148">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BO148">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BP148">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31675,7 +31675,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7481500</v>
+        <v>7481499</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31684,76 +31684,76 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45605.875</v>
+        <v>45606.60416666666</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H149" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>1</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M149">
         <v>2</v>
       </c>
       <c r="N149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O149" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="P149" t="s">
         <v>266</v>
       </c>
       <c r="Q149">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R149">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T149">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U149">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="V149">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W149">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X149">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y149">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z149">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AA149">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB149">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="AC149">
         <v>1.07</v>
@@ -31762,13 +31762,13 @@
         <v>8</v>
       </c>
       <c r="AE149">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF149">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AG149">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="AH149">
         <v>1.67</v>
@@ -31780,13 +31780,13 @@
         <v>1.83</v>
       </c>
       <c r="AK149">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AL149">
         <v>1.28</v>
       </c>
       <c r="AM149">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AN149">
         <v>1.33</v>
@@ -31795,85 +31795,85 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR149">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AS149">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AT149">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="AU149">
+        <v>4</v>
+      </c>
+      <c r="AV149">
         <v>6</v>
       </c>
-      <c r="AV149">
-        <v>5</v>
-      </c>
       <c r="AW149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX149">
         <v>5</v>
       </c>
       <c r="AY149">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AZ149">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
+        <v>3</v>
+      </c>
+      <c r="BC149">
         <v>5</v>
       </c>
-      <c r="BB149">
-        <v>4</v>
-      </c>
-      <c r="BC149">
-        <v>9</v>
-      </c>
       <c r="BD149">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BE149">
         <v>8</v>
       </c>
       <c r="BF149">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BG149">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="BH149">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="BI149">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BJ149">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="BK149">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BL149">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="BM149">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="BN149">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BO149">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BP149">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31890,7 +31890,7 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45607.6875</v>
+        <v>45606.875</v>
       </c>
       <c r="F150">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -544,16 +544,16 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['11', '26', '61']</t>
+  </si>
+  <si>
     <t>['45', '86']</t>
   </si>
   <si>
-    <t>['11', '26', '61']</t>
+    <t>['8']</t>
   </si>
   <si>
     <t>['45+2', '90+5']</t>
-  </si>
-  <si>
-    <t>['8']</t>
   </si>
   <si>
     <t>['9', '56']</t>
@@ -565,10 +565,10 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['69']</t>
+    <t>['27', '90+3']</t>
   </si>
   <si>
-    <t>['27', '90+3']</t>
+    <t>['69']</t>
   </si>
   <si>
     <t>['1', '63']</t>
@@ -808,10 +808,10 @@
     <t>['9', '45']</t>
   </si>
   <si>
-    <t>['39', '78']</t>
+    <t>['13', '33']</t>
   </si>
   <si>
-    <t>['13', '33']</t>
+    <t>['39', '78']</t>
   </si>
   <si>
     <t>['30', '58']</t>
@@ -22035,7 +22035,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -26319,7 +26319,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7481478</v>
+        <v>7481485</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26331,46 +26331,46 @@
         <v>45591.46875</v>
       </c>
       <c r="F123">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H123" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O123" t="s">
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="Q123">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="T123">
         <v>1.5</v>
@@ -26385,139 +26385,139 @@
         <v>1.29</v>
       </c>
       <c r="X123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y123">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
-        <v>2.5</v>
+        <v>1.72</v>
       </c>
       <c r="AA123">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB123">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AC123">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AD123">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE123">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AF123">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AG123">
+        <v>2.1</v>
+      </c>
+      <c r="AH123">
+        <v>1.65</v>
+      </c>
+      <c r="AI123">
         <v>2.2</v>
       </c>
-      <c r="AH123">
+      <c r="AJ123">
+        <v>1.62</v>
+      </c>
+      <c r="AK123">
+        <v>1.15</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>2.05</v>
+      </c>
+      <c r="AN123">
+        <v>2.17</v>
+      </c>
+      <c r="AO123">
+        <v>1</v>
+      </c>
+      <c r="AP123">
+        <v>2.13</v>
+      </c>
+      <c r="AQ123">
+        <v>0.75</v>
+      </c>
+      <c r="AR123">
+        <v>1.12</v>
+      </c>
+      <c r="AS123">
+        <v>0.85</v>
+      </c>
+      <c r="AT123">
+        <v>1.97</v>
+      </c>
+      <c r="AU123">
+        <v>7</v>
+      </c>
+      <c r="AV123">
+        <v>6</v>
+      </c>
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>13</v>
+      </c>
+      <c r="AZ123">
+        <v>12</v>
+      </c>
+      <c r="BA123">
+        <v>4</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>8</v>
+      </c>
+      <c r="BD123">
+        <v>1.45</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>3.33</v>
+      </c>
+      <c r="BG123">
+        <v>1.43</v>
+      </c>
+      <c r="BH123">
+        <v>2.6</v>
+      </c>
+      <c r="BI123">
+        <v>1.75</v>
+      </c>
+      <c r="BJ123">
+        <v>1.96</v>
+      </c>
+      <c r="BK123">
+        <v>2.24</v>
+      </c>
+      <c r="BL123">
         <v>1.57</v>
       </c>
-      <c r="AI123">
-        <v>2</v>
-      </c>
-      <c r="AJ123">
-        <v>1.73</v>
-      </c>
-      <c r="AK123">
-        <v>1.42</v>
-      </c>
-      <c r="AL123">
-        <v>1.3</v>
-      </c>
-      <c r="AM123">
-        <v>1.48</v>
-      </c>
-      <c r="AN123">
-        <v>0.5</v>
-      </c>
-      <c r="AO123">
-        <v>1.17</v>
-      </c>
-      <c r="AP123">
-        <v>0.86</v>
-      </c>
-      <c r="AQ123">
-        <v>1</v>
-      </c>
-      <c r="AR123">
-        <v>1.53</v>
-      </c>
-      <c r="AS123">
-        <v>1.12</v>
-      </c>
-      <c r="AT123">
-        <v>2.65</v>
-      </c>
-      <c r="AU123">
-        <v>5</v>
-      </c>
-      <c r="AV123">
-        <v>2</v>
-      </c>
-      <c r="AW123">
-        <v>4</v>
-      </c>
-      <c r="AX123">
-        <v>2</v>
-      </c>
-      <c r="AY123">
-        <v>11</v>
-      </c>
-      <c r="AZ123">
-        <v>5</v>
-      </c>
-      <c r="BA123">
-        <v>3</v>
-      </c>
-      <c r="BB123">
-        <v>7</v>
-      </c>
-      <c r="BC123">
-        <v>10</v>
-      </c>
-      <c r="BD123">
-        <v>1.85</v>
-      </c>
-      <c r="BE123">
-        <v>7.5</v>
-      </c>
-      <c r="BF123">
-        <v>2.29</v>
-      </c>
-      <c r="BG123">
-        <v>1.35</v>
-      </c>
-      <c r="BH123">
-        <v>2.95</v>
-      </c>
-      <c r="BI123">
-        <v>1.61</v>
-      </c>
-      <c r="BJ123">
-        <v>2.18</v>
-      </c>
-      <c r="BK123">
-        <v>2.01</v>
-      </c>
-      <c r="BL123">
-        <v>1.72</v>
-      </c>
       <c r="BM123">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="BN123">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="BO123">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="BP123">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26525,7 +26525,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7481485</v>
+        <v>7481478</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26537,46 +26537,46 @@
         <v>45591.46875</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H124" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O124" t="s">
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="Q124">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="T124">
         <v>1.5</v>
@@ -26591,139 +26591,139 @@
         <v>1.29</v>
       </c>
       <c r="X124">
+        <v>10</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>2.5</v>
+      </c>
+      <c r="AA124">
+        <v>3.1</v>
+      </c>
+      <c r="AB124">
+        <v>2.7</v>
+      </c>
+      <c r="AC124">
+        <v>1.08</v>
+      </c>
+      <c r="AD124">
+        <v>7.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.42</v>
+      </c>
+      <c r="AF124">
+        <v>2.8</v>
+      </c>
+      <c r="AG124">
+        <v>2.2</v>
+      </c>
+      <c r="AH124">
+        <v>1.57</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.73</v>
+      </c>
+      <c r="AK124">
+        <v>1.42</v>
+      </c>
+      <c r="AL124">
+        <v>1.3</v>
+      </c>
+      <c r="AM124">
+        <v>1.48</v>
+      </c>
+      <c r="AN124">
+        <v>0.5</v>
+      </c>
+      <c r="AO124">
+        <v>1.17</v>
+      </c>
+      <c r="AP124">
+        <v>0.86</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.53</v>
+      </c>
+      <c r="AS124">
+        <v>1.12</v>
+      </c>
+      <c r="AT124">
+        <v>2.65</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>2</v>
+      </c>
+      <c r="AW124">
+        <v>4</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
         <v>11</v>
       </c>
-      <c r="Y124">
-        <v>1.05</v>
-      </c>
-      <c r="Z124">
+      <c r="AZ124">
+        <v>5</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>7</v>
+      </c>
+      <c r="BC124">
+        <v>10</v>
+      </c>
+      <c r="BD124">
+        <v>1.85</v>
+      </c>
+      <c r="BE124">
+        <v>7.5</v>
+      </c>
+      <c r="BF124">
+        <v>2.29</v>
+      </c>
+      <c r="BG124">
+        <v>1.35</v>
+      </c>
+      <c r="BH124">
+        <v>2.95</v>
+      </c>
+      <c r="BI124">
+        <v>1.61</v>
+      </c>
+      <c r="BJ124">
+        <v>2.18</v>
+      </c>
+      <c r="BK124">
+        <v>2.01</v>
+      </c>
+      <c r="BL124">
         <v>1.72</v>
       </c>
-      <c r="AA124">
-        <v>3.4</v>
-      </c>
-      <c r="AB124">
-        <v>4.5</v>
-      </c>
-      <c r="AC124">
-        <v>1.09</v>
-      </c>
-      <c r="AD124">
-        <v>7</v>
-      </c>
-      <c r="AE124">
-        <v>1.57</v>
-      </c>
-      <c r="AF124">
-        <v>2.25</v>
-      </c>
-      <c r="AG124">
-        <v>2.1</v>
-      </c>
-      <c r="AH124">
-        <v>1.65</v>
-      </c>
-      <c r="AI124">
-        <v>2.2</v>
-      </c>
-      <c r="AJ124">
-        <v>1.62</v>
-      </c>
-      <c r="AK124">
-        <v>1.15</v>
-      </c>
-      <c r="AL124">
+      <c r="BM124">
+        <v>2.62</v>
+      </c>
+      <c r="BN124">
+        <v>1.43</v>
+      </c>
+      <c r="BO124">
+        <v>3.52</v>
+      </c>
+      <c r="BP124">
         <v>1.25</v>
-      </c>
-      <c r="AM124">
-        <v>2.05</v>
-      </c>
-      <c r="AN124">
-        <v>2.17</v>
-      </c>
-      <c r="AO124">
-        <v>1</v>
-      </c>
-      <c r="AP124">
-        <v>2.13</v>
-      </c>
-      <c r="AQ124">
-        <v>0.75</v>
-      </c>
-      <c r="AR124">
-        <v>1.12</v>
-      </c>
-      <c r="AS124">
-        <v>0.85</v>
-      </c>
-      <c r="AT124">
-        <v>1.97</v>
-      </c>
-      <c r="AU124">
-        <v>7</v>
-      </c>
-      <c r="AV124">
-        <v>6</v>
-      </c>
-      <c r="AW124">
-        <v>3</v>
-      </c>
-      <c r="AX124">
-        <v>3</v>
-      </c>
-      <c r="AY124">
-        <v>13</v>
-      </c>
-      <c r="AZ124">
-        <v>12</v>
-      </c>
-      <c r="BA124">
-        <v>4</v>
-      </c>
-      <c r="BB124">
-        <v>4</v>
-      </c>
-      <c r="BC124">
-        <v>8</v>
-      </c>
-      <c r="BD124">
-        <v>1.45</v>
-      </c>
-      <c r="BE124">
-        <v>8.5</v>
-      </c>
-      <c r="BF124">
-        <v>3.33</v>
-      </c>
-      <c r="BG124">
-        <v>1.43</v>
-      </c>
-      <c r="BH124">
-        <v>2.6</v>
-      </c>
-      <c r="BI124">
-        <v>1.75</v>
-      </c>
-      <c r="BJ124">
-        <v>1.96</v>
-      </c>
-      <c r="BK124">
-        <v>2.24</v>
-      </c>
-      <c r="BL124">
-        <v>1.57</v>
-      </c>
-      <c r="BM124">
-        <v>2.98</v>
-      </c>
-      <c r="BN124">
-        <v>1.34</v>
-      </c>
-      <c r="BO124">
-        <v>3.62</v>
-      </c>
-      <c r="BP124">
-        <v>1.24</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26731,7 +26731,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7481479</v>
+        <v>7481486</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26746,37 +26746,37 @@
         <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H125" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O125" t="s">
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="Q125">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="R125">
         <v>2.1</v>
@@ -26803,13 +26803,13 @@
         <v>1.07</v>
       </c>
       <c r="Z125">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AA125">
         <v>3.3</v>
       </c>
       <c r="AB125">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AC125">
         <v>1.07</v>
@@ -26818,115 +26818,115 @@
         <v>8</v>
       </c>
       <c r="AE125">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG125">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH125">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AI125">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ125">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK125">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AL125">
         <v>1.25</v>
       </c>
       <c r="AM125">
+        <v>1.83</v>
+      </c>
+      <c r="AN125">
+        <v>1.5</v>
+      </c>
+      <c r="AO125">
         <v>1.8</v>
       </c>
-      <c r="AN125">
-        <v>2.2</v>
-      </c>
-      <c r="AO125">
-        <v>1</v>
-      </c>
       <c r="AP125">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>0.71</v>
+        <v>1.86</v>
       </c>
       <c r="AR125">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="AS125">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AT125">
-        <v>2.68</v>
+        <v>3.11</v>
       </c>
       <c r="AU125">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
         <v>4</v>
-      </c>
-      <c r="AW125">
-        <v>5</v>
       </c>
       <c r="AX125">
         <v>3</v>
       </c>
       <c r="AY125">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ125">
+        <v>13</v>
+      </c>
+      <c r="BA125">
+        <v>2</v>
+      </c>
+      <c r="BB125">
+        <v>5</v>
+      </c>
+      <c r="BC125">
+        <v>7</v>
+      </c>
+      <c r="BD125">
+        <v>1.59</v>
+      </c>
+      <c r="BE125">
         <v>8</v>
       </c>
-      <c r="BA125">
-        <v>2</v>
-      </c>
-      <c r="BB125">
-        <v>6</v>
-      </c>
-      <c r="BC125">
-        <v>8</v>
-      </c>
-      <c r="BD125">
-        <v>1.41</v>
-      </c>
-      <c r="BE125">
-        <v>9</v>
-      </c>
       <c r="BF125">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="BG125">
         <v>1.28</v>
       </c>
       <c r="BH125">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="BI125">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BJ125">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="BK125">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BL125">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BM125">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="BN125">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BO125">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="BP125">
         <v>1.32</v>
@@ -26937,7 +26937,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7481486</v>
+        <v>7481479</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26952,37 +26952,37 @@
         <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H126" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O126" t="s">
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="Q126">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="R126">
         <v>2.1</v>
@@ -27009,13 +27009,13 @@
         <v>1.07</v>
       </c>
       <c r="Z126">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AA126">
         <v>3.3</v>
       </c>
       <c r="AB126">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AC126">
         <v>1.07</v>
@@ -27024,115 +27024,115 @@
         <v>8</v>
       </c>
       <c r="AE126">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF126">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG126">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH126">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AI126">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ126">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK126">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AL126">
         <v>1.25</v>
       </c>
       <c r="AM126">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AN126">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO126">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ126">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="AR126">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AS126">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AT126">
-        <v>3.11</v>
+        <v>2.68</v>
       </c>
       <c r="AU126">
+        <v>10</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
         <v>5</v>
-      </c>
-      <c r="AV126">
-        <v>5</v>
-      </c>
-      <c r="AW126">
-        <v>4</v>
       </c>
       <c r="AX126">
         <v>3</v>
       </c>
       <c r="AY126">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ126">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA126">
         <v>2</v>
       </c>
       <c r="BB126">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD126">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="BE126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF126">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="BG126">
         <v>1.28</v>
       </c>
       <c r="BH126">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="BI126">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BJ126">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="BK126">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BL126">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BM126">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="BN126">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BO126">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="BP126">
         <v>1.32</v>
@@ -27349,7 +27349,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7481484</v>
+        <v>7481480</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27361,193 +27361,193 @@
         <v>45592.51041666666</v>
       </c>
       <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" t="s">
+        <v>76</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>137</v>
+      </c>
+      <c r="P128" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q128">
+        <v>3.2</v>
+      </c>
+      <c r="R128">
+        <v>2.1</v>
+      </c>
+      <c r="S128">
+        <v>3.5</v>
+      </c>
+      <c r="T128">
+        <v>1.44</v>
+      </c>
+      <c r="U128">
+        <v>2.63</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>1.36</v>
+      </c>
+      <c r="X128">
+        <v>9</v>
+      </c>
+      <c r="Y128">
+        <v>1.07</v>
+      </c>
+      <c r="Z128">
+        <v>2.54</v>
+      </c>
+      <c r="AA128">
+        <v>3.23</v>
+      </c>
+      <c r="AB128">
+        <v>2.89</v>
+      </c>
+      <c r="AC128">
+        <v>1.07</v>
+      </c>
+      <c r="AD128">
+        <v>8</v>
+      </c>
+      <c r="AE128">
+        <v>1.33</v>
+      </c>
+      <c r="AF128">
+        <v>3.25</v>
+      </c>
+      <c r="AG128">
+        <v>1.9</v>
+      </c>
+      <c r="AH128">
+        <v>1.72</v>
+      </c>
+      <c r="AI128">
+        <v>1.73</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
+        <v>1.42</v>
+      </c>
+      <c r="AL128">
+        <v>1.28</v>
+      </c>
+      <c r="AM128">
+        <v>1.5</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>3</v>
+      </c>
+      <c r="AP128">
+        <v>1.14</v>
+      </c>
+      <c r="AQ128">
+        <v>3</v>
+      </c>
+      <c r="AR128">
+        <v>1.61</v>
+      </c>
+      <c r="AS128">
+        <v>1.42</v>
+      </c>
+      <c r="AT128">
+        <v>3.03</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>8</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>16</v>
+      </c>
+      <c r="AZ128">
         <v>12</v>
       </c>
-      <c r="G128" t="s">
-        <v>79</v>
-      </c>
-      <c r="H128" t="s">
-        <v>78</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-      <c r="O128" t="s">
-        <v>93</v>
-      </c>
-      <c r="P128" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q128">
-        <v>2.6</v>
-      </c>
-      <c r="R128">
-        <v>2.05</v>
-      </c>
-      <c r="S128">
-        <v>5</v>
-      </c>
-      <c r="T128">
-        <v>1.5</v>
-      </c>
-      <c r="U128">
-        <v>2.5</v>
-      </c>
-      <c r="V128">
-        <v>3.4</v>
-      </c>
-      <c r="W128">
-        <v>1.3</v>
-      </c>
-      <c r="X128">
+      <c r="BA128">
         <v>10</v>
-      </c>
-      <c r="Y128">
-        <v>1.06</v>
-      </c>
-      <c r="Z128">
-        <v>2.43</v>
-      </c>
-      <c r="AA128">
-        <v>2.92</v>
-      </c>
-      <c r="AB128">
-        <v>2.83</v>
-      </c>
-      <c r="AC128">
-        <v>1.09</v>
-      </c>
-      <c r="AD128">
-        <v>7</v>
-      </c>
-      <c r="AE128">
-        <v>1.44</v>
-      </c>
-      <c r="AF128">
-        <v>2.75</v>
-      </c>
-      <c r="AG128">
-        <v>2.19</v>
-      </c>
-      <c r="AH128">
-        <v>1.6</v>
-      </c>
-      <c r="AI128">
-        <v>2.1</v>
-      </c>
-      <c r="AJ128">
-        <v>1.67</v>
-      </c>
-      <c r="AK128">
-        <v>1.18</v>
-      </c>
-      <c r="AL128">
-        <v>1.25</v>
-      </c>
-      <c r="AM128">
-        <v>1.93</v>
-      </c>
-      <c r="AN128">
-        <v>1.83</v>
-      </c>
-      <c r="AO128">
-        <v>1.4</v>
-      </c>
-      <c r="AP128">
-        <v>1.75</v>
-      </c>
-      <c r="AQ128">
-        <v>1</v>
-      </c>
-      <c r="AR128">
-        <v>1.3</v>
-      </c>
-      <c r="AS128">
-        <v>1.4</v>
-      </c>
-      <c r="AT128">
-        <v>2.7</v>
-      </c>
-      <c r="AU128">
-        <v>9</v>
-      </c>
-      <c r="AV128">
-        <v>4</v>
-      </c>
-      <c r="AW128">
-        <v>4</v>
-      </c>
-      <c r="AX128">
-        <v>2</v>
-      </c>
-      <c r="AY128">
-        <v>21</v>
-      </c>
-      <c r="AZ128">
-        <v>7</v>
-      </c>
-      <c r="BA128">
-        <v>12</v>
       </c>
       <c r="BB128">
         <v>3</v>
       </c>
       <c r="BC128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD128">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="BE128">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF128">
-        <v>3.16</v>
+        <v>2.05</v>
       </c>
       <c r="BG128">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="BH128">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="BI128">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="BJ128">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="BK128">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="BL128">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="BM128">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="BN128">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="BO128">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP128">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27555,7 +27555,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7481480</v>
+        <v>7481484</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27567,193 +27567,193 @@
         <v>45592.51041666666</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H129" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O129" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="Q129">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>1.5</v>
+      </c>
+      <c r="U129">
+        <v>2.5</v>
+      </c>
+      <c r="V129">
+        <v>3.4</v>
+      </c>
+      <c r="W129">
+        <v>1.3</v>
+      </c>
+      <c r="X129">
+        <v>10</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>2.43</v>
+      </c>
+      <c r="AA129">
+        <v>2.92</v>
+      </c>
+      <c r="AB129">
+        <v>2.83</v>
+      </c>
+      <c r="AC129">
+        <v>1.09</v>
+      </c>
+      <c r="AD129">
+        <v>7</v>
+      </c>
+      <c r="AE129">
+        <v>1.44</v>
+      </c>
+      <c r="AF129">
+        <v>2.75</v>
+      </c>
+      <c r="AG129">
+        <v>2.19</v>
+      </c>
+      <c r="AH129">
+        <v>1.6</v>
+      </c>
+      <c r="AI129">
         <v>2.1</v>
       </c>
-      <c r="S129">
-        <v>3.5</v>
-      </c>
-      <c r="T129">
-        <v>1.44</v>
-      </c>
-      <c r="U129">
-        <v>2.63</v>
-      </c>
-      <c r="V129">
-        <v>3</v>
-      </c>
-      <c r="W129">
-        <v>1.36</v>
-      </c>
-      <c r="X129">
+      <c r="AJ129">
+        <v>1.67</v>
+      </c>
+      <c r="AK129">
+        <v>1.18</v>
+      </c>
+      <c r="AL129">
+        <v>1.25</v>
+      </c>
+      <c r="AM129">
+        <v>1.93</v>
+      </c>
+      <c r="AN129">
+        <v>1.83</v>
+      </c>
+      <c r="AO129">
+        <v>1.4</v>
+      </c>
+      <c r="AP129">
+        <v>1.75</v>
+      </c>
+      <c r="AQ129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>1.3</v>
+      </c>
+      <c r="AS129">
+        <v>1.4</v>
+      </c>
+      <c r="AT129">
+        <v>2.7</v>
+      </c>
+      <c r="AU129">
         <v>9</v>
       </c>
-      <c r="Y129">
-        <v>1.07</v>
-      </c>
-      <c r="Z129">
-        <v>2.54</v>
-      </c>
-      <c r="AA129">
-        <v>3.23</v>
-      </c>
-      <c r="AB129">
-        <v>2.89</v>
-      </c>
-      <c r="AC129">
-        <v>1.07</v>
-      </c>
-      <c r="AD129">
-        <v>8</v>
-      </c>
-      <c r="AE129">
-        <v>1.33</v>
-      </c>
-      <c r="AF129">
-        <v>3.25</v>
-      </c>
-      <c r="AG129">
-        <v>1.9</v>
-      </c>
-      <c r="AH129">
-        <v>1.72</v>
-      </c>
-      <c r="AI129">
-        <v>1.73</v>
-      </c>
-      <c r="AJ129">
-        <v>2</v>
-      </c>
-      <c r="AK129">
-        <v>1.42</v>
-      </c>
-      <c r="AL129">
-        <v>1.28</v>
-      </c>
-      <c r="AM129">
-        <v>1.5</v>
-      </c>
-      <c r="AN129">
-        <v>1</v>
-      </c>
-      <c r="AO129">
-        <v>3</v>
-      </c>
-      <c r="AP129">
-        <v>1.14</v>
-      </c>
-      <c r="AQ129">
-        <v>3</v>
-      </c>
-      <c r="AR129">
-        <v>1.61</v>
-      </c>
-      <c r="AS129">
-        <v>1.42</v>
-      </c>
-      <c r="AT129">
-        <v>3.03</v>
-      </c>
-      <c r="AU129">
+      <c r="AV129">
         <v>4</v>
       </c>
-      <c r="AV129">
-        <v>8</v>
-      </c>
       <c r="AW129">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY129">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ129">
+        <v>7</v>
+      </c>
+      <c r="BA129">
         <v>12</v>
-      </c>
-      <c r="BA129">
-        <v>10</v>
       </c>
       <c r="BB129">
         <v>3</v>
       </c>
       <c r="BC129">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD129">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="BE129">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF129">
-        <v>2.05</v>
+        <v>3.16</v>
       </c>
       <c r="BG129">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="BH129">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="BI129">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="BJ129">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="BK129">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="BL129">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="BM129">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="BN129">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="BO129">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP129">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -28791,7 +28791,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7481489</v>
+        <v>7481496</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28806,190 +28806,190 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H135" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O135" t="s">
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="Q135">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="R135">
         <v>1.95</v>
       </c>
       <c r="S135">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="T135">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="U135">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="V135">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W135">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="X135">
-        <v>8</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Y135">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z135">
-        <v>3.77</v>
+        <v>2.1</v>
       </c>
       <c r="AA135">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="AB135">
-        <v>2.01</v>
+        <v>3.43</v>
       </c>
       <c r="AC135">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE135">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AF135">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AG135">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="AH135">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AI135">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AJ135">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AK135">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AL135">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM135">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="AN135">
-        <v>0.2</v>
+        <v>2.17</v>
       </c>
       <c r="AO135">
-        <v>0.83</v>
+        <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>0.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ135">
         <v>1.14</v>
       </c>
       <c r="AR135">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="AS135">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AT135">
-        <v>2.46</v>
+        <v>3.01</v>
       </c>
       <c r="AU135">
+        <v>3</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>6</v>
+      </c>
+      <c r="AY135">
         <v>5</v>
       </c>
-      <c r="AV135">
-        <v>13</v>
-      </c>
-      <c r="AW135">
-        <v>10</v>
-      </c>
-      <c r="AX135">
-        <v>4</v>
-      </c>
-      <c r="AY135">
-        <v>17</v>
-      </c>
       <c r="AZ135">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BA135">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC135">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD135">
-        <v>2.22</v>
+        <v>1.91</v>
       </c>
       <c r="BE135">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="BF135">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="BG135">
+        <v>1.31</v>
+      </c>
+      <c r="BH135">
+        <v>3.15</v>
+      </c>
+      <c r="BI135">
+        <v>1.55</v>
+      </c>
+      <c r="BJ135">
+        <v>2.29</v>
+      </c>
+      <c r="BK135">
+        <v>2</v>
+      </c>
+      <c r="BL135">
+        <v>1.8</v>
+      </c>
+      <c r="BM135">
+        <v>2.47</v>
+      </c>
+      <c r="BN135">
+        <v>1.48</v>
+      </c>
+      <c r="BO135">
+        <v>3.3</v>
+      </c>
+      <c r="BP135">
         <v>1.29</v>
-      </c>
-      <c r="BH135">
-        <v>3.25</v>
-      </c>
-      <c r="BI135">
-        <v>1.52</v>
-      </c>
-      <c r="BJ135">
-        <v>2.36</v>
-      </c>
-      <c r="BK135">
-        <v>1.92</v>
-      </c>
-      <c r="BL135">
-        <v>1.88</v>
-      </c>
-      <c r="BM135">
-        <v>2.39</v>
-      </c>
-      <c r="BN135">
-        <v>1.51</v>
-      </c>
-      <c r="BO135">
-        <v>3.2</v>
-      </c>
-      <c r="BP135">
-        <v>1.3</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28997,7 +28997,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7481496</v>
+        <v>7481489</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -29012,190 +29012,190 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H136" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O136" t="s">
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="Q136">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="R136">
         <v>1.95</v>
       </c>
       <c r="S136">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="T136">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="U136">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="V136">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W136">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="X136">
-        <v>8.949999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y136">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z136">
-        <v>2.1</v>
+        <v>3.77</v>
       </c>
       <c r="AA136">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="AB136">
-        <v>3.43</v>
+        <v>2.01</v>
       </c>
       <c r="AC136">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE136">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AF136">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AG136">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="AH136">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AI136">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AJ136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AK136">
+        <v>1.62</v>
+      </c>
+      <c r="AL136">
         <v>1.3</v>
       </c>
-      <c r="AL136">
-        <v>1.28</v>
-      </c>
       <c r="AM136">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
       <c r="AN136">
-        <v>2.17</v>
+        <v>0.2</v>
       </c>
       <c r="AO136">
-        <v>1.4</v>
+        <v>0.83</v>
       </c>
       <c r="AP136">
-        <v>2.29</v>
+        <v>0.17</v>
       </c>
       <c r="AQ136">
         <v>1.14</v>
       </c>
       <c r="AR136">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="AS136">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AT136">
-        <v>3.01</v>
+        <v>2.46</v>
       </c>
       <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>13</v>
+      </c>
+      <c r="AW136">
+        <v>10</v>
+      </c>
+      <c r="AX136">
+        <v>4</v>
+      </c>
+      <c r="AY136">
+        <v>17</v>
+      </c>
+      <c r="AZ136">
+        <v>18</v>
+      </c>
+      <c r="BA136">
+        <v>9</v>
+      </c>
+      <c r="BB136">
         <v>3</v>
       </c>
-      <c r="AV136">
-        <v>0</v>
-      </c>
-      <c r="AW136">
-        <v>2</v>
-      </c>
-      <c r="AX136">
-        <v>6</v>
-      </c>
-      <c r="AY136">
-        <v>5</v>
-      </c>
-      <c r="AZ136">
-        <v>9</v>
-      </c>
-      <c r="BA136">
-        <v>2</v>
-      </c>
-      <c r="BB136">
-        <v>5</v>
-      </c>
       <c r="BC136">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD136">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="BE136">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="BF136">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="BG136">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BH136">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="BI136">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BJ136">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="BK136">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BL136">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BM136">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="BN136">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BO136">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP136">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -31263,7 +31263,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7481500</v>
+        <v>7481502</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31275,73 +31275,73 @@
         <v>45606.51041666666</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147">
         <v>2</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P147" t="s">
         <v>264</v>
       </c>
       <c r="Q147">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="T147">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U147">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="V147">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="W147">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X147">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y147">
         <v>1.04</v>
       </c>
       <c r="Z147">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AA147">
         <v>3.1</v>
       </c>
       <c r="AB147">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="AC147">
         <v>1.07</v>
@@ -31350,67 +31350,67 @@
         <v>8</v>
       </c>
       <c r="AE147">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF147">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AG147">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="AH147">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AI147">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AJ147">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AK147">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AL147">
         <v>1.28</v>
       </c>
       <c r="AM147">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AN147">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP147">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="AR147">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AS147">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="AT147">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="AU147">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV147">
         <v>5</v>
       </c>
       <c r="AW147">
+        <v>8</v>
+      </c>
+      <c r="AX147">
         <v>6</v>
       </c>
-      <c r="AX147">
-        <v>5</v>
-      </c>
       <c r="AY147">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ147">
         <v>13</v>
@@ -31419,19 +31419,19 @@
         <v>5</v>
       </c>
       <c r="BB147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC147">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD147">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BE147">
         <v>8</v>
       </c>
       <c r="BF147">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BG147">
         <v>1.31</v>
@@ -31469,7 +31469,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7481502</v>
+        <v>7481500</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31481,73 +31481,73 @@
         <v>45606.51041666666</v>
       </c>
       <c r="F148">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148">
         <v>2</v>
       </c>
       <c r="N148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O148" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P148" t="s">
         <v>265</v>
       </c>
       <c r="Q148">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="T148">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U148">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V148">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W148">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X148">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="Y148">
         <v>1.04</v>
       </c>
       <c r="Z148">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AA148">
         <v>3.1</v>
       </c>
       <c r="AB148">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="AC148">
         <v>1.07</v>
@@ -31556,67 +31556,67 @@
         <v>8</v>
       </c>
       <c r="AE148">
+        <v>1.4</v>
+      </c>
+      <c r="AF148">
+        <v>2.9</v>
+      </c>
+      <c r="AG148">
+        <v>2.2</v>
+      </c>
+      <c r="AH148">
+        <v>1.67</v>
+      </c>
+      <c r="AI148">
+        <v>1.83</v>
+      </c>
+      <c r="AJ148">
+        <v>1.83</v>
+      </c>
+      <c r="AK148">
         <v>1.38</v>
-      </c>
-      <c r="AF148">
-        <v>3</v>
-      </c>
-      <c r="AG148">
-        <v>2.08</v>
-      </c>
-      <c r="AH148">
-        <v>1.75</v>
-      </c>
-      <c r="AI148">
-        <v>1.77</v>
-      </c>
-      <c r="AJ148">
-        <v>1.9</v>
-      </c>
-      <c r="AK148">
-        <v>1.6</v>
       </c>
       <c r="AL148">
         <v>1.28</v>
       </c>
       <c r="AM148">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AN148">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP148">
-        <v>0.88</v>
+        <v>1.14</v>
       </c>
       <c r="AQ148">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="AR148">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AS148">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="AT148">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AU148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV148">
         <v>5</v>
       </c>
       <c r="AW148">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ148">
         <v>13</v>
@@ -31625,19 +31625,19 @@
         <v>5</v>
       </c>
       <c r="BB148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD148">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BE148">
         <v>8</v>
       </c>
       <c r="BF148">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BG148">
         <v>1.31</v>
@@ -31890,7 +31890,7 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45606.875</v>
+        <v>45607.6875</v>
       </c>
       <c r="F150">
         <v>14</v>
